--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunglp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Learning\java_oca\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="203">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -272,17 +272,374 @@
     <t>Main run</t>
   </si>
   <si>
-    <t>Trong 1 class, thì fields và khối khởi tạo sẽ chạy trước, rồi mới đến hàm main</t>
-  </si>
-  <si>
     <t>6. Các kiểu dữ liệu nguyên thủy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean </t>
+  </si>
+  <si>
+    <t>true or false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byte </t>
+  </si>
+  <si>
+    <t>8 bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short </t>
+  </si>
+  <si>
+    <t>16 bit</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>32 bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long </t>
+  </si>
+  <si>
+    <t>64 bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float </t>
+  </si>
+  <si>
+    <t xml:space="preserve">double </t>
+  </si>
+  <si>
+    <t xml:space="preserve">char </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được phép dùng dấu _ ngăn cách để cho dễ đọc . Ví dụ : </t>
+  </si>
+  <si>
+    <t>int million1 = 100000</t>
+  </si>
+  <si>
+    <t>int million2 = 1_000_000;</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>double notAtStart = _1000.00;</t>
+  </si>
+  <si>
+    <t>double notAtEnd = 1000.00_;</t>
+  </si>
+  <si>
+    <t>Dấu _ không được bắt đầu và kết thúc, ngay sau dấu .  Thập phân, ngay trước dấu thập phân</t>
+  </si>
+  <si>
+    <t>double beforeDot  = 1000_.00;</t>
+  </si>
+  <si>
+    <t>double afterDot = 1000._0;</t>
+  </si>
+  <si>
+    <t>Đúng:</t>
+  </si>
+  <si>
+    <t>double legal = 1_00_0.0_0;</t>
+  </si>
+  <si>
+    <t>7. Kiểu dữ liệu tham chiếu</t>
+  </si>
+  <si>
+    <t>Kiểu dl tham chiếu có thể gán cho giá trị null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểu dl nguyên thủy ko thể gán giá trị null</t>
+  </si>
+  <si>
+    <t>8. Khai báo và khởi tạo biến</t>
+  </si>
+  <si>
+    <t>boolean b1, b2</t>
+  </si>
+  <si>
+    <t>String s1 = "1", s2;</t>
+  </si>
+  <si>
+    <t>int i3, i4;</t>
+  </si>
+  <si>
+    <t>int i1; int i2;</t>
+  </si>
+  <si>
+    <t>9. Indentifiers</t>
+  </si>
+  <si>
+    <t>Quy tắc đặt tên biến, hàm, tên class</t>
+  </si>
+  <si>
+    <t>Tên bắt buộc phải bắt đầu bằng chữ cái, dấu $ hoặc _</t>
+  </si>
+  <si>
+    <t>Không được phép bắt đầu bằng chữ số tuy nhiên kí tự thứ hai có thể là số</t>
+  </si>
+  <si>
+    <t>Hợp lệ :</t>
+  </si>
+  <si>
+    <t>Không hợp lệ</t>
+  </si>
+  <si>
+    <t>okidentifier</t>
+  </si>
+  <si>
+    <t>$OK2Identifier</t>
+  </si>
+  <si>
+    <t>_alsoOK1d3ntifi3r</t>
+  </si>
+  <si>
+    <t>_ _ SStillOKbutKnotsonice$</t>
+  </si>
+  <si>
+    <t>3DPointClass</t>
+  </si>
+  <si>
+    <t>//  Không được phép bắt đầu bằng số</t>
+  </si>
+  <si>
+    <t>hollywood@vine</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>10. Giá trị khởi tạo của biến</t>
+  </si>
+  <si>
+    <t>public void findAnswer(boolean check) {</t>
+  </si>
+  <si>
+    <t>int answer;</t>
+  </si>
+  <si>
+    <t>int onlyOneBranch;</t>
+  </si>
+  <si>
+    <t>if (check) {</t>
+  </si>
+  <si>
+    <t>onlyOneBranch = 1;</t>
+  </si>
+  <si>
+    <t>answer = 1;</t>
+  </si>
+  <si>
+    <t>} else  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>answer = 2;</t>
+  </si>
+  <si>
+    <t>11. Đối tượng và biến của class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance và biến của class không yêu cầu khởi tạo vì nó có giá trị mặc định </t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Default init value</t>
+  </si>
+  <si>
+    <t>byte, short, int, long</t>
+  </si>
+  <si>
+    <t>float, double</t>
+  </si>
+  <si>
+    <t>\u0000'</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>12. Phạm vi của biến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biến local : </t>
+  </si>
+  <si>
+    <t>Trong phạm vi từ lúc khai báo đến kết thúc block</t>
+  </si>
+  <si>
+    <t>Phạm vi từ lúc khai báo cho đến khi đối tượng bị gabage thu hồi</t>
+  </si>
+  <si>
+    <t>Biến của class</t>
+  </si>
+  <si>
+    <t>Biến instance (đối tượng)</t>
+  </si>
+  <si>
+    <t>Phạm vi từ lúc khai báo cho đến khi chương trình kết thúc</t>
+  </si>
+  <si>
+    <t>13. Thứ tự phần tử trong 1 class</t>
+  </si>
+  <si>
+    <t>Trong 1 class, thì fields, rồi khối code khởi tạo sẽ chạy trước, rồi mới đến hàm main</t>
+  </si>
+  <si>
+    <t>double d1, double d2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ kinh điển, Compiler đủ thông minh để biết là giá trị của biến check có thể bằng false, do vậy giá trị onlyOneBranch là kiểu nguyên thủy do vậy sẽ báo lỗi compile </t>
+  </si>
+  <si>
+    <t>khai báo package</t>
+  </si>
+  <si>
+    <t>Đầu dòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import </t>
+  </si>
+  <si>
+    <t>Ngay sau package</t>
+  </si>
+  <si>
+    <t>Khai báo class</t>
+  </si>
+  <si>
+    <t>Ngay sau khai báo import</t>
+  </si>
+  <si>
+    <t>Khai báo biến</t>
+  </si>
+  <si>
+    <t>Bất cứ chỗ nào trong class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khai báo method </t>
+  </si>
+  <si>
+    <t>Bất cứ chỗ nào trong 1 class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule : </t>
+  </si>
+  <si>
+    <t>Trong một file thì có thể có nhiều class nhưng chỉ được phép duy nhất 1 class là "public"</t>
+  </si>
+  <si>
+    <t>public class Meerkat {}</t>
+  </si>
+  <si>
+    <t>class Paw {}</t>
+  </si>
+  <si>
+    <t>14. Destroy objects, Gabage collection</t>
+  </si>
+  <si>
+    <t>Gabage collection là cơ chế tự động giải phóng bộ nhớ trong HEAP bằng cách xóa đi objects ko còn sử dụng đến trong 1 chương trình</t>
+  </si>
+  <si>
+    <t>Tất cả các tham chiếu tới object đó đã thoát khỏi phạm vi scope</t>
+  </si>
+  <si>
+    <t>Một object được gọi là ko còn sử dụng khi 1 trong hai trường hợp sau xảy ra:</t>
+  </si>
+  <si>
+    <t>Một reference có thể hoặc không thể được khởi tạo trong HEAP</t>
+  </si>
+  <si>
+    <t>Tất cả các references đều có chung kích thước, ko quan tâm đến kiều dữ liệu nó là gì, và các reference đều được truy cập bằng tên biến</t>
+  </si>
+  <si>
+    <t>Một object luôn luôn nằm trong HEAP. Object ko có tên và chỉ được truy cập thông qua 1 referene</t>
+  </si>
+  <si>
+    <t>Một object có thể có các kích thước khác nhau tùy thuộc vào khai báo tên class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ 1: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giải thích : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sau dòng 5: </t>
+  </si>
+  <si>
+    <t>one  -&gt; "a"</t>
+  </si>
+  <si>
+    <t>two -&gt; "b"</t>
+  </si>
+  <si>
+    <t>Kết quả : Chỉ có object "a" không bị reference nào trỏ tới -&gt; object "a" là hợp lệ để xóa khỏi vùng nhớ bởi Gabagage</t>
+  </si>
+  <si>
+    <t>15. Finalize()</t>
+  </si>
+  <si>
+    <t>Tuy nhiên Java đủ thông minh để hiểu object nào là hợp lệ để xóa object để garbage collector xóa đi</t>
+  </si>
+  <si>
+    <t>Nên dù khai báo một cách tường minh thì chưa chắc là object sẽ bị xóa đi</t>
+  </si>
+  <si>
+    <t>Java cho phép gọi Garbage collector 1 cách tường minh bằng lệnh : Systemgc()</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>1. object ko còn bất kì tham chiếu nào tới nó</t>
+  </si>
+  <si>
+    <t>new Student();</t>
+  </si>
+  <si>
+    <t>2. Tham chiếu tới object bị null:</t>
+  </si>
+  <si>
+    <t>Student s = new Student();</t>
+  </si>
+  <si>
+    <t>s = null</t>
+  </si>
+  <si>
+    <t>3. Bằng cách gán một object tới một object khác, khi đó object cũ ko trỏ tới object nào cả</t>
+  </si>
+  <si>
+    <t>Student s1 = new Student();</t>
+  </si>
+  <si>
+    <t>Student s2 = new Student();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 = s2; </t>
+  </si>
+  <si>
+    <t>// s1 trỏ tới s2, do vậy s1 là hợp lệ để Gabagre collector xóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systemgc() là method sẽ xóa một object không còn được reference tới, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +660,14 @@
       <color rgb="FF231F20"/>
       <name val="SourceCodePro-Regular"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,15 +686,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,6 +712,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347869</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1250673" y="40559935"/>
+          <a:ext cx="3387587" cy="1764196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180685</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>181877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838739" y="43069564"/>
+          <a:ext cx="3858163" cy="6261313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -985,7 +1435,7 @@
         <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -1029,11 +1479,591 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="B95" t="s">
         <v>83</v>
       </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" t="s">
+        <v>96</v>
+      </c>
+      <c r="H104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="H105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="G109" t="s">
+        <v>99</v>
+      </c>
+      <c r="H109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="H110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="H111" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="H112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="G114" t="s">
+        <v>105</v>
+      </c>
+      <c r="H114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="B120" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" t="s">
+        <v>111</v>
+      </c>
+      <c r="F124" t="s">
+        <v>99</v>
+      </c>
+      <c r="G124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="C125" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="C126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="C127" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="B130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="C132" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="C133" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="D135" t="s">
+        <v>119</v>
+      </c>
+      <c r="F135" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="F136" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="F137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="F138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="D141" t="s">
+        <v>120</v>
+      </c>
+      <c r="F141" t="s">
+        <v>125</v>
+      </c>
+      <c r="H141" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="F142" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H142" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="C147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="C149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="D151" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="D152" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="D153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="E154" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="E155" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="D156" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="D157" t="s">
+        <v>137</v>
+      </c>
+      <c r="E157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="D158" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="D159" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="E164" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="C165" t="s">
+        <v>141</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="C167" t="s">
+        <v>143</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="C168" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="C169" t="s">
+        <v>95</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="C171" t="s">
+        <v>146</v>
+      </c>
+      <c r="E171" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="B175" t="s">
+        <v>149</v>
+      </c>
+      <c r="E175" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
+        <v>153</v>
+      </c>
+      <c r="E176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="B177" t="s">
+        <v>152</v>
+      </c>
+      <c r="E177" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="C181" t="s">
+        <v>159</v>
+      </c>
+      <c r="F181" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="C183" t="s">
+        <v>161</v>
+      </c>
+      <c r="F183" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="C185" t="s">
+        <v>163</v>
+      </c>
+      <c r="F185" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="C187" t="s">
+        <v>165</v>
+      </c>
+      <c r="F187" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="C189" t="s">
+        <v>167</v>
+      </c>
+      <c r="F189" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="C192" t="s">
+        <v>169</v>
+      </c>
+      <c r="D192" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="D194" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="D196" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="B200" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="B202" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="C203" t="s">
+        <v>192</v>
+      </c>
+      <c r="J203" t="s">
+        <v>191</v>
+      </c>
+      <c r="K203" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="C204" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="C206" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="D207" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="D208" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="C210" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="D212" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="D213" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="D214" t="s">
+        <v>200</v>
+      </c>
+      <c r="E214" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5">
+      <c r="B217" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5">
+      <c r="B220" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5">
+      <c r="B221" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6">
+      <c r="C235" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="236" spans="3:6">
+      <c r="D236" t="s">
+        <v>183</v>
+      </c>
+      <c r="F236" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="238" spans="3:6">
+      <c r="F238" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="B277" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="B278" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="B280" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="B281" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F142" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="298">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -137,9 +137,6 @@
     <t>import java.nio.files.Paths. *</t>
   </si>
   <si>
-    <t>Giải thích : Không thểm import methods. Chỉ được phép là tên class</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đúng: </t>
   </si>
   <si>
@@ -410,9 +407,6 @@
     <t>hollywood@vine</t>
   </si>
   <si>
-    <t>//</t>
-  </si>
-  <si>
     <t>10. Giá trị khởi tạo của biến</t>
   </si>
   <si>
@@ -443,12 +437,6 @@
     <t>answer = 2;</t>
   </si>
   <si>
-    <t>11. Đối tượng và biến của class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance và biến của class không yêu cầu khởi tạo vì nó có giá trị mặc định </t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -536,9 +524,6 @@
     <t xml:space="preserve">Rule : </t>
   </si>
   <si>
-    <t>Trong một file thì có thể có nhiều class nhưng chỉ được phép duy nhất 1 class là "public"</t>
-  </si>
-  <si>
     <t>public class Meerkat {}</t>
   </si>
   <si>
@@ -587,9 +572,6 @@
     <t>Kết quả : Chỉ có object "a" không bị reference nào trỏ tới -&gt; object "a" là hợp lệ để xóa khỏi vùng nhớ bởi Gabagage</t>
   </si>
   <si>
-    <t>15. Finalize()</t>
-  </si>
-  <si>
     <t>Tuy nhiên Java đủ thông minh để hiểu object nào là hợp lệ để xóa object để garbage collector xóa đi</t>
   </si>
   <si>
@@ -633,13 +615,316 @@
   </si>
   <si>
     <t xml:space="preserve">Systemgc() là method sẽ xóa một object không còn được reference tới, </t>
+  </si>
+  <si>
+    <t>Lưu ý ở đây * /* ferret là nội dung của comment</t>
+  </si>
+  <si>
+    <t>Giải thích : Không thể import methods. Chỉ được phép là tên class</t>
+  </si>
+  <si>
+    <t>15. Finalize() - Trang 39</t>
+  </si>
+  <si>
+    <t>16. Lợi ích của Java</t>
+  </si>
+  <si>
+    <t>Object Orientted (Hướng đối tượng)</t>
+  </si>
+  <si>
+    <t>Đóng gói</t>
+  </si>
+  <si>
+    <t>Java hỗ trợ acccess modifier để bảo vệ data từ các nguồn khác</t>
+  </si>
+  <si>
+    <t>Nền tảng độc lập</t>
+  </si>
+  <si>
+    <t>Java compile code to bytecode 1 lần duy nhất thay vì phải compile lạ cho các hệ thống khác nhau</t>
+  </si>
+  <si>
+    <t>Robust (mạnh mẽ)</t>
+  </si>
+  <si>
+    <t>Một trong tính năng Java hơn C++ là nó bảo vệ khỏi memory leaks</t>
+  </si>
+  <si>
+    <t>Java quản lý bộ nhớ và có cơ chế thu hồi tự động (gabage collector)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple (đơn giản) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure (bảo mật) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java chạy trong JVM </t>
+  </si>
+  <si>
+    <t>Java đơn giản hơn vì đã loại bỏ con trỏ và toán tử overload</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>BDE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các valid identifiers : A$B, _helloWorld, Public (Java phân biệt hoa thường) </t>
+  </si>
+  <si>
+    <t>Không được phép chứa kí tự đặc biệt như @ . # ` ! % ^ *&amp; ( ) + = - } { [</t>
+  </si>
+  <si>
+    <t>java.lang</t>
+  </si>
+  <si>
+    <t>not#Pass</t>
+  </si>
+  <si>
+    <t>// Không được phép chứa kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>AB -&gt; ABE</t>
+  </si>
+  <si>
+    <t>D -&gt; E</t>
+  </si>
+  <si>
+    <t>Lưu ý, nếu ở cùng một package thì ko cần import class, Nếu khác package thì cần import</t>
+  </si>
+  <si>
+    <t>ko trl</t>
+  </si>
+  <si>
+    <t>A E -&gt; ACDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hợp lệ : </t>
+  </si>
+  <si>
+    <t>public static void main (String[] _names)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public static void main (String abc)[] </t>
+  </si>
+  <si>
+    <t>public static void main (String _Names [])</t>
+  </si>
+  <si>
+    <t>public static void main( String … $n)</t>
+  </si>
+  <si>
+    <t>Ko hợp lệ</t>
+  </si>
+  <si>
+    <t>public static void main (String []123)</t>
+  </si>
+  <si>
+    <t>public static void main (String names)</t>
+  </si>
+  <si>
+    <t>biến kho được phép bắt đầu là số</t>
+  </si>
+  <si>
+    <t>Nếu truyền 1 tham số thì ok, Nhưng hàm main thì phải cho phép truyền nhiều tham số khi run bằng cmd  nên cách khai báo này sai</t>
+  </si>
+  <si>
+    <t>Đúng vì local var không khởi tạo giá trị mặc định, sẽ báo compile nếu ko được khai báo giá trị mặc định</t>
+  </si>
+  <si>
+    <t>ADE  -&gt; AE</t>
+  </si>
+  <si>
+    <t>Lưu ý dấu _ không được phép là kí tự đầu dòng, cuối dòng</t>
+  </si>
+  <si>
+    <t>FBC -&gt; BCD</t>
+  </si>
+  <si>
+    <t>CE -&gt; CDE</t>
+  </si>
+  <si>
+    <t>Lưu ý ở đây là khai báo class ở ngay trong 1 project, ko trong package nào OK</t>
+  </si>
+  <si>
+    <t>javac compilie .java file thành .class  file</t>
+  </si>
+  <si>
+    <t>Java dùng tên của class như là 1 tham số khi chạy bằng cmline</t>
+  </si>
+  <si>
+    <t>AD -&gt; BE</t>
+  </si>
+  <si>
+    <t>khi gọi  System.gc() Thì gabarge collector và finalizer() có thể chạy ko  chạy</t>
+  </si>
+  <si>
+    <t>AD -&gt; BD</t>
+  </si>
+  <si>
+    <t>Lưu ý 1 object là  hợp lệ khi ko còn reference nào trỏ tới nó</t>
+  </si>
+  <si>
+    <t>Bài test 1 (cuốn study guide)</t>
+  </si>
+  <si>
+    <t>Bài test 2 (Chapter 1  cuốn practice test)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A -&gt; D</t>
+  </si>
+  <si>
+    <t>DB  -&gt; B</t>
+  </si>
+  <si>
+    <t>Lưu ý system.lang và java.system ko có trong java runtime</t>
+  </si>
+  <si>
+    <t>BD -&gt; D</t>
+  </si>
+  <si>
+    <t>Trong một file thì có thể có nhiều class, nhiều interface nhưng chỉ được phép duy nhất 1 class là "public"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai </t>
+  </si>
+  <si>
+    <t>Lưu ý là trong 1 file java có thể có nhiều class, nhiều interface, nhưng chỉ được phép duy nhất 1 class là public</t>
+  </si>
+  <si>
+    <t>D -&gt; B</t>
+  </si>
+  <si>
+    <t>Lưu ý trong câu hỏi thì hàm main ko phải là static method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java command chỉ có thể run file .class </t>
+  </si>
+  <si>
+    <t>D -&gt; C</t>
+  </si>
+  <si>
+    <t>D -&gt; A</t>
+  </si>
+  <si>
+    <t>bytecode có thể dễ dàng decode và decompile được</t>
+  </si>
+  <si>
+    <t>BC -&gt; B</t>
+  </si>
+  <si>
+    <t>11. Instance và class variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance và  Class variable không yêu cầu khởi tạo vì nó có giá trị mặc định </t>
+  </si>
+  <si>
+    <t>biến mà khoonng phải biến local được gọi là instance var hoặc class variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Một class variable là một biến mà có kềm theo từ khóa static </t>
+  </si>
+  <si>
+    <t>B -&gt; C</t>
+  </si>
+  <si>
+    <t>ko hiểu</t>
+  </si>
+  <si>
+    <t>C -&gt; D</t>
+  </si>
+  <si>
+    <t>Chắc chọn nhầm</t>
+  </si>
+  <si>
+    <t>C -&gt; B</t>
+  </si>
+  <si>
+    <t>Có thể có thêm final</t>
+  </si>
+  <si>
+    <t>public static final void main(String [] arguments)</t>
+  </si>
+  <si>
+    <t>Khai báo hàm main  :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> phải là public static void main </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>Lưu ý là java.lang tự động được import vào file java</t>
+  </si>
+  <si>
+    <t>C -&gt; A</t>
+  </si>
+  <si>
+    <t>a -&gt; D</t>
+  </si>
+  <si>
+    <t>Cần phải lưu ý các câu đánh lừa các biến trùng tên trong các scope khác nhau</t>
+  </si>
+  <si>
+    <t>c -&gt; B</t>
+  </si>
+  <si>
+    <t>B -&gt; D</t>
+  </si>
+  <si>
+    <t>Lưu ý hàm main ko khai báo đúng signature</t>
+  </si>
+  <si>
+    <t>d -&gt; C</t>
+  </si>
+  <si>
+    <t>JVM cần một entry point method (chính là hàm main ) để chạy app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,25 +933,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF231F20"/>
-      <name val="SourceCodePro-Regular"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF231F20"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -688,14 +986,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,14 +1023,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347869</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -758,14 +1061,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>180685</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>181877</xdr:rowOff>
+      <xdr:colOff>114423</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>65920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1058,1009 +1361,2063 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L281"/>
+  <dimension ref="A1:L387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F290" sqref="F290"/>
+    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="C3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="E4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="F5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="F6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="F7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="E8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="F9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="F10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="F11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="F12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="C13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="E14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="E15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="E16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="D17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="D20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="E21" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="E23" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="E25" s="1" t="s">
+      <c r="G23" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E41" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E43" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E64" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F77" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E78" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E86" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E89" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="B27">
-        <v>2.1</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D98" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E99" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F100" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F102" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G103" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F104" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B108" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B109" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B110" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B111" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B112" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G122" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G127" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B131" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B137" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C138" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C139" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C140" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B143" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C145" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C146" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C147" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D148" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F149" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F150" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F151" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D154" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F155" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F156" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F157" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C160" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C162" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D164" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D165" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D166" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E168" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D169" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D170" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D171" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C172" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="2"/>
+      <c r="B175" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B176" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C179" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C181" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C182" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C183" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C185" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B189" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B190" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C195" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C197" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C199" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C201" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C203" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C206" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D208" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D210" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B214" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B216" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C217" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C218" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C220" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D221" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D222" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C224" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D226" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D227" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D228" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B231" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B232" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B234" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B235" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B237" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="249" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C249" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="250" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D250" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="252" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F252" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C286" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B291" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B292" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B295" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B298" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B300" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B302" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B304" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D305" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B307" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B309" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A311" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B312" s="3">
+        <v>1</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B313" s="3">
+        <v>2</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B314" s="3">
+        <v>3</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B315" s="3">
+        <v>4</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B316" s="3">
+        <v>5</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="3">
+        <v>6</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
+      <c r="G317" s="7"/>
+      <c r="H317" s="7"/>
+      <c r="I317" s="7"/>
+      <c r="J317" s="7"/>
+      <c r="K317" s="7"/>
+      <c r="L317" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B318" s="3">
+        <v>7</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B319" s="3">
+        <v>8</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B320" s="3">
+        <v>9</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="321" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B321" s="3">
+        <v>10</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="322" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B322" s="3">
+        <v>11</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="323" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="3">
+        <v>12</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E323" s="7"/>
+      <c r="F323" s="7"/>
+      <c r="G323" s="7"/>
+      <c r="H323" s="7"/>
+      <c r="I323" s="7"/>
+      <c r="J323" s="7"/>
+      <c r="K323" s="7"/>
+      <c r="L323" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="324" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B324" s="3">
+        <v>13</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="325" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B325" s="3">
+        <v>14</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="326" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B326" s="3">
+        <v>15</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="327" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B327" s="3">
+        <v>16</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="328" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B328" s="3">
+        <v>17</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="329" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B329" s="3">
+        <v>18</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="330" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B330" s="3">
+        <v>19</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="331" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B331" s="3">
+        <v>20</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="332" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B332" s="3">
+        <v>21</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="333" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B333" s="3">
+        <v>22</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="334" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B334" s="3">
+        <v>23</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="335" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D335" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B338" s="3">
+        <v>1</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B339" s="3">
+        <v>2</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B340" s="3">
+        <v>3</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B341" s="3">
+        <v>4</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B342" s="3">
+        <v>5</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B343" s="3">
+        <v>6</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B344" s="3">
+        <v>7</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B345" s="3">
+        <v>8</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B346" s="3">
+        <v>9</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B347" s="3">
+        <v>10</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B348" s="3">
+        <v>11</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B349" s="3">
+        <v>12</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B350" s="3">
+        <v>13</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B351" s="3">
+        <v>14</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B352" s="3">
+        <v>15</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B353" s="3">
+        <v>16</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B354" s="3">
+        <v>17</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B355" s="3">
+        <v>18</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B356" s="3">
+        <v>19</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B357" s="3">
+        <v>20</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B358" s="3">
+        <v>21</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B359" s="3">
+        <v>22</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B360" s="3">
+        <v>23</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B361" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" t="s">
+      <c r="C361" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B362" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" t="s">
+      <c r="C362" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B363" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C363" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B364" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="D32" t="s">
+      <c r="C364" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B365" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="D33" t="s">
+      <c r="C365" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B366" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
+      <c r="C366" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B367" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37">
-        <v>3.1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C367" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B368" s="3">
+        <v>31</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B369" s="3">
+        <v>32</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B370" s="3">
+        <v>33</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B371" s="3">
+        <v>34</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B372" s="3">
+        <v>35</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B373" s="3">
+        <v>36</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B374" s="3">
+        <v>37</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B375" s="3">
+        <v>38</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B376" s="3">
+        <v>39</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B377" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="D38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="E40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="E42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
+      <c r="C377" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B378" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="D48" t="s">
+      <c r="C378" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B379" s="3">
         <v>42</v>
       </c>
-      <c r="E48" t="s">
+      <c r="C379" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B380" s="3">
         <v>43</v>
       </c>
-      <c r="H48" t="s">
+      <c r="C380" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B381" s="3">
+        <v>44</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B382" s="3">
+        <v>45</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B383" s="3">
+        <v>46</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B384" s="3">
+        <v>47</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B385" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="4:8">
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8">
-      <c r="E51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8">
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8">
-      <c r="E53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8">
-      <c r="D55" t="s">
+      <c r="C385" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B386" s="3">
+        <v>49</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B387" s="3">
         <v>50</v>
       </c>
-      <c r="E55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8">
-      <c r="E57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8">
-      <c r="F58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8">
-      <c r="F59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8">
-      <c r="E60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8">
-      <c r="D62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8">
-      <c r="F63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8">
-      <c r="F64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="E65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="B67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="C68" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="F69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="F70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="C72" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="E73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="C75" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="E76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="B78">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="D85" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="E86" t="s">
-        <v>75</v>
-      </c>
-      <c r="K86" t="s">
-        <v>79</v>
-      </c>
-      <c r="L86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="F87" t="s">
-        <v>76</v>
-      </c>
-      <c r="L87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="F89" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="G90" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="F91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="B95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="B96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" t="s">
-        <v>96</v>
-      </c>
-      <c r="H104" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="H105" t="s">
+      <c r="C387" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D387" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="G109" t="s">
-        <v>99</v>
-      </c>
-      <c r="H109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="H110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="H111" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="H112" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="G114" t="s">
-        <v>105</v>
-      </c>
-      <c r="H114" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="B118" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="B124" t="s">
-        <v>50</v>
-      </c>
-      <c r="C124" t="s">
-        <v>111</v>
-      </c>
-      <c r="F124" t="s">
-        <v>99</v>
-      </c>
-      <c r="G124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="C125" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="C126" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="C127" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="B130" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="C132" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="C133" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="D135" t="s">
-        <v>119</v>
-      </c>
-      <c r="F135" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="F136" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="F137" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="F138" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="D141" t="s">
-        <v>120</v>
-      </c>
-      <c r="F141" t="s">
-        <v>125</v>
-      </c>
-      <c r="H141" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="F142" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H142" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="C147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="C149" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="D151" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="D152" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="D153" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="E154" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="E155" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="D156" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="D157" t="s">
-        <v>137</v>
-      </c>
-      <c r="E157" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="D158" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="D159" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="B163" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="E164" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="C165" t="s">
-        <v>141</v>
-      </c>
-      <c r="E165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="C167" t="s">
-        <v>143</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="C168" t="s">
-        <v>144</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="C169" t="s">
-        <v>95</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="C171" t="s">
-        <v>146</v>
-      </c>
-      <c r="E171" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="B175" t="s">
-        <v>149</v>
-      </c>
-      <c r="E175" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="B176" t="s">
-        <v>153</v>
-      </c>
-      <c r="E176" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="B177" t="s">
-        <v>152</v>
-      </c>
-      <c r="E177" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="C181" t="s">
-        <v>159</v>
-      </c>
-      <c r="F181" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="C183" t="s">
-        <v>161</v>
-      </c>
-      <c r="F183" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="C185" t="s">
-        <v>163</v>
-      </c>
-      <c r="F185" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="C187" t="s">
-        <v>165</v>
-      </c>
-      <c r="F187" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="C189" t="s">
-        <v>167</v>
-      </c>
-      <c r="F189" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="C192" t="s">
-        <v>169</v>
-      </c>
-      <c r="D192" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="D194" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="D196" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="B200" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="B202" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="C203" t="s">
-        <v>192</v>
-      </c>
-      <c r="J203" t="s">
-        <v>191</v>
-      </c>
-      <c r="K203" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="C204" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="C206" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="D207" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="D208" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5">
-      <c r="C210" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5">
-      <c r="D212" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5">
-      <c r="D213" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5">
-      <c r="D214" t="s">
-        <v>200</v>
-      </c>
-      <c r="E214" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5">
-      <c r="B217" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5">
-      <c r="B218" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5">
-      <c r="B220" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5">
-      <c r="B221" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5">
-      <c r="B223" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="235" spans="3:6">
-      <c r="C235" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="236" spans="3:6">
-      <c r="D236" t="s">
-        <v>183</v>
-      </c>
-      <c r="F236" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="238" spans="3:6">
-      <c r="F238" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="272" spans="3:3">
-      <c r="C272" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="B277" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="B278" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="B280" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="B281" t="s">
-        <v>189</v>
+      <c r="E387" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D317:K317"/>
+    <mergeCell ref="D323:K323"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F142" r:id="rId1"/>
+    <hyperlink ref="F155" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="363">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -626,9 +626,6 @@
     <t>15. Finalize() - Trang 39</t>
   </si>
   <si>
-    <t>16. Lợi ích của Java</t>
-  </si>
-  <si>
     <t>Object Orientted (Hướng đối tượng)</t>
   </si>
   <si>
@@ -791,9 +788,6 @@
     <t>AD -&gt; BE</t>
   </si>
   <si>
-    <t>khi gọi  System.gc() Thì gabarge collector và finalizer() có thể chạy ko  chạy</t>
-  </si>
-  <si>
     <t>AD -&gt; BD</t>
   </si>
   <si>
@@ -857,9 +851,6 @@
     <t xml:space="preserve">Instance và  Class variable không yêu cầu khởi tạo vì nó có giá trị mặc định </t>
   </si>
   <si>
-    <t>biến mà khoonng phải biến local được gọi là instance var hoặc class variable</t>
-  </si>
-  <si>
     <t xml:space="preserve">Một class variable là một biến mà có kềm theo từ khóa static </t>
   </si>
   <si>
@@ -918,13 +909,217 @@
   </si>
   <si>
     <t>JVM cần một entry point method (chính là hàm main ) để chạy app</t>
+  </si>
+  <si>
+    <t>Bài test 2 (Chapter 2 cuốn practice test)</t>
+  </si>
+  <si>
+    <t>khi gọi  System.gc() Thì gabarge collector và finalizer() có thể chạy  hoặc ko  chạy</t>
+  </si>
+  <si>
+    <t>Khai báo double có thể ko có f đằng sau</t>
+  </si>
+  <si>
+    <t>Khai báo float bắt buộc phải có f</t>
+  </si>
+  <si>
+    <t>A -&gt; B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cần lưu ý câu hỏi hỏi java class name </t>
+  </si>
+  <si>
+    <t>Cần lưu ý Wrapper class Integer có function toString()</t>
+  </si>
+  <si>
+    <t>A -&gt; C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý hỏi Wrapper class </t>
+  </si>
+  <si>
+    <t>B  -&gt; A</t>
+  </si>
+  <si>
+    <t>Sắp xếp theo thứ tự của các kiểu dl : byte -&gt; char -&gt; float -&gt; double</t>
+  </si>
+  <si>
+    <t>Instance variable, constructor, methods name có thể xuất hiện ở bất kì vị trí nào trong khai báo class</t>
+  </si>
+  <si>
+    <t>biến mà không phải biến local được gọi là instance var hoặc class variable</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>Lưu ý hỏi instance init chính là block code đc khai báo trong 1 class sẽ khởi chạy đầu tiên (sau khởi tạo static nếu có)</t>
+  </si>
+  <si>
+    <t>C -&gt;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghĩa là Nếu Gabargae collector ko chạy thì hàm finalize() này sẽ ko được gọi </t>
+  </si>
+  <si>
+    <t>Ngoài ra, nếu gabage collector ko chạy thì hàm này sẽ ko được gọi lại lần nữa (Tức là hàm finalizer() này có thể ko chạy, hoặc chỉ chạy tối đa 1 lần)</t>
+  </si>
+  <si>
+    <t>Giá trị mặc định của long , int, short là 0</t>
+  </si>
+  <si>
+    <t>Nên nhớ là JVM có thể ignore yêu cầu System.gc() vì nó đủ thông minh để hiểu</t>
+  </si>
+  <si>
+    <t>D -&gt;C</t>
+  </si>
+  <si>
+    <t>Thứ tự byte, short, int long</t>
+  </si>
+  <si>
+    <t>hàm parseInt() trả về một primitive, hàm valueOff() trả về Wrapper class\</t>
+  </si>
+  <si>
+    <t>Ko hiểu</t>
+  </si>
+  <si>
+    <t>B -&gt; A</t>
+  </si>
+  <si>
+    <t>Nên nhớ là garbage collector ko chạy theo yêu cầu của code, Tức là gọi System.gc() ở dòng code nào thì nó sẽ chạy chính xác ở dòng code đó. Và khi System.gc() được gọi thì hàm finalize() sẽ được gọi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỌc code kém :( </t>
+  </si>
+  <si>
+    <t>17. Lợi ích của Java</t>
+  </si>
+  <si>
+    <t>16. JVM JDK. JRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDK : </t>
+  </si>
+  <si>
+    <t>is responseible for the hardware and operating system-independencence of JavaSE platform, the smallsize  of compiled code (byte code), and platform security</t>
+  </si>
+  <si>
+    <t>18. Access modifier</t>
+  </si>
+  <si>
+    <t>public class có thể truy cập ở mọi nơi trong 1 project ( trong package, khác package)</t>
+  </si>
+  <si>
+    <t>default class thì chỉ có thể truy cập được trong nội tại package</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Định nghĩa : Access modifier điều khiển quyền truy cập của một class hoặc một interface, bao gồm cả member của nó (methods và variables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ có thể apply access modifier vào : </t>
+  </si>
+  <si>
+    <t>class, interface, class variable, methods</t>
+  </si>
+  <si>
+    <t>Phạm vi truy cập của class (chỉ có default và public)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public </t>
+  </si>
+  <si>
+    <t>Phạm vi truy cập của member (instance, class variable, methods)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class variable: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance </t>
+  </si>
+  <si>
+    <t>Mọi nơi trong package, khác package</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Không có loại này vì không thể khai báo class là protected, do vậy không thể có protected instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class variable </t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Trong package (kể cả class kế thừa, và class thường), Ngoài package không thể apply (kể cả class con kế thừa)</t>
+  </si>
+  <si>
+    <t>Chỉ có thể truy cập trong nội tại package, vì default class chỉ có thể được truy cập được trong nội tại package</t>
+  </si>
+  <si>
+    <t>Class variable</t>
+  </si>
+  <si>
+    <t>Chỉ có thể truy cập trong nội tại package</t>
+  </si>
+  <si>
+    <t>Trong package (kể cả class kế thừa, và class thường), Ngoài package (Chỉ apply được với class con kế thừa tạo instance class Cha, ko thể truy cập được biến reference/class variable của class cha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ có thể truy cập trong nội tại package </t>
+  </si>
+  <si>
+    <t xml:space="preserve">private </t>
+  </si>
+  <si>
+    <t>Chỉ có thể truy cập trong nội tại class</t>
+  </si>
+  <si>
+    <t>19. Non acccess modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 non-access modifier : </t>
+  </si>
+  <si>
+    <t>static, final, abstract</t>
+  </si>
+  <si>
+    <t>Non acccess modifier thay đổi hành vi mặc định của class và member của class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Từ khóa abstract </t>
+  </si>
+  <si>
+    <t>Chỉ có thể apply được với class, inteface, method, Không thể apply được với bất kì variable nào</t>
+  </si>
+  <si>
+    <t>Abstract class</t>
+  </si>
+  <si>
+    <t>Không thể tạo instance</t>
+  </si>
+  <si>
+    <t>Một abstract class có thể khai báo abstract method hoặc ko khai báo</t>
+  </si>
+  <si>
+    <t>Class con extend abstract class không thể khai báo abstract method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +1161,18 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -988,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -996,9 +1203,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1023,14 +1232,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1061,13 +1270,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114423</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>65920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L387"/>
+  <dimension ref="A1:Q503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D388" sqref="D388"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K365" sqref="K365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1540,64 +1749,64 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E36" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E37" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D40" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E41" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E42" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E43" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E44" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="J46" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E47" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2022,1402 +2231,2286 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>114</v>
+      <c r="B142" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C145" s="3" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C146" s="3" t="s">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C161" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C147" s="3" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C162" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D163" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F164" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F165" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F166" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D169" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F170" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F171" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D148" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F149" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F150" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F151" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F155" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F156" s="3" t="s">
+      <c r="H171" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F172" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H156" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F157" s="3" t="s">
+      <c r="H172" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H157" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C160" s="3" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C175" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C162" s="3" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C177" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D164" s="3" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D179" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D165" s="3" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D180" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D166" s="3" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D181" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E167" s="3" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E168" s="3" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D169" s="3" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D184" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D170" s="3" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D185" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E185" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D171" s="3" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D186" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C172" s="3" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C187" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
-      <c r="B175" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E178" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C179" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E179" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C181" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E181" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C182" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E182" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C183" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C185" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B189" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>146</v>
+      <c r="A189" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>147</v>
+        <v>307</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B192" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C194" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E194" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C196" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C197" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C198" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C200" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B202" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B205" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B206" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B207" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E207" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C195" s="3" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C211" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="F211" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C197" s="3" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C213" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F213" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C199" s="3" t="s">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C215" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F215" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C201" s="3" t="s">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C217" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="F217" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C203" s="3" t="s">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C219" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="F219" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C206" s="3" t="s">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C222" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D222" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D224" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D226" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B230" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B232" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C233" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C234" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C236" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D237" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D238" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C240" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D242" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D243" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D244" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B247" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B248" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B250" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B251" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B253" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="265" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C265" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="266" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D266" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="268" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F268" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C302" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B307" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B310" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B311" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B312" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B313" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B316" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B319" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B321" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B323" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B325" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D326" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B328" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B330" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B333" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B335" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="337" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B337" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C338" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="339" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C339" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="341" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B341" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="342" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C342" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="343" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D343" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="344" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D344" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="346" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C346" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="347" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D347" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E347" s="9"/>
+      <c r="F347" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G347" s="9"/>
+      <c r="H347" s="9"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="9"/>
+      <c r="K347" s="9"/>
+      <c r="L347" s="9"/>
+      <c r="M347" s="9"/>
+      <c r="N347" s="9"/>
+      <c r="O347" s="9"/>
+      <c r="P347" s="9"/>
+      <c r="Q347" s="9"/>
+    </row>
+    <row r="348" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D348" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E348" s="9"/>
+      <c r="F348" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G348" s="9"/>
+      <c r="H348" s="9"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="9"/>
+      <c r="K348" s="9"/>
+      <c r="L348" s="9"/>
+      <c r="M348" s="9"/>
+      <c r="N348" s="9"/>
+      <c r="O348" s="9"/>
+      <c r="P348" s="9"/>
+      <c r="Q348" s="9"/>
+    </row>
+    <row r="350" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C350" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="351" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D351" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="352" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D352" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C353" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D354" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D355" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D356" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="2"/>
+      <c r="B358" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="2"/>
+      <c r="B359" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="2"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="2"/>
+      <c r="C361" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="2"/>
+      <c r="D363" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="2"/>
+      <c r="F364" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="2"/>
+      <c r="F365" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="2"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="2"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="2"/>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A369" s="2"/>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A370" s="2"/>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A371" s="2"/>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A372" s="2"/>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A373" s="2"/>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A374" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B375" s="3">
+        <v>1</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L375" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B376" s="3">
+        <v>2</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L376" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B377" s="3">
+        <v>3</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L377" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B378" s="3">
+        <v>4</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L378" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B379" s="3">
+        <v>5</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L379" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="3">
+        <v>6</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E380" s="8"/>
+      <c r="F380" s="8"/>
+      <c r="G380" s="8"/>
+      <c r="H380" s="8"/>
+      <c r="I380" s="8"/>
+      <c r="J380" s="8"/>
+      <c r="K380" s="8"/>
+      <c r="L380" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B381" s="3">
+        <v>7</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L381" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B382" s="3">
+        <v>8</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L382" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B383" s="3">
+        <v>9</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L383" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B384" s="3">
+        <v>10</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L384" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B385" s="3">
+        <v>11</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L385" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="3">
+        <v>12</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E386" s="8"/>
+      <c r="F386" s="8"/>
+      <c r="G386" s="8"/>
+      <c r="H386" s="8"/>
+      <c r="I386" s="8"/>
+      <c r="J386" s="8"/>
+      <c r="K386" s="8"/>
+      <c r="L386" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B387" s="3">
+        <v>13</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L387" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B388" s="3">
+        <v>14</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L388" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B389" s="3">
+        <v>15</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L389" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B390" s="3">
+        <v>16</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L390" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B391" s="3">
+        <v>17</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L391" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B392" s="3">
+        <v>18</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L392" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B393" s="3">
+        <v>19</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L393" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B394" s="3">
+        <v>20</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L394" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B395" s="3">
+        <v>21</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L395" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B396" s="3">
+        <v>22</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L396" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B397" s="3">
+        <v>23</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L397" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D398" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B401" s="3">
+        <v>1</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B402" s="3">
+        <v>2</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B403" s="3">
+        <v>3</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B404" s="3">
+        <v>4</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B405" s="3">
+        <v>5</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B406" s="3">
+        <v>6</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B407" s="3">
+        <v>7</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B408" s="3">
+        <v>8</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B409" s="3">
+        <v>9</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E409" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D208" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D210" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B214" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B216" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C217" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J217" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K217" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C218" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C220" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D221" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D222" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C224" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D226" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D227" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D228" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B231" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B232" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B234" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B235" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B237" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C249" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D250" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F252" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C286" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B291" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B292" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B294" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B295" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B298" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B300" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B302" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B304" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D305" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B307" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B309" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A311" s="6" t="s">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B410" s="3">
+        <v>10</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B411" s="3">
+        <v>11</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B412" s="3">
+        <v>12</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B413" s="3">
+        <v>13</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B414" s="3">
+        <v>14</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B415" s="3">
+        <v>15</v>
+      </c>
+      <c r="C415" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B312" s="3">
+      <c r="D415" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B416" s="3">
+        <v>16</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B417" s="3">
+        <v>17</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B418" s="3">
+        <v>18</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B419" s="3">
+        <v>19</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B420" s="3">
+        <v>20</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B421" s="3">
+        <v>21</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B422" s="3">
+        <v>22</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B423" s="3">
+        <v>23</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B424" s="3">
+        <v>24</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B425" s="3">
+        <v>25</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B426" s="3">
+        <v>26</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B427" s="3">
+        <v>27</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B428" s="3">
+        <v>28</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B429" s="3">
+        <v>29</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B430" s="3">
+        <v>30</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B431" s="3">
+        <v>31</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B432" s="3">
+        <v>32</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B433" s="3">
+        <v>33</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B434" s="3">
+        <v>34</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B435" s="3">
+        <v>35</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B436" s="3">
+        <v>36</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B437" s="3">
+        <v>37</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B438" s="3">
+        <v>38</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B439" s="3">
+        <v>39</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B440" s="3">
+        <v>40</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B441" s="3">
+        <v>41</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B442" s="3">
+        <v>42</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B443" s="3">
+        <v>43</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B444" s="3">
+        <v>44</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B445" s="3">
+        <v>45</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B446" s="3">
+        <v>46</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B447" s="3">
+        <v>47</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B448" s="3">
+        <v>48</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B449" s="3">
+        <v>49</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B450" s="3">
+        <v>50</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B454" s="3">
         <v>1</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B313" s="3">
+      <c r="C454" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B455" s="3">
         <v>2</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L313" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B314" s="3">
+      <c r="C455" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B456" s="3">
         <v>3</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L314" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B315" s="3">
+      <c r="C456" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B457" s="3">
         <v>4</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C457" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B458" s="3">
+        <v>5</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B459" s="3">
+        <v>6</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B460" s="3">
+        <v>7</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B461" s="3">
+        <v>8</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B462" s="3">
+        <v>9</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B463" s="3">
+        <v>10</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B464" s="3">
+        <v>11</v>
+      </c>
+      <c r="C464" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L315" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B316" s="3">
-        <v>5</v>
-      </c>
-      <c r="C316" s="3" t="s">
+      <c r="D464" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B465" s="3">
+        <v>12</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="466" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B466" s="3">
+        <v>13</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="467" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B467" s="3">
+        <v>14</v>
+      </c>
+      <c r="C467" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L316" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B317" s="3">
-        <v>6</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D317" s="7" t="s">
+      <c r="D467" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B468" s="3">
+        <v>15</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="469" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B469" s="3">
+        <v>16</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="470" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B470" s="3">
+        <v>17</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B471" s="3">
+        <v>18</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="472" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B472" s="3">
+        <v>19</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E317" s="7"/>
-      <c r="F317" s="7"/>
-      <c r="G317" s="7"/>
-      <c r="H317" s="7"/>
-      <c r="I317" s="7"/>
-      <c r="J317" s="7"/>
-      <c r="K317" s="7"/>
-      <c r="L317" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B318" s="3">
-        <v>7</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L318" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B319" s="3">
-        <v>8</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L319" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B320" s="3">
-        <v>9</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L320" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="321" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B321" s="3">
-        <v>10</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L321" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="322" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B322" s="3">
-        <v>11</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L322" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="323" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B323" s="3">
-        <v>12</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D323" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E323" s="7"/>
-      <c r="F323" s="7"/>
-      <c r="G323" s="7"/>
-      <c r="H323" s="7"/>
-      <c r="I323" s="7"/>
-      <c r="J323" s="7"/>
-      <c r="K323" s="7"/>
-      <c r="L323" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="324" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B324" s="3">
-        <v>13</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L324" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="325" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B325" s="3">
-        <v>14</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L325" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="326" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B326" s="3">
-        <v>15</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L326" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="327" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B327" s="3">
-        <v>16</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L327" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="328" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B328" s="3">
-        <v>17</v>
-      </c>
-      <c r="C328" s="3" t="s">
+      <c r="D472" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B473" s="3">
+        <v>20</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B474" s="3">
+        <v>21</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="475" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B475" s="3">
+        <v>22</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B476" s="3">
+        <v>23</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="477" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B477" s="3">
+        <v>24</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B478" s="3">
+        <v>25</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B479" s="3">
+        <v>26</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B480" s="3">
+        <v>27</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B481" s="3">
+        <v>28</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B482" s="3">
+        <v>29</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B483" s="3">
+        <v>30</v>
+      </c>
+      <c r="C483" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L328" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="329" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B329" s="3">
-        <v>18</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L329" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="330" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B330" s="3">
-        <v>19</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L330" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="331" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B331" s="3">
-        <v>20</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L331" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="332" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B332" s="3">
-        <v>21</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L332" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="333" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B333" s="3">
-        <v>22</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="L333" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="334" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B334" s="3">
-        <v>23</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L334" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="335" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D335" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B338" s="3">
-        <v>1</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B339" s="3">
-        <v>2</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B340" s="3">
-        <v>3</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B341" s="3">
-        <v>4</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B342" s="3">
-        <v>5</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B343" s="3">
-        <v>6</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B344" s="3">
-        <v>7</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E344" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B345" s="3">
-        <v>8</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B346" s="3">
-        <v>9</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D346" s="3" t="s">
+      <c r="D483" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="484" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B484" s="3">
+        <v>31</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="485" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B485" s="3">
+        <v>32</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="486" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B486" s="3">
+        <v>33</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="487" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B487" s="3">
+        <v>34</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="488" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B488" s="3">
+        <v>35</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="489" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B489" s="3">
+        <v>36</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="490" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B490" s="3">
+        <v>37</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="491" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B491" s="3">
+        <v>38</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="492" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B492" s="3">
+        <v>39</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="493" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B493" s="3">
+        <v>40</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="494" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B494" s="3">
+        <v>41</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="495" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B495" s="3">
+        <v>42</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="496" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B496" s="3">
+        <v>43</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="497" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B497" s="3">
+        <v>44</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="498" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B498" s="3">
+        <v>45</v>
+      </c>
+      <c r="C498" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E346" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B347" s="3">
-        <v>10</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E347" s="3" t="s">
+      <c r="D498" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="499" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B499" s="7">
+        <v>46</v>
+      </c>
+      <c r="C499" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D499" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E499" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="500" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B500" s="3">
+        <v>47</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="501" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B501" s="3">
+        <v>48</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="502" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B502" s="3">
+        <v>49</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="503" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B503" s="3">
+        <v>50</v>
+      </c>
+      <c r="C503" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B348" s="3">
-        <v>11</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B349" s="3">
-        <v>12</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B350" s="3">
-        <v>13</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E350" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B351" s="3">
-        <v>14</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B352" s="3">
-        <v>15</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B353" s="3">
-        <v>16</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B354" s="3">
-        <v>17</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B355" s="3">
-        <v>18</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B356" s="3">
-        <v>19</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B357" s="3">
-        <v>20</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B358" s="3">
-        <v>21</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B359" s="3">
-        <v>22</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B360" s="3">
-        <v>23</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B361" s="3">
-        <v>24</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E361" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B362" s="3">
-        <v>25</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B363" s="3">
-        <v>26</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B364" s="3">
-        <v>27</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B365" s="3">
-        <v>28</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E365" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B366" s="3">
-        <v>29</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B367" s="3">
-        <v>30</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B368" s="3">
-        <v>31</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B369" s="3">
-        <v>32</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B370" s="3">
-        <v>33</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B371" s="3">
-        <v>34</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B372" s="3">
-        <v>35</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B373" s="3">
-        <v>36</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B374" s="3">
-        <v>37</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B375" s="3">
-        <v>38</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B376" s="3">
-        <v>39</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B377" s="3">
-        <v>40</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E377" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B378" s="3">
-        <v>41</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B379" s="3">
-        <v>42</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B380" s="3">
-        <v>43</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B381" s="3">
-        <v>44</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B382" s="3">
-        <v>45</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E382" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B383" s="3">
-        <v>46</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B384" s="3">
-        <v>47</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B385" s="3">
-        <v>48</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E385" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B386" s="3">
-        <v>49</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B387" s="3">
-        <v>50</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D387" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E387" s="3" t="s">
-        <v>297</v>
+      <c r="D503" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D317:K317"/>
-    <mergeCell ref="D323:K323"/>
+    <mergeCell ref="D380:K380"/>
+    <mergeCell ref="D386:K386"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F155" r:id="rId1"/>
+    <hyperlink ref="F170" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="399">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -1112,14 +1112,122 @@
     <t>Một abstract class có thể khai báo abstract method hoặc ko khai báo</t>
   </si>
   <si>
-    <t>Class con extend abstract class không thể khai báo abstract method</t>
+    <t>Một concrete class (kế thừa hoặc implement abstract method) không thể khai báo abtract method</t>
+  </si>
+  <si>
+    <t>Abstract Interface</t>
+  </si>
+  <si>
+    <t>Một interface mặc định là abstract, kể cả có khai báo thêm từ khóa abstract hay không thì vẫn compile OK</t>
+  </si>
+  <si>
+    <t>Abstract method</t>
+  </si>
+  <si>
+    <t>Chỉ xuất hiện ở Abstract class</t>
+  </si>
+  <si>
+    <t>Không có body</t>
+  </si>
+  <si>
+    <t>2. Từ khóa final</t>
+  </si>
+  <si>
+    <t>Chỉ apply được với class, variable, method</t>
+  </si>
+  <si>
+    <t>Không apply được với interface</t>
+  </si>
+  <si>
+    <t>Final Class</t>
+  </si>
+  <si>
+    <t>Không thể được phép kế thừa class khác</t>
+  </si>
+  <si>
+    <t>final Method</t>
+  </si>
+  <si>
+    <t>Không thể bị ghi đè</t>
+  </si>
+  <si>
+    <t>Final variable</t>
+  </si>
+  <si>
+    <t>Không thể thay đổi giá trị (đối với biến local, class variable)</t>
+  </si>
+  <si>
+    <t>class Person {</t>
+  </si>
+  <si>
+    <t>final StringBuilder name = new StringBuilder("Sh");</t>
+  </si>
+  <si>
+    <t>Person() {</t>
+  </si>
+  <si>
+    <t>name.append("reya");</t>
+  </si>
+  <si>
+    <t>name = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>//  OK vì có thể dùng hàm để thay đổi giá trị</t>
+  </si>
+  <si>
+    <t>// NOT OK vì không thể assign một final object sang một object khác</t>
+  </si>
+  <si>
+    <t>3. Từ khóa static</t>
+  </si>
+  <si>
+    <t>Apply được với variables, methods, class, interface</t>
+  </si>
+  <si>
+    <t>Static variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static variable đi theo class, </t>
+  </si>
+  <si>
+    <t>Static method</t>
+  </si>
+  <si>
+    <t>Non-static variable, Non-static method có thể truy cập static variable, static method</t>
+  </si>
+  <si>
+    <t>Tuy nhiên, ngược lại thì static variable, static method không thể truy cập tới non-static variable, non-static method</t>
+  </si>
+  <si>
+    <t>static class, static interface : Không đề cập đến trong phần thi OCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ cần nhớ rule là static class, static interface không thể khai báo là top-level class, top-level interface </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ : </t>
+  </si>
+  <si>
+    <t>static class Address {}</t>
+  </si>
+  <si>
+    <t>static interface MyInterface {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai: </t>
+  </si>
+  <si>
+    <t>static class Person {}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,6 +1281,29 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1195,7 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1204,10 +1335,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1570,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q503"/>
+  <dimension ref="A1:Q545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K365" sqref="K365"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L411" sqref="L411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2849,44 +2984,44 @@
       </c>
     </row>
     <row r="347" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D347" s="9" t="s">
+      <c r="D347" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E347" s="9"/>
-      <c r="F347" s="9" t="s">
+      <c r="E347" s="8"/>
+      <c r="F347" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="G347" s="9"/>
-      <c r="H347" s="9"/>
-      <c r="I347" s="9"/>
-      <c r="J347" s="9"/>
-      <c r="K347" s="9"/>
-      <c r="L347" s="9"/>
-      <c r="M347" s="9"/>
-      <c r="N347" s="9"/>
-      <c r="O347" s="9"/>
-      <c r="P347" s="9"/>
-      <c r="Q347" s="9"/>
+      <c r="G347" s="8"/>
+      <c r="H347" s="8"/>
+      <c r="I347" s="8"/>
+      <c r="J347" s="8"/>
+      <c r="K347" s="8"/>
+      <c r="L347" s="8"/>
+      <c r="M347" s="8"/>
+      <c r="N347" s="8"/>
+      <c r="O347" s="8"/>
+      <c r="P347" s="8"/>
+      <c r="Q347" s="8"/>
     </row>
     <row r="348" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D348" s="9" t="s">
+      <c r="D348" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E348" s="9"/>
-      <c r="F348" s="9" t="s">
+      <c r="E348" s="8"/>
+      <c r="F348" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G348" s="9"/>
-      <c r="H348" s="9"/>
-      <c r="I348" s="9"/>
-      <c r="J348" s="9"/>
-      <c r="K348" s="9"/>
-      <c r="L348" s="9"/>
-      <c r="M348" s="9"/>
-      <c r="N348" s="9"/>
-      <c r="O348" s="9"/>
-      <c r="P348" s="9"/>
-      <c r="Q348" s="9"/>
+      <c r="G348" s="8"/>
+      <c r="H348" s="8"/>
+      <c r="I348" s="8"/>
+      <c r="J348" s="8"/>
+      <c r="K348" s="8"/>
+      <c r="L348" s="8"/>
+      <c r="M348" s="8"/>
+      <c r="N348" s="8"/>
+      <c r="O348" s="8"/>
+      <c r="P348" s="8"/>
+      <c r="Q348" s="8"/>
     </row>
     <row r="350" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C350" s="3" t="s">
@@ -3005,922 +3140,739 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
+      <c r="D367" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D369" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F370" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C372" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A374" s="6" t="s">
+      <c r="D373" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="2"/>
+      <c r="D374" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" s="2"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376" s="2"/>
+      <c r="D376" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" s="2"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" s="2"/>
+      <c r="D378" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" s="2"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" s="2"/>
+      <c r="D380" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381" s="2"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382" s="2"/>
+      <c r="F382" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383" s="2"/>
+      <c r="G383" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384" s="2"/>
+      <c r="G384" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A385" s="2"/>
+      <c r="H385" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L385" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A386" s="2"/>
+      <c r="H386" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L386" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A387" s="2"/>
+      <c r="G387" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A388" s="2"/>
+      <c r="F388" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A389" s="2"/>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A390" s="2"/>
+      <c r="C390" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A391" s="2"/>
+      <c r="D391" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A392" s="2"/>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A393" s="2"/>
+      <c r="D393" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A394" s="2"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A395" s="2"/>
+      <c r="D395" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A396" s="2"/>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A397" s="2"/>
+      <c r="E397" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A398" s="2"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" s="2"/>
+      <c r="E399" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" s="2"/>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" s="2"/>
+      <c r="D401" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" s="2"/>
+      <c r="E402" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" s="2"/>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" s="2"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" s="2"/>
+      <c r="E405" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G405" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="H405" s="13"/>
+      <c r="I405" s="13"/>
+      <c r="J405" s="13"/>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" s="2"/>
+      <c r="G406" s="13"/>
+      <c r="H406" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I406" s="13"/>
+      <c r="J406" s="13"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" s="2"/>
+      <c r="G407" s="13"/>
+      <c r="H407" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I407" s="13"/>
+      <c r="J407" s="13"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" s="2"/>
+      <c r="G408" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H408" s="13"/>
+      <c r="I408" s="13"/>
+      <c r="J408" s="13"/>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" s="2"/>
+      <c r="G409" s="13"/>
+      <c r="H409" s="13"/>
+      <c r="I409" s="13"/>
+      <c r="J409" s="13"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" s="2"/>
+      <c r="F410" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G410" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H410" s="13"/>
+      <c r="I410" s="13"/>
+      <c r="J410" s="13"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411" s="2"/>
+      <c r="G411" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H411" s="13"/>
+      <c r="I411" s="13"/>
+      <c r="J411" s="13"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" s="2"/>
+      <c r="G412" s="11"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413" s="2"/>
+      <c r="G413" s="11"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414" s="2"/>
+      <c r="G414" s="11"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415" s="2"/>
+      <c r="G415" s="11"/>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B375" s="3">
+    <row r="417" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B417" s="3">
         <v>1</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="C417" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D375" s="3" t="s">
+      <c r="D417" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L375" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B376" s="3">
+      <c r="L417" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="418" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B418" s="3">
         <v>2</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L376" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B377" s="3">
-        <v>3</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L377" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B378" s="3">
-        <v>4</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L378" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B379" s="3">
-        <v>5</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L379" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B380" s="3">
-        <v>6</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D380" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E380" s="8"/>
-      <c r="F380" s="8"/>
-      <c r="G380" s="8"/>
-      <c r="H380" s="8"/>
-      <c r="I380" s="8"/>
-      <c r="J380" s="8"/>
-      <c r="K380" s="8"/>
-      <c r="L380" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B381" s="3">
-        <v>7</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L381" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B382" s="3">
-        <v>8</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L382" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B383" s="3">
-        <v>9</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L383" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B384" s="3">
-        <v>10</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L384" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B385" s="3">
-        <v>11</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L385" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="386" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="3">
-        <v>12</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D386" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E386" s="8"/>
-      <c r="F386" s="8"/>
-      <c r="G386" s="8"/>
-      <c r="H386" s="8"/>
-      <c r="I386" s="8"/>
-      <c r="J386" s="8"/>
-      <c r="K386" s="8"/>
-      <c r="L386" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B387" s="3">
-        <v>13</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L387" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B388" s="3">
-        <v>14</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L388" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B389" s="3">
-        <v>15</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L389" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B390" s="3">
-        <v>16</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L390" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B391" s="3">
-        <v>17</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L391" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B392" s="3">
-        <v>18</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L392" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B393" s="3">
-        <v>19</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L393" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B394" s="3">
-        <v>20</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="L394" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B395" s="3">
-        <v>21</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L395" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B396" s="3">
-        <v>22</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L396" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B397" s="3">
-        <v>23</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L397" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D398" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A400" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B401" s="3">
-        <v>1</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B402" s="3">
-        <v>2</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B403" s="3">
-        <v>3</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B404" s="3">
-        <v>4</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B405" s="3">
-        <v>5</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B406" s="3">
-        <v>6</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B407" s="3">
-        <v>7</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E407" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B408" s="3">
-        <v>8</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B409" s="3">
-        <v>9</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E409" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B410" s="3">
-        <v>10</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E410" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B411" s="3">
-        <v>11</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B412" s="3">
-        <v>12</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B413" s="3">
-        <v>13</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E413" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B414" s="3">
-        <v>14</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B415" s="3">
-        <v>15</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B416" s="3">
-        <v>16</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B417" s="3">
-        <v>17</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B418" s="3">
-        <v>18</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D418" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="L418" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B419" s="3">
+        <v>3</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B420" s="3">
+        <v>4</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B421" s="3">
+        <v>5</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="422" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="3">
+        <v>6</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D422" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E422" s="10"/>
+      <c r="F422" s="10"/>
+      <c r="G422" s="10"/>
+      <c r="H422" s="10"/>
+      <c r="I422" s="10"/>
+      <c r="J422" s="10"/>
+      <c r="K422" s="10"/>
+      <c r="L422" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="423" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B423" s="3">
+        <v>7</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="424" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B424" s="3">
+        <v>8</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L424" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="425" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B425" s="3">
+        <v>9</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L425" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="426" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B426" s="3">
+        <v>10</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B427" s="3">
+        <v>11</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="3">
+        <v>12</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D428" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E428" s="10"/>
+      <c r="F428" s="10"/>
+      <c r="G428" s="10"/>
+      <c r="H428" s="10"/>
+      <c r="I428" s="10"/>
+      <c r="J428" s="10"/>
+      <c r="K428" s="10"/>
+      <c r="L428" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B429" s="3">
+        <v>13</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="430" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B430" s="3">
+        <v>14</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L430" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="431" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B431" s="3">
+        <v>15</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="432" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B432" s="3">
+        <v>16</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L432" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B433" s="3">
+        <v>17</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L433" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B434" s="3">
+        <v>18</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L434" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B435" s="3">
         <v>19</v>
       </c>
-      <c r="C419" s="3" t="s">
+      <c r="C435" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B436" s="3">
+        <v>20</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L436" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B437" s="3">
+        <v>21</v>
+      </c>
+      <c r="C437" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D419" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B420" s="3">
-        <v>20</v>
-      </c>
-      <c r="C420" s="3" t="s">
+      <c r="L437" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B438" s="3">
+        <v>22</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B439" s="3">
+        <v>23</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L439" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D440" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B443" s="3">
+        <v>1</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B444" s="3">
+        <v>2</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B445" s="3">
+        <v>3</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B446" s="3">
+        <v>4</v>
+      </c>
+      <c r="C446" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D420" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B421" s="3">
-        <v>21</v>
-      </c>
-      <c r="C421" s="3" t="s">
+      <c r="D446" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B447" s="3">
+        <v>5</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D421" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B422" s="3">
-        <v>22</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B423" s="3">
-        <v>23</v>
-      </c>
-      <c r="C423" s="3" t="s">
+      <c r="D447" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B448" s="3">
+        <v>6</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D423" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B424" s="3">
-        <v>24</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E424" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B425" s="3">
-        <v>25</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B426" s="3">
-        <v>26</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E426" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B427" s="3">
-        <v>27</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B428" s="3">
-        <v>28</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E428" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B429" s="3">
-        <v>29</v>
-      </c>
-      <c r="C429" s="3" t="s">
+      <c r="D448" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B449" s="3">
+        <v>7</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B450" s="3">
+        <v>8</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D429" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B430" s="3">
-        <v>30</v>
-      </c>
-      <c r="C430" s="3" t="s">
+      <c r="D450" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B451" s="3">
+        <v>9</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B452" s="3">
+        <v>10</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B453" s="3">
+        <v>11</v>
+      </c>
+      <c r="C453" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D430" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B431" s="3">
-        <v>31</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B432" s="3">
-        <v>32</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B433" s="3">
-        <v>33</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B434" s="3">
-        <v>34</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B435" s="3">
-        <v>35</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B436" s="3">
-        <v>36</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B437" s="3">
-        <v>37</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B438" s="3">
-        <v>38</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B439" s="3">
-        <v>39</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B440" s="3">
-        <v>40</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E440" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B441" s="3">
-        <v>41</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B442" s="3">
-        <v>42</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B443" s="3">
-        <v>43</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B444" s="3">
-        <v>44</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B445" s="3">
-        <v>45</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E445" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B446" s="3">
-        <v>46</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B447" s="3">
-        <v>47</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B448" s="3">
-        <v>48</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E448" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B449" s="3">
-        <v>49</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B450" s="3">
-        <v>50</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E450" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A453" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D453" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B454" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>222</v>
@@ -3929,184 +3881,175 @@
         <v>49</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B455" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C455" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B456" s="3">
+        <v>14</v>
+      </c>
+      <c r="C456" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D455" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B456" s="3">
-        <v>3</v>
-      </c>
-      <c r="C456" s="3" t="s">
+      <c r="D456" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B457" s="3">
+        <v>15</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B458" s="3">
+        <v>16</v>
+      </c>
+      <c r="C458" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D456" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B457" s="3">
-        <v>4</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B458" s="3">
-        <v>5</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="D458" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E458" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B459" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E459" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B460" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B461" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E461" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B462" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B463" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B464" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B465" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E465" s="3" t="s">
-        <v>305</v>
+        <v>49</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B466" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B467" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B468" s="3">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B469" s="3">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D469" s="3" t="s">
         <v>49</v>
@@ -4114,21 +4057,24 @@
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B470" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>98</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B471" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>49</v>
@@ -4136,21 +4082,21 @@
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B472" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B473" s="3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>49</v>
@@ -4158,10 +4104,10 @@
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B474" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>49</v>
@@ -4169,21 +4115,21 @@
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B475" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B476" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>49</v>
@@ -4191,10 +4137,10 @@
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B477" s="3">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>49</v>
@@ -4202,153 +4148,159 @@
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B478" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B479" s="3">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E479" s="3" t="s">
-        <v>313</v>
+        <v>49</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B480" s="3">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B481" s="3">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C481" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B482" s="3">
+        <v>40</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B483" s="3">
+        <v>41</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B484" s="3">
+        <v>42</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B485" s="3">
+        <v>43</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B486" s="3">
+        <v>44</v>
+      </c>
+      <c r="C486" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D481" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B482" s="3">
-        <v>29</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B483" s="3">
-        <v>30</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B484" s="3">
-        <v>31</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B485" s="3">
-        <v>32</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="486" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B486" s="3">
-        <v>33</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D486" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="487" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B487" s="3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C487" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B488" s="3">
+        <v>46</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B489" s="3">
+        <v>47</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B490" s="3">
+        <v>48</v>
+      </c>
+      <c r="C490" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D487" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B488" s="3">
-        <v>35</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="489" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B489" s="3">
-        <v>36</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="490" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B490" s="3">
-        <v>37</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="D490" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="491" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B491" s="3">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>258</v>
@@ -4357,59 +4309,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B492" s="3">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B493" s="3">
-        <v>40</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B494" s="3">
-        <v>41</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E494" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B495" s="3">
-        <v>42</v>
-      </c>
-      <c r="C495" s="3" t="s">
+      <c r="E492" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B496" s="3">
+        <v>1</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="496" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B496" s="3">
-        <v>43</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>49</v>
@@ -4417,74 +4341,71 @@
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B497" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B498" s="3">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E498" s="3" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B499" s="7">
-        <v>46</v>
-      </c>
-      <c r="C499" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D499" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E499" s="7" t="s">
-        <v>318</v>
+      <c r="B499" s="3">
+        <v>4</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B500" s="3">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B501" s="3">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B502" s="3">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>49</v>
@@ -4492,22 +4413,511 @@
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B503" s="3">
+        <v>8</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="504" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B504" s="3">
+        <v>9</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="505" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B505" s="3">
+        <v>10</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="506" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B506" s="3">
+        <v>11</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="507" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B507" s="3">
+        <v>12</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="508" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B508" s="3">
+        <v>13</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="509" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B509" s="3">
+        <v>14</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="510" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B510" s="3">
+        <v>15</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="511" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B511" s="3">
+        <v>16</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="512" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B512" s="3">
+        <v>17</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B513" s="3">
+        <v>18</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B514" s="3">
+        <v>19</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B515" s="3">
+        <v>20</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B516" s="3">
+        <v>21</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B517" s="3">
+        <v>22</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B518" s="3">
+        <v>23</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="519" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B519" s="3">
+        <v>24</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B520" s="3">
+        <v>25</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B521" s="3">
+        <v>26</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B522" s="3">
+        <v>27</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B523" s="3">
+        <v>28</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B524" s="3">
+        <v>29</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B525" s="3">
+        <v>30</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B526" s="3">
+        <v>31</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B527" s="3">
+        <v>32</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B528" s="3">
+        <v>33</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B529" s="3">
+        <v>34</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="530" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B530" s="3">
+        <v>35</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="531" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B531" s="3">
+        <v>36</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B532" s="3">
+        <v>37</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="533" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B533" s="3">
+        <v>38</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B534" s="3">
+        <v>39</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B535" s="3">
+        <v>40</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B536" s="3">
+        <v>41</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B537" s="3">
+        <v>42</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B538" s="3">
+        <v>43</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B539" s="3">
+        <v>44</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B540" s="3">
+        <v>45</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="541" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B541" s="7">
+        <v>46</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D541" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E541" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="542" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B542" s="3">
+        <v>47</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="543" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B543" s="3">
+        <v>48</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="544" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B544" s="3">
+        <v>49</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="545" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B545" s="3">
         <v>50</v>
       </c>
-      <c r="C503" s="3" t="s">
+      <c r="C545" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D503" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E503" s="3" t="s">
+      <c r="D545" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E545" s="3" t="s">
         <v>321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D380:K380"/>
-    <mergeCell ref="D386:K386"/>
+    <mergeCell ref="D422:K422"/>
+    <mergeCell ref="D428:K428"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F170" r:id="rId1"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Building blocks" sheetId="1" r:id="rId1"/>
+    <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
+    <sheet name="2.Data type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hung Le Phi</author>
+  </authors>
+  <commentList>
+    <comment ref="C563" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hung Le Phi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="541">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -704,9 +739,6 @@
     <t xml:space="preserve">Các valid identifiers : A$B, _helloWorld, Public (Java phân biệt hoa thường) </t>
   </si>
   <si>
-    <t>Không được phép chứa kí tự đặc biệt như @ . # ` ! % ^ *&amp; ( ) + = - } { [</t>
-  </si>
-  <si>
     <t>java.lang</t>
   </si>
   <si>
@@ -1221,13 +1253,570 @@
   </si>
   <si>
     <t>static class Person {}</t>
+  </si>
+  <si>
+    <t>Sample test  - OCA Mala Gupta</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a, d,</t>
+  </si>
+  <si>
+    <t>b , c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ko có package default trong java.default</t>
+  </si>
+  <si>
+    <t>Lưu ý quy tắc comment , #connect ko phải là comment</t>
+  </si>
+  <si>
+    <t>Lưu ý có thể đổi vị trí public và static, Nhưng bắt buộc phải có String [] + tên biến</t>
+  </si>
+  <si>
+    <t>Lưu ý đang ở folder mycode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý là class Course ko phải package, Nên ko thể bị truy cập bởi class khác package, Kể cả đã khai báo import </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Hệ thốg số nhị phân (binary number</t>
+  </si>
+  <si>
+    <t>Chỉ dùng 2 số 0 và 1</t>
+  </si>
+  <si>
+    <t>bát phân (octal number)</t>
+  </si>
+  <si>
+    <t>Dùng các số từ 0 đến 7 (tổng là 8 chữ số)</t>
+  </si>
+  <si>
+    <t>Thập phân</t>
+  </si>
+  <si>
+    <t>Thập lục phân (hexadicimal number)</t>
+  </si>
+  <si>
+    <t>Sử dụng số từ 0 đến 9 và chữ cái từ A -F</t>
+  </si>
+  <si>
+    <t>10 là A hoặc a</t>
+  </si>
+  <si>
+    <t>11 B hoặc b</t>
+  </si>
+  <si>
+    <t>12 C hoặc c</t>
+  </si>
+  <si>
+    <t>13 D hoặc d</t>
+  </si>
+  <si>
+    <t>14 E hoặc e</t>
+  </si>
+  <si>
+    <t>15 F hoặc f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bát phân (octal) : </t>
+  </si>
+  <si>
+    <t>prefix 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhị phân (binary) </t>
+  </si>
+  <si>
+    <t>prefix 0B hoặc 0b</t>
+  </si>
+  <si>
+    <t>Thập lục phân (hexa)</t>
+  </si>
+  <si>
+    <t>prefix 0X hoặc 0x</t>
+  </si>
+  <si>
+    <t>int baseDecimal = 267;</t>
+  </si>
+  <si>
+    <t>int octVal = 0413;</t>
+  </si>
+  <si>
+    <t>int hexVal = 0x10b;</t>
+  </si>
+  <si>
+    <t>int binaryVal = 0b100001011;</t>
+  </si>
+  <si>
+    <t>baseDecimal = 100_267_760;</t>
+  </si>
+  <si>
+    <t>2. Có thể khai báo biến đối với từng loại cơ số</t>
+  </si>
+  <si>
+    <t>Không được đặt dấu _ ngay sau các prefix : 0b 0B 0x 0X</t>
+  </si>
+  <si>
+    <t>Không được đặt dấu _ ngay trước L (long value)</t>
+  </si>
+  <si>
+    <t>Không được bắt đầu và kết thúc bằng dấu _</t>
+  </si>
+  <si>
+    <t>nguyên góc</t>
+  </si>
+  <si>
+    <t>long octVal = 04_13;</t>
+  </si>
+  <si>
+    <t>long octVal = 0_413;</t>
+  </si>
+  <si>
+    <t>long hexVal = 0x10_BA_75;</t>
+  </si>
+  <si>
+    <t>long binVal = 0b1_0000_10_11;</t>
+  </si>
+  <si>
+    <t>Sai:</t>
+  </si>
+  <si>
+    <t>int intLiteral = _100</t>
+  </si>
+  <si>
+    <t>// Không được đặt dấu _ bắt đầu và kết thúc</t>
+  </si>
+  <si>
+    <t>int intLiteral2 = 100_990_;</t>
+  </si>
+  <si>
+    <t>long longLiterla = 100_L;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý : </t>
+  </si>
+  <si>
+    <t>Ví dụ này thì compile OK nhưng sẽ báo lỗi lúc RUNTIME</t>
+  </si>
+  <si>
+    <t>int var = Integer.parseInt("45_98");</t>
+  </si>
+  <si>
+    <t>long var1 = 0_100_267_760;</t>
+  </si>
+  <si>
+    <t>long var6 = 0x1_0000_10;</t>
+  </si>
+  <si>
+    <t>long var7 = 100__12_12;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không được đăt _ giữa phần cơ số :  0_x , 0_B, </t>
+  </si>
+  <si>
+    <t>// Không được đặt dấu _ giữa phần cơ số, và ngay sau cơ số</t>
+  </si>
+  <si>
+    <t>// Không được đặt _ ngay trước L</t>
+  </si>
+  <si>
+    <t>// Không được đặt dấu _ ngay sau phần cơ số</t>
+  </si>
+  <si>
+    <t>// Không được đặt _ ngay sau phần cơ số</t>
+  </si>
+  <si>
+    <t>// Phần cơ số không có kí tự G, hexadeciaml chỉ có từ A -&gt; F</t>
+  </si>
+  <si>
+    <t>long var2 = 0_x_4_13;</t>
+  </si>
+  <si>
+    <t>long var3 = 0b_x10_BA_75;</t>
+  </si>
+  <si>
+    <t>long var4 = 0b_10000_10_11;</t>
+  </si>
+  <si>
+    <t>long var5 = 0xa10_AG_75;</t>
+  </si>
+  <si>
+    <t>3. Khai báo double và float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể khai báo biến double như sau: </t>
+  </si>
+  <si>
+    <t>double inclination2 = 1.201762e2;</t>
+  </si>
+  <si>
+    <t>// Ở đây tương nhự như 120.1762</t>
+  </si>
+  <si>
+    <t>Tương tự luật khai báo biến, ko được phép đặt dấu _ ngay trước, ngay sau dấu . Thập phan</t>
+  </si>
+  <si>
+    <t>float var1 = 100._48F;</t>
+  </si>
+  <si>
+    <t>double var2 = 100_.87;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặc biệt đối với biến double và float, thì ko được đặt phép _ ngay trước F, f, D, d </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ: </t>
+  </si>
+  <si>
+    <t>float var3 = 100.48_F;</t>
+  </si>
+  <si>
+    <t>double  var4 = 100.87_d;</t>
+  </si>
+  <si>
+    <t>4. Khai báo char</t>
+  </si>
+  <si>
+    <t>Lưu ý là khai báo char bằng dấu nháy đơn</t>
+  </si>
+  <si>
+    <t>char c = 'D';</t>
+  </si>
+  <si>
+    <t>Java lưu trữ dữ liệu char dưới dạng giá trị số nguyên không dấu (số nguyên dương)</t>
+  </si>
+  <si>
+    <t>char c1 = 122;</t>
+  </si>
+  <si>
+    <t>// 122 là z</t>
+  </si>
+  <si>
+    <t>Tuy nhiên có thể khai báo cưỡng bức giá trị  số âm</t>
+  </si>
+  <si>
+    <t>char c3 = (char) -122;</t>
+  </si>
+  <si>
+    <t>Được phép thêm đơn vị tiền tệ, ở bất kì vị trí nào : ¤, $, £,
+¢, ¥</t>
+  </si>
+  <si>
+    <t>Không được phép chứa kí tự đặc biệt như !, @, #, %, ^, &amp;, *, (, ),
+', :, ;, [, /, \, }</t>
+  </si>
+  <si>
+    <t>Không được phép chứa dấu gạch ngang -</t>
+  </si>
+  <si>
+    <t>char char1 = 'a';</t>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println(char1);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(char1 + char1);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">// Khai báo thế này OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// OK </t>
+  </si>
+  <si>
+    <t>// OK , Kết quả là 194 vì giá trị ASCII value của 'a' là 94</t>
+  </si>
+  <si>
+    <t>Có thể sử dụng các toán tử đối với char, bao gồm cả ++, --</t>
+  </si>
+  <si>
+    <t>Tất cả các kiểu dữ liệu byte, short , char đều được tự động cast về int khi sử dụng các toán tử</t>
+  </si>
+  <si>
+    <t>byte age1 = 10;</t>
+  </si>
+  <si>
+    <t>byte age2 = 20;</t>
+  </si>
+  <si>
+    <t>short sum = age1 + age2;</t>
+  </si>
+  <si>
+    <t>5. Toán tử</t>
+  </si>
+  <si>
+    <t>Nếu các biến  bao gồm kiểu dl Long  giá trị sẽ được case về long</t>
+  </si>
+  <si>
+    <t>long sum = age1 + age2;</t>
+  </si>
+  <si>
+    <t>int a   = 1;</t>
+  </si>
+  <si>
+    <t>int ab = a + b;</t>
+  </si>
+  <si>
+    <t>long ab = a + b;</t>
+  </si>
+  <si>
+    <t>long b = 2L;</t>
+  </si>
+  <si>
+    <t>Nếu các biến bao gồm kiểu dl double hoặc float, Giá trị của chúng sẽ được case về kiểu double</t>
+  </si>
+  <si>
+    <t>double x = 2.0;</t>
+  </si>
+  <si>
+    <t>float y = 3.0F;</t>
+  </si>
+  <si>
+    <t>float z = x + y;</t>
+  </si>
+  <si>
+    <t>double z = x + y;</t>
+  </si>
+  <si>
+    <t>final byte age1 = 10;</t>
+  </si>
+  <si>
+    <t>final byte age2 = 20;</t>
+  </si>
+  <si>
+    <t>Tuy nhiên nếu tất cả các biến đều khai báo là final thì sẽ bỏ các rule trên, Tức là có thể case tường minh về kiểu dữ liệu lớn hơn</t>
+  </si>
+  <si>
+    <t>int sum = age1 + age2;</t>
+  </si>
+  <si>
+    <t>6. Thứ tự ưu tiên của các toán tử</t>
+  </si>
+  <si>
+    <t>7. Tạo object từ Wrapper class</t>
+  </si>
+  <si>
+    <t>Có thể tạo 1 object từ các Wrapper class theo 3 cách sau:</t>
+  </si>
+  <si>
+    <t>Gán 1 biến nguyên thủy cho 1 lớp wrapper</t>
+  </si>
+  <si>
+    <t>Sử dụng constructor của lớp Wrapper</t>
+  </si>
+  <si>
+    <t>Bằng các sử dụng method của lớp Wrapper ví dụ valueOf()</t>
+  </si>
+  <si>
+    <t>Autoboxing:</t>
+  </si>
+  <si>
+    <t>Boolean bool1 = true;</t>
+  </si>
+  <si>
+    <t>Character char1 = 'a';</t>
+  </si>
+  <si>
+    <t>Byte byte1 = 10;</t>
+  </si>
+  <si>
+    <t>Double double1 = 10.98;</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>static method valueOf</t>
+  </si>
+  <si>
+    <t>Boolean bool2 = new Boolean(true);</t>
+  </si>
+  <si>
+    <t>Character char2 = new Character('a');</t>
+  </si>
+  <si>
+    <t>Byte byte2 = new Byte((byte)10);</t>
+  </si>
+  <si>
+    <t>Double double2 = new Double(10.98);</t>
+  </si>
+  <si>
+    <t>Boolean bool3 = new Boolean("true");</t>
+  </si>
+  <si>
+    <t>Byte byte3 = new Byte("10");</t>
+  </si>
+  <si>
+    <t>Double double3 = new Double("10.98");</t>
+  </si>
+  <si>
+    <r>
+      <t>Boolean bool4 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(true);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boolean bool5 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(true);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boolean bool6 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>("TrUE");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Double double4 = Double.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(10);</t>
+    </r>
+  </si>
+  <si>
+    <t>Lưu ý: Wrapper class Character ko được phép khởi tạo constructor là String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI : </t>
+  </si>
+  <si>
+    <t>Character char3 = new Character("a");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,6 +1893,79 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Con''"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1326,7 +1988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1337,12 +1999,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1367,13 +2050,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1405,13 +2088,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114423</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>65920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1431,6 +2114,49 @@
         <a:xfrm>
           <a:off x="1838739" y="43069564"/>
           <a:ext cx="3858163" cy="6261313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>161519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>94356</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>136616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646043" y="29150649"/>
+          <a:ext cx="4964530" cy="2666945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1704,14 +2430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q545"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L411" sqref="L411"/>
+    <sheetView topLeftCell="A160" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
@@ -1719,17 +2445,17 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1737,52 +2463,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1790,42 +2516,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1833,17 +2559,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="B27" s="3">
         <v>2.1</v>
       </c>
@@ -1851,17 +2577,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="B31" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -1869,87 +2595,87 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="D32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="D33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="E36" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E36" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="E37" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="D40" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="E41" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="E42" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="E43" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="E44" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D40" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E41" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="3" t="s">
+    <row r="46" spans="2:10">
+      <c r="D46" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E44" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="J46" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="E47" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E47" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="B50" s="3">
         <v>3.1</v>
       </c>
@@ -1957,7 +2683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="D51" s="3" t="s">
         <v>31</v>
       </c>
@@ -1968,7 +2694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="E53" s="3" t="s">
         <v>35</v>
       </c>
@@ -1976,7 +2702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="E55" s="3" t="s">
         <v>36</v>
       </c>
@@ -1984,7 +2710,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="D57" s="3" t="s">
         <v>37</v>
       </c>
@@ -1992,12 +2718,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="B59" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="D61" s="3" t="s">
         <v>41</v>
       </c>
@@ -2008,7 +2734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="E62" s="3" t="s">
         <v>43</v>
       </c>
@@ -2016,22 +2742,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="E64" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6">
       <c r="F65" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6">
       <c r="E66" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6">
       <c r="D68" s="3" t="s">
         <v>49</v>
       </c>
@@ -2039,27 +2765,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6">
       <c r="E70" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6">
       <c r="F71" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6">
       <c r="F72" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6">
       <c r="E73" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6">
       <c r="D75" s="3" t="s">
         <v>49</v>
       </c>
@@ -2067,47 +2793,47 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6">
       <c r="F76" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6">
       <c r="F77" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6">
       <c r="E78" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6">
       <c r="B80" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="C81" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="F82" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="F83" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="C84" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="C85" s="3" t="s">
         <v>61</v>
       </c>
@@ -2115,12 +2841,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="E86" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="C88" s="3" t="s">
         <v>64</v>
       </c>
@@ -2128,17 +2854,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="E89" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="B91" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -2146,12 +2872,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="B94" s="3" t="s">
         <v>72</v>
       </c>
@@ -2159,12 +2885,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12">
       <c r="D98" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12">
       <c r="E99" s="3" t="s">
         <v>74</v>
       </c>
@@ -2175,7 +2901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12">
       <c r="F100" s="3" t="s">
         <v>75</v>
       </c>
@@ -2183,27 +2909,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12">
       <c r="F102" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12">
       <c r="G103" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12">
       <c r="F104" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12">
       <c r="B108" s="3" t="s">
         <v>82</v>
       </c>
@@ -2211,7 +2937,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12">
       <c r="B109" s="3" t="s">
         <v>84</v>
       </c>
@@ -2219,7 +2945,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12">
       <c r="B110" s="3" t="s">
         <v>86</v>
       </c>
@@ -2227,7 +2953,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12">
       <c r="B111" s="3" t="s">
         <v>88</v>
       </c>
@@ -2235,7 +2961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12">
       <c r="B112" s="3" t="s">
         <v>90</v>
       </c>
@@ -2243,7 +2969,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8">
       <c r="B113" s="3" t="s">
         <v>92</v>
       </c>
@@ -2251,7 +2977,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8">
       <c r="B114" s="3" t="s">
         <v>93</v>
       </c>
@@ -2259,7 +2985,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8">
       <c r="B115" s="3" t="s">
         <v>94</v>
       </c>
@@ -2267,7 +2993,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8">
       <c r="B117" s="3" t="s">
         <v>95</v>
       </c>
@@ -2275,17 +3001,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8">
       <c r="H118" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8">
       <c r="B120" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8">
       <c r="G122" s="3" t="s">
         <v>98</v>
       </c>
@@ -2293,22 +3019,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8">
       <c r="H123" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8">
       <c r="H124" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8">
       <c r="H125" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8">
       <c r="G127" s="3" t="s">
         <v>104</v>
       </c>
@@ -2316,27 +3042,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="B131" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="B133" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="B137" s="3" t="s">
         <v>49</v>
       </c>
@@ -2350,1620 +3076,1609 @@
         <v>153</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="C138" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="C139" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="C140" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="B142" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="B143" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B143" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="B158" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
+      <c r="C159" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="C160" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="C161" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C162" s="3" t="s">
+    <row r="162" spans="1:8" s="22" customFormat="1">
+      <c r="C162" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="22" customFormat="1">
+      <c r="C163" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="22" customFormat="1"/>
+    <row r="165" spans="1:8">
+      <c r="D165" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="F166" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="F167" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="F168" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="D171" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="F172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="F173" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D163" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F164" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F165" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F166" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D169" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F170" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F171" s="3" t="s">
+      <c r="H173" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="F174" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H171" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F172" s="3" t="s">
+      <c r="H174" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H172" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C175" s="3" t="s">
+    <row r="177" spans="1:5">
+      <c r="C177" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C177" s="3" t="s">
+    <row r="179" spans="1:5">
+      <c r="C179" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D179" s="3" t="s">
+    <row r="181" spans="1:5">
+      <c r="D181" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D180" s="3" t="s">
+    <row r="182" spans="1:5">
+      <c r="D182" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D181" s="3" t="s">
+    <row r="183" spans="1:5">
+      <c r="D183" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E182" s="3" t="s">
+    <row r="184" spans="1:5">
+      <c r="E184" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E183" s="3" t="s">
+    <row r="185" spans="1:5">
+      <c r="E185" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D184" s="3" t="s">
+    <row r="186" spans="1:5">
+      <c r="D186" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D185" s="3" t="s">
+    <row r="187" spans="1:5">
+      <c r="D187" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E187" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D186" s="3" t="s">
+    <row r="188" spans="1:5">
+      <c r="D188" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C187" s="3" t="s">
+    <row r="189" spans="1:5">
+      <c r="C189" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2"/>
+      <c r="B192" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="B193" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="B194" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="2"/>
-      <c r="B190" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B191" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B192" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E193" s="3" t="s">
+    <row r="195" spans="1:5">
+      <c r="E195" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C194" s="3" t="s">
+    <row r="196" spans="1:5">
+      <c r="C196" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E194" s="3" t="b">
+      <c r="E196" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C196" s="3" t="s">
+    <row r="198" spans="1:5">
+      <c r="C198" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E198" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C197" s="3" t="s">
+    <row r="199" spans="1:5">
+      <c r="C199" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E199" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C198" s="3" t="s">
+    <row r="200" spans="1:5">
+      <c r="C200" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C200" s="3" t="s">
+    <row r="202" spans="1:5">
+      <c r="C202" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E202" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B202" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+    <row r="204" spans="1:5">
+      <c r="B204" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B205" s="3" t="s">
+    <row r="207" spans="1:5">
+      <c r="B207" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E207" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B206" s="3" t="s">
+    <row r="208" spans="1:5">
+      <c r="B208" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E208" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B207" s="3" t="s">
+    <row r="209" spans="1:6">
+      <c r="B209" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E209" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+    <row r="211" spans="1:6">
+      <c r="A211" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C211" s="3" t="s">
+    <row r="213" spans="1:6">
+      <c r="C213" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="F213" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C213" s="3" t="s">
+    <row r="215" spans="1:6">
+      <c r="C215" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F213" s="3" t="s">
+      <c r="F215" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C215" s="3" t="s">
+    <row r="217" spans="1:6">
+      <c r="C217" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F217" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C217" s="3" t="s">
+    <row r="219" spans="1:6">
+      <c r="C219" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F219" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C219" s="3" t="s">
+    <row r="221" spans="1:6">
+      <c r="C221" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F221" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C222" s="3" t="s">
+    <row r="224" spans="1:6">
+      <c r="C224" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D222" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D224" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="D226" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D226" s="3" t="s">
+    <row r="228" spans="1:11">
+      <c r="D228" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+    <row r="230" spans="1:11">
+      <c r="A230" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B230" s="3" t="s">
+    <row r="232" spans="1:11">
+      <c r="B232" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B232" s="3" t="s">
+    <row r="234" spans="1:11">
+      <c r="B234" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C233" s="3" t="s">
+    <row r="235" spans="1:11">
+      <c r="C235" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="J235" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K233" s="3" t="s">
+      <c r="K235" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C234" s="3" t="s">
+    <row r="236" spans="1:11">
+      <c r="C236" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C236" s="3" t="s">
+    <row r="238" spans="1:11">
+      <c r="C238" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D237" s="3" t="s">
+    <row r="239" spans="1:11">
+      <c r="D239" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D238" s="3" t="s">
+    <row r="240" spans="1:11">
+      <c r="D240" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C240" s="3" t="s">
+    <row r="242" spans="2:5">
+      <c r="C242" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D242" s="3" t="s">
+    <row r="244" spans="2:5">
+      <c r="D244" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D243" s="3" t="s">
+    <row r="245" spans="2:5">
+      <c r="D245" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D244" s="3" t="s">
+    <row r="246" spans="2:5">
+      <c r="D246" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E246" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B247" s="3" t="s">
+    <row r="249" spans="2:5">
+      <c r="B249" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B248" s="3" t="s">
+    <row r="250" spans="2:5">
+      <c r="B250" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B250" s="3" t="s">
+    <row r="252" spans="2:5">
+      <c r="B252" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B251" s="3" t="s">
+    <row r="253" spans="2:5">
+      <c r="B253" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B253" s="3" t="s">
+    <row r="255" spans="2:5">
+      <c r="B255" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C265" s="3" t="s">
+    <row r="267" spans="3:6">
+      <c r="C267" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D266" s="3" t="s">
+    <row r="268" spans="3:6">
+      <c r="D268" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="F268" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F268" s="3" t="s">
+    <row r="270" spans="3:6">
+      <c r="F270" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C302" s="3" t="s">
+    <row r="304" spans="3:3">
+      <c r="C304" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
+    <row r="308" spans="1:3">
+      <c r="A308" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B307" s="3" t="s">
+    <row r="309" spans="1:3">
+      <c r="B309" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B308" s="3" t="s">
+    <row r="310" spans="1:3">
+      <c r="B310" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B310" s="3" t="s">
+    <row r="312" spans="1:3">
+      <c r="B312" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B311" s="3" t="s">
+    <row r="313" spans="1:3">
+      <c r="B313" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B312" s="3" t="s">
+    <row r="314" spans="1:3">
+      <c r="B314" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="B315" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B313" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
+    <row r="317" spans="1:3">
+      <c r="A317" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="B318" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B316" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C316" s="3" t="s">
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="B321" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="B323" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="B325" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="B327" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="D328" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="B330" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="B332" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B319" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B321" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B323" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B325" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D326" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B328" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B330" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+    <row r="335" spans="1:4">
+      <c r="B335" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="337" spans="2:17">
+      <c r="B337" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="339" spans="2:17">
+      <c r="B339" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="340" spans="2:17">
+      <c r="C340" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B333" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B335" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F335" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="337" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B337" s="3" t="s">
+    <row r="341" spans="2:17">
+      <c r="C341" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="343" spans="2:17">
+      <c r="B343" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="344" spans="2:17">
+      <c r="C344" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="338" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C338" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="339" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C339" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="341" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B341" s="3" t="s">
+      <c r="D344" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="345" spans="2:17">
+      <c r="D345" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="342" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C342" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D342" s="3" t="s">
+      <c r="F345" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F342" s="3" t="s">
+    </row>
+    <row r="346" spans="2:17">
+      <c r="D346" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="343" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D343" s="3" t="s">
+      <c r="F346" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="348" spans="2:17">
+      <c r="C348" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="349" spans="2:17">
+      <c r="D349" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E349" s="8"/>
+      <c r="F349" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G349" s="8"/>
+      <c r="H349" s="8"/>
+      <c r="I349" s="8"/>
+      <c r="J349" s="8"/>
+      <c r="K349" s="8"/>
+      <c r="L349" s="8"/>
+      <c r="M349" s="8"/>
+      <c r="N349" s="8"/>
+      <c r="O349" s="8"/>
+      <c r="P349" s="8"/>
+      <c r="Q349" s="8"/>
+    </row>
+    <row r="350" spans="2:17">
+      <c r="D350" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E350" s="8"/>
+      <c r="F350" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G350" s="8"/>
+      <c r="H350" s="8"/>
+      <c r="I350" s="8"/>
+      <c r="J350" s="8"/>
+      <c r="K350" s="8"/>
+      <c r="L350" s="8"/>
+      <c r="M350" s="8"/>
+      <c r="N350" s="8"/>
+      <c r="O350" s="8"/>
+      <c r="P350" s="8"/>
+      <c r="Q350" s="8"/>
+    </row>
+    <row r="352" spans="2:17">
+      <c r="C352" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D352" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F343" s="3" t="s">
+      <c r="F352" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="D353" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="D354" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="344" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D344" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F344" s="3" t="s">
+      <c r="F354" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="C355" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="D356" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="D357" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="D358" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="346" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C346" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G346" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="347" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D347" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E347" s="8"/>
-      <c r="F347" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G347" s="8"/>
-      <c r="H347" s="8"/>
-      <c r="I347" s="8"/>
-      <c r="J347" s="8"/>
-      <c r="K347" s="8"/>
-      <c r="L347" s="8"/>
-      <c r="M347" s="8"/>
-      <c r="N347" s="8"/>
-      <c r="O347" s="8"/>
-      <c r="P347" s="8"/>
-      <c r="Q347" s="8"/>
-    </row>
-    <row r="348" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D348" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E348" s="8"/>
-      <c r="F348" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G348" s="8"/>
-      <c r="H348" s="8"/>
-      <c r="I348" s="8"/>
-      <c r="J348" s="8"/>
-      <c r="K348" s="8"/>
-      <c r="L348" s="8"/>
-      <c r="M348" s="8"/>
-      <c r="N348" s="8"/>
-      <c r="O348" s="8"/>
-      <c r="P348" s="8"/>
-      <c r="Q348" s="8"/>
-    </row>
-    <row r="350" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C350" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="351" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D351" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F351" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="352" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D352" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F352" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C353" s="3" t="s">
+      <c r="F358" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D354" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F354" s="3" t="s">
+    <row r="359" spans="1:6">
+      <c r="A359" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D355" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D356" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="2" t="s">
+    <row r="360" spans="1:6">
+      <c r="A360" s="2"/>
+      <c r="B360" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="2"/>
-      <c r="B358" s="3" t="s">
+      <c r="D360" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D358" s="3" t="s">
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="2"/>
+      <c r="B361" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="2"/>
-      <c r="B359" s="3" t="s">
+    <row r="362" spans="1:6">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="2"/>
+      <c r="C363" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="2"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="2"/>
-      <c r="C361" s="3" t="s">
+      <c r="E363" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E361" s="3" t="s">
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="2"/>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2"/>
+      <c r="D365" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="2"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="2"/>
-      <c r="D363" s="3" t="s">
+      <c r="F365" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F363" s="3" t="s">
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2"/>
+      <c r="F366" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="2"/>
-      <c r="F364" s="3" t="s">
+    <row r="367" spans="1:6">
+      <c r="A367" s="2"/>
+      <c r="F367" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="2"/>
-      <c r="F365" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="2"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="2"/>
-      <c r="D367" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F367" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6">
       <c r="A368" s="2"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6">
       <c r="A369" s="2"/>
       <c r="D369" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="2"/>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="2"/>
+      <c r="D371" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F371" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F369" s="3" t="s">
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="2"/>
+      <c r="F372" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="2"/>
-      <c r="F370" s="3" t="s">
+    <row r="373" spans="1:6">
+      <c r="A373" s="2"/>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="2"/>
+      <c r="C374" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371" s="2"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A372" s="2"/>
-      <c r="C372" s="3" t="s">
+    <row r="375" spans="1:6">
+      <c r="A375" s="2"/>
+      <c r="D375" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" s="2"/>
-      <c r="D373" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A374" s="2"/>
-      <c r="D374" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A375" s="2"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6">
       <c r="A376" s="2"/>
       <c r="D376" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F376" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377" s="2"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6">
       <c r="A378" s="2"/>
       <c r="D378" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379" s="2"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6">
       <c r="A380" s="2"/>
       <c r="D380" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="2"/>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="2"/>
+      <c r="D382" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F382" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F380" s="3" t="s">
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="2"/>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="2"/>
+      <c r="F384" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A381" s="2"/>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A382" s="2"/>
-      <c r="F382" s="3" t="s">
+    <row r="385" spans="1:12">
+      <c r="A385" s="2"/>
+      <c r="G385" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A383" s="2"/>
-      <c r="G383" s="3" t="s">
+    <row r="386" spans="1:12">
+      <c r="A386" s="2"/>
+      <c r="G386" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A384" s="2"/>
-      <c r="G384" s="3" t="s">
+    <row r="387" spans="1:12">
+      <c r="A387" s="2"/>
+      <c r="H387" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A385" s="2"/>
-      <c r="H385" s="3" t="s">
+      <c r="L387" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
+      <c r="A388" s="2"/>
+      <c r="H388" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="L385" s="9" t="s">
+      <c r="L388" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A386" s="2"/>
-      <c r="H386" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="L386" s="7" t="s">
+    <row r="389" spans="1:12">
+      <c r="A389" s="2"/>
+      <c r="G389" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
+      <c r="A390" s="2"/>
+      <c r="F390" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
+      <c r="A391" s="2"/>
+    </row>
+    <row r="392" spans="1:12">
+      <c r="A392" s="2"/>
+      <c r="C392" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A387" s="2"/>
-      <c r="G387" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A388" s="2"/>
-      <c r="F388" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A389" s="2"/>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A390" s="2"/>
-      <c r="C390" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A391" s="2"/>
-      <c r="D391" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A392" s="2"/>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12">
       <c r="A393" s="2"/>
       <c r="D393" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
       <c r="A394" s="2"/>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12">
       <c r="A395" s="2"/>
       <c r="D395" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
       <c r="A396" s="2"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12">
       <c r="A397" s="2"/>
-      <c r="E397" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D397" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
       <c r="A398" s="2"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12">
       <c r="A399" s="2"/>
       <c r="E399" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
+      <c r="A400" s="2"/>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401" s="2"/>
+      <c r="E401" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402" s="2"/>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403" s="2"/>
+      <c r="D403" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A400" s="2"/>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A401" s="2"/>
-      <c r="D401" s="3" t="s">
+    <row r="404" spans="1:10">
+      <c r="A404" s="2"/>
+      <c r="E404" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A402" s="2"/>
-      <c r="E402" s="3" t="s">
+    <row r="405" spans="1:10">
+      <c r="A405" s="2"/>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="2"/>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" s="2"/>
+      <c r="E407" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A403" s="2"/>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A404" s="2"/>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A405" s="2"/>
-      <c r="E405" s="3" t="s">
+      <c r="F407" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G407" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="H407" s="12"/>
+      <c r="I407" s="12"/>
+      <c r="J407" s="12"/>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408" s="2"/>
+      <c r="G408" s="12"/>
+      <c r="H408" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="F405" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G405" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="H405" s="13"/>
-      <c r="I405" s="13"/>
-      <c r="J405" s="13"/>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A406" s="2"/>
-      <c r="G406" s="13"/>
-      <c r="H406" s="12" t="s">
+      <c r="I408" s="12"/>
+      <c r="J408" s="12"/>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" s="2"/>
+      <c r="G409" s="12"/>
+      <c r="H409" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="I406" s="13"/>
-      <c r="J406" s="13"/>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A407" s="2"/>
-      <c r="G407" s="13"/>
-      <c r="H407" s="12" t="s">
+      <c r="I409" s="12"/>
+      <c r="J409" s="12"/>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" s="2"/>
+      <c r="G410" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="I407" s="13"/>
-      <c r="J407" s="13"/>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A408" s="2"/>
-      <c r="G408" s="13" t="s">
+      <c r="H410" s="12"/>
+      <c r="I410" s="12"/>
+      <c r="J410" s="12"/>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="2"/>
+      <c r="G411" s="12"/>
+      <c r="H411" s="12"/>
+      <c r="I411" s="12"/>
+      <c r="J411" s="12"/>
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" s="2"/>
+      <c r="F412" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="H408" s="13"/>
-      <c r="I408" s="13"/>
-      <c r="J408" s="13"/>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A409" s="2"/>
-      <c r="G409" s="13"/>
-      <c r="H409" s="13"/>
-      <c r="I409" s="13"/>
-      <c r="J409" s="13"/>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A410" s="2"/>
-      <c r="F410" s="3" t="s">
+      <c r="G412" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="G410" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="H410" s="13"/>
-      <c r="I410" s="13"/>
-      <c r="J410" s="13"/>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A411" s="2"/>
-      <c r="G411" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="H411" s="13"/>
-      <c r="I411" s="13"/>
-      <c r="J411" s="13"/>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A412" s="2"/>
-      <c r="G412" s="11"/>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H412" s="12"/>
+      <c r="I412" s="12"/>
+      <c r="J412" s="12"/>
+    </row>
+    <row r="413" spans="1:10">
       <c r="A413" s="2"/>
-      <c r="G413" s="11"/>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G413" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="H413" s="12"/>
+      <c r="I413" s="12"/>
+      <c r="J413" s="12"/>
+    </row>
+    <row r="414" spans="1:10">
       <c r="A414" s="2"/>
-      <c r="G414" s="11"/>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G414" s="10"/>
+    </row>
+    <row r="415" spans="1:10">
       <c r="A415" s="2"/>
-      <c r="G415" s="11"/>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A416" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="417" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B417" s="3">
+      <c r="G415" s="10"/>
+    </row>
+    <row r="416" spans="1:10">
+      <c r="A416" s="2"/>
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="1:12">
+      <c r="A417" s="2"/>
+      <c r="G417" s="10"/>
+    </row>
+    <row r="418" spans="1:12">
+      <c r="A418" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
+      <c r="B419" s="3">
         <v>1</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C419" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
+      <c r="B420" s="3">
+        <v>2</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
+      <c r="B421" s="3">
+        <v>3</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
+      <c r="B422" s="3">
+        <v>4</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
+      <c r="B423" s="3">
+        <v>5</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" ht="42" customHeight="1">
+      <c r="B424" s="3">
+        <v>6</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D417" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L417" s="3" t="s">
+      <c r="D424" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+      <c r="G424" s="13"/>
+      <c r="H424" s="13"/>
+      <c r="I424" s="13"/>
+      <c r="J424" s="13"/>
+      <c r="K424" s="13"/>
+      <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="418" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B418" s="3">
-        <v>2</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L418" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="419" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B419" s="3">
-        <v>3</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L419" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="420" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B420" s="3">
-        <v>4</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L420" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="421" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B421" s="3">
-        <v>5</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L421" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="422" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B422" s="3">
-        <v>6</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D422" s="10" t="s">
+    <row r="425" spans="1:12">
+      <c r="B425" s="3">
+        <v>7</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E422" s="10"/>
-      <c r="F422" s="10"/>
-      <c r="G422" s="10"/>
-      <c r="H422" s="10"/>
-      <c r="I422" s="10"/>
-      <c r="J422" s="10"/>
-      <c r="K422" s="10"/>
-      <c r="L422" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="423" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B423" s="3">
-        <v>7</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L423" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="424" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B424" s="3">
-        <v>8</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L424" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="425" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B425" s="3">
-        <v>9</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="L425" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="426" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12">
       <c r="B426" s="3">
+        <v>8</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="B427" s="3">
+        <v>9</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="B428" s="3">
         <v>10</v>
       </c>
-      <c r="C426" s="3" t="s">
+      <c r="C428" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L426" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="427" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B427" s="3">
+      <c r="L428" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="B429" s="3">
         <v>11</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="C429" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L427" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="428" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B428" s="3">
+      <c r="L429" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" ht="39.75" customHeight="1">
+      <c r="B430" s="3">
         <v>12</v>
       </c>
-      <c r="C428" s="3" t="s">
+      <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D428" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E428" s="10"/>
-      <c r="F428" s="10"/>
-      <c r="G428" s="10"/>
-      <c r="H428" s="10"/>
-      <c r="I428" s="10"/>
-      <c r="J428" s="10"/>
-      <c r="K428" s="10"/>
-      <c r="L428" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="429" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B429" s="3">
+      <c r="D430" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+      <c r="G430" s="13"/>
+      <c r="H430" s="13"/>
+      <c r="I430" s="13"/>
+      <c r="J430" s="13"/>
+      <c r="K430" s="13"/>
+      <c r="L430" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="B431" s="3">
         <v>13</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C431" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="L429" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="430" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B430" s="3">
+      <c r="L431" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="B432" s="3">
         <v>14</v>
       </c>
-      <c r="C430" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L430" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="431" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B431" s="3">
-        <v>15</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L431" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="432" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B432" s="3">
-        <v>16</v>
-      </c>
       <c r="C432" s="3" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L432" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12">
       <c r="B433" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>221</v>
+        <v>245</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="L433" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
       <c r="B434" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L434" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12">
       <c r="B435" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="L435" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
       <c r="B436" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="L436" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12">
       <c r="B437" s="3">
+        <v>19</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L437" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="B438" s="3">
+        <v>20</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="B439" s="3">
         <v>21</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C439" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L437" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B438" s="3">
+      <c r="L439" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="B440" s="3">
         <v>22</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C440" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L438" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B439" s="3">
+      <c r="L440" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="B441" s="3">
         <v>23</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C441" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D439" s="3" t="s">
+      <c r="D441" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="D442" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L439" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D440" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A442" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B443" s="3">
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="B445" s="3">
         <v>1</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B444" s="3">
-        <v>2</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B445" s="3">
-        <v>3</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>258</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
       <c r="B446" s="3">
+        <v>2</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="B447" s="3">
+        <v>3</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="B448" s="3">
         <v>4</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B447" s="3">
-        <v>5</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B448" s="3">
-        <v>6</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5">
       <c r="B449" s="3">
+        <v>5</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5">
+      <c r="B450" s="3">
+        <v>6</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5">
+      <c r="B451" s="3">
         <v>7</v>
       </c>
-      <c r="C449" s="3" t="s">
+      <c r="C451" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E451" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D449" s="3" t="s">
+    </row>
+    <row r="452" spans="2:5">
+      <c r="B452" s="3">
+        <v>8</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5">
+      <c r="B453" s="3">
+        <v>9</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5">
+      <c r="B454" s="3">
+        <v>10</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D454" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E449" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B450" s="3">
-        <v>8</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B451" s="3">
-        <v>9</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E451" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B452" s="3">
-        <v>10</v>
-      </c>
-      <c r="C452" s="3" t="s">
+      <c r="E454" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D452" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E452" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B453" s="3">
+    </row>
+    <row r="455" spans="2:5">
+      <c r="B455" s="3">
         <v>11</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="C455" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D453" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B454" s="3">
+      <c r="D455" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5">
+      <c r="B456" s="3">
         <v>12</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C456" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D454" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B455" s="3">
+      <c r="D456" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5">
+      <c r="B457" s="3">
         <v>13</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E455" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B456" s="3">
-        <v>14</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B457" s="3">
-        <v>15</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>258</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5">
       <c r="B458" s="3">
+        <v>14</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5">
+      <c r="B459" s="3">
+        <v>15</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5">
+      <c r="B460" s="3">
         <v>16</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="C460" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D458" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B459" s="3">
+      <c r="D460" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5">
+      <c r="B461" s="3">
         <v>17</v>
       </c>
-      <c r="C459" s="3" t="s">
+      <c r="C461" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D459" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B460" s="3">
+      <c r="D461" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5">
+      <c r="B462" s="3">
         <v>18</v>
-      </c>
-      <c r="C460" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B461" s="3">
-        <v>19</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B462" s="3">
-        <v>20</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>213</v>
@@ -3972,161 +4687,161 @@
         <v>49</v>
       </c>
     </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:5">
       <c r="B463" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D463" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5">
+      <c r="B464" s="3">
+        <v>20</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5">
+      <c r="B465" s="3">
+        <v>21</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D465" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B464" s="3">
+    <row r="466" spans="2:5">
+      <c r="B466" s="3">
         <v>22</v>
       </c>
-      <c r="C464" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B465" s="3">
-        <v>23</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B466" s="3">
-        <v>24</v>
-      </c>
       <c r="C466" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E466" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="2:5">
       <c r="B467" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5">
       <c r="B468" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="469" spans="2:5">
       <c r="B469" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="470" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="470" spans="2:5">
       <c r="B470" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5">
       <c r="B471" s="3">
+        <v>27</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="472" spans="2:5">
+      <c r="B472" s="3">
+        <v>28</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5">
+      <c r="B473" s="3">
         <v>29</v>
       </c>
-      <c r="C471" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B472" s="3">
+      <c r="C473" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5">
+      <c r="B474" s="3">
         <v>30</v>
       </c>
-      <c r="C472" s="3" t="s">
+      <c r="C474" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D472" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="473" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B473" s="3">
+      <c r="D474" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="475" spans="2:5">
+      <c r="B475" s="3">
         <v>31</v>
       </c>
-      <c r="C473" s="3" t="s">
+      <c r="C475" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D473" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B474" s="3">
+      <c r="D475" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5">
+      <c r="B476" s="3">
         <v>32</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="475" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B475" s="3">
-        <v>33</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B476" s="3">
-        <v>34</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>213</v>
@@ -4135,795 +4850,1946 @@
         <v>49</v>
       </c>
     </row>
-    <row r="477" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:5">
       <c r="B477" s="3">
+        <v>33</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5">
+      <c r="B478" s="3">
+        <v>34</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5">
+      <c r="B479" s="3">
         <v>35</v>
       </c>
-      <c r="C477" s="3" t="s">
+      <c r="C479" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D477" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B478" s="3">
+      <c r="D479" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5">
+      <c r="B480" s="3">
         <v>36</v>
       </c>
-      <c r="C478" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D478" s="3" t="s">
+      <c r="C480" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D480" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B479" s="3">
+    <row r="481" spans="2:5">
+      <c r="B481" s="3">
         <v>37</v>
       </c>
-      <c r="C479" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="480" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B480" s="3">
+      <c r="C481" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="482" spans="2:5">
+      <c r="B482" s="3">
         <v>38</v>
       </c>
-      <c r="C480" s="3" t="s">
+      <c r="C482" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D480" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B481" s="3">
+      <c r="D482" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="2:5">
+      <c r="B483" s="3">
         <v>39</v>
       </c>
-      <c r="C481" s="3" t="s">
+      <c r="C483" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D481" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B482" s="3">
+      <c r="D483" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="484" spans="2:5">
+      <c r="B484" s="3">
         <v>40</v>
       </c>
-      <c r="C482" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E482" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B483" s="3">
-        <v>41</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B484" s="3">
-        <v>42</v>
-      </c>
       <c r="C484" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E484" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="485" spans="2:5">
       <c r="B485" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:5">
       <c r="B486" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="487" spans="2:5">
       <c r="B487" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E487" s="3" t="s">
+    </row>
+    <row r="488" spans="2:5">
+      <c r="B488" s="3">
+        <v>44</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="489" spans="2:5">
+      <c r="B489" s="3">
+        <v>45</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="490" spans="2:5">
+      <c r="B490" s="3">
+        <v>46</v>
+      </c>
+      <c r="C490" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B488" s="3">
-        <v>46</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B489" s="3">
-        <v>47</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B490" s="3">
-        <v>48</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E490" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="2:5">
       <c r="B491" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:5">
       <c r="B492" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E492" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="493" spans="2:5">
+      <c r="B493" s="3">
+        <v>49</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="494" spans="2:5">
+      <c r="B494" s="3">
+        <v>50</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A495" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B496" s="3">
+    <row r="498" spans="1:5">
+      <c r="B498" s="3">
         <v>1</v>
       </c>
-      <c r="C496" s="3" t="s">
+      <c r="C498" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D496" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="497" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B497" s="3">
+      <c r="D498" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="B499" s="3">
         <v>2</v>
       </c>
-      <c r="C497" s="3" t="s">
+      <c r="C499" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D497" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="498" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B498" s="3">
+      <c r="D499" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="B500" s="3">
         <v>3</v>
       </c>
-      <c r="C498" s="3" t="s">
+      <c r="C500" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D498" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="499" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B499" s="3">
+      <c r="D500" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="B501" s="3">
         <v>4</v>
       </c>
-      <c r="C499" s="3" t="s">
+      <c r="C501" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D499" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="500" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B500" s="3">
+      <c r="D501" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="B502" s="3">
         <v>5</v>
       </c>
-      <c r="C500" s="3" t="s">
+      <c r="C502" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E502" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D500" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="501" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B501" s="3">
+    </row>
+    <row r="503" spans="1:5">
+      <c r="B503" s="3">
         <v>6</v>
       </c>
-      <c r="C501" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="502" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B502" s="3">
-        <v>7</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="503" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B503" s="3">
-        <v>8</v>
-      </c>
       <c r="C503" s="3" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D503" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E503" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="B504" s="3">
+        <v>7</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="B505" s="3">
+        <v>8</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="B506" s="3">
+        <v>9</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="B507" s="3">
+        <v>10</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="B508" s="3">
+        <v>11</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="B509" s="3">
+        <v>12</v>
+      </c>
+      <c r="C509" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="504" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B504" s="3">
-        <v>9</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="505" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B505" s="3">
-        <v>10</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="506" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B506" s="3">
-        <v>11</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="507" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B507" s="3">
-        <v>12</v>
-      </c>
-      <c r="C507" s="3" t="s">
+      <c r="D509" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E509" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D507" s="3" t="s">
+    </row>
+    <row r="510" spans="1:5">
+      <c r="B510" s="3">
+        <v>13</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D510" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E507" s="3" t="s">
+      <c r="E510" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="508" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B508" s="3">
-        <v>13</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="509" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B509" s="3">
+    <row r="511" spans="1:5">
+      <c r="B511" s="3">
         <v>14</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="C511" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D509" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="510" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B510" s="3">
+      <c r="D511" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="B512" s="3">
         <v>15</v>
       </c>
-      <c r="C510" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D510" s="3" t="s">
+      <c r="C512" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E512" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E510" s="3" t="s">
+    </row>
+    <row r="513" spans="2:5">
+      <c r="B513" s="3">
+        <v>16</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5">
+      <c r="B514" s="3">
+        <v>17</v>
+      </c>
+      <c r="C514" s="3" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="511" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B511" s="3">
-        <v>16</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D511" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="512" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B512" s="3">
-        <v>17</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D512" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="513" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B513" s="3">
-        <v>18</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D513" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="514" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B514" s="3">
-        <v>19</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D514" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="515" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:5">
       <c r="B515" s="3">
+        <v>18</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5">
+      <c r="B516" s="3">
+        <v>19</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5">
+      <c r="B517" s="3">
         <v>20</v>
       </c>
-      <c r="C515" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D515" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="516" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B516" s="3">
+      <c r="C517" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5">
+      <c r="B518" s="3">
         <v>21</v>
       </c>
-      <c r="C516" s="3" t="s">
+      <c r="C518" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D516" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="517" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B517" s="3">
+      <c r="D518" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="519" spans="2:5">
+      <c r="B519" s="3">
         <v>22</v>
       </c>
-      <c r="C517" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D517" s="3" t="s">
+      <c r="C519" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D519" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="518" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B518" s="3">
+    <row r="520" spans="2:5">
+      <c r="B520" s="3">
         <v>23</v>
       </c>
-      <c r="C518" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="519" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B519" s="3">
+      <c r="C520" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5">
+      <c r="B521" s="3">
         <v>24</v>
       </c>
-      <c r="C519" s="3" t="s">
+      <c r="C521" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D519" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="520" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B520" s="3">
+      <c r="D521" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5">
+      <c r="B522" s="3">
         <v>25</v>
       </c>
-      <c r="C520" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D520" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="521" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B521" s="3">
+      <c r="C522" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5">
+      <c r="B523" s="3">
         <v>26</v>
       </c>
-      <c r="C521" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D521" s="3" t="s">
+      <c r="C523" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D523" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E521" s="3" t="s">
+      <c r="E523" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5">
+      <c r="B524" s="3">
+        <v>27</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5">
+      <c r="B525" s="3">
+        <v>28</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5">
+      <c r="B526" s="3">
+        <v>29</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5">
+      <c r="B527" s="3">
+        <v>30</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5">
+      <c r="B528" s="3">
+        <v>31</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5">
+      <c r="B529" s="3">
+        <v>32</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="530" spans="2:5">
+      <c r="B530" s="3">
+        <v>33</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="531" spans="2:5">
+      <c r="B531" s="3">
+        <v>34</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D531" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="522" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B522" s="3">
-        <v>27</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D522" s="3" t="s">
+    <row r="532" spans="2:5">
+      <c r="B532" s="3">
+        <v>35</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D532" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="523" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B523" s="3">
-        <v>28</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="524" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B524" s="3">
-        <v>29</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D524" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="525" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B525" s="3">
-        <v>30</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="526" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B526" s="3">
-        <v>31</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="527" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B527" s="3">
-        <v>32</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="528" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B528" s="3">
-        <v>33</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="529" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B529" s="3">
-        <v>34</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="530" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B530" s="3">
-        <v>35</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D530" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="531" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B531" s="3">
+    <row r="533" spans="2:5">
+      <c r="B533" s="3">
         <v>36</v>
       </c>
-      <c r="C531" s="3" t="s">
+      <c r="C533" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D531" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="532" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B532" s="3">
+      <c r="D533" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5">
+      <c r="B534" s="3">
         <v>37</v>
       </c>
-      <c r="C532" s="3" t="s">
+      <c r="C534" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D532" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="533" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B533" s="3">
+      <c r="D534" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5">
+      <c r="B535" s="3">
         <v>38</v>
       </c>
-      <c r="C533" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D533" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="534" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B534" s="3">
+      <c r="C535" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5">
+      <c r="B536" s="3">
         <v>39</v>
       </c>
-      <c r="C534" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D534" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="535" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B535" s="3">
-        <v>40</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D535" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="536" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B536" s="3">
-        <v>41</v>
-      </c>
       <c r="C536" s="3" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E536" s="3" t="s">
+    </row>
+    <row r="537" spans="2:5">
+      <c r="B537" s="3">
+        <v>40</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5">
+      <c r="B538" s="3">
+        <v>41</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5">
+      <c r="B539" s="3">
+        <v>42</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5">
+      <c r="B540" s="3">
+        <v>43</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="541" spans="2:5">
+      <c r="B541" s="3">
+        <v>44</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="542" spans="2:5">
+      <c r="B542" s="3">
+        <v>45</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E542" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="537" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B537" s="3">
-        <v>42</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D537" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="538" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B538" s="3">
-        <v>43</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D538" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="539" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B539" s="3">
-        <v>44</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D539" s="3" t="s">
+    <row r="543" spans="2:5">
+      <c r="B543" s="7">
+        <v>46</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D543" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="540" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B540" s="3">
-        <v>45</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D540" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E540" s="3" t="s">
+      <c r="E543" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="541" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B541" s="7">
-        <v>46</v>
-      </c>
-      <c r="C541" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D541" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E541" s="7" t="s">
+    <row r="544" spans="2:5">
+      <c r="B544" s="3">
+        <v>47</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="B545" s="3">
+        <v>48</v>
+      </c>
+      <c r="C545" s="3" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="542" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B542" s="3">
-        <v>47</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D542" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="543" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B543" s="3">
-        <v>48</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D543" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E543" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="544" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B544" s="3">
-        <v>49</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D544" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="545" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B545" s="3">
-        <v>50</v>
-      </c>
-      <c r="C545" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D545" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="B546" s="3">
+        <v>49</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="B547" s="3">
+        <v>50</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="B551" s="3">
+        <v>1</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="B552" s="3">
+        <v>2</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="B553" s="3">
+        <v>3</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="B554" s="3">
+        <v>4</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="B555" s="3">
+        <v>5</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="B556" s="3">
+        <v>6</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="B557" s="3">
+        <v>7</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="B558" s="3">
+        <v>8</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="B559" s="3">
+        <v>9</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="B560" s="3">
+        <v>10</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4">
+      <c r="B561" s="3">
+        <v>11</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D422:K422"/>
-    <mergeCell ref="D428:K428"/>
+    <mergeCell ref="D424:K424"/>
+    <mergeCell ref="D430:K430"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F170" r:id="rId1"/>
+    <hyperlink ref="F172" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L195"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="F17" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="F18" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="F19" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="F20" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="E38" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="G39" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="G40" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="G41" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="E43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="G44" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="G45" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="G46" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="G47" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="G48" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="4:11">
+      <c r="G49" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="4:11">
+      <c r="G50" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="53" spans="4:11">
+      <c r="E53" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11">
+      <c r="G54" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11">
+      <c r="G55" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11">
+      <c r="G56" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11">
+      <c r="G57" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11">
+      <c r="G58" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11">
+      <c r="G59" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11">
+      <c r="D61" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11">
+      <c r="F63" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="K69" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="C73" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="D74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="F75" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="B77" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="C79" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="D80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="F81" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="D87" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="D91" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="D95" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="B97" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="C99" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="I99" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="D100" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="I100" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="D101" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="B104" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="C106" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="D107" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="J107" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="D108" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="J108" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="D109" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="J109" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="B111" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="C113" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113"/>
+      <c r="I113" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="D114" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="D115" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="D116" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="C120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="D121" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="D122" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="D123" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="J123" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="C127" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="C128" s="19"/>
+      <c r="D128" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="C129" s="19"/>
+      <c r="D129" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="C130" s="19"/>
+      <c r="D130" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="D132" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="D133" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="D134" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="D136" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="D137" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="D138" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+    </row>
+    <row r="140" spans="1:8" s="2" customFormat="1">
+      <c r="A140" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="B158" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="C160" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="162" spans="3:11">
+      <c r="C162" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="164" spans="3:11">
+      <c r="C164" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="167" spans="3:11">
+      <c r="C167" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="168" spans="3:11">
+      <c r="D168" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="E168" s="19"/>
+      <c r="F168" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+    </row>
+    <row r="169" spans="3:11">
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+    </row>
+    <row r="170" spans="3:11">
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
+    </row>
+    <row r="171" spans="3:11">
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
+    </row>
+    <row r="172" spans="3:11">
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="19"/>
+    </row>
+    <row r="173" spans="3:11">
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+    </row>
+    <row r="174" spans="3:11">
+      <c r="D174" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+    </row>
+    <row r="175" spans="3:11">
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="19"/>
+    </row>
+    <row r="176" spans="3:11">
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="19"/>
+    </row>
+    <row r="177" spans="4:11">
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
+    </row>
+    <row r="178" spans="4:11">
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
+    </row>
+    <row r="179" spans="4:11">
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
+    </row>
+    <row r="180" spans="4:11">
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+    </row>
+    <row r="181" spans="4:11">
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
+    </row>
+    <row r="182" spans="4:11">
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="19"/>
+    </row>
+    <row r="183" spans="4:11">
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+    </row>
+    <row r="184" spans="4:11">
+      <c r="D184" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
+    </row>
+    <row r="185" spans="4:11">
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+    </row>
+    <row r="186" spans="4:11">
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+    </row>
+    <row r="187" spans="4:11">
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+    </row>
+    <row r="188" spans="4:11">
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="19"/>
+    </row>
+    <row r="189" spans="4:11">
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="19"/>
+    </row>
+    <row r="190" spans="4:11">
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+    </row>
+    <row r="193" spans="2:9">
+      <c r="B193" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9">
+      <c r="D195" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="689">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -1294,16 +1294,10 @@
     <t>long</t>
   </si>
   <si>
-    <t>Hệ thốg số nhị phân (binary number</t>
-  </si>
-  <si>
     <t>Chỉ dùng 2 số 0 và 1</t>
   </si>
   <si>
     <t>bát phân (octal number)</t>
-  </si>
-  <si>
-    <t>Dùng các số từ 0 đến 7 (tổng là 8 chữ số)</t>
   </si>
   <si>
     <t>Thập phân</t>
@@ -1811,12 +1805,696 @@
   <si>
     <t>Character char3 = new Character("a");</t>
   </si>
+  <si>
+    <t>Các chữ số từ 0 đến 9</t>
+  </si>
+  <si>
+    <t>nhị phân (binary number</t>
+  </si>
+  <si>
+    <t>Hệ thống cơ số</t>
+  </si>
+  <si>
+    <t>8. So sánh object của lớp Wrapper</t>
+  </si>
+  <si>
+    <t>So sánh về giá trị của 2 object của lớp Wrapper class  sử dụng phương thức equals()</t>
+  </si>
+  <si>
+    <t>So sánh về địa chỉ reference của 2 object sử dụng toán tử ==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu 2 Wrapper class có kiểu dl khác nhau thì phương thức equals () vẫn thực hiện so sánh giá trị được, Nhưng toán tử == không thể compile </t>
+  </si>
+  <si>
+    <t>Integer o1 = 100;</t>
+  </si>
+  <si>
+    <t>Short o2 = 100;</t>
+  </si>
+  <si>
+    <t>o1.equals(o2)</t>
+  </si>
+  <si>
+    <t>// Output false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o1 == o2 </t>
+  </si>
+  <si>
+    <t>// Ko compile</t>
+  </si>
+  <si>
+    <t>Wrapper class là immutable, Thêm 1 giá trị primitive vào 1 wrapper class không thay đổi giá trị của object nó refer tới, Wrapper class thực hiện gán sang một object mới</t>
+  </si>
+  <si>
+    <t>Double total = 0.0;</t>
+  </si>
+  <si>
+    <t>double value1 = 1.0;</t>
+  </si>
+  <si>
+    <t>total += value1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thực sự chạy như sau: </t>
+  </si>
+  <si>
+    <t>doubel value1 = 1.0;</t>
+  </si>
+  <si>
+    <t>total = total.doubleValue() + value1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi truyền giá trị null cho object của lớp Wrapper, thì obj sẽ gọi hàm intValue() để thực hiện toán tử . Do đó sẽ báo lỗi NullPointerException </t>
+  </si>
+  <si>
+    <t>public static int increment(Integer obj){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return ++obj;</t>
+  </si>
+  <si>
+    <t>public static void main(String [] args ){</t>
+  </si>
+  <si>
+    <t>System.out.print(increment(null));</t>
+  </si>
+  <si>
+    <t>// Throw null pointer Exception</t>
+  </si>
+  <si>
+    <t>// Vì obj.intValue() mà obj = null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dùng các số từ 0 đến 7 </t>
+  </si>
+  <si>
+    <t>9. Khai báo BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khai báo hợp lệ : </t>
+  </si>
+  <si>
+    <t>boolean b = new Boolean("yes");</t>
+  </si>
+  <si>
+    <t>boolean b2 = new Boolean("no");</t>
+  </si>
+  <si>
+    <t>Boolean b3 = new Boolean("TRUE");</t>
+  </si>
+  <si>
+    <t>Boolean b4 = new Boolean("fALse");</t>
+  </si>
+  <si>
+    <t>Boolean b5 = new Boolean("1");</t>
+  </si>
+  <si>
+    <t>Boolean b6 = new Boolean("0");</t>
+  </si>
+  <si>
+    <t>Boolean b7 = new Boolean("xxx");</t>
+  </si>
+  <si>
+    <r>
+      <t>Boolean b8 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boolean b9 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>10. switch statement</t>
+  </si>
+  <si>
+    <t>default có thể ở bất cứ thứ tự nào trong swithc</t>
+  </si>
+  <si>
+    <t>Nếu không có bất kì case nào match với giá trị thì sẽ tự động nhảy vào default</t>
+  </si>
+  <si>
+    <t>câu lệnh break là optional, Do vậy nếu trong case default ko khai báo break;, Thì code sẽ tiếp tục chạy từ cao xuống thấp cho đến khi gặp được lệnh break hoặc khi kết thúc cấu trúc switch</t>
+  </si>
+  <si>
+    <t>Kết quả : Weekday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>int dayOfWeek = 5;</t>
+  </si>
+  <si>
+    <t>switch(dayOfWeek) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    case 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    case 6:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        break;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("Sunday");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("Weekday");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("Saturday");</t>
+    </r>
+  </si>
+  <si>
+    <t>11. For loop Statement</t>
+  </si>
+  <si>
+    <t>Tạo vòng lặp vô hạn for</t>
+  </si>
+  <si>
+    <t>System.out.print("hello");</t>
+  </si>
+  <si>
+    <t>for ( ; ; )  {</t>
+  </si>
+  <si>
+    <t>for ( ; ) {</t>
+  </si>
+  <si>
+    <t>for ( ) {</t>
+  </si>
+  <si>
+    <t>System.out.print("blo")</t>
+  </si>
+  <si>
+    <t>for(initialization; booleanExpression; updateStatement) {</t>
+  </si>
+  <si>
+    <t>for(long y = 0, x = 4; x &lt; 5 &amp;&amp; y &lt; 10; x++, y++) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(x + " ");</t>
+    </r>
+  </si>
+  <si>
+    <t>int x = 5;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(x + " ");</t>
+    </r>
+  </si>
+  <si>
+    <t>// Sai tại dòng này vì biến x đã tồn tại trong scope main</t>
+  </si>
+  <si>
+    <t>int x = 0;</t>
+  </si>
+  <si>
+    <t>long y = 10;</t>
+  </si>
+  <si>
+    <t>for( y = 0,  x = 4; x &lt; 5 &amp;&amp; y &lt; 10; x++, y++) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(x + " ");</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">for(long y = 0, int x = 4; x &lt; 5 &amp;&amp; y&lt;10; x++, y++) { </t>
+  </si>
+  <si>
+    <t>// Ở trên khai báo int x , trong vòng for lại khai báo long x</t>
+  </si>
+  <si>
+    <t>// Sai tại dòng này vì statement khởi tạo bắt buộc phải có cùng kiểu dl</t>
+  </si>
+  <si>
+    <t>Hoặc cũng có thể cast tường minh về đúng kiểu dl mong muốn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short a = </t>
+  </si>
+  <si>
+    <t>12. Foreach statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu trúc: </t>
+  </si>
+  <si>
+    <t>for ( Datetype instance : list) {</t>
+  </si>
+  <si>
+    <t>13. Advanced Flow Control</t>
+  </si>
+  <si>
+    <t>Nested loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>int[][] myComplexArray = {{5,2,1,3},{3,9,8,9},{5,7,12,7}};</t>
+  </si>
+  <si>
+    <t>for(int[] mySimpleArray : myComplexArray) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    for(int i=0; i&lt;mySimpleArray.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(mySimpleArray[i]+"\t");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Result : </t>
+  </si>
+  <si>
+    <t>5 2 1 3</t>
+  </si>
+  <si>
+    <t>3 9 8 9</t>
+  </si>
+  <si>
+    <t>5 7 12 7</t>
+  </si>
+  <si>
+    <t>14 . Continue statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu trúc : </t>
+  </si>
+  <si>
+    <t>optionalLable : while ( boolean Expression) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continute  optionalLabel; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bài test 1 </t>
+  </si>
+  <si>
+    <t>OCA  Study Guide 1</t>
+  </si>
+  <si>
+    <t>A, D, F</t>
+  </si>
+  <si>
+    <t>A, B , E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C , F , D</t>
+  </si>
+  <si>
+    <t>Lệnh này vẫn compile thành công (x &gt; 2 ? x &lt; 4 ? 10 : 8 : 7)</t>
+  </si>
+  <si>
+    <t>A, D</t>
+  </si>
+  <si>
+    <t>toán tử " &gt;= " chỉ sử dụng được với số</t>
+  </si>
+  <si>
+    <t>A, B, D</t>
+  </si>
+  <si>
+    <t>Có 3 kiểu tự động được cast về là int, long, double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể case tường minh từ long về int </t>
+  </si>
+  <si>
+    <t>B, C, D, F</t>
+  </si>
+  <si>
+    <t>Trả lời</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đáp án </t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Giải thích</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý cấu trúc của if-else, có thể ko có ngoặc </t>
+  </si>
+  <si>
+    <t>Toán tử tenary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko yêu cầu ngoặc để phân cách mệnh đề </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tức là khai báo sau vẫn compile OK và chạy OK : </t>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println(x &gt; 2 ? x &lt; 4 ? 10 : 8 : 7);</t>
+    </r>
+  </si>
+  <si>
+    <t>15. Tricky tip</t>
+  </si>
+  <si>
+    <t>int y = 20;</t>
+  </si>
+  <si>
+    <t>x = ( y!= 10) ^ ( z = false);</t>
+  </si>
+  <si>
+    <t>boolean z = true;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// z = false không phải là lỗi compile khi so sánh boolean </t>
+  </si>
+  <si>
+    <t>boolean x = false</t>
+  </si>
+  <si>
+    <t>// Mà đây là lệnh gán z = fase, Ở đây y!= 10 nên return x = true</t>
+  </si>
+  <si>
+    <t>Tricky đây là lệnh gán đã nói ở trên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Cấu trúc tổng quát : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Các thành phần bắt buộc phải có : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Các thành phần optional : </t>
+  </si>
+  <si>
+    <t>initialization, booleanEx</t>
+  </si>
+  <si>
+    <t>bắt buộc phải có 2 dấu ;</t>
+  </si>
+  <si>
+    <t>Ở đây ko có câu lệnh update, Nhưng compile OK vì câu lệnh update là optional, Do vậy mỗi vòng lặp thì I vẫn = 0, mặc dù đã tăng giá trị lên 1, Do vậy đây là vòng lặp vô hạn</t>
+  </si>
+  <si>
+    <t>Khai báo cast sai, Cast đúng phải là (byte) (a + b)</t>
+  </si>
+  <si>
+    <t>Phép chia lấy phần dư 20 % 3 = 18 và phần dư là 2</t>
+  </si>
+  <si>
+    <t>Code compile,  câu lệnh if-else đúng</t>
+  </si>
+  <si>
+    <t>Có thể do chọn nhầm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉ lệ : </t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu trong switch và case phải giống nhau:</t>
+  </si>
+  <si>
+    <t>switch (x) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Như này vẫn đúng vì đúng kiểu dl </t>
+  </si>
+  <si>
+    <t>char x = 'D'; char y = 'F';</t>
+  </si>
+  <si>
+    <t>case 'E' : break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case y : break; </t>
+  </si>
+  <si>
+    <t>// y có cùng kiểu dl char nên compile OK</t>
+  </si>
+  <si>
+    <t>Số câu đúng : 9/20</t>
+  </si>
+  <si>
+    <t>Bài test 2 :  OCA Practice Test</t>
+  </si>
+  <si>
+    <t>Câu</t>
+  </si>
+  <si>
+    <t>Chap 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1966,13 +2644,71 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF231F20"/>
+      <name val="SourceCodePro-Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1988,7 +2724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2002,9 +2738,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2025,6 +2758,30 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2131,14 +2888,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>161519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>94356</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>136616</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455649</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>136615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2433,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q563"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3113,7 +3870,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="C159" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3126,17 +3883,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="22" customFormat="1">
-      <c r="C162" s="22" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" s="22" customFormat="1">
-      <c r="C163" s="22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="22" customFormat="1"/>
+    <row r="162" spans="1:8" s="21" customFormat="1">
+      <c r="C162" s="21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="21" customFormat="1">
+      <c r="C163" s="21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="21" customFormat="1"/>
     <row r="165" spans="1:8">
       <c r="D165" s="3" t="s">
         <v>118</v>
@@ -4241,16 +4998,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="13" t="s">
+      <c r="D424" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="13"/>
-      <c r="F424" s="13"/>
-      <c r="G424" s="13"/>
-      <c r="H424" s="13"/>
-      <c r="I424" s="13"/>
-      <c r="J424" s="13"/>
-      <c r="K424" s="13"/>
+      <c r="E424" s="31"/>
+      <c r="F424" s="31"/>
+      <c r="G424" s="31"/>
+      <c r="H424" s="31"/>
+      <c r="I424" s="31"/>
+      <c r="J424" s="31"/>
+      <c r="K424" s="31"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -4317,16 +5074,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="13" t="s">
+      <c r="D430" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="13"/>
-      <c r="F430" s="13"/>
-      <c r="G430" s="13"/>
-      <c r="H430" s="13"/>
-      <c r="I430" s="13"/>
-      <c r="J430" s="13"/>
-      <c r="K430" s="13"/>
+      <c r="E430" s="31"/>
+      <c r="F430" s="31"/>
+      <c r="G430" s="31"/>
+      <c r="H430" s="31"/>
+      <c r="I430" s="31"/>
+      <c r="J430" s="31"/>
+      <c r="K430" s="31"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -5810,18 +6567,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L195"/>
+  <dimension ref="A2:T436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -5829,7 +6589,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -5837,7 +6597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>409</v>
       </c>
@@ -5845,7 +6605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>410</v>
       </c>
@@ -5853,138 +6613,146 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F8" s="3" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:8">
+      <c r="H16" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="F15" s="3" t="s">
+    <row r="18" spans="1:8">
+      <c r="H18" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="F16" s="3" t="s">
+    <row r="19" spans="1:8">
+      <c r="H19" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="F17" s="3" t="s">
+    <row r="20" spans="1:8">
+      <c r="H20" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="F18" s="3" t="s">
+    <row r="21" spans="1:8">
+      <c r="H21" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="F19" s="3" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="F20" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="3" t="s">
+    <row r="26" spans="1:8">
+      <c r="B26" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="3" t="s">
+    <row r="28" spans="1:8">
+      <c r="B28" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="3:10">
       <c r="C37" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="E38" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="3:10">
       <c r="G39" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="3:10">
       <c r="G40" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="3:10">
       <c r="G41" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="3:10">
@@ -5992,147 +6760,174 @@
         <v>49</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="3:10">
       <c r="G44" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="G45" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="3:10">
       <c r="G46" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="G47" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="3:10">
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="4:11">
+      <c r="G49" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="4:11">
+      <c r="G50" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="4:11">
-      <c r="G49" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="4:11">
-      <c r="G50" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="52" spans="4:11">
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="4:11">
       <c r="E53" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G53" s="3" t="s">
+    </row>
+    <row r="54" spans="4:11">
+      <c r="G54" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11">
+      <c r="G55" s="18" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="54" spans="4:11">
-      <c r="G54" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="55" spans="4:11">
-      <c r="G55" s="3" t="s">
-        <v>448</v>
-      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11">
+      <c r="G56" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11">
+      <c r="G57" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11">
+      <c r="G58" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="56" spans="4:11">
-      <c r="G56" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="4:11">
-      <c r="G57" s="17" t="s">
+    <row r="59" spans="4:11">
+      <c r="G59" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="3" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="58" spans="4:11">
-      <c r="G58" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="59" spans="4:11">
-      <c r="G59" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="61" spans="4:11">
       <c r="D61" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="4:11">
       <c r="F63" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="B69" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="K69" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="K69" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="B71" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6145,22 +6940,22 @@
         <v>41</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="F75" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="B77" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="C79" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6168,104 +6963,104 @@
         <v>41</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="F81" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="D87" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="B89" s="21" t="s">
-        <v>479</v>
+      <c r="B89" s="20" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="D91" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="B93" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="D95" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="B97" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="C99" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="I99" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="D100" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="I100" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="D101" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="I99" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="D100" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="I100" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="D101" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
       <c r="H101" s="3" t="s">
         <v>403</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="B104" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6277,44 +7072,44 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="J107" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="D108" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="J108" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="D109" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="J107" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="D108" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="J108" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="D109" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="J109" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="J109" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
     </row>
     <row r="111" spans="1:12">
       <c r="B111" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="2:10">
@@ -6327,32 +7122,32 @@
       </c>
     </row>
     <row r="114" spans="2:10">
-      <c r="D114" s="17" t="s">
+      <c r="D114" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="D115" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="J115" s="16" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="D116" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="J116" s="16" t="s">
         <v>501</v>
-      </c>
-      <c r="J114" s="17" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="D115" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="J115" s="17" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="D116" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="J116" s="17" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="2:10">
@@ -6364,32 +7159,32 @@
       </c>
     </row>
     <row r="121" spans="2:10">
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="J121" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="D122" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="J122" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="D123" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="J121" s="17" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="D122" s="17" t="s">
+      <c r="J123" s="16" t="s">
         <v>507</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="D123" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="J123" s="17" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="127" spans="2:10">
@@ -6398,394 +7193,2238 @@
       </c>
     </row>
     <row r="128" spans="2:10">
-      <c r="C128" s="19"/>
-      <c r="D128" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="C129" s="19"/>
-      <c r="D129" s="23" t="s">
+      <c r="C128" s="18"/>
+      <c r="D128" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="C129" s="18"/>
+      <c r="D129" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="C130" s="18"/>
+      <c r="D130" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="D132" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="D133" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="D134" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="C130" s="19"/>
-      <c r="D130" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="D132" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="D133" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="D134" s="23" t="s">
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="D136" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="D137" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="D138" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="D139" s="22"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D140" s="22"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="D141" s="22"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="C142" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D142" s="22"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="D143" s="22"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="D144" s="22"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+    </row>
+    <row r="146" spans="1:1" s="2" customFormat="1">
+      <c r="A146" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="D136" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="D137" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="D138" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-    </row>
-    <row r="140" spans="1:8" s="2" customFormat="1">
-      <c r="A140" s="2" t="s">
+    </row>
+    <row r="164" spans="1:11">
+      <c r="B164" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="2" t="s">
+    <row r="166" spans="1:11">
+      <c r="C166" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="B158" s="3" t="s">
+    <row r="168" spans="1:11">
+      <c r="C168" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="C160" s="3" t="s">
+    <row r="170" spans="1:11">
+      <c r="C170" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="162" spans="3:11">
-      <c r="C162" s="3" t="s">
+    <row r="173" spans="1:11">
+      <c r="C173" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="D174" s="18" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="164" spans="3:11">
-      <c r="C164" s="3" t="s">
+      <c r="E174" s="18"/>
+      <c r="F174" s="23" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="167" spans="3:11">
-      <c r="C167" s="3" t="s">
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="18"/>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+    </row>
+    <row r="177" spans="4:11">
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+    </row>
+    <row r="178" spans="4:11">
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+    </row>
+    <row r="179" spans="4:11">
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+    </row>
+    <row r="180" spans="4:11">
+      <c r="D180" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+    </row>
+    <row r="181" spans="4:11">
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+    </row>
+    <row r="182" spans="4:11">
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="G182" s="18"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+    </row>
+    <row r="183" spans="4:11">
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+    </row>
+    <row r="184" spans="4:11">
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+    </row>
+    <row r="185" spans="4:11">
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+    </row>
+    <row r="186" spans="4:11">
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+    </row>
+    <row r="187" spans="4:11">
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="G187" s="18"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+    </row>
+    <row r="188" spans="4:11">
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="18"/>
+    </row>
+    <row r="189" spans="4:11">
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+    </row>
+    <row r="190" spans="4:11">
+      <c r="D190" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E190" s="18"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+    </row>
+    <row r="191" spans="4:11">
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+    </row>
+    <row r="192" spans="4:11">
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="G194" s="18"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="G195" s="18"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="18"/>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="G196" s="18"/>
+      <c r="H196" s="18"/>
+      <c r="I196" s="18"/>
+      <c r="J196" s="18"/>
+      <c r="K196" s="18"/>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="B199" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="D201" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E201" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="B206" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="B208" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9">
+      <c r="B210" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9">
+      <c r="C212" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="C213" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
+      <c r="C215" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="C216" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9">
+      <c r="B219" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="C221" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9">
+      <c r="C222" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9">
+      <c r="C224" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="B227" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="18"/>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="C229" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="C230" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="26"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="C231" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="26"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="18"/>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="C233" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="D234" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="C235" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="C239" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="E240" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="F240" s="26"/>
+      <c r="G240" s="26"/>
+      <c r="H240" s="26"/>
+      <c r="I240" s="18"/>
+      <c r="J240" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="E241" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="F241" s="26"/>
+      <c r="G241" s="26"/>
+      <c r="H241" s="26"/>
+      <c r="I241" s="18"/>
+      <c r="J241" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="E242" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="F242" s="26"/>
+      <c r="G242" s="26"/>
+      <c r="H242" s="26"/>
+      <c r="I242" s="18"/>
+      <c r="J242" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="E243" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="F243" s="26"/>
+      <c r="G243" s="26"/>
+      <c r="H243" s="26"/>
+      <c r="I243" s="18"/>
+      <c r="J243" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="E244" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="F244" s="26"/>
+      <c r="G244" s="26"/>
+      <c r="H244" s="26"/>
+      <c r="I244" s="18"/>
+      <c r="J244" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="E245" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="F245" s="26"/>
+      <c r="G245" s="26"/>
+      <c r="H245" s="26"/>
+      <c r="I245" s="18"/>
+      <c r="J245" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="E246" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="F246" s="26"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="26"/>
+      <c r="I246" s="18"/>
+      <c r="J246" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="E247" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F247" s="26"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="26"/>
+      <c r="I247" s="18"/>
+      <c r="J247" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="E248" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="F248" s="26"/>
+      <c r="G248" s="26"/>
+      <c r="H248" s="26"/>
+      <c r="I248" s="18"/>
+      <c r="J248" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E249" s="25"/>
+      <c r="F249" s="26"/>
+      <c r="G249" s="26"/>
+      <c r="H249" s="26"/>
+      <c r="I249" s="18"/>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="B250" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E250" s="25"/>
+      <c r="F250" s="26"/>
+      <c r="G250" s="26"/>
+      <c r="H250" s="26"/>
+      <c r="I250" s="18"/>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="E251" s="25"/>
+      <c r="F251" s="26"/>
+      <c r="G251" s="26"/>
+      <c r="H251" s="26"/>
+      <c r="I251" s="18"/>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="B252" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="C254" s="13"/>
+      <c r="D254" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13"/>
+      <c r="H254" s="13"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="13"/>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="C255" s="13"/>
+      <c r="D255" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="258" spans="3:16">
+      <c r="C258" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="260" spans="3:16">
+      <c r="C260" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="262" spans="3:16">
+      <c r="C262" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="3:16">
+      <c r="D264" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="265" spans="3:16">
+      <c r="F265" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="266" spans="3:16">
+      <c r="F266" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="267" spans="3:16">
+      <c r="G267" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="268" spans="3:16">
+      <c r="G268" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="269" spans="3:16">
+      <c r="F269" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="270" spans="3:16">
+      <c r="C270" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="272" spans="3:16">
+      <c r="D272" s="26" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="168" spans="3:11">
-      <c r="D168" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-    </row>
-    <row r="169" spans="3:11">
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="19"/>
-    </row>
-    <row r="170" spans="3:11">
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="19"/>
-    </row>
-    <row r="171" spans="3:11">
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="19"/>
-    </row>
-    <row r="172" spans="3:11">
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="19"/>
-    </row>
-    <row r="173" spans="3:11">
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
-    </row>
-    <row r="174" spans="3:11">
-      <c r="D174" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="19"/>
-    </row>
-    <row r="175" spans="3:11">
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="19"/>
-    </row>
-    <row r="176" spans="3:11">
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-      <c r="K176" s="19"/>
-    </row>
-    <row r="177" spans="4:11">
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="23" t="s">
-        <v>529</v>
-      </c>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-    </row>
-    <row r="178" spans="4:11">
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-    </row>
-    <row r="179" spans="4:11">
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-    </row>
-    <row r="180" spans="4:11">
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="19"/>
-    </row>
-    <row r="181" spans="4:11">
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19"/>
-    </row>
-    <row r="182" spans="4:11">
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="19"/>
-    </row>
-    <row r="183" spans="4:11">
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="19"/>
-    </row>
-    <row r="184" spans="4:11">
-      <c r="D184" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="19"/>
-    </row>
-    <row r="185" spans="4:11">
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="19"/>
-    </row>
-    <row r="186" spans="4:11">
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="19"/>
-    </row>
-    <row r="187" spans="4:11">
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="G187" s="19"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="19"/>
-    </row>
-    <row r="188" spans="4:11">
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="19"/>
-    </row>
-    <row r="189" spans="4:11">
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="G189" s="19"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-    </row>
-    <row r="190" spans="4:11">
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="19"/>
-    </row>
-    <row r="193" spans="2:9">
-      <c r="B193" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9">
-      <c r="D195" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="E195" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
+      <c r="E272" s="26"/>
+      <c r="F272" s="26"/>
+      <c r="G272" s="26"/>
+      <c r="H272" s="26"/>
+      <c r="I272" s="26"/>
+      <c r="J272" s="26"/>
+      <c r="K272" s="26"/>
+      <c r="L272" s="26"/>
+      <c r="M272" s="26"/>
+      <c r="N272" s="18"/>
+      <c r="O272" s="18"/>
+      <c r="P272" s="18"/>
+    </row>
+    <row r="273" spans="1:16">
+      <c r="D273" s="26"/>
+      <c r="E273" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="F273" s="26"/>
+      <c r="G273" s="26"/>
+      <c r="H273" s="26"/>
+      <c r="I273" s="26"/>
+      <c r="J273" s="26"/>
+      <c r="K273" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="L273" s="26"/>
+      <c r="M273" s="26"/>
+      <c r="N273" s="18"/>
+      <c r="O273" s="18"/>
+      <c r="P273" s="18"/>
+    </row>
+    <row r="274" spans="1:16">
+      <c r="D274" s="26"/>
+      <c r="E274" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="F274" s="26"/>
+      <c r="G274" s="26"/>
+      <c r="H274" s="26"/>
+      <c r="I274" s="26"/>
+      <c r="J274" s="26"/>
+      <c r="K274" s="26"/>
+      <c r="L274" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="M274" s="26"/>
+      <c r="N274" s="18"/>
+      <c r="O274" s="18"/>
+      <c r="P274" s="18"/>
+    </row>
+    <row r="275" spans="1:16">
+      <c r="D275" s="26"/>
+      <c r="E275" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="F275" s="26"/>
+      <c r="G275" s="26"/>
+      <c r="H275" s="26"/>
+      <c r="I275" s="26"/>
+      <c r="J275" s="26"/>
+      <c r="K275" s="26"/>
+      <c r="L275" s="26"/>
+      <c r="M275" s="26"/>
+      <c r="N275" s="18"/>
+      <c r="O275" s="18"/>
+      <c r="P275" s="18"/>
+    </row>
+    <row r="276" spans="1:16">
+      <c r="D276" s="26"/>
+      <c r="E276" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="F276" s="26"/>
+      <c r="G276" s="26"/>
+      <c r="H276" s="26"/>
+      <c r="I276" s="26"/>
+      <c r="J276" s="26"/>
+      <c r="K276" s="26"/>
+      <c r="L276" s="26"/>
+      <c r="M276" s="26"/>
+      <c r="N276" s="18"/>
+      <c r="O276" s="18"/>
+      <c r="P276" s="18"/>
+    </row>
+    <row r="277" spans="1:16">
+      <c r="D277" s="26"/>
+      <c r="E277" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="F277" s="26"/>
+      <c r="G277" s="26"/>
+      <c r="H277" s="26"/>
+      <c r="I277" s="26"/>
+      <c r="J277" s="26"/>
+      <c r="K277" s="26"/>
+      <c r="L277" s="26"/>
+      <c r="M277" s="26"/>
+      <c r="N277" s="18"/>
+      <c r="O277" s="18"/>
+      <c r="P277" s="18"/>
+    </row>
+    <row r="278" spans="1:16">
+      <c r="D278" s="26"/>
+      <c r="E278" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F278" s="26"/>
+      <c r="G278" s="26"/>
+      <c r="H278" s="26"/>
+      <c r="I278" s="26"/>
+      <c r="J278" s="26"/>
+      <c r="K278" s="26"/>
+      <c r="L278" s="26"/>
+      <c r="M278" s="26"/>
+      <c r="N278" s="18"/>
+      <c r="O278" s="18"/>
+      <c r="P278" s="18"/>
+    </row>
+    <row r="279" spans="1:16">
+      <c r="D279" s="26"/>
+      <c r="E279" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="F279" s="26"/>
+      <c r="G279" s="26"/>
+      <c r="H279" s="26"/>
+      <c r="I279" s="26"/>
+      <c r="J279" s="26"/>
+      <c r="K279" s="26"/>
+      <c r="L279" s="26"/>
+      <c r="M279" s="26"/>
+      <c r="N279" s="18"/>
+      <c r="O279" s="18"/>
+      <c r="P279" s="18"/>
+    </row>
+    <row r="280" spans="1:16">
+      <c r="D280" s="26"/>
+      <c r="E280" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="F280" s="26"/>
+      <c r="G280" s="26"/>
+      <c r="H280" s="26"/>
+      <c r="I280" s="26"/>
+      <c r="J280" s="26"/>
+      <c r="K280" s="26"/>
+      <c r="L280" s="26"/>
+      <c r="M280" s="26"/>
+      <c r="N280" s="18"/>
+      <c r="O280" s="18"/>
+      <c r="P280" s="18"/>
+    </row>
+    <row r="281" spans="1:16">
+      <c r="D281" s="26"/>
+      <c r="E281" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="F281" s="26"/>
+      <c r="G281" s="26"/>
+      <c r="H281" s="26"/>
+      <c r="I281" s="26"/>
+      <c r="J281" s="26"/>
+      <c r="K281" s="26"/>
+      <c r="L281" s="26"/>
+      <c r="M281" s="26"/>
+      <c r="N281" s="18"/>
+      <c r="O281" s="18"/>
+      <c r="P281" s="18"/>
+    </row>
+    <row r="282" spans="1:16">
+      <c r="D282" s="26"/>
+      <c r="E282" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F282" s="26"/>
+      <c r="G282" s="26"/>
+      <c r="H282" s="26"/>
+      <c r="I282" s="26"/>
+      <c r="J282" s="26"/>
+      <c r="K282" s="26"/>
+      <c r="L282" s="26"/>
+      <c r="M282" s="26"/>
+      <c r="N282" s="18"/>
+      <c r="O282" s="18"/>
+      <c r="P282" s="18"/>
+    </row>
+    <row r="283" spans="1:16">
+      <c r="D283" s="18"/>
+      <c r="E283" s="26"/>
+      <c r="F283" s="26"/>
+      <c r="G283" s="26"/>
+      <c r="H283" s="26"/>
+      <c r="I283" s="26"/>
+      <c r="J283" s="18"/>
+      <c r="K283" s="18"/>
+      <c r="L283" s="18"/>
+      <c r="M283" s="18"/>
+      <c r="N283" s="18"/>
+      <c r="O283" s="18"/>
+      <c r="P283" s="18"/>
+    </row>
+    <row r="284" spans="1:16">
+      <c r="A284" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16">
+      <c r="C286" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F286" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="G286" s="26"/>
+      <c r="H286" s="26"/>
+      <c r="I286" s="26"/>
+      <c r="J286" s="26"/>
+      <c r="K286" s="26"/>
+      <c r="L286" s="26"/>
+    </row>
+    <row r="287" spans="1:16">
+      <c r="F287" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G287" s="26"/>
+      <c r="H287" s="26"/>
+      <c r="I287" s="26"/>
+      <c r="J287" s="26"/>
+      <c r="K287" s="26"/>
+      <c r="L287" s="26"/>
+    </row>
+    <row r="288" spans="1:16">
+      <c r="F288" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G288" s="26"/>
+      <c r="H288" s="26"/>
+      <c r="I288" s="26"/>
+      <c r="J288" s="26"/>
+      <c r="K288" s="26"/>
+      <c r="L288" s="26"/>
+    </row>
+    <row r="289" spans="3:13">
+      <c r="F289" s="25"/>
+      <c r="G289" s="26"/>
+      <c r="H289" s="26"/>
+      <c r="I289" s="26"/>
+      <c r="J289" s="26"/>
+      <c r="K289" s="26"/>
+      <c r="L289" s="26"/>
+    </row>
+    <row r="290" spans="3:13">
+      <c r="C290" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F290" s="25"/>
+      <c r="G290" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="H290" s="26"/>
+      <c r="I290" s="26"/>
+      <c r="J290" s="26"/>
+      <c r="K290" s="26"/>
+      <c r="L290" s="26"/>
+    </row>
+    <row r="291" spans="3:13">
+      <c r="C291" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="293" spans="3:13">
+      <c r="C293" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="294" spans="3:13">
+      <c r="D294" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="296" spans="3:13">
+      <c r="E296" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="297" spans="3:13">
+      <c r="F297" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="298" spans="3:13">
+      <c r="E298" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" spans="3:13">
+      <c r="L300" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="301" spans="3:13">
+      <c r="M301" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="302" spans="3:13">
+      <c r="L302" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306" spans="3:20">
+      <c r="C306" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="13"/>
+      <c r="H306" s="13"/>
+      <c r="I306" s="13"/>
+      <c r="J306" s="13"/>
+      <c r="L306" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="307" spans="3:20">
+      <c r="C307" s="13"/>
+    </row>
+    <row r="308" spans="3:20">
+      <c r="C308" s="13"/>
+      <c r="D308" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="E308" s="26"/>
+      <c r="F308" s="26"/>
+      <c r="G308" s="26"/>
+      <c r="H308" s="26"/>
+      <c r="I308" s="26"/>
+      <c r="J308" s="26"/>
+      <c r="L308" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="M308" s="13"/>
+      <c r="N308" s="13"/>
+      <c r="O308" s="13"/>
+      <c r="P308" s="13"/>
+      <c r="Q308" s="13"/>
+      <c r="R308" s="13"/>
+    </row>
+    <row r="309" spans="3:20">
+      <c r="C309" s="13"/>
+      <c r="D309" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E309" s="26"/>
+      <c r="F309" s="26"/>
+      <c r="G309" s="26"/>
+      <c r="H309" s="26"/>
+      <c r="I309" s="26"/>
+      <c r="J309" s="26"/>
+      <c r="L309" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="M309" s="13"/>
+      <c r="N309" s="13"/>
+      <c r="O309" s="13"/>
+      <c r="P309" s="13"/>
+      <c r="Q309" s="13"/>
+      <c r="R309" s="13"/>
+      <c r="T309" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="310" spans="3:20">
+      <c r="C310" s="13"/>
+      <c r="D310" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E310" s="26"/>
+      <c r="F310" s="26"/>
+      <c r="G310" s="26"/>
+      <c r="H310" s="26"/>
+      <c r="I310" s="26"/>
+      <c r="J310" s="26"/>
+      <c r="L310" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="M310" s="13"/>
+      <c r="N310" s="13"/>
+      <c r="O310" s="13"/>
+      <c r="P310" s="13"/>
+      <c r="Q310" s="13"/>
+      <c r="R310" s="13"/>
+      <c r="T310" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="311" spans="3:20">
+      <c r="L311" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M311" s="13"/>
+      <c r="N311" s="13"/>
+      <c r="O311" s="13"/>
+      <c r="P311" s="13"/>
+      <c r="Q311" s="13"/>
+      <c r="R311" s="13"/>
+    </row>
+    <row r="312" spans="3:20">
+      <c r="D312" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="13"/>
+      <c r="H312" s="13"/>
+      <c r="I312" s="13"/>
+    </row>
+    <row r="313" spans="3:20">
+      <c r="D313" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
+      <c r="H313" s="13"/>
+      <c r="I313" s="13"/>
+      <c r="L313" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="M313" s="13"/>
+      <c r="N313" s="13"/>
+      <c r="O313" s="13"/>
+      <c r="P313" s="13"/>
+      <c r="Q313" s="13"/>
+      <c r="R313" s="13"/>
+      <c r="S313" s="13"/>
+      <c r="T313" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="314" spans="3:20">
+      <c r="D314" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
+      <c r="H314" s="13"/>
+      <c r="I314" s="13"/>
+      <c r="L314" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="M314" s="13"/>
+      <c r="N314" s="13"/>
+      <c r="O314" s="13"/>
+      <c r="P314" s="13"/>
+      <c r="Q314" s="13"/>
+      <c r="R314" s="13"/>
+      <c r="S314" s="13"/>
+    </row>
+    <row r="315" spans="3:20">
+      <c r="D315" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
+      <c r="H315" s="13"/>
+      <c r="I315" s="13"/>
+      <c r="L315" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M315" s="13"/>
+      <c r="N315" s="13"/>
+      <c r="O315" s="13"/>
+      <c r="P315" s="13"/>
+      <c r="Q315" s="13"/>
+      <c r="R315" s="13"/>
+      <c r="S315" s="13"/>
+    </row>
+    <row r="316" spans="3:20">
+      <c r="D316" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
+      <c r="G316" s="13"/>
+      <c r="H316" s="13"/>
+      <c r="I316" s="13"/>
+      <c r="L316" s="13"/>
+      <c r="M316" s="13"/>
+      <c r="N316" s="13"/>
+      <c r="O316" s="13"/>
+      <c r="P316" s="13"/>
+      <c r="Q316" s="13"/>
+      <c r="R316" s="13"/>
+      <c r="S316" s="13"/>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="B323" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="C324" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="C327" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="B331" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="C333" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="13"/>
+      <c r="H333" s="13"/>
+      <c r="I333" s="13"/>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="C334" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
+      <c r="H334" s="13"/>
+      <c r="I334" s="13"/>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="C335" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+      <c r="G335" s="13"/>
+      <c r="H335" s="13"/>
+      <c r="I335" s="13"/>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="C336" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+      <c r="G336" s="13"/>
+      <c r="H336" s="13"/>
+      <c r="I336" s="13"/>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="C337" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="D337" s="13"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="13"/>
+      <c r="G337" s="13"/>
+      <c r="H337" s="13"/>
+      <c r="I337" s="13"/>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="C338" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="D338" s="13"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="13"/>
+      <c r="G338" s="13"/>
+      <c r="H338" s="13"/>
+      <c r="I338" s="13"/>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="C339" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="13"/>
+      <c r="I339" s="13"/>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="C341" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D341" s="28" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="D342"/>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="D343" s="28" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="D344"/>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="D345" s="28" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" s="29" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="B349" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="E351" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="D352" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" s="2"/>
+      <c r="B354" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="2"/>
+      <c r="B355" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="B356" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="E357" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" s="6" customFormat="1">
+      <c r="A358" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="3">
+        <v>1</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="3">
+        <v>2</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="3">
+        <v>3</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="3">
+        <v>4</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="3">
+        <v>5</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="3">
+        <v>6</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="3">
+        <v>7</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="3">
+        <v>8</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="3">
+        <v>9</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="3">
+        <v>10</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="3">
+        <v>11</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="3">
+        <v>12</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="3">
+        <v>13</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="3">
+        <v>14</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="3">
+        <v>15</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="3">
+        <v>16</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="3">
+        <v>17</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="3">
+        <v>18</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="3">
+        <v>19</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="3">
+        <v>20</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B382" s="30">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" s="2" customFormat="1">
+      <c r="A384" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="B386" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="C386" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D386" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="E386" s="33" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="3">
+        <v>1</v>
+      </c>
+      <c r="B387" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="3">
+        <v>2</v>
+      </c>
+      <c r="B388" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="3">
+        <v>3</v>
+      </c>
+      <c r="B389" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="3">
+        <v>4</v>
+      </c>
+      <c r="B390" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="3">
+        <v>5</v>
+      </c>
+      <c r="B391" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="3">
+        <v>6</v>
+      </c>
+      <c r="B392" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="3">
+        <v>7</v>
+      </c>
+      <c r="B393" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="3">
+        <v>8</v>
+      </c>
+      <c r="B394" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="3">
+        <v>9</v>
+      </c>
+      <c r="B395" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="3">
+        <v>10</v>
+      </c>
+      <c r="B396" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="3">
+        <v>11</v>
+      </c>
+      <c r="B397" s="32" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="3">
+        <v>12</v>
+      </c>
+      <c r="B398" s="32" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="3">
+        <v>13</v>
+      </c>
+      <c r="B399" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="3">
+        <v>14</v>
+      </c>
+      <c r="B400" s="32" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="3">
+        <v>15</v>
+      </c>
+      <c r="B401" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="3">
+        <v>16</v>
+      </c>
+      <c r="B402" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="3">
+        <v>17</v>
+      </c>
+      <c r="B403" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="3">
+        <v>18</v>
+      </c>
+      <c r="B404" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="3">
+        <v>19</v>
+      </c>
+      <c r="B405" s="32" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="3">
+        <v>20</v>
+      </c>
+      <c r="B406" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="3">
+        <v>21</v>
+      </c>
+      <c r="B407" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="3">
+        <v>22</v>
+      </c>
+      <c r="B408" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="3">
+        <v>23</v>
+      </c>
+      <c r="B409" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="3">
+        <v>24</v>
+      </c>
+      <c r="B410" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="3">
+        <v>25</v>
+      </c>
+      <c r="B411" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="3">
+        <v>26</v>
+      </c>
+      <c r="B412" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="3">
+        <v>27</v>
+      </c>
+      <c r="B413" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="3">
+        <v>28</v>
+      </c>
+      <c r="B414" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="3">
+        <v>29</v>
+      </c>
+      <c r="B415" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="3">
+        <v>30</v>
+      </c>
+      <c r="B416" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="3">
+        <v>31</v>
+      </c>
+      <c r="B417" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="3">
+        <v>32</v>
+      </c>
+      <c r="B418" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="3">
+        <v>33</v>
+      </c>
+      <c r="B419" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="3">
+        <v>34</v>
+      </c>
+      <c r="B420" s="32"/>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="3">
+        <v>35</v>
+      </c>
+      <c r="B421" s="32"/>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="3">
+        <v>36</v>
+      </c>
+      <c r="B422" s="32"/>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="3">
+        <v>37</v>
+      </c>
+      <c r="B423" s="32"/>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="3">
+        <v>38</v>
+      </c>
+      <c r="B424" s="32"/>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="3">
+        <v>39</v>
+      </c>
+      <c r="B425" s="32"/>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="3">
+        <v>40</v>
+      </c>
+      <c r="B426" s="32"/>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="3">
+        <v>41</v>
+      </c>
+      <c r="B427" s="32"/>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="3">
+        <v>42</v>
+      </c>
+      <c r="B428" s="32"/>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="3">
+        <v>43</v>
+      </c>
+      <c r="B429" s="32"/>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="3">
+        <v>44</v>
+      </c>
+      <c r="B430" s="32"/>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="3">
+        <v>45</v>
+      </c>
+      <c r="B431" s="32"/>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="3">
+        <v>46</v>
+      </c>
+      <c r="B432" s="32"/>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="3">
+        <v>47</v>
+      </c>
+      <c r="B433" s="32"/>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="3">
+        <v>48</v>
+      </c>
+      <c r="B434" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="3">
+        <v>49</v>
+      </c>
+      <c r="B435" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="3">
+        <v>50</v>
+      </c>
+      <c r="B436" s="32" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
     <sheet name="2.Data type" sheetId="2" r:id="rId2"/>
+    <sheet name="3. Java API" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="834">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -2489,12 +2490,447 @@
   <si>
     <t>AC</t>
   </si>
+  <si>
+    <t>Số câu đúng :</t>
+  </si>
+  <si>
+    <t>32/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉ lệ đúng : </t>
+  </si>
+  <si>
+    <t>Lưu ý là switch case chỉ không hỗ trợ kiểu dl double, Float vẫn hố trợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý cấu trúc if else chỉ có 1 else </t>
+  </si>
+  <si>
+    <t>Lưu ý ở đây chỉ có 1 câu trả lời, chứ ko phải chọn multi câu trả lời</t>
+  </si>
+  <si>
+    <t>Lưu ý : giá trị trong case phải là final ( phải là kiểu dữ liệu nguyên thủy hoặc là biến final).  Cho phép case "a" + "c" hoặc case 1 + 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giá trị trong case phải là final ( phải là kiểu dữ liệu nguyên thủy hoặc là biến final).</t>
+  </si>
+  <si>
+    <t>case "a" + "c"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> case 1 + 2:</t>
+  </si>
+  <si>
+    <t>case new String("hello"):</t>
+  </si>
+  <si>
+    <t>case new Integer(1) :</t>
+  </si>
+  <si>
+    <t>Kiểu dl trong switch không được phép là double, còn lại tất cả các kiểu dl nguyên thủy đều OK, kể cả float</t>
+  </si>
+  <si>
+    <t>Không đọc kĩ câu hỏi</t>
+  </si>
+  <si>
+    <t>1. Tạo và thao tác với cuỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy tắc cộng chuỗi : </t>
+  </si>
+  <si>
+    <t>Nếu tất cả các toán hạng là số -&gt; Nghĩa là cộng số</t>
+  </si>
+  <si>
+    <t>Nếu bất kì toán hạng nào là String -&gt; Nghĩa là cộng chuỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu thức được thực hiện từ trái sang phải </t>
+  </si>
+  <si>
+    <t>2. String is immutable</t>
+  </si>
+  <si>
+    <t>String là immutable nhưng cho phép thay đổi giá trị s tới một địa chỉ String khác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String s;</t>
+  </si>
+  <si>
+    <t>public class Test2 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void setString(String changeValue){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        s = changeValue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String getString(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return this.s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Test2 test2 = new Test2();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        test2.s = "original";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        test2.setString("update");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(test2.getString());</t>
+  </si>
+  <si>
+    <t>Kêt quả : update</t>
+  </si>
+  <si>
+    <t>Nếu đặt tên class là final, Thì các subclass ko thể có các hành vi mutable</t>
+  </si>
+  <si>
+    <t>public final class Test2 {}</t>
+  </si>
+  <si>
+    <t>3. Các phương thức của String</t>
+  </si>
+  <si>
+    <t>indexOf()</t>
+  </si>
+  <si>
+    <t>int indexOf( char c)</t>
+  </si>
+  <si>
+    <t>int indexOf( String s)</t>
+  </si>
+  <si>
+    <t>int indexOf( char c, int fromIndex)</t>
+  </si>
+  <si>
+    <t>int indexOf( String s, int fromIndex)</t>
+  </si>
+  <si>
+    <t>System.out.println(string.indexOf('a')); // 0</t>
+  </si>
+  <si>
+    <t>System.out.println(string.indexOf("al")); // 4</t>
+  </si>
+  <si>
+    <t>System.out.println(string.indexOf('a', 4)); // 4</t>
+  </si>
+  <si>
+    <t>System.out.println(string.indexOf("al", 5)); // -1</t>
+  </si>
+  <si>
+    <t>subString()</t>
+  </si>
+  <si>
+    <t>subString(int beginIndex)</t>
+  </si>
+  <si>
+    <t>subString(int beginIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Tricky hàm subString( int beginIndex, int endIndex);</t>
+  </si>
+  <si>
+    <t>String string = "animals";</t>
+  </si>
+  <si>
+    <t>System.out.println(string.substring(3, 4)); // m</t>
+  </si>
+  <si>
+    <t>System.out.println(string.substring(3,3)); // EmptyString</t>
+  </si>
+  <si>
+    <t>4. StringBuilder</t>
+  </si>
+  <si>
+    <t>append()</t>
+  </si>
+  <si>
+    <t>insert()</t>
+  </si>
+  <si>
+    <t>StringBuilder insert(int offset, String str)</t>
+  </si>
+  <si>
+    <t>StringBuilder sb = new StringBuilder("animals");</t>
+  </si>
+  <si>
+    <t>sb.insert(4, "-");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm ở kí tự trước 4 </t>
+  </si>
+  <si>
+    <t>delete()</t>
+  </si>
+  <si>
+    <t>StringBuilder delete( int start, int end);</t>
+  </si>
+  <si>
+    <t>StringBuilder deleteCharAt( int index);</t>
+  </si>
+  <si>
+    <t>Xóa ở kí tự trước end</t>
+  </si>
+  <si>
+    <t>sb.delete( 1, 3);</t>
+  </si>
+  <si>
+    <t>Xóa ở vị trí từ 1 đến trước 3</t>
+  </si>
+  <si>
+    <t>StringBuilde sb = new StringBuilder("abcdef");</t>
+  </si>
+  <si>
+    <t>Kết quả: adef</t>
+  </si>
+  <si>
+    <t>5. Bằng nhau về địa chỉ ô nhớ và giá trị của String</t>
+  </si>
+  <si>
+    <t>StringBuilder one = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>StringBuilder three = one.append("hello");</t>
+  </si>
+  <si>
+    <t>System.out.println(one == three);</t>
+  </si>
+  <si>
+    <t>System.out.println(one);</t>
+  </si>
+  <si>
+    <t>System.out.println(three);</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>6. Java arrays</t>
+  </si>
+  <si>
+    <t>Khai báo mảng hợp lệ:</t>
+  </si>
+  <si>
+    <t>int nums = {42, 55, 99};</t>
+  </si>
+  <si>
+    <t>int [] numAnimals;</t>
+  </si>
+  <si>
+    <t>int[] numAnimals2;</t>
+  </si>
+  <si>
+    <t>int numAnimals3 [];</t>
+  </si>
+  <si>
+    <t>int numAnimals4   [];</t>
+  </si>
+  <si>
+    <t>int num2 = new int [] {1,2,3}</t>
+  </si>
+  <si>
+    <t>So sánh địa chỉ tham chiểu của mảng</t>
+  </si>
+  <si>
+    <t>String [] bugs = {"cricket", "beetle", "ladybug"};</t>
+  </si>
+  <si>
+    <t>String [] alias = bugs;</t>
+  </si>
+  <si>
+    <t>System.out.println(bugs == alias);</t>
+  </si>
+  <si>
+    <t>System.out.println(bugs.equals(alias));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String names [ ]; </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Giá trị mặc định của mảng</t>
+  </si>
+  <si>
+    <t>class Names {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả: </t>
+  </si>
+  <si>
+    <t>anim-als</t>
+  </si>
+  <si>
+    <t>Xóa ở vị trí từ index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuy nhiên, lưu ý : </t>
+  </si>
+  <si>
+    <t>String names [ ] = new String [2];</t>
+  </si>
+  <si>
+    <t>Stream.of(names).forEach(System.out::println)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mảng names là một String object</t>
+  </si>
+  <si>
+    <t>tuy nhiên 2 phần tử trong mảng là null</t>
+  </si>
+  <si>
+    <t>[Ljava.lang.String;@49e4cb85</t>
+  </si>
+  <si>
+    <t>public static void main(String [ ] args ) {</t>
+  </si>
+  <si>
+    <t>String names [ ] = new Names().names;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khai báo mảng, phần tử mảng ko hợp lệ:  </t>
+  </si>
+  <si>
+    <t>String [ ] strings = { " stringValue" };</t>
+  </si>
+  <si>
+    <t>Object [ ] objects = strings ;</t>
+  </si>
+  <si>
+    <t>String [ ] againStrings = (String [ ] ) objects;</t>
+  </si>
+  <si>
+    <t>Khai báo mảng String hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko cần cast tường minh vì Object rộng hơn String </t>
+  </si>
+  <si>
+    <t>Cần cast tường minh từ kiểu dl lớn hơn về kiểu dl nhỏ hơn ( Object về String)</t>
+  </si>
+  <si>
+    <t>againStrings [ 0 ] = new StringBuilder()</t>
+  </si>
+  <si>
+    <t>// Lỗi compile vì againString [0 ] chỉ cho phép là String object, StringBuilder ko phải là String object</t>
+  </si>
+  <si>
+    <t>objects [ 0 ] = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>// Compile OK nhưng sẽ báo lỗi ArrayStoreExxception. Vì String [ ] Trỏ tới 1 Object [ ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int[] numbers = {2,4,6,8};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println(Arrays.binarySearch(numbers, 2)); // 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println(Arrays.binarySearch(numbers, 4)); // 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println(Arrays.binarySearch(numbers, 1)); // -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(Arrays.binarySearch(numbers, 3)); // -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(Arrays.binarySearch(numbers, 9)); // -5</t>
+  </si>
+  <si>
+    <t>// 1 nằm ở vị trí index 0 trong mảng, nên kết quả là -1</t>
+  </si>
+  <si>
+    <t>// 3 nằm ở vị trí index 1 trong mảng, nên kết quả là -1 -1 = -2</t>
+  </si>
+  <si>
+    <t>// 9 nằm ở vị trí index 4 trong mảng, nên kết quả là -1 -4 = -5</t>
+  </si>
+  <si>
+    <t>7. Tìm kiếm phần tử trong mảng</t>
+  </si>
+  <si>
+    <t>Đối với mảng đã được sắp xếp</t>
+  </si>
+  <si>
+    <t>Đối với mảng không được sắp xếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     int[] numbers = new int[] {3,2,1};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     System.out.println(Arrays.binarySearch(numbers, 2));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     System.out.println(Arrays.binarySearch(numbers, 3));</t>
+  </si>
+  <si>
+    <t>// 1</t>
+  </si>
+  <si>
+    <t>// -4</t>
+  </si>
+  <si>
+    <t>// Đối với phần tử có trong mảng thì trả về index của mảng bình thường từ trái sang phải, index bắt đầu từ 0</t>
+  </si>
+  <si>
+    <t>// Đối với phần tử không có trong mảng, thì chỉ cần chọn đáp án là : Kết quả ko thể đoán trước được</t>
+  </si>
+  <si>
+    <t>8. Mảng đa chiều</t>
+  </si>
+  <si>
+    <t>8. kHai báo tham số là một mảng trong hàm main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public static void main(String[] args) </t>
+  </si>
+  <si>
+    <t>public static void main(String args[])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public static void main(String... args) </t>
+  </si>
+  <si>
+    <t>Khai báo hợp lệ:</t>
+  </si>
+  <si>
+    <t>int [ ] [ ] var1;</t>
+  </si>
+  <si>
+    <t>int vars2 [ ] [ ];</t>
+  </si>
+  <si>
+    <t>int [ ] vars3 [ ]</t>
+  </si>
+  <si>
+    <t>// hai ngoặc vuông trước tên biến</t>
+  </si>
+  <si>
+    <t>// hai ngoặc vuông sau tên biến</t>
+  </si>
+  <si>
+    <t>// tên biến nằm giữa hai ngoặc vuông</t>
+  </si>
+  <si>
+    <t>int[] vars4 [], space [][];</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2696,8 +3132,66 @@
       <color rgb="FF231F20"/>
       <name val="SourceCodePro-Regular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="SourceCodePro-Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF231F20"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF231F20"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2707,6 +3201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2724,7 +3224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2775,14 +3275,54 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4998,16 +5538,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="31" t="s">
+      <c r="D424" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="31"/>
-      <c r="F424" s="31"/>
-      <c r="G424" s="31"/>
-      <c r="H424" s="31"/>
-      <c r="I424" s="31"/>
-      <c r="J424" s="31"/>
-      <c r="K424" s="31"/>
+      <c r="E424" s="46"/>
+      <c r="F424" s="46"/>
+      <c r="G424" s="46"/>
+      <c r="H424" s="46"/>
+      <c r="I424" s="46"/>
+      <c r="J424" s="46"/>
+      <c r="K424" s="46"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -5074,16 +5614,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="31" t="s">
+      <c r="D430" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="31"/>
-      <c r="F430" s="31"/>
-      <c r="G430" s="31"/>
-      <c r="H430" s="31"/>
-      <c r="I430" s="31"/>
-      <c r="J430" s="31"/>
-      <c r="K430" s="31"/>
+      <c r="E430" s="46"/>
+      <c r="F430" s="46"/>
+      <c r="G430" s="46"/>
+      <c r="H430" s="46"/>
+      <c r="I430" s="46"/>
+      <c r="J430" s="46"/>
+      <c r="K430" s="46"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -6567,10 +7107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T436"/>
+  <dimension ref="A2:T448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B434" sqref="B434"/>
+    <sheetView topLeftCell="A386" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M410" sqref="M410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7943,42 +8483,42 @@
         <v>578</v>
       </c>
     </row>
-    <row r="258" spans="3:16">
+    <row r="258" spans="3:10">
       <c r="C258" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="260" spans="3:16">
+    <row r="260" spans="3:10">
       <c r="C260" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="262" spans="3:16">
+    <row r="262" spans="3:10">
       <c r="C262" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="264" spans="3:16">
+    <row r="264" spans="3:10">
       <c r="D264" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="265" spans="3:16">
+    <row r="265" spans="3:10">
       <c r="F265" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="266" spans="3:16">
+    <row r="266" spans="3:10">
       <c r="F266" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="267" spans="3:16">
+    <row r="267" spans="3:10">
       <c r="G267" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="268" spans="3:16">
+    <row r="268" spans="3:10">
       <c r="G268" s="3" t="s">
         <v>681</v>
       </c>
@@ -7986,178 +8526,55 @@
         <v>682</v>
       </c>
     </row>
-    <row r="269" spans="3:16">
-      <c r="F269" s="3" t="s">
+    <row r="270" spans="3:10">
+      <c r="C270" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="272" spans="3:10">
+      <c r="C272" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="273" spans="3:16">
+      <c r="D273" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="274" spans="3:16">
+      <c r="E274" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="275" spans="3:16">
+      <c r="E275" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="278" spans="3:16">
+      <c r="F278" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="270" spans="3:16">
-      <c r="C270" s="3" t="s">
+    <row r="279" spans="3:16">
+      <c r="C279" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="272" spans="3:16">
-      <c r="D272" s="26" t="s">
+    <row r="281" spans="3:16">
+      <c r="D281" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="E272" s="26"/>
-      <c r="F272" s="26"/>
-      <c r="G272" s="26"/>
-      <c r="H272" s="26"/>
-      <c r="I272" s="26"/>
-      <c r="J272" s="26"/>
-      <c r="K272" s="26"/>
-      <c r="L272" s="26"/>
-      <c r="M272" s="26"/>
-      <c r="N272" s="18"/>
-      <c r="O272" s="18"/>
-      <c r="P272" s="18"/>
-    </row>
-    <row r="273" spans="1:16">
-      <c r="D273" s="26"/>
-      <c r="E273" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="F273" s="26"/>
-      <c r="G273" s="26"/>
-      <c r="H273" s="26"/>
-      <c r="I273" s="26"/>
-      <c r="J273" s="26"/>
-      <c r="K273" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="L273" s="26"/>
-      <c r="M273" s="26"/>
-      <c r="N273" s="18"/>
-      <c r="O273" s="18"/>
-      <c r="P273" s="18"/>
-    </row>
-    <row r="274" spans="1:16">
-      <c r="D274" s="26"/>
-      <c r="E274" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="F274" s="26"/>
-      <c r="G274" s="26"/>
-      <c r="H274" s="26"/>
-      <c r="I274" s="26"/>
-      <c r="J274" s="26"/>
-      <c r="K274" s="26"/>
-      <c r="L274" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="M274" s="26"/>
-      <c r="N274" s="18"/>
-      <c r="O274" s="18"/>
-      <c r="P274" s="18"/>
-    </row>
-    <row r="275" spans="1:16">
-      <c r="D275" s="26"/>
-      <c r="E275" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="F275" s="26"/>
-      <c r="G275" s="26"/>
-      <c r="H275" s="26"/>
-      <c r="I275" s="26"/>
-      <c r="J275" s="26"/>
-      <c r="K275" s="26"/>
-      <c r="L275" s="26"/>
-      <c r="M275" s="26"/>
-      <c r="N275" s="18"/>
-      <c r="O275" s="18"/>
-      <c r="P275" s="18"/>
-    </row>
-    <row r="276" spans="1:16">
-      <c r="D276" s="26"/>
-      <c r="E276" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="F276" s="26"/>
-      <c r="G276" s="26"/>
-      <c r="H276" s="26"/>
-      <c r="I276" s="26"/>
-      <c r="J276" s="26"/>
-      <c r="K276" s="26"/>
-      <c r="L276" s="26"/>
-      <c r="M276" s="26"/>
-      <c r="N276" s="18"/>
-      <c r="O276" s="18"/>
-      <c r="P276" s="18"/>
-    </row>
-    <row r="277" spans="1:16">
-      <c r="D277" s="26"/>
-      <c r="E277" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="F277" s="26"/>
-      <c r="G277" s="26"/>
-      <c r="H277" s="26"/>
-      <c r="I277" s="26"/>
-      <c r="J277" s="26"/>
-      <c r="K277" s="26"/>
-      <c r="L277" s="26"/>
-      <c r="M277" s="26"/>
-      <c r="N277" s="18"/>
-      <c r="O277" s="18"/>
-      <c r="P277" s="18"/>
-    </row>
-    <row r="278" spans="1:16">
-      <c r="D278" s="26"/>
-      <c r="E278" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="F278" s="26"/>
-      <c r="G278" s="26"/>
-      <c r="H278" s="26"/>
-      <c r="I278" s="26"/>
-      <c r="J278" s="26"/>
-      <c r="K278" s="26"/>
-      <c r="L278" s="26"/>
-      <c r="M278" s="26"/>
-      <c r="N278" s="18"/>
-      <c r="O278" s="18"/>
-      <c r="P278" s="18"/>
-    </row>
-    <row r="279" spans="1:16">
-      <c r="D279" s="26"/>
-      <c r="E279" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="F279" s="26"/>
-      <c r="G279" s="26"/>
-      <c r="H279" s="26"/>
-      <c r="I279" s="26"/>
-      <c r="J279" s="26"/>
-      <c r="K279" s="26"/>
-      <c r="L279" s="26"/>
-      <c r="M279" s="26"/>
-      <c r="N279" s="18"/>
-      <c r="O279" s="18"/>
-      <c r="P279" s="18"/>
-    </row>
-    <row r="280" spans="1:16">
-      <c r="D280" s="26"/>
-      <c r="E280" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="F280" s="26"/>
-      <c r="G280" s="26"/>
-      <c r="H280" s="26"/>
-      <c r="I280" s="26"/>
-      <c r="J280" s="26"/>
-      <c r="K280" s="26"/>
-      <c r="L280" s="26"/>
-      <c r="M280" s="26"/>
-      <c r="N280" s="18"/>
-      <c r="O280" s="18"/>
-      <c r="P280" s="18"/>
-    </row>
-    <row r="281" spans="1:16">
-      <c r="D281" s="26"/>
-      <c r="E281" s="25" t="s">
-        <v>589</v>
-      </c>
+      <c r="E281" s="26"/>
       <c r="F281" s="26"/>
       <c r="G281" s="26"/>
       <c r="H281" s="26"/>
@@ -8170,791 +8587,816 @@
       <c r="O281" s="18"/>
       <c r="P281" s="18"/>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="3:16">
       <c r="D282" s="26"/>
       <c r="E282" s="25" t="s">
-        <v>45</v>
+        <v>584</v>
       </c>
       <c r="F282" s="26"/>
       <c r="G282" s="26"/>
       <c r="H282" s="26"/>
       <c r="I282" s="26"/>
       <c r="J282" s="26"/>
-      <c r="K282" s="26"/>
+      <c r="K282" s="26" t="s">
+        <v>582</v>
+      </c>
       <c r="L282" s="26"/>
       <c r="M282" s="26"/>
       <c r="N282" s="18"/>
       <c r="O282" s="18"/>
       <c r="P282" s="18"/>
     </row>
-    <row r="283" spans="1:16">
-      <c r="D283" s="18"/>
-      <c r="E283" s="26"/>
+    <row r="283" spans="3:16">
+      <c r="D283" s="26"/>
+      <c r="E283" s="25" t="s">
+        <v>585</v>
+      </c>
       <c r="F283" s="26"/>
       <c r="G283" s="26"/>
       <c r="H283" s="26"/>
       <c r="I283" s="26"/>
-      <c r="J283" s="18"/>
-      <c r="K283" s="18"/>
-      <c r="L283" s="18"/>
-      <c r="M283" s="18"/>
+      <c r="J283" s="26"/>
+      <c r="K283" s="26"/>
+      <c r="L283" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="M283" s="26"/>
       <c r="N283" s="18"/>
       <c r="O283" s="18"/>
       <c r="P283" s="18"/>
     </row>
-    <row r="284" spans="1:16">
-      <c r="A284" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16">
-      <c r="C286" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F286" s="25" t="s">
-        <v>600</v>
-      </c>
+    <row r="284" spans="3:16">
+      <c r="D284" s="26"/>
+      <c r="E284" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="F284" s="26"/>
+      <c r="G284" s="26"/>
+      <c r="H284" s="26"/>
+      <c r="I284" s="26"/>
+      <c r="J284" s="26"/>
+      <c r="K284" s="26"/>
+      <c r="L284" s="26"/>
+      <c r="M284" s="26"/>
+      <c r="N284" s="18"/>
+      <c r="O284" s="18"/>
+      <c r="P284" s="18"/>
+    </row>
+    <row r="285" spans="3:16">
+      <c r="D285" s="26"/>
+      <c r="E285" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="F285" s="26"/>
+      <c r="G285" s="26"/>
+      <c r="H285" s="26"/>
+      <c r="I285" s="26"/>
+      <c r="J285" s="26"/>
+      <c r="K285" s="26"/>
+      <c r="L285" s="26"/>
+      <c r="M285" s="26"/>
+      <c r="N285" s="18"/>
+      <c r="O285" s="18"/>
+      <c r="P285" s="18"/>
+    </row>
+    <row r="286" spans="3:16">
+      <c r="D286" s="26"/>
+      <c r="E286" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="F286" s="26"/>
       <c r="G286" s="26"/>
       <c r="H286" s="26"/>
       <c r="I286" s="26"/>
       <c r="J286" s="26"/>
       <c r="K286" s="26"/>
       <c r="L286" s="26"/>
-    </row>
-    <row r="287" spans="1:16">
-      <c r="F287" s="25" t="s">
-        <v>135</v>
-      </c>
+      <c r="M286" s="26"/>
+      <c r="N286" s="18"/>
+      <c r="O286" s="18"/>
+      <c r="P286" s="18"/>
+    </row>
+    <row r="287" spans="3:16">
+      <c r="D287" s="26"/>
+      <c r="E287" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F287" s="26"/>
       <c r="G287" s="26"/>
       <c r="H287" s="26"/>
       <c r="I287" s="26"/>
       <c r="J287" s="26"/>
       <c r="K287" s="26"/>
       <c r="L287" s="26"/>
-    </row>
-    <row r="288" spans="1:16">
-      <c r="F288" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="M287" s="26"/>
+      <c r="N287" s="18"/>
+      <c r="O287" s="18"/>
+      <c r="P287" s="18"/>
+    </row>
+    <row r="288" spans="3:16">
+      <c r="D288" s="26"/>
+      <c r="E288" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="F288" s="26"/>
       <c r="G288" s="26"/>
       <c r="H288" s="26"/>
       <c r="I288" s="26"/>
       <c r="J288" s="26"/>
       <c r="K288" s="26"/>
       <c r="L288" s="26"/>
-    </row>
-    <row r="289" spans="3:13">
-      <c r="F289" s="25"/>
+      <c r="M288" s="26"/>
+      <c r="N288" s="18"/>
+      <c r="O288" s="18"/>
+      <c r="P288" s="18"/>
+    </row>
+    <row r="289" spans="1:16">
+      <c r="D289" s="26"/>
+      <c r="E289" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="F289" s="26"/>
       <c r="G289" s="26"/>
       <c r="H289" s="26"/>
       <c r="I289" s="26"/>
       <c r="J289" s="26"/>
       <c r="K289" s="26"/>
       <c r="L289" s="26"/>
-    </row>
-    <row r="290" spans="3:13">
-      <c r="C290" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F290" s="25"/>
-      <c r="G290" s="26" t="s">
-        <v>669</v>
-      </c>
+      <c r="M289" s="26"/>
+      <c r="N289" s="18"/>
+      <c r="O289" s="18"/>
+      <c r="P289" s="18"/>
+    </row>
+    <row r="290" spans="1:16">
+      <c r="D290" s="26"/>
+      <c r="E290" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="F290" s="26"/>
+      <c r="G290" s="26"/>
       <c r="H290" s="26"/>
       <c r="I290" s="26"/>
       <c r="J290" s="26"/>
       <c r="K290" s="26"/>
       <c r="L290" s="26"/>
-    </row>
-    <row r="291" spans="3:13">
-      <c r="C291" s="3" t="s">
+      <c r="M290" s="26"/>
+      <c r="N290" s="18"/>
+      <c r="O290" s="18"/>
+      <c r="P290" s="18"/>
+    </row>
+    <row r="291" spans="1:16">
+      <c r="D291" s="26"/>
+      <c r="E291" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F291" s="26"/>
+      <c r="G291" s="26"/>
+      <c r="H291" s="26"/>
+      <c r="I291" s="26"/>
+      <c r="J291" s="26"/>
+      <c r="K291" s="26"/>
+      <c r="L291" s="26"/>
+      <c r="M291" s="26"/>
+      <c r="N291" s="18"/>
+      <c r="O291" s="18"/>
+      <c r="P291" s="18"/>
+    </row>
+    <row r="292" spans="1:16">
+      <c r="D292" s="18"/>
+      <c r="E292" s="26"/>
+      <c r="F292" s="26"/>
+      <c r="G292" s="26"/>
+      <c r="H292" s="26"/>
+      <c r="I292" s="26"/>
+      <c r="J292" s="18"/>
+      <c r="K292" s="18"/>
+      <c r="L292" s="18"/>
+      <c r="M292" s="18"/>
+      <c r="N292" s="18"/>
+      <c r="O292" s="18"/>
+      <c r="P292" s="18"/>
+    </row>
+    <row r="293" spans="1:16">
+      <c r="A293" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16">
+      <c r="C295" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F295" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="G295" s="26"/>
+      <c r="H295" s="26"/>
+      <c r="I295" s="26"/>
+      <c r="J295" s="26"/>
+      <c r="K295" s="26"/>
+      <c r="L295" s="26"/>
+    </row>
+    <row r="296" spans="1:16">
+      <c r="F296" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G296" s="26"/>
+      <c r="H296" s="26"/>
+      <c r="I296" s="26"/>
+      <c r="J296" s="26"/>
+      <c r="K296" s="26"/>
+      <c r="L296" s="26"/>
+    </row>
+    <row r="297" spans="1:16">
+      <c r="F297" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" s="26"/>
+      <c r="H297" s="26"/>
+      <c r="I297" s="26"/>
+      <c r="J297" s="26"/>
+      <c r="K297" s="26"/>
+      <c r="L297" s="26"/>
+    </row>
+    <row r="298" spans="1:16">
+      <c r="F298" s="25"/>
+      <c r="G298" s="26"/>
+      <c r="H298" s="26"/>
+      <c r="I298" s="26"/>
+      <c r="J298" s="26"/>
+      <c r="K298" s="26"/>
+      <c r="L298" s="26"/>
+    </row>
+    <row r="299" spans="1:16">
+      <c r="C299" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F299" s="25"/>
+      <c r="G299" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="H299" s="26"/>
+      <c r="I299" s="26"/>
+      <c r="J299" s="26"/>
+      <c r="K299" s="26"/>
+      <c r="L299" s="26"/>
+    </row>
+    <row r="300" spans="1:16">
+      <c r="C300" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="G291" s="3" t="s">
+      <c r="G300" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="293" spans="3:13">
-      <c r="C293" s="3" t="s">
+    <row r="302" spans="1:16">
+      <c r="C302" s="3" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="294" spans="3:13">
-      <c r="D294" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L294" s="3" t="s">
+    <row r="303" spans="1:16">
+      <c r="D303" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L303" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="296" spans="3:13">
-      <c r="E296" s="3" t="s">
+    <row r="305" spans="3:20">
+      <c r="E305" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L296" s="3" t="s">
+      <c r="L305" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="297" spans="3:13">
-      <c r="F297" s="3" t="s">
+    <row r="306" spans="3:20">
+      <c r="F306" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="M297" s="3" t="s">
+      <c r="M306" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="298" spans="3:13">
-      <c r="E298" s="3" t="s">
+    <row r="307" spans="3:20">
+      <c r="E307" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L298" s="3" t="s">
+      <c r="L307" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="300" spans="3:13">
-      <c r="L300" s="3" t="s">
+    <row r="309" spans="3:20">
+      <c r="L309" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="301" spans="3:13">
-      <c r="M301" s="3" t="s">
+    <row r="310" spans="3:20">
+      <c r="M310" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="302" spans="3:13">
-      <c r="L302" s="3" t="s">
+    <row r="311" spans="3:20">
+      <c r="L311" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="306" spans="3:20">
-      <c r="C306" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D306" s="13"/>
-      <c r="E306" s="13"/>
-      <c r="F306" s="13"/>
-      <c r="G306" s="13"/>
-      <c r="H306" s="13"/>
-      <c r="I306" s="13"/>
-      <c r="J306" s="13"/>
-      <c r="L306" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="307" spans="3:20">
-      <c r="C307" s="13"/>
-    </row>
-    <row r="308" spans="3:20">
-      <c r="C308" s="13"/>
-      <c r="D308" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="E308" s="26"/>
-      <c r="F308" s="26"/>
-      <c r="G308" s="26"/>
-      <c r="H308" s="26"/>
-      <c r="I308" s="26"/>
-      <c r="J308" s="26"/>
-      <c r="L308" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="M308" s="13"/>
-      <c r="N308" s="13"/>
-      <c r="O308" s="13"/>
-      <c r="P308" s="13"/>
-      <c r="Q308" s="13"/>
-      <c r="R308" s="13"/>
-    </row>
-    <row r="309" spans="3:20">
-      <c r="C309" s="13"/>
-      <c r="D309" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E309" s="26"/>
-      <c r="F309" s="26"/>
-      <c r="G309" s="26"/>
-      <c r="H309" s="26"/>
-      <c r="I309" s="26"/>
-      <c r="J309" s="26"/>
-      <c r="L309" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="M309" s="13"/>
-      <c r="N309" s="13"/>
-      <c r="O309" s="13"/>
-      <c r="P309" s="13"/>
-      <c r="Q309" s="13"/>
-      <c r="R309" s="13"/>
-      <c r="T309" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="310" spans="3:20">
-      <c r="C310" s="13"/>
-      <c r="D310" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E310" s="26"/>
-      <c r="F310" s="26"/>
-      <c r="G310" s="26"/>
-      <c r="H310" s="26"/>
-      <c r="I310" s="26"/>
-      <c r="J310" s="26"/>
-      <c r="L310" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="M310" s="13"/>
-      <c r="N310" s="13"/>
-      <c r="O310" s="13"/>
-      <c r="P310" s="13"/>
-      <c r="Q310" s="13"/>
-      <c r="R310" s="13"/>
-      <c r="T310" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="311" spans="3:20">
-      <c r="L311" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="M311" s="13"/>
-      <c r="N311" s="13"/>
-      <c r="O311" s="13"/>
-      <c r="P311" s="13"/>
-      <c r="Q311" s="13"/>
-      <c r="R311" s="13"/>
-    </row>
-    <row r="312" spans="3:20">
-      <c r="D312" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="E312" s="13"/>
-      <c r="F312" s="13"/>
-      <c r="G312" s="13"/>
-      <c r="H312" s="13"/>
-      <c r="I312" s="13"/>
-    </row>
-    <row r="313" spans="3:20">
-      <c r="D313" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="E313" s="13"/>
-      <c r="F313" s="13"/>
-      <c r="G313" s="13"/>
-      <c r="H313" s="13"/>
-      <c r="I313" s="13"/>
-      <c r="L313" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="M313" s="13"/>
-      <c r="N313" s="13"/>
-      <c r="O313" s="13"/>
-      <c r="P313" s="13"/>
-      <c r="Q313" s="13"/>
-      <c r="R313" s="13"/>
-      <c r="S313" s="13"/>
-      <c r="T313" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="314" spans="3:20">
-      <c r="D314" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="E314" s="13"/>
-      <c r="F314" s="13"/>
-      <c r="G314" s="13"/>
-      <c r="H314" s="13"/>
-      <c r="I314" s="13"/>
-      <c r="L314" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="M314" s="13"/>
-      <c r="N314" s="13"/>
-      <c r="O314" s="13"/>
-      <c r="P314" s="13"/>
-      <c r="Q314" s="13"/>
-      <c r="R314" s="13"/>
-      <c r="S314" s="13"/>
-    </row>
     <row r="315" spans="3:20">
-      <c r="D315" s="24" t="s">
-        <v>604</v>
-      </c>
+      <c r="C315" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D315" s="13"/>
       <c r="E315" s="13"/>
       <c r="F315" s="13"/>
       <c r="G315" s="13"/>
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
-      <c r="L315" s="24" t="s">
+      <c r="J315" s="13"/>
+      <c r="L315" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="316" spans="3:20">
+      <c r="C316" s="13"/>
+    </row>
+    <row r="317" spans="3:20">
+      <c r="C317" s="13"/>
+      <c r="D317" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="E317" s="26"/>
+      <c r="F317" s="26"/>
+      <c r="G317" s="26"/>
+      <c r="H317" s="26"/>
+      <c r="I317" s="26"/>
+      <c r="J317" s="26"/>
+      <c r="L317" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="M317" s="13"/>
+      <c r="N317" s="13"/>
+      <c r="O317" s="13"/>
+      <c r="P317" s="13"/>
+      <c r="Q317" s="13"/>
+      <c r="R317" s="13"/>
+    </row>
+    <row r="318" spans="3:20">
+      <c r="C318" s="13"/>
+      <c r="D318" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E318" s="26"/>
+      <c r="F318" s="26"/>
+      <c r="G318" s="26"/>
+      <c r="H318" s="26"/>
+      <c r="I318" s="26"/>
+      <c r="J318" s="26"/>
+      <c r="L318" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="M318" s="13"/>
+      <c r="N318" s="13"/>
+      <c r="O318" s="13"/>
+      <c r="P318" s="13"/>
+      <c r="Q318" s="13"/>
+      <c r="R318" s="13"/>
+      <c r="T318" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="319" spans="3:20">
+      <c r="C319" s="13"/>
+      <c r="D319" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M315" s="13"/>
-      <c r="N315" s="13"/>
-      <c r="O315" s="13"/>
-      <c r="P315" s="13"/>
-      <c r="Q315" s="13"/>
-      <c r="R315" s="13"/>
-      <c r="S315" s="13"/>
-    </row>
-    <row r="316" spans="3:20">
-      <c r="D316" s="24" t="s">
+      <c r="E319" s="26"/>
+      <c r="F319" s="26"/>
+      <c r="G319" s="26"/>
+      <c r="H319" s="26"/>
+      <c r="I319" s="26"/>
+      <c r="J319" s="26"/>
+      <c r="L319" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="M319" s="13"/>
+      <c r="N319" s="13"/>
+      <c r="O319" s="13"/>
+      <c r="P319" s="13"/>
+      <c r="Q319" s="13"/>
+      <c r="R319" s="13"/>
+      <c r="T319" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="320" spans="3:20">
+      <c r="L320" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E316" s="13"/>
-      <c r="F316" s="13"/>
-      <c r="G316" s="13"/>
-      <c r="H316" s="13"/>
-      <c r="I316" s="13"/>
-      <c r="L316" s="13"/>
-      <c r="M316" s="13"/>
-      <c r="N316" s="13"/>
-      <c r="O316" s="13"/>
-      <c r="P316" s="13"/>
-      <c r="Q316" s="13"/>
-      <c r="R316" s="13"/>
-      <c r="S316" s="13"/>
-    </row>
-    <row r="321" spans="1:9">
-      <c r="A321" s="2" t="s">
+      <c r="M320" s="13"/>
+      <c r="N320" s="13"/>
+      <c r="O320" s="13"/>
+      <c r="P320" s="13"/>
+      <c r="Q320" s="13"/>
+      <c r="R320" s="13"/>
+    </row>
+    <row r="321" spans="1:20">
+      <c r="D321" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E321" s="13"/>
+      <c r="F321" s="13"/>
+      <c r="G321" s="13"/>
+      <c r="H321" s="13"/>
+      <c r="I321" s="13"/>
+    </row>
+    <row r="322" spans="1:20">
+      <c r="D322" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E322" s="13"/>
+      <c r="F322" s="13"/>
+      <c r="G322" s="13"/>
+      <c r="H322" s="13"/>
+      <c r="I322" s="13"/>
+      <c r="L322" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="M322" s="13"/>
+      <c r="N322" s="13"/>
+      <c r="O322" s="13"/>
+      <c r="P322" s="13"/>
+      <c r="Q322" s="13"/>
+      <c r="R322" s="13"/>
+      <c r="S322" s="13"/>
+      <c r="T322" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20">
+      <c r="D323" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E323" s="13"/>
+      <c r="F323" s="13"/>
+      <c r="G323" s="13"/>
+      <c r="H323" s="13"/>
+      <c r="I323" s="13"/>
+      <c r="L323" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="M323" s="13"/>
+      <c r="N323" s="13"/>
+      <c r="O323" s="13"/>
+      <c r="P323" s="13"/>
+      <c r="Q323" s="13"/>
+      <c r="R323" s="13"/>
+      <c r="S323" s="13"/>
+    </row>
+    <row r="324" spans="1:20">
+      <c r="D324" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E324" s="13"/>
+      <c r="F324" s="13"/>
+      <c r="G324" s="13"/>
+      <c r="H324" s="13"/>
+      <c r="I324" s="13"/>
+      <c r="L324" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M324" s="13"/>
+      <c r="N324" s="13"/>
+      <c r="O324" s="13"/>
+      <c r="P324" s="13"/>
+      <c r="Q324" s="13"/>
+      <c r="R324" s="13"/>
+      <c r="S324" s="13"/>
+    </row>
+    <row r="325" spans="1:20">
+      <c r="D325" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E325" s="13"/>
+      <c r="F325" s="13"/>
+      <c r="G325" s="13"/>
+      <c r="H325" s="13"/>
+      <c r="I325" s="13"/>
+      <c r="L325" s="13"/>
+      <c r="M325" s="13"/>
+      <c r="N325" s="13"/>
+      <c r="O325" s="13"/>
+      <c r="P325" s="13"/>
+      <c r="Q325" s="13"/>
+      <c r="R325" s="13"/>
+      <c r="S325" s="13"/>
+    </row>
+    <row r="330" spans="1:20">
+      <c r="A330" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
-      <c r="B323" s="3" t="s">
+    <row r="332" spans="1:20">
+      <c r="B332" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
-      <c r="C324" s="3" t="s">
+    <row r="333" spans="1:20">
+      <c r="C333" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
-      <c r="C327" s="3" t="s">
+    <row r="336" spans="1:20">
+      <c r="C336" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
-      <c r="A328" s="2" t="s">
+    <row r="337" spans="1:9">
+      <c r="A337" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
-      <c r="B331" s="3" t="s">
+    <row r="340" spans="1:9">
+      <c r="B340" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
-      <c r="C333" s="24" t="s">
+    <row r="342" spans="1:9">
+      <c r="C342" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="D333" s="13"/>
-      <c r="E333" s="13"/>
-      <c r="F333" s="13"/>
-      <c r="G333" s="13"/>
-      <c r="H333" s="13"/>
-      <c r="I333" s="13"/>
-    </row>
-    <row r="334" spans="1:9">
-      <c r="C334" s="24" t="s">
+      <c r="D342" s="13"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+      <c r="G342" s="13"/>
+      <c r="H342" s="13"/>
+      <c r="I342" s="13"/>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="C343" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="D334" s="13"/>
-      <c r="E334" s="13"/>
-      <c r="F334" s="13"/>
-      <c r="G334" s="13"/>
-      <c r="H334" s="13"/>
-      <c r="I334" s="13"/>
-    </row>
-    <row r="335" spans="1:9">
-      <c r="C335" s="24" t="s">
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
+      <c r="H343" s="13"/>
+      <c r="I343" s="13"/>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="C344" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="D335" s="13"/>
-      <c r="E335" s="13"/>
-      <c r="F335" s="13"/>
-      <c r="G335" s="13"/>
-      <c r="H335" s="13"/>
-      <c r="I335" s="13"/>
-    </row>
-    <row r="336" spans="1:9">
-      <c r="C336" s="24" t="s">
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="13"/>
+      <c r="H344" s="13"/>
+      <c r="I344" s="13"/>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="C345" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="D336" s="13"/>
-      <c r="E336" s="13"/>
-      <c r="F336" s="13"/>
-      <c r="G336" s="13"/>
-      <c r="H336" s="13"/>
-      <c r="I336" s="13"/>
-    </row>
-    <row r="337" spans="1:9">
-      <c r="C337" s="24" t="s">
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="13"/>
+      <c r="H345" s="13"/>
+      <c r="I345" s="13"/>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="C346" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="D337" s="13"/>
-      <c r="E337" s="13"/>
-      <c r="F337" s="13"/>
-      <c r="G337" s="13"/>
-      <c r="H337" s="13"/>
-      <c r="I337" s="13"/>
-    </row>
-    <row r="338" spans="1:9">
-      <c r="C338" s="24" t="s">
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="13"/>
+      <c r="H346" s="13"/>
+      <c r="I346" s="13"/>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="C347" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="D338" s="13"/>
-      <c r="E338" s="13"/>
-      <c r="F338" s="13"/>
-      <c r="G338" s="13"/>
-      <c r="H338" s="13"/>
-      <c r="I338" s="13"/>
-    </row>
-    <row r="339" spans="1:9">
-      <c r="C339" s="24" t="s">
+      <c r="D347" s="13"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+      <c r="G347" s="13"/>
+      <c r="H347" s="13"/>
+      <c r="I347" s="13"/>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="C348" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D339" s="13"/>
-      <c r="E339" s="13"/>
-      <c r="F339" s="13"/>
-      <c r="G339" s="13"/>
-      <c r="H339" s="13"/>
-      <c r="I339" s="13"/>
-    </row>
-    <row r="341" spans="1:9">
-      <c r="C341" s="3" t="s">
+      <c r="D348" s="13"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="13"/>
+      <c r="H348" s="13"/>
+      <c r="I348" s="13"/>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="C350" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="D341" s="28" t="s">
+      <c r="D350" s="28" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
-      <c r="D342"/>
-    </row>
-    <row r="343" spans="1:9">
-      <c r="D343" s="28" t="s">
+    <row r="351" spans="1:9">
+      <c r="D351"/>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="D352" s="28" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
-      <c r="D344"/>
-    </row>
-    <row r="345" spans="1:9">
-      <c r="D345" s="28" t="s">
+    <row r="353" spans="1:5">
+      <c r="D353"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="D354" s="28" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
-      <c r="A347" s="29" t="s">
+    <row r="356" spans="1:5">
+      <c r="A356" s="29" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
-      <c r="B349" s="3" t="s">
+    <row r="358" spans="1:5">
+      <c r="B358" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="D358" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
-      <c r="E351" s="3" t="s">
+    <row r="360" spans="1:5">
+      <c r="E360" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
-      <c r="D352" s="3" t="s">
+    <row r="361" spans="1:5">
+      <c r="D361" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
-      <c r="A353" s="2" t="s">
+    <row r="362" spans="1:5">
+      <c r="A362" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
-      <c r="A354" s="2"/>
-      <c r="B354" s="3" t="s">
+    <row r="363" spans="1:5">
+      <c r="A363" s="2"/>
+      <c r="B363" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D363" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
-      <c r="A355" s="2"/>
-      <c r="B355" s="3" t="s">
+    <row r="364" spans="1:5">
+      <c r="A364" s="2"/>
+      <c r="B364" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
-      <c r="B356" s="3" t="s">
+    <row r="365" spans="1:5">
+      <c r="B365" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="E356" s="3" t="s">
+      <c r="E365" s="3" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
-      <c r="E357" s="3" t="s">
+    <row r="366" spans="1:5">
+      <c r="E366" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="358" spans="1:8" s="6" customFormat="1">
-      <c r="A358" s="6" t="s">
+    <row r="367" spans="1:5" s="6" customFormat="1">
+      <c r="A367" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B358" s="6" t="s">
+      <c r="B367" s="6" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
-      <c r="A359" s="3" t="s">
+    <row r="368" spans="1:5">
+      <c r="A368" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B368" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="C368" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="D368" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E359" s="3" t="s">
+      <c r="E368" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
-      <c r="A360" s="3">
+    <row r="369" spans="1:8">
+      <c r="A369" s="3">
         <v>1</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B369" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C369" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E360" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="H360" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="A361" s="3">
-        <v>2</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E361" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="A362" s="3">
-        <v>3</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="A363" s="3">
-        <v>4</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" s="3">
-        <v>5</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="A365" s="3">
-        <v>6</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E365" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
-      <c r="A366" s="3">
-        <v>7</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E366" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="A367" s="3">
-        <v>8</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E367" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
-      <c r="A368" s="3">
-        <v>9</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E368" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="A369" s="3">
-        <v>10</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>642</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>213</v>
+        <v>637</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>222</v>
+        <v>643</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>213</v>
+        <v>638</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:8">
       <c r="A372" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>213</v>
+        <v>639</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>222</v>
+        <v>646</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:8">
       <c r="A374" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>217</v>
       </c>
+      <c r="C374" s="3" t="s">
+        <v>638</v>
+      </c>
       <c r="D374" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>213</v>
@@ -8962,468 +9404,959 @@
       <c r="D375" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="376" spans="1:5">
+      <c r="E375" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>213</v>
+        <v>638</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>222</v>
+        <v>638</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B382" s="30">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" s="2" customFormat="1">
-      <c r="A384" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>686</v>
+      <c r="E379" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" s="3">
+        <v>12</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381" s="3">
+        <v>13</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382" s="3">
+        <v>14</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" s="3">
+        <v>15</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" s="3">
+        <v>16</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="3">
+        <v>17</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="B386" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="C386" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D386" s="33" t="s">
-        <v>649</v>
-      </c>
-      <c r="E386" s="33" t="s">
-        <v>650</v>
+      <c r="A386" s="3">
+        <v>18</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="3">
-        <v>1</v>
-      </c>
-      <c r="B387" s="32" t="s">
-        <v>216</v>
+        <v>19</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="3">
-        <v>2</v>
-      </c>
-      <c r="B388" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="A389" s="3">
-        <v>3</v>
-      </c>
-      <c r="B389" s="32" t="s">
-        <v>257</v>
+        <v>20</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="3">
-        <v>4</v>
-      </c>
-      <c r="B390" s="32" t="s">
-        <v>216</v>
+      <c r="A390" s="3" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="3">
-        <v>5</v>
-      </c>
-      <c r="B391" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="3">
-        <v>6</v>
-      </c>
-      <c r="B392" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="A393" s="3">
-        <v>7</v>
-      </c>
-      <c r="B393" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="3">
-        <v>8</v>
-      </c>
-      <c r="B394" s="32" t="s">
-        <v>257</v>
+      <c r="A391" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B391" s="30">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" s="2" customFormat="1">
+      <c r="A393" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="3">
-        <v>9</v>
+      <c r="A395" s="32" t="s">
+        <v>685</v>
       </c>
       <c r="B395" s="32" t="s">
-        <v>257</v>
+        <v>647</v>
+      </c>
+      <c r="C395" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D395" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="E395" s="32" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="3">
-        <v>10</v>
-      </c>
-      <c r="B396" s="32" t="s">
-        <v>222</v>
+        <v>1</v>
+      </c>
+      <c r="B396" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C396" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="3">
-        <v>11</v>
-      </c>
-      <c r="B397" s="32" t="s">
-        <v>687</v>
+        <v>2</v>
+      </c>
+      <c r="B397" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C397" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="3">
-        <v>12</v>
-      </c>
-      <c r="B398" s="32" t="s">
-        <v>688</v>
+        <v>3</v>
+      </c>
+      <c r="B398" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C398" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="3">
-        <v>13</v>
-      </c>
-      <c r="B399" s="32" t="s">
-        <v>222</v>
+        <v>4</v>
+      </c>
+      <c r="B399" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C399" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="3">
+        <v>5</v>
+      </c>
+      <c r="B400" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C400" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="3">
+        <v>6</v>
+      </c>
+      <c r="B401" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C401" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="3">
+        <v>7</v>
+      </c>
+      <c r="B402" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C402" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="3">
+        <v>8</v>
+      </c>
+      <c r="B403" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C403" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="3">
+        <v>9</v>
+      </c>
+      <c r="B404" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C404" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="3">
+        <v>10</v>
+      </c>
+      <c r="B405" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C405" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="3">
+        <v>11</v>
+      </c>
+      <c r="B406" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="C406" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="3">
+        <v>12</v>
+      </c>
+      <c r="B407" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C407" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="3">
+        <v>13</v>
+      </c>
+      <c r="B408" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C408" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="3">
         <v>14</v>
       </c>
-      <c r="B400" s="32" t="s">
+      <c r="B409" s="31" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="3">
+      <c r="C409" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="3">
         <v>15</v>
       </c>
-      <c r="B401" s="32" t="s">
+      <c r="B410" s="31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="3">
+      <c r="C410" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="3">
         <v>16</v>
       </c>
-      <c r="B402" s="32" t="s">
+      <c r="B411" s="31" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="3">
+      <c r="C411" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="3">
         <v>17</v>
       </c>
-      <c r="B403" s="32" t="s">
+      <c r="B412" s="31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="3">
+      <c r="C412" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="3">
         <v>18</v>
       </c>
-      <c r="B404" s="32" t="s">
+      <c r="B413" s="31" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="3">
+      <c r="C413" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="3">
         <v>19</v>
       </c>
-      <c r="B405" s="32" t="s">
+      <c r="B414" s="31" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="3">
+      <c r="C414" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="3">
         <v>20</v>
       </c>
-      <c r="B406" s="32" t="s">
+      <c r="B415" s="31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="3">
+      <c r="C415" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="3">
         <v>21</v>
       </c>
-      <c r="B407" s="32" t="s">
+      <c r="B416" s="31" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="3">
+      <c r="C416" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="3">
         <v>22</v>
       </c>
-      <c r="B408" s="32" t="s">
+      <c r="B417" s="31" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" s="3">
+      <c r="C417" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="3">
         <v>23</v>
       </c>
-      <c r="B409" s="32" t="s">
+      <c r="B418" s="31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" s="3">
+      <c r="C418" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="3">
         <v>24</v>
       </c>
-      <c r="B410" s="32" t="s">
+      <c r="B419" s="31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" s="3">
+      <c r="C419" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="3">
         <v>25</v>
       </c>
-      <c r="B411" s="32" t="s">
+      <c r="B420" s="31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" s="3">
+      <c r="C420" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="3">
         <v>26</v>
       </c>
-      <c r="B412" s="32" t="s">
+      <c r="B421" s="31" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="3">
+      <c r="C421" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="3">
         <v>27</v>
       </c>
-      <c r="B413" s="32" t="s">
+      <c r="B422" s="31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" s="3">
+      <c r="C422" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="3">
         <v>28</v>
       </c>
-      <c r="B414" s="32" t="s">
+      <c r="B423" s="31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" s="3">
+      <c r="C423" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="3">
         <v>29</v>
       </c>
-      <c r="B415" s="32" t="s">
+      <c r="B424" s="31" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" s="3">
+      <c r="C424" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="3">
         <v>30</v>
       </c>
-      <c r="B416" s="32" t="s">
+      <c r="B425" s="31" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" s="3">
+      <c r="C425" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="3">
         <v>31</v>
       </c>
-      <c r="B417" s="32" t="s">
+      <c r="B426" s="31" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" s="3">
+      <c r="C426" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="3">
         <v>32</v>
       </c>
-      <c r="B418" s="32" t="s">
+      <c r="B427" s="31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" s="3">
+      <c r="C427" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="3">
         <v>33</v>
       </c>
-      <c r="B419" s="32" t="s">
+      <c r="B428" s="31" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" s="3">
+      <c r="C428" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="3">
         <v>34</v>
       </c>
-      <c r="B420" s="32"/>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" s="3">
+      <c r="B429" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C429" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="3">
         <v>35</v>
       </c>
-      <c r="B421" s="32"/>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" s="3">
+      <c r="B430" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C430" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="3">
         <v>36</v>
       </c>
-      <c r="B422" s="32"/>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" s="3">
+      <c r="B431" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C431" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="3">
         <v>37</v>
       </c>
-      <c r="B423" s="32"/>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" s="3">
+      <c r="B432" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C432" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="3">
         <v>38</v>
       </c>
-      <c r="B424" s="32"/>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" s="3">
+      <c r="B433" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C433" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="3">
         <v>39</v>
       </c>
-      <c r="B425" s="32"/>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" s="3">
+      <c r="B434" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C434" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="3">
         <v>40</v>
       </c>
-      <c r="B426" s="32"/>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" s="3">
+      <c r="B435" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C435" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="3">
         <v>41</v>
       </c>
-      <c r="B427" s="32"/>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" s="3">
+      <c r="B436" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C436" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="3">
         <v>42</v>
       </c>
-      <c r="B428" s="32"/>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" s="3">
+      <c r="B437" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C437" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="3">
         <v>43</v>
       </c>
-      <c r="B429" s="32"/>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" s="3">
+      <c r="B438" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C438" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="3">
         <v>44</v>
       </c>
-      <c r="B430" s="32"/>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" s="3">
+      <c r="B439" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C439" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="3">
         <v>45</v>
       </c>
-      <c r="B431" s="32"/>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" s="3">
+      <c r="B440" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C440" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="3">
         <v>46</v>
       </c>
-      <c r="B432" s="32"/>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" s="3">
+      <c r="B441" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C441" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="3">
         <v>47</v>
       </c>
-      <c r="B433" s="32"/>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" s="3">
+      <c r="B442" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C442" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="3">
         <v>48</v>
       </c>
-      <c r="B434" s="32" t="s">
+      <c r="B443" s="31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" s="3">
-        <v>49</v>
-      </c>
-      <c r="B435" s="32" t="s">
+      <c r="C443" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="3">
+        <v>49</v>
+      </c>
+      <c r="B444" s="31" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="3">
+      <c r="C444" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="3">
         <v>50</v>
       </c>
-      <c r="B436" s="32" t="s">
+      <c r="B445" s="31" t="s">
         <v>213</v>
+      </c>
+      <c r="C445" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C447" s="31" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C448" s="35">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -9431,4 +10364,1013 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="36" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="J18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="C33" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="C34" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="B36" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="C38" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="36" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="B43" t="s">
+        <v>725</v>
+      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="C44" t="s">
+        <v>726</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="C45" t="s">
+        <v>728</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="C46" t="s">
+        <v>727</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="C47" t="s">
+        <v>729</v>
+      </c>
+      <c r="I47" s="38"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="I48" s="38"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="B51" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="C53" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="C54" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="18.75">
+      <c r="C56" s="40" t="s">
+        <v>737</v>
+      </c>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="1:16" ht="18.75">
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" spans="1:16" ht="18.75">
+      <c r="C58" s="41"/>
+      <c r="D58" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="41"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.75">
+      <c r="C59" s="41"/>
+      <c r="D59" s="42" t="s">
+        <v>739</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+    </row>
+    <row r="60" spans="1:16" ht="18.75">
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="D61" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="36" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="C69" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="C71" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="D72" t="s">
+        <v>745</v>
+      </c>
+      <c r="J72" t="s">
+        <v>747</v>
+      </c>
+      <c r="M72" t="s">
+        <v>780</v>
+      </c>
+      <c r="N72" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="D73" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="C78" t="s">
+        <v>749</v>
+      </c>
+      <c r="J78" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="C80" t="s">
+        <v>750</v>
+      </c>
+      <c r="J80" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="D83" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="E84" t="s">
+        <v>752</v>
+      </c>
+      <c r="J84" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="J85" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="36" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="C92" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="43"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="C93" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="43"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="C94" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="43"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="C95" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="I95" s="43"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="C96" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="I96" s="43"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="C103" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="C104" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="C106" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="C107" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="C108" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="C109" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="C111" t="s">
+        <v>792</v>
+      </c>
+      <c r="H111" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="C112" t="s">
+        <v>793</v>
+      </c>
+      <c r="H112" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="C113" t="s">
+        <v>794</v>
+      </c>
+      <c r="H113" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="C119" t="s">
+        <v>798</v>
+      </c>
+      <c r="H119" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="C120" t="s">
+        <v>800</v>
+      </c>
+      <c r="H120" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="C126" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="C127" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="C128" s="23"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="C129" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="C130" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16">
+      <c r="C135" t="s">
+        <v>779</v>
+      </c>
+      <c r="P135" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16">
+      <c r="D136" t="s">
+        <v>776</v>
+      </c>
+      <c r="F136" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16">
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="P137" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16">
+      <c r="C140" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16">
+      <c r="C142" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="D144" t="s">
+        <v>784</v>
+      </c>
+      <c r="J144" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="D146" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="E147" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="E148" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="C151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A154" s="36" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="17.25" customHeight="1">
+      <c r="B155" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="B156" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="C156" s="47"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="47"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="48"/>
+      <c r="J156" s="50"/>
+      <c r="K156" s="49"/>
+      <c r="L156" s="49"/>
+      <c r="M156" s="49"/>
+      <c r="N156" s="49"/>
+      <c r="O156" s="49"/>
+      <c r="P156" s="49"/>
+      <c r="Q156" s="49"/>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="B157" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="C157" s="47"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="47"/>
+      <c r="F157" s="47"/>
+      <c r="G157" s="47"/>
+      <c r="H157" s="47"/>
+      <c r="I157" s="48"/>
+      <c r="J157" s="50"/>
+      <c r="K157" s="49"/>
+      <c r="L157" s="49"/>
+      <c r="M157" s="49"/>
+      <c r="N157" s="49"/>
+      <c r="O157" s="49"/>
+      <c r="P157" s="49"/>
+      <c r="Q157" s="49"/>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="B158" s="47" t="s">
+        <v>804</v>
+      </c>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="47"/>
+      <c r="F158" s="47"/>
+      <c r="G158" s="47"/>
+      <c r="H158" s="47"/>
+      <c r="I158" s="48"/>
+      <c r="J158" s="50"/>
+      <c r="K158" s="49"/>
+      <c r="L158" s="49"/>
+      <c r="M158" s="49"/>
+      <c r="N158" s="49"/>
+      <c r="O158" s="49"/>
+      <c r="P158" s="49"/>
+      <c r="Q158" s="49"/>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="B159" s="47" t="s">
+        <v>805</v>
+      </c>
+      <c r="C159" s="47"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="47"/>
+      <c r="I159" s="48"/>
+      <c r="J159" s="50"/>
+      <c r="K159" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="L159" s="49"/>
+      <c r="M159" s="49"/>
+      <c r="N159" s="49"/>
+      <c r="O159" s="49"/>
+      <c r="P159" s="49"/>
+      <c r="Q159" s="49"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="B160" s="47" t="s">
+        <v>806</v>
+      </c>
+      <c r="C160" s="47"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="47"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="47"/>
+      <c r="I160" s="48"/>
+      <c r="J160" s="50"/>
+      <c r="K160" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="L160" s="49"/>
+      <c r="M160" s="49"/>
+      <c r="N160" s="49"/>
+      <c r="O160" s="49"/>
+      <c r="P160" s="49"/>
+      <c r="Q160" s="49"/>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="B161" s="47" t="s">
+        <v>807</v>
+      </c>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="47"/>
+      <c r="I161" s="48"/>
+      <c r="J161" s="50"/>
+      <c r="K161" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="L161" s="49"/>
+      <c r="M161" s="49"/>
+      <c r="N161" s="49"/>
+      <c r="O161" s="49"/>
+      <c r="P161" s="49"/>
+      <c r="Q161" s="49"/>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="B164" s="44" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="C166" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="C167" t="s">
+        <v>815</v>
+      </c>
+      <c r="I167" t="s">
+        <v>817</v>
+      </c>
+      <c r="J167" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="C168" t="s">
+        <v>816</v>
+      </c>
+      <c r="I168" t="s">
+        <v>818</v>
+      </c>
+      <c r="J168" s="51" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="36" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="C173" s="52" t="s">
+        <v>823</v>
+      </c>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="C174" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="C175" s="52" t="s">
+        <v>825</v>
+      </c>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="36" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="B179" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="C180" t="s">
+        <v>827</v>
+      </c>
+      <c r="E180" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="C181" t="s">
+        <v>828</v>
+      </c>
+      <c r="E181" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="C182" t="s">
+        <v>829</v>
+      </c>
+      <c r="E182" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="C183" s="53" t="s">
+        <v>833</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="941">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -2925,12 +2925,333 @@
   <si>
     <t>int[] vars4 [], space [][];</t>
   </si>
+  <si>
+    <t>9. ArrayLisst</t>
+  </si>
+  <si>
+    <t>Tạo Arraylist hợp lệ:</t>
+  </si>
+  <si>
+    <t>ArrayList list_1 = new ArrayList();</t>
+  </si>
+  <si>
+    <t>ArrrayList list_2 = new ArrayList(10);</t>
+  </si>
+  <si>
+    <t>ArrayList list_3 = new ArrayList(list_2);</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; list_4 = new ArrayList&lt;String&gt;();</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; list_5 = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>Ko hợp lệ:</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; list 7 = new List&lt;&gt;()</t>
+  </si>
+  <si>
+    <t>Phương thức add();</t>
+  </si>
+  <si>
+    <t>boolean add ( E element)</t>
+  </si>
+  <si>
+    <t>void add (int index, E element);</t>
+  </si>
+  <si>
+    <t>// phương thức này luôn trả về true nên k cần quan tâm</t>
+  </si>
+  <si>
+    <t>Lưu ý: Nếu ko chỉ rõ kiểu dữ liệu của ArrayList, thì có thể add các phần tử có các kiểu dl khác nhau vào list ok</t>
+  </si>
+  <si>
+    <t>ArrayList list = new ArrayList();</t>
+  </si>
+  <si>
+    <t>list.add("hello");</t>
+  </si>
+  <si>
+    <t>list.add(Boolean.TRUE);</t>
+  </si>
+  <si>
+    <t>list.forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>// hello TRUE</t>
+  </si>
+  <si>
+    <t>Nếu chỉ rõ kiểu dl của ArrayList, thì chỉ được add các phần tử đúng kiểu dl của ArrayList</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt;  list = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>list.add("1");</t>
+  </si>
+  <si>
+    <t>// Lỗi compile ở dòng này</t>
+  </si>
+  <si>
+    <t>Phương thức remove()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean remove (Object object) </t>
+  </si>
+  <si>
+    <t>E remove (int index)</t>
+  </si>
+  <si>
+    <t>// Lưu ý phương thức này chỉ remove phần tử matching đầu tiên</t>
+  </si>
+  <si>
+    <t>10. Wrapper class</t>
+  </si>
+  <si>
+    <t>Primitive</t>
+  </si>
+  <si>
+    <t>Wrapper</t>
+  </si>
+  <si>
+    <t>Khởi tạo constructor</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>new Boolean (true)</t>
+  </si>
+  <si>
+    <t>new Byte( (byte) 1)</t>
+  </si>
+  <si>
+    <t>new Short  ( (short) 1)</t>
+  </si>
+  <si>
+    <t>new Integer (1)</t>
+  </si>
+  <si>
+    <t>new Long (1)</t>
+  </si>
+  <si>
+    <t>new Float (1.0)</t>
+  </si>
+  <si>
+    <t>new Double (1.0)</t>
+  </si>
+  <si>
+    <t>new Character ('c')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phương thức chuyển đổi kiểu </t>
+  </si>
+  <si>
+    <t>Wrapper class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển từ Wrapper về primitive </t>
+  </si>
+  <si>
+    <t>boolean primitiveBoolean = Boolean.parseBoolean("true")</t>
+  </si>
+  <si>
+    <t>byte primitiveByte = Byte.parseByte("1");</t>
+  </si>
+  <si>
+    <t>short primitiveShort = Short.parseShort("1");</t>
+  </si>
+  <si>
+    <t>int primitiveInt = Integer.parseInt("1");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long </t>
+  </si>
+  <si>
+    <t>long primitiveLong = Integer.parseLong("1");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Float </t>
+  </si>
+  <si>
+    <t>float primitiveFloat = Float.parseFloat("1.0");</t>
+  </si>
+  <si>
+    <t>hoặc float primitiveFloat  = Float.parseFloat("1");</t>
+  </si>
+  <si>
+    <t>// Kết quả vẫn là 1.0</t>
+  </si>
+  <si>
+    <t>double primitiveDouble = Double.parseDouble("1.0");</t>
+  </si>
+  <si>
+    <t>hoặc primitiveDouble = Double.parseDouble("1");</t>
+  </si>
+  <si>
+    <t>Lưu ý là char ko có phương thức parse từ String</t>
+  </si>
+  <si>
+    <t>Chuyển từ primitive về Wrapper</t>
+  </si>
+  <si>
+    <t>Boolean wrapperBoolean = Boolean.valueOf("TRUE");</t>
+  </si>
+  <si>
+    <t>// Lưu ý chỗ này TRUE, true, TRue đều trả về true, Còn bất kì giá trị nào khác sẽ trả về false. Ví dụ : false, FALSE, ABC, DEF, "1"</t>
+  </si>
+  <si>
+    <t>Byte wrapperByte = Byte.valueOf("2");</t>
+  </si>
+  <si>
+    <t>Short wrapperShort = Short.valueOf("2");</t>
+  </si>
+  <si>
+    <t>Integer wraperInt = Integer.valueOf("2");</t>
+  </si>
+  <si>
+    <t>Long wrapperLong = Long.valueOf("2");</t>
+  </si>
+  <si>
+    <t>Float wrapperFloat = Float.valueOf("2.2");</t>
+  </si>
+  <si>
+    <t>Double wrapperDouble = Double.valueOf("2.2");</t>
+  </si>
+  <si>
+    <t>hoặc Float wrapperFloat = Float.valueOf("2"); // trả về 2.0</t>
+  </si>
+  <si>
+    <t>hoặc Double wrapperDouble = Double.valueOf("2"); // Trả về 2.0</t>
+  </si>
+  <si>
+    <t>11. Autoboxing</t>
+  </si>
+  <si>
+    <t>là sự chuyển đổi tự động ngầm từ primitive về wrapper</t>
+  </si>
+  <si>
+    <t>List&lt;Double&gt; weiths = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>weights.add (50.5);</t>
+  </si>
+  <si>
+    <t>12. Unboxing.</t>
+  </si>
+  <si>
+    <t>Là sự chuyển đổi ngầm từ wrapper về primitive</t>
+  </si>
+  <si>
+    <t>List&lt;Double&gt; weights = Arrays.asList (55.0 , 66.0);</t>
+  </si>
+  <si>
+    <t>double first = weights.get(0);</t>
+  </si>
+  <si>
+    <t>double second = weights.get(1);</t>
+  </si>
+  <si>
+    <t>// Dòng này autobox, tự động chuyển đổi primitive về wrapper, rồi add vào trong list</t>
+  </si>
+  <si>
+    <t>// Dòng này unboxing, tự động chuyển wrapper về primitive</t>
+  </si>
+  <si>
+    <t>weights.remove( 50.5);</t>
+  </si>
+  <si>
+    <t>// Dòng ày autobox - tự động chuyển primitive về wrapper, rồi remove khỏi list</t>
+  </si>
+  <si>
+    <t>Lưu ý khi unbox giá trị null</t>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt; heights = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>heights.add(null);</t>
+  </si>
+  <si>
+    <t>int h = heights.get(0);</t>
+  </si>
+  <si>
+    <t>// Dòng này báo lỗi NullPointerException</t>
+  </si>
+  <si>
+    <t>Lưu ý khi sử dụng autoboxing đối với integer</t>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt; nums = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>nums.add(1);</t>
+  </si>
+  <si>
+    <t>nums.add(2);</t>
+  </si>
+  <si>
+    <t>nums.remove(1);</t>
+  </si>
+  <si>
+    <t>System.out.println(nums);</t>
+  </si>
+  <si>
+    <t>// Chỗ này 1 là index, tức là sẽ remove số 2</t>
+  </si>
+  <si>
+    <t>// Nếu muốn remove số 1 thì sẽ phải dùng : nums.remove(new Integer(1))</t>
+  </si>
+  <si>
+    <t>13. Convert giữa Array và List</t>
+  </si>
+  <si>
+    <t>Lưu ý chuyển đổi từ list về list về mảng string với kích thước mảng cố định</t>
+  </si>
+  <si>
+    <t>String [ ] strArr = list.toArray( new String [0]);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3190,6 +3511,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3224,7 +3563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3307,9 +3646,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3323,6 +3659,11 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5538,16 +5879,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="46" t="s">
+      <c r="D424" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="46"/>
-      <c r="F424" s="46"/>
-      <c r="G424" s="46"/>
-      <c r="H424" s="46"/>
-      <c r="I424" s="46"/>
-      <c r="J424" s="46"/>
-      <c r="K424" s="46"/>
+      <c r="E424" s="53"/>
+      <c r="F424" s="53"/>
+      <c r="G424" s="53"/>
+      <c r="H424" s="53"/>
+      <c r="I424" s="53"/>
+      <c r="J424" s="53"/>
+      <c r="K424" s="53"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -5614,16 +5955,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="46" t="s">
+      <c r="D430" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="46"/>
-      <c r="F430" s="46"/>
-      <c r="G430" s="46"/>
-      <c r="H430" s="46"/>
-      <c r="I430" s="46"/>
-      <c r="J430" s="46"/>
-      <c r="K430" s="46"/>
+      <c r="E430" s="53"/>
+      <c r="F430" s="53"/>
+      <c r="G430" s="53"/>
+      <c r="H430" s="53"/>
+      <c r="I430" s="53"/>
+      <c r="J430" s="53"/>
+      <c r="K430" s="53"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -7109,8 +7450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T448"/>
   <sheetViews>
-    <sheetView topLeftCell="A386" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M410" sqref="M410"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10368,10 +10709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q183"/>
+  <dimension ref="A3:Q299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11144,130 +11485,130 @@
       </c>
     </row>
     <row r="156" spans="1:17">
-      <c r="B156" s="47" t="s">
+      <c r="B156" s="46" t="s">
         <v>802</v>
       </c>
-      <c r="C156" s="47"/>
-      <c r="D156" s="47"/>
-      <c r="E156" s="47"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="48"/>
-      <c r="J156" s="50"/>
-      <c r="K156" s="49"/>
-      <c r="L156" s="49"/>
-      <c r="M156" s="49"/>
-      <c r="N156" s="49"/>
-      <c r="O156" s="49"/>
-      <c r="P156" s="49"/>
-      <c r="Q156" s="49"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="46"/>
+      <c r="H156" s="46"/>
+      <c r="I156" s="47"/>
+      <c r="J156" s="49"/>
+      <c r="K156" s="48"/>
+      <c r="L156" s="48"/>
+      <c r="M156" s="48"/>
+      <c r="N156" s="48"/>
+      <c r="O156" s="48"/>
+      <c r="P156" s="48"/>
+      <c r="Q156" s="48"/>
     </row>
     <row r="157" spans="1:17">
-      <c r="B157" s="47" t="s">
+      <c r="B157" s="46" t="s">
         <v>803</v>
       </c>
-      <c r="C157" s="47"/>
-      <c r="D157" s="47"/>
-      <c r="E157" s="47"/>
-      <c r="F157" s="47"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="48"/>
-      <c r="J157" s="50"/>
-      <c r="K157" s="49"/>
-      <c r="L157" s="49"/>
-      <c r="M157" s="49"/>
-      <c r="N157" s="49"/>
-      <c r="O157" s="49"/>
-      <c r="P157" s="49"/>
-      <c r="Q157" s="49"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="46"/>
+      <c r="H157" s="46"/>
+      <c r="I157" s="47"/>
+      <c r="J157" s="49"/>
+      <c r="K157" s="48"/>
+      <c r="L157" s="48"/>
+      <c r="M157" s="48"/>
+      <c r="N157" s="48"/>
+      <c r="O157" s="48"/>
+      <c r="P157" s="48"/>
+      <c r="Q157" s="48"/>
     </row>
     <row r="158" spans="1:17">
-      <c r="B158" s="47" t="s">
+      <c r="B158" s="46" t="s">
         <v>804</v>
       </c>
-      <c r="C158" s="47"/>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47"/>
-      <c r="I158" s="48"/>
-      <c r="J158" s="50"/>
-      <c r="K158" s="49"/>
-      <c r="L158" s="49"/>
-      <c r="M158" s="49"/>
-      <c r="N158" s="49"/>
-      <c r="O158" s="49"/>
-      <c r="P158" s="49"/>
-      <c r="Q158" s="49"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="46"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="46"/>
+      <c r="H158" s="46"/>
+      <c r="I158" s="47"/>
+      <c r="J158" s="49"/>
+      <c r="K158" s="48"/>
+      <c r="L158" s="48"/>
+      <c r="M158" s="48"/>
+      <c r="N158" s="48"/>
+      <c r="O158" s="48"/>
+      <c r="P158" s="48"/>
+      <c r="Q158" s="48"/>
     </row>
     <row r="159" spans="1:17">
-      <c r="B159" s="47" t="s">
+      <c r="B159" s="46" t="s">
         <v>805</v>
       </c>
-      <c r="C159" s="47"/>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
-      <c r="I159" s="48"/>
-      <c r="J159" s="50"/>
-      <c r="K159" s="49" t="s">
+      <c r="C159" s="46"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="47"/>
+      <c r="J159" s="49"/>
+      <c r="K159" s="48" t="s">
         <v>808</v>
       </c>
-      <c r="L159" s="49"/>
-      <c r="M159" s="49"/>
-      <c r="N159" s="49"/>
-      <c r="O159" s="49"/>
-      <c r="P159" s="49"/>
-      <c r="Q159" s="49"/>
+      <c r="L159" s="48"/>
+      <c r="M159" s="48"/>
+      <c r="N159" s="48"/>
+      <c r="O159" s="48"/>
+      <c r="P159" s="48"/>
+      <c r="Q159" s="48"/>
     </row>
     <row r="160" spans="1:17">
-      <c r="B160" s="47" t="s">
+      <c r="B160" s="46" t="s">
         <v>806</v>
       </c>
-      <c r="C160" s="47"/>
-      <c r="D160" s="47"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47"/>
-      <c r="I160" s="48"/>
-      <c r="J160" s="50"/>
-      <c r="K160" s="49" t="s">
+      <c r="C160" s="46"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="47"/>
+      <c r="J160" s="49"/>
+      <c r="K160" s="48" t="s">
         <v>809</v>
       </c>
-      <c r="L160" s="49"/>
-      <c r="M160" s="49"/>
-      <c r="N160" s="49"/>
-      <c r="O160" s="49"/>
-      <c r="P160" s="49"/>
-      <c r="Q160" s="49"/>
+      <c r="L160" s="48"/>
+      <c r="M160" s="48"/>
+      <c r="N160" s="48"/>
+      <c r="O160" s="48"/>
+      <c r="P160" s="48"/>
+      <c r="Q160" s="48"/>
     </row>
     <row r="161" spans="1:17">
-      <c r="B161" s="47" t="s">
+      <c r="B161" s="46" t="s">
         <v>807</v>
       </c>
-      <c r="C161" s="47"/>
-      <c r="D161" s="47"/>
-      <c r="E161" s="47"/>
-      <c r="F161" s="47"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="47"/>
-      <c r="I161" s="48"/>
-      <c r="J161" s="50"/>
-      <c r="K161" s="49" t="s">
+      <c r="C161" s="46"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="47"/>
+      <c r="J161" s="49"/>
+      <c r="K161" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="L161" s="49"/>
-      <c r="M161" s="49"/>
-      <c r="N161" s="49"/>
-      <c r="O161" s="49"/>
-      <c r="P161" s="49"/>
-      <c r="Q161" s="49"/>
+      <c r="L161" s="48"/>
+      <c r="M161" s="48"/>
+      <c r="N161" s="48"/>
+      <c r="O161" s="48"/>
+      <c r="P161" s="48"/>
+      <c r="Q161" s="48"/>
     </row>
     <row r="164" spans="1:17">
       <c r="B164" s="44" t="s">
@@ -11297,7 +11638,7 @@
       <c r="I168" t="s">
         <v>818</v>
       </c>
-      <c r="J168" s="51" t="s">
+      <c r="J168" s="50" t="s">
         <v>820</v>
       </c>
     </row>
@@ -11307,7 +11648,7 @@
       </c>
     </row>
     <row r="173" spans="1:17">
-      <c r="C173" s="52" t="s">
+      <c r="C173" s="51" t="s">
         <v>823</v>
       </c>
       <c r="D173" s="18"/>
@@ -11323,24 +11664,24 @@
       <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:17">
-      <c r="C175" s="52" t="s">
+      <c r="C175" s="51" t="s">
         <v>825</v>
       </c>
       <c r="D175" s="18"/>
       <c r="E175" s="18"/>
       <c r="F175" s="18"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:10">
       <c r="A177" s="36" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:10">
       <c r="B179" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:10">
       <c r="C180" t="s">
         <v>827</v>
       </c>
@@ -11348,7 +11689,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:10">
       <c r="C181" t="s">
         <v>828</v>
       </c>
@@ -11356,7 +11697,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:10">
       <c r="C182" t="s">
         <v>829</v>
       </c>
@@ -11364,9 +11705,599 @@
         <v>832</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="C183" s="53" t="s">
+    <row r="183" spans="1:10">
+      <c r="C183" s="52" t="s">
         <v>833</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="36" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="B187" t="s">
+        <v>835</v>
+      </c>
+      <c r="I187" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="C189" t="s">
+        <v>836</v>
+      </c>
+      <c r="J189" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="C190" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="C191" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="C192" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9">
+      <c r="C193" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9">
+      <c r="B196" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9">
+      <c r="C198" t="s">
+        <v>844</v>
+      </c>
+      <c r="G198" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9">
+      <c r="C200" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9">
+      <c r="C203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9">
+      <c r="D205" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="E205" s="18"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="18"/>
+    </row>
+    <row r="206" spans="2:9">
+      <c r="D206" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+    </row>
+    <row r="207" spans="2:9">
+      <c r="D207" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+    </row>
+    <row r="208" spans="2:9">
+      <c r="D208" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="E208" s="18"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18"/>
+      <c r="I208" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="C210" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="D212" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="E212" s="18"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="18"/>
+      <c r="H212" s="18"/>
+      <c r="I212" s="18"/>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="D213" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="E213" s="18"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="18"/>
+      <c r="H213" s="18"/>
+      <c r="I213" s="18"/>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="D214" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E214" s="18"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="18"/>
+      <c r="I214" s="18"/>
+      <c r="J214" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="B216" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="C218" t="s">
+        <v>858</v>
+      </c>
+      <c r="G218" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="C220" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="36" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
+      <c r="B225" t="s">
+        <v>862</v>
+      </c>
+      <c r="D225" t="s">
+        <v>863</v>
+      </c>
+      <c r="F225" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" t="s">
+        <v>82</v>
+      </c>
+      <c r="D227" t="s">
+        <v>865</v>
+      </c>
+      <c r="F227" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" t="s">
+        <v>866</v>
+      </c>
+      <c r="D228" t="s">
+        <v>867</v>
+      </c>
+      <c r="F228" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" t="s">
+        <v>86</v>
+      </c>
+      <c r="D229" t="s">
+        <v>868</v>
+      </c>
+      <c r="F229" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" t="s">
+        <v>409</v>
+      </c>
+      <c r="D230" t="s">
+        <v>869</v>
+      </c>
+      <c r="F230" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" t="s">
+        <v>410</v>
+      </c>
+      <c r="D231" t="s">
+        <v>870</v>
+      </c>
+      <c r="F231" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" t="s">
+        <v>871</v>
+      </c>
+      <c r="D232" t="s">
+        <v>872</v>
+      </c>
+      <c r="F232" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="B233" t="s">
+        <v>873</v>
+      </c>
+      <c r="D233" t="s">
+        <v>874</v>
+      </c>
+      <c r="F233" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234" t="s">
+        <v>875</v>
+      </c>
+      <c r="D234" t="s">
+        <v>876</v>
+      </c>
+      <c r="F234" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
+      <c r="B237" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
+      <c r="C239" t="s">
+        <v>886</v>
+      </c>
+      <c r="E239" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="241" spans="3:15">
+      <c r="C241" t="s">
+        <v>865</v>
+      </c>
+      <c r="E241" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="242" spans="3:15">
+      <c r="C242" t="s">
+        <v>867</v>
+      </c>
+      <c r="E242" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="243" spans="3:15">
+      <c r="C243" t="s">
+        <v>868</v>
+      </c>
+      <c r="E243" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="244" spans="3:15">
+      <c r="C244" t="s">
+        <v>869</v>
+      </c>
+      <c r="E244" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="245" spans="3:15">
+      <c r="C245" t="s">
+        <v>892</v>
+      </c>
+      <c r="E245" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="246" spans="3:15">
+      <c r="C246" t="s">
+        <v>894</v>
+      </c>
+      <c r="E246" t="s">
+        <v>895</v>
+      </c>
+      <c r="J246" t="s">
+        <v>896</v>
+      </c>
+      <c r="O246" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="247" spans="3:15">
+      <c r="C247" t="s">
+        <v>874</v>
+      </c>
+      <c r="E247" t="s">
+        <v>898</v>
+      </c>
+      <c r="J247" t="s">
+        <v>899</v>
+      </c>
+      <c r="O247" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="248" spans="3:15">
+      <c r="C248" s="55" t="s">
+        <v>876</v>
+      </c>
+      <c r="D248" s="55"/>
+      <c r="E248" s="55" t="s">
+        <v>900</v>
+      </c>
+      <c r="F248" s="55"/>
+      <c r="G248" s="55"/>
+      <c r="H248" s="55"/>
+      <c r="I248" s="54"/>
+    </row>
+    <row r="251" spans="3:15">
+      <c r="E251" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="253" spans="3:15">
+      <c r="C253" t="s">
+        <v>865</v>
+      </c>
+      <c r="E253" t="s">
+        <v>902</v>
+      </c>
+      <c r="K253" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="254" spans="3:15">
+      <c r="C254" t="s">
+        <v>867</v>
+      </c>
+      <c r="E254" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="255" spans="3:15">
+      <c r="C255" t="s">
+        <v>868</v>
+      </c>
+      <c r="E255" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="256" spans="3:15">
+      <c r="C256" t="s">
+        <v>869</v>
+      </c>
+      <c r="E256" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="C257" t="s">
+        <v>892</v>
+      </c>
+      <c r="E257" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="C258" t="s">
+        <v>894</v>
+      </c>
+      <c r="E258" t="s">
+        <v>908</v>
+      </c>
+      <c r="J258" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="C259" t="s">
+        <v>874</v>
+      </c>
+      <c r="E259" t="s">
+        <v>909</v>
+      </c>
+      <c r="J259" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="C260" s="55" t="s">
+        <v>876</v>
+      </c>
+      <c r="E260" s="55" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264" s="36" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="B266" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="B268" t="s">
+        <v>471</v>
+      </c>
+      <c r="C268" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="C269" t="s">
+        <v>915</v>
+      </c>
+      <c r="H269" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="C270" t="s">
+        <v>923</v>
+      </c>
+      <c r="H270" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271" s="36" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="B272" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8">
+      <c r="B274" t="s">
+        <v>392</v>
+      </c>
+      <c r="C274" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8">
+      <c r="C275" t="s">
+        <v>919</v>
+      </c>
+      <c r="H275" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8">
+      <c r="C276" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8">
+      <c r="B279" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8">
+      <c r="C281" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8">
+      <c r="C282" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8">
+      <c r="C283" t="s">
+        <v>928</v>
+      </c>
+      <c r="H283" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8">
+      <c r="B285" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8">
+      <c r="C288" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="D288" s="18"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="18"/>
+      <c r="G288" s="18"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="C289" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="D289" s="18"/>
+      <c r="E289" s="18"/>
+      <c r="F289" s="18"/>
+      <c r="G289" s="18"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="C290" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="D290" s="18"/>
+      <c r="E290" s="18"/>
+      <c r="F290" s="18"/>
+      <c r="G290" s="18"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="C291" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="D291" s="18"/>
+      <c r="E291" s="18"/>
+      <c r="F291" s="18"/>
+      <c r="G291" s="18"/>
+      <c r="H291" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="C292" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="D292" s="18"/>
+      <c r="E292" s="18"/>
+      <c r="F292" s="18"/>
+      <c r="G292" s="18"/>
+      <c r="H292" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="36" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="B297" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="C299" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1021">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -3241,10 +3241,250 @@
     <t>13. Convert giữa Array và List</t>
   </si>
   <si>
-    <t>Lưu ý chuyển đổi từ list về list về mảng string với kích thước mảng cố định</t>
-  </si>
-  <si>
-    <t>String [ ] strArr = list.toArray( new String [0]);</t>
+    <t>Chuyển đổi từ list về array</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt; listStr = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>listStr.add("a");</t>
+  </si>
+  <si>
+    <t>listStr.add("b");</t>
+  </si>
+  <si>
+    <t>String [ ] strArr = listStr.toArray(new String[0]);</t>
+  </si>
+  <si>
+    <t>Object [] objectArray = listStr.toArray(new Object[3]);</t>
+  </si>
+  <si>
+    <t>System.out.println(strArr.length);</t>
+  </si>
+  <si>
+    <t>Stream.of(strArr).forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>System.out.println(objectArray.length);</t>
+  </si>
+  <si>
+    <t>Stream.of(objectArray).forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Truyền kích thước mảng &gt; kích thước của list </t>
+  </si>
+  <si>
+    <t>// Truyền kích thước mảng = 0 thì sẽ khởi tạo mảng với kích thước = với kích thước của list, tức là 2</t>
+  </si>
+  <si>
+    <t>// 2</t>
+  </si>
+  <si>
+    <t>// a b</t>
+  </si>
+  <si>
+    <t>// 3</t>
+  </si>
+  <si>
+    <t>// a b null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển đổi từ array về list </t>
+  </si>
+  <si>
+    <t>Do vậy nếu thay đổi phần tử của array thì list cũng thay đổi</t>
+  </si>
+  <si>
+    <t>Rất lưu ý ở đây là cả array và list đều trỏ đến cùng 1 vùng dữ liệu</t>
+  </si>
+  <si>
+    <t>List chỉ được phép thay đổi giá trị của phần tử, Ko được phép thêm hoặc xóa phần tử vì vùng dữ liệu đã fix cứng</t>
+  </si>
+  <si>
+    <t>String [] array = {"x", "y"};</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt; list = Arrays.asList(array);</t>
+  </si>
+  <si>
+    <t>System.out.println(list.size());</t>
+  </si>
+  <si>
+    <t>array[0] = "xxxxxx";</t>
+  </si>
+  <si>
+    <t>list.set(1, "yyyyyy");</t>
+  </si>
+  <si>
+    <t>list.add("new item");</t>
+  </si>
+  <si>
+    <t>list.remove(0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// x y </t>
+  </si>
+  <si>
+    <t>// xxxxx yyyyyy</t>
+  </si>
+  <si>
+    <t>// throw exception UnsupportedOperationException</t>
+  </si>
+  <si>
+    <t>14. Dates &amp; Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalDate : </t>
+  </si>
+  <si>
+    <t>Chỉ bao gồm date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ : ngày sinh : </t>
+  </si>
+  <si>
+    <t>`9/3/1997</t>
+  </si>
+  <si>
+    <t>LocalTime</t>
+  </si>
+  <si>
+    <t>Chỉ bao gồm time</t>
+  </si>
+  <si>
+    <t>Không bao gồm date, ko bao gồm timezone</t>
+  </si>
+  <si>
+    <t>Ko bao gồm time, ko bao gồm timezone</t>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+  </si>
+  <si>
+    <t>Bao gồm cả date và time</t>
+  </si>
+  <si>
+    <t>Không bao gồm timezone</t>
+  </si>
+  <si>
+    <t>Ví dụ : 12h đêm hay 0h:00</t>
+  </si>
+  <si>
+    <t>Ví dụ: 0h00 ngày đầu năm mới</t>
+  </si>
+  <si>
+    <t>LocalDate.now()</t>
+  </si>
+  <si>
+    <t>// 2015-01-20</t>
+  </si>
+  <si>
+    <t>LocalTime.now()</t>
+  </si>
+  <si>
+    <t>// 12h:45:18.401</t>
+  </si>
+  <si>
+    <t>LocalDatetime.now()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // 2015-01-20T12:45:18.401</t>
+  </si>
+  <si>
+    <t>Chỉ cần quan tâm ở đây là Java sử dụng 24h, ko phải là 12h</t>
+  </si>
+  <si>
+    <t>Tổng quan</t>
+  </si>
+  <si>
+    <t>Khởi tạo hợp lệ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalTime  time_1 = LocalTime.of (6, 15); </t>
+  </si>
+  <si>
+    <t>LocalTime time_2 = LocalTime.of (6, 15, 30);</t>
+  </si>
+  <si>
+    <t>LocalTime time_3 = LocalTime.of (6, 15, 30, 200);</t>
+  </si>
+  <si>
+    <t>LocalDate date_1 = LocalDate.of(2015, Month.JANUAR, 20);</t>
+  </si>
+  <si>
+    <t>LocalDate date_2 = Localdate.of (2015, 1, 20);</t>
+  </si>
+  <si>
+    <t>LocalDateTime dateTime1 = LocalDateTime.of(2015, Month.JANUARY, 20, 6, 15, 30);</t>
+  </si>
+  <si>
+    <t>LocalDateTime dateTime2 =  LocalDateTime.of(date1, time1);</t>
+  </si>
+  <si>
+    <t>Khởi tạo không hợp lệ:</t>
+  </si>
+  <si>
+    <t>Không được khởi tạo constructor không tham số</t>
+  </si>
+  <si>
+    <t>LocalDate localDate = new LocalDate();</t>
+  </si>
+  <si>
+    <t>LocalTime localTime = new LocalTime();</t>
+  </si>
+  <si>
+    <t>LocalDateTime localDateTime = new LocalDateTime();</t>
+  </si>
+  <si>
+    <t>// Lỗi compile</t>
+  </si>
+  <si>
+    <t>Khởi tạo giá trị không hợp lệ</t>
+  </si>
+  <si>
+    <t>LocalDate localdate = LocalDate.of(2015, Month.JANUARY, 32)</t>
+  </si>
+  <si>
+    <t>// throw DateTimeExxception</t>
+  </si>
+  <si>
+    <t>15. Thao tác Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Rule:</t>
+  </si>
+  <si>
+    <t>LocalDate</t>
+  </si>
+  <si>
+    <t>chỉ gọi được plus/minus đối với :  Years/Months/Weekks/Days</t>
+  </si>
+  <si>
+    <t>không gọi được plus/minus đối với :  Hours/Minutes/Seconds/Nanos</t>
+  </si>
+  <si>
+    <t>Không gọi được plus/minus đối với : Years/Months/Weekks/Days</t>
+  </si>
+  <si>
+    <t>chỉ gọi được plus/minus đối với :  Hours/Minutes/Seconds/Nanos</t>
+  </si>
+  <si>
+    <t>gọi được plus/minus đối với tất cả Years/Months/Weekks/Days/Hours/Minutes/Seconds/Nanos</t>
+  </si>
+  <si>
+    <t>16. Làm việc với Periods (chu kì)</t>
+  </si>
+  <si>
+    <t>Lưu ý :</t>
+  </si>
+  <si>
+    <t>Chỉ có LocalDate và LocalDateTime có method convert về kiểu long 1970</t>
+  </si>
+  <si>
+    <t>long dateInMillis = localDate.toEpochDay();</t>
+  </si>
+  <si>
+    <t>long datetimeInMillis = localDateTime.toEpochTime();</t>
   </si>
 </sst>
 </file>
@@ -3563,7 +3803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3659,11 +3899,15 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4071,7 +4315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q563"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -5879,16 +6123,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="53" t="s">
+      <c r="D424" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="53"/>
-      <c r="F424" s="53"/>
-      <c r="G424" s="53"/>
-      <c r="H424" s="53"/>
-      <c r="I424" s="53"/>
-      <c r="J424" s="53"/>
-      <c r="K424" s="53"/>
+      <c r="E424" s="55"/>
+      <c r="F424" s="55"/>
+      <c r="G424" s="55"/>
+      <c r="H424" s="55"/>
+      <c r="I424" s="55"/>
+      <c r="J424" s="55"/>
+      <c r="K424" s="55"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -5955,16 +6199,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="53" t="s">
+      <c r="D430" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="53"/>
-      <c r="F430" s="53"/>
-      <c r="G430" s="53"/>
-      <c r="H430" s="53"/>
-      <c r="I430" s="53"/>
-      <c r="J430" s="53"/>
-      <c r="K430" s="53"/>
+      <c r="E430" s="55"/>
+      <c r="F430" s="55"/>
+      <c r="G430" s="55"/>
+      <c r="H430" s="55"/>
+      <c r="I430" s="55"/>
+      <c r="J430" s="55"/>
+      <c r="K430" s="55"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -7450,7 +7694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T448"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -10709,10 +10953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q299"/>
+  <dimension ref="A3:Q402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C299" sqref="C299"/>
+    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E389" sqref="E389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12051,17 +12295,17 @@
       </c>
     </row>
     <row r="248" spans="3:15">
-      <c r="C248" s="55" t="s">
+      <c r="C248" s="54" t="s">
         <v>876</v>
       </c>
-      <c r="D248" s="55"/>
-      <c r="E248" s="55" t="s">
+      <c r="D248" s="54"/>
+      <c r="E248" s="54" t="s">
         <v>900</v>
       </c>
-      <c r="F248" s="55"/>
-      <c r="G248" s="55"/>
-      <c r="H248" s="55"/>
-      <c r="I248" s="54"/>
+      <c r="F248" s="54"/>
+      <c r="G248" s="54"/>
+      <c r="H248" s="54"/>
+      <c r="I248" s="53"/>
     </row>
     <row r="251" spans="3:15">
       <c r="E251" t="s">
@@ -12134,10 +12378,10 @@
       </c>
     </row>
     <row r="260" spans="1:10">
-      <c r="C260" s="55" t="s">
+      <c r="C260" s="54" t="s">
         <v>876</v>
       </c>
-      <c r="E260" s="55" t="s">
+      <c r="E260" s="54" t="s">
         <v>900</v>
       </c>
     </row>
@@ -12243,7 +12487,7 @@
       <c r="F288" s="18"/>
       <c r="G288" s="18"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:11">
       <c r="C289" s="23" t="s">
         <v>932</v>
       </c>
@@ -12252,7 +12496,7 @@
       <c r="F289" s="18"/>
       <c r="G289" s="18"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:11">
       <c r="C290" s="23" t="s">
         <v>933</v>
       </c>
@@ -12261,7 +12505,7 @@
       <c r="F290" s="18"/>
       <c r="G290" s="18"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:11">
       <c r="C291" s="23" t="s">
         <v>934</v>
       </c>
@@ -12273,7 +12517,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:11">
       <c r="C292" s="23" t="s">
         <v>935</v>
       </c>
@@ -12285,19 +12529,639 @@
         <v>937</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:11">
       <c r="A295" s="36" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:11">
       <c r="B297" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
-      <c r="C299" t="s">
+    <row r="300" spans="1:11">
+      <c r="C300" s="22" t="s">
         <v>940</v>
+      </c>
+      <c r="D300" s="18"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="18"/>
+      <c r="H300" s="18"/>
+      <c r="I300" s="18"/>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="C301" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="D301" s="18"/>
+      <c r="E301" s="18"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="18"/>
+      <c r="H301" s="18"/>
+      <c r="I301" s="18"/>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="C302" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="D302" s="18"/>
+      <c r="E302" s="18"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="18"/>
+      <c r="H302" s="18"/>
+      <c r="I302" s="18"/>
+    </row>
+    <row r="303" spans="1:11">
+      <c r="C303" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="D303" s="18"/>
+      <c r="E303" s="18"/>
+      <c r="F303" s="18"/>
+      <c r="G303" s="18"/>
+      <c r="H303" s="18"/>
+      <c r="I303" s="18"/>
+      <c r="K303" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="C304" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="D304" s="18"/>
+      <c r="E304" s="18"/>
+      <c r="F304" s="18"/>
+      <c r="G304" s="18"/>
+      <c r="H304" s="18"/>
+      <c r="I304" s="18"/>
+      <c r="K304" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="305" spans="2:11">
+      <c r="C305" s="23"/>
+      <c r="D305" s="18"/>
+      <c r="E305" s="18"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="18"/>
+      <c r="H305" s="18"/>
+      <c r="I305" s="18"/>
+    </row>
+    <row r="306" spans="2:11">
+      <c r="C306" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="D306" s="18"/>
+      <c r="E306" s="18"/>
+      <c r="F306" s="18"/>
+      <c r="G306" s="18"/>
+      <c r="H306" s="18"/>
+      <c r="I306" s="18"/>
+      <c r="K306" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="307" spans="2:11">
+      <c r="C307" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="D307" s="18"/>
+      <c r="E307" s="18"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="18"/>
+      <c r="H307" s="18"/>
+      <c r="I307" s="18"/>
+      <c r="K307" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="308" spans="2:11">
+      <c r="C308" s="23"/>
+      <c r="D308" s="18"/>
+      <c r="E308" s="18"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="18"/>
+      <c r="H308" s="18"/>
+      <c r="I308" s="18"/>
+    </row>
+    <row r="309" spans="2:11">
+      <c r="C309" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="D309" s="18"/>
+      <c r="E309" s="18"/>
+      <c r="F309" s="18"/>
+      <c r="G309" s="18"/>
+      <c r="H309" s="18"/>
+      <c r="I309" s="18"/>
+      <c r="K309" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="310" spans="2:11">
+      <c r="C310" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="18"/>
+      <c r="H310" s="18"/>
+      <c r="I310" s="18"/>
+      <c r="K310" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="314" spans="2:11">
+      <c r="B314" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="315" spans="2:11">
+      <c r="C315" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="D315" s="36"/>
+      <c r="E315" s="36"/>
+      <c r="F315" s="36"/>
+      <c r="G315" s="36"/>
+      <c r="H315" s="36"/>
+    </row>
+    <row r="316" spans="2:11">
+      <c r="C316" s="36" t="s">
+        <v>956</v>
+      </c>
+      <c r="D316" s="36"/>
+      <c r="E316" s="36"/>
+      <c r="F316" s="36"/>
+      <c r="G316" s="36"/>
+      <c r="H316" s="36"/>
+    </row>
+    <row r="318" spans="2:11">
+      <c r="C318" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="320" spans="2:11">
+      <c r="D320" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="E320" s="18"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="18"/>
+      <c r="H320" s="18"/>
+      <c r="I320" s="18"/>
+    </row>
+    <row r="321" spans="1:10">
+      <c r="D321" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="E321" s="18"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="18"/>
+      <c r="H321" s="18"/>
+      <c r="I321" s="18"/>
+    </row>
+    <row r="322" spans="1:10">
+      <c r="D322" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="E322" s="18"/>
+      <c r="F322" s="18"/>
+      <c r="G322" s="18"/>
+      <c r="H322" s="18"/>
+      <c r="I322" s="18"/>
+      <c r="J322" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
+      <c r="D323" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="E323" s="18"/>
+      <c r="F323" s="18"/>
+      <c r="G323" s="18"/>
+      <c r="H323" s="18"/>
+      <c r="I323" s="18"/>
+      <c r="J323" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="D324" s="23"/>
+      <c r="E324" s="18"/>
+      <c r="F324" s="18"/>
+      <c r="G324" s="18"/>
+      <c r="H324" s="18"/>
+      <c r="I324" s="18"/>
+    </row>
+    <row r="325" spans="1:10">
+      <c r="D325" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="E325" s="18"/>
+      <c r="F325" s="18"/>
+      <c r="G325" s="18"/>
+      <c r="H325" s="18"/>
+      <c r="I325" s="18"/>
+    </row>
+    <row r="326" spans="1:10">
+      <c r="D326" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="E326" s="18"/>
+      <c r="F326" s="18"/>
+      <c r="G326" s="18"/>
+      <c r="H326" s="18"/>
+      <c r="I326" s="18"/>
+    </row>
+    <row r="327" spans="1:10">
+      <c r="D327" s="23"/>
+      <c r="E327" s="18"/>
+      <c r="F327" s="18"/>
+      <c r="G327" s="18"/>
+      <c r="H327" s="18"/>
+      <c r="I327" s="18"/>
+    </row>
+    <row r="328" spans="1:10">
+      <c r="D328" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="E328" s="18"/>
+      <c r="F328" s="18"/>
+      <c r="G328" s="18"/>
+      <c r="H328" s="18"/>
+      <c r="I328" s="18"/>
+      <c r="J328" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
+      <c r="D329" s="23"/>
+      <c r="E329" s="18"/>
+      <c r="F329" s="18"/>
+      <c r="G329" s="18"/>
+      <c r="H329" s="18"/>
+      <c r="I329" s="18"/>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="D330" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="E330" s="18"/>
+      <c r="F330" s="18"/>
+      <c r="G330" s="18"/>
+      <c r="H330" s="18"/>
+      <c r="I330" s="18"/>
+      <c r="J330" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
+      <c r="D331" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="E331" s="18"/>
+      <c r="F331" s="18"/>
+      <c r="G331" s="18"/>
+      <c r="H331" s="18"/>
+      <c r="I331" s="18"/>
+      <c r="J331" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
+      <c r="A335" s="36" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="337" spans="2:12">
+      <c r="B337" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="338" spans="2:12">
+      <c r="C338" t="s">
+        <v>970</v>
+      </c>
+      <c r="E338" t="s">
+        <v>971</v>
+      </c>
+      <c r="J338" t="s">
+        <v>983</v>
+      </c>
+      <c r="L338" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="339" spans="2:12">
+      <c r="E339" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="341" spans="2:12">
+      <c r="E341" t="s">
+        <v>972</v>
+      </c>
+      <c r="G341" s="57" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="343" spans="2:12">
+      <c r="C343" t="s">
+        <v>974</v>
+      </c>
+      <c r="E343" t="s">
+        <v>975</v>
+      </c>
+      <c r="J343" t="s">
+        <v>985</v>
+      </c>
+      <c r="L343" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="344" spans="2:12">
+      <c r="E344" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="346" spans="2:12">
+      <c r="E346" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="348" spans="2:12">
+      <c r="C348" t="s">
+        <v>978</v>
+      </c>
+      <c r="E348" t="s">
+        <v>979</v>
+      </c>
+      <c r="J348" t="s">
+        <v>987</v>
+      </c>
+      <c r="L348" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="349" spans="2:12">
+      <c r="E349" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="351" spans="2:12">
+      <c r="E351" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="353" spans="2:10">
+      <c r="C353" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="356" spans="2:10">
+      <c r="B356" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10">
+      <c r="C358" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="D358" s="18"/>
+      <c r="E358" s="18"/>
+      <c r="F358" s="18"/>
+      <c r="G358" s="18"/>
+      <c r="H358" s="18"/>
+      <c r="I358" s="18"/>
+      <c r="J358" s="18"/>
+    </row>
+    <row r="359" spans="2:10">
+      <c r="C359" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="D359" s="18"/>
+      <c r="E359" s="18"/>
+      <c r="F359" s="18"/>
+      <c r="G359" s="18"/>
+      <c r="H359" s="18"/>
+      <c r="I359" s="18"/>
+      <c r="J359" s="18"/>
+    </row>
+    <row r="360" spans="2:10">
+      <c r="C360" s="18"/>
+      <c r="D360" s="18"/>
+      <c r="E360" s="18"/>
+      <c r="F360" s="18"/>
+      <c r="G360" s="18"/>
+      <c r="H360" s="18"/>
+      <c r="I360" s="18"/>
+      <c r="J360" s="18"/>
+    </row>
+    <row r="361" spans="2:10">
+      <c r="C361" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="D361" s="18"/>
+      <c r="E361" s="18"/>
+      <c r="F361" s="18"/>
+      <c r="G361" s="18"/>
+      <c r="H361" s="18"/>
+      <c r="I361" s="18"/>
+      <c r="J361" s="18"/>
+    </row>
+    <row r="362" spans="2:10">
+      <c r="C362" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="D362" s="18"/>
+      <c r="E362" s="18"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="18"/>
+      <c r="H362" s="18"/>
+      <c r="I362" s="18"/>
+      <c r="J362" s="18"/>
+    </row>
+    <row r="363" spans="2:10">
+      <c r="C363" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D363" s="18"/>
+      <c r="E363" s="18"/>
+      <c r="F363" s="18"/>
+      <c r="G363" s="18"/>
+      <c r="H363" s="18"/>
+      <c r="I363" s="18"/>
+      <c r="J363" s="18"/>
+    </row>
+    <row r="364" spans="2:10">
+      <c r="C364" s="18"/>
+      <c r="D364" s="18"/>
+      <c r="E364" s="18"/>
+      <c r="F364" s="18"/>
+      <c r="G364" s="18"/>
+      <c r="H364" s="18"/>
+      <c r="I364" s="18"/>
+      <c r="J364" s="18"/>
+    </row>
+    <row r="365" spans="2:10">
+      <c r="C365" s="52" t="s">
+        <v>997</v>
+      </c>
+      <c r="D365" s="18"/>
+      <c r="E365" s="18"/>
+      <c r="F365" s="18"/>
+      <c r="G365" s="18"/>
+      <c r="H365" s="18"/>
+      <c r="I365" s="18"/>
+      <c r="J365" s="18"/>
+    </row>
+    <row r="366" spans="2:10">
+      <c r="C366" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="D366" s="18"/>
+      <c r="E366" s="18"/>
+      <c r="F366" s="18"/>
+      <c r="G366" s="18"/>
+      <c r="H366" s="18"/>
+      <c r="I366" s="18"/>
+      <c r="J366" s="18"/>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="B369" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
+      <c r="C371" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="D373" s="22" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E373" s="18"/>
+      <c r="F373" s="18"/>
+      <c r="G373" s="18"/>
+      <c r="H373" s="18"/>
+      <c r="I373" s="18"/>
+      <c r="J373" s="18" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="D374" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E374" s="18"/>
+      <c r="F374" s="18"/>
+      <c r="G374" s="18"/>
+      <c r="H374" s="18"/>
+      <c r="I374" s="18"/>
+      <c r="J374" s="18" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="D375" s="22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E375" s="18"/>
+      <c r="F375" s="18"/>
+      <c r="G375" s="18"/>
+      <c r="H375" s="18"/>
+      <c r="I375" s="18"/>
+      <c r="J375" s="18" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10">
+      <c r="D376" s="56"/>
+    </row>
+    <row r="378" spans="1:10">
+      <c r="C378" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10">
+      <c r="D380" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J380" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10">
+      <c r="A382" s="36" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10">
+      <c r="B384" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5">
+      <c r="E385" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5">
+      <c r="C387" t="s">
+        <v>974</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5">
+      <c r="E388" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5">
+      <c r="C390" t="s">
+        <v>978</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5">
+      <c r="B393" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5">
+      <c r="C394" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5">
+      <c r="D396" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5">
+      <c r="D398" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="36" t="s">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1096">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -3485,6 +3485,231 @@
   </si>
   <si>
     <t>long datetimeInMillis = localDateTime.toEpochTime();</t>
+  </si>
+  <si>
+    <t>Khởi tạo period:</t>
+  </si>
+  <si>
+    <t>Period annually = Period.ofYear(1);</t>
+  </si>
+  <si>
+    <t>Period quarterly = Period.ofMonths(3);</t>
+  </si>
+  <si>
+    <t>every 1 year</t>
+  </si>
+  <si>
+    <t>every  3 months</t>
+  </si>
+  <si>
+    <t>Period everyThreeWeeks = Period.ofWeeks(3); // every 3 weeks</t>
+  </si>
+  <si>
+    <t>Period everyOtherDay = Period.ofDays(2); // every 2 days</t>
+  </si>
+  <si>
+    <t>Period everyYearAndAWeek = Period.of(1, 0, 7); // every year and 7 days</t>
+  </si>
+  <si>
+    <t>Các loại datetime dùng được với period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Như ta biết có 3 loại datetime : </t>
+  </si>
+  <si>
+    <t>LocalDate, LocalTime, LocalDateTime</t>
+  </si>
+  <si>
+    <t>Tuy nhiên chỉ có LocalDate và LocalDateTime mới có phương thức với Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LocalDate date = LocalDate.of(2015, 1, 20);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LocalTime time = LocalTime.of(6, 15);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LocalDateTime dateTime = LocalDateTime.of(date, time);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Period period = Period.ofMonths(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> date.plus(period);                 // 2015-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dateTime.plus(period);             // 2015-02-20T06:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time.plus(period);                 //  UnsupportedTemporalTypeException</t>
+  </si>
+  <si>
+    <t>17. Format Date và Time</t>
+  </si>
+  <si>
+    <t>Java hỗ trợ một JavaDatetimeFormatter để chuyển đổi format của date và time</t>
+  </si>
+  <si>
+    <t>LocalDate date = LocalDate.of(2020, Month.JANUARY, 20);</t>
+  </si>
+  <si>
+    <t>DateTimeFormatter shortDateTime =  DateTimeFormatter.ofLocalizedDate(FormatStyle.SHORT);</t>
+  </si>
+  <si>
+    <t>LocalTime time = LocalTime.of(11, 12, 34);</t>
+  </si>
+  <si>
+    <t>LocalDateTime dateTime = LocalDateTime.of(date, time);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 1/20/20</t>
+  </si>
+  <si>
+    <t>// UnsupportedTemporalTypeException</t>
+  </si>
+  <si>
+    <t>// Dòng này báo lỗi vì ko thể format time về datetime</t>
+  </si>
+  <si>
+    <t>shortDateTime.format(dateTime);</t>
+  </si>
+  <si>
+    <t>shortDateTime.format(date);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortDateTime.format(time); </t>
+  </si>
+  <si>
+    <t>datetime.format(shortDatetime)</t>
+  </si>
+  <si>
+    <t>date.format (shortDateTime)</t>
+  </si>
+  <si>
+    <t>time.format (shortDateTime)</t>
+  </si>
+  <si>
+    <t>// Hoặc viết ngược lại thì compile vẫn OK</t>
+  </si>
+  <si>
+    <t>// UnsupportedTemporalTypeException vì time ko thể format về kiểu Datetime</t>
+  </si>
+  <si>
+    <t>Một ví dụ khác về việc format :</t>
+  </si>
+  <si>
+    <t>DatetimeFormatter f = DateTimeFormatter.ofPattern (" hh:mm");</t>
+  </si>
+  <si>
+    <t>f.format(datetime);</t>
+  </si>
+  <si>
+    <t>f.format(date);</t>
+  </si>
+  <si>
+    <t>f.formate(time);</t>
+  </si>
+  <si>
+    <t>// UnsupportedTemporalTypeException vì date ko thể format về kiểu time</t>
+  </si>
+  <si>
+    <t>18. Parsing Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Chuyển đổi từ String về date &amp; time</t>
+  </si>
+  <si>
+    <t>DateTimeFormatter formater = DateTimeFormatter.ofPattern("MM dd yyyy");</t>
+  </si>
+  <si>
+    <t>LocalDate date = LocalDate.parse("01 02 2015", formater);</t>
+  </si>
+  <si>
+    <t>LocalTime time = LocalTime.parse("11:22");</t>
+  </si>
+  <si>
+    <t>System.out.println(date); // 2015-01-02</t>
+  </si>
+  <si>
+    <t>System.out.println(time); // 11:22</t>
+  </si>
+  <si>
+    <t>0. Khởi tạo String</t>
+  </si>
+  <si>
+    <t>Khởi tạo String từ constructor char array</t>
+  </si>
+  <si>
+    <t>char [ ]  name =  new char [ ] {'H','u','n', 'g''}</t>
+  </si>
+  <si>
+    <t>String str = new String (name)</t>
+  </si>
+  <si>
+    <t>Khởi tạo String từ STringBuilder</t>
+  </si>
+  <si>
+    <t>StringBuilder builder = new StringBuilder("builder_value");</t>
+  </si>
+  <si>
+    <t>String str  = new String(builder);</t>
+  </si>
+  <si>
+    <t>Khởi tạo String từ StringBuffer</t>
+  </si>
+  <si>
+    <t>String str = new String (buffer);</t>
+  </si>
+  <si>
+    <t>StringBuffer buffer = new StringBuffer("buffer");</t>
+  </si>
+  <si>
+    <t>Đếm số lượng String tạo ra:</t>
+  </si>
+  <si>
+    <t>class ContString {</t>
+  </si>
+  <si>
+    <t>public static void main(String... args) {</t>
+  </si>
+  <si>
+    <t>String summer = new String("Summer");</t>
+  </si>
+  <si>
+    <t>String summer2 = "Summer";</t>
+  </si>
+  <si>
+    <t>System.out.println("Summer");</t>
+  </si>
+  <si>
+    <t>System.out.println("autumn");</t>
+  </si>
+  <si>
+    <t>System.out.println("autumn" == "summer");</t>
+  </si>
+  <si>
+    <t>String autumn = new String("Summer");</t>
+  </si>
+  <si>
+    <t>// Line 1</t>
+  </si>
+  <si>
+    <t>// Line 2</t>
+  </si>
+  <si>
+    <t>// Line 3</t>
+  </si>
+  <si>
+    <t>// Line 4</t>
+  </si>
+  <si>
+    <t>// Line 5</t>
+  </si>
+  <si>
+    <t>// Line 6</t>
   </si>
 </sst>
 </file>
@@ -3901,13 +4126,13 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4315,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q563"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6123,16 +6348,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="55" t="s">
+      <c r="D424" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="55"/>
-      <c r="F424" s="55"/>
-      <c r="G424" s="55"/>
-      <c r="H424" s="55"/>
-      <c r="I424" s="55"/>
-      <c r="J424" s="55"/>
-      <c r="K424" s="55"/>
+      <c r="E424" s="57"/>
+      <c r="F424" s="57"/>
+      <c r="G424" s="57"/>
+      <c r="H424" s="57"/>
+      <c r="I424" s="57"/>
+      <c r="J424" s="57"/>
+      <c r="K424" s="57"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -6199,16 +6424,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="55" t="s">
+      <c r="D430" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="55"/>
-      <c r="F430" s="55"/>
-      <c r="G430" s="55"/>
-      <c r="H430" s="55"/>
-      <c r="I430" s="55"/>
-      <c r="J430" s="55"/>
-      <c r="K430" s="55"/>
+      <c r="E430" s="57"/>
+      <c r="F430" s="57"/>
+      <c r="G430" s="57"/>
+      <c r="H430" s="57"/>
+      <c r="I430" s="57"/>
+      <c r="J430" s="57"/>
+      <c r="K430" s="57"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -7694,8 +7919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T448"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L161" sqref="L161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10953,2215 +11178,2654 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q402"/>
+  <dimension ref="A1:Q501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E389" sqref="E389"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="36" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="36"/>
+    </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="36"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="36"/>
+      <c r="C5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="36"/>
+      <c r="C6" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="36"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="36"/>
+      <c r="B8" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="36"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="36"/>
+      <c r="C10" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="36"/>
+      <c r="C11" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="36"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="36"/>
+      <c r="B13" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="36"/>
+      <c r="C14" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="36"/>
+      <c r="C15" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="36"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="36"/>
+      <c r="B17" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="36"/>
+      <c r="C18" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="36"/>
+      <c r="D19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="36"/>
+      <c r="E20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="36"/>
+      <c r="E21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="36"/>
+      <c r="E22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="36"/>
+      <c r="E23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="36"/>
+      <c r="E24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="36"/>
+      <c r="E25" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="36"/>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="36"/>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="36"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="36"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="36"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="36"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="36"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="36"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="36"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="36"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="36"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="36"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="36"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="36"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="36"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="36" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
+    <row r="45" spans="1:3">
+      <c r="C45" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
+    <row r="47" spans="1:3">
+      <c r="C47" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="C10" t="s">
+    <row r="49" spans="1:10">
+      <c r="C49" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="36" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" s="36" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
+    <row r="55" spans="1:10">
+      <c r="B55" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="25" t="s">
+    <row r="57" spans="1:10">
+      <c r="C57" s="25" t="s">
         <v>711</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="J18" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="J57" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="25" t="s">
+    <row r="58" spans="1:10">
+      <c r="C58" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="25" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="C59" s="27"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="C60" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="25" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="C61" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="25" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="C62" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="27"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="25" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="C63" s="27"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="C64" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="25" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="C65" s="25" t="s">
         <v>715</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="25" t="s">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="C66" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28" s="25" t="s">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="C67" s="25" t="s">
         <v>716</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="3:10">
-      <c r="C29" s="25" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="C68" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30" s="25" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="C69" s="25" t="s">
         <v>718</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31" s="25" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="C70" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32" s="25" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="C71" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="C33" s="25" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="C72" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="C34" s="25" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="C73" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="B36" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="C38" t="s">
+    <row r="77" spans="1:8">
+      <c r="C77" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="36" t="s">
+    <row r="80" spans="1:8">
+      <c r="A80" s="36" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
-      <c r="B43" t="s">
+    <row r="82" spans="2:16">
+      <c r="B82" t="s">
         <v>725</v>
       </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="45" t="s">
+      <c r="I82" s="37"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="14"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="C44" t="s">
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="14"/>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="C83" t="s">
         <v>726</v>
       </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="26" t="s">
+      <c r="I83" s="37"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="14"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="C45" t="s">
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="14"/>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="C84" t="s">
         <v>728</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="26" t="s">
+      <c r="I84" s="38"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="14"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="C46" t="s">
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="14"/>
+    </row>
+    <row r="85" spans="2:16">
+      <c r="C85" t="s">
         <v>727</v>
       </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="26" t="s">
+      <c r="I85" s="38"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="26" t="s">
         <v>732</v>
       </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="14"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="C47" t="s">
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="14"/>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="C86" t="s">
         <v>729</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="26" t="s">
+      <c r="I86" s="38"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="26" t="s">
         <v>733</v>
       </c>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="14"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="I48" s="38"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="B51" t="s">
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="14"/>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="I87" s="38"/>
+      <c r="J87" s="14"/>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
-      <c r="C53" t="s">
+    <row r="92" spans="2:16">
+      <c r="C92" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
-      <c r="C54" t="s">
+    <row r="93" spans="2:16">
+      <c r="C93" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="18.75">
-      <c r="C56" s="40" t="s">
+    <row r="95" spans="2:16" ht="18.75">
+      <c r="C95" s="40" t="s">
         <v>737</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="41"/>
-    </row>
-    <row r="57" spans="1:16" ht="18.75">
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-    </row>
-    <row r="58" spans="1:16" ht="18.75">
-      <c r="C58" s="41"/>
-      <c r="D58" s="42" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="41"/>
+    </row>
+    <row r="96" spans="2:16" ht="18.75">
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+    </row>
+    <row r="97" spans="1:14" ht="18.75">
+      <c r="C97" s="41"/>
+      <c r="D97" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="41"/>
-    </row>
-    <row r="59" spans="1:16" ht="18.75">
-      <c r="C59" s="41"/>
-      <c r="D59" s="42" t="s">
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="41"/>
+    </row>
+    <row r="98" spans="1:14" ht="18.75">
+      <c r="C98" s="41"/>
+      <c r="D98" s="42" t="s">
         <v>739</v>
       </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41"/>
-    </row>
-    <row r="60" spans="1:16" ht="18.75">
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="D61" s="39" t="s">
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="41"/>
+    </row>
+    <row r="99" spans="1:14" ht="18.75">
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="D100" s="39" t="s">
         <v>740</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="36" t="s">
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="36" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="65" spans="2:14">
-      <c r="B65" t="s">
+    <row r="104" spans="1:14">
+      <c r="B104" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="67" spans="2:14">
-      <c r="B67" t="s">
+    <row r="106" spans="1:14">
+      <c r="B106" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="69" spans="2:14">
-      <c r="C69" t="s">
+    <row r="108" spans="1:14">
+      <c r="C108" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="71" spans="2:14">
-      <c r="C71" t="s">
+    <row r="110" spans="1:14">
+      <c r="C110" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="72" spans="2:14">
-      <c r="D72" t="s">
+    <row r="111" spans="1:14">
+      <c r="D111" t="s">
         <v>745</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J111" t="s">
         <v>747</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M111" t="s">
         <v>780</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N111" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="73" spans="2:14">
-      <c r="D73" t="s">
+    <row r="112" spans="1:14">
+      <c r="D112" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="77" spans="2:14">
-      <c r="B77" t="s">
+    <row r="116" spans="1:10">
+      <c r="B116" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="78" spans="2:14">
-      <c r="C78" t="s">
+    <row r="117" spans="1:10">
+      <c r="C117" t="s">
         <v>749</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J117" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="80" spans="2:14">
-      <c r="C80" t="s">
+    <row r="119" spans="1:10">
+      <c r="C119" t="s">
         <v>750</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J119" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
-      <c r="D83" t="s">
+    <row r="122" spans="1:10">
+      <c r="D122" t="s">
         <v>392</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E122" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="E84" t="s">
+    <row r="123" spans="1:10">
+      <c r="E123" t="s">
         <v>752</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J123" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="J85" t="s">
+    <row r="124" spans="1:10">
+      <c r="J124" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="36" t="s">
+    <row r="127" spans="1:10">
+      <c r="A127" s="36" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="B90" t="s">
+    <row r="129" spans="1:9">
+      <c r="B129" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="C92" s="22" t="s">
+    <row r="131" spans="1:9">
+      <c r="C131" s="22" t="s">
         <v>757</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="43"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="C93" s="22" t="s">
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="43"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="C132" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="43"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="C94" s="22" t="s">
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="43"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="C133" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="44" t="b">
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="I94" s="43"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="C95" s="22" t="s">
+      <c r="I133" s="43"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="C134" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="44" t="s">
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="44" t="s">
         <v>762</v>
       </c>
-      <c r="I95" s="43"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="C96" s="22" t="s">
+      <c r="I134" s="43"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="C135" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="44" t="s">
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="44" t="s">
         <v>762</v>
       </c>
-      <c r="I96" s="43"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="36" t="s">
+      <c r="I135" s="43"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="36" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="B101" t="s">
+    <row r="140" spans="1:9">
+      <c r="B140" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="C103" t="s">
+    <row r="142" spans="1:9">
+      <c r="C142" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="C104" t="s">
+    <row r="143" spans="1:9">
+      <c r="C143" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="C106" t="s">
+    <row r="145" spans="2:8">
+      <c r="C145" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="C107" t="s">
+    <row r="146" spans="2:8">
+      <c r="C146" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
-      <c r="C108" t="s">
+    <row r="147" spans="2:8">
+      <c r="C147" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="C109" t="s">
+    <row r="148" spans="2:8">
+      <c r="C148" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
-      <c r="C111" t="s">
+    <row r="150" spans="2:8">
+      <c r="C150" t="s">
         <v>792</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H150" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="C112" t="s">
+    <row r="151" spans="2:8">
+      <c r="C151" t="s">
         <v>793</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H151" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="C113" t="s">
+    <row r="152" spans="2:8">
+      <c r="C152" t="s">
         <v>794</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H152" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
-      <c r="B117" t="s">
+    <row r="156" spans="2:8">
+      <c r="B156" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
-      <c r="C119" t="s">
+    <row r="158" spans="2:8">
+      <c r="C158" t="s">
         <v>798</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H158" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
-      <c r="C120" t="s">
+    <row r="159" spans="2:8">
+      <c r="C159" t="s">
         <v>800</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H159" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="B124" t="s">
+    <row r="163" spans="2:16">
+      <c r="B163" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
-      <c r="C126" s="22" t="s">
+    <row r="165" spans="2:16">
+      <c r="C165" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-    </row>
-    <row r="127" spans="2:9">
-      <c r="C127" s="22" t="s">
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+    </row>
+    <row r="166" spans="2:16">
+      <c r="C166" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-    </row>
-    <row r="128" spans="2:9">
-      <c r="C128" s="23"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-    </row>
-    <row r="129" spans="2:16">
-      <c r="C129" s="22" t="s">
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+    </row>
+    <row r="167" spans="2:16">
+      <c r="C167" s="23"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+    </row>
+    <row r="168" spans="2:16">
+      <c r="C168" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" t="b">
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+      <c r="J168" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:16">
-      <c r="C130" s="22" t="s">
+    <row r="169" spans="2:16">
+      <c r="C169" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" t="b">
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:16">
-      <c r="B133" t="s">
+    <row r="172" spans="2:16">
+      <c r="B172" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="135" spans="2:16">
-      <c r="C135" t="s">
+    <row r="174" spans="2:16">
+      <c r="C174" t="s">
         <v>779</v>
       </c>
-      <c r="P135" t="s">
+      <c r="P174" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="136" spans="2:16">
-      <c r="D136" t="s">
+    <row r="175" spans="2:16">
+      <c r="D175" t="s">
         <v>776</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F175" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="137" spans="2:16">
-      <c r="C137" t="s">
+    <row r="176" spans="2:16">
+      <c r="C176" t="s">
         <v>45</v>
       </c>
-      <c r="P137" t="s">
+      <c r="P176" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="140" spans="2:16">
-      <c r="C140" t="s">
+    <row r="179" spans="3:10">
+      <c r="C179" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="142" spans="2:16">
-      <c r="C142" t="s">
+    <row r="181" spans="3:10">
+      <c r="C181" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="144" spans="2:16">
-      <c r="D144" t="s">
+    <row r="183" spans="3:10">
+      <c r="D183" t="s">
         <v>784</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J183" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
-      <c r="D146" t="s">
+    <row r="185" spans="3:10">
+      <c r="D185" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
-      <c r="E147" t="s">
+    <row r="186" spans="3:10">
+      <c r="E186" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
-      <c r="E148" t="s">
+    <row r="187" spans="3:10">
+      <c r="E187" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
-      <c r="D150" t="s">
+    <row r="189" spans="3:10">
+      <c r="D189" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
-      <c r="C151" t="s">
+    <row r="190" spans="3:10">
+      <c r="C190" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A154" s="36" t="s">
+    <row r="193" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A193" s="36" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="17.25" customHeight="1">
-      <c r="B155" t="s">
+    <row r="194" spans="1:17" ht="17.25" customHeight="1">
+      <c r="B194" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
-      <c r="B156" s="46" t="s">
+    <row r="195" spans="1:17">
+      <c r="B195" s="46" t="s">
         <v>802</v>
       </c>
-      <c r="C156" s="46"/>
-      <c r="D156" s="46"/>
-      <c r="E156" s="46"/>
-      <c r="F156" s="46"/>
-      <c r="G156" s="46"/>
-      <c r="H156" s="46"/>
-      <c r="I156" s="47"/>
-      <c r="J156" s="49"/>
-      <c r="K156" s="48"/>
-      <c r="L156" s="48"/>
-      <c r="M156" s="48"/>
-      <c r="N156" s="48"/>
-      <c r="O156" s="48"/>
-      <c r="P156" s="48"/>
-      <c r="Q156" s="48"/>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="B157" s="46" t="s">
+      <c r="C195" s="46"/>
+      <c r="D195" s="46"/>
+      <c r="E195" s="46"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="46"/>
+      <c r="H195" s="46"/>
+      <c r="I195" s="47"/>
+      <c r="J195" s="49"/>
+      <c r="K195" s="48"/>
+      <c r="L195" s="48"/>
+      <c r="M195" s="48"/>
+      <c r="N195" s="48"/>
+      <c r="O195" s="48"/>
+      <c r="P195" s="48"/>
+      <c r="Q195" s="48"/>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="B196" s="46" t="s">
         <v>803</v>
       </c>
-      <c r="C157" s="46"/>
-      <c r="D157" s="46"/>
-      <c r="E157" s="46"/>
-      <c r="F157" s="46"/>
-      <c r="G157" s="46"/>
-      <c r="H157" s="46"/>
-      <c r="I157" s="47"/>
-      <c r="J157" s="49"/>
-      <c r="K157" s="48"/>
-      <c r="L157" s="48"/>
-      <c r="M157" s="48"/>
-      <c r="N157" s="48"/>
-      <c r="O157" s="48"/>
-      <c r="P157" s="48"/>
-      <c r="Q157" s="48"/>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="B158" s="46" t="s">
+      <c r="C196" s="46"/>
+      <c r="D196" s="46"/>
+      <c r="E196" s="46"/>
+      <c r="F196" s="46"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="46"/>
+      <c r="I196" s="47"/>
+      <c r="J196" s="49"/>
+      <c r="K196" s="48"/>
+      <c r="L196" s="48"/>
+      <c r="M196" s="48"/>
+      <c r="N196" s="48"/>
+      <c r="O196" s="48"/>
+      <c r="P196" s="48"/>
+      <c r="Q196" s="48"/>
+    </row>
+    <row r="197" spans="1:17">
+      <c r="B197" s="46" t="s">
         <v>804</v>
       </c>
-      <c r="C158" s="46"/>
-      <c r="D158" s="46"/>
-      <c r="E158" s="46"/>
-      <c r="F158" s="46"/>
-      <c r="G158" s="46"/>
-      <c r="H158" s="46"/>
-      <c r="I158" s="47"/>
-      <c r="J158" s="49"/>
-      <c r="K158" s="48"/>
-      <c r="L158" s="48"/>
-      <c r="M158" s="48"/>
-      <c r="N158" s="48"/>
-      <c r="O158" s="48"/>
-      <c r="P158" s="48"/>
-      <c r="Q158" s="48"/>
-    </row>
-    <row r="159" spans="1:17">
-      <c r="B159" s="46" t="s">
+      <c r="C197" s="46"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="46"/>
+      <c r="F197" s="46"/>
+      <c r="G197" s="46"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="47"/>
+      <c r="J197" s="49"/>
+      <c r="K197" s="48"/>
+      <c r="L197" s="48"/>
+      <c r="M197" s="48"/>
+      <c r="N197" s="48"/>
+      <c r="O197" s="48"/>
+      <c r="P197" s="48"/>
+      <c r="Q197" s="48"/>
+    </row>
+    <row r="198" spans="1:17">
+      <c r="B198" s="46" t="s">
         <v>805</v>
       </c>
-      <c r="C159" s="46"/>
-      <c r="D159" s="46"/>
-      <c r="E159" s="46"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="46"/>
-      <c r="H159" s="46"/>
-      <c r="I159" s="47"/>
-      <c r="J159" s="49"/>
-      <c r="K159" s="48" t="s">
+      <c r="C198" s="46"/>
+      <c r="D198" s="46"/>
+      <c r="E198" s="46"/>
+      <c r="F198" s="46"/>
+      <c r="G198" s="46"/>
+      <c r="H198" s="46"/>
+      <c r="I198" s="47"/>
+      <c r="J198" s="49"/>
+      <c r="K198" s="48" t="s">
         <v>808</v>
       </c>
-      <c r="L159" s="48"/>
-      <c r="M159" s="48"/>
-      <c r="N159" s="48"/>
-      <c r="O159" s="48"/>
-      <c r="P159" s="48"/>
-      <c r="Q159" s="48"/>
-    </row>
-    <row r="160" spans="1:17">
-      <c r="B160" s="46" t="s">
+      <c r="L198" s="48"/>
+      <c r="M198" s="48"/>
+      <c r="N198" s="48"/>
+      <c r="O198" s="48"/>
+      <c r="P198" s="48"/>
+      <c r="Q198" s="48"/>
+    </row>
+    <row r="199" spans="1:17">
+      <c r="B199" s="46" t="s">
         <v>806</v>
       </c>
-      <c r="C160" s="46"/>
-      <c r="D160" s="46"/>
-      <c r="E160" s="46"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="46"/>
-      <c r="H160" s="46"/>
-      <c r="I160" s="47"/>
-      <c r="J160" s="49"/>
-      <c r="K160" s="48" t="s">
+      <c r="C199" s="46"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="46"/>
+      <c r="F199" s="46"/>
+      <c r="G199" s="46"/>
+      <c r="H199" s="46"/>
+      <c r="I199" s="47"/>
+      <c r="J199" s="49"/>
+      <c r="K199" s="48" t="s">
         <v>809</v>
       </c>
-      <c r="L160" s="48"/>
-      <c r="M160" s="48"/>
-      <c r="N160" s="48"/>
-      <c r="O160" s="48"/>
-      <c r="P160" s="48"/>
-      <c r="Q160" s="48"/>
-    </row>
-    <row r="161" spans="1:17">
-      <c r="B161" s="46" t="s">
+      <c r="L199" s="48"/>
+      <c r="M199" s="48"/>
+      <c r="N199" s="48"/>
+      <c r="O199" s="48"/>
+      <c r="P199" s="48"/>
+      <c r="Q199" s="48"/>
+    </row>
+    <row r="200" spans="1:17">
+      <c r="B200" s="46" t="s">
         <v>807</v>
       </c>
-      <c r="C161" s="46"/>
-      <c r="D161" s="46"/>
-      <c r="E161" s="46"/>
-      <c r="F161" s="46"/>
-      <c r="G161" s="46"/>
-      <c r="H161" s="46"/>
-      <c r="I161" s="47"/>
-      <c r="J161" s="49"/>
-      <c r="K161" s="48" t="s">
+      <c r="C200" s="46"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="46"/>
+      <c r="F200" s="46"/>
+      <c r="G200" s="46"/>
+      <c r="H200" s="46"/>
+      <c r="I200" s="47"/>
+      <c r="J200" s="49"/>
+      <c r="K200" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="L161" s="48"/>
-      <c r="M161" s="48"/>
-      <c r="N161" s="48"/>
-      <c r="O161" s="48"/>
-      <c r="P161" s="48"/>
-      <c r="Q161" s="48"/>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="B164" s="44" t="s">
+      <c r="L200" s="48"/>
+      <c r="M200" s="48"/>
+      <c r="N200" s="48"/>
+      <c r="O200" s="48"/>
+      <c r="P200" s="48"/>
+      <c r="Q200" s="48"/>
+    </row>
+    <row r="203" spans="1:17">
+      <c r="B203" s="44" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
-      <c r="C166" t="s">
+    <row r="205" spans="1:17">
+      <c r="C205" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
-      <c r="C167" t="s">
+    <row r="206" spans="1:17">
+      <c r="C206" t="s">
         <v>815</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I206" t="s">
         <v>817</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J206" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
-      <c r="C168" t="s">
+    <row r="207" spans="1:17">
+      <c r="C207" t="s">
         <v>816</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I207" t="s">
         <v>818</v>
       </c>
-      <c r="J168" s="50" t="s">
+      <c r="J207" s="50" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
-      <c r="A171" s="36" t="s">
+    <row r="210" spans="1:6">
+      <c r="A210" s="36" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
-      <c r="C173" s="51" t="s">
+    <row r="212" spans="1:6">
+      <c r="C212" s="51" t="s">
         <v>823</v>
       </c>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-    </row>
-    <row r="174" spans="1:17">
-      <c r="C174" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-    </row>
-    <row r="175" spans="1:17">
-      <c r="C175" s="51" t="s">
-        <v>825</v>
-      </c>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" s="36" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="B179" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
-      <c r="C180" t="s">
-        <v>827</v>
-      </c>
-      <c r="E180" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
-      <c r="C181" t="s">
-        <v>828</v>
-      </c>
-      <c r="E181" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
-      <c r="C182" t="s">
-        <v>829</v>
-      </c>
-      <c r="E182" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
-      <c r="C183" s="52" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
-      <c r="A185" s="36" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
-      <c r="B187" t="s">
-        <v>835</v>
-      </c>
-      <c r="I187" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="C189" t="s">
-        <v>836</v>
-      </c>
-      <c r="J189" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="C190" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
-      <c r="C191" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
-      <c r="C192" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9">
-      <c r="C193" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9">
-      <c r="B196" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9">
-      <c r="C198" t="s">
-        <v>844</v>
-      </c>
-      <c r="G198" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9">
-      <c r="C200" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9">
-      <c r="C203" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9">
-      <c r="D205" s="22" t="s">
-        <v>848</v>
-      </c>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-    </row>
-    <row r="206" spans="2:9">
-      <c r="D206" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-    </row>
-    <row r="207" spans="2:9">
-      <c r="D207" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
-    </row>
-    <row r="208" spans="2:9">
-      <c r="D208" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
-      <c r="I208" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="C210" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="D212" s="22" t="s">
-        <v>854</v>
-      </c>
+      <c r="D212" s="18"/>
       <c r="E212" s="18"/>
       <c r="F212" s="18"/>
-      <c r="G212" s="18"/>
-      <c r="H212" s="18"/>
-      <c r="I212" s="18"/>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="D213" s="22" t="s">
-        <v>855</v>
-      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="C213" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="D213" s="18"/>
       <c r="E213" s="18"/>
       <c r="F213" s="18"/>
-      <c r="G213" s="18"/>
-      <c r="H213" s="18"/>
-      <c r="I213" s="18"/>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="D214" s="22" t="s">
-        <v>850</v>
-      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="C214" s="51" t="s">
+        <v>825</v>
+      </c>
+      <c r="D214" s="18"/>
       <c r="E214" s="18"/>
       <c r="F214" s="18"/>
-      <c r="G214" s="18"/>
-      <c r="H214" s="18"/>
-      <c r="I214" s="18"/>
-      <c r="J214" t="s">
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="36" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="B218" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="C219" t="s">
+        <v>827</v>
+      </c>
+      <c r="E219" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="C220" t="s">
+        <v>828</v>
+      </c>
+      <c r="E220" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="C221" t="s">
+        <v>829</v>
+      </c>
+      <c r="E221" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="C222" s="52" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="36" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10">
+      <c r="B226" t="s">
+        <v>835</v>
+      </c>
+      <c r="I226" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10">
+      <c r="C228" t="s">
+        <v>836</v>
+      </c>
+      <c r="J228" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10">
+      <c r="C229" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10">
+      <c r="C230" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10">
+      <c r="C231" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10">
+      <c r="C232" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10">
+      <c r="B235" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10">
+      <c r="C237" t="s">
+        <v>844</v>
+      </c>
+      <c r="G237" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10">
+      <c r="C239" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10">
+      <c r="C242" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="D244" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="E244" s="18"/>
+      <c r="F244" s="18"/>
+      <c r="G244" s="18"/>
+    </row>
+    <row r="245" spans="2:10">
+      <c r="D245" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E245" s="18"/>
+      <c r="F245" s="18"/>
+      <c r="G245" s="18"/>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="D246" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E246" s="18"/>
+      <c r="F246" s="18"/>
+      <c r="G246" s="18"/>
+    </row>
+    <row r="247" spans="2:10">
+      <c r="D247" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18"/>
+      <c r="G247" s="18"/>
+      <c r="I247" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10">
+      <c r="C249" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10">
+      <c r="D251" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="E251" s="18"/>
+      <c r="F251" s="18"/>
+      <c r="G251" s="18"/>
+      <c r="H251" s="18"/>
+      <c r="I251" s="18"/>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="D252" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="E252" s="18"/>
+      <c r="F252" s="18"/>
+      <c r="G252" s="18"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="18"/>
+    </row>
+    <row r="253" spans="2:10">
+      <c r="D253" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E253" s="18"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="18"/>
+      <c r="I253" s="18"/>
+      <c r="J253" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
-      <c r="B216" t="s">
+    <row r="255" spans="2:10">
+      <c r="B255" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
-      <c r="C218" t="s">
+    <row r="257" spans="1:7">
+      <c r="C257" t="s">
         <v>858</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G257" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
-      <c r="C220" t="s">
+    <row r="259" spans="1:7">
+      <c r="C259" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
-      <c r="A223" s="36" t="s">
+    <row r="262" spans="1:7">
+      <c r="A262" s="36" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="225" spans="2:6">
-      <c r="B225" t="s">
+    <row r="264" spans="1:7">
+      <c r="B264" t="s">
         <v>862</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D264" t="s">
         <v>863</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F264" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="227" spans="2:6">
-      <c r="B227" t="s">
+    <row r="266" spans="1:7">
+      <c r="B266" t="s">
         <v>82</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D266" t="s">
         <v>865</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F266" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="228" spans="2:6">
-      <c r="B228" t="s">
+    <row r="267" spans="1:7">
+      <c r="B267" t="s">
         <v>866</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D267" t="s">
         <v>867</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F267" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="229" spans="2:6">
-      <c r="B229" t="s">
+    <row r="268" spans="1:7">
+      <c r="B268" t="s">
         <v>86</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D268" t="s">
         <v>868</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F268" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="230" spans="2:6">
-      <c r="B230" t="s">
+    <row r="269" spans="1:7">
+      <c r="B269" t="s">
         <v>409</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D269" t="s">
         <v>869</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F269" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="231" spans="2:6">
-      <c r="B231" t="s">
+    <row r="270" spans="1:7">
+      <c r="B270" t="s">
         <v>410</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D270" t="s">
         <v>870</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F270" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="232" spans="2:6">
-      <c r="B232" t="s">
+    <row r="271" spans="1:7">
+      <c r="B271" t="s">
         <v>871</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D271" t="s">
         <v>872</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F271" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="233" spans="2:6">
-      <c r="B233" t="s">
+    <row r="272" spans="1:7">
+      <c r="B272" t="s">
         <v>873</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D272" t="s">
         <v>874</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F272" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="234" spans="2:6">
-      <c r="B234" t="s">
+    <row r="273" spans="2:15">
+      <c r="B273" t="s">
         <v>875</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D273" t="s">
         <v>876</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F273" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="237" spans="2:6">
-      <c r="B237" t="s">
+    <row r="276" spans="2:15">
+      <c r="B276" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="239" spans="2:6">
-      <c r="C239" t="s">
+    <row r="278" spans="2:15">
+      <c r="C278" t="s">
         <v>886</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E278" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="241" spans="3:15">
-      <c r="C241" t="s">
+    <row r="280" spans="2:15">
+      <c r="C280" t="s">
         <v>865</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E280" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="3:15">
-      <c r="C242" t="s">
+    <row r="281" spans="2:15">
+      <c r="C281" t="s">
         <v>867</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E281" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="243" spans="3:15">
-      <c r="C243" t="s">
+    <row r="282" spans="2:15">
+      <c r="C282" t="s">
         <v>868</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E282" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="244" spans="3:15">
-      <c r="C244" t="s">
+    <row r="283" spans="2:15">
+      <c r="C283" t="s">
         <v>869</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E283" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="245" spans="3:15">
-      <c r="C245" t="s">
+    <row r="284" spans="2:15">
+      <c r="C284" t="s">
         <v>892</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E284" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="246" spans="3:15">
-      <c r="C246" t="s">
+    <row r="285" spans="2:15">
+      <c r="C285" t="s">
         <v>894</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E285" t="s">
         <v>895</v>
       </c>
-      <c r="J246" t="s">
+      <c r="J285" t="s">
         <v>896</v>
       </c>
-      <c r="O246" t="s">
+      <c r="O285" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="247" spans="3:15">
-      <c r="C247" t="s">
+    <row r="286" spans="2:15">
+      <c r="C286" t="s">
         <v>874</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E286" t="s">
         <v>898</v>
       </c>
-      <c r="J247" t="s">
+      <c r="J286" t="s">
         <v>899</v>
       </c>
-      <c r="O247" t="s">
+      <c r="O286" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="248" spans="3:15">
-      <c r="C248" s="54" t="s">
+    <row r="287" spans="2:15">
+      <c r="C287" s="54" t="s">
         <v>876</v>
       </c>
-      <c r="D248" s="54"/>
-      <c r="E248" s="54" t="s">
+      <c r="D287" s="54"/>
+      <c r="E287" s="54" t="s">
         <v>900</v>
       </c>
-      <c r="F248" s="54"/>
-      <c r="G248" s="54"/>
-      <c r="H248" s="54"/>
-      <c r="I248" s="53"/>
-    </row>
-    <row r="251" spans="3:15">
-      <c r="E251" t="s">
+      <c r="F287" s="54"/>
+      <c r="G287" s="54"/>
+      <c r="H287" s="54"/>
+      <c r="I287" s="53"/>
+    </row>
+    <row r="290" spans="1:11">
+      <c r="E290" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="253" spans="3:15">
-      <c r="C253" t="s">
+    <row r="292" spans="1:11">
+      <c r="C292" t="s">
         <v>865</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E292" t="s">
         <v>902</v>
       </c>
-      <c r="K253" t="s">
+      <c r="K292" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="254" spans="3:15">
-      <c r="C254" t="s">
+    <row r="293" spans="1:11">
+      <c r="C293" t="s">
         <v>867</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E293" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="255" spans="3:15">
-      <c r="C255" t="s">
+    <row r="294" spans="1:11">
+      <c r="C294" t="s">
         <v>868</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E294" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="256" spans="3:15">
-      <c r="C256" t="s">
+    <row r="295" spans="1:11">
+      <c r="C295" t="s">
         <v>869</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E295" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
-      <c r="C257" t="s">
+    <row r="296" spans="1:11">
+      <c r="C296" t="s">
         <v>892</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E296" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
-      <c r="C258" t="s">
+    <row r="297" spans="1:11">
+      <c r="C297" t="s">
         <v>894</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E297" t="s">
         <v>908</v>
       </c>
-      <c r="J258" t="s">
+      <c r="J297" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
-      <c r="C259" t="s">
+    <row r="298" spans="1:11">
+      <c r="C298" t="s">
         <v>874</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E298" t="s">
         <v>909</v>
       </c>
-      <c r="J259" t="s">
+      <c r="J298" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
-      <c r="C260" s="54" t="s">
+    <row r="299" spans="1:11">
+      <c r="C299" s="54" t="s">
         <v>876</v>
       </c>
-      <c r="E260" s="54" t="s">
+      <c r="E299" s="54" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
-      <c r="A264" s="36" t="s">
+    <row r="303" spans="1:11">
+      <c r="A303" s="36" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
-      <c r="B266" t="s">
+    <row r="305" spans="1:8">
+      <c r="B305" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
-      <c r="B268" t="s">
+    <row r="307" spans="1:8">
+      <c r="B307" t="s">
         <v>471</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C307" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
-      <c r="C269" t="s">
+    <row r="308" spans="1:8">
+      <c r="C308" t="s">
         <v>915</v>
       </c>
-      <c r="H269" t="s">
+      <c r="H308" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
-      <c r="C270" t="s">
+    <row r="309" spans="1:8">
+      <c r="C309" t="s">
         <v>923</v>
       </c>
-      <c r="H270" t="s">
+      <c r="H309" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
-      <c r="A271" s="36" t="s">
+    <row r="310" spans="1:8">
+      <c r="A310" s="36" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
-      <c r="B272" t="s">
+    <row r="311" spans="1:8">
+      <c r="B311" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="274" spans="2:8">
-      <c r="B274" t="s">
+    <row r="313" spans="1:8">
+      <c r="B313" t="s">
         <v>392</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C313" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="275" spans="2:8">
-      <c r="C275" t="s">
+    <row r="314" spans="1:8">
+      <c r="C314" t="s">
         <v>919</v>
       </c>
-      <c r="H275" t="s">
+      <c r="H314" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="276" spans="2:8">
-      <c r="C276" t="s">
+    <row r="315" spans="1:8">
+      <c r="C315" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="279" spans="2:8">
-      <c r="B279" t="s">
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="281" spans="2:8">
-      <c r="C281" t="s">
+    <row r="320" spans="1:8">
+      <c r="C320" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="282" spans="2:8">
-      <c r="C282" t="s">
+    <row r="321" spans="1:8">
+      <c r="C321" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="283" spans="2:8">
-      <c r="C283" t="s">
+    <row r="322" spans="1:8">
+      <c r="C322" t="s">
         <v>928</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H322" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="285" spans="2:8">
-      <c r="B285" t="s">
+    <row r="324" spans="1:8">
+      <c r="B324" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="288" spans="2:8">
-      <c r="C288" s="23" t="s">
+    <row r="327" spans="1:8">
+      <c r="C327" s="23" t="s">
         <v>931</v>
       </c>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
-      <c r="F288" s="18"/>
-      <c r="G288" s="18"/>
-    </row>
-    <row r="289" spans="1:11">
-      <c r="C289" s="23" t="s">
-        <v>932</v>
-      </c>
-      <c r="D289" s="18"/>
-      <c r="E289" s="18"/>
-      <c r="F289" s="18"/>
-      <c r="G289" s="18"/>
-    </row>
-    <row r="290" spans="1:11">
-      <c r="C290" s="23" t="s">
-        <v>933</v>
-      </c>
-      <c r="D290" s="18"/>
-      <c r="E290" s="18"/>
-      <c r="F290" s="18"/>
-      <c r="G290" s="18"/>
-    </row>
-    <row r="291" spans="1:11">
-      <c r="C291" s="23" t="s">
-        <v>934</v>
-      </c>
-      <c r="D291" s="18"/>
-      <c r="E291" s="18"/>
-      <c r="F291" s="18"/>
-      <c r="G291" s="18"/>
-      <c r="H291" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11">
-      <c r="C292" s="23" t="s">
-        <v>935</v>
-      </c>
-      <c r="D292" s="18"/>
-      <c r="E292" s="18"/>
-      <c r="F292" s="18"/>
-      <c r="G292" s="18"/>
-      <c r="H292" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11">
-      <c r="A295" s="36" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11">
-      <c r="B297" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11">
-      <c r="C300" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="D300" s="18"/>
-      <c r="E300" s="18"/>
-      <c r="F300" s="18"/>
-      <c r="G300" s="18"/>
-      <c r="H300" s="18"/>
-      <c r="I300" s="18"/>
-    </row>
-    <row r="301" spans="1:11">
-      <c r="C301" s="22" t="s">
-        <v>941</v>
-      </c>
-      <c r="D301" s="18"/>
-      <c r="E301" s="18"/>
-      <c r="F301" s="18"/>
-      <c r="G301" s="18"/>
-      <c r="H301" s="18"/>
-      <c r="I301" s="18"/>
-    </row>
-    <row r="302" spans="1:11">
-      <c r="C302" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="D302" s="18"/>
-      <c r="E302" s="18"/>
-      <c r="F302" s="18"/>
-      <c r="G302" s="18"/>
-      <c r="H302" s="18"/>
-      <c r="I302" s="18"/>
-    </row>
-    <row r="303" spans="1:11">
-      <c r="C303" s="22" t="s">
-        <v>943</v>
-      </c>
-      <c r="D303" s="18"/>
-      <c r="E303" s="18"/>
-      <c r="F303" s="18"/>
-      <c r="G303" s="18"/>
-      <c r="H303" s="18"/>
-      <c r="I303" s="18"/>
-      <c r="K303" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11">
-      <c r="C304" s="22" t="s">
-        <v>944</v>
-      </c>
-      <c r="D304" s="18"/>
-      <c r="E304" s="18"/>
-      <c r="F304" s="18"/>
-      <c r="G304" s="18"/>
-      <c r="H304" s="18"/>
-      <c r="I304" s="18"/>
-      <c r="K304" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="305" spans="2:11">
-      <c r="C305" s="23"/>
-      <c r="D305" s="18"/>
-      <c r="E305" s="18"/>
-      <c r="F305" s="18"/>
-      <c r="G305" s="18"/>
-      <c r="H305" s="18"/>
-      <c r="I305" s="18"/>
-    </row>
-    <row r="306" spans="2:11">
-      <c r="C306" s="22" t="s">
-        <v>945</v>
-      </c>
-      <c r="D306" s="18"/>
-      <c r="E306" s="18"/>
-      <c r="F306" s="18"/>
-      <c r="G306" s="18"/>
-      <c r="H306" s="18"/>
-      <c r="I306" s="18"/>
-      <c r="K306" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="307" spans="2:11">
-      <c r="C307" s="22" t="s">
-        <v>946</v>
-      </c>
-      <c r="D307" s="18"/>
-      <c r="E307" s="18"/>
-      <c r="F307" s="18"/>
-      <c r="G307" s="18"/>
-      <c r="H307" s="18"/>
-      <c r="I307" s="18"/>
-      <c r="K307" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="308" spans="2:11">
-      <c r="C308" s="23"/>
-      <c r="D308" s="18"/>
-      <c r="E308" s="18"/>
-      <c r="F308" s="18"/>
-      <c r="G308" s="18"/>
-      <c r="H308" s="18"/>
-      <c r="I308" s="18"/>
-    </row>
-    <row r="309" spans="2:11">
-      <c r="C309" s="22" t="s">
-        <v>947</v>
-      </c>
-      <c r="D309" s="18"/>
-      <c r="E309" s="18"/>
-      <c r="F309" s="18"/>
-      <c r="G309" s="18"/>
-      <c r="H309" s="18"/>
-      <c r="I309" s="18"/>
-      <c r="K309" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="310" spans="2:11">
-      <c r="C310" s="22" t="s">
-        <v>948</v>
-      </c>
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
-      <c r="F310" s="18"/>
-      <c r="G310" s="18"/>
-      <c r="H310" s="18"/>
-      <c r="I310" s="18"/>
-      <c r="K310" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="314" spans="2:11">
-      <c r="B314" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="315" spans="2:11">
-      <c r="C315" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="D315" s="36"/>
-      <c r="E315" s="36"/>
-      <c r="F315" s="36"/>
-      <c r="G315" s="36"/>
-      <c r="H315" s="36"/>
-    </row>
-    <row r="316" spans="2:11">
-      <c r="C316" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="D316" s="36"/>
-      <c r="E316" s="36"/>
-      <c r="F316" s="36"/>
-      <c r="G316" s="36"/>
-      <c r="H316" s="36"/>
-    </row>
-    <row r="318" spans="2:11">
-      <c r="C318" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="320" spans="2:11">
-      <c r="D320" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="E320" s="18"/>
-      <c r="F320" s="18"/>
-      <c r="G320" s="18"/>
-      <c r="H320" s="18"/>
-      <c r="I320" s="18"/>
-    </row>
-    <row r="321" spans="1:10">
-      <c r="D321" s="22" t="s">
-        <v>960</v>
-      </c>
-      <c r="E321" s="18"/>
-      <c r="F321" s="18"/>
-      <c r="G321" s="18"/>
-      <c r="H321" s="18"/>
-      <c r="I321" s="18"/>
-    </row>
-    <row r="322" spans="1:10">
-      <c r="D322" s="22" t="s">
-        <v>961</v>
-      </c>
-      <c r="E322" s="18"/>
-      <c r="F322" s="18"/>
-      <c r="G322" s="18"/>
-      <c r="H322" s="18"/>
-      <c r="I322" s="18"/>
-      <c r="J322" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10">
-      <c r="D323" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="E323" s="18"/>
-      <c r="F323" s="18"/>
-      <c r="G323" s="18"/>
-      <c r="H323" s="18"/>
-      <c r="I323" s="18"/>
-      <c r="J323" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10">
-      <c r="D324" s="23"/>
-      <c r="E324" s="18"/>
-      <c r="F324" s="18"/>
-      <c r="G324" s="18"/>
-      <c r="H324" s="18"/>
-      <c r="I324" s="18"/>
-    </row>
-    <row r="325" spans="1:10">
-      <c r="D325" s="22" t="s">
-        <v>962</v>
-      </c>
-      <c r="E325" s="18"/>
-      <c r="F325" s="18"/>
-      <c r="G325" s="18"/>
-      <c r="H325" s="18"/>
-      <c r="I325" s="18"/>
-    </row>
-    <row r="326" spans="1:10">
-      <c r="D326" s="22" t="s">
-        <v>963</v>
-      </c>
-      <c r="E326" s="18"/>
-      <c r="F326" s="18"/>
-      <c r="G326" s="18"/>
-      <c r="H326" s="18"/>
-      <c r="I326" s="18"/>
-    </row>
-    <row r="327" spans="1:10">
-      <c r="D327" s="23"/>
+      <c r="D327" s="18"/>
       <c r="E327" s="18"/>
       <c r="F327" s="18"/>
       <c r="G327" s="18"/>
-      <c r="H327" s="18"/>
-      <c r="I327" s="18"/>
-    </row>
-    <row r="328" spans="1:10">
-      <c r="D328" s="22" t="s">
-        <v>851</v>
-      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="C328" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="D328" s="18"/>
       <c r="E328" s="18"/>
       <c r="F328" s="18"/>
       <c r="G328" s="18"/>
-      <c r="H328" s="18"/>
-      <c r="I328" s="18"/>
-      <c r="J328" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10">
-      <c r="D329" s="23"/>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="C329" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="D329" s="18"/>
       <c r="E329" s="18"/>
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
-      <c r="H329" s="18"/>
-      <c r="I329" s="18"/>
-    </row>
-    <row r="330" spans="1:10">
-      <c r="D330" s="22" t="s">
-        <v>964</v>
-      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="C330" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="D330" s="18"/>
       <c r="E330" s="18"/>
       <c r="F330" s="18"/>
       <c r="G330" s="18"/>
-      <c r="H330" s="18"/>
-      <c r="I330" s="18"/>
-      <c r="J330" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10">
-      <c r="D331" s="22" t="s">
-        <v>965</v>
-      </c>
+      <c r="H330" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="C331" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="D331" s="18"/>
       <c r="E331" s="18"/>
       <c r="F331" s="18"/>
       <c r="G331" s="18"/>
-      <c r="H331" s="18"/>
-      <c r="I331" s="18"/>
-      <c r="J331" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10">
-      <c r="A335" s="36" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="337" spans="2:12">
-      <c r="B337" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="338" spans="2:12">
-      <c r="C338" t="s">
-        <v>970</v>
-      </c>
-      <c r="E338" t="s">
-        <v>971</v>
-      </c>
-      <c r="J338" t="s">
-        <v>983</v>
-      </c>
-      <c r="L338" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="339" spans="2:12">
-      <c r="E339" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="341" spans="2:12">
-      <c r="E341" t="s">
-        <v>972</v>
-      </c>
-      <c r="G341" s="57" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="343" spans="2:12">
-      <c r="C343" t="s">
-        <v>974</v>
-      </c>
-      <c r="E343" t="s">
-        <v>975</v>
-      </c>
-      <c r="J343" t="s">
-        <v>985</v>
-      </c>
-      <c r="L343" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="344" spans="2:12">
-      <c r="E344" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="346" spans="2:12">
-      <c r="E346" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="348" spans="2:12">
-      <c r="C348" t="s">
-        <v>978</v>
-      </c>
-      <c r="E348" t="s">
-        <v>979</v>
-      </c>
-      <c r="J348" t="s">
-        <v>987</v>
-      </c>
-      <c r="L348" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="349" spans="2:12">
-      <c r="E349" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="351" spans="2:12">
-      <c r="E351" t="s">
-        <v>982</v>
+      <c r="H331" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="36" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="B336" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="339" spans="3:11">
+      <c r="C339" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="D339" s="18"/>
+      <c r="E339" s="18"/>
+      <c r="F339" s="18"/>
+      <c r="G339" s="18"/>
+      <c r="H339" s="18"/>
+      <c r="I339" s="18"/>
+    </row>
+    <row r="340" spans="3:11">
+      <c r="C340" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="D340" s="18"/>
+      <c r="E340" s="18"/>
+      <c r="F340" s="18"/>
+      <c r="G340" s="18"/>
+      <c r="H340" s="18"/>
+      <c r="I340" s="18"/>
+    </row>
+    <row r="341" spans="3:11">
+      <c r="C341" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="D341" s="18"/>
+      <c r="E341" s="18"/>
+      <c r="F341" s="18"/>
+      <c r="G341" s="18"/>
+      <c r="H341" s="18"/>
+      <c r="I341" s="18"/>
+    </row>
+    <row r="342" spans="3:11">
+      <c r="C342" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="D342" s="18"/>
+      <c r="E342" s="18"/>
+      <c r="F342" s="18"/>
+      <c r="G342" s="18"/>
+      <c r="H342" s="18"/>
+      <c r="I342" s="18"/>
+      <c r="K342" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="343" spans="3:11">
+      <c r="C343" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="D343" s="18"/>
+      <c r="E343" s="18"/>
+      <c r="F343" s="18"/>
+      <c r="G343" s="18"/>
+      <c r="H343" s="18"/>
+      <c r="I343" s="18"/>
+      <c r="K343" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="344" spans="3:11">
+      <c r="C344" s="23"/>
+      <c r="D344" s="18"/>
+      <c r="E344" s="18"/>
+      <c r="F344" s="18"/>
+      <c r="G344" s="18"/>
+      <c r="H344" s="18"/>
+      <c r="I344" s="18"/>
+    </row>
+    <row r="345" spans="3:11">
+      <c r="C345" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="D345" s="18"/>
+      <c r="E345" s="18"/>
+      <c r="F345" s="18"/>
+      <c r="G345" s="18"/>
+      <c r="H345" s="18"/>
+      <c r="I345" s="18"/>
+      <c r="K345" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="346" spans="3:11">
+      <c r="C346" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="D346" s="18"/>
+      <c r="E346" s="18"/>
+      <c r="F346" s="18"/>
+      <c r="G346" s="18"/>
+      <c r="H346" s="18"/>
+      <c r="I346" s="18"/>
+      <c r="K346" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="347" spans="3:11">
+      <c r="C347" s="23"/>
+      <c r="D347" s="18"/>
+      <c r="E347" s="18"/>
+      <c r="F347" s="18"/>
+      <c r="G347" s="18"/>
+      <c r="H347" s="18"/>
+      <c r="I347" s="18"/>
+    </row>
+    <row r="348" spans="3:11">
+      <c r="C348" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="D348" s="18"/>
+      <c r="E348" s="18"/>
+      <c r="F348" s="18"/>
+      <c r="G348" s="18"/>
+      <c r="H348" s="18"/>
+      <c r="I348" s="18"/>
+      <c r="K348" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="349" spans="3:11">
+      <c r="C349" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="D349" s="18"/>
+      <c r="E349" s="18"/>
+      <c r="F349" s="18"/>
+      <c r="G349" s="18"/>
+      <c r="H349" s="18"/>
+      <c r="I349" s="18"/>
+      <c r="K349" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="353" spans="2:10">
-      <c r="C353" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="356" spans="2:10">
-      <c r="B356" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="358" spans="2:10">
-      <c r="C358" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="D358" s="18"/>
-      <c r="E358" s="18"/>
-      <c r="F358" s="18"/>
-      <c r="G358" s="18"/>
-      <c r="H358" s="18"/>
-      <c r="I358" s="18"/>
-      <c r="J358" s="18"/>
+      <c r="B353" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="354" spans="2:10">
+      <c r="C354" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="D354" s="36"/>
+      <c r="E354" s="36"/>
+      <c r="F354" s="36"/>
+      <c r="G354" s="36"/>
+      <c r="H354" s="36"/>
+    </row>
+    <row r="355" spans="2:10">
+      <c r="C355" s="36" t="s">
+        <v>956</v>
+      </c>
+      <c r="D355" s="36"/>
+      <c r="E355" s="36"/>
+      <c r="F355" s="36"/>
+      <c r="G355" s="36"/>
+      <c r="H355" s="36"/>
+    </row>
+    <row r="357" spans="2:10">
+      <c r="C357" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="359" spans="2:10">
-      <c r="C359" s="18" t="s">
-        <v>996</v>
-      </c>
-      <c r="D359" s="18"/>
+      <c r="D359" s="22" t="s">
+        <v>959</v>
+      </c>
       <c r="E359" s="18"/>
       <c r="F359" s="18"/>
       <c r="G359" s="18"/>
       <c r="H359" s="18"/>
       <c r="I359" s="18"/>
-      <c r="J359" s="18"/>
     </row>
     <row r="360" spans="2:10">
-      <c r="C360" s="18"/>
-      <c r="D360" s="18"/>
+      <c r="D360" s="22" t="s">
+        <v>960</v>
+      </c>
       <c r="E360" s="18"/>
       <c r="F360" s="18"/>
       <c r="G360" s="18"/>
       <c r="H360" s="18"/>
       <c r="I360" s="18"/>
-      <c r="J360" s="18"/>
     </row>
     <row r="361" spans="2:10">
-      <c r="C361" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="D361" s="18"/>
+      <c r="D361" s="22" t="s">
+        <v>961</v>
+      </c>
       <c r="E361" s="18"/>
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
       <c r="H361" s="18"/>
       <c r="I361" s="18"/>
-      <c r="J361" s="18"/>
+      <c r="J361" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="362" spans="2:10">
-      <c r="C362" s="18" t="s">
-        <v>993</v>
-      </c>
-      <c r="D362" s="18"/>
+      <c r="D362" s="22" t="s">
+        <v>851</v>
+      </c>
       <c r="E362" s="18"/>
       <c r="F362" s="18"/>
       <c r="G362" s="18"/>
       <c r="H362" s="18"/>
       <c r="I362" s="18"/>
-      <c r="J362" s="18"/>
+      <c r="J362" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="363" spans="2:10">
-      <c r="C363" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="D363" s="18"/>
+      <c r="D363" s="23"/>
       <c r="E363" s="18"/>
       <c r="F363" s="18"/>
       <c r="G363" s="18"/>
       <c r="H363" s="18"/>
       <c r="I363" s="18"/>
-      <c r="J363" s="18"/>
     </row>
     <row r="364" spans="2:10">
-      <c r="C364" s="18"/>
-      <c r="D364" s="18"/>
+      <c r="D364" s="22" t="s">
+        <v>962</v>
+      </c>
       <c r="E364" s="18"/>
       <c r="F364" s="18"/>
       <c r="G364" s="18"/>
       <c r="H364" s="18"/>
       <c r="I364" s="18"/>
-      <c r="J364" s="18"/>
     </row>
     <row r="365" spans="2:10">
-      <c r="C365" s="52" t="s">
-        <v>997</v>
-      </c>
-      <c r="D365" s="18"/>
+      <c r="D365" s="22" t="s">
+        <v>963</v>
+      </c>
       <c r="E365" s="18"/>
       <c r="F365" s="18"/>
       <c r="G365" s="18"/>
       <c r="H365" s="18"/>
       <c r="I365" s="18"/>
-      <c r="J365" s="18"/>
     </row>
     <row r="366" spans="2:10">
-      <c r="C366" s="18" t="s">
-        <v>998</v>
-      </c>
-      <c r="D366" s="18"/>
+      <c r="D366" s="23"/>
       <c r="E366" s="18"/>
       <c r="F366" s="18"/>
       <c r="G366" s="18"/>
       <c r="H366" s="18"/>
       <c r="I366" s="18"/>
-      <c r="J366" s="18"/>
-    </row>
-    <row r="369" spans="1:10">
-      <c r="B369" t="s">
+    </row>
+    <row r="367" spans="2:10">
+      <c r="D367" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="E367" s="18"/>
+      <c r="F367" s="18"/>
+      <c r="G367" s="18"/>
+      <c r="H367" s="18"/>
+      <c r="I367" s="18"/>
+      <c r="J367" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="368" spans="2:10">
+      <c r="D368" s="23"/>
+      <c r="E368" s="18"/>
+      <c r="F368" s="18"/>
+      <c r="G368" s="18"/>
+      <c r="H368" s="18"/>
+      <c r="I368" s="18"/>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="D369" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="E369" s="18"/>
+      <c r="F369" s="18"/>
+      <c r="G369" s="18"/>
+      <c r="H369" s="18"/>
+      <c r="I369" s="18"/>
+      <c r="J369" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="D370" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="E370" s="18"/>
+      <c r="F370" s="18"/>
+      <c r="G370" s="18"/>
+      <c r="H370" s="18"/>
+      <c r="I370" s="18"/>
+      <c r="J370" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="A374" s="36" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="B376" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="C377" t="s">
+        <v>970</v>
+      </c>
+      <c r="E377" t="s">
+        <v>971</v>
+      </c>
+      <c r="J377" t="s">
+        <v>983</v>
+      </c>
+      <c r="L377" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="E378" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="E380" t="s">
+        <v>972</v>
+      </c>
+      <c r="G380" s="56" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="C382" t="s">
+        <v>974</v>
+      </c>
+      <c r="E382" t="s">
+        <v>975</v>
+      </c>
+      <c r="J382" t="s">
+        <v>985</v>
+      </c>
+      <c r="L382" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
+      <c r="E383" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="385" spans="2:12">
+      <c r="E385" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="387" spans="2:12">
+      <c r="C387" t="s">
+        <v>978</v>
+      </c>
+      <c r="E387" t="s">
+        <v>979</v>
+      </c>
+      <c r="J387" t="s">
+        <v>987</v>
+      </c>
+      <c r="L387" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="388" spans="2:12">
+      <c r="E388" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="390" spans="2:12">
+      <c r="E390" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="392" spans="2:12">
+      <c r="C392" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="395" spans="2:12">
+      <c r="B395" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="397" spans="2:12">
+      <c r="C397" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="D397" s="18"/>
+      <c r="E397" s="18"/>
+      <c r="F397" s="18"/>
+      <c r="G397" s="18"/>
+      <c r="H397" s="18"/>
+      <c r="I397" s="18"/>
+      <c r="J397" s="18"/>
+    </row>
+    <row r="398" spans="2:12">
+      <c r="C398" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="D398" s="18"/>
+      <c r="E398" s="18"/>
+      <c r="F398" s="18"/>
+      <c r="G398" s="18"/>
+      <c r="H398" s="18"/>
+      <c r="I398" s="18"/>
+      <c r="J398" s="18"/>
+    </row>
+    <row r="399" spans="2:12">
+      <c r="C399" s="18"/>
+      <c r="D399" s="18"/>
+      <c r="E399" s="18"/>
+      <c r="F399" s="18"/>
+      <c r="G399" s="18"/>
+      <c r="H399" s="18"/>
+      <c r="I399" s="18"/>
+      <c r="J399" s="18"/>
+    </row>
+    <row r="400" spans="2:12">
+      <c r="C400" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="D400" s="18"/>
+      <c r="E400" s="18"/>
+      <c r="F400" s="18"/>
+      <c r="G400" s="18"/>
+      <c r="H400" s="18"/>
+      <c r="I400" s="18"/>
+      <c r="J400" s="18"/>
+    </row>
+    <row r="401" spans="2:10">
+      <c r="C401" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="D401" s="18"/>
+      <c r="E401" s="18"/>
+      <c r="F401" s="18"/>
+      <c r="G401" s="18"/>
+      <c r="H401" s="18"/>
+      <c r="I401" s="18"/>
+      <c r="J401" s="18"/>
+    </row>
+    <row r="402" spans="2:10">
+      <c r="C402" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D402" s="18"/>
+      <c r="E402" s="18"/>
+      <c r="F402" s="18"/>
+      <c r="G402" s="18"/>
+      <c r="H402" s="18"/>
+      <c r="I402" s="18"/>
+      <c r="J402" s="18"/>
+    </row>
+    <row r="403" spans="2:10">
+      <c r="C403" s="18"/>
+      <c r="D403" s="18"/>
+      <c r="E403" s="18"/>
+      <c r="F403" s="18"/>
+      <c r="G403" s="18"/>
+      <c r="H403" s="18"/>
+      <c r="I403" s="18"/>
+      <c r="J403" s="18"/>
+    </row>
+    <row r="404" spans="2:10">
+      <c r="C404" s="52" t="s">
+        <v>997</v>
+      </c>
+      <c r="D404" s="18"/>
+      <c r="E404" s="18"/>
+      <c r="F404" s="18"/>
+      <c r="G404" s="18"/>
+      <c r="H404" s="18"/>
+      <c r="I404" s="18"/>
+      <c r="J404" s="18"/>
+    </row>
+    <row r="405" spans="2:10">
+      <c r="C405" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="D405" s="18"/>
+      <c r="E405" s="18"/>
+      <c r="F405" s="18"/>
+      <c r="G405" s="18"/>
+      <c r="H405" s="18"/>
+      <c r="I405" s="18"/>
+      <c r="J405" s="18"/>
+    </row>
+    <row r="408" spans="2:10">
+      <c r="B408" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
-      <c r="C371" t="s">
+    <row r="410" spans="2:10">
+      <c r="C410" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
-      <c r="D373" s="22" t="s">
+    <row r="412" spans="2:10">
+      <c r="D412" s="22" t="s">
         <v>1001</v>
       </c>
-      <c r="E373" s="18"/>
-      <c r="F373" s="18"/>
-      <c r="G373" s="18"/>
-      <c r="H373" s="18"/>
-      <c r="I373" s="18"/>
-      <c r="J373" s="18" t="s">
+      <c r="E412" s="18"/>
+      <c r="F412" s="18"/>
+      <c r="G412" s="18"/>
+      <c r="H412" s="18"/>
+      <c r="I412" s="18"/>
+      <c r="J412" s="18" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
-      <c r="D374" s="22" t="s">
+    <row r="413" spans="2:10">
+      <c r="D413" s="22" t="s">
         <v>1002</v>
       </c>
-      <c r="E374" s="18"/>
-      <c r="F374" s="18"/>
-      <c r="G374" s="18"/>
-      <c r="H374" s="18"/>
-      <c r="I374" s="18"/>
-      <c r="J374" s="18" t="s">
+      <c r="E413" s="18"/>
+      <c r="F413" s="18"/>
+      <c r="G413" s="18"/>
+      <c r="H413" s="18"/>
+      <c r="I413" s="18"/>
+      <c r="J413" s="18" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
-      <c r="D375" s="22" t="s">
+    <row r="414" spans="2:10">
+      <c r="D414" s="22" t="s">
         <v>1003</v>
       </c>
-      <c r="E375" s="18"/>
-      <c r="F375" s="18"/>
-      <c r="G375" s="18"/>
-      <c r="H375" s="18"/>
-      <c r="I375" s="18"/>
-      <c r="J375" s="18" t="s">
+      <c r="E414" s="18"/>
+      <c r="F414" s="18"/>
+      <c r="G414" s="18"/>
+      <c r="H414" s="18"/>
+      <c r="I414" s="18"/>
+      <c r="J414" s="18" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
-      <c r="D376" s="56"/>
-    </row>
-    <row r="378" spans="1:10">
-      <c r="C378" t="s">
+    <row r="415" spans="2:10">
+      <c r="D415" s="55"/>
+    </row>
+    <row r="417" spans="1:10">
+      <c r="C417" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
-      <c r="D380" t="s">
+    <row r="419" spans="1:10">
+      <c r="D419" t="s">
         <v>1006</v>
       </c>
-      <c r="J380" t="s">
+      <c r="J419" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
-      <c r="A382" s="36" t="s">
+    <row r="421" spans="1:10">
+      <c r="A421" s="36" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
-      <c r="B384" t="s">
+    <row r="423" spans="1:10">
+      <c r="B423" t="s">
         <v>1009</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C423" t="s">
         <v>1010</v>
       </c>
-      <c r="E384" t="s">
+      <c r="E423" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="385" spans="2:5">
-      <c r="E385" t="s">
+    <row r="424" spans="1:10">
+      <c r="E424" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="387" spans="2:5">
-      <c r="C387" t="s">
+    <row r="426" spans="1:10">
+      <c r="C426" t="s">
         <v>974</v>
       </c>
-      <c r="E387" t="s">
+      <c r="E426" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="388" spans="2:5">
-      <c r="E388" t="s">
+    <row r="427" spans="1:10">
+      <c r="E427" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="390" spans="2:5">
-      <c r="C390" t="s">
+    <row r="429" spans="1:10">
+      <c r="C429" t="s">
         <v>978</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E429" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="393" spans="2:5">
-      <c r="B393" t="s">
+    <row r="432" spans="1:10">
+      <c r="B432" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="394" spans="2:5">
-      <c r="C394" t="s">
+    <row r="433" spans="1:8">
+      <c r="C433" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="396" spans="2:5">
-      <c r="D396" t="s">
+    <row r="435" spans="1:8">
+      <c r="D435" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="398" spans="2:5">
-      <c r="D398" t="s">
+    <row r="437" spans="1:8">
+      <c r="D437" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402" s="36" t="s">
+    <row r="441" spans="1:8">
+      <c r="A441" s="36" t="s">
         <v>1016</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="B443" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="C445" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H445" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="C446" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H446" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="C447" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="C448" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6">
+      <c r="C449" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6">
+      <c r="B451" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="453" spans="2:6">
+      <c r="C453" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F453" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6">
+      <c r="C455" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6">
+      <c r="D457" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6">
+      <c r="D458" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6">
+      <c r="D459" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="460" spans="2:6">
+      <c r="D460" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="461" spans="2:6">
+      <c r="D461" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="462" spans="2:6">
+      <c r="D462" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6">
+      <c r="D463" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="464" spans="2:6">
+      <c r="D464" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="36" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="B468" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="C470" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="C471" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="C472" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="C474" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="C475" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L475" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="C476" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L476" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="C477" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L477" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="L478" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="C479" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="C480" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="C481" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="C482" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H482" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="B485" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="C487" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="C488" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="C489" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F489" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="C490" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" s="36" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="B495" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3">
+      <c r="C498" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3">
+      <c r="C499" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3">
+      <c r="C500" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1162">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -2635,9 +2635,6 @@
     <t>subString(int beginIndex, int endIndex)</t>
   </si>
   <si>
-    <t>Tricky hàm subString( int beginIndex, int endIndex);</t>
-  </si>
-  <si>
     <t>String string = "animals";</t>
   </si>
   <si>
@@ -3710,13 +3707,214 @@
   </si>
   <si>
     <t>// Line 6</t>
+  </si>
+  <si>
+    <t>Không khởi tạo, dùng obj đã khởi tạo ở dòng 2</t>
+  </si>
+  <si>
+    <t>1 Obj khởi tạo trong HEAP</t>
+  </si>
+  <si>
+    <t>1 Obj khởi tạo trong String Pool</t>
+  </si>
+  <si>
+    <t>1 obj đc khởi tạo trong Spring pool</t>
+  </si>
+  <si>
+    <t>1 obj summer đc khởi tạo spring Pool</t>
+  </si>
+  <si>
+    <t>1 obj khởi tạo trong HEAP, ko quan tâm là có cùng giá trị với obj ở dòng 1 hay không</t>
+  </si>
+  <si>
+    <t>Tổng : 5 obj đc khởi tạo</t>
+  </si>
+  <si>
+    <t>replace ()</t>
+  </si>
+  <si>
+    <t>Tricky hàm subString( int beginIndex, int endIndex) : substring  sẽ ko tính đến kí tự endIndex</t>
+  </si>
+  <si>
+    <t>Có thể dùng dấu "" hoặc dấu ' '</t>
+  </si>
+  <si>
+    <t>System.out.println(letters.replace('B', 'b'));</t>
+  </si>
+  <si>
+    <t>System.out.println(letters.replace("CA", "12"));</t>
+  </si>
+  <si>
+    <t>Nhưng không được phép dùng cùng 1 lúc một trong hai, sẽ báo lỗi compile</t>
+  </si>
+  <si>
+    <t>String letters = "ABCAB";</t>
+  </si>
+  <si>
+    <t>System.out.println(letters.replace('B', "b"));</t>
+  </si>
+  <si>
+    <t>System.out.println(letters.replace("B", 'b'));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cộng chuỗi mà có giá trị null vẫn được phép </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String init = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        init += "java";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(init);</t>
+  </si>
+  <si>
+    <t>// nulljava</t>
+  </si>
+  <si>
+    <t>1 Lưu ý rất quan trọng : Tất cả các phương thức thao tác với chuỗi mà trả về giá trị String</t>
+  </si>
+  <si>
+    <t>Thì String mới tạo ra đó  được khởi tạo bằng từ khóa new , nghĩa là được tạo trong bộ nhớ HEAP</t>
+  </si>
+  <si>
+    <t>String lang1 = "Java";</t>
+  </si>
+  <si>
+    <t>String lang2 = "JaScala";</t>
+  </si>
+  <si>
+    <t>String returnValue1 = lang1.substring(0,1);</t>
+  </si>
+  <si>
+    <t>String returnValue2 = lang2.substring(0,1);</t>
+  </si>
+  <si>
+    <t>System.out.println (returnValue1 == returnValue2 );</t>
+  </si>
+  <si>
+    <t>// False</t>
+  </si>
+  <si>
+    <t>Vì 2 object  str được tạo bởi từ khóa new nên có địa chỉ ref khác nhau</t>
+  </si>
+  <si>
+    <t>Khởi tạo StringBuilder</t>
+  </si>
+  <si>
+    <t>StringBuilder sb1 = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>StringBuilder sb2 = new StringBuilder(sb1);</t>
+  </si>
+  <si>
+    <t>StringBuilder sb3 = new StringBuilder(50);</t>
+  </si>
+  <si>
+    <t>StringBuilder sb4 = new StringBuilder("Shreya Gupta");</t>
+  </si>
+  <si>
+    <t>// Khởi tạo với kích thước 16</t>
+  </si>
+  <si>
+    <t>Phương thức append chấp nhất tất cả các kiểu primitive , String, char array, Object, double, String, boolean</t>
+  </si>
+  <si>
+    <t>sb1.append(true);</t>
+  </si>
+  <si>
+    <t>sb1.append(10);</t>
+  </si>
+  <si>
+    <t>sb1.append('a');</t>
+  </si>
+  <si>
+    <t>sb1.append(20.99);</t>
+  </si>
+  <si>
+    <t>sb1.append("Hi");</t>
+  </si>
+  <si>
+    <t>StringBuilder sb2 = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>char [] name = {'J', 'a', 'v', 'a', '8'};</t>
+  </si>
+  <si>
+    <t>sb2.append (name , 1, 3);</t>
+  </si>
+  <si>
+    <t>// ava</t>
+  </si>
+  <si>
+    <t>Cho phép append số lượng kí tự nhất định từ một mảng char</t>
+  </si>
+  <si>
+    <t>Cho phép append một Object. Phương thức append sẽ gọi hàm String.valueOf() của object đó. Tức là trả về hamg toString() của object đó</t>
+  </si>
+  <si>
+    <t>Ko khác gì hàm append() mà chỉ thêm là append String ở một vị trí xác định</t>
+  </si>
+  <si>
+    <t>class AppendStringBuilder2 {</t>
+  </si>
+  <si>
+    <t>public static void main(String args[]) {</t>
+  </si>
+  <si>
+    <t>sb1.append(new Person("Oracle"));</t>
+  </si>
+  <si>
+    <t>System.out.println(sb1);</t>
+  </si>
+  <si>
+    <t>String name;</t>
+  </si>
+  <si>
+    <t>Person(String str) { name = str; }</t>
+  </si>
+  <si>
+    <t>sb1.append("Java-");</t>
+  </si>
+  <si>
+    <t>// Java-Person@122134</t>
+  </si>
+  <si>
+    <t>class ReplaceStringBuilder {</t>
+  </si>
+  <si>
+    <t>StringBuilder sb1 = new StringBuilder("0123456");</t>
+  </si>
+  <si>
+    <t>sb1.replace(2, 4, "ABCD");</t>
+  </si>
+  <si>
+    <t>replace()</t>
+  </si>
+  <si>
+    <t>Hàm replace ở STringBuilder ngoài việc replace một chuỗi xác định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thì cho phép thêm replace ở một vị trí bắt đầu và vị trí kết thúc </t>
+  </si>
+  <si>
+    <t>// Chỗ này giống với hàm substring, ko bao gồm vị itris kết thúc</t>
+  </si>
+  <si>
+    <t>01ABCD456</t>
+  </si>
+  <si>
+    <t>trim()</t>
+  </si>
+  <si>
+    <t>StringBuilder ko có hàm này</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3994,6 +4192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4028,7 +4234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4133,6 +4339,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11178,17 +11385,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q501"/>
+  <dimension ref="A1:Q569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11197,7 +11404,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11206,13 +11413,13 @@
     <row r="5" spans="1:3">
       <c r="A5" s="36"/>
       <c r="C5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="36"/>
       <c r="C6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11221,7 +11428,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11230,13 +11437,13 @@
     <row r="10" spans="1:3">
       <c r="A10" s="36"/>
       <c r="C10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="36"/>
       <c r="C11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11245,198 +11452,299 @@
     <row r="13" spans="1:3">
       <c r="A13" s="36"/>
       <c r="B13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36"/>
       <c r="C14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="36"/>
       <c r="C15" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="36"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17" s="36"/>
       <c r="B17" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="36"/>
       <c r="C18" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="36"/>
       <c r="D19" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="36"/>
       <c r="E20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="J20" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>1089</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="36"/>
       <c r="E21" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J21" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>1090</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="36"/>
       <c r="E22" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J22" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>1091</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="36"/>
       <c r="E23" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="J23" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>1092</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="36"/>
       <c r="E24" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J24" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>1093</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="36"/>
       <c r="E25" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J25" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>1094</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="36"/>
       <c r="D26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="A27" s="36"/>
       <c r="C27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="36"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="36"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="36"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="36"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="36"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="36"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="36"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="36"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="36"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="36" t="s">
+      <c r="L27" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="36" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="B44" t="s">
+    <row r="31" spans="1:12">
+      <c r="B31" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="C45" t="s">
+    <row r="32" spans="1:12">
+      <c r="C32" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="C47" t="s">
+    <row r="34" spans="1:10">
+      <c r="C34" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="C49" t="s">
+    <row r="36" spans="1:10">
+      <c r="C36" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="36" t="s">
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="C40" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="C41" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="36" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="B55" t="s">
+    <row r="45" spans="1:10">
+      <c r="B45" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="47" spans="1:10">
+      <c r="C47" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="J47" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="C48" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="27"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="27"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+    </row>
+    <row r="57" spans="3:8">
       <c r="C57" s="25" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
-      <c r="J57" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+    </row>
+    <row r="58" spans="3:8">
       <c r="C58" s="25" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -11444,17 +11752,19 @@
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="C59" s="27"/>
+    <row r="59" spans="3:8">
+      <c r="C59" s="25" t="s">
+        <v>718</v>
+      </c>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="3:8">
       <c r="C60" s="25" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
@@ -11462,9 +11772,9 @@
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="3:8">
       <c r="C61" s="25" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
@@ -11472,7 +11782,7 @@
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="3:8">
       <c r="C62" s="25" t="s">
         <v>620</v>
       </c>
@@ -11482,2350 +11792,2680 @@
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
     </row>
-    <row r="63" spans="1:10">
-      <c r="C63" s="27"/>
+    <row r="63" spans="3:8">
+      <c r="C63" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
     </row>
-    <row r="64" spans="1:10">
-      <c r="C64" s="25" t="s">
-        <v>714</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="C65" s="25" t="s">
-        <v>715</v>
-      </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="C66" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="C67" s="25" t="s">
-        <v>716</v>
-      </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="C68" s="25" t="s">
-        <v>717</v>
-      </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="C69" s="25" t="s">
-        <v>718</v>
-      </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="C70" s="25" t="s">
-        <v>719</v>
-      </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="C71" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="C72" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="C73" s="25" t="s">
+    <row r="65" spans="1:9">
+      <c r="B65" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="C67" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="36" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="36"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="36"/>
+      <c r="B72" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="36"/>
+      <c r="B73" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="36"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="36"/>
+      <c r="C75" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="36"/>
+      <c r="C76" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="36"/>
+      <c r="C77" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="36"/>
+      <c r="C78" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="36"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="36"/>
+      <c r="C80" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="36"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="36"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="36"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="36"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="36"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="36"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="B88" t="s">
+        <v>725</v>
+      </c>
+      <c r="I88" s="37"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="14"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="C89" t="s">
+        <v>726</v>
+      </c>
+      <c r="I89" s="37"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="14"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="C90" t="s">
+        <v>728</v>
+      </c>
+      <c r="I90" s="38"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="14"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="C91" t="s">
+        <v>727</v>
+      </c>
+      <c r="I91" s="38"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="14"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="C92" t="s">
+        <v>729</v>
+      </c>
+      <c r="I92" s="38"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="14"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="I93" s="38"/>
+      <c r="J93" s="14"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="B96" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="C98" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="C99" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="18.75">
+      <c r="C101" s="40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="41"/>
+    </row>
+    <row r="102" spans="2:9" ht="18.75">
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+    </row>
+    <row r="103" spans="2:9" ht="18.75">
+      <c r="C103" s="41"/>
+      <c r="D103" s="42" t="s">
+        <v>737</v>
+      </c>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="41"/>
+    </row>
+    <row r="104" spans="2:9" ht="18.75">
+      <c r="C104" s="41"/>
+      <c r="D104" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="41"/>
+    </row>
+    <row r="105" spans="2:9" ht="18.75">
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="D106" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="C110" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="D112" s="39"/>
+      <c r="E112" s="43" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="D113" s="39"/>
+      <c r="E113" s="43" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="D114" s="39"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="C115" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D115" s="39"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="D116" s="39"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="D117" s="39"/>
+      <c r="E117" s="43" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="D118" s="39"/>
+      <c r="E118" s="43" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="E119" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="36" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="36"/>
+      <c r="B121" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="36"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="36"/>
+      <c r="C123" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="36"/>
+      <c r="C124" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="36"/>
+      <c r="C125" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="36"/>
+      <c r="C126" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="36"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="C130" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="D131" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="D132" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="D133" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="D134" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="D135" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="D136" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="C138" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="D140" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="D141" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="D142" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9">
+      <c r="D147" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9">
+      <c r="E148" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="E149" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9">
+      <c r="D150" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="C77" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="36" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16">
-      <c r="B82" t="s">
-        <v>725</v>
-      </c>
-      <c r="I82" s="37"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="45" t="s">
-        <v>738</v>
-      </c>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="14"/>
-    </row>
-    <row r="83" spans="2:16">
-      <c r="C83" t="s">
-        <v>726</v>
-      </c>
-      <c r="I83" s="37"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="26" t="s">
-        <v>730</v>
-      </c>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="14"/>
-    </row>
-    <row r="84" spans="2:16">
-      <c r="C84" t="s">
-        <v>728</v>
-      </c>
-      <c r="I84" s="38"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="14"/>
-    </row>
-    <row r="85" spans="2:16">
-      <c r="C85" t="s">
-        <v>727</v>
-      </c>
-      <c r="I85" s="38"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="26" t="s">
-        <v>732</v>
-      </c>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="14"/>
-    </row>
-    <row r="86" spans="2:16">
-      <c r="C86" t="s">
-        <v>729</v>
-      </c>
-      <c r="I86" s="38"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="14"/>
-    </row>
-    <row r="87" spans="2:16">
-      <c r="I87" s="38"/>
-      <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="2:16">
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-    </row>
-    <row r="90" spans="2:16">
-      <c r="B90" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16">
-      <c r="C92" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16">
-      <c r="C93" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" ht="18.75">
-      <c r="C95" s="40" t="s">
-        <v>737</v>
-      </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="41"/>
-    </row>
-    <row r="96" spans="2:16" ht="18.75">
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-    </row>
-    <row r="97" spans="1:14" ht="18.75">
-      <c r="C97" s="41"/>
-      <c r="D97" s="42" t="s">
-        <v>738</v>
-      </c>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="41"/>
-    </row>
-    <row r="98" spans="1:14" ht="18.75">
-      <c r="C98" s="41"/>
-      <c r="D98" s="42" t="s">
-        <v>739</v>
-      </c>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="41"/>
-    </row>
-    <row r="99" spans="1:14" ht="18.75">
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="D100" s="39" t="s">
-        <v>740</v>
-      </c>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="36" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="B104" t="s">
+    </row>
+    <row r="152" spans="3:9">
+      <c r="D152" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9">
+      <c r="E153" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9">
+      <c r="E154" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9">
+      <c r="E155" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9">
+      <c r="E156" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9">
+      <c r="E157" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14">
+      <c r="B166" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="B106" t="s">
+      <c r="C166" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14">
+      <c r="C168" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
-      <c r="C108" t="s">
+    <row r="170" spans="2:14">
+      <c r="C170" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14">
+      <c r="D171" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="C110" t="s">
+      <c r="J171" t="s">
+        <v>746</v>
+      </c>
+      <c r="M171" t="s">
+        <v>779</v>
+      </c>
+      <c r="N171" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14">
+      <c r="D172" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14">
+      <c r="B174" s="39" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C174" s="39" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D174" s="39"/>
+      <c r="E174" s="39"/>
+      <c r="F174" s="39"/>
+      <c r="G174" s="39"/>
+      <c r="H174" s="39"/>
+      <c r="I174" s="39"/>
+    </row>
+    <row r="175" spans="2:14">
+      <c r="B175" s="39"/>
+      <c r="C175" s="39" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D175" s="39"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="39"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="39"/>
+      <c r="I175" s="39"/>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="D177" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="E178" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="E179" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="E180" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I180" s="58" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J180" s="58"/>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="E181" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I181" s="58" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J181" s="58"/>
+    </row>
+    <row r="182" spans="2:10">
+      <c r="D182" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10">
+      <c r="D183" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="B184" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="C185" t="s">
+        <v>748</v>
+      </c>
+      <c r="J185" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="C187" t="s">
+        <v>749</v>
+      </c>
+      <c r="J187" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10">
+      <c r="D190" t="s">
+        <v>392</v>
+      </c>
+      <c r="E190" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="E191" t="s">
+        <v>751</v>
+      </c>
+      <c r="J191" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10">
+      <c r="J192" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="B193" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="36" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="B197" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="C199" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="D199" s="18"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="43"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="C200" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="D200" s="18"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="43"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="C201" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I201" s="43"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="C202" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="D202" s="18"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="I202" s="43"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="C203" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D203" s="18"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="18"/>
+      <c r="H203" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="I203" s="43"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="B208" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8">
+      <c r="C210" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8">
+      <c r="C211" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="C213" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="C214" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8">
+      <c r="C215" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8">
+      <c r="C216" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8">
+      <c r="C218" t="s">
+        <v>791</v>
+      </c>
+      <c r="H218" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8">
+      <c r="C219" t="s">
+        <v>792</v>
+      </c>
+      <c r="H219" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8">
+      <c r="C220" t="s">
+        <v>793</v>
+      </c>
+      <c r="H220" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8">
+      <c r="B224" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10">
+      <c r="C226" t="s">
+        <v>797</v>
+      </c>
+      <c r="H226" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10">
+      <c r="C227" t="s">
+        <v>799</v>
+      </c>
+      <c r="H227" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10">
+      <c r="B231" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10">
+      <c r="C233" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="D233" s="18"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="18"/>
+      <c r="G233" s="18"/>
+      <c r="H233" s="18"/>
+      <c r="I233" s="18"/>
+    </row>
+    <row r="234" spans="2:10">
+      <c r="C234" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="D234" s="18"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="18"/>
+      <c r="G234" s="18"/>
+      <c r="H234" s="18"/>
+      <c r="I234" s="18"/>
+    </row>
+    <row r="235" spans="2:10">
+      <c r="C235" s="23"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="18"/>
+      <c r="H235" s="18"/>
+      <c r="I235" s="18"/>
+    </row>
+    <row r="236" spans="2:10">
+      <c r="C236" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
+      <c r="H236" s="18"/>
+      <c r="I236" s="18"/>
+      <c r="J236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10">
+      <c r="C237" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18"/>
+      <c r="J237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10">
+      <c r="B240" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="242" spans="3:16">
+      <c r="C242" t="s">
+        <v>778</v>
+      </c>
+      <c r="P242" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="243" spans="3:16">
+      <c r="D243" t="s">
+        <v>775</v>
+      </c>
+      <c r="F243" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="244" spans="3:16">
+      <c r="C244" t="s">
+        <v>45</v>
+      </c>
+      <c r="P244" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="247" spans="3:16">
+      <c r="C247" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="249" spans="3:16">
+      <c r="C249" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="251" spans="3:16">
+      <c r="D251" t="s">
+        <v>783</v>
+      </c>
+      <c r="J251" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="253" spans="3:16">
+      <c r="D253" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="254" spans="3:16">
+      <c r="E254" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="255" spans="3:16">
+      <c r="E255" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
+      <c r="D257" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
+      <c r="C258" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A261" s="36" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" ht="17.25" customHeight="1">
+      <c r="B262" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="B263" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C263" s="46"/>
+      <c r="D263" s="46"/>
+      <c r="E263" s="46"/>
+      <c r="F263" s="46"/>
+      <c r="G263" s="46"/>
+      <c r="H263" s="46"/>
+      <c r="I263" s="47"/>
+      <c r="J263" s="49"/>
+      <c r="K263" s="48"/>
+      <c r="L263" s="48"/>
+      <c r="M263" s="48"/>
+      <c r="N263" s="48"/>
+      <c r="O263" s="48"/>
+      <c r="P263" s="48"/>
+      <c r="Q263" s="48"/>
+    </row>
+    <row r="264" spans="1:17">
+      <c r="B264" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="C264" s="46"/>
+      <c r="D264" s="46"/>
+      <c r="E264" s="46"/>
+      <c r="F264" s="46"/>
+      <c r="G264" s="46"/>
+      <c r="H264" s="46"/>
+      <c r="I264" s="47"/>
+      <c r="J264" s="49"/>
+      <c r="K264" s="48"/>
+      <c r="L264" s="48"/>
+      <c r="M264" s="48"/>
+      <c r="N264" s="48"/>
+      <c r="O264" s="48"/>
+      <c r="P264" s="48"/>
+      <c r="Q264" s="48"/>
+    </row>
+    <row r="265" spans="1:17">
+      <c r="B265" s="46" t="s">
+        <v>803</v>
+      </c>
+      <c r="C265" s="46"/>
+      <c r="D265" s="46"/>
+      <c r="E265" s="46"/>
+      <c r="F265" s="46"/>
+      <c r="G265" s="46"/>
+      <c r="H265" s="46"/>
+      <c r="I265" s="47"/>
+      <c r="J265" s="49"/>
+      <c r="K265" s="48"/>
+      <c r="L265" s="48"/>
+      <c r="M265" s="48"/>
+      <c r="N265" s="48"/>
+      <c r="O265" s="48"/>
+      <c r="P265" s="48"/>
+      <c r="Q265" s="48"/>
+    </row>
+    <row r="266" spans="1:17">
+      <c r="B266" s="46" t="s">
+        <v>804</v>
+      </c>
+      <c r="C266" s="46"/>
+      <c r="D266" s="46"/>
+      <c r="E266" s="46"/>
+      <c r="F266" s="46"/>
+      <c r="G266" s="46"/>
+      <c r="H266" s="46"/>
+      <c r="I266" s="47"/>
+      <c r="J266" s="49"/>
+      <c r="K266" s="48" t="s">
+        <v>807</v>
+      </c>
+      <c r="L266" s="48"/>
+      <c r="M266" s="48"/>
+      <c r="N266" s="48"/>
+      <c r="O266" s="48"/>
+      <c r="P266" s="48"/>
+      <c r="Q266" s="48"/>
+    </row>
+    <row r="267" spans="1:17">
+      <c r="B267" s="46" t="s">
+        <v>805</v>
+      </c>
+      <c r="C267" s="46"/>
+      <c r="D267" s="46"/>
+      <c r="E267" s="46"/>
+      <c r="F267" s="46"/>
+      <c r="G267" s="46"/>
+      <c r="H267" s="46"/>
+      <c r="I267" s="47"/>
+      <c r="J267" s="49"/>
+      <c r="K267" s="48" t="s">
+        <v>808</v>
+      </c>
+      <c r="L267" s="48"/>
+      <c r="M267" s="48"/>
+      <c r="N267" s="48"/>
+      <c r="O267" s="48"/>
+      <c r="P267" s="48"/>
+      <c r="Q267" s="48"/>
+    </row>
+    <row r="268" spans="1:17">
+      <c r="B268" s="46" t="s">
+        <v>806</v>
+      </c>
+      <c r="C268" s="46"/>
+      <c r="D268" s="46"/>
+      <c r="E268" s="46"/>
+      <c r="F268" s="46"/>
+      <c r="G268" s="46"/>
+      <c r="H268" s="46"/>
+      <c r="I268" s="47"/>
+      <c r="J268" s="49"/>
+      <c r="K268" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="L268" s="48"/>
+      <c r="M268" s="48"/>
+      <c r="N268" s="48"/>
+      <c r="O268" s="48"/>
+      <c r="P268" s="48"/>
+      <c r="Q268" s="48"/>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="B271" s="44" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
+      <c r="C273" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
+      <c r="C274" t="s">
+        <v>814</v>
+      </c>
+      <c r="I274" t="s">
+        <v>816</v>
+      </c>
+      <c r="J274" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
+      <c r="C275" t="s">
+        <v>815</v>
+      </c>
+      <c r="I275" t="s">
+        <v>817</v>
+      </c>
+      <c r="J275" s="50" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
+      <c r="A278" s="36" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
+      <c r="C280" s="51" t="s">
+        <v>822</v>
+      </c>
+      <c r="D280" s="18"/>
+      <c r="E280" s="18"/>
+      <c r="F280" s="18"/>
+    </row>
+    <row r="281" spans="1:10">
+      <c r="C281" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="D281" s="18"/>
+      <c r="E281" s="18"/>
+      <c r="F281" s="18"/>
+    </row>
+    <row r="282" spans="1:10">
+      <c r="C282" s="51" t="s">
+        <v>824</v>
+      </c>
+      <c r="D282" s="18"/>
+      <c r="E282" s="18"/>
+      <c r="F282" s="18"/>
+    </row>
+    <row r="284" spans="1:10">
+      <c r="A284" s="36" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
+      <c r="B286" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
+      <c r="C287" t="s">
+        <v>826</v>
+      </c>
+      <c r="E287" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
+      <c r="C288" t="s">
+        <v>827</v>
+      </c>
+      <c r="E288" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="C289" t="s">
+        <v>828</v>
+      </c>
+      <c r="E289" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
+      <c r="C290" s="52" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
+      <c r="A292" s="36" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="B294" t="s">
+        <v>834</v>
+      </c>
+      <c r="I294" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
+      <c r="C296" t="s">
+        <v>835</v>
+      </c>
+      <c r="J296" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="C297" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
+      <c r="C298" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
+      <c r="C299" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
+      <c r="C300" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10">
+      <c r="B303" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="305" spans="3:9">
+      <c r="C305" t="s">
+        <v>843</v>
+      </c>
+      <c r="G305" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="307" spans="3:9">
+      <c r="C307" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="310" spans="3:9">
+      <c r="C310" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="312" spans="3:9">
+      <c r="D312" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E312" s="18"/>
+      <c r="F312" s="18"/>
+      <c r="G312" s="18"/>
+    </row>
+    <row r="313" spans="3:9">
+      <c r="D313" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="E313" s="18"/>
+      <c r="F313" s="18"/>
+      <c r="G313" s="18"/>
+    </row>
+    <row r="314" spans="3:9">
+      <c r="D314" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E314" s="18"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="18"/>
+    </row>
+    <row r="315" spans="3:9">
+      <c r="D315" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E315" s="18"/>
+      <c r="F315" s="18"/>
+      <c r="G315" s="18"/>
+      <c r="I315" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="317" spans="3:9">
+      <c r="C317" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="319" spans="3:9">
+      <c r="D319" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="E319" s="18"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="18"/>
+      <c r="H319" s="18"/>
+      <c r="I319" s="18"/>
+    </row>
+    <row r="320" spans="3:9">
+      <c r="D320" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="E320" s="18"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="18"/>
+      <c r="H320" s="18"/>
+      <c r="I320" s="18"/>
+    </row>
+    <row r="321" spans="1:10">
+      <c r="D321" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E321" s="18"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="18"/>
+      <c r="H321" s="18"/>
+      <c r="I321" s="18"/>
+      <c r="J321" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
+      <c r="B323" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
+      <c r="C325" t="s">
+        <v>857</v>
+      </c>
+      <c r="G325" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
+      <c r="C327" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="A330" s="36" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
+      <c r="B332" t="s">
+        <v>861</v>
+      </c>
+      <c r="D332" t="s">
+        <v>862</v>
+      </c>
+      <c r="F332" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
+      <c r="B334" t="s">
+        <v>82</v>
+      </c>
+      <c r="D334" t="s">
+        <v>864</v>
+      </c>
+      <c r="F334" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
+      <c r="B335" t="s">
+        <v>865</v>
+      </c>
+      <c r="D335" t="s">
+        <v>866</v>
+      </c>
+      <c r="F335" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
+      <c r="B336" t="s">
+        <v>86</v>
+      </c>
+      <c r="D336" t="s">
+        <v>867</v>
+      </c>
+      <c r="F336" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6">
+      <c r="B337" t="s">
+        <v>409</v>
+      </c>
+      <c r="D337" t="s">
+        <v>868</v>
+      </c>
+      <c r="F337" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6">
+      <c r="B338" t="s">
+        <v>410</v>
+      </c>
+      <c r="D338" t="s">
+        <v>869</v>
+      </c>
+      <c r="F338" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6">
+      <c r="B339" t="s">
+        <v>870</v>
+      </c>
+      <c r="D339" t="s">
+        <v>871</v>
+      </c>
+      <c r="F339" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6">
+      <c r="B340" t="s">
+        <v>872</v>
+      </c>
+      <c r="D340" t="s">
+        <v>873</v>
+      </c>
+      <c r="F340" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6">
+      <c r="B341" t="s">
+        <v>874</v>
+      </c>
+      <c r="D341" t="s">
+        <v>875</v>
+      </c>
+      <c r="F341" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6">
+      <c r="B344" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6">
+      <c r="C346" t="s">
+        <v>885</v>
+      </c>
+      <c r="E346" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6">
+      <c r="C348" t="s">
+        <v>864</v>
+      </c>
+      <c r="E348" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6">
+      <c r="C349" t="s">
+        <v>866</v>
+      </c>
+      <c r="E349" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6">
+      <c r="C350" t="s">
+        <v>867</v>
+      </c>
+      <c r="E350" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6">
+      <c r="C351" t="s">
+        <v>868</v>
+      </c>
+      <c r="E351" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6">
+      <c r="C352" t="s">
+        <v>891</v>
+      </c>
+      <c r="E352" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="353" spans="3:15">
+      <c r="C353" t="s">
+        <v>893</v>
+      </c>
+      <c r="E353" t="s">
+        <v>894</v>
+      </c>
+      <c r="J353" t="s">
+        <v>895</v>
+      </c>
+      <c r="O353" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="354" spans="3:15">
+      <c r="C354" t="s">
+        <v>873</v>
+      </c>
+      <c r="E354" t="s">
+        <v>897</v>
+      </c>
+      <c r="J354" t="s">
+        <v>898</v>
+      </c>
+      <c r="O354" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="355" spans="3:15">
+      <c r="C355" s="54" t="s">
+        <v>875</v>
+      </c>
+      <c r="D355" s="54"/>
+      <c r="E355" s="54" t="s">
+        <v>899</v>
+      </c>
+      <c r="F355" s="54"/>
+      <c r="G355" s="54"/>
+      <c r="H355" s="54"/>
+      <c r="I355" s="53"/>
+    </row>
+    <row r="358" spans="3:15">
+      <c r="E358" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="360" spans="3:15">
+      <c r="C360" t="s">
+        <v>864</v>
+      </c>
+      <c r="E360" t="s">
+        <v>901</v>
+      </c>
+      <c r="K360" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="361" spans="3:15">
+      <c r="C361" t="s">
+        <v>866</v>
+      </c>
+      <c r="E361" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="362" spans="3:15">
+      <c r="C362" t="s">
+        <v>867</v>
+      </c>
+      <c r="E362" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="363" spans="3:15">
+      <c r="C363" t="s">
+        <v>868</v>
+      </c>
+      <c r="E363" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="364" spans="3:15">
+      <c r="C364" t="s">
+        <v>891</v>
+      </c>
+      <c r="E364" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="365" spans="3:15">
+      <c r="C365" t="s">
+        <v>893</v>
+      </c>
+      <c r="E365" t="s">
+        <v>907</v>
+      </c>
+      <c r="J365" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="366" spans="3:15">
+      <c r="C366" t="s">
+        <v>873</v>
+      </c>
+      <c r="E366" t="s">
+        <v>908</v>
+      </c>
+      <c r="J366" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="367" spans="3:15">
+      <c r="C367" s="54" t="s">
+        <v>875</v>
+      </c>
+      <c r="E367" s="54" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" s="36" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="B373" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="B375" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="D111" t="s">
-        <v>745</v>
-      </c>
-      <c r="J111" t="s">
-        <v>747</v>
-      </c>
-      <c r="M111" t="s">
-        <v>780</v>
-      </c>
-      <c r="N111" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="D112" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="B116" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="C117" t="s">
-        <v>749</v>
-      </c>
-      <c r="J117" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="C119" t="s">
-        <v>750</v>
-      </c>
-      <c r="J119" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="D122" t="s">
+      <c r="C375" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="C376" t="s">
+        <v>914</v>
+      </c>
+      <c r="H376" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="C377" t="s">
+        <v>922</v>
+      </c>
+      <c r="H377" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378" s="36" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="B379" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="B381" t="s">
         <v>392</v>
       </c>
-      <c r="E122" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="E123" t="s">
-        <v>752</v>
-      </c>
-      <c r="J123" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="J124" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="36" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="B129" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="C131" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="43"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="C132" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="43"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="C133" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I133" s="43"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="C134" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="44" t="s">
-        <v>762</v>
-      </c>
-      <c r="I134" s="43"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="C135" s="22" t="s">
-        <v>761</v>
-      </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="44" t="s">
-        <v>762</v>
-      </c>
-      <c r="I135" s="43"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="36" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="B140" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="C142" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="C143" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8">
-      <c r="C145" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8">
-      <c r="C146" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8">
-      <c r="C147" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8">
-      <c r="C148" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="C150" t="s">
-        <v>792</v>
-      </c>
-      <c r="H150" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8">
-      <c r="C151" t="s">
-        <v>793</v>
-      </c>
-      <c r="H151" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="C152" t="s">
-        <v>794</v>
-      </c>
-      <c r="H152" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8">
-      <c r="B156" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8">
-      <c r="C158" t="s">
-        <v>798</v>
-      </c>
-      <c r="H158" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8">
-      <c r="C159" t="s">
-        <v>800</v>
-      </c>
-      <c r="H159" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="163" spans="2:16">
-      <c r="B163" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="165" spans="2:16">
-      <c r="C165" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="18"/>
-    </row>
-    <row r="166" spans="2:16">
-      <c r="C166" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
-    </row>
-    <row r="167" spans="2:16">
-      <c r="C167" s="23"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-    </row>
-    <row r="168" spans="2:16">
-      <c r="C168" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="2:16">
-      <c r="C169" s="22" t="s">
-        <v>775</v>
-      </c>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-      <c r="J169" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="2:16">
-      <c r="B172" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="174" spans="2:16">
-      <c r="C174" t="s">
-        <v>779</v>
-      </c>
-      <c r="P174" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="175" spans="2:16">
-      <c r="D175" t="s">
-        <v>776</v>
-      </c>
-      <c r="F175" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="176" spans="2:16">
-      <c r="C176" t="s">
-        <v>45</v>
-      </c>
-      <c r="P176" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="179" spans="3:10">
-      <c r="C179" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="181" spans="3:10">
-      <c r="C181" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="183" spans="3:10">
-      <c r="D183" t="s">
-        <v>784</v>
-      </c>
-      <c r="J183" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="185" spans="3:10">
-      <c r="D185" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="186" spans="3:10">
-      <c r="E186" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="187" spans="3:10">
-      <c r="E187" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="189" spans="3:10">
-      <c r="D189" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="190" spans="3:10">
-      <c r="C190" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A193" s="36" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" ht="17.25" customHeight="1">
-      <c r="B194" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17">
-      <c r="B195" s="46" t="s">
-        <v>802</v>
-      </c>
-      <c r="C195" s="46"/>
-      <c r="D195" s="46"/>
-      <c r="E195" s="46"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="46"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="47"/>
-      <c r="J195" s="49"/>
-      <c r="K195" s="48"/>
-      <c r="L195" s="48"/>
-      <c r="M195" s="48"/>
-      <c r="N195" s="48"/>
-      <c r="O195" s="48"/>
-      <c r="P195" s="48"/>
-      <c r="Q195" s="48"/>
-    </row>
-    <row r="196" spans="1:17">
-      <c r="B196" s="46" t="s">
-        <v>803</v>
-      </c>
-      <c r="C196" s="46"/>
-      <c r="D196" s="46"/>
-      <c r="E196" s="46"/>
-      <c r="F196" s="46"/>
-      <c r="G196" s="46"/>
-      <c r="H196" s="46"/>
-      <c r="I196" s="47"/>
-      <c r="J196" s="49"/>
-      <c r="K196" s="48"/>
-      <c r="L196" s="48"/>
-      <c r="M196" s="48"/>
-      <c r="N196" s="48"/>
-      <c r="O196" s="48"/>
-      <c r="P196" s="48"/>
-      <c r="Q196" s="48"/>
-    </row>
-    <row r="197" spans="1:17">
-      <c r="B197" s="46" t="s">
-        <v>804</v>
-      </c>
-      <c r="C197" s="46"/>
-      <c r="D197" s="46"/>
-      <c r="E197" s="46"/>
-      <c r="F197" s="46"/>
-      <c r="G197" s="46"/>
-      <c r="H197" s="46"/>
-      <c r="I197" s="47"/>
-      <c r="J197" s="49"/>
-      <c r="K197" s="48"/>
-      <c r="L197" s="48"/>
-      <c r="M197" s="48"/>
-      <c r="N197" s="48"/>
-      <c r="O197" s="48"/>
-      <c r="P197" s="48"/>
-      <c r="Q197" s="48"/>
-    </row>
-    <row r="198" spans="1:17">
-      <c r="B198" s="46" t="s">
-        <v>805</v>
-      </c>
-      <c r="C198" s="46"/>
-      <c r="D198" s="46"/>
-      <c r="E198" s="46"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="46"/>
-      <c r="H198" s="46"/>
-      <c r="I198" s="47"/>
-      <c r="J198" s="49"/>
-      <c r="K198" s="48" t="s">
-        <v>808</v>
-      </c>
-      <c r="L198" s="48"/>
-      <c r="M198" s="48"/>
-      <c r="N198" s="48"/>
-      <c r="O198" s="48"/>
-      <c r="P198" s="48"/>
-      <c r="Q198" s="48"/>
-    </row>
-    <row r="199" spans="1:17">
-      <c r="B199" s="46" t="s">
-        <v>806</v>
-      </c>
-      <c r="C199" s="46"/>
-      <c r="D199" s="46"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="46"/>
-      <c r="G199" s="46"/>
-      <c r="H199" s="46"/>
-      <c r="I199" s="47"/>
-      <c r="J199" s="49"/>
-      <c r="K199" s="48" t="s">
-        <v>809</v>
-      </c>
-      <c r="L199" s="48"/>
-      <c r="M199" s="48"/>
-      <c r="N199" s="48"/>
-      <c r="O199" s="48"/>
-      <c r="P199" s="48"/>
-      <c r="Q199" s="48"/>
-    </row>
-    <row r="200" spans="1:17">
-      <c r="B200" s="46" t="s">
-        <v>807</v>
-      </c>
-      <c r="C200" s="46"/>
-      <c r="D200" s="46"/>
-      <c r="E200" s="46"/>
-      <c r="F200" s="46"/>
-      <c r="G200" s="46"/>
-      <c r="H200" s="46"/>
-      <c r="I200" s="47"/>
-      <c r="J200" s="49"/>
-      <c r="K200" s="48" t="s">
-        <v>810</v>
-      </c>
-      <c r="L200" s="48"/>
-      <c r="M200" s="48"/>
-      <c r="N200" s="48"/>
-      <c r="O200" s="48"/>
-      <c r="P200" s="48"/>
-      <c r="Q200" s="48"/>
-    </row>
-    <row r="203" spans="1:17">
-      <c r="B203" s="44" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17">
-      <c r="C205" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17">
-      <c r="C206" t="s">
-        <v>815</v>
-      </c>
-      <c r="I206" t="s">
-        <v>817</v>
-      </c>
-      <c r="J206" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17">
-      <c r="C207" t="s">
-        <v>816</v>
-      </c>
-      <c r="I207" t="s">
-        <v>818</v>
-      </c>
-      <c r="J207" s="50" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="36" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="C212" s="51" t="s">
-        <v>823</v>
-      </c>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="18"/>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="C213" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="D213" s="18"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="C214" s="51" t="s">
-        <v>825</v>
-      </c>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="18"/>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="36" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="B218" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="C219" t="s">
-        <v>827</v>
-      </c>
-      <c r="E219" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="C220" t="s">
-        <v>828</v>
-      </c>
-      <c r="E220" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="C221" t="s">
-        <v>829</v>
-      </c>
-      <c r="E221" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="C222" s="52" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="36" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10">
-      <c r="B226" t="s">
-        <v>835</v>
-      </c>
-      <c r="I226" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="228" spans="2:10">
-      <c r="C228" t="s">
-        <v>836</v>
-      </c>
-      <c r="J228" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="229" spans="2:10">
-      <c r="C229" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10">
-      <c r="C230" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10">
-      <c r="C231" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="232" spans="2:10">
-      <c r="C232" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10">
-      <c r="B235" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="237" spans="2:10">
-      <c r="C237" t="s">
-        <v>844</v>
-      </c>
-      <c r="G237" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="239" spans="2:10">
-      <c r="C239" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="242" spans="2:10">
-      <c r="C242" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="244" spans="2:10">
-      <c r="D244" s="22" t="s">
-        <v>848</v>
-      </c>
-      <c r="E244" s="18"/>
-      <c r="F244" s="18"/>
-      <c r="G244" s="18"/>
-    </row>
-    <row r="245" spans="2:10">
-      <c r="D245" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18"/>
-      <c r="G245" s="18"/>
-    </row>
-    <row r="246" spans="2:10">
-      <c r="D246" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="E246" s="18"/>
-      <c r="F246" s="18"/>
-      <c r="G246" s="18"/>
-    </row>
-    <row r="247" spans="2:10">
-      <c r="D247" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18"/>
-      <c r="G247" s="18"/>
-      <c r="I247" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="249" spans="2:10">
-      <c r="C249" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="251" spans="2:10">
-      <c r="D251" s="22" t="s">
-        <v>854</v>
-      </c>
-      <c r="E251" s="18"/>
-      <c r="F251" s="18"/>
-      <c r="G251" s="18"/>
-      <c r="H251" s="18"/>
-      <c r="I251" s="18"/>
-    </row>
-    <row r="252" spans="2:10">
-      <c r="D252" s="22" t="s">
-        <v>855</v>
-      </c>
-      <c r="E252" s="18"/>
-      <c r="F252" s="18"/>
-      <c r="G252" s="18"/>
-      <c r="H252" s="18"/>
-      <c r="I252" s="18"/>
-    </row>
-    <row r="253" spans="2:10">
-      <c r="D253" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="E253" s="18"/>
-      <c r="F253" s="18"/>
-      <c r="G253" s="18"/>
-      <c r="H253" s="18"/>
-      <c r="I253" s="18"/>
-      <c r="J253" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="255" spans="2:10">
-      <c r="B255" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="C257" t="s">
-        <v>858</v>
-      </c>
-      <c r="G257" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="C259" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="36" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="B264" t="s">
-        <v>862</v>
-      </c>
-      <c r="D264" t="s">
-        <v>863</v>
-      </c>
-      <c r="F264" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="B266" t="s">
-        <v>82</v>
-      </c>
-      <c r="D266" t="s">
-        <v>865</v>
-      </c>
-      <c r="F266" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="B267" t="s">
-        <v>866</v>
-      </c>
-      <c r="D267" t="s">
-        <v>867</v>
-      </c>
-      <c r="F267" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="B268" t="s">
-        <v>86</v>
-      </c>
-      <c r="D268" t="s">
-        <v>868</v>
-      </c>
-      <c r="F268" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="B269" t="s">
-        <v>409</v>
-      </c>
-      <c r="D269" t="s">
-        <v>869</v>
-      </c>
-      <c r="F269" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="B270" t="s">
-        <v>410</v>
-      </c>
-      <c r="D270" t="s">
-        <v>870</v>
-      </c>
-      <c r="F270" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="B271" t="s">
-        <v>871</v>
-      </c>
-      <c r="D271" t="s">
-        <v>872</v>
-      </c>
-      <c r="F271" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="B272" t="s">
-        <v>873</v>
-      </c>
-      <c r="D272" t="s">
-        <v>874</v>
-      </c>
-      <c r="F272" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="273" spans="2:15">
-      <c r="B273" t="s">
-        <v>875</v>
-      </c>
-      <c r="D273" t="s">
-        <v>876</v>
-      </c>
-      <c r="F273" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="276" spans="2:15">
-      <c r="B276" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="278" spans="2:15">
-      <c r="C278" t="s">
-        <v>886</v>
-      </c>
-      <c r="E278" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="280" spans="2:15">
-      <c r="C280" t="s">
-        <v>865</v>
-      </c>
-      <c r="E280" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="281" spans="2:15">
-      <c r="C281" t="s">
-        <v>867</v>
-      </c>
-      <c r="E281" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="282" spans="2:15">
-      <c r="C282" t="s">
-        <v>868</v>
-      </c>
-      <c r="E282" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="283" spans="2:15">
-      <c r="C283" t="s">
-        <v>869</v>
-      </c>
-      <c r="E283" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="284" spans="2:15">
-      <c r="C284" t="s">
-        <v>892</v>
-      </c>
-      <c r="E284" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="285" spans="2:15">
-      <c r="C285" t="s">
-        <v>894</v>
-      </c>
-      <c r="E285" t="s">
-        <v>895</v>
-      </c>
-      <c r="J285" t="s">
-        <v>896</v>
-      </c>
-      <c r="O285" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="286" spans="2:15">
-      <c r="C286" t="s">
-        <v>874</v>
-      </c>
-      <c r="E286" t="s">
-        <v>898</v>
-      </c>
-      <c r="J286" t="s">
-        <v>899</v>
-      </c>
-      <c r="O286" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="287" spans="2:15">
-      <c r="C287" s="54" t="s">
-        <v>876</v>
-      </c>
-      <c r="D287" s="54"/>
-      <c r="E287" s="54" t="s">
-        <v>900</v>
-      </c>
-      <c r="F287" s="54"/>
-      <c r="G287" s="54"/>
-      <c r="H287" s="54"/>
-      <c r="I287" s="53"/>
-    </row>
-    <row r="290" spans="1:11">
-      <c r="E290" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11">
-      <c r="C292" t="s">
-        <v>865</v>
-      </c>
-      <c r="E292" t="s">
-        <v>902</v>
-      </c>
-      <c r="K292" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11">
-      <c r="C293" t="s">
-        <v>867</v>
-      </c>
-      <c r="E293" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11">
-      <c r="C294" t="s">
-        <v>868</v>
-      </c>
-      <c r="E294" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11">
-      <c r="C295" t="s">
-        <v>869</v>
-      </c>
-      <c r="E295" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11">
-      <c r="C296" t="s">
-        <v>892</v>
-      </c>
-      <c r="E296" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11">
-      <c r="C297" t="s">
-        <v>894</v>
-      </c>
-      <c r="E297" t="s">
-        <v>908</v>
-      </c>
-      <c r="J297" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11">
-      <c r="C298" t="s">
-        <v>874</v>
-      </c>
-      <c r="E298" t="s">
-        <v>909</v>
-      </c>
-      <c r="J298" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11">
-      <c r="C299" s="54" t="s">
-        <v>876</v>
-      </c>
-      <c r="E299" s="54" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11">
-      <c r="A303" s="36" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="B305" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="B307" t="s">
-        <v>471</v>
-      </c>
-      <c r="C307" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="C308" t="s">
-        <v>915</v>
-      </c>
-      <c r="H308" t="s">
+      <c r="C381" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="C382" t="s">
+        <v>918</v>
+      </c>
+      <c r="H382" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
-      <c r="C309" t="s">
-        <v>923</v>
-      </c>
-      <c r="H309" t="s">
+    <row r="383" spans="1:8">
+      <c r="C383" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="386" spans="2:8">
+      <c r="B386" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
-      <c r="A310" s="36" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="B311" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="B313" t="s">
-        <v>392</v>
-      </c>
-      <c r="C313" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="C314" t="s">
-        <v>919</v>
-      </c>
-      <c r="H314" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="C315" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="B318" t="s">
+    <row r="388" spans="2:8">
+      <c r="C388" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
-      <c r="C320" t="s">
+    <row r="389" spans="2:8">
+      <c r="C389" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
-      <c r="C321" t="s">
+    <row r="390" spans="2:8">
+      <c r="C390" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="C322" t="s">
+      <c r="H390" t="s">
         <v>928</v>
       </c>
-      <c r="H322" t="s">
+    </row>
+    <row r="392" spans="2:8">
+      <c r="B392" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
-      <c r="B324" t="s">
+    <row r="395" spans="2:8">
+      <c r="C395" s="23" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="C327" s="23" t="s">
+      <c r="D395" s="18"/>
+      <c r="E395" s="18"/>
+      <c r="F395" s="18"/>
+      <c r="G395" s="18"/>
+    </row>
+    <row r="396" spans="2:8">
+      <c r="C396" s="23" t="s">
         <v>931</v>
       </c>
-      <c r="D327" s="18"/>
-      <c r="E327" s="18"/>
-      <c r="F327" s="18"/>
-      <c r="G327" s="18"/>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="C328" s="23" t="s">
+      <c r="D396" s="18"/>
+      <c r="E396" s="18"/>
+      <c r="F396" s="18"/>
+      <c r="G396" s="18"/>
+    </row>
+    <row r="397" spans="2:8">
+      <c r="C397" s="23" t="s">
         <v>932</v>
-      </c>
-      <c r="D328" s="18"/>
-      <c r="E328" s="18"/>
-      <c r="F328" s="18"/>
-      <c r="G328" s="18"/>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="C329" s="23" t="s">
-        <v>933</v>
-      </c>
-      <c r="D329" s="18"/>
-      <c r="E329" s="18"/>
-      <c r="F329" s="18"/>
-      <c r="G329" s="18"/>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="C330" s="23" t="s">
-        <v>934</v>
-      </c>
-      <c r="D330" s="18"/>
-      <c r="E330" s="18"/>
-      <c r="F330" s="18"/>
-      <c r="G330" s="18"/>
-      <c r="H330" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="C331" s="23" t="s">
-        <v>935</v>
-      </c>
-      <c r="D331" s="18"/>
-      <c r="E331" s="18"/>
-      <c r="F331" s="18"/>
-      <c r="G331" s="18"/>
-      <c r="H331" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="A334" s="36" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="B336" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="339" spans="3:11">
-      <c r="C339" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="D339" s="18"/>
-      <c r="E339" s="18"/>
-      <c r="F339" s="18"/>
-      <c r="G339" s="18"/>
-      <c r="H339" s="18"/>
-      <c r="I339" s="18"/>
-    </row>
-    <row r="340" spans="3:11">
-      <c r="C340" s="22" t="s">
-        <v>941</v>
-      </c>
-      <c r="D340" s="18"/>
-      <c r="E340" s="18"/>
-      <c r="F340" s="18"/>
-      <c r="G340" s="18"/>
-      <c r="H340" s="18"/>
-      <c r="I340" s="18"/>
-    </row>
-    <row r="341" spans="3:11">
-      <c r="C341" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="D341" s="18"/>
-      <c r="E341" s="18"/>
-      <c r="F341" s="18"/>
-      <c r="G341" s="18"/>
-      <c r="H341" s="18"/>
-      <c r="I341" s="18"/>
-    </row>
-    <row r="342" spans="3:11">
-      <c r="C342" s="22" t="s">
-        <v>943</v>
-      </c>
-      <c r="D342" s="18"/>
-      <c r="E342" s="18"/>
-      <c r="F342" s="18"/>
-      <c r="G342" s="18"/>
-      <c r="H342" s="18"/>
-      <c r="I342" s="18"/>
-      <c r="K342" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="343" spans="3:11">
-      <c r="C343" s="22" t="s">
-        <v>944</v>
-      </c>
-      <c r="D343" s="18"/>
-      <c r="E343" s="18"/>
-      <c r="F343" s="18"/>
-      <c r="G343" s="18"/>
-      <c r="H343" s="18"/>
-      <c r="I343" s="18"/>
-      <c r="K343" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="344" spans="3:11">
-      <c r="C344" s="23"/>
-      <c r="D344" s="18"/>
-      <c r="E344" s="18"/>
-      <c r="F344" s="18"/>
-      <c r="G344" s="18"/>
-      <c r="H344" s="18"/>
-      <c r="I344" s="18"/>
-    </row>
-    <row r="345" spans="3:11">
-      <c r="C345" s="22" t="s">
-        <v>945</v>
-      </c>
-      <c r="D345" s="18"/>
-      <c r="E345" s="18"/>
-      <c r="F345" s="18"/>
-      <c r="G345" s="18"/>
-      <c r="H345" s="18"/>
-      <c r="I345" s="18"/>
-      <c r="K345" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="346" spans="3:11">
-      <c r="C346" s="22" t="s">
-        <v>946</v>
-      </c>
-      <c r="D346" s="18"/>
-      <c r="E346" s="18"/>
-      <c r="F346" s="18"/>
-      <c r="G346" s="18"/>
-      <c r="H346" s="18"/>
-      <c r="I346" s="18"/>
-      <c r="K346" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="347" spans="3:11">
-      <c r="C347" s="23"/>
-      <c r="D347" s="18"/>
-      <c r="E347" s="18"/>
-      <c r="F347" s="18"/>
-      <c r="G347" s="18"/>
-      <c r="H347" s="18"/>
-      <c r="I347" s="18"/>
-    </row>
-    <row r="348" spans="3:11">
-      <c r="C348" s="22" t="s">
-        <v>947</v>
-      </c>
-      <c r="D348" s="18"/>
-      <c r="E348" s="18"/>
-      <c r="F348" s="18"/>
-      <c r="G348" s="18"/>
-      <c r="H348" s="18"/>
-      <c r="I348" s="18"/>
-      <c r="K348" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="349" spans="3:11">
-      <c r="C349" s="22" t="s">
-        <v>948</v>
-      </c>
-      <c r="D349" s="18"/>
-      <c r="E349" s="18"/>
-      <c r="F349" s="18"/>
-      <c r="G349" s="18"/>
-      <c r="H349" s="18"/>
-      <c r="I349" s="18"/>
-      <c r="K349" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="353" spans="2:10">
-      <c r="B353" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="354" spans="2:10">
-      <c r="C354" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="D354" s="36"/>
-      <c r="E354" s="36"/>
-      <c r="F354" s="36"/>
-      <c r="G354" s="36"/>
-      <c r="H354" s="36"/>
-    </row>
-    <row r="355" spans="2:10">
-      <c r="C355" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="D355" s="36"/>
-      <c r="E355" s="36"/>
-      <c r="F355" s="36"/>
-      <c r="G355" s="36"/>
-      <c r="H355" s="36"/>
-    </row>
-    <row r="357" spans="2:10">
-      <c r="C357" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="359" spans="2:10">
-      <c r="D359" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="E359" s="18"/>
-      <c r="F359" s="18"/>
-      <c r="G359" s="18"/>
-      <c r="H359" s="18"/>
-      <c r="I359" s="18"/>
-    </row>
-    <row r="360" spans="2:10">
-      <c r="D360" s="22" t="s">
-        <v>960</v>
-      </c>
-      <c r="E360" s="18"/>
-      <c r="F360" s="18"/>
-      <c r="G360" s="18"/>
-      <c r="H360" s="18"/>
-      <c r="I360" s="18"/>
-    </row>
-    <row r="361" spans="2:10">
-      <c r="D361" s="22" t="s">
-        <v>961</v>
-      </c>
-      <c r="E361" s="18"/>
-      <c r="F361" s="18"/>
-      <c r="G361" s="18"/>
-      <c r="H361" s="18"/>
-      <c r="I361" s="18"/>
-      <c r="J361" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="362" spans="2:10">
-      <c r="D362" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="E362" s="18"/>
-      <c r="F362" s="18"/>
-      <c r="G362" s="18"/>
-      <c r="H362" s="18"/>
-      <c r="I362" s="18"/>
-      <c r="J362" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="363" spans="2:10">
-      <c r="D363" s="23"/>
-      <c r="E363" s="18"/>
-      <c r="F363" s="18"/>
-      <c r="G363" s="18"/>
-      <c r="H363" s="18"/>
-      <c r="I363" s="18"/>
-    </row>
-    <row r="364" spans="2:10">
-      <c r="D364" s="22" t="s">
-        <v>962</v>
-      </c>
-      <c r="E364" s="18"/>
-      <c r="F364" s="18"/>
-      <c r="G364" s="18"/>
-      <c r="H364" s="18"/>
-      <c r="I364" s="18"/>
-    </row>
-    <row r="365" spans="2:10">
-      <c r="D365" s="22" t="s">
-        <v>963</v>
-      </c>
-      <c r="E365" s="18"/>
-      <c r="F365" s="18"/>
-      <c r="G365" s="18"/>
-      <c r="H365" s="18"/>
-      <c r="I365" s="18"/>
-    </row>
-    <row r="366" spans="2:10">
-      <c r="D366" s="23"/>
-      <c r="E366" s="18"/>
-      <c r="F366" s="18"/>
-      <c r="G366" s="18"/>
-      <c r="H366" s="18"/>
-      <c r="I366" s="18"/>
-    </row>
-    <row r="367" spans="2:10">
-      <c r="D367" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="E367" s="18"/>
-      <c r="F367" s="18"/>
-      <c r="G367" s="18"/>
-      <c r="H367" s="18"/>
-      <c r="I367" s="18"/>
-      <c r="J367" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="368" spans="2:10">
-      <c r="D368" s="23"/>
-      <c r="E368" s="18"/>
-      <c r="F368" s="18"/>
-      <c r="G368" s="18"/>
-      <c r="H368" s="18"/>
-      <c r="I368" s="18"/>
-    </row>
-    <row r="369" spans="1:12">
-      <c r="D369" s="22" t="s">
-        <v>964</v>
-      </c>
-      <c r="E369" s="18"/>
-      <c r="F369" s="18"/>
-      <c r="G369" s="18"/>
-      <c r="H369" s="18"/>
-      <c r="I369" s="18"/>
-      <c r="J369" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12">
-      <c r="D370" s="22" t="s">
-        <v>965</v>
-      </c>
-      <c r="E370" s="18"/>
-      <c r="F370" s="18"/>
-      <c r="G370" s="18"/>
-      <c r="H370" s="18"/>
-      <c r="I370" s="18"/>
-      <c r="J370" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12">
-      <c r="A374" s="36" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12">
-      <c r="B376" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12">
-      <c r="C377" t="s">
-        <v>970</v>
-      </c>
-      <c r="E377" t="s">
-        <v>971</v>
-      </c>
-      <c r="J377" t="s">
-        <v>983</v>
-      </c>
-      <c r="L377" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12">
-      <c r="E378" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12">
-      <c r="E380" t="s">
-        <v>972</v>
-      </c>
-      <c r="G380" s="56" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12">
-      <c r="C382" t="s">
-        <v>974</v>
-      </c>
-      <c r="E382" t="s">
-        <v>975</v>
-      </c>
-      <c r="J382" t="s">
-        <v>985</v>
-      </c>
-      <c r="L382" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12">
-      <c r="E383" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="385" spans="2:12">
-      <c r="E385" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="387" spans="2:12">
-      <c r="C387" t="s">
-        <v>978</v>
-      </c>
-      <c r="E387" t="s">
-        <v>979</v>
-      </c>
-      <c r="J387" t="s">
-        <v>987</v>
-      </c>
-      <c r="L387" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="388" spans="2:12">
-      <c r="E388" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="390" spans="2:12">
-      <c r="E390" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="392" spans="2:12">
-      <c r="C392" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="395" spans="2:12">
-      <c r="B395" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="397" spans="2:12">
-      <c r="C397" s="18" t="s">
-        <v>995</v>
       </c>
       <c r="D397" s="18"/>
       <c r="E397" s="18"/>
       <c r="F397" s="18"/>
       <c r="G397" s="18"/>
-      <c r="H397" s="18"/>
-      <c r="I397" s="18"/>
-      <c r="J397" s="18"/>
-    </row>
-    <row r="398" spans="2:12">
-      <c r="C398" s="18" t="s">
-        <v>996</v>
+    </row>
+    <row r="398" spans="2:8">
+      <c r="C398" s="23" t="s">
+        <v>933</v>
       </c>
       <c r="D398" s="18"/>
       <c r="E398" s="18"/>
       <c r="F398" s="18"/>
       <c r="G398" s="18"/>
-      <c r="H398" s="18"/>
-      <c r="I398" s="18"/>
-      <c r="J398" s="18"/>
-    </row>
-    <row r="399" spans="2:12">
-      <c r="C399" s="18"/>
+      <c r="H398" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="399" spans="2:8">
+      <c r="C399" s="23" t="s">
+        <v>934</v>
+      </c>
       <c r="D399" s="18"/>
       <c r="E399" s="18"/>
       <c r="F399" s="18"/>
       <c r="G399" s="18"/>
-      <c r="H399" s="18"/>
-      <c r="I399" s="18"/>
-      <c r="J399" s="18"/>
-    </row>
-    <row r="400" spans="2:12">
-      <c r="C400" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="D400" s="18"/>
-      <c r="E400" s="18"/>
-      <c r="F400" s="18"/>
-      <c r="G400" s="18"/>
-      <c r="H400" s="18"/>
-      <c r="I400" s="18"/>
-      <c r="J400" s="18"/>
-    </row>
-    <row r="401" spans="2:10">
-      <c r="C401" s="18" t="s">
-        <v>993</v>
-      </c>
-      <c r="D401" s="18"/>
-      <c r="E401" s="18"/>
-      <c r="F401" s="18"/>
-      <c r="G401" s="18"/>
-      <c r="H401" s="18"/>
-      <c r="I401" s="18"/>
-      <c r="J401" s="18"/>
-    </row>
-    <row r="402" spans="2:10">
-      <c r="C402" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="D402" s="18"/>
-      <c r="E402" s="18"/>
-      <c r="F402" s="18"/>
-      <c r="G402" s="18"/>
-      <c r="H402" s="18"/>
-      <c r="I402" s="18"/>
-      <c r="J402" s="18"/>
-    </row>
-    <row r="403" spans="2:10">
-      <c r="C403" s="18"/>
-      <c r="D403" s="18"/>
-      <c r="E403" s="18"/>
-      <c r="F403" s="18"/>
-      <c r="G403" s="18"/>
-      <c r="H403" s="18"/>
-      <c r="I403" s="18"/>
-      <c r="J403" s="18"/>
-    </row>
-    <row r="404" spans="2:10">
-      <c r="C404" s="52" t="s">
-        <v>997</v>
-      </c>
-      <c r="D404" s="18"/>
-      <c r="E404" s="18"/>
-      <c r="F404" s="18"/>
-      <c r="G404" s="18"/>
-      <c r="H404" s="18"/>
-      <c r="I404" s="18"/>
-      <c r="J404" s="18"/>
-    </row>
-    <row r="405" spans="2:10">
-      <c r="C405" s="18" t="s">
-        <v>998</v>
-      </c>
-      <c r="D405" s="18"/>
-      <c r="E405" s="18"/>
-      <c r="F405" s="18"/>
-      <c r="G405" s="18"/>
-      <c r="H405" s="18"/>
-      <c r="I405" s="18"/>
-      <c r="J405" s="18"/>
-    </row>
-    <row r="408" spans="2:10">
-      <c r="B408" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="410" spans="2:10">
-      <c r="C410" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="412" spans="2:10">
-      <c r="D412" s="22" t="s">
-        <v>1001</v>
-      </c>
+      <c r="H399" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11">
+      <c r="A402" s="36" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
+      <c r="B404" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
+      <c r="C407" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="D407" s="18"/>
+      <c r="E407" s="18"/>
+      <c r="F407" s="18"/>
+      <c r="G407" s="18"/>
+      <c r="H407" s="18"/>
+      <c r="I407" s="18"/>
+    </row>
+    <row r="408" spans="1:11">
+      <c r="C408" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="D408" s="18"/>
+      <c r="E408" s="18"/>
+      <c r="F408" s="18"/>
+      <c r="G408" s="18"/>
+      <c r="H408" s="18"/>
+      <c r="I408" s="18"/>
+    </row>
+    <row r="409" spans="1:11">
+      <c r="C409" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="D409" s="18"/>
+      <c r="E409" s="18"/>
+      <c r="F409" s="18"/>
+      <c r="G409" s="18"/>
+      <c r="H409" s="18"/>
+      <c r="I409" s="18"/>
+    </row>
+    <row r="410" spans="1:11">
+      <c r="C410" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="D410" s="18"/>
+      <c r="E410" s="18"/>
+      <c r="F410" s="18"/>
+      <c r="G410" s="18"/>
+      <c r="H410" s="18"/>
+      <c r="I410" s="18"/>
+      <c r="K410" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
+      <c r="C411" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="D411" s="18"/>
+      <c r="E411" s="18"/>
+      <c r="F411" s="18"/>
+      <c r="G411" s="18"/>
+      <c r="H411" s="18"/>
+      <c r="I411" s="18"/>
+      <c r="K411" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
+      <c r="C412" s="23"/>
+      <c r="D412" s="18"/>
       <c r="E412" s="18"/>
       <c r="F412" s="18"/>
       <c r="G412" s="18"/>
       <c r="H412" s="18"/>
       <c r="I412" s="18"/>
-      <c r="J412" s="18" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="413" spans="2:10">
-      <c r="D413" s="22" t="s">
-        <v>1002</v>
-      </c>
+    </row>
+    <row r="413" spans="1:11">
+      <c r="C413" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="D413" s="18"/>
       <c r="E413" s="18"/>
       <c r="F413" s="18"/>
       <c r="G413" s="18"/>
       <c r="H413" s="18"/>
       <c r="I413" s="18"/>
-      <c r="J413" s="18" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="414" spans="2:10">
-      <c r="D414" s="22" t="s">
-        <v>1003</v>
-      </c>
+      <c r="K413" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
+      <c r="C414" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="D414" s="18"/>
       <c r="E414" s="18"/>
       <c r="F414" s="18"/>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
       <c r="I414" s="18"/>
-      <c r="J414" s="18" t="s">
+      <c r="K414" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
+      <c r="C415" s="23"/>
+      <c r="D415" s="18"/>
+      <c r="E415" s="18"/>
+      <c r="F415" s="18"/>
+      <c r="G415" s="18"/>
+      <c r="H415" s="18"/>
+      <c r="I415" s="18"/>
+    </row>
+    <row r="416" spans="1:11">
+      <c r="C416" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="D416" s="18"/>
+      <c r="E416" s="18"/>
+      <c r="F416" s="18"/>
+      <c r="G416" s="18"/>
+      <c r="H416" s="18"/>
+      <c r="I416" s="18"/>
+      <c r="K416" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="417" spans="2:11">
+      <c r="C417" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="D417" s="18"/>
+      <c r="E417" s="18"/>
+      <c r="F417" s="18"/>
+      <c r="G417" s="18"/>
+      <c r="H417" s="18"/>
+      <c r="I417" s="18"/>
+      <c r="K417" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="421" spans="2:11">
+      <c r="B421" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="422" spans="2:11">
+      <c r="C422" s="36" t="s">
+        <v>956</v>
+      </c>
+      <c r="D422" s="36"/>
+      <c r="E422" s="36"/>
+      <c r="F422" s="36"/>
+      <c r="G422" s="36"/>
+      <c r="H422" s="36"/>
+    </row>
+    <row r="423" spans="2:11">
+      <c r="C423" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="D423" s="36"/>
+      <c r="E423" s="36"/>
+      <c r="F423" s="36"/>
+      <c r="G423" s="36"/>
+      <c r="H423" s="36"/>
+    </row>
+    <row r="425" spans="2:11">
+      <c r="C425" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="427" spans="2:11">
+      <c r="D427" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="E427" s="18"/>
+      <c r="F427" s="18"/>
+      <c r="G427" s="18"/>
+      <c r="H427" s="18"/>
+      <c r="I427" s="18"/>
+    </row>
+    <row r="428" spans="2:11">
+      <c r="D428" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="E428" s="18"/>
+      <c r="F428" s="18"/>
+      <c r="G428" s="18"/>
+      <c r="H428" s="18"/>
+      <c r="I428" s="18"/>
+    </row>
+    <row r="429" spans="2:11">
+      <c r="D429" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="E429" s="18"/>
+      <c r="F429" s="18"/>
+      <c r="G429" s="18"/>
+      <c r="H429" s="18"/>
+      <c r="I429" s="18"/>
+      <c r="J429" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="430" spans="2:11">
+      <c r="D430" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E430" s="18"/>
+      <c r="F430" s="18"/>
+      <c r="G430" s="18"/>
+      <c r="H430" s="18"/>
+      <c r="I430" s="18"/>
+      <c r="J430" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="431" spans="2:11">
+      <c r="D431" s="23"/>
+      <c r="E431" s="18"/>
+      <c r="F431" s="18"/>
+      <c r="G431" s="18"/>
+      <c r="H431" s="18"/>
+      <c r="I431" s="18"/>
+    </row>
+    <row r="432" spans="2:11">
+      <c r="D432" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="E432" s="18"/>
+      <c r="F432" s="18"/>
+      <c r="G432" s="18"/>
+      <c r="H432" s="18"/>
+      <c r="I432" s="18"/>
+    </row>
+    <row r="433" spans="1:12">
+      <c r="D433" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="E433" s="18"/>
+      <c r="F433" s="18"/>
+      <c r="G433" s="18"/>
+      <c r="H433" s="18"/>
+      <c r="I433" s="18"/>
+    </row>
+    <row r="434" spans="1:12">
+      <c r="D434" s="23"/>
+      <c r="E434" s="18"/>
+      <c r="F434" s="18"/>
+      <c r="G434" s="18"/>
+      <c r="H434" s="18"/>
+      <c r="I434" s="18"/>
+    </row>
+    <row r="435" spans="1:12">
+      <c r="D435" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E435" s="18"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="18"/>
+      <c r="H435" s="18"/>
+      <c r="I435" s="18"/>
+      <c r="J435" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="D436" s="23"/>
+      <c r="E436" s="18"/>
+      <c r="F436" s="18"/>
+      <c r="G436" s="18"/>
+      <c r="H436" s="18"/>
+      <c r="I436" s="18"/>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="D437" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="E437" s="18"/>
+      <c r="F437" s="18"/>
+      <c r="G437" s="18"/>
+      <c r="H437" s="18"/>
+      <c r="I437" s="18"/>
+      <c r="J437" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="D438" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="E438" s="18"/>
+      <c r="F438" s="18"/>
+      <c r="G438" s="18"/>
+      <c r="H438" s="18"/>
+      <c r="I438" s="18"/>
+      <c r="J438" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="36" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="B444" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="C445" t="s">
+        <v>969</v>
+      </c>
+      <c r="E445" t="s">
+        <v>970</v>
+      </c>
+      <c r="J445" t="s">
+        <v>982</v>
+      </c>
+      <c r="L445" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="E446" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="E448" t="s">
+        <v>971</v>
+      </c>
+      <c r="G448" s="56" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="450" spans="2:12">
+      <c r="C450" t="s">
+        <v>973</v>
+      </c>
+      <c r="E450" t="s">
+        <v>974</v>
+      </c>
+      <c r="J450" t="s">
+        <v>984</v>
+      </c>
+      <c r="L450" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="451" spans="2:12">
+      <c r="E451" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="453" spans="2:12">
+      <c r="E453" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="455" spans="2:12">
+      <c r="C455" t="s">
+        <v>977</v>
+      </c>
+      <c r="E455" t="s">
+        <v>978</v>
+      </c>
+      <c r="J455" t="s">
+        <v>986</v>
+      </c>
+      <c r="L455" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="456" spans="2:12">
+      <c r="E456" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="458" spans="2:12">
+      <c r="E458" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="460" spans="2:12">
+      <c r="C460" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="463" spans="2:12">
+      <c r="B463" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="465" spans="2:10">
+      <c r="C465" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D465" s="18"/>
+      <c r="E465" s="18"/>
+      <c r="F465" s="18"/>
+      <c r="G465" s="18"/>
+      <c r="H465" s="18"/>
+      <c r="I465" s="18"/>
+      <c r="J465" s="18"/>
+    </row>
+    <row r="466" spans="2:10">
+      <c r="C466" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="D466" s="18"/>
+      <c r="E466" s="18"/>
+      <c r="F466" s="18"/>
+      <c r="G466" s="18"/>
+      <c r="H466" s="18"/>
+      <c r="I466" s="18"/>
+      <c r="J466" s="18"/>
+    </row>
+    <row r="467" spans="2:10">
+      <c r="C467" s="18"/>
+      <c r="D467" s="18"/>
+      <c r="E467" s="18"/>
+      <c r="F467" s="18"/>
+      <c r="G467" s="18"/>
+      <c r="H467" s="18"/>
+      <c r="I467" s="18"/>
+      <c r="J467" s="18"/>
+    </row>
+    <row r="468" spans="2:10">
+      <c r="C468" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="D468" s="18"/>
+      <c r="E468" s="18"/>
+      <c r="F468" s="18"/>
+      <c r="G468" s="18"/>
+      <c r="H468" s="18"/>
+      <c r="I468" s="18"/>
+      <c r="J468" s="18"/>
+    </row>
+    <row r="469" spans="2:10">
+      <c r="C469" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="D469" s="18"/>
+      <c r="E469" s="18"/>
+      <c r="F469" s="18"/>
+      <c r="G469" s="18"/>
+      <c r="H469" s="18"/>
+      <c r="I469" s="18"/>
+      <c r="J469" s="18"/>
+    </row>
+    <row r="470" spans="2:10">
+      <c r="C470" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="D470" s="18"/>
+      <c r="E470" s="18"/>
+      <c r="F470" s="18"/>
+      <c r="G470" s="18"/>
+      <c r="H470" s="18"/>
+      <c r="I470" s="18"/>
+      <c r="J470" s="18"/>
+    </row>
+    <row r="471" spans="2:10">
+      <c r="C471" s="18"/>
+      <c r="D471" s="18"/>
+      <c r="E471" s="18"/>
+      <c r="F471" s="18"/>
+      <c r="G471" s="18"/>
+      <c r="H471" s="18"/>
+      <c r="I471" s="18"/>
+      <c r="J471" s="18"/>
+    </row>
+    <row r="472" spans="2:10">
+      <c r="C472" s="52" t="s">
+        <v>996</v>
+      </c>
+      <c r="D472" s="18"/>
+      <c r="E472" s="18"/>
+      <c r="F472" s="18"/>
+      <c r="G472" s="18"/>
+      <c r="H472" s="18"/>
+      <c r="I472" s="18"/>
+      <c r="J472" s="18"/>
+    </row>
+    <row r="473" spans="2:10">
+      <c r="C473" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="D473" s="18"/>
+      <c r="E473" s="18"/>
+      <c r="F473" s="18"/>
+      <c r="G473" s="18"/>
+      <c r="H473" s="18"/>
+      <c r="I473" s="18"/>
+      <c r="J473" s="18"/>
+    </row>
+    <row r="476" spans="2:10">
+      <c r="B476" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="478" spans="2:10">
+      <c r="C478" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="480" spans="2:10">
+      <c r="D480" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E480" s="18"/>
+      <c r="F480" s="18"/>
+      <c r="G480" s="18"/>
+      <c r="H480" s="18"/>
+      <c r="I480" s="18"/>
+      <c r="J480" s="18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10">
+      <c r="D481" s="22" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E481" s="18"/>
+      <c r="F481" s="18"/>
+      <c r="G481" s="18"/>
+      <c r="H481" s="18"/>
+      <c r="I481" s="18"/>
+      <c r="J481" s="18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10">
+      <c r="D482" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E482" s="18"/>
+      <c r="F482" s="18"/>
+      <c r="G482" s="18"/>
+      <c r="H482" s="18"/>
+      <c r="I482" s="18"/>
+      <c r="J482" s="18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10">
+      <c r="D483" s="55"/>
+    </row>
+    <row r="485" spans="1:10">
+      <c r="C485" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="415" spans="2:10">
-      <c r="D415" s="55"/>
-    </row>
-    <row r="417" spans="1:10">
-      <c r="C417" t="s">
+    <row r="487" spans="1:10">
+      <c r="D487" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="419" spans="1:10">
-      <c r="D419" t="s">
+      <c r="J487" t="s">
         <v>1006</v>
       </c>
-      <c r="J419" t="s">
+    </row>
+    <row r="489" spans="1:10">
+      <c r="A489" s="36" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
-      <c r="A421" s="36" t="s">
+    <row r="491" spans="1:10">
+      <c r="B491" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="423" spans="1:10">
-      <c r="B423" t="s">
+      <c r="C491" t="s">
         <v>1009</v>
       </c>
-      <c r="C423" t="s">
+      <c r="E491" t="s">
         <v>1010</v>
       </c>
-      <c r="E423" t="s">
+    </row>
+    <row r="492" spans="1:10">
+      <c r="E492" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
-      <c r="E424" t="s">
+    <row r="494" spans="1:10">
+      <c r="C494" t="s">
+        <v>973</v>
+      </c>
+      <c r="E494" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
-      <c r="C426" t="s">
-        <v>974</v>
-      </c>
-      <c r="E426" t="s">
+    <row r="495" spans="1:10">
+      <c r="E495" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
-      <c r="E427" t="s">
+    <row r="497" spans="1:5">
+      <c r="C497" t="s">
+        <v>977</v>
+      </c>
+      <c r="E497" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
-      <c r="C429" t="s">
-        <v>978</v>
-      </c>
-      <c r="E429" t="s">
+    <row r="500" spans="1:5">
+      <c r="B500" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="C501" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="D503" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="D505" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="36" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
-      <c r="B432" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8">
-      <c r="C433" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8">
-      <c r="D435" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
-      <c r="D437" t="s">
+    <row r="511" spans="1:5">
+      <c r="B511" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
-      <c r="A441" s="36" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
-      <c r="B443" t="s">
+    <row r="513" spans="2:8">
+      <c r="C513" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="445" spans="1:8">
-      <c r="C445" t="s">
+      <c r="H513" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="514" spans="2:8">
+      <c r="C514" t="s">
         <v>1022</v>
       </c>
-      <c r="H445" t="s">
+      <c r="H514" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
-      <c r="C446" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H446" t="s">
+    <row r="515" spans="2:8">
+      <c r="C515" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
-      <c r="C447" t="s">
+    <row r="516" spans="2:8">
+      <c r="C516" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
-      <c r="C448" t="s">
+    <row r="517" spans="2:8">
+      <c r="C517" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="449" spans="2:6">
-      <c r="C449" t="s">
+    <row r="519" spans="2:8">
+      <c r="B519" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="451" spans="2:6">
-      <c r="B451" t="s">
+    <row r="521" spans="2:8">
+      <c r="C521" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="453" spans="2:6">
-      <c r="C453" t="s">
+      <c r="F521" t="s">
         <v>1030</v>
       </c>
-      <c r="F453" t="s">
+    </row>
+    <row r="523" spans="2:8">
+      <c r="C523" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="455" spans="2:6">
-      <c r="C455" t="s">
+    <row r="525" spans="2:8">
+      <c r="D525" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="457" spans="2:6">
-      <c r="D457" t="s">
+    <row r="526" spans="2:8">
+      <c r="D526" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="458" spans="2:6">
-      <c r="D458" t="s">
+    <row r="527" spans="2:8">
+      <c r="D527" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="459" spans="2:6">
-      <c r="D459" t="s">
+    <row r="528" spans="2:8">
+      <c r="D528" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="460" spans="2:6">
-      <c r="D460" t="s">
+    <row r="529" spans="1:12">
+      <c r="D529" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="461" spans="2:6">
-      <c r="D461" t="s">
+    <row r="530" spans="1:12">
+      <c r="D530" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="462" spans="2:6">
-      <c r="D462" t="s">
+    <row r="531" spans="1:12">
+      <c r="D531" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="463" spans="2:6">
-      <c r="D463" t="s">
+    <row r="532" spans="1:12">
+      <c r="D532" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="464" spans="2:6">
-      <c r="D464" t="s">
+    <row r="534" spans="1:12">
+      <c r="A534" s="36" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
-      <c r="A466" s="36" t="s">
+    <row r="536" spans="1:12">
+      <c r="B536" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="468" spans="1:12">
-      <c r="B468" t="s">
+    <row r="538" spans="1:12">
+      <c r="C538" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
-      <c r="C470" t="s">
+    <row r="539" spans="1:12">
+      <c r="C539" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="C540" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="C542" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
-      <c r="C471" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="472" spans="1:12">
-      <c r="C472" t="s">
+    <row r="543" spans="1:12">
+      <c r="C543" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L543" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
-      <c r="C474" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="475" spans="1:12">
-      <c r="C475" t="s">
+    <row r="544" spans="1:12">
+      <c r="C544" t="s">
         <v>1050</v>
       </c>
-      <c r="L475" t="s">
+      <c r="L544" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="545" spans="2:12">
+      <c r="C545" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L545" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
-      <c r="C476" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L476" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="477" spans="1:12">
-      <c r="C477" t="s">
+    <row r="546" spans="2:12">
+      <c r="L546" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="547" spans="2:12">
+      <c r="C547" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="548" spans="2:12">
+      <c r="C548" t="s">
         <v>1052</v>
       </c>
-      <c r="L477" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="478" spans="1:12">
-      <c r="L478" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="479" spans="1:12">
-      <c r="C479" t="s">
+    </row>
+    <row r="549" spans="2:12">
+      <c r="C549" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="550" spans="2:12">
+      <c r="C550" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H550" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="480" spans="1:12">
-      <c r="C480" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8">
-      <c r="C481" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
-      <c r="C482" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H482" t="s">
+    <row r="553" spans="2:12">
+      <c r="B553" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
-      <c r="B485" t="s">
+    <row r="555" spans="2:12">
+      <c r="C555" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
-      <c r="C487" t="s">
+    <row r="556" spans="2:12">
+      <c r="C556" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
-      <c r="C488" t="s">
+    <row r="557" spans="2:12">
+      <c r="C557" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="C489" t="s">
+      <c r="F557" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="558" spans="2:12">
+      <c r="C558" t="s">
         <v>1061</v>
       </c>
-      <c r="F489" t="s">
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="36" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
-      <c r="C490" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
-      <c r="A493" s="36" t="s">
+    <row r="563" spans="1:3">
+      <c r="B563" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
-      <c r="B495" t="s">
+    <row r="565" spans="1:3">
+      <c r="C565" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="497" spans="3:3">
-      <c r="C497" t="s">
+    <row r="566" spans="1:3">
+      <c r="C566" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="498" spans="3:3">
-      <c r="C498" t="s">
+    <row r="567" spans="1:3">
+      <c r="C567" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="499" spans="3:3">
-      <c r="C499" t="s">
+    <row r="568" spans="1:3">
+      <c r="C568" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="500" spans="3:3">
-      <c r="C500" t="s">
+    <row r="569" spans="1:3">
+      <c r="C569" t="s">
         <v>1069</v>
-      </c>
-    </row>
-    <row r="501" spans="3:3">
-      <c r="C501" t="s">
-        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1195">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -2734,9 +2734,6 @@
     <t>int num2 = new int [] {1,2,3}</t>
   </si>
   <si>
-    <t>So sánh địa chỉ tham chiểu của mảng</t>
-  </si>
-  <si>
     <t>String [] bugs = {"cricket", "beetle", "ladybug"};</t>
   </si>
   <si>
@@ -2782,9 +2779,6 @@
     <t xml:space="preserve"> mảng names là một String object</t>
   </si>
   <si>
-    <t>tuy nhiên 2 phần tử trong mảng là null</t>
-  </si>
-  <si>
     <t>[Ljava.lang.String;@49e4cb85</t>
   </si>
   <si>
@@ -2794,9 +2788,6 @@
     <t>String names [ ] = new Names().names;</t>
   </si>
   <si>
-    <t xml:space="preserve">Khai báo mảng, phần tử mảng ko hợp lệ:  </t>
-  </si>
-  <si>
     <t>String [ ] strings = { " stringValue" };</t>
   </si>
   <si>
@@ -3908,6 +3899,114 @@
   </si>
   <si>
     <t>StringBuilder ko có hàm này</t>
+  </si>
+  <si>
+    <t>So sánh địa chỉ tham chiếu của mảng</t>
+  </si>
+  <si>
+    <t>String objArr [ ] = new String [ ] {"Harry", "Shreya", "Paul", "Selvan"};</t>
+  </si>
+  <si>
+    <t>int [ ] multiArr [ ];</t>
+  </si>
+  <si>
+    <t>int  [ ] [ ] multiArr;</t>
+  </si>
+  <si>
+    <t>int multiArr [ ] [ ];</t>
+  </si>
+  <si>
+    <t>int intArray [2];</t>
+  </si>
+  <si>
+    <t>String [5] strArray;</t>
+  </si>
+  <si>
+    <t>int [2] multiArray [3];</t>
+  </si>
+  <si>
+    <t>// Kích thước của mảng không được phép khai báo cùng với khai báo tên mảng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khai báo mảng ko hợp lệ:  </t>
+  </si>
+  <si>
+    <t>int [ ] multiArr [ ] = new int [2] [3];</t>
+  </si>
+  <si>
+    <t>hoặc : int [ ] multiArr [ ]  = new int [2] [ ] ;</t>
+  </si>
+  <si>
+    <t>int [ ] multiArr [ ] = new int [];</t>
+  </si>
+  <si>
+    <t>// Khai báo mảng 2 chiều nhưng chỉ có một [ ]</t>
+  </si>
+  <si>
+    <t>int [ ] multiArr [] = new int [ ][3];</t>
+  </si>
+  <si>
+    <t>// Kích thước của [] đầu tiên  bắt buộc phải có</t>
+  </si>
+  <si>
+    <t>tuy nhiên 2 phần tử trong mảng là null vì đây là mảng String Obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Còn lại giá trị mặc định tùy thuộc vào kiểu dl primitive của mảng </t>
+  </si>
+  <si>
+    <t>0 cho byte, long, short</t>
+  </si>
+  <si>
+    <t>0.0 cho double, float</t>
+  </si>
+  <si>
+    <t>false cho boolean</t>
+  </si>
+  <si>
+    <t>\u0000 cho char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể cùng một lúc khai báo, phân bổ, khởi tạo mảng trong cùng một dòng code, </t>
+  </si>
+  <si>
+    <t>Ví dụ hợp lệ:</t>
+  </si>
+  <si>
+    <t>int intArray2[] = new int[]{0, 1};</t>
+  </si>
+  <si>
+    <t>String[] strArray2 = new String[]{"Summer", "Winter"};</t>
+  </si>
+  <si>
+    <t>int multiArray2[][] = new int[][]{ {0, 1}, {3, 4, 5}};</t>
+  </si>
+  <si>
+    <t>Không hợp lệ ( khai báo kích thước mảng)</t>
+  </si>
+  <si>
+    <t>int intArray2[] = new int[2]{0, 1};</t>
+  </si>
+  <si>
+    <t>String[] strArray2 = new String[2]{"Summer", "Winter"};</t>
+  </si>
+  <si>
+    <t>int multiArray2[][] = new int[2][]{ {0, 1}, {3, 4, 5}};</t>
+  </si>
+  <si>
+    <t>String multiStrArr[][] = new String[][]{</t>
+  </si>
+  <si>
+    <t>{"A", "B"},</t>
+  </si>
+  <si>
+    <t>null,</t>
+  </si>
+  <si>
+    <t>{"Jan", "Feb", "Mar"},</t>
+  </si>
+  <si>
+    <t>};</t>
   </si>
 </sst>
 </file>
@@ -4336,10 +4435,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6555,16 +6654,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="57" t="s">
+      <c r="D424" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="57"/>
-      <c r="F424" s="57"/>
-      <c r="G424" s="57"/>
-      <c r="H424" s="57"/>
-      <c r="I424" s="57"/>
-      <c r="J424" s="57"/>
-      <c r="K424" s="57"/>
+      <c r="E424" s="58"/>
+      <c r="F424" s="58"/>
+      <c r="G424" s="58"/>
+      <c r="H424" s="58"/>
+      <c r="I424" s="58"/>
+      <c r="J424" s="58"/>
+      <c r="K424" s="58"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -6631,16 +6730,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="57" t="s">
+      <c r="D430" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="57"/>
-      <c r="F430" s="57"/>
-      <c r="G430" s="57"/>
-      <c r="H430" s="57"/>
-      <c r="I430" s="57"/>
-      <c r="J430" s="57"/>
-      <c r="K430" s="57"/>
+      <c r="E430" s="58"/>
+      <c r="F430" s="58"/>
+      <c r="G430" s="58"/>
+      <c r="H430" s="58"/>
+      <c r="I430" s="58"/>
+      <c r="J430" s="58"/>
+      <c r="K430" s="58"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -11385,17 +11484,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q569"/>
+  <dimension ref="A1:Q609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11404,7 +11503,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11413,13 +11512,13 @@
     <row r="5" spans="1:3">
       <c r="A5" s="36"/>
       <c r="C5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="36"/>
       <c r="C6" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11428,7 +11527,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11437,13 +11536,13 @@
     <row r="10" spans="1:3">
       <c r="A10" s="36"/>
       <c r="C10" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="36"/>
       <c r="C11" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11452,19 +11551,19 @@
     <row r="13" spans="1:3">
       <c r="A13" s="36"/>
       <c r="B13" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36"/>
       <c r="C14" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="36"/>
       <c r="C15" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11473,91 +11572,91 @@
     <row r="17" spans="1:12">
       <c r="A17" s="36"/>
       <c r="B17" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="36"/>
       <c r="C18" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="36"/>
       <c r="D19" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="36"/>
       <c r="E20" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="J20" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="L20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="36"/>
       <c r="E21" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="J21" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="L21" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="36"/>
       <c r="E22" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="J22" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="L22" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="36"/>
       <c r="E23" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="J23" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="L23" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="36"/>
       <c r="E24" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="J24" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="L24" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="36"/>
       <c r="E25" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="J25" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="L25" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -11572,7 +11671,7 @@
         <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -11602,25 +11701,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="B38" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G42" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -11823,13 +11922,13 @@
     <row r="72" spans="1:9">
       <c r="A72" s="36"/>
       <c r="B72" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="36"/>
       <c r="B73" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -11838,25 +11937,25 @@
     <row r="75" spans="1:9">
       <c r="A75" s="36"/>
       <c r="C75" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="36"/>
       <c r="C76" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="36"/>
       <c r="C77" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="36"/>
       <c r="C78" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -11865,13 +11964,13 @@
     <row r="80" spans="1:9">
       <c r="A80" s="36"/>
       <c r="C80" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H80" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="I80" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -11998,7 +12097,7 @@
     </row>
     <row r="101" spans="2:9" ht="18.75">
       <c r="C101" s="40" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -12062,7 +12161,7 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -12081,7 +12180,7 @@
     </row>
     <row r="110" spans="2:9">
       <c r="C110" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -12101,7 +12200,7 @@
     <row r="112" spans="2:9">
       <c r="D112" s="39"/>
       <c r="E112" s="43" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
@@ -12111,7 +12210,7 @@
     <row r="113" spans="1:9">
       <c r="D113" s="39"/>
       <c r="E113" s="43" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F113" s="43"/>
       <c r="G113" s="43"/>
@@ -12128,7 +12227,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="C115" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="43"/>
@@ -12148,7 +12247,7 @@
     <row r="117" spans="1:9">
       <c r="D117" s="39"/>
       <c r="E117" s="43" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F117" s="43"/>
       <c r="G117" s="43"/>
@@ -12158,7 +12257,7 @@
     <row r="118" spans="1:9">
       <c r="D118" s="39"/>
       <c r="E118" s="43" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F118" s="43"/>
       <c r="G118" s="43"/>
@@ -12167,7 +12266,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="E119" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -12178,7 +12277,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="36"/>
       <c r="B121" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -12187,28 +12286,28 @@
     <row r="123" spans="1:9">
       <c r="A123" s="36"/>
       <c r="C123" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H123" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="36"/>
       <c r="C124" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="36"/>
       <c r="C125" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="36"/>
       <c r="C126" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -12221,65 +12320,65 @@
     </row>
     <row r="130" spans="2:8">
       <c r="C130" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="131" spans="2:8">
       <c r="D131" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="132" spans="2:8">
       <c r="D132" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="133" spans="2:8">
       <c r="D133" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="D134" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="D135" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="D136" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="138" spans="2:8">
       <c r="C138" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="140" spans="2:8">
       <c r="D140" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="141" spans="2:8">
       <c r="D141" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="142" spans="2:8">
       <c r="D142" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H142" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="145" spans="3:9">
       <c r="C145" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="147" spans="3:9">
@@ -12289,12 +12388,12 @@
     </row>
     <row r="148" spans="3:9">
       <c r="E148" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="149" spans="3:9">
       <c r="E149" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="150" spans="3:9">
@@ -12304,35 +12403,35 @@
     </row>
     <row r="152" spans="3:9">
       <c r="D152" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="153" spans="3:9">
       <c r="E153" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="154" spans="3:9">
       <c r="E154" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="155" spans="3:9">
       <c r="E155" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="156" spans="3:9">
       <c r="E156" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="157" spans="3:9">
       <c r="E157" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I157" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="166" spans="2:14">
@@ -12340,7 +12439,7 @@
         <v>742</v>
       </c>
       <c r="C166" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="168" spans="2:14">
@@ -12361,10 +12460,10 @@
         <v>746</v>
       </c>
       <c r="M171" t="s">
+        <v>778</v>
+      </c>
+      <c r="N171" t="s">
         <v>779</v>
-      </c>
-      <c r="N171" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="172" spans="2:14">
@@ -12374,10 +12473,10 @@
     </row>
     <row r="174" spans="2:14">
       <c r="B174" s="39" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
@@ -12389,7 +12488,7 @@
     <row r="175" spans="2:14">
       <c r="B175" s="39"/>
       <c r="C175" s="39" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D175" s="39"/>
       <c r="E175" s="39"/>
@@ -12400,36 +12499,36 @@
     </row>
     <row r="177" spans="2:10">
       <c r="D177" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="178" spans="2:10">
       <c r="E178" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="179" spans="2:10">
       <c r="E179" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="180" spans="2:10">
       <c r="E180" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I180" s="58" t="s">
-        <v>1158</v>
-      </c>
-      <c r="J180" s="58"/>
+        <v>1151</v>
+      </c>
+      <c r="I180" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J180" s="57"/>
     </row>
     <row r="181" spans="2:10">
       <c r="E181" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I181" s="58" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J181" s="58"/>
+        <v>1144</v>
+      </c>
+      <c r="I181" s="57" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J181" s="57"/>
     </row>
     <row r="182" spans="2:10">
       <c r="D182" t="s">
@@ -12459,7 +12558,7 @@
         <v>749</v>
       </c>
       <c r="J187" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="190" spans="2:10">
@@ -12485,10 +12584,10 @@
     </row>
     <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C193" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -12568,1904 +12667,2061 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="B208" t="s">
+      <c r="B208" s="50" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="210" spans="2:8">
+    <row r="210" spans="3:8">
       <c r="C210" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="211" spans="2:8">
+      <c r="G210" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8">
       <c r="C211" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="213" spans="2:8">
+    <row r="213" spans="3:8">
       <c r="C213" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="214" spans="2:8">
+      <c r="G213" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8">
       <c r="C214" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="215" spans="2:8">
+      <c r="G214" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8">
       <c r="C215" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="216" spans="2:8">
+      <c r="G215" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8">
       <c r="C216" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="218" spans="2:8">
+    <row r="218" spans="3:8">
       <c r="C218" t="s">
+        <v>788</v>
+      </c>
+      <c r="H218" t="s">
         <v>791</v>
       </c>
-      <c r="H218" t="s">
+    </row>
+    <row r="219" spans="3:8">
+      <c r="C219" t="s">
+        <v>789</v>
+      </c>
+      <c r="H219" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8">
+      <c r="C220" t="s">
+        <v>790</v>
+      </c>
+      <c r="H220" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8">
+      <c r="C222" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8">
+      <c r="C223" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8">
+      <c r="B231" s="39" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8">
+      <c r="C233" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="219" spans="2:8">
-      <c r="C219" t="s">
-        <v>792</v>
-      </c>
-      <c r="H219" t="s">
+      <c r="H233" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="220" spans="2:8">
-      <c r="C220" t="s">
-        <v>793</v>
-      </c>
-      <c r="H220" t="s">
+    <row r="234" spans="2:8">
+      <c r="C234" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="224" spans="2:8">
-      <c r="B224" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10">
-      <c r="C226" t="s">
+      <c r="H234" t="s">
         <v>797</v>
       </c>
-      <c r="H226" t="s">
+    </row>
+    <row r="236" spans="2:8">
+      <c r="C236" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8">
+      <c r="C237" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8">
+      <c r="C238" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8">
+      <c r="C240" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10">
+      <c r="C242" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="B246" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10">
+      <c r="C248" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D248" s="18"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="18"/>
+      <c r="G248" s="18"/>
+      <c r="H248" s="18"/>
+      <c r="I248" s="18"/>
+    </row>
+    <row r="249" spans="2:10">
+      <c r="C249" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="D249" s="18"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="18"/>
+      <c r="G249" s="18"/>
+      <c r="H249" s="18"/>
+      <c r="I249" s="18"/>
+    </row>
+    <row r="250" spans="2:10">
+      <c r="C250" s="23"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="18"/>
+      <c r="G250" s="18"/>
+      <c r="H250" s="18"/>
+      <c r="I250" s="18"/>
+    </row>
+    <row r="251" spans="2:10">
+      <c r="C251" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="D251" s="18"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="18"/>
+      <c r="G251" s="18"/>
+      <c r="H251" s="18"/>
+      <c r="I251" s="18"/>
+      <c r="J251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="C252" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D252" s="18"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="18"/>
+      <c r="G252" s="18"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="18"/>
+      <c r="J252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10">
+      <c r="B255" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="257" spans="3:10">
+      <c r="C257" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="258" spans="3:10">
+      <c r="D258" t="s">
+        <v>774</v>
+      </c>
+      <c r="F258" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="259" spans="3:10">
+      <c r="C259" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="3:10">
+      <c r="C262" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="264" spans="3:10">
+      <c r="C264" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="266" spans="3:10">
+      <c r="D266" t="s">
+        <v>782</v>
+      </c>
+      <c r="J266" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="268" spans="3:10">
+      <c r="D268" t="s">
+        <v>786</v>
+      </c>
+      <c r="J268" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="269" spans="3:10">
+      <c r="E269" t="s">
+        <v>787</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="270" spans="3:10">
+      <c r="E270" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="271" spans="3:10">
+      <c r="D271" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="272" spans="3:10">
+      <c r="C272" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6">
+      <c r="C274" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6">
+      <c r="D275" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6">
+      <c r="D276" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6">
+      <c r="D277" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6">
+      <c r="D278" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6">
+      <c r="B280" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6">
+      <c r="D282" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6">
+      <c r="F283" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6">
+      <c r="F284" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6">
+      <c r="F285" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6">
+      <c r="D287" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17">
+      <c r="F289" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17">
+      <c r="F290" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17">
+      <c r="F291" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A294" s="36" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" ht="17.25" customHeight="1">
+      <c r="B295" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17">
+      <c r="B296" s="46" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="227" spans="2:10">
-      <c r="C227" t="s">
+      <c r="C296" s="46"/>
+      <c r="D296" s="46"/>
+      <c r="E296" s="46"/>
+      <c r="F296" s="46"/>
+      <c r="G296" s="46"/>
+      <c r="H296" s="46"/>
+      <c r="I296" s="47"/>
+      <c r="J296" s="49"/>
+      <c r="K296" s="48"/>
+      <c r="L296" s="48"/>
+      <c r="M296" s="48"/>
+      <c r="N296" s="48"/>
+      <c r="O296" s="48"/>
+      <c r="P296" s="48"/>
+      <c r="Q296" s="48"/>
+    </row>
+    <row r="297" spans="1:17">
+      <c r="B297" s="46" t="s">
         <v>799</v>
       </c>
-      <c r="H227" t="s">
+      <c r="C297" s="46"/>
+      <c r="D297" s="46"/>
+      <c r="E297" s="46"/>
+      <c r="F297" s="46"/>
+      <c r="G297" s="46"/>
+      <c r="H297" s="46"/>
+      <c r="I297" s="47"/>
+      <c r="J297" s="49"/>
+      <c r="K297" s="48"/>
+      <c r="L297" s="48"/>
+      <c r="M297" s="48"/>
+      <c r="N297" s="48"/>
+      <c r="O297" s="48"/>
+      <c r="P297" s="48"/>
+      <c r="Q297" s="48"/>
+    </row>
+    <row r="298" spans="1:17">
+      <c r="B298" s="46" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="231" spans="2:10">
-      <c r="B231" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="233" spans="2:10">
-      <c r="C233" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
-      <c r="F233" s="18"/>
-      <c r="G233" s="18"/>
-      <c r="H233" s="18"/>
-      <c r="I233" s="18"/>
-    </row>
-    <row r="234" spans="2:10">
-      <c r="C234" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="18"/>
-      <c r="H234" s="18"/>
-      <c r="I234" s="18"/>
-    </row>
-    <row r="235" spans="2:10">
-      <c r="C235" s="23"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
-      <c r="F235" s="18"/>
-      <c r="G235" s="18"/>
-      <c r="H235" s="18"/>
-      <c r="I235" s="18"/>
-    </row>
-    <row r="236" spans="2:10">
-      <c r="C236" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
-      <c r="G236" s="18"/>
-      <c r="H236" s="18"/>
-      <c r="I236" s="18"/>
-      <c r="J236" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="2:10">
-      <c r="C237" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
-      <c r="F237" s="18"/>
-      <c r="G237" s="18"/>
-      <c r="H237" s="18"/>
-      <c r="I237" s="18"/>
-      <c r="J237" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="2:10">
-      <c r="B240" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="242" spans="3:16">
-      <c r="C242" t="s">
-        <v>778</v>
-      </c>
-      <c r="P242" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="243" spans="3:16">
-      <c r="D243" t="s">
-        <v>775</v>
-      </c>
-      <c r="F243" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="244" spans="3:16">
-      <c r="C244" t="s">
-        <v>45</v>
-      </c>
-      <c r="P244" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="247" spans="3:16">
-      <c r="C247" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="249" spans="3:16">
-      <c r="C249" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="251" spans="3:16">
-      <c r="D251" t="s">
-        <v>783</v>
-      </c>
-      <c r="J251" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="253" spans="3:16">
-      <c r="D253" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="254" spans="3:16">
-      <c r="E254" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="255" spans="3:16">
-      <c r="E255" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17">
-      <c r="D257" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="258" spans="1:17">
-      <c r="C258" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A261" s="36" t="s">
+      <c r="C298" s="46"/>
+      <c r="D298" s="46"/>
+      <c r="E298" s="46"/>
+      <c r="F298" s="46"/>
+      <c r="G298" s="46"/>
+      <c r="H298" s="46"/>
+      <c r="I298" s="47"/>
+      <c r="J298" s="49"/>
+      <c r="K298" s="48"/>
+      <c r="L298" s="48"/>
+      <c r="M298" s="48"/>
+      <c r="N298" s="48"/>
+      <c r="O298" s="48"/>
+      <c r="P298" s="48"/>
+      <c r="Q298" s="48"/>
+    </row>
+    <row r="299" spans="1:17">
+      <c r="B299" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C299" s="46"/>
+      <c r="D299" s="46"/>
+      <c r="E299" s="46"/>
+      <c r="F299" s="46"/>
+      <c r="G299" s="46"/>
+      <c r="H299" s="46"/>
+      <c r="I299" s="47"/>
+      <c r="J299" s="49"/>
+      <c r="K299" s="48" t="s">
+        <v>804</v>
+      </c>
+      <c r="L299" s="48"/>
+      <c r="M299" s="48"/>
+      <c r="N299" s="48"/>
+      <c r="O299" s="48"/>
+      <c r="P299" s="48"/>
+      <c r="Q299" s="48"/>
+    </row>
+    <row r="300" spans="1:17">
+      <c r="B300" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="C300" s="46"/>
+      <c r="D300" s="46"/>
+      <c r="E300" s="46"/>
+      <c r="F300" s="46"/>
+      <c r="G300" s="46"/>
+      <c r="H300" s="46"/>
+      <c r="I300" s="47"/>
+      <c r="J300" s="49"/>
+      <c r="K300" s="48" t="s">
+        <v>805</v>
+      </c>
+      <c r="L300" s="48"/>
+      <c r="M300" s="48"/>
+      <c r="N300" s="48"/>
+      <c r="O300" s="48"/>
+      <c r="P300" s="48"/>
+      <c r="Q300" s="48"/>
+    </row>
+    <row r="301" spans="1:17">
+      <c r="B301" s="46" t="s">
+        <v>803</v>
+      </c>
+      <c r="C301" s="46"/>
+      <c r="D301" s="46"/>
+      <c r="E301" s="46"/>
+      <c r="F301" s="46"/>
+      <c r="G301" s="46"/>
+      <c r="H301" s="46"/>
+      <c r="I301" s="47"/>
+      <c r="J301" s="49"/>
+      <c r="K301" s="48" t="s">
+        <v>806</v>
+      </c>
+      <c r="L301" s="48"/>
+      <c r="M301" s="48"/>
+      <c r="N301" s="48"/>
+      <c r="O301" s="48"/>
+      <c r="P301" s="48"/>
+      <c r="Q301" s="48"/>
+    </row>
+    <row r="304" spans="1:17">
+      <c r="B304" s="44" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
+      <c r="C306" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="17.25" customHeight="1">
-      <c r="B262" t="s">
+    <row r="307" spans="1:10">
+      <c r="C307" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="263" spans="1:17">
-      <c r="B263" s="46" t="s">
-        <v>801</v>
-      </c>
-      <c r="C263" s="46"/>
-      <c r="D263" s="46"/>
-      <c r="E263" s="46"/>
-      <c r="F263" s="46"/>
-      <c r="G263" s="46"/>
-      <c r="H263" s="46"/>
-      <c r="I263" s="47"/>
-      <c r="J263" s="49"/>
-      <c r="K263" s="48"/>
-      <c r="L263" s="48"/>
-      <c r="M263" s="48"/>
-      <c r="N263" s="48"/>
-      <c r="O263" s="48"/>
-      <c r="P263" s="48"/>
-      <c r="Q263" s="48"/>
-    </row>
-    <row r="264" spans="1:17">
-      <c r="B264" s="46" t="s">
-        <v>802</v>
-      </c>
-      <c r="C264" s="46"/>
-      <c r="D264" s="46"/>
-      <c r="E264" s="46"/>
-      <c r="F264" s="46"/>
-      <c r="G264" s="46"/>
-      <c r="H264" s="46"/>
-      <c r="I264" s="47"/>
-      <c r="J264" s="49"/>
-      <c r="K264" s="48"/>
-      <c r="L264" s="48"/>
-      <c r="M264" s="48"/>
-      <c r="N264" s="48"/>
-      <c r="O264" s="48"/>
-      <c r="P264" s="48"/>
-      <c r="Q264" s="48"/>
-    </row>
-    <row r="265" spans="1:17">
-      <c r="B265" s="46" t="s">
-        <v>803</v>
-      </c>
-      <c r="C265" s="46"/>
-      <c r="D265" s="46"/>
-      <c r="E265" s="46"/>
-      <c r="F265" s="46"/>
-      <c r="G265" s="46"/>
-      <c r="H265" s="46"/>
-      <c r="I265" s="47"/>
-      <c r="J265" s="49"/>
-      <c r="K265" s="48"/>
-      <c r="L265" s="48"/>
-      <c r="M265" s="48"/>
-      <c r="N265" s="48"/>
-      <c r="O265" s="48"/>
-      <c r="P265" s="48"/>
-      <c r="Q265" s="48"/>
-    </row>
-    <row r="266" spans="1:17">
-      <c r="B266" s="46" t="s">
-        <v>804</v>
-      </c>
-      <c r="C266" s="46"/>
-      <c r="D266" s="46"/>
-      <c r="E266" s="46"/>
-      <c r="F266" s="46"/>
-      <c r="G266" s="46"/>
-      <c r="H266" s="46"/>
-      <c r="I266" s="47"/>
-      <c r="J266" s="49"/>
-      <c r="K266" s="48" t="s">
-        <v>807</v>
-      </c>
-      <c r="L266" s="48"/>
-      <c r="M266" s="48"/>
-      <c r="N266" s="48"/>
-      <c r="O266" s="48"/>
-      <c r="P266" s="48"/>
-      <c r="Q266" s="48"/>
-    </row>
-    <row r="267" spans="1:17">
-      <c r="B267" s="46" t="s">
-        <v>805</v>
-      </c>
-      <c r="C267" s="46"/>
-      <c r="D267" s="46"/>
-      <c r="E267" s="46"/>
-      <c r="F267" s="46"/>
-      <c r="G267" s="46"/>
-      <c r="H267" s="46"/>
-      <c r="I267" s="47"/>
-      <c r="J267" s="49"/>
-      <c r="K267" s="48" t="s">
-        <v>808</v>
-      </c>
-      <c r="L267" s="48"/>
-      <c r="M267" s="48"/>
-      <c r="N267" s="48"/>
-      <c r="O267" s="48"/>
-      <c r="P267" s="48"/>
-      <c r="Q267" s="48"/>
-    </row>
-    <row r="268" spans="1:17">
-      <c r="B268" s="46" t="s">
-        <v>806</v>
-      </c>
-      <c r="C268" s="46"/>
-      <c r="D268" s="46"/>
-      <c r="E268" s="46"/>
-      <c r="F268" s="46"/>
-      <c r="G268" s="46"/>
-      <c r="H268" s="46"/>
-      <c r="I268" s="47"/>
-      <c r="J268" s="49"/>
-      <c r="K268" s="48" t="s">
-        <v>809</v>
-      </c>
-      <c r="L268" s="48"/>
-      <c r="M268" s="48"/>
-      <c r="N268" s="48"/>
-      <c r="O268" s="48"/>
-      <c r="P268" s="48"/>
-      <c r="Q268" s="48"/>
-    </row>
-    <row r="271" spans="1:17">
-      <c r="B271" s="44" t="s">
+      <c r="I307" t="s">
+        <v>813</v>
+      </c>
+      <c r="J307" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="C308" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
-      <c r="C273" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
-      <c r="C274" t="s">
+      <c r="I308" t="s">
         <v>814</v>
       </c>
-      <c r="I274" t="s">
+      <c r="J308" s="50" t="s">
         <v>816</v>
       </c>
-      <c r="J274" t="s">
+    </row>
+    <row r="311" spans="1:10">
+      <c r="A311" s="36" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
-      <c r="C275" t="s">
-        <v>815</v>
-      </c>
-      <c r="I275" t="s">
-        <v>817</v>
-      </c>
-      <c r="J275" s="50" t="s">
+    <row r="313" spans="1:10">
+      <c r="C313" s="51" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
-      <c r="A278" s="36" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
-      <c r="C280" s="51" t="s">
-        <v>822</v>
-      </c>
-      <c r="D280" s="18"/>
-      <c r="E280" s="18"/>
-      <c r="F280" s="18"/>
-    </row>
-    <row r="281" spans="1:10">
-      <c r="C281" s="18" t="s">
-        <v>823</v>
-      </c>
-      <c r="D281" s="18"/>
-      <c r="E281" s="18"/>
-      <c r="F281" s="18"/>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="C282" s="51" t="s">
-        <v>824</v>
-      </c>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
-      <c r="F282" s="18"/>
-    </row>
-    <row r="284" spans="1:10">
-      <c r="A284" s="36" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10">
-      <c r="B286" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10">
-      <c r="C287" t="s">
-        <v>826</v>
-      </c>
-      <c r="E287" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10">
-      <c r="C288" t="s">
-        <v>827</v>
-      </c>
-      <c r="E288" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10">
-      <c r="C289" t="s">
-        <v>828</v>
-      </c>
-      <c r="E289" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10">
-      <c r="C290" s="52" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10">
-      <c r="A292" s="36" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10">
-      <c r="B294" t="s">
-        <v>834</v>
-      </c>
-      <c r="I294" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
-      <c r="C296" t="s">
-        <v>835</v>
-      </c>
-      <c r="J296" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10">
-      <c r="C297" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10">
-      <c r="C298" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10">
-      <c r="C299" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10">
-      <c r="C300" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10">
-      <c r="B303" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="305" spans="3:9">
-      <c r="C305" t="s">
-        <v>843</v>
-      </c>
-      <c r="G305" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="307" spans="3:9">
-      <c r="C307" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="310" spans="3:9">
-      <c r="C310" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="312" spans="3:9">
-      <c r="D312" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="E312" s="18"/>
-      <c r="F312" s="18"/>
-      <c r="G312" s="18"/>
-    </row>
-    <row r="313" spans="3:9">
-      <c r="D313" s="22" t="s">
-        <v>848</v>
-      </c>
+      <c r="D313" s="18"/>
       <c r="E313" s="18"/>
       <c r="F313" s="18"/>
-      <c r="G313" s="18"/>
-    </row>
-    <row r="314" spans="3:9">
-      <c r="D314" s="22" t="s">
-        <v>849</v>
-      </c>
+    </row>
+    <row r="314" spans="1:10">
+      <c r="C314" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="D314" s="18"/>
       <c r="E314" s="18"/>
       <c r="F314" s="18"/>
-      <c r="G314" s="18"/>
-    </row>
-    <row r="315" spans="3:9">
-      <c r="D315" s="22" t="s">
-        <v>850</v>
-      </c>
+    </row>
+    <row r="315" spans="1:10">
+      <c r="C315" s="51" t="s">
+        <v>821</v>
+      </c>
+      <c r="D315" s="18"/>
       <c r="E315" s="18"/>
       <c r="F315" s="18"/>
-      <c r="G315" s="18"/>
-      <c r="I315" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="317" spans="3:9">
-      <c r="C317" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="319" spans="3:9">
-      <c r="D319" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="E319" s="18"/>
-      <c r="F319" s="18"/>
-      <c r="G319" s="18"/>
-      <c r="H319" s="18"/>
-      <c r="I319" s="18"/>
-    </row>
-    <row r="320" spans="3:9">
-      <c r="D320" s="22" t="s">
-        <v>854</v>
-      </c>
-      <c r="E320" s="18"/>
-      <c r="F320" s="18"/>
-      <c r="G320" s="18"/>
-      <c r="H320" s="18"/>
-      <c r="I320" s="18"/>
+    </row>
+    <row r="317" spans="1:10">
+      <c r="A317" s="36" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
+      <c r="B319" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10">
+      <c r="C320" t="s">
+        <v>823</v>
+      </c>
+      <c r="E320" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="D321" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="E321" s="18"/>
-      <c r="F321" s="18"/>
-      <c r="G321" s="18"/>
-      <c r="H321" s="18"/>
-      <c r="I321" s="18"/>
-      <c r="J321" t="s">
-        <v>855</v>
+      <c r="C321" t="s">
+        <v>824</v>
+      </c>
+      <c r="E321" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
+      <c r="C322" t="s">
+        <v>825</v>
+      </c>
+      <c r="E322" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="B323" t="s">
-        <v>856</v>
-      </c>
+      <c r="C323" s="52" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="C324" s="52"/>
     </row>
     <row r="325" spans="1:10">
-      <c r="C325" t="s">
-        <v>857</v>
-      </c>
-      <c r="G325" t="s">
-        <v>859</v>
+      <c r="C325" s="52" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
+      <c r="H326" s="52" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="327" spans="1:10">
-      <c r="C327" t="s">
-        <v>858</v>
+      <c r="H327" s="52" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
+      <c r="H328" s="52" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
+      <c r="G329" s="52" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="330" spans="1:10">
-      <c r="A330" s="36" t="s">
-        <v>860</v>
-      </c>
+      <c r="C330" s="52"/>
     </row>
     <row r="332" spans="1:10">
-      <c r="B332" t="s">
-        <v>861</v>
-      </c>
-      <c r="D332" t="s">
-        <v>862</v>
-      </c>
-      <c r="F332" t="s">
-        <v>863</v>
+      <c r="A332" s="36" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="B334" t="s">
+        <v>831</v>
+      </c>
+      <c r="I334" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
+      <c r="C336" t="s">
+        <v>832</v>
+      </c>
+      <c r="J336" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7">
+      <c r="C337" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7">
+      <c r="C338" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7">
+      <c r="C339" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7">
+      <c r="C340" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7">
+      <c r="B343" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7">
+      <c r="C345" t="s">
+        <v>840</v>
+      </c>
+      <c r="G345" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7">
+      <c r="C347" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7">
+      <c r="C350" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7">
+      <c r="D352" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="E352" s="18"/>
+      <c r="F352" s="18"/>
+      <c r="G352" s="18"/>
+    </row>
+    <row r="353" spans="2:10">
+      <c r="D353" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="E353" s="18"/>
+      <c r="F353" s="18"/>
+      <c r="G353" s="18"/>
+    </row>
+    <row r="354" spans="2:10">
+      <c r="D354" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="E354" s="18"/>
+      <c r="F354" s="18"/>
+      <c r="G354" s="18"/>
+    </row>
+    <row r="355" spans="2:10">
+      <c r="D355" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E355" s="18"/>
+      <c r="F355" s="18"/>
+      <c r="G355" s="18"/>
+      <c r="I355" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="357" spans="2:10">
+      <c r="C357" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="359" spans="2:10">
+      <c r="D359" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E359" s="18"/>
+      <c r="F359" s="18"/>
+      <c r="G359" s="18"/>
+      <c r="H359" s="18"/>
+      <c r="I359" s="18"/>
+    </row>
+    <row r="360" spans="2:10">
+      <c r="D360" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="E360" s="18"/>
+      <c r="F360" s="18"/>
+      <c r="G360" s="18"/>
+      <c r="H360" s="18"/>
+      <c r="I360" s="18"/>
+    </row>
+    <row r="361" spans="2:10">
+      <c r="D361" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="E361" s="18"/>
+      <c r="F361" s="18"/>
+      <c r="G361" s="18"/>
+      <c r="H361" s="18"/>
+      <c r="I361" s="18"/>
+      <c r="J361" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="363" spans="2:10">
+      <c r="B363" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="365" spans="2:10">
+      <c r="C365" t="s">
+        <v>854</v>
+      </c>
+      <c r="G365" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="367" spans="2:10">
+      <c r="C367" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="36" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="B372" t="s">
+        <v>858</v>
+      </c>
+      <c r="D372" t="s">
+        <v>859</v>
+      </c>
+      <c r="F372" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="B374" t="s">
         <v>82</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D374" t="s">
+        <v>861</v>
+      </c>
+      <c r="F374" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="B375" t="s">
+        <v>862</v>
+      </c>
+      <c r="D375" t="s">
+        <v>863</v>
+      </c>
+      <c r="F375" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="B376" t="s">
+        <v>86</v>
+      </c>
+      <c r="D376" t="s">
         <v>864</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F376" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="B377" t="s">
+        <v>409</v>
+      </c>
+      <c r="D377" t="s">
+        <v>865</v>
+      </c>
+      <c r="F377" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
-      <c r="B335" t="s">
+    <row r="378" spans="1:6">
+      <c r="B378" t="s">
+        <v>410</v>
+      </c>
+      <c r="D378" t="s">
+        <v>866</v>
+      </c>
+      <c r="F378" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="B379" t="s">
+        <v>867</v>
+      </c>
+      <c r="D379" t="s">
+        <v>868</v>
+      </c>
+      <c r="F379" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="B380" t="s">
+        <v>869</v>
+      </c>
+      <c r="D380" t="s">
+        <v>870</v>
+      </c>
+      <c r="F380" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="B381" t="s">
+        <v>871</v>
+      </c>
+      <c r="D381" t="s">
+        <v>872</v>
+      </c>
+      <c r="F381" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="B384" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="386" spans="3:15">
+      <c r="C386" t="s">
+        <v>882</v>
+      </c>
+      <c r="E386" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="388" spans="3:15">
+      <c r="C388" t="s">
+        <v>861</v>
+      </c>
+      <c r="E388" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="389" spans="3:15">
+      <c r="C389" t="s">
+        <v>863</v>
+      </c>
+      <c r="E389" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="390" spans="3:15">
+      <c r="C390" t="s">
+        <v>864</v>
+      </c>
+      <c r="E390" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="391" spans="3:15">
+      <c r="C391" t="s">
         <v>865</v>
       </c>
-      <c r="D335" t="s">
-        <v>866</v>
-      </c>
-      <c r="F335" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10">
-      <c r="B336" t="s">
-        <v>86</v>
-      </c>
-      <c r="D336" t="s">
-        <v>867</v>
-      </c>
-      <c r="F336" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="337" spans="2:6">
-      <c r="B337" t="s">
-        <v>409</v>
-      </c>
-      <c r="D337" t="s">
-        <v>868</v>
-      </c>
-      <c r="F337" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="338" spans="2:6">
-      <c r="B338" t="s">
-        <v>410</v>
-      </c>
-      <c r="D338" t="s">
-        <v>869</v>
-      </c>
-      <c r="F338" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="339" spans="2:6">
-      <c r="B339" t="s">
+      <c r="E391" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="392" spans="3:15">
+      <c r="C392" t="s">
+        <v>888</v>
+      </c>
+      <c r="E392" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="393" spans="3:15">
+      <c r="C393" t="s">
+        <v>890</v>
+      </c>
+      <c r="E393" t="s">
+        <v>891</v>
+      </c>
+      <c r="J393" t="s">
+        <v>892</v>
+      </c>
+      <c r="O393" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="394" spans="3:15">
+      <c r="C394" t="s">
         <v>870</v>
       </c>
-      <c r="D339" t="s">
-        <v>871</v>
-      </c>
-      <c r="F339" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="340" spans="2:6">
-      <c r="B340" t="s">
+      <c r="E394" t="s">
+        <v>894</v>
+      </c>
+      <c r="J394" t="s">
+        <v>895</v>
+      </c>
+      <c r="O394" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="395" spans="3:15">
+      <c r="C395" s="54" t="s">
         <v>872</v>
       </c>
-      <c r="D340" t="s">
-        <v>873</v>
-      </c>
-      <c r="F340" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="341" spans="2:6">
-      <c r="B341" t="s">
-        <v>874</v>
-      </c>
-      <c r="D341" t="s">
-        <v>875</v>
-      </c>
-      <c r="F341" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="344" spans="2:6">
-      <c r="B344" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="346" spans="2:6">
-      <c r="C346" t="s">
-        <v>885</v>
-      </c>
-      <c r="E346" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="348" spans="2:6">
-      <c r="C348" t="s">
+      <c r="D395" s="54"/>
+      <c r="E395" s="54" t="s">
+        <v>896</v>
+      </c>
+      <c r="F395" s="54"/>
+      <c r="G395" s="54"/>
+      <c r="H395" s="54"/>
+      <c r="I395" s="53"/>
+    </row>
+    <row r="398" spans="3:15">
+      <c r="E398" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="400" spans="3:15">
+      <c r="C400" t="s">
+        <v>861</v>
+      </c>
+      <c r="E400" t="s">
+        <v>898</v>
+      </c>
+      <c r="K400" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="C401" t="s">
+        <v>863</v>
+      </c>
+      <c r="E401" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="C402" t="s">
         <v>864</v>
       </c>
-      <c r="E348" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="349" spans="2:6">
-      <c r="C349" t="s">
-        <v>866</v>
-      </c>
-      <c r="E349" t="s">
+      <c r="E402" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="C403" t="s">
+        <v>865</v>
+      </c>
+      <c r="E403" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
+      <c r="C404" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="350" spans="2:6">
-      <c r="C350" t="s">
-        <v>867</v>
-      </c>
-      <c r="E350" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="351" spans="2:6">
-      <c r="C351" t="s">
-        <v>868</v>
-      </c>
-      <c r="E351" t="s">
+      <c r="E404" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="C405" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="352" spans="2:6">
-      <c r="C352" t="s">
-        <v>891</v>
-      </c>
-      <c r="E352" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="353" spans="3:15">
-      <c r="C353" t="s">
-        <v>893</v>
-      </c>
-      <c r="E353" t="s">
-        <v>894</v>
-      </c>
-      <c r="J353" t="s">
-        <v>895</v>
-      </c>
-      <c r="O353" t="s">
+      <c r="E405" t="s">
+        <v>904</v>
+      </c>
+      <c r="J405" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="C406" t="s">
+        <v>870</v>
+      </c>
+      <c r="E406" t="s">
+        <v>905</v>
+      </c>
+      <c r="J406" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="C407" s="54" t="s">
+        <v>872</v>
+      </c>
+      <c r="E407" s="54" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="354" spans="3:15">
-      <c r="C354" t="s">
-        <v>873</v>
-      </c>
-      <c r="E354" t="s">
-        <v>897</v>
-      </c>
-      <c r="J354" t="s">
-        <v>898</v>
-      </c>
-      <c r="O354" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="355" spans="3:15">
-      <c r="C355" s="54" t="s">
-        <v>875</v>
-      </c>
-      <c r="D355" s="54"/>
-      <c r="E355" s="54" t="s">
-        <v>899</v>
-      </c>
-      <c r="F355" s="54"/>
-      <c r="G355" s="54"/>
-      <c r="H355" s="54"/>
-      <c r="I355" s="53"/>
-    </row>
-    <row r="358" spans="3:15">
-      <c r="E358" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="360" spans="3:15">
-      <c r="C360" t="s">
-        <v>864</v>
-      </c>
-      <c r="E360" t="s">
-        <v>901</v>
-      </c>
-      <c r="K360" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="361" spans="3:15">
-      <c r="C361" t="s">
-        <v>866</v>
-      </c>
-      <c r="E361" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="362" spans="3:15">
-      <c r="C362" t="s">
-        <v>867</v>
-      </c>
-      <c r="E362" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="363" spans="3:15">
-      <c r="C363" t="s">
-        <v>868</v>
-      </c>
-      <c r="E363" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="364" spans="3:15">
-      <c r="C364" t="s">
-        <v>891</v>
-      </c>
-      <c r="E364" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="365" spans="3:15">
-      <c r="C365" t="s">
-        <v>893</v>
-      </c>
-      <c r="E365" t="s">
-        <v>907</v>
-      </c>
-      <c r="J365" t="s">
+    <row r="411" spans="1:10">
+      <c r="A411" s="36" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10">
+      <c r="B413" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="366" spans="3:15">
-      <c r="C366" t="s">
-        <v>873</v>
-      </c>
-      <c r="E366" t="s">
-        <v>908</v>
-      </c>
-      <c r="J366" t="s">
+    <row r="415" spans="1:10">
+      <c r="B415" t="s">
+        <v>471</v>
+      </c>
+      <c r="C415" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="367" spans="3:15">
-      <c r="C367" s="54" t="s">
-        <v>875</v>
-      </c>
-      <c r="E367" s="54" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="A371" s="36" t="s">
+    <row r="416" spans="1:10">
+      <c r="C416" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="373" spans="1:8">
-      <c r="B373" t="s">
+      <c r="H416" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="C417" t="s">
+        <v>919</v>
+      </c>
+      <c r="H417" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="A418" s="36" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
-      <c r="B375" t="s">
-        <v>471</v>
-      </c>
-      <c r="C375" t="s">
+    <row r="419" spans="1:8">
+      <c r="B419" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
-      <c r="C376" t="s">
+    <row r="421" spans="1:8">
+      <c r="B421" t="s">
+        <v>392</v>
+      </c>
+      <c r="C421" t="s">
         <v>914</v>
       </c>
-      <c r="H376" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
-      <c r="C377" t="s">
+    </row>
+    <row r="422" spans="1:8">
+      <c r="C422" t="s">
+        <v>915</v>
+      </c>
+      <c r="H422" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="C423" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="B426" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="C428" t="s">
         <v>922</v>
       </c>
-      <c r="H377" t="s">
+    </row>
+    <row r="429" spans="1:8">
+      <c r="C429" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
-      <c r="A378" s="36" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="B379" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
-      <c r="B381" t="s">
-        <v>392</v>
-      </c>
-      <c r="C381" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
-      <c r="C382" t="s">
-        <v>918</v>
-      </c>
-      <c r="H382" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
-      <c r="C383" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="386" spans="2:8">
-      <c r="B386" t="s">
+    <row r="430" spans="1:8">
+      <c r="C430" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="388" spans="2:8">
-      <c r="C388" t="s">
+      <c r="H430" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="389" spans="2:8">
-      <c r="C389" t="s">
+    <row r="432" spans="1:8">
+      <c r="B432" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="390" spans="2:8">
-      <c r="C390" t="s">
+    <row r="435" spans="1:9">
+      <c r="C435" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="H390" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="392" spans="2:8">
-      <c r="B392" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="395" spans="2:8">
-      <c r="C395" s="23" t="s">
-        <v>930</v>
-      </c>
-      <c r="D395" s="18"/>
-      <c r="E395" s="18"/>
-      <c r="F395" s="18"/>
-      <c r="G395" s="18"/>
-    </row>
-    <row r="396" spans="2:8">
-      <c r="C396" s="23" t="s">
-        <v>931</v>
-      </c>
-      <c r="D396" s="18"/>
-      <c r="E396" s="18"/>
-      <c r="F396" s="18"/>
-      <c r="G396" s="18"/>
-    </row>
-    <row r="397" spans="2:8">
-      <c r="C397" s="23" t="s">
-        <v>932</v>
-      </c>
-      <c r="D397" s="18"/>
-      <c r="E397" s="18"/>
-      <c r="F397" s="18"/>
-      <c r="G397" s="18"/>
-    </row>
-    <row r="398" spans="2:8">
-      <c r="C398" s="23" t="s">
-        <v>933</v>
-      </c>
-      <c r="D398" s="18"/>
-      <c r="E398" s="18"/>
-      <c r="F398" s="18"/>
-      <c r="G398" s="18"/>
-      <c r="H398" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="399" spans="2:8">
-      <c r="C399" s="23" t="s">
-        <v>934</v>
-      </c>
-      <c r="D399" s="18"/>
-      <c r="E399" s="18"/>
-      <c r="F399" s="18"/>
-      <c r="G399" s="18"/>
-      <c r="H399" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11">
-      <c r="A402" s="36" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11">
-      <c r="B404" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11">
-      <c r="C407" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="D407" s="18"/>
-      <c r="E407" s="18"/>
-      <c r="F407" s="18"/>
-      <c r="G407" s="18"/>
-      <c r="H407" s="18"/>
-      <c r="I407" s="18"/>
-    </row>
-    <row r="408" spans="1:11">
-      <c r="C408" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="D408" s="18"/>
-      <c r="E408" s="18"/>
-      <c r="F408" s="18"/>
-      <c r="G408" s="18"/>
-      <c r="H408" s="18"/>
-      <c r="I408" s="18"/>
-    </row>
-    <row r="409" spans="1:11">
-      <c r="C409" s="22" t="s">
-        <v>941</v>
-      </c>
-      <c r="D409" s="18"/>
-      <c r="E409" s="18"/>
-      <c r="F409" s="18"/>
-      <c r="G409" s="18"/>
-      <c r="H409" s="18"/>
-      <c r="I409" s="18"/>
-    </row>
-    <row r="410" spans="1:11">
-      <c r="C410" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="D410" s="18"/>
-      <c r="E410" s="18"/>
-      <c r="F410" s="18"/>
-      <c r="G410" s="18"/>
-      <c r="H410" s="18"/>
-      <c r="I410" s="18"/>
-      <c r="K410" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11">
-      <c r="C411" s="22" t="s">
-        <v>943</v>
-      </c>
-      <c r="D411" s="18"/>
-      <c r="E411" s="18"/>
-      <c r="F411" s="18"/>
-      <c r="G411" s="18"/>
-      <c r="H411" s="18"/>
-      <c r="I411" s="18"/>
-      <c r="K411" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11">
-      <c r="C412" s="23"/>
-      <c r="D412" s="18"/>
-      <c r="E412" s="18"/>
-      <c r="F412" s="18"/>
-      <c r="G412" s="18"/>
-      <c r="H412" s="18"/>
-      <c r="I412" s="18"/>
-    </row>
-    <row r="413" spans="1:11">
-      <c r="C413" s="22" t="s">
-        <v>944</v>
-      </c>
-      <c r="D413" s="18"/>
-      <c r="E413" s="18"/>
-      <c r="F413" s="18"/>
-      <c r="G413" s="18"/>
-      <c r="H413" s="18"/>
-      <c r="I413" s="18"/>
-      <c r="K413" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11">
-      <c r="C414" s="22" t="s">
-        <v>945</v>
-      </c>
-      <c r="D414" s="18"/>
-      <c r="E414" s="18"/>
-      <c r="F414" s="18"/>
-      <c r="G414" s="18"/>
-      <c r="H414" s="18"/>
-      <c r="I414" s="18"/>
-      <c r="K414" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11">
-      <c r="C415" s="23"/>
-      <c r="D415" s="18"/>
-      <c r="E415" s="18"/>
-      <c r="F415" s="18"/>
-      <c r="G415" s="18"/>
-      <c r="H415" s="18"/>
-      <c r="I415" s="18"/>
-    </row>
-    <row r="416" spans="1:11">
-      <c r="C416" s="22" t="s">
-        <v>946</v>
-      </c>
-      <c r="D416" s="18"/>
-      <c r="E416" s="18"/>
-      <c r="F416" s="18"/>
-      <c r="G416" s="18"/>
-      <c r="H416" s="18"/>
-      <c r="I416" s="18"/>
-      <c r="K416" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="417" spans="2:11">
-      <c r="C417" s="22" t="s">
-        <v>947</v>
-      </c>
-      <c r="D417" s="18"/>
-      <c r="E417" s="18"/>
-      <c r="F417" s="18"/>
-      <c r="G417" s="18"/>
-      <c r="H417" s="18"/>
-      <c r="I417" s="18"/>
-      <c r="K417" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="421" spans="2:11">
-      <c r="B421" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="422" spans="2:11">
-      <c r="C422" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="D422" s="36"/>
-      <c r="E422" s="36"/>
-      <c r="F422" s="36"/>
-      <c r="G422" s="36"/>
-      <c r="H422" s="36"/>
-    </row>
-    <row r="423" spans="2:11">
-      <c r="C423" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="D423" s="36"/>
-      <c r="E423" s="36"/>
-      <c r="F423" s="36"/>
-      <c r="G423" s="36"/>
-      <c r="H423" s="36"/>
-    </row>
-    <row r="425" spans="2:11">
-      <c r="C425" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="427" spans="2:11">
-      <c r="D427" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="E427" s="18"/>
-      <c r="F427" s="18"/>
-      <c r="G427" s="18"/>
-      <c r="H427" s="18"/>
-      <c r="I427" s="18"/>
-    </row>
-    <row r="428" spans="2:11">
-      <c r="D428" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="E428" s="18"/>
-      <c r="F428" s="18"/>
-      <c r="G428" s="18"/>
-      <c r="H428" s="18"/>
-      <c r="I428" s="18"/>
-    </row>
-    <row r="429" spans="2:11">
-      <c r="D429" s="22" t="s">
-        <v>960</v>
-      </c>
-      <c r="E429" s="18"/>
-      <c r="F429" s="18"/>
-      <c r="G429" s="18"/>
-      <c r="H429" s="18"/>
-      <c r="I429" s="18"/>
-      <c r="J429" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="430" spans="2:11">
-      <c r="D430" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="E430" s="18"/>
-      <c r="F430" s="18"/>
-      <c r="G430" s="18"/>
-      <c r="H430" s="18"/>
-      <c r="I430" s="18"/>
-      <c r="J430" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="431" spans="2:11">
-      <c r="D431" s="23"/>
-      <c r="E431" s="18"/>
-      <c r="F431" s="18"/>
-      <c r="G431" s="18"/>
-      <c r="H431" s="18"/>
-      <c r="I431" s="18"/>
-    </row>
-    <row r="432" spans="2:11">
-      <c r="D432" s="22" t="s">
-        <v>961</v>
-      </c>
-      <c r="E432" s="18"/>
-      <c r="F432" s="18"/>
-      <c r="G432" s="18"/>
-      <c r="H432" s="18"/>
-      <c r="I432" s="18"/>
-    </row>
-    <row r="433" spans="1:12">
-      <c r="D433" s="22" t="s">
-        <v>962</v>
-      </c>
-      <c r="E433" s="18"/>
-      <c r="F433" s="18"/>
-      <c r="G433" s="18"/>
-      <c r="H433" s="18"/>
-      <c r="I433" s="18"/>
-    </row>
-    <row r="434" spans="1:12">
-      <c r="D434" s="23"/>
-      <c r="E434" s="18"/>
-      <c r="F434" s="18"/>
-      <c r="G434" s="18"/>
-      <c r="H434" s="18"/>
-      <c r="I434" s="18"/>
-    </row>
-    <row r="435" spans="1:12">
-      <c r="D435" s="22" t="s">
-        <v>850</v>
-      </c>
+      <c r="D435" s="18"/>
       <c r="E435" s="18"/>
       <c r="F435" s="18"/>
       <c r="G435" s="18"/>
-      <c r="H435" s="18"/>
-      <c r="I435" s="18"/>
-      <c r="J435" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12">
-      <c r="D436" s="23"/>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="C436" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="D436" s="18"/>
       <c r="E436" s="18"/>
       <c r="F436" s="18"/>
       <c r="G436" s="18"/>
-      <c r="H436" s="18"/>
-      <c r="I436" s="18"/>
-    </row>
-    <row r="437" spans="1:12">
-      <c r="D437" s="22" t="s">
-        <v>963</v>
-      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="C437" s="23" t="s">
+        <v>929</v>
+      </c>
+      <c r="D437" s="18"/>
       <c r="E437" s="18"/>
       <c r="F437" s="18"/>
       <c r="G437" s="18"/>
-      <c r="H437" s="18"/>
-      <c r="I437" s="18"/>
-      <c r="J437" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12">
-      <c r="D438" s="22" t="s">
-        <v>964</v>
-      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="C438" s="23" t="s">
+        <v>930</v>
+      </c>
+      <c r="D438" s="18"/>
       <c r="E438" s="18"/>
       <c r="F438" s="18"/>
       <c r="G438" s="18"/>
-      <c r="H438" s="18"/>
-      <c r="I438" s="18"/>
-      <c r="J438" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12">
+      <c r="H438" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="C439" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="D439" s="18"/>
+      <c r="E439" s="18"/>
+      <c r="F439" s="18"/>
+      <c r="G439" s="18"/>
+      <c r="H439" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
       <c r="A442" s="36" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
       <c r="B444" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12">
-      <c r="C445" t="s">
-        <v>969</v>
-      </c>
-      <c r="E445" t="s">
-        <v>970</v>
-      </c>
-      <c r="J445" t="s">
-        <v>982</v>
-      </c>
-      <c r="L445" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="446" spans="1:12">
-      <c r="E446" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12">
-      <c r="E448" t="s">
-        <v>971</v>
-      </c>
-      <c r="G448" s="56" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="450" spans="2:12">
-      <c r="C450" t="s">
-        <v>973</v>
-      </c>
-      <c r="E450" t="s">
-        <v>974</v>
-      </c>
-      <c r="J450" t="s">
-        <v>984</v>
-      </c>
-      <c r="L450" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="451" spans="2:12">
-      <c r="E451" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="453" spans="2:12">
-      <c r="E453" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="455" spans="2:12">
-      <c r="C455" t="s">
-        <v>977</v>
-      </c>
-      <c r="E455" t="s">
-        <v>978</v>
-      </c>
-      <c r="J455" t="s">
-        <v>986</v>
-      </c>
-      <c r="L455" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="456" spans="2:12">
-      <c r="E456" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="458" spans="2:12">
-      <c r="E458" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="460" spans="2:12">
-      <c r="C460" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="463" spans="2:12">
-      <c r="B463" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="465" spans="2:10">
-      <c r="C465" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="D465" s="18"/>
-      <c r="E465" s="18"/>
-      <c r="F465" s="18"/>
-      <c r="G465" s="18"/>
-      <c r="H465" s="18"/>
-      <c r="I465" s="18"/>
-      <c r="J465" s="18"/>
-    </row>
-    <row r="466" spans="2:10">
-      <c r="C466" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="D466" s="18"/>
-      <c r="E466" s="18"/>
-      <c r="F466" s="18"/>
-      <c r="G466" s="18"/>
-      <c r="H466" s="18"/>
-      <c r="I466" s="18"/>
-      <c r="J466" s="18"/>
-    </row>
-    <row r="467" spans="2:10">
-      <c r="C467" s="18"/>
-      <c r="D467" s="18"/>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="C447" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="D447" s="18"/>
+      <c r="E447" s="18"/>
+      <c r="F447" s="18"/>
+      <c r="G447" s="18"/>
+      <c r="H447" s="18"/>
+      <c r="I447" s="18"/>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="C448" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="D448" s="18"/>
+      <c r="E448" s="18"/>
+      <c r="F448" s="18"/>
+      <c r="G448" s="18"/>
+      <c r="H448" s="18"/>
+      <c r="I448" s="18"/>
+    </row>
+    <row r="449" spans="2:11">
+      <c r="C449" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="D449" s="18"/>
+      <c r="E449" s="18"/>
+      <c r="F449" s="18"/>
+      <c r="G449" s="18"/>
+      <c r="H449" s="18"/>
+      <c r="I449" s="18"/>
+    </row>
+    <row r="450" spans="2:11">
+      <c r="C450" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="D450" s="18"/>
+      <c r="E450" s="18"/>
+      <c r="F450" s="18"/>
+      <c r="G450" s="18"/>
+      <c r="H450" s="18"/>
+      <c r="I450" s="18"/>
+      <c r="K450" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="451" spans="2:11">
+      <c r="C451" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="D451" s="18"/>
+      <c r="E451" s="18"/>
+      <c r="F451" s="18"/>
+      <c r="G451" s="18"/>
+      <c r="H451" s="18"/>
+      <c r="I451" s="18"/>
+      <c r="K451" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="452" spans="2:11">
+      <c r="C452" s="23"/>
+      <c r="D452" s="18"/>
+      <c r="E452" s="18"/>
+      <c r="F452" s="18"/>
+      <c r="G452" s="18"/>
+      <c r="H452" s="18"/>
+      <c r="I452" s="18"/>
+    </row>
+    <row r="453" spans="2:11">
+      <c r="C453" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="D453" s="18"/>
+      <c r="E453" s="18"/>
+      <c r="F453" s="18"/>
+      <c r="G453" s="18"/>
+      <c r="H453" s="18"/>
+      <c r="I453" s="18"/>
+      <c r="K453" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="454" spans="2:11">
+      <c r="C454" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="D454" s="18"/>
+      <c r="E454" s="18"/>
+      <c r="F454" s="18"/>
+      <c r="G454" s="18"/>
+      <c r="H454" s="18"/>
+      <c r="I454" s="18"/>
+      <c r="K454" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="455" spans="2:11">
+      <c r="C455" s="23"/>
+      <c r="D455" s="18"/>
+      <c r="E455" s="18"/>
+      <c r="F455" s="18"/>
+      <c r="G455" s="18"/>
+      <c r="H455" s="18"/>
+      <c r="I455" s="18"/>
+    </row>
+    <row r="456" spans="2:11">
+      <c r="C456" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="D456" s="18"/>
+      <c r="E456" s="18"/>
+      <c r="F456" s="18"/>
+      <c r="G456" s="18"/>
+      <c r="H456" s="18"/>
+      <c r="I456" s="18"/>
+      <c r="K456" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="457" spans="2:11">
+      <c r="C457" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="D457" s="18"/>
+      <c r="E457" s="18"/>
+      <c r="F457" s="18"/>
+      <c r="G457" s="18"/>
+      <c r="H457" s="18"/>
+      <c r="I457" s="18"/>
+      <c r="K457" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="461" spans="2:11">
+      <c r="B461" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="462" spans="2:11">
+      <c r="C462" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="D462" s="36"/>
+      <c r="E462" s="36"/>
+      <c r="F462" s="36"/>
+      <c r="G462" s="36"/>
+      <c r="H462" s="36"/>
+    </row>
+    <row r="463" spans="2:11">
+      <c r="C463" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D463" s="36"/>
+      <c r="E463" s="36"/>
+      <c r="F463" s="36"/>
+      <c r="G463" s="36"/>
+      <c r="H463" s="36"/>
+    </row>
+    <row r="465" spans="3:10">
+      <c r="C465" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="467" spans="3:10">
+      <c r="D467" s="22" t="s">
+        <v>955</v>
+      </c>
       <c r="E467" s="18"/>
       <c r="F467" s="18"/>
       <c r="G467" s="18"/>
       <c r="H467" s="18"/>
       <c r="I467" s="18"/>
-      <c r="J467" s="18"/>
-    </row>
-    <row r="468" spans="2:10">
-      <c r="C468" s="18" t="s">
-        <v>991</v>
-      </c>
-      <c r="D468" s="18"/>
+    </row>
+    <row r="468" spans="3:10">
+      <c r="D468" s="22" t="s">
+        <v>956</v>
+      </c>
       <c r="E468" s="18"/>
       <c r="F468" s="18"/>
       <c r="G468" s="18"/>
       <c r="H468" s="18"/>
       <c r="I468" s="18"/>
-      <c r="J468" s="18"/>
-    </row>
-    <row r="469" spans="2:10">
-      <c r="C469" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="D469" s="18"/>
+    </row>
+    <row r="469" spans="3:10">
+      <c r="D469" s="22" t="s">
+        <v>957</v>
+      </c>
       <c r="E469" s="18"/>
       <c r="F469" s="18"/>
       <c r="G469" s="18"/>
       <c r="H469" s="18"/>
       <c r="I469" s="18"/>
-      <c r="J469" s="18"/>
-    </row>
-    <row r="470" spans="2:10">
-      <c r="C470" s="18" t="s">
-        <v>993</v>
-      </c>
-      <c r="D470" s="18"/>
+      <c r="J469" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="470" spans="3:10">
+      <c r="D470" s="22" t="s">
+        <v>847</v>
+      </c>
       <c r="E470" s="18"/>
       <c r="F470" s="18"/>
       <c r="G470" s="18"/>
       <c r="H470" s="18"/>
       <c r="I470" s="18"/>
-      <c r="J470" s="18"/>
-    </row>
-    <row r="471" spans="2:10">
-      <c r="C471" s="18"/>
-      <c r="D471" s="18"/>
+      <c r="J470" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="471" spans="3:10">
+      <c r="D471" s="23"/>
       <c r="E471" s="18"/>
       <c r="F471" s="18"/>
       <c r="G471" s="18"/>
       <c r="H471" s="18"/>
       <c r="I471" s="18"/>
-      <c r="J471" s="18"/>
-    </row>
-    <row r="472" spans="2:10">
-      <c r="C472" s="52" t="s">
-        <v>996</v>
-      </c>
-      <c r="D472" s="18"/>
+    </row>
+    <row r="472" spans="3:10">
+      <c r="D472" s="22" t="s">
+        <v>958</v>
+      </c>
       <c r="E472" s="18"/>
       <c r="F472" s="18"/>
       <c r="G472" s="18"/>
       <c r="H472" s="18"/>
       <c r="I472" s="18"/>
-      <c r="J472" s="18"/>
-    </row>
-    <row r="473" spans="2:10">
-      <c r="C473" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="D473" s="18"/>
+    </row>
+    <row r="473" spans="3:10">
+      <c r="D473" s="22" t="s">
+        <v>959</v>
+      </c>
       <c r="E473" s="18"/>
       <c r="F473" s="18"/>
       <c r="G473" s="18"/>
       <c r="H473" s="18"/>
       <c r="I473" s="18"/>
-      <c r="J473" s="18"/>
-    </row>
-    <row r="476" spans="2:10">
-      <c r="B476" t="s">
+    </row>
+    <row r="474" spans="3:10">
+      <c r="D474" s="23"/>
+      <c r="E474" s="18"/>
+      <c r="F474" s="18"/>
+      <c r="G474" s="18"/>
+      <c r="H474" s="18"/>
+      <c r="I474" s="18"/>
+    </row>
+    <row r="475" spans="3:10">
+      <c r="D475" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E475" s="18"/>
+      <c r="F475" s="18"/>
+      <c r="G475" s="18"/>
+      <c r="H475" s="18"/>
+      <c r="I475" s="18"/>
+      <c r="J475" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="476" spans="3:10">
+      <c r="D476" s="23"/>
+      <c r="E476" s="18"/>
+      <c r="F476" s="18"/>
+      <c r="G476" s="18"/>
+      <c r="H476" s="18"/>
+      <c r="I476" s="18"/>
+    </row>
+    <row r="477" spans="3:10">
+      <c r="D477" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="E477" s="18"/>
+      <c r="F477" s="18"/>
+      <c r="G477" s="18"/>
+      <c r="H477" s="18"/>
+      <c r="I477" s="18"/>
+      <c r="J477" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="478" spans="3:10">
+      <c r="D478" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="E478" s="18"/>
+      <c r="F478" s="18"/>
+      <c r="G478" s="18"/>
+      <c r="H478" s="18"/>
+      <c r="I478" s="18"/>
+      <c r="J478" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="36" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="B484" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="C485" t="s">
+        <v>966</v>
+      </c>
+      <c r="E485" t="s">
+        <v>967</v>
+      </c>
+      <c r="J485" t="s">
+        <v>979</v>
+      </c>
+      <c r="L485" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="E486" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="E488" t="s">
+        <v>968</v>
+      </c>
+      <c r="G488" s="56" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="C490" t="s">
+        <v>970</v>
+      </c>
+      <c r="E490" t="s">
+        <v>971</v>
+      </c>
+      <c r="J490" t="s">
+        <v>981</v>
+      </c>
+      <c r="L490" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="E491" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="E493" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
+      <c r="C495" t="s">
+        <v>974</v>
+      </c>
+      <c r="E495" t="s">
+        <v>975</v>
+      </c>
+      <c r="J495" t="s">
+        <v>983</v>
+      </c>
+      <c r="L495" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12">
+      <c r="E496" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="498" spans="2:10">
+      <c r="E498" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="500" spans="2:10">
+      <c r="C500" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="503" spans="2:10">
+      <c r="B503" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="505" spans="2:10">
+      <c r="C505" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="D505" s="18"/>
+      <c r="E505" s="18"/>
+      <c r="F505" s="18"/>
+      <c r="G505" s="18"/>
+      <c r="H505" s="18"/>
+      <c r="I505" s="18"/>
+      <c r="J505" s="18"/>
+    </row>
+    <row r="506" spans="2:10">
+      <c r="C506" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="D506" s="18"/>
+      <c r="E506" s="18"/>
+      <c r="F506" s="18"/>
+      <c r="G506" s="18"/>
+      <c r="H506" s="18"/>
+      <c r="I506" s="18"/>
+      <c r="J506" s="18"/>
+    </row>
+    <row r="507" spans="2:10">
+      <c r="C507" s="18"/>
+      <c r="D507" s="18"/>
+      <c r="E507" s="18"/>
+      <c r="F507" s="18"/>
+      <c r="G507" s="18"/>
+      <c r="H507" s="18"/>
+      <c r="I507" s="18"/>
+      <c r="J507" s="18"/>
+    </row>
+    <row r="508" spans="2:10">
+      <c r="C508" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="D508" s="18"/>
+      <c r="E508" s="18"/>
+      <c r="F508" s="18"/>
+      <c r="G508" s="18"/>
+      <c r="H508" s="18"/>
+      <c r="I508" s="18"/>
+      <c r="J508" s="18"/>
+    </row>
+    <row r="509" spans="2:10">
+      <c r="C509" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="D509" s="18"/>
+      <c r="E509" s="18"/>
+      <c r="F509" s="18"/>
+      <c r="G509" s="18"/>
+      <c r="H509" s="18"/>
+      <c r="I509" s="18"/>
+      <c r="J509" s="18"/>
+    </row>
+    <row r="510" spans="2:10">
+      <c r="C510" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="D510" s="18"/>
+      <c r="E510" s="18"/>
+      <c r="F510" s="18"/>
+      <c r="G510" s="18"/>
+      <c r="H510" s="18"/>
+      <c r="I510" s="18"/>
+      <c r="J510" s="18"/>
+    </row>
+    <row r="511" spans="2:10">
+      <c r="C511" s="18"/>
+      <c r="D511" s="18"/>
+      <c r="E511" s="18"/>
+      <c r="F511" s="18"/>
+      <c r="G511" s="18"/>
+      <c r="H511" s="18"/>
+      <c r="I511" s="18"/>
+      <c r="J511" s="18"/>
+    </row>
+    <row r="512" spans="2:10">
+      <c r="C512" s="52" t="s">
+        <v>993</v>
+      </c>
+      <c r="D512" s="18"/>
+      <c r="E512" s="18"/>
+      <c r="F512" s="18"/>
+      <c r="G512" s="18"/>
+      <c r="H512" s="18"/>
+      <c r="I512" s="18"/>
+      <c r="J512" s="18"/>
+    </row>
+    <row r="513" spans="2:10">
+      <c r="C513" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D513" s="18"/>
+      <c r="E513" s="18"/>
+      <c r="F513" s="18"/>
+      <c r="G513" s="18"/>
+      <c r="H513" s="18"/>
+      <c r="I513" s="18"/>
+      <c r="J513" s="18"/>
+    </row>
+    <row r="516" spans="2:10">
+      <c r="B516" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="518" spans="2:10">
+      <c r="C518" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="520" spans="2:10">
+      <c r="D520" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="E520" s="18"/>
+      <c r="F520" s="18"/>
+      <c r="G520" s="18"/>
+      <c r="H520" s="18"/>
+      <c r="I520" s="18"/>
+      <c r="J520" s="18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="521" spans="2:10">
+      <c r="D521" s="22" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="478" spans="2:10">
-      <c r="C478" t="s">
+      <c r="E521" s="18"/>
+      <c r="F521" s="18"/>
+      <c r="G521" s="18"/>
+      <c r="H521" s="18"/>
+      <c r="I521" s="18"/>
+      <c r="J521" s="18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="522" spans="2:10">
+      <c r="D522" s="22" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="480" spans="2:10">
-      <c r="D480" s="22" t="s">
+      <c r="E522" s="18"/>
+      <c r="F522" s="18"/>
+      <c r="G522" s="18"/>
+      <c r="H522" s="18"/>
+      <c r="I522" s="18"/>
+      <c r="J522" s="18" t="s">
         <v>1000</v>
       </c>
-      <c r="E480" s="18"/>
-      <c r="F480" s="18"/>
-      <c r="G480" s="18"/>
-      <c r="H480" s="18"/>
-      <c r="I480" s="18"/>
-      <c r="J480" s="18" t="s">
+    </row>
+    <row r="523" spans="2:10">
+      <c r="D523" s="55"/>
+    </row>
+    <row r="525" spans="2:10">
+      <c r="C525" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="527" spans="2:10">
+      <c r="D527" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J527" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
-      <c r="D481" s="22" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E481" s="18"/>
-      <c r="F481" s="18"/>
-      <c r="G481" s="18"/>
-      <c r="H481" s="18"/>
-      <c r="I481" s="18"/>
-      <c r="J481" s="18" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="482" spans="1:10">
-      <c r="D482" s="22" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E482" s="18"/>
-      <c r="F482" s="18"/>
-      <c r="G482" s="18"/>
-      <c r="H482" s="18"/>
-      <c r="I482" s="18"/>
-      <c r="J482" s="18" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="483" spans="1:10">
-      <c r="D483" s="55"/>
-    </row>
-    <row r="485" spans="1:10">
-      <c r="C485" t="s">
+    <row r="529" spans="1:5">
+      <c r="A529" s="36" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
-      <c r="D487" t="s">
+    <row r="531" spans="1:5">
+      <c r="B531" t="s">
         <v>1005</v>
       </c>
-      <c r="J487" t="s">
+      <c r="C531" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="489" spans="1:10">
-      <c r="A489" s="36" t="s">
+      <c r="E531" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="491" spans="1:10">
-      <c r="B491" t="s">
+    <row r="532" spans="1:5">
+      <c r="E532" t="s">
         <v>1008</v>
       </c>
-      <c r="C491" t="s">
+    </row>
+    <row r="534" spans="1:5">
+      <c r="C534" t="s">
+        <v>970</v>
+      </c>
+      <c r="E534" t="s">
         <v>1009</v>
       </c>
-      <c r="E491" t="s">
+    </row>
+    <row r="535" spans="1:5">
+      <c r="E535" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
-      <c r="E492" t="s">
+    <row r="537" spans="1:5">
+      <c r="C537" t="s">
+        <v>974</v>
+      </c>
+      <c r="E537" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
-      <c r="C494" t="s">
-        <v>973</v>
-      </c>
-      <c r="E494" t="s">
+    <row r="540" spans="1:5">
+      <c r="B540" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="C541" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="D543" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="D545" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="36" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="495" spans="1:10">
-      <c r="E495" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
-      <c r="C497" t="s">
-        <v>977</v>
-      </c>
-      <c r="E497" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
-      <c r="B500" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
-      <c r="C501" t="s">
+    <row r="551" spans="1:8">
+      <c r="B551" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
-      <c r="D503" t="s">
+    <row r="553" spans="1:8">
+      <c r="C553" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="D505" t="s">
+      <c r="H553" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="C554" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="509" spans="1:5">
-      <c r="A509" s="36" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
-      <c r="B511" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="513" spans="2:8">
-      <c r="C513" t="s">
+      <c r="H554" t="s">
         <v>1021</v>
       </c>
-      <c r="H513" t="s">
+    </row>
+    <row r="555" spans="1:8">
+      <c r="C555" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="C556" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="514" spans="2:8">
-      <c r="C514" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H514" t="s">
+    <row r="557" spans="1:8">
+      <c r="C557" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="515" spans="2:8">
-      <c r="C515" t="s">
+    <row r="559" spans="1:8">
+      <c r="B559" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="516" spans="2:8">
-      <c r="C516" t="s">
+    <row r="561" spans="1:6">
+      <c r="C561" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="517" spans="2:8">
-      <c r="C517" t="s">
+      <c r="F561" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="519" spans="2:8">
-      <c r="B519" t="s">
+    <row r="563" spans="1:6">
+      <c r="C563" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="521" spans="2:8">
-      <c r="C521" t="s">
+    <row r="565" spans="1:6">
+      <c r="D565" t="s">
         <v>1029</v>
       </c>
-      <c r="F521" t="s">
+    </row>
+    <row r="566" spans="1:6">
+      <c r="D566" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="523" spans="2:8">
-      <c r="C523" t="s">
+    <row r="567" spans="1:6">
+      <c r="D567" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="525" spans="2:8">
-      <c r="D525" t="s">
+    <row r="568" spans="1:6">
+      <c r="D568" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="526" spans="2:8">
-      <c r="D526" t="s">
+    <row r="569" spans="1:6">
+      <c r="D569" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="527" spans="2:8">
-      <c r="D527" t="s">
+    <row r="570" spans="1:6">
+      <c r="D570" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="528" spans="2:8">
-      <c r="D528" t="s">
+    <row r="571" spans="1:6">
+      <c r="D571" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="529" spans="1:12">
-      <c r="D529" t="s">
+    <row r="572" spans="1:6">
+      <c r="D572" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="530" spans="1:12">
-      <c r="D530" t="s">
+    <row r="574" spans="1:6">
+      <c r="A574" s="36" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="531" spans="1:12">
-      <c r="D531" t="s">
+    <row r="576" spans="1:6">
+      <c r="B576" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="532" spans="1:12">
-      <c r="D532" t="s">
+    <row r="578" spans="3:12">
+      <c r="C578" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="534" spans="1:12">
-      <c r="A534" s="36" t="s">
+    <row r="579" spans="3:12">
+      <c r="C579" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="580" spans="3:12">
+      <c r="C580" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="582" spans="3:12">
+      <c r="C582" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="536" spans="1:12">
-      <c r="B536" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="538" spans="1:12">
-      <c r="C538" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="539" spans="1:12">
-      <c r="C539" t="s">
+    <row r="583" spans="3:12">
+      <c r="C583" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L583" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="584" spans="3:12">
+      <c r="C584" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L584" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="585" spans="3:12">
+      <c r="C585" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L585" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="540" spans="1:12">
-      <c r="C540" t="s">
+    <row r="586" spans="3:12">
+      <c r="L586" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="542" spans="1:12">
-      <c r="C542" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="543" spans="1:12">
-      <c r="C543" t="s">
+    <row r="587" spans="3:12">
+      <c r="C587" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="588" spans="3:12">
+      <c r="C588" t="s">
         <v>1049</v>
       </c>
-      <c r="L543" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="544" spans="1:12">
-      <c r="C544" t="s">
+    </row>
+    <row r="589" spans="3:12">
+      <c r="C589" t="s">
         <v>1050</v>
       </c>
-      <c r="L544" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="545" spans="2:12">
-      <c r="C545" t="s">
+    </row>
+    <row r="590" spans="3:12">
+      <c r="C590" t="s">
         <v>1051</v>
       </c>
-      <c r="L545" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="546" spans="2:12">
-      <c r="L546" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="547" spans="2:12">
-      <c r="C547" t="s">
+      <c r="H590" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6">
+      <c r="B593" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6">
+      <c r="C595" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="548" spans="2:12">
-      <c r="C548" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="549" spans="2:12">
-      <c r="C549" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="550" spans="2:12">
-      <c r="C550" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H550" t="s">
+    <row r="596" spans="1:6">
+      <c r="C596" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="553" spans="2:12">
-      <c r="B553" t="s">
+    <row r="597" spans="1:6">
+      <c r="C597" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="555" spans="2:12">
-      <c r="C555" t="s">
+      <c r="F597" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6">
+      <c r="C598" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="556" spans="2:12">
-      <c r="C556" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="557" spans="2:12">
-      <c r="C557" t="s">
+    <row r="601" spans="1:6">
+      <c r="A601" s="36" t="s">
         <v>1060</v>
       </c>
-      <c r="F557" t="s">
+    </row>
+    <row r="603" spans="1:6">
+      <c r="B603" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6">
+      <c r="C605" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="558" spans="2:12">
-      <c r="C558" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
-      <c r="A561" s="36" t="s">
+    <row r="606" spans="1:6">
+      <c r="C606" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
-      <c r="B563" t="s">
+    <row r="607" spans="1:6">
+      <c r="C607" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
-      <c r="C565" t="s">
+    <row r="608" spans="1:6">
+      <c r="C608" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
-      <c r="C566" t="s">
+    <row r="609" spans="3:3">
+      <c r="C609" t="s">
         <v>1066</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3">
-      <c r="C567" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3">
-      <c r="C568" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3">
-      <c r="C569" t="s">
-        <v>1069</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1252">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -3502,9 +3502,6 @@
     <t>Các loại datetime dùng được với period</t>
   </si>
   <si>
-    <t xml:space="preserve">Như ta biết có 3 loại datetime : </t>
-  </si>
-  <si>
     <t>LocalDate, LocalTime, LocalDateTime</t>
   </si>
   <si>
@@ -3556,12 +3553,6 @@
     <t xml:space="preserve"> // 1/20/20</t>
   </si>
   <si>
-    <t>// UnsupportedTemporalTypeException</t>
-  </si>
-  <si>
-    <t>// Dòng này báo lỗi vì ko thể format time về datetime</t>
-  </si>
-  <si>
     <t>shortDateTime.format(dateTime);</t>
   </si>
   <si>
@@ -3883,9 +3874,6 @@
     <t>replace()</t>
   </si>
   <si>
-    <t>Hàm replace ở STringBuilder ngoài việc replace một chuỗi xác định</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thì cho phép thêm replace ở một vị trí bắt đầu và vị trí kết thúc </t>
   </si>
   <si>
@@ -4007,13 +3995,196 @@
   </si>
   <si>
     <t>};</t>
+  </si>
+  <si>
+    <t>// UnsupportedTemporalTypeException vì ko thể format time về datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> có 3 loại datetime : </t>
+  </si>
+  <si>
+    <t>Array Interface, Array Abstract Class, Array Object</t>
+  </si>
+  <si>
+    <t>Interface Array</t>
+  </si>
+  <si>
+    <t>Nếu type của Array là Interface thì các phần tử của mảng hoặc là null hoặc là object mà implement Interface đó</t>
+  </si>
+  <si>
+    <t>MyInterface [ ] interfaceArr = new MyInterface [ ] { new Class_1(), null , new Class_2()};</t>
+  </si>
+  <si>
+    <t>Abstract Class Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nếu type của Array là Abstract class thì các phần tử của mảng hoặc là null hoặc là class mà kế thừa abstract class</t>
+  </si>
+  <si>
+    <t>AbstractClass [] abstractArr =  {new Concrete_1() , null , new Concrete_2()}</t>
+  </si>
+  <si>
+    <t>Array Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu type là là một mảng object  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    };</t>
+  </si>
+  <si>
+    <t>interface MyInterface {}</t>
+  </si>
+  <si>
+    <t>class MyClass1 implements MyInterface {}</t>
+  </si>
+  <si>
+    <t>abstract class Vehicle{}</t>
+  </si>
+  <si>
+    <t>class Car extends Vehicle {}</t>
+  </si>
+  <si>
+    <t>class Test {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Object[] objArray = new Object[] {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            new MyClass1(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            new Car(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            new java.util.Date(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            new String("name"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            new Integer [7]</t>
+  </si>
+  <si>
+    <t>Hàm replace ở StringBuilder ngoài việc replace một chuỗi xác định</t>
+  </si>
+  <si>
+    <t>Lưu ý khi xóa phần tử khỏi List StringBuilder</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;StringBuilder&gt; myArrList = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>StringBuilder sb1 = new StringBuilder("One");</t>
+  </si>
+  <si>
+    <t>StringBuilder sb2 = new StringBuilder("Two");</t>
+  </si>
+  <si>
+    <t>StringBuilder sb3 = new StringBuilder("Three");</t>
+  </si>
+  <si>
+    <t>StringBuilder sb4 = new StringBuilder("Four");</t>
+  </si>
+  <si>
+    <t>myArrList.add(sb1);</t>
+  </si>
+  <si>
+    <t>myArrList.add(sb2);</t>
+  </si>
+  <si>
+    <t>myArrList.add(sb3);</t>
+  </si>
+  <si>
+    <t>myArrList.add(sb4);</t>
+  </si>
+  <si>
+    <t>myArrList.remove(sb3);</t>
+  </si>
+  <si>
+    <t>myArrList.remove(new StringBuilder("Four"));</t>
+  </si>
+  <si>
+    <t>Dòng này xóa sb3 Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// object sb4 và new StringBuilder("Four") có địa chỉ ref khác nhau </t>
+  </si>
+  <si>
+    <t>// Nên sẽ ko xóa khỏi mảng</t>
+  </si>
+  <si>
+    <t>// Dòng này không xóa Four vì StringBuilder() ko override lại hàm equals() của Object, Nên ở đây StringBuilder đang hiểu là 2 object bằng nhau là 2 địa chỉ ô nhớ reference bằng nhau</t>
+  </si>
+  <si>
+    <t>Ví dụ trên chứng minh là nếu ta override lại hàm equals của 1 class nào đó, thì sẽ xóa đúng obj cần xóa</t>
+  </si>
+  <si>
+    <t>class MyPerson {</t>
+  </si>
+  <si>
+    <t>public boolean equals(Object obj){</t>
+  </si>
+  <si>
+    <t>if (obj instanceof MyPerson) {</t>
+  </si>
+  <si>
+    <t>MyPerson p = (MyPerson)obj;</t>
+  </si>
+  <si>
+    <t>boolean isEqual = p.name.equals(this.name);</t>
+  </si>
+  <si>
+    <t>return isEqual;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;MyPerson&gt; myArrList = new ArrayList&lt;MyPerson&gt;();</t>
+  </si>
+  <si>
+    <t>MyPerson p1 = new MyPerson("Shreya");</t>
+  </si>
+  <si>
+    <t>MyPerson p2 = new MyPerson("Paul");</t>
+  </si>
+  <si>
+    <t>MyPerson p3 = new MyPerson("Harry");</t>
+  </si>
+  <si>
+    <t>myArrList.add(p1);</t>
+  </si>
+  <si>
+    <t>myArrList.add(p2);</t>
+  </si>
+  <si>
+    <t>myArrList.add(p3);</t>
+  </si>
+  <si>
+    <t>myArrList.remove(new MyPerson("Paul"));</t>
+  </si>
+  <si>
+    <t>Phương thức clone()</t>
+  </si>
+  <si>
+    <t>Trả về một shallow copy ( tạo một instance mới của ArrayObject )</t>
+  </si>
+  <si>
+    <t>Các phần tử tham chiếu được copy, nhưng objects của các tham chiếu ko được copy, Nghĩa là:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4299,8 +4470,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4319,6 +4496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4333,7 +4516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4439,6 +4622,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11484,17 +11671,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q609"/>
+  <dimension ref="A1:Y691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G330" sqref="G330"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B411" sqref="B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11503,7 +11690,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11512,13 +11699,13 @@
     <row r="5" spans="1:3">
       <c r="A5" s="36"/>
       <c r="C5" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="36"/>
       <c r="C6" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11527,7 +11714,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11536,13 +11723,13 @@
     <row r="10" spans="1:3">
       <c r="A10" s="36"/>
       <c r="C10" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="36"/>
       <c r="C11" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11551,19 +11738,19 @@
     <row r="13" spans="1:3">
       <c r="A13" s="36"/>
       <c r="B13" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36"/>
       <c r="C14" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="36"/>
       <c r="C15" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11572,91 +11759,91 @@
     <row r="17" spans="1:12">
       <c r="A17" s="36"/>
       <c r="B17" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="36"/>
       <c r="C18" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="36"/>
       <c r="D19" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="36"/>
       <c r="E20" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="J20" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="L20" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="36"/>
       <c r="E21" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="J21" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="L21" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="36"/>
       <c r="E22" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="J22" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="L22" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="36"/>
       <c r="E23" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="J23" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="L23" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="36"/>
       <c r="E24" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="J24" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="L24" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="36"/>
       <c r="E25" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="J25" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="L25" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -11671,7 +11858,7 @@
         <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -11701,25 +11888,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="B38" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G42" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -11922,13 +12109,13 @@
     <row r="72" spans="1:9">
       <c r="A72" s="36"/>
       <c r="B72" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="36"/>
       <c r="B73" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -11937,25 +12124,25 @@
     <row r="75" spans="1:9">
       <c r="A75" s="36"/>
       <c r="C75" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="36"/>
       <c r="C76" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="36"/>
       <c r="C77" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="36"/>
       <c r="C78" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -11964,13 +12151,13 @@
     <row r="80" spans="1:9">
       <c r="A80" s="36"/>
       <c r="C80" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="H80" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="I80" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -12097,7 +12284,7 @@
     </row>
     <row r="101" spans="2:9" ht="18.75">
       <c r="C101" s="40" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -12161,7 +12348,7 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -12180,7 +12367,7 @@
     </row>
     <row r="110" spans="2:9">
       <c r="C110" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -12200,7 +12387,7 @@
     <row r="112" spans="2:9">
       <c r="D112" s="39"/>
       <c r="E112" s="43" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
@@ -12210,7 +12397,7 @@
     <row r="113" spans="1:9">
       <c r="D113" s="39"/>
       <c r="E113" s="43" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F113" s="43"/>
       <c r="G113" s="43"/>
@@ -12227,7 +12414,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="C115" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="43"/>
@@ -12247,7 +12434,7 @@
     <row r="117" spans="1:9">
       <c r="D117" s="39"/>
       <c r="E117" s="43" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F117" s="43"/>
       <c r="G117" s="43"/>
@@ -12257,7 +12444,7 @@
     <row r="118" spans="1:9">
       <c r="D118" s="39"/>
       <c r="E118" s="43" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F118" s="43"/>
       <c r="G118" s="43"/>
@@ -12266,7 +12453,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="E119" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -12277,7 +12464,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="36"/>
       <c r="B121" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -12286,28 +12473,28 @@
     <row r="123" spans="1:9">
       <c r="A123" s="36"/>
       <c r="C123" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="H123" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="36"/>
       <c r="C124" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="36"/>
       <c r="C125" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="36"/>
       <c r="C126" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -12320,65 +12507,65 @@
     </row>
     <row r="130" spans="2:8">
       <c r="C130" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="131" spans="2:8">
       <c r="D131" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="132" spans="2:8">
       <c r="D132" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="133" spans="2:8">
       <c r="D133" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="D134" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="D135" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="D136" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="138" spans="2:8">
       <c r="C138" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="140" spans="2:8">
       <c r="D140" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="141" spans="2:8">
       <c r="D141" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="142" spans="2:8">
       <c r="D142" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H142" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="145" spans="3:9">
       <c r="C145" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="147" spans="3:9">
@@ -12388,12 +12575,12 @@
     </row>
     <row r="148" spans="3:9">
       <c r="E148" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="149" spans="3:9">
       <c r="E149" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="150" spans="3:9">
@@ -12403,35 +12590,35 @@
     </row>
     <row r="152" spans="3:9">
       <c r="D152" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="153" spans="3:9">
       <c r="E153" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="154" spans="3:9">
       <c r="E154" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="155" spans="3:9">
       <c r="E155" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="156" spans="3:9">
       <c r="E156" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="157" spans="3:9">
       <c r="E157" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="I157" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="166" spans="2:14">
@@ -12439,7 +12626,7 @@
         <v>742</v>
       </c>
       <c r="C166" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="168" spans="2:14">
@@ -12473,10 +12660,10 @@
     </row>
     <row r="174" spans="2:14">
       <c r="B174" s="39" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>1153</v>
+        <v>1215</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
@@ -12488,7 +12675,7 @@
     <row r="175" spans="2:14">
       <c r="B175" s="39"/>
       <c r="C175" s="39" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D175" s="39"/>
       <c r="E175" s="39"/>
@@ -12499,34 +12686,34 @@
     </row>
     <row r="177" spans="2:10">
       <c r="D177" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="178" spans="2:10">
       <c r="E178" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="179" spans="2:10">
       <c r="E179" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="180" spans="2:10">
       <c r="E180" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I180" s="57" t="s">
         <v>1151</v>
-      </c>
-      <c r="I180" s="57" t="s">
-        <v>1155</v>
       </c>
       <c r="J180" s="57"/>
     </row>
     <row r="181" spans="2:10">
       <c r="E181" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="I181" s="57" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="J181" s="57"/>
     </row>
@@ -12584,10 +12771,10 @@
     </row>
     <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C193" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -12676,7 +12863,7 @@
         <v>764</v>
       </c>
       <c r="G210" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="211" spans="3:8">
@@ -12689,7 +12876,7 @@
         <v>765</v>
       </c>
       <c r="G213" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="214" spans="3:8">
@@ -12697,7 +12884,7 @@
         <v>766</v>
       </c>
       <c r="G214" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="215" spans="3:8">
@@ -12705,7 +12892,7 @@
         <v>767</v>
       </c>
       <c r="G215" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="216" spans="3:8">
@@ -12739,17 +12926,17 @@
     </row>
     <row r="222" spans="3:8">
       <c r="C222" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="223" spans="3:8">
       <c r="C223" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="231" spans="2:8">
       <c r="B231" s="39" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="233" spans="2:8">
@@ -12770,41 +12957,41 @@
     </row>
     <row r="236" spans="2:8">
       <c r="C236" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H236" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="237" spans="2:8">
       <c r="C237" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="238" spans="2:8">
       <c r="C238" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="240" spans="2:8">
       <c r="C240" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="H240" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="242" spans="2:10">
       <c r="C242" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="H242" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="246" spans="2:10">
       <c r="B246" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="248" spans="2:10">
@@ -12920,7 +13107,7 @@
         <v>787</v>
       </c>
       <c r="J269" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="270" spans="3:10">
@@ -12940,72 +13127,72 @@
     </row>
     <row r="274" spans="2:6">
       <c r="C274" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="275" spans="2:6">
       <c r="D275" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="276" spans="2:6">
       <c r="D276" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="277" spans="2:6">
       <c r="D277" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="278" spans="2:6">
       <c r="D278" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="280" spans="2:6">
       <c r="B280" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="282" spans="2:6">
       <c r="D282" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="283" spans="2:6">
       <c r="F283" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="284" spans="2:6">
       <c r="F284" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="285" spans="2:6">
       <c r="F285" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="287" spans="2:6">
       <c r="D287" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="289" spans="1:17">
       <c r="F289" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="290" spans="1:17">
       <c r="F290" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="291" spans="1:17">
       <c r="F291" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="15.75" customHeight="1">
@@ -13249,27 +13436,27 @@
     </row>
     <row r="325" spans="1:10">
       <c r="C325" s="52" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="H326" s="52" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="H327" s="52" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="H328" s="52" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="G329" s="52" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13430,1298 +13617,1697 @@
         <v>855</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="36" t="s">
+    <row r="369" spans="3:25">
+      <c r="C369" s="36" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="370" spans="3:25" ht="14.25" customHeight="1"/>
+    <row r="371" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D371" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="372" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D372" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="373" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D373" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="374" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D374" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="375" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D375" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="376" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D376" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="377" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D377" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="378" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D378" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="379" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D379" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="380" spans="3:25" ht="14.25" customHeight="1"/>
+    <row r="381" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D381" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I381" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="382" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D382" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I382" s="60" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J382" s="60"/>
+      <c r="K382" s="60"/>
+      <c r="L382" s="60"/>
+      <c r="M382" s="60"/>
+      <c r="N382" s="60"/>
+      <c r="O382" s="60"/>
+      <c r="P382" s="60"/>
+      <c r="Q382" s="60"/>
+      <c r="R382" s="60"/>
+      <c r="S382" s="60"/>
+      <c r="T382" s="60"/>
+      <c r="U382" s="60"/>
+      <c r="V382" s="60"/>
+      <c r="W382" s="60"/>
+      <c r="X382" s="60"/>
+      <c r="Y382" s="60"/>
+    </row>
+    <row r="383" spans="3:25" ht="14.25" customHeight="1">
+      <c r="I383" s="60" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J383" s="60"/>
+      <c r="K383" s="60"/>
+      <c r="L383" s="60"/>
+      <c r="M383" s="60"/>
+      <c r="N383" s="60"/>
+      <c r="O383" s="60"/>
+      <c r="P383" s="60"/>
+      <c r="Q383" s="60"/>
+      <c r="R383" s="60"/>
+      <c r="S383" s="60"/>
+      <c r="T383" s="60"/>
+      <c r="U383" s="60"/>
+      <c r="V383" s="60"/>
+      <c r="W383" s="60"/>
+      <c r="X383" s="60"/>
+      <c r="Y383" s="60"/>
+    </row>
+    <row r="384" spans="3:25">
+      <c r="I384" s="60" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J384" s="60"/>
+      <c r="K384" s="60"/>
+      <c r="L384" s="60"/>
+      <c r="M384" s="60"/>
+      <c r="N384" s="60"/>
+      <c r="O384" s="60"/>
+      <c r="P384" s="60"/>
+      <c r="Q384" s="60"/>
+      <c r="R384" s="60"/>
+      <c r="S384" s="60"/>
+      <c r="T384" s="60"/>
+      <c r="U384" s="60"/>
+      <c r="V384" s="60"/>
+      <c r="W384" s="60"/>
+      <c r="X384" s="60"/>
+      <c r="Y384" s="60"/>
+    </row>
+    <row r="386" spans="3:14">
+      <c r="D386" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="387" spans="3:14">
+      <c r="C387" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="389" spans="3:14">
+      <c r="D389" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="390" spans="3:14">
+      <c r="E390" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="391" spans="3:14">
+      <c r="N391" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="392" spans="3:14">
+      <c r="F392" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N392" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="393" spans="3:14">
+      <c r="N393" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="394" spans="3:14">
+      <c r="F394" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N394" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="395" spans="3:14">
+      <c r="H395" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N395" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="396" spans="3:14">
+      <c r="I396" t="s">
+        <v>1236</v>
+      </c>
+      <c r="N396" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="397" spans="3:14">
+      <c r="I397" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N397" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="398" spans="3:14">
+      <c r="I398" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N398" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="399" spans="3:14">
+      <c r="H399" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="400" spans="3:14">
+      <c r="H400" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="I401" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="E402" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="B404" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="C405" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="C406" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" s="36" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7">
+      <c r="B417" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7">
+      <c r="D419" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7">
+      <c r="B423" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7">
+      <c r="D426" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7">
+      <c r="B428" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="430" spans="2:7">
+      <c r="C430" s="59" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D430" s="43"/>
+      <c r="E430" s="43"/>
+      <c r="F430" s="43"/>
+      <c r="G430" s="43"/>
+    </row>
+    <row r="431" spans="2:7">
+      <c r="C431" s="59" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D431" s="43"/>
+      <c r="E431" s="43"/>
+      <c r="F431" s="43"/>
+      <c r="G431" s="43"/>
+    </row>
+    <row r="432" spans="2:7">
+      <c r="C432" s="59" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D432" s="43"/>
+      <c r="E432" s="43"/>
+      <c r="F432" s="43"/>
+      <c r="G432" s="43"/>
+    </row>
+    <row r="433" spans="3:7">
+      <c r="C433" s="59" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D433" s="43"/>
+      <c r="E433" s="43"/>
+      <c r="F433" s="43"/>
+      <c r="G433" s="43"/>
+    </row>
+    <row r="434" spans="3:7">
+      <c r="C434" s="59" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D434" s="43"/>
+      <c r="E434" s="43"/>
+      <c r="F434" s="43"/>
+      <c r="G434" s="43"/>
+    </row>
+    <row r="435" spans="3:7">
+      <c r="C435" s="59" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D435" s="43"/>
+      <c r="E435" s="43"/>
+      <c r="F435" s="43"/>
+      <c r="G435" s="43"/>
+    </row>
+    <row r="436" spans="3:7">
+      <c r="C436" s="59" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D436" s="43"/>
+      <c r="E436" s="43"/>
+      <c r="F436" s="43"/>
+      <c r="G436" s="43"/>
+    </row>
+    <row r="437" spans="3:7">
+      <c r="C437" s="59" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D437" s="43"/>
+      <c r="E437" s="43"/>
+      <c r="F437" s="43"/>
+      <c r="G437" s="43"/>
+    </row>
+    <row r="438" spans="3:7">
+      <c r="C438" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D438" s="43"/>
+      <c r="E438" s="43"/>
+      <c r="F438" s="43"/>
+      <c r="G438" s="43"/>
+    </row>
+    <row r="439" spans="3:7">
+      <c r="C439" s="59" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D439" s="43"/>
+      <c r="E439" s="43"/>
+      <c r="F439" s="43"/>
+      <c r="G439" s="43"/>
+    </row>
+    <row r="440" spans="3:7">
+      <c r="C440" s="59" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D440" s="43"/>
+      <c r="E440" s="43"/>
+      <c r="F440" s="43"/>
+      <c r="G440" s="43"/>
+    </row>
+    <row r="441" spans="3:7" ht="14.25" customHeight="1">
+      <c r="C441" s="59" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D441" s="43"/>
+      <c r="E441" s="43"/>
+      <c r="F441" s="43"/>
+      <c r="G441" s="43"/>
+    </row>
+    <row r="442" spans="3:7">
+      <c r="C442" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D442" s="43"/>
+      <c r="E442" s="43"/>
+      <c r="F442" s="43"/>
+      <c r="G442" s="43"/>
+    </row>
+    <row r="443" spans="3:7">
+      <c r="C443" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D443" s="43"/>
+      <c r="E443" s="43"/>
+      <c r="F443" s="43"/>
+      <c r="G443" s="43"/>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="36" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
-      <c r="B372" t="s">
+    <row r="454" spans="1:6">
+      <c r="B454" t="s">
         <v>858</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D454" t="s">
         <v>859</v>
       </c>
-      <c r="F372" t="s">
+      <c r="F454" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
-      <c r="B374" t="s">
+    <row r="456" spans="1:6">
+      <c r="B456" t="s">
         <v>82</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D456" t="s">
         <v>861</v>
       </c>
-      <c r="F374" t="s">
+      <c r="F456" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
-      <c r="B375" t="s">
+    <row r="457" spans="1:6">
+      <c r="B457" t="s">
         <v>862</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D457" t="s">
         <v>863</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F457" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
-      <c r="B376" t="s">
+    <row r="458" spans="1:6">
+      <c r="B458" t="s">
         <v>86</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D458" t="s">
         <v>864</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F458" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
-      <c r="B377" t="s">
+    <row r="459" spans="1:6">
+      <c r="B459" t="s">
         <v>409</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D459" t="s">
         <v>865</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F459" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
-      <c r="B378" t="s">
+    <row r="460" spans="1:6">
+      <c r="B460" t="s">
         <v>410</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D460" t="s">
         <v>866</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F460" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
-      <c r="B379" t="s">
+    <row r="461" spans="1:6">
+      <c r="B461" t="s">
         <v>867</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D461" t="s">
         <v>868</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F461" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
-      <c r="B380" t="s">
+    <row r="462" spans="1:6">
+      <c r="B462" t="s">
         <v>869</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D462" t="s">
         <v>870</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F462" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
-      <c r="B381" t="s">
+    <row r="463" spans="1:6">
+      <c r="B463" t="s">
         <v>871</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D463" t="s">
         <v>872</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F463" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
-      <c r="B384" t="s">
+    <row r="466" spans="2:15">
+      <c r="B466" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="386" spans="3:15">
-      <c r="C386" t="s">
+    <row r="468" spans="2:15">
+      <c r="C468" t="s">
         <v>882</v>
       </c>
-      <c r="E386" t="s">
+      <c r="E468" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="388" spans="3:15">
-      <c r="C388" t="s">
+    <row r="470" spans="2:15">
+      <c r="C470" t="s">
         <v>861</v>
       </c>
-      <c r="E388" t="s">
+      <c r="E470" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="389" spans="3:15">
-      <c r="C389" t="s">
+    <row r="471" spans="2:15">
+      <c r="C471" t="s">
         <v>863</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E471" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="390" spans="3:15">
-      <c r="C390" t="s">
+    <row r="472" spans="2:15">
+      <c r="C472" t="s">
         <v>864</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E472" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="391" spans="3:15">
-      <c r="C391" t="s">
+    <row r="473" spans="2:15">
+      <c r="C473" t="s">
         <v>865</v>
       </c>
-      <c r="E391" t="s">
+      <c r="E473" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="392" spans="3:15">
-      <c r="C392" t="s">
+    <row r="474" spans="2:15">
+      <c r="C474" t="s">
         <v>888</v>
       </c>
-      <c r="E392" t="s">
+      <c r="E474" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="393" spans="3:15">
-      <c r="C393" t="s">
+    <row r="475" spans="2:15">
+      <c r="C475" t="s">
         <v>890</v>
       </c>
-      <c r="E393" t="s">
+      <c r="E475" t="s">
         <v>891</v>
       </c>
-      <c r="J393" t="s">
+      <c r="J475" t="s">
         <v>892</v>
       </c>
-      <c r="O393" t="s">
+      <c r="O475" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="394" spans="3:15">
-      <c r="C394" t="s">
+    <row r="476" spans="2:15">
+      <c r="C476" t="s">
         <v>870</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E476" t="s">
         <v>894</v>
       </c>
-      <c r="J394" t="s">
+      <c r="J476" t="s">
         <v>895</v>
       </c>
-      <c r="O394" t="s">
+      <c r="O476" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="395" spans="3:15">
-      <c r="C395" s="54" t="s">
+    <row r="477" spans="2:15">
+      <c r="C477" s="54" t="s">
         <v>872</v>
       </c>
-      <c r="D395" s="54"/>
-      <c r="E395" s="54" t="s">
+      <c r="D477" s="54"/>
+      <c r="E477" s="54" t="s">
         <v>896</v>
       </c>
-      <c r="F395" s="54"/>
-      <c r="G395" s="54"/>
-      <c r="H395" s="54"/>
-      <c r="I395" s="53"/>
-    </row>
-    <row r="398" spans="3:15">
-      <c r="E398" t="s">
+      <c r="F477" s="54"/>
+      <c r="G477" s="54"/>
+      <c r="H477" s="54"/>
+      <c r="I477" s="53"/>
+    </row>
+    <row r="480" spans="2:15">
+      <c r="E480" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="400" spans="3:15">
-      <c r="C400" t="s">
+    <row r="482" spans="1:11">
+      <c r="C482" t="s">
         <v>861</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E482" t="s">
         <v>898</v>
       </c>
-      <c r="K400" t="s">
+      <c r="K482" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
-      <c r="C401" t="s">
+    <row r="483" spans="1:11">
+      <c r="C483" t="s">
         <v>863</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E483" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
-      <c r="C402" t="s">
+    <row r="484" spans="1:11">
+      <c r="C484" t="s">
         <v>864</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E484" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
-      <c r="C403" t="s">
+    <row r="485" spans="1:11">
+      <c r="C485" t="s">
         <v>865</v>
       </c>
-      <c r="E403" t="s">
+      <c r="E485" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
-      <c r="C404" t="s">
+    <row r="486" spans="1:11">
+      <c r="C486" t="s">
         <v>888</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E486" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
-      <c r="C405" t="s">
+    <row r="487" spans="1:11">
+      <c r="C487" t="s">
         <v>890</v>
       </c>
-      <c r="E405" t="s">
+      <c r="E487" t="s">
         <v>904</v>
       </c>
-      <c r="J405" t="s">
+      <c r="J487" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
-      <c r="C406" t="s">
+    <row r="488" spans="1:11">
+      <c r="C488" t="s">
         <v>870</v>
       </c>
-      <c r="E406" t="s">
+      <c r="E488" t="s">
         <v>905</v>
       </c>
-      <c r="J406" t="s">
+      <c r="J488" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
-      <c r="C407" s="54" t="s">
+    <row r="489" spans="1:11">
+      <c r="C489" s="54" t="s">
         <v>872</v>
       </c>
-      <c r="E407" s="54" t="s">
+      <c r="E489" s="54" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
-      <c r="A411" s="36" t="s">
+    <row r="493" spans="1:11">
+      <c r="A493" s="36" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
-      <c r="B413" t="s">
+    <row r="495" spans="1:11">
+      <c r="B495" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
-      <c r="B415" t="s">
+    <row r="497" spans="1:8">
+      <c r="B497" t="s">
         <v>471</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C497" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
-      <c r="C416" t="s">
+    <row r="498" spans="1:8">
+      <c r="C498" t="s">
         <v>911</v>
       </c>
-      <c r="H416" t="s">
+      <c r="H498" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
-      <c r="C417" t="s">
+    <row r="499" spans="1:8">
+      <c r="C499" t="s">
         <v>919</v>
       </c>
-      <c r="H417" t="s">
+      <c r="H499" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
-      <c r="A418" s="36" t="s">
+    <row r="500" spans="1:8">
+      <c r="A500" s="36" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
-      <c r="B419" t="s">
+    <row r="501" spans="1:8">
+      <c r="B501" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
-      <c r="B421" t="s">
+    <row r="503" spans="1:8">
+      <c r="B503" t="s">
         <v>392</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C503" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
-      <c r="C422" t="s">
+    <row r="504" spans="1:8">
+      <c r="C504" t="s">
         <v>915</v>
       </c>
-      <c r="H422" t="s">
+      <c r="H504" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
-      <c r="C423" t="s">
+    <row r="505" spans="1:8">
+      <c r="C505" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
-      <c r="B426" t="s">
+    <row r="508" spans="1:8">
+      <c r="B508" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
-      <c r="C428" t="s">
+    <row r="510" spans="1:8">
+      <c r="C510" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
-      <c r="C429" t="s">
+    <row r="511" spans="1:8">
+      <c r="C511" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
-      <c r="C430" t="s">
+    <row r="512" spans="1:8">
+      <c r="C512" t="s">
         <v>924</v>
       </c>
-      <c r="H430" t="s">
+      <c r="H512" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
-      <c r="B432" t="s">
+    <row r="514" spans="1:8">
+      <c r="B514" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
-      <c r="C435" s="23" t="s">
+    <row r="517" spans="1:8">
+      <c r="C517" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="D435" s="18"/>
-      <c r="E435" s="18"/>
-      <c r="F435" s="18"/>
-      <c r="G435" s="18"/>
-    </row>
-    <row r="436" spans="1:9">
-      <c r="C436" s="23" t="s">
+      <c r="D517" s="18"/>
+      <c r="E517" s="18"/>
+      <c r="F517" s="18"/>
+      <c r="G517" s="18"/>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="C518" s="23" t="s">
         <v>928</v>
       </c>
-      <c r="D436" s="18"/>
-      <c r="E436" s="18"/>
-      <c r="F436" s="18"/>
-      <c r="G436" s="18"/>
-    </row>
-    <row r="437" spans="1:9">
-      <c r="C437" s="23" t="s">
+      <c r="D518" s="18"/>
+      <c r="E518" s="18"/>
+      <c r="F518" s="18"/>
+      <c r="G518" s="18"/>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="C519" s="23" t="s">
         <v>929</v>
       </c>
-      <c r="D437" s="18"/>
-      <c r="E437" s="18"/>
-      <c r="F437" s="18"/>
-      <c r="G437" s="18"/>
-    </row>
-    <row r="438" spans="1:9">
-      <c r="C438" s="23" t="s">
+      <c r="D519" s="18"/>
+      <c r="E519" s="18"/>
+      <c r="F519" s="18"/>
+      <c r="G519" s="18"/>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="C520" s="23" t="s">
         <v>930</v>
       </c>
-      <c r="D438" s="18"/>
-      <c r="E438" s="18"/>
-      <c r="F438" s="18"/>
-      <c r="G438" s="18"/>
-      <c r="H438" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9">
-      <c r="C439" s="23" t="s">
-        <v>931</v>
-      </c>
-      <c r="D439" s="18"/>
-      <c r="E439" s="18"/>
-      <c r="F439" s="18"/>
-      <c r="G439" s="18"/>
-      <c r="H439" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9">
-      <c r="A442" s="36" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9">
-      <c r="B444" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9">
-      <c r="C447" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="D447" s="18"/>
-      <c r="E447" s="18"/>
-      <c r="F447" s="18"/>
-      <c r="G447" s="18"/>
-      <c r="H447" s="18"/>
-      <c r="I447" s="18"/>
-    </row>
-    <row r="448" spans="1:9">
-      <c r="C448" s="22" t="s">
-        <v>937</v>
-      </c>
-      <c r="D448" s="18"/>
-      <c r="E448" s="18"/>
-      <c r="F448" s="18"/>
-      <c r="G448" s="18"/>
-      <c r="H448" s="18"/>
-      <c r="I448" s="18"/>
-    </row>
-    <row r="449" spans="2:11">
-      <c r="C449" s="22" t="s">
-        <v>938</v>
-      </c>
-      <c r="D449" s="18"/>
-      <c r="E449" s="18"/>
-      <c r="F449" s="18"/>
-      <c r="G449" s="18"/>
-      <c r="H449" s="18"/>
-      <c r="I449" s="18"/>
-    </row>
-    <row r="450" spans="2:11">
-      <c r="C450" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="D450" s="18"/>
-      <c r="E450" s="18"/>
-      <c r="F450" s="18"/>
-      <c r="G450" s="18"/>
-      <c r="H450" s="18"/>
-      <c r="I450" s="18"/>
-      <c r="K450" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="451" spans="2:11">
-      <c r="C451" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="D451" s="18"/>
-      <c r="E451" s="18"/>
-      <c r="F451" s="18"/>
-      <c r="G451" s="18"/>
-      <c r="H451" s="18"/>
-      <c r="I451" s="18"/>
-      <c r="K451" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="452" spans="2:11">
-      <c r="C452" s="23"/>
-      <c r="D452" s="18"/>
-      <c r="E452" s="18"/>
-      <c r="F452" s="18"/>
-      <c r="G452" s="18"/>
-      <c r="H452" s="18"/>
-      <c r="I452" s="18"/>
-    </row>
-    <row r="453" spans="2:11">
-      <c r="C453" s="22" t="s">
-        <v>941</v>
-      </c>
-      <c r="D453" s="18"/>
-      <c r="E453" s="18"/>
-      <c r="F453" s="18"/>
-      <c r="G453" s="18"/>
-      <c r="H453" s="18"/>
-      <c r="I453" s="18"/>
-      <c r="K453" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="454" spans="2:11">
-      <c r="C454" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="D454" s="18"/>
-      <c r="E454" s="18"/>
-      <c r="F454" s="18"/>
-      <c r="G454" s="18"/>
-      <c r="H454" s="18"/>
-      <c r="I454" s="18"/>
-      <c r="K454" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="455" spans="2:11">
-      <c r="C455" s="23"/>
-      <c r="D455" s="18"/>
-      <c r="E455" s="18"/>
-      <c r="F455" s="18"/>
-      <c r="G455" s="18"/>
-      <c r="H455" s="18"/>
-      <c r="I455" s="18"/>
-    </row>
-    <row r="456" spans="2:11">
-      <c r="C456" s="22" t="s">
-        <v>943</v>
-      </c>
-      <c r="D456" s="18"/>
-      <c r="E456" s="18"/>
-      <c r="F456" s="18"/>
-      <c r="G456" s="18"/>
-      <c r="H456" s="18"/>
-      <c r="I456" s="18"/>
-      <c r="K456" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="457" spans="2:11">
-      <c r="C457" s="22" t="s">
-        <v>944</v>
-      </c>
-      <c r="D457" s="18"/>
-      <c r="E457" s="18"/>
-      <c r="F457" s="18"/>
-      <c r="G457" s="18"/>
-      <c r="H457" s="18"/>
-      <c r="I457" s="18"/>
-      <c r="K457" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="461" spans="2:11">
-      <c r="B461" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="462" spans="2:11">
-      <c r="C462" s="36" t="s">
-        <v>953</v>
-      </c>
-      <c r="D462" s="36"/>
-      <c r="E462" s="36"/>
-      <c r="F462" s="36"/>
-      <c r="G462" s="36"/>
-      <c r="H462" s="36"/>
-    </row>
-    <row r="463" spans="2:11">
-      <c r="C463" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="D463" s="36"/>
-      <c r="E463" s="36"/>
-      <c r="F463" s="36"/>
-      <c r="G463" s="36"/>
-      <c r="H463" s="36"/>
-    </row>
-    <row r="465" spans="3:10">
-      <c r="C465" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="467" spans="3:10">
-      <c r="D467" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="E467" s="18"/>
-      <c r="F467" s="18"/>
-      <c r="G467" s="18"/>
-      <c r="H467" s="18"/>
-      <c r="I467" s="18"/>
-    </row>
-    <row r="468" spans="3:10">
-      <c r="D468" s="22" t="s">
-        <v>956</v>
-      </c>
-      <c r="E468" s="18"/>
-      <c r="F468" s="18"/>
-      <c r="G468" s="18"/>
-      <c r="H468" s="18"/>
-      <c r="I468" s="18"/>
-    </row>
-    <row r="469" spans="3:10">
-      <c r="D469" s="22" t="s">
-        <v>957</v>
-      </c>
-      <c r="E469" s="18"/>
-      <c r="F469" s="18"/>
-      <c r="G469" s="18"/>
-      <c r="H469" s="18"/>
-      <c r="I469" s="18"/>
-      <c r="J469" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="470" spans="3:10">
-      <c r="D470" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="E470" s="18"/>
-      <c r="F470" s="18"/>
-      <c r="G470" s="18"/>
-      <c r="H470" s="18"/>
-      <c r="I470" s="18"/>
-      <c r="J470" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="471" spans="3:10">
-      <c r="D471" s="23"/>
-      <c r="E471" s="18"/>
-      <c r="F471" s="18"/>
-      <c r="G471" s="18"/>
-      <c r="H471" s="18"/>
-      <c r="I471" s="18"/>
-    </row>
-    <row r="472" spans="3:10">
-      <c r="D472" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="E472" s="18"/>
-      <c r="F472" s="18"/>
-      <c r="G472" s="18"/>
-      <c r="H472" s="18"/>
-      <c r="I472" s="18"/>
-    </row>
-    <row r="473" spans="3:10">
-      <c r="D473" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="E473" s="18"/>
-      <c r="F473" s="18"/>
-      <c r="G473" s="18"/>
-      <c r="H473" s="18"/>
-      <c r="I473" s="18"/>
-    </row>
-    <row r="474" spans="3:10">
-      <c r="D474" s="23"/>
-      <c r="E474" s="18"/>
-      <c r="F474" s="18"/>
-      <c r="G474" s="18"/>
-      <c r="H474" s="18"/>
-      <c r="I474" s="18"/>
-    </row>
-    <row r="475" spans="3:10">
-      <c r="D475" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="E475" s="18"/>
-      <c r="F475" s="18"/>
-      <c r="G475" s="18"/>
-      <c r="H475" s="18"/>
-      <c r="I475" s="18"/>
-      <c r="J475" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="476" spans="3:10">
-      <c r="D476" s="23"/>
-      <c r="E476" s="18"/>
-      <c r="F476" s="18"/>
-      <c r="G476" s="18"/>
-      <c r="H476" s="18"/>
-      <c r="I476" s="18"/>
-    </row>
-    <row r="477" spans="3:10">
-      <c r="D477" s="22" t="s">
-        <v>960</v>
-      </c>
-      <c r="E477" s="18"/>
-      <c r="F477" s="18"/>
-      <c r="G477" s="18"/>
-      <c r="H477" s="18"/>
-      <c r="I477" s="18"/>
-      <c r="J477" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="478" spans="3:10">
-      <c r="D478" s="22" t="s">
-        <v>961</v>
-      </c>
-      <c r="E478" s="18"/>
-      <c r="F478" s="18"/>
-      <c r="G478" s="18"/>
-      <c r="H478" s="18"/>
-      <c r="I478" s="18"/>
-      <c r="J478" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="482" spans="1:12">
-      <c r="A482" s="36" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="484" spans="1:12">
-      <c r="B484" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="485" spans="1:12">
-      <c r="C485" t="s">
-        <v>966</v>
-      </c>
-      <c r="E485" t="s">
-        <v>967</v>
-      </c>
-      <c r="J485" t="s">
-        <v>979</v>
-      </c>
-      <c r="L485" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="486" spans="1:12">
-      <c r="E486" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12">
-      <c r="E488" t="s">
-        <v>968</v>
-      </c>
-      <c r="G488" s="56" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="490" spans="1:12">
-      <c r="C490" t="s">
-        <v>970</v>
-      </c>
-      <c r="E490" t="s">
-        <v>971</v>
-      </c>
-      <c r="J490" t="s">
-        <v>981</v>
-      </c>
-      <c r="L490" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="491" spans="1:12">
-      <c r="E491" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="493" spans="1:12">
-      <c r="E493" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="495" spans="1:12">
-      <c r="C495" t="s">
-        <v>974</v>
-      </c>
-      <c r="E495" t="s">
-        <v>975</v>
-      </c>
-      <c r="J495" t="s">
-        <v>983</v>
-      </c>
-      <c r="L495" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="496" spans="1:12">
-      <c r="E496" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="498" spans="2:10">
-      <c r="E498" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="500" spans="2:10">
-      <c r="C500" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="503" spans="2:10">
-      <c r="B503" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="505" spans="2:10">
-      <c r="C505" s="18" t="s">
-        <v>991</v>
-      </c>
-      <c r="D505" s="18"/>
-      <c r="E505" s="18"/>
-      <c r="F505" s="18"/>
-      <c r="G505" s="18"/>
-      <c r="H505" s="18"/>
-      <c r="I505" s="18"/>
-      <c r="J505" s="18"/>
-    </row>
-    <row r="506" spans="2:10">
-      <c r="C506" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="D506" s="18"/>
-      <c r="E506" s="18"/>
-      <c r="F506" s="18"/>
-      <c r="G506" s="18"/>
-      <c r="H506" s="18"/>
-      <c r="I506" s="18"/>
-      <c r="J506" s="18"/>
-    </row>
-    <row r="507" spans="2:10">
-      <c r="C507" s="18"/>
-      <c r="D507" s="18"/>
-      <c r="E507" s="18"/>
-      <c r="F507" s="18"/>
-      <c r="G507" s="18"/>
-      <c r="H507" s="18"/>
-      <c r="I507" s="18"/>
-      <c r="J507" s="18"/>
-    </row>
-    <row r="508" spans="2:10">
-      <c r="C508" s="18" t="s">
-        <v>988</v>
-      </c>
-      <c r="D508" s="18"/>
-      <c r="E508" s="18"/>
-      <c r="F508" s="18"/>
-      <c r="G508" s="18"/>
-      <c r="H508" s="18"/>
-      <c r="I508" s="18"/>
-      <c r="J508" s="18"/>
-    </row>
-    <row r="509" spans="2:10">
-      <c r="C509" s="18" t="s">
-        <v>989</v>
-      </c>
-      <c r="D509" s="18"/>
-      <c r="E509" s="18"/>
-      <c r="F509" s="18"/>
-      <c r="G509" s="18"/>
-      <c r="H509" s="18"/>
-      <c r="I509" s="18"/>
-      <c r="J509" s="18"/>
-    </row>
-    <row r="510" spans="2:10">
-      <c r="C510" s="18" t="s">
-        <v>990</v>
-      </c>
-      <c r="D510" s="18"/>
-      <c r="E510" s="18"/>
-      <c r="F510" s="18"/>
-      <c r="G510" s="18"/>
-      <c r="H510" s="18"/>
-      <c r="I510" s="18"/>
-      <c r="J510" s="18"/>
-    </row>
-    <row r="511" spans="2:10">
-      <c r="C511" s="18"/>
-      <c r="D511" s="18"/>
-      <c r="E511" s="18"/>
-      <c r="F511" s="18"/>
-      <c r="G511" s="18"/>
-      <c r="H511" s="18"/>
-      <c r="I511" s="18"/>
-      <c r="J511" s="18"/>
-    </row>
-    <row r="512" spans="2:10">
-      <c r="C512" s="52" t="s">
-        <v>993</v>
-      </c>
-      <c r="D512" s="18"/>
-      <c r="E512" s="18"/>
-      <c r="F512" s="18"/>
-      <c r="G512" s="18"/>
-      <c r="H512" s="18"/>
-      <c r="I512" s="18"/>
-      <c r="J512" s="18"/>
-    </row>
-    <row r="513" spans="2:10">
-      <c r="C513" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="D513" s="18"/>
-      <c r="E513" s="18"/>
-      <c r="F513" s="18"/>
-      <c r="G513" s="18"/>
-      <c r="H513" s="18"/>
-      <c r="I513" s="18"/>
-      <c r="J513" s="18"/>
-    </row>
-    <row r="516" spans="2:10">
-      <c r="B516" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="518" spans="2:10">
-      <c r="C518" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="520" spans="2:10">
-      <c r="D520" s="22" t="s">
-        <v>997</v>
-      </c>
+      <c r="D520" s="18"/>
       <c r="E520" s="18"/>
       <c r="F520" s="18"/>
       <c r="G520" s="18"/>
-      <c r="H520" s="18"/>
-      <c r="I520" s="18"/>
-      <c r="J520" s="18" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="521" spans="2:10">
-      <c r="D521" s="22" t="s">
-        <v>998</v>
-      </c>
+      <c r="H520" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="C521" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="D521" s="18"/>
       <c r="E521" s="18"/>
       <c r="F521" s="18"/>
       <c r="G521" s="18"/>
-      <c r="H521" s="18"/>
-      <c r="I521" s="18"/>
-      <c r="J521" s="18" t="s">
+      <c r="H521" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524" s="36" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="B526" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="529" spans="2:11">
+      <c r="C529" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="D529" s="18"/>
+      <c r="E529" s="18"/>
+      <c r="F529" s="18"/>
+      <c r="G529" s="18"/>
+      <c r="H529" s="18"/>
+      <c r="I529" s="18"/>
+    </row>
+    <row r="530" spans="2:11">
+      <c r="C530" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="D530" s="18"/>
+      <c r="E530" s="18"/>
+      <c r="F530" s="18"/>
+      <c r="G530" s="18"/>
+      <c r="H530" s="18"/>
+      <c r="I530" s="18"/>
+    </row>
+    <row r="531" spans="2:11">
+      <c r="C531" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="D531" s="18"/>
+      <c r="E531" s="18"/>
+      <c r="F531" s="18"/>
+      <c r="G531" s="18"/>
+      <c r="H531" s="18"/>
+      <c r="I531" s="18"/>
+    </row>
+    <row r="532" spans="2:11">
+      <c r="C532" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="D532" s="18"/>
+      <c r="E532" s="18"/>
+      <c r="F532" s="18"/>
+      <c r="G532" s="18"/>
+      <c r="H532" s="18"/>
+      <c r="I532" s="18"/>
+      <c r="K532" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="533" spans="2:11">
+      <c r="C533" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="D533" s="18"/>
+      <c r="E533" s="18"/>
+      <c r="F533" s="18"/>
+      <c r="G533" s="18"/>
+      <c r="H533" s="18"/>
+      <c r="I533" s="18"/>
+      <c r="K533" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="534" spans="2:11">
+      <c r="C534" s="23"/>
+      <c r="D534" s="18"/>
+      <c r="E534" s="18"/>
+      <c r="F534" s="18"/>
+      <c r="G534" s="18"/>
+      <c r="H534" s="18"/>
+      <c r="I534" s="18"/>
+    </row>
+    <row r="535" spans="2:11">
+      <c r="C535" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="D535" s="18"/>
+      <c r="E535" s="18"/>
+      <c r="F535" s="18"/>
+      <c r="G535" s="18"/>
+      <c r="H535" s="18"/>
+      <c r="I535" s="18"/>
+      <c r="K535" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="536" spans="2:11">
+      <c r="C536" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="D536" s="18"/>
+      <c r="E536" s="18"/>
+      <c r="F536" s="18"/>
+      <c r="G536" s="18"/>
+      <c r="H536" s="18"/>
+      <c r="I536" s="18"/>
+      <c r="K536" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="537" spans="2:11">
+      <c r="C537" s="23"/>
+      <c r="D537" s="18"/>
+      <c r="E537" s="18"/>
+      <c r="F537" s="18"/>
+      <c r="G537" s="18"/>
+      <c r="H537" s="18"/>
+      <c r="I537" s="18"/>
+    </row>
+    <row r="538" spans="2:11">
+      <c r="C538" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="D538" s="18"/>
+      <c r="E538" s="18"/>
+      <c r="F538" s="18"/>
+      <c r="G538" s="18"/>
+      <c r="H538" s="18"/>
+      <c r="I538" s="18"/>
+      <c r="K538" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="539" spans="2:11">
+      <c r="C539" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="D539" s="18"/>
+      <c r="E539" s="18"/>
+      <c r="F539" s="18"/>
+      <c r="G539" s="18"/>
+      <c r="H539" s="18"/>
+      <c r="I539" s="18"/>
+      <c r="K539" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="543" spans="2:11">
+      <c r="B543" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="544" spans="2:11">
+      <c r="C544" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="D544" s="36"/>
+      <c r="E544" s="36"/>
+      <c r="F544" s="36"/>
+      <c r="G544" s="36"/>
+      <c r="H544" s="36"/>
+    </row>
+    <row r="545" spans="3:10">
+      <c r="C545" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D545" s="36"/>
+      <c r="E545" s="36"/>
+      <c r="F545" s="36"/>
+      <c r="G545" s="36"/>
+      <c r="H545" s="36"/>
+    </row>
+    <row r="547" spans="3:10">
+      <c r="C547" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="549" spans="3:10">
+      <c r="D549" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="E549" s="18"/>
+      <c r="F549" s="18"/>
+      <c r="G549" s="18"/>
+      <c r="H549" s="18"/>
+      <c r="I549" s="18"/>
+    </row>
+    <row r="550" spans="3:10">
+      <c r="D550" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="E550" s="18"/>
+      <c r="F550" s="18"/>
+      <c r="G550" s="18"/>
+      <c r="H550" s="18"/>
+      <c r="I550" s="18"/>
+    </row>
+    <row r="551" spans="3:10">
+      <c r="D551" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="E551" s="18"/>
+      <c r="F551" s="18"/>
+      <c r="G551" s="18"/>
+      <c r="H551" s="18"/>
+      <c r="I551" s="18"/>
+      <c r="J551" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="552" spans="3:10">
+      <c r="D552" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E552" s="18"/>
+      <c r="F552" s="18"/>
+      <c r="G552" s="18"/>
+      <c r="H552" s="18"/>
+      <c r="I552" s="18"/>
+      <c r="J552" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="553" spans="3:10">
+      <c r="D553" s="23"/>
+      <c r="E553" s="18"/>
+      <c r="F553" s="18"/>
+      <c r="G553" s="18"/>
+      <c r="H553" s="18"/>
+      <c r="I553" s="18"/>
+    </row>
+    <row r="554" spans="3:10">
+      <c r="D554" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="E554" s="18"/>
+      <c r="F554" s="18"/>
+      <c r="G554" s="18"/>
+      <c r="H554" s="18"/>
+      <c r="I554" s="18"/>
+    </row>
+    <row r="555" spans="3:10">
+      <c r="D555" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="E555" s="18"/>
+      <c r="F555" s="18"/>
+      <c r="G555" s="18"/>
+      <c r="H555" s="18"/>
+      <c r="I555" s="18"/>
+    </row>
+    <row r="556" spans="3:10">
+      <c r="D556" s="23"/>
+      <c r="E556" s="18"/>
+      <c r="F556" s="18"/>
+      <c r="G556" s="18"/>
+      <c r="H556" s="18"/>
+      <c r="I556" s="18"/>
+    </row>
+    <row r="557" spans="3:10">
+      <c r="D557" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E557" s="18"/>
+      <c r="F557" s="18"/>
+      <c r="G557" s="18"/>
+      <c r="H557" s="18"/>
+      <c r="I557" s="18"/>
+      <c r="J557" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="558" spans="3:10">
+      <c r="D558" s="23"/>
+      <c r="E558" s="18"/>
+      <c r="F558" s="18"/>
+      <c r="G558" s="18"/>
+      <c r="H558" s="18"/>
+      <c r="I558" s="18"/>
+    </row>
+    <row r="559" spans="3:10">
+      <c r="D559" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="E559" s="18"/>
+      <c r="F559" s="18"/>
+      <c r="G559" s="18"/>
+      <c r="H559" s="18"/>
+      <c r="I559" s="18"/>
+      <c r="J559" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="560" spans="3:10">
+      <c r="D560" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="E560" s="18"/>
+      <c r="F560" s="18"/>
+      <c r="G560" s="18"/>
+      <c r="H560" s="18"/>
+      <c r="I560" s="18"/>
+      <c r="J560" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12">
+      <c r="A564" s="36" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12">
+      <c r="B566" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12">
+      <c r="C567" t="s">
+        <v>966</v>
+      </c>
+      <c r="E567" t="s">
+        <v>967</v>
+      </c>
+      <c r="J567" t="s">
+        <v>979</v>
+      </c>
+      <c r="L567" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12">
+      <c r="E568" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12">
+      <c r="E570" t="s">
+        <v>968</v>
+      </c>
+      <c r="G570" s="56" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12">
+      <c r="C572" t="s">
+        <v>970</v>
+      </c>
+      <c r="E572" t="s">
+        <v>971</v>
+      </c>
+      <c r="J572" t="s">
+        <v>981</v>
+      </c>
+      <c r="L572" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12">
+      <c r="E573" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12">
+      <c r="E575" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="577" spans="2:12">
+      <c r="C577" t="s">
+        <v>974</v>
+      </c>
+      <c r="E577" t="s">
+        <v>975</v>
+      </c>
+      <c r="J577" t="s">
+        <v>983</v>
+      </c>
+      <c r="L577" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="578" spans="2:12">
+      <c r="E578" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="580" spans="2:12">
+      <c r="E580" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="582" spans="2:12">
+      <c r="C582" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="585" spans="2:12">
+      <c r="B585" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="587" spans="2:12">
+      <c r="C587" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="D587" s="18"/>
+      <c r="E587" s="18"/>
+      <c r="F587" s="18"/>
+      <c r="G587" s="18"/>
+      <c r="H587" s="18"/>
+      <c r="I587" s="18"/>
+      <c r="J587" s="18"/>
+    </row>
+    <row r="588" spans="2:12">
+      <c r="C588" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="D588" s="18"/>
+      <c r="E588" s="18"/>
+      <c r="F588" s="18"/>
+      <c r="G588" s="18"/>
+      <c r="H588" s="18"/>
+      <c r="I588" s="18"/>
+      <c r="J588" s="18"/>
+    </row>
+    <row r="589" spans="2:12">
+      <c r="C589" s="18"/>
+      <c r="D589" s="18"/>
+      <c r="E589" s="18"/>
+      <c r="F589" s="18"/>
+      <c r="G589" s="18"/>
+      <c r="H589" s="18"/>
+      <c r="I589" s="18"/>
+      <c r="J589" s="18"/>
+    </row>
+    <row r="590" spans="2:12">
+      <c r="C590" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="D590" s="18"/>
+      <c r="E590" s="18"/>
+      <c r="F590" s="18"/>
+      <c r="G590" s="18"/>
+      <c r="H590" s="18"/>
+      <c r="I590" s="18"/>
+      <c r="J590" s="18"/>
+    </row>
+    <row r="591" spans="2:12">
+      <c r="C591" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="D591" s="18"/>
+      <c r="E591" s="18"/>
+      <c r="F591" s="18"/>
+      <c r="G591" s="18"/>
+      <c r="H591" s="18"/>
+      <c r="I591" s="18"/>
+      <c r="J591" s="18"/>
+    </row>
+    <row r="592" spans="2:12">
+      <c r="C592" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="D592" s="18"/>
+      <c r="E592" s="18"/>
+      <c r="F592" s="18"/>
+      <c r="G592" s="18"/>
+      <c r="H592" s="18"/>
+      <c r="I592" s="18"/>
+      <c r="J592" s="18"/>
+    </row>
+    <row r="593" spans="2:10">
+      <c r="C593" s="18"/>
+      <c r="D593" s="18"/>
+      <c r="E593" s="18"/>
+      <c r="F593" s="18"/>
+      <c r="G593" s="18"/>
+      <c r="H593" s="18"/>
+      <c r="I593" s="18"/>
+      <c r="J593" s="18"/>
+    </row>
+    <row r="594" spans="2:10">
+      <c r="C594" s="52" t="s">
+        <v>993</v>
+      </c>
+      <c r="D594" s="18"/>
+      <c r="E594" s="18"/>
+      <c r="F594" s="18"/>
+      <c r="G594" s="18"/>
+      <c r="H594" s="18"/>
+      <c r="I594" s="18"/>
+      <c r="J594" s="18"/>
+    </row>
+    <row r="595" spans="2:10">
+      <c r="C595" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D595" s="18"/>
+      <c r="E595" s="18"/>
+      <c r="F595" s="18"/>
+      <c r="G595" s="18"/>
+      <c r="H595" s="18"/>
+      <c r="I595" s="18"/>
+      <c r="J595" s="18"/>
+    </row>
+    <row r="598" spans="2:10">
+      <c r="B598" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="600" spans="2:10">
+      <c r="C600" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="602" spans="2:10">
+      <c r="D602" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="E602" s="18"/>
+      <c r="F602" s="18"/>
+      <c r="G602" s="18"/>
+      <c r="H602" s="18"/>
+      <c r="I602" s="18"/>
+      <c r="J602" s="18" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="522" spans="2:10">
-      <c r="D522" s="22" t="s">
+    <row r="603" spans="2:10">
+      <c r="D603" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="E603" s="18"/>
+      <c r="F603" s="18"/>
+      <c r="G603" s="18"/>
+      <c r="H603" s="18"/>
+      <c r="I603" s="18"/>
+      <c r="J603" s="18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="604" spans="2:10">
+      <c r="D604" s="22" t="s">
         <v>999</v>
       </c>
-      <c r="E522" s="18"/>
-      <c r="F522" s="18"/>
-      <c r="G522" s="18"/>
-      <c r="H522" s="18"/>
-      <c r="I522" s="18"/>
-      <c r="J522" s="18" t="s">
+      <c r="E604" s="18"/>
+      <c r="F604" s="18"/>
+      <c r="G604" s="18"/>
+      <c r="H604" s="18"/>
+      <c r="I604" s="18"/>
+      <c r="J604" s="18" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="523" spans="2:10">
-      <c r="D523" s="55"/>
-    </row>
-    <row r="525" spans="2:10">
-      <c r="C525" t="s">
+    <row r="605" spans="2:10">
+      <c r="D605" s="55"/>
+    </row>
+    <row r="607" spans="2:10">
+      <c r="C607" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="527" spans="2:10">
-      <c r="D527" t="s">
+    <row r="609" spans="1:10">
+      <c r="D609" t="s">
         <v>1002</v>
       </c>
-      <c r="J527" t="s">
+      <c r="J609" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
-      <c r="A529" s="36" t="s">
+    <row r="611" spans="1:10">
+      <c r="A611" s="36" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
-      <c r="B531" t="s">
+    <row r="613" spans="1:10">
+      <c r="B613" t="s">
         <v>1005</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C613" t="s">
         <v>1006</v>
       </c>
-      <c r="E531" t="s">
+      <c r="E613" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
-      <c r="E532" t="s">
+    <row r="614" spans="1:10">
+      <c r="E614" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
-      <c r="C534" t="s">
+    <row r="616" spans="1:10">
+      <c r="C616" t="s">
         <v>970</v>
       </c>
-      <c r="E534" t="s">
+      <c r="E616" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
-      <c r="E535" t="s">
+    <row r="617" spans="1:10">
+      <c r="E617" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
-      <c r="C537" t="s">
+    <row r="619" spans="1:10">
+      <c r="C619" t="s">
         <v>974</v>
       </c>
-      <c r="E537" t="s">
+      <c r="E619" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
-      <c r="B540" t="s">
+    <row r="622" spans="1:10">
+      <c r="B622" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
-      <c r="C541" t="s">
+    <row r="623" spans="1:10">
+      <c r="C623" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
-      <c r="D543" t="s">
+    <row r="625" spans="1:8">
+      <c r="D625" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
-      <c r="D545" t="s">
+    <row r="627" spans="1:8">
+      <c r="D627" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
-      <c r="A549" s="36" t="s">
+    <row r="631" spans="1:8">
+      <c r="A631" s="36" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
-      <c r="B551" t="s">
+    <row r="633" spans="1:8">
+      <c r="B633" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
-      <c r="C553" t="s">
+    <row r="635" spans="1:8">
+      <c r="C635" t="s">
         <v>1018</v>
       </c>
-      <c r="H553" t="s">
+      <c r="H635" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
-      <c r="C554" t="s">
+    <row r="636" spans="1:8">
+      <c r="C636" t="s">
         <v>1019</v>
       </c>
-      <c r="H554" t="s">
+      <c r="H636" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
-      <c r="C555" t="s">
+    <row r="637" spans="1:8">
+      <c r="C637" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
-      <c r="C556" t="s">
+    <row r="638" spans="1:8">
+      <c r="C638" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
-      <c r="C557" t="s">
+    <row r="639" spans="1:8">
+      <c r="C639" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
-      <c r="B559" t="s">
+    <row r="641" spans="1:6">
+      <c r="B641" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
-      <c r="C561" t="s">
+    <row r="643" spans="1:6">
+      <c r="C643" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F643" t="s">
         <v>1026</v>
       </c>
-      <c r="F561" t="s">
+    </row>
+    <row r="645" spans="1:6">
+      <c r="C645" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
-      <c r="C563" t="s">
+    <row r="647" spans="1:6">
+      <c r="D647" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
-      <c r="D565" t="s">
+    <row r="648" spans="1:6">
+      <c r="D648" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
-      <c r="D566" t="s">
+    <row r="649" spans="1:6">
+      <c r="D649" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
-      <c r="D567" t="s">
+    <row r="650" spans="1:6">
+      <c r="D650" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
-      <c r="D568" t="s">
+    <row r="651" spans="1:6">
+      <c r="D651" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
-      <c r="D569" t="s">
+    <row r="652" spans="1:6">
+      <c r="D652" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
-      <c r="D570" t="s">
+    <row r="653" spans="1:6">
+      <c r="D653" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
-      <c r="D571" t="s">
+    <row r="654" spans="1:6">
+      <c r="D654" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
-      <c r="D572" t="s">
+    <row r="656" spans="1:6">
+      <c r="A656" s="36" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
-      <c r="A574" s="36" t="s">
+    <row r="658" spans="2:12">
+      <c r="B658" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
-      <c r="B576" t="s">
+    <row r="660" spans="2:12">
+      <c r="C660" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="578" spans="3:12">
-      <c r="C578" t="s">
+    <row r="661" spans="2:12">
+      <c r="C661" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="662" spans="2:12">
+      <c r="C662" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="664" spans="2:12">
+      <c r="C664" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="579" spans="3:12">
-      <c r="C579" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="580" spans="3:12">
-      <c r="C580" t="s">
+    <row r="665" spans="2:12">
+      <c r="C665" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L665" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="582" spans="3:12">
-      <c r="C582" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="583" spans="3:12">
-      <c r="C583" t="s">
+    <row r="666" spans="2:12">
+      <c r="C666" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L666" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="667" spans="2:12">
+      <c r="C667" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L667" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="669" spans="2:12">
+      <c r="C669" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="670" spans="2:12">
+      <c r="C670" t="s">
         <v>1046</v>
       </c>
-      <c r="L583" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="584" spans="3:12">
-      <c r="C584" t="s">
+    </row>
+    <row r="671" spans="2:12">
+      <c r="C671" t="s">
         <v>1047</v>
       </c>
-      <c r="L584" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="585" spans="3:12">
-      <c r="C585" t="s">
+    </row>
+    <row r="672" spans="2:12">
+      <c r="C672" t="s">
         <v>1048</v>
       </c>
-      <c r="L585" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="586" spans="3:12">
-      <c r="L586" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="587" spans="3:12">
-      <c r="C587" t="s">
+      <c r="H672" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6">
+      <c r="B675" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
+      <c r="C677" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="588" spans="3:12">
-      <c r="C588" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="589" spans="3:12">
-      <c r="C589" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="590" spans="3:12">
-      <c r="C590" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H590" t="s">
+    <row r="678" spans="1:6">
+      <c r="C678" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
-      <c r="B593" t="s">
+    <row r="679" spans="1:6">
+      <c r="C679" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="595" spans="1:6">
-      <c r="C595" t="s">
+      <c r="F679" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6">
+      <c r="C680" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
-      <c r="C596" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6">
-      <c r="C597" t="s">
+    <row r="683" spans="1:6">
+      <c r="A683" s="36" t="s">
         <v>1057</v>
       </c>
-      <c r="F597" t="s">
+    </row>
+    <row r="685" spans="1:6">
+      <c r="B685" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6">
+      <c r="C687" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
-      <c r="C598" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6">
-      <c r="A601" s="36" t="s">
+    <row r="688" spans="1:6">
+      <c r="C688" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
-      <c r="B603" t="s">
+    <row r="689" spans="3:3">
+      <c r="C689" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
-      <c r="C605" t="s">
+    <row r="690" spans="3:3">
+      <c r="C690" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
-      <c r="C606" t="s">
+    <row r="691" spans="3:3">
+      <c r="C691" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6">
-      <c r="C607" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6">
-      <c r="C608" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="609" spans="3:3">
-      <c r="C609" t="s">
-        <v>1066</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1313">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -2803,18 +2803,9 @@
     <t xml:space="preserve">Ko cần cast tường minh vì Object rộng hơn String </t>
   </si>
   <si>
-    <t>Cần cast tường minh từ kiểu dl lớn hơn về kiểu dl nhỏ hơn ( Object về String)</t>
-  </si>
-  <si>
-    <t>againStrings [ 0 ] = new StringBuilder()</t>
-  </si>
-  <si>
     <t>// Lỗi compile vì againString [0 ] chỉ cho phép là String object, StringBuilder ko phải là String object</t>
   </si>
   <si>
-    <t>objects [ 0 ] = new StringBuilder();</t>
-  </si>
-  <si>
     <t>// Compile OK nhưng sẽ báo lỗi ArrayStoreExxception. Vì String [ ] Trỏ tới 1 Object [ ]</t>
   </si>
   <si>
@@ -4177,14 +4168,206 @@
     <t>Trả về một shallow copy ( tạo một instance mới của ArrayObject )</t>
   </si>
   <si>
-    <t>Các phần tử tham chiếu được copy, nhưng objects của các tham chiếu ko được copy, Nghĩa là:</t>
+    <t>StringBuilder sb2 = new StringBuilder("Feb");</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;StringBuilder&gt; assignedArrList = myArrList;</t>
+  </si>
+  <si>
+    <t>System.out.println(myArrList == assignedArrList);</t>
+  </si>
+  <si>
+    <t>System.out.println(myArrList == clonedArrList);</t>
+  </si>
+  <si>
+    <t>StringBuilder myArrVal = myArrList.get(0);</t>
+  </si>
+  <si>
+    <t>StringBuilder assignedArrVal = assignedArrList.get(0);</t>
+  </si>
+  <si>
+    <t>StringBuilder clonedArrVal = clonedArrList.get(0);</t>
+  </si>
+  <si>
+    <t>System.out.println(myArrVal == assignedArrVal);</t>
+  </si>
+  <si>
+    <t>System.out.println(myArrVal == clonedArrVal);</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;StringBuilder&gt; clonedArrList = (ArrayList&lt;StringBuilder&gt;)myArrList.clone();</t>
+  </si>
+  <si>
+    <t>Vì clonedArrList là một obj mới với địa chỉ tham chiếu mới</t>
+  </si>
+  <si>
+    <t>Vì cùng trỏ tới một ref</t>
+  </si>
+  <si>
+    <t>Vì các phần tử trỏ tới cùng một ref</t>
+  </si>
+  <si>
+    <t>Các phần tử và tham chiếu của các phần tử được copy, nhưng ref của object cloned ko được copy</t>
+  </si>
+  <si>
+    <t>Hàm equals() so sánh sự bằng nhau của 2 object</t>
+  </si>
+  <si>
+    <t>Nhớ là khi override lại hàm equals thì tham số truyền vào phải là Objects</t>
+  </si>
+  <si>
+    <t>class BankAccount {</t>
+  </si>
+  <si>
+    <t>String acctNumber;</t>
+  </si>
+  <si>
+    <t>int acctType;</t>
+  </si>
+  <si>
+    <t>public boolean equals(BankAccount obj) {</t>
+  </si>
+  <si>
+    <t>if (obj != null) {</t>
+  </si>
+  <si>
+    <t>return (acctNumber.equals(obj.acctNumber) &amp;&amp;</t>
+  </si>
+  <si>
+    <t>acctType == obj.acctType);</t>
+  </si>
+  <si>
+    <t>// Chỗ này hàm equals tham số  truyền vào ko phải là Object, nên phương thức equals ko hoạt động đúng như mô tả code, Mặc định sẽ chỉ so sánh địa chỉ tham chiếu</t>
+  </si>
+  <si>
+    <t>Dẫn đến đoạn code sau :</t>
+  </si>
+  <si>
+    <t>class TestMethodEquals {</t>
+  </si>
+  <si>
+    <t>BankAccount b1 = new BankAccount();</t>
+  </si>
+  <si>
+    <t>b1.acctNumber = "0023490"; b1.acctType = 4;</t>
+  </si>
+  <si>
+    <t>ArrayList &lt;BankAccount&gt; list = new ArrayList&lt;BankAccount&gt;();</t>
+  </si>
+  <si>
+    <t>list.add(b1);</t>
+  </si>
+  <si>
+    <t>BankAccount b2 = new BankAccount();</t>
+  </si>
+  <si>
+    <t>b2.acctNumber = "0023490"; b2.acctType = 4;</t>
+  </si>
+  <si>
+    <t>System.out.println(list.contains(b2));</t>
+  </si>
+  <si>
+    <t>// Hàm equals ko hoạt động đúng nên trả về FALSE</t>
+  </si>
+  <si>
+    <t>Khi sửa lại hàm override với tham số truyền vào là Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public boolean equals(Object obj) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (obj != null &amp;&amp; obj instanceof BankAccount) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            BankAccount compareObj = (BankAccount) obj;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return (acctNumber.equals(compareObj.acctNumber) &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    acctType == compareObj.acctType);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return false;</t>
+  </si>
+  <si>
+    <t>Thì list.contains(b2) sẽ trả ra False</t>
+  </si>
+  <si>
+    <t>Vì b1 và b2 equals với nhau</t>
+  </si>
+  <si>
+    <t>localDate.getDayOfMonth();</t>
+  </si>
+  <si>
+    <t>localDate.getDayOfWeek();</t>
+  </si>
+  <si>
+    <t>localDate.getDayOfYear();</t>
+  </si>
+  <si>
+    <t>localDate.getMonth();</t>
+  </si>
+  <si>
+    <t>localDate.getMonthValue();</t>
+  </si>
+  <si>
+    <t>localDate.getyear();</t>
+  </si>
+  <si>
+    <t>localDate.isAfter(otherLocalDate);</t>
+  </si>
+  <si>
+    <t>localDate.isBefore(otherLocalDate);</t>
+  </si>
+  <si>
+    <t>localDate.minusDays(10); localDate.plusDays(1);</t>
+  </si>
+  <si>
+    <t>localDate.minusMonths(1); localDate.plusMonths(1);</t>
+  </si>
+  <si>
+    <t>localDate.minusWeeks(1); localDate.plusWeeks(1);</t>
+  </si>
+  <si>
+    <t>localDate.minusYears(1); localDate.plusYears(1);</t>
+  </si>
+  <si>
+    <t>localDate.withDayOfMonth(1);</t>
+  </si>
+  <si>
+    <t>localDate.withDayOfYear(1);</t>
+  </si>
+  <si>
+    <t>localDate.withMonth(7);</t>
+  </si>
+  <si>
+    <t>localDate.withYear(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trả về 1 instance copy </t>
+  </si>
+  <si>
+    <t>Cần cast tường minh từ kiểu dl lớn hơn về kiểu dl nhỏ hơn ( Object về String) giống như việc override lại hàm equals(Object) của Objects</t>
+  </si>
+  <si>
+    <t>Object objects [ 0 ] = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>String againStrings [ 0 ] = new StringBuilder()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4476,6 +4659,22 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4516,7 +4715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4619,13 +4818,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6841,16 +7042,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="58" t="s">
+      <c r="D424" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="58"/>
-      <c r="F424" s="58"/>
-      <c r="G424" s="58"/>
-      <c r="H424" s="58"/>
-      <c r="I424" s="58"/>
-      <c r="J424" s="58"/>
-      <c r="K424" s="58"/>
+      <c r="E424" s="60"/>
+      <c r="F424" s="60"/>
+      <c r="G424" s="60"/>
+      <c r="H424" s="60"/>
+      <c r="I424" s="60"/>
+      <c r="J424" s="60"/>
+      <c r="K424" s="60"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -6917,16 +7118,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="58" t="s">
+      <c r="D430" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="58"/>
-      <c r="F430" s="58"/>
-      <c r="G430" s="58"/>
-      <c r="H430" s="58"/>
-      <c r="I430" s="58"/>
-      <c r="J430" s="58"/>
-      <c r="K430" s="58"/>
+      <c r="E430" s="60"/>
+      <c r="F430" s="60"/>
+      <c r="G430" s="60"/>
+      <c r="H430" s="60"/>
+      <c r="I430" s="60"/>
+      <c r="J430" s="60"/>
+      <c r="K430" s="60"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -11671,17 +11872,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y691"/>
+  <dimension ref="A1:Y765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B411" sqref="B411"/>
+    <sheetView tabSelected="1" topLeftCell="A685" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E700" sqref="E700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11690,7 +11891,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11699,13 +11900,13 @@
     <row r="5" spans="1:3">
       <c r="A5" s="36"/>
       <c r="C5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="36"/>
       <c r="C6" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11714,7 +11915,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11723,13 +11924,13 @@
     <row r="10" spans="1:3">
       <c r="A10" s="36"/>
       <c r="C10" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="36"/>
       <c r="C11" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11738,19 +11939,19 @@
     <row r="13" spans="1:3">
       <c r="A13" s="36"/>
       <c r="B13" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36"/>
       <c r="C14" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="36"/>
       <c r="C15" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11759,91 +11960,91 @@
     <row r="17" spans="1:12">
       <c r="A17" s="36"/>
       <c r="B17" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="36"/>
       <c r="C18" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="36"/>
       <c r="D19" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="36"/>
       <c r="E20" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="J20" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="L20" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="36"/>
       <c r="E21" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="J21" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="L21" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="36"/>
       <c r="E22" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="J22" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="L22" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="36"/>
       <c r="E23" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="J23" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="L23" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="36"/>
       <c r="E24" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="J24" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="L24" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="36"/>
       <c r="E25" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="J25" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="L25" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -11858,7 +12059,7 @@
         <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -11888,25 +12089,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="B38" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G42" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12109,13 +12310,13 @@
     <row r="72" spans="1:9">
       <c r="A72" s="36"/>
       <c r="B72" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="36"/>
       <c r="B73" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -12124,25 +12325,25 @@
     <row r="75" spans="1:9">
       <c r="A75" s="36"/>
       <c r="C75" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="36"/>
       <c r="C76" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="36"/>
       <c r="C77" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="36"/>
       <c r="C78" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -12151,13 +12352,13 @@
     <row r="80" spans="1:9">
       <c r="A80" s="36"/>
       <c r="C80" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="H80" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="I80" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -12284,7 +12485,7 @@
     </row>
     <row r="101" spans="2:9" ht="18.75">
       <c r="C101" s="40" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -12348,7 +12549,7 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -12366,11 +12567,11 @@
       <c r="I109" s="39"/>
     </row>
     <row r="110" spans="2:9">
-      <c r="C110" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
+      <c r="C110" s="62" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
@@ -12387,7 +12588,7 @@
     <row r="112" spans="2:9">
       <c r="D112" s="39"/>
       <c r="E112" s="43" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
@@ -12397,7 +12598,7 @@
     <row r="113" spans="1:9">
       <c r="D113" s="39"/>
       <c r="E113" s="43" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F113" s="43"/>
       <c r="G113" s="43"/>
@@ -12413,15 +12614,15 @@
       <c r="I114" s="43"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="C115" t="s">
-        <v>1101</v>
+      <c r="C115" s="39" t="s">
+        <v>1098</v>
       </c>
       <c r="D115" s="39"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
     </row>
     <row r="116" spans="1:9">
       <c r="D116" s="39"/>
@@ -12434,7 +12635,7 @@
     <row r="117" spans="1:9">
       <c r="D117" s="39"/>
       <c r="E117" s="43" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F117" s="43"/>
       <c r="G117" s="43"/>
@@ -12444,7 +12645,7 @@
     <row r="118" spans="1:9">
       <c r="D118" s="39"/>
       <c r="E118" s="43" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F118" s="43"/>
       <c r="G118" s="43"/>
@@ -12453,7 +12654,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="E119" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -12464,7 +12665,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="36"/>
       <c r="B121" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -12473,28 +12674,28 @@
     <row r="123" spans="1:9">
       <c r="A123" s="36"/>
       <c r="C123" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H123" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="36"/>
       <c r="C124" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="36"/>
       <c r="C125" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="36"/>
       <c r="C126" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -12507,65 +12708,65 @@
     </row>
     <row r="130" spans="2:8">
       <c r="C130" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="131" spans="2:8">
       <c r="D131" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="132" spans="2:8">
       <c r="D132" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="133" spans="2:8">
       <c r="D133" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="D134" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="D135" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="D136" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="138" spans="2:8">
       <c r="C138" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="140" spans="2:8">
       <c r="D140" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="141" spans="2:8">
       <c r="D141" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="142" spans="2:8">
       <c r="D142" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H142" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="145" spans="3:9">
       <c r="C145" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="147" spans="3:9">
@@ -12575,12 +12776,12 @@
     </row>
     <row r="148" spans="3:9">
       <c r="E148" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="149" spans="3:9">
       <c r="E149" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="150" spans="3:9">
@@ -12590,35 +12791,35 @@
     </row>
     <row r="152" spans="3:9">
       <c r="D152" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="153" spans="3:9">
       <c r="E153" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="154" spans="3:9">
       <c r="E154" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="155" spans="3:9">
       <c r="E155" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="156" spans="3:9">
       <c r="E156" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="157" spans="3:9">
       <c r="E157" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="I157" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="166" spans="2:14">
@@ -12626,7 +12827,7 @@
         <v>742</v>
       </c>
       <c r="C166" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="168" spans="2:14">
@@ -12660,10 +12861,10 @@
     </row>
     <row r="174" spans="2:14">
       <c r="B174" s="39" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
@@ -12675,7 +12876,7 @@
     <row r="175" spans="2:14">
       <c r="B175" s="39"/>
       <c r="C175" s="39" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D175" s="39"/>
       <c r="E175" s="39"/>
@@ -12686,34 +12887,34 @@
     </row>
     <row r="177" spans="2:10">
       <c r="D177" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="178" spans="2:10">
       <c r="E178" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="179" spans="2:10">
       <c r="E179" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="180" spans="2:10">
       <c r="E180" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I180" s="57" t="s">
         <v>1148</v>
-      </c>
-      <c r="I180" s="57" t="s">
-        <v>1151</v>
       </c>
       <c r="J180" s="57"/>
     </row>
     <row r="181" spans="2:10">
       <c r="E181" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="I181" s="57" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="J181" s="57"/>
     </row>
@@ -12771,10 +12972,10 @@
     </row>
     <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C193" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -12863,7 +13064,7 @@
         <v>764</v>
       </c>
       <c r="G210" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="211" spans="3:8">
@@ -12876,7 +13077,7 @@
         <v>765</v>
       </c>
       <c r="G213" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="214" spans="3:8">
@@ -12884,7 +13085,7 @@
         <v>766</v>
       </c>
       <c r="G214" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="215" spans="3:8">
@@ -12892,7 +13093,7 @@
         <v>767</v>
       </c>
       <c r="G215" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="216" spans="3:8">
@@ -12921,77 +13122,77 @@
         <v>790</v>
       </c>
       <c r="H220" t="s">
-        <v>793</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="222" spans="3:8">
       <c r="C222" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="223" spans="3:8">
       <c r="C223" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="231" spans="2:8">
       <c r="B231" s="39" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="233" spans="2:8">
       <c r="C233" t="s">
-        <v>794</v>
+        <v>1312</v>
       </c>
       <c r="H233" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="234" spans="2:8">
       <c r="C234" t="s">
-        <v>796</v>
+        <v>1311</v>
       </c>
       <c r="H234" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="236" spans="2:8">
       <c r="C236" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H236" t="s">
         <v>1160</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="237" spans="2:8">
       <c r="C237" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="238" spans="2:8">
       <c r="C238" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="240" spans="2:8">
       <c r="C240" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="H240" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="242" spans="2:10">
       <c r="C242" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="H242" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="246" spans="2:10">
       <c r="B246" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="248" spans="2:10">
@@ -13107,7 +13308,7 @@
         <v>787</v>
       </c>
       <c r="J269" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="270" spans="3:10">
@@ -13127,87 +13328,87 @@
     </row>
     <row r="274" spans="2:6">
       <c r="C274" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="275" spans="2:6">
       <c r="D275" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="276" spans="2:6">
       <c r="D276" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="277" spans="2:6">
       <c r="D277" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="278" spans="2:6">
       <c r="D278" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="280" spans="2:6">
       <c r="B280" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="282" spans="2:6">
       <c r="D282" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="283" spans="2:6">
       <c r="F283" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="284" spans="2:6">
       <c r="F284" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="285" spans="2:6">
       <c r="F285" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="287" spans="2:6">
       <c r="D287" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="289" spans="1:17">
       <c r="F289" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="290" spans="1:17">
       <c r="F290" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="291" spans="1:17">
       <c r="F291" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="15.75" customHeight="1">
       <c r="A294" s="36" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="295" spans="1:17" ht="17.25" customHeight="1">
       <c r="B295" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="296" spans="1:17">
       <c r="B296" s="46" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C296" s="46"/>
       <c r="D296" s="46"/>
@@ -13227,7 +13428,7 @@
     </row>
     <row r="297" spans="1:17">
       <c r="B297" s="46" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C297" s="46"/>
       <c r="D297" s="46"/>
@@ -13247,7 +13448,7 @@
     </row>
     <row r="298" spans="1:17">
       <c r="B298" s="46" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C298" s="46"/>
       <c r="D298" s="46"/>
@@ -13267,7 +13468,7 @@
     </row>
     <row r="299" spans="1:17">
       <c r="B299" s="46" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C299" s="46"/>
       <c r="D299" s="46"/>
@@ -13278,7 +13479,7 @@
       <c r="I299" s="47"/>
       <c r="J299" s="49"/>
       <c r="K299" s="48" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="L299" s="48"/>
       <c r="M299" s="48"/>
@@ -13289,7 +13490,7 @@
     </row>
     <row r="300" spans="1:17">
       <c r="B300" s="46" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C300" s="46"/>
       <c r="D300" s="46"/>
@@ -13300,7 +13501,7 @@
       <c r="I300" s="47"/>
       <c r="J300" s="49"/>
       <c r="K300" s="48" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="L300" s="48"/>
       <c r="M300" s="48"/>
@@ -13311,7 +13512,7 @@
     </row>
     <row r="301" spans="1:17">
       <c r="B301" s="46" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C301" s="46"/>
       <c r="D301" s="46"/>
@@ -13322,7 +13523,7 @@
       <c r="I301" s="47"/>
       <c r="J301" s="49"/>
       <c r="K301" s="48" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="L301" s="48"/>
       <c r="M301" s="48"/>
@@ -13333,44 +13534,44 @@
     </row>
     <row r="304" spans="1:17">
       <c r="B304" s="44" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="C306" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="C307" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="I307" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="J307" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="C308" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I308" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="J308" s="50" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="36" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="C313" s="51" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D313" s="18"/>
       <c r="E313" s="18"/>
@@ -13378,7 +13579,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="C314" s="18" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D314" s="18"/>
       <c r="E314" s="18"/>
@@ -13386,7 +13587,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="C315" s="51" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D315" s="18"/>
       <c r="E315" s="18"/>
@@ -13394,41 +13595,41 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="36" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="319" spans="1:10">
       <c r="B319" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="320" spans="1:10">
       <c r="C320" t="s">
+        <v>820</v>
+      </c>
+      <c r="E320" t="s">
         <v>823</v>
-      </c>
-      <c r="E320" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="C321" t="s">
+        <v>821</v>
+      </c>
+      <c r="E321" t="s">
         <v>824</v>
-      </c>
-      <c r="E321" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="322" spans="1:10">
       <c r="C322" t="s">
+        <v>822</v>
+      </c>
+      <c r="E322" t="s">
         <v>825</v>
-      </c>
-      <c r="E322" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="323" spans="1:10">
       <c r="C323" s="52" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -13436,27 +13637,27 @@
     </row>
     <row r="325" spans="1:10">
       <c r="C325" s="52" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="H326" s="52" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="H327" s="52" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="H328" s="52" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="G329" s="52" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13464,71 +13665,71 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="36" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="B334" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="I334" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="C336" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="J336" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="337" spans="2:7">
       <c r="C337" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="338" spans="2:7">
       <c r="C338" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="339" spans="2:7">
       <c r="C339" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="340" spans="2:7">
       <c r="C340" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="343" spans="2:7">
       <c r="B343" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="345" spans="2:7">
       <c r="C345" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G345" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="347" spans="2:7">
       <c r="C347" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="350" spans="2:7">
       <c r="C350" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="352" spans="2:7">
       <c r="D352" s="22" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E352" s="18"/>
       <c r="F352" s="18"/>
@@ -13536,7 +13737,7 @@
     </row>
     <row r="353" spans="2:10">
       <c r="D353" s="22" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E353" s="18"/>
       <c r="F353" s="18"/>
@@ -13544,7 +13745,7 @@
     </row>
     <row r="354" spans="2:10">
       <c r="D354" s="22" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E354" s="18"/>
       <c r="F354" s="18"/>
@@ -13552,23 +13753,23 @@
     </row>
     <row r="355" spans="2:10">
       <c r="D355" s="22" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E355" s="18"/>
       <c r="F355" s="18"/>
       <c r="G355" s="18"/>
       <c r="I355" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="357" spans="2:10">
       <c r="C357" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="359" spans="2:10">
       <c r="D359" s="22" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E359" s="18"/>
       <c r="F359" s="18"/>
@@ -13578,7 +13779,7 @@
     </row>
     <row r="360" spans="2:10">
       <c r="D360" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E360" s="18"/>
       <c r="F360" s="18"/>
@@ -13588,7 +13789,7 @@
     </row>
     <row r="361" spans="2:10">
       <c r="D361" s="22" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E361" s="18"/>
       <c r="F361" s="18"/>
@@ -13596,161 +13797,161 @@
       <c r="H361" s="18"/>
       <c r="I361" s="18"/>
       <c r="J361" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="363" spans="2:10">
       <c r="B363" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="365" spans="2:10">
       <c r="C365" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G365" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="367" spans="2:10">
       <c r="C367" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="369" spans="3:25">
       <c r="C369" s="36" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="370" spans="3:25" ht="14.25" customHeight="1"/>
     <row r="371" spans="3:25" ht="14.25" customHeight="1">
       <c r="D371" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="372" spans="3:25" ht="14.25" customHeight="1">
       <c r="D372" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="373" spans="3:25" ht="14.25" customHeight="1">
       <c r="D373" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="374" spans="3:25" ht="14.25" customHeight="1">
       <c r="D374" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="375" spans="3:25" ht="14.25" customHeight="1">
       <c r="D375" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="376" spans="3:25" ht="14.25" customHeight="1">
       <c r="D376" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="377" spans="3:25" ht="14.25" customHeight="1">
       <c r="D377" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="378" spans="3:25" ht="14.25" customHeight="1">
       <c r="D378" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="379" spans="3:25" ht="14.25" customHeight="1">
       <c r="D379" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="380" spans="3:25" ht="14.25" customHeight="1"/>
     <row r="381" spans="3:25" ht="14.25" customHeight="1">
       <c r="D381" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="I381" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="382" spans="3:25" ht="14.25" customHeight="1">
       <c r="D382" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I382" s="59" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J382" s="59"/>
+      <c r="K382" s="59"/>
+      <c r="L382" s="59"/>
+      <c r="M382" s="59"/>
+      <c r="N382" s="59"/>
+      <c r="O382" s="59"/>
+      <c r="P382" s="59"/>
+      <c r="Q382" s="59"/>
+      <c r="R382" s="59"/>
+      <c r="S382" s="59"/>
+      <c r="T382" s="59"/>
+      <c r="U382" s="59"/>
+      <c r="V382" s="59"/>
+      <c r="W382" s="59"/>
+      <c r="X382" s="59"/>
+      <c r="Y382" s="59"/>
+    </row>
+    <row r="383" spans="3:25" ht="14.25" customHeight="1">
+      <c r="I383" s="59" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J383" s="59"/>
+      <c r="K383" s="59"/>
+      <c r="L383" s="59"/>
+      <c r="M383" s="59"/>
+      <c r="N383" s="59"/>
+      <c r="O383" s="59"/>
+      <c r="P383" s="59"/>
+      <c r="Q383" s="59"/>
+      <c r="R383" s="59"/>
+      <c r="S383" s="59"/>
+      <c r="T383" s="59"/>
+      <c r="U383" s="59"/>
+      <c r="V383" s="59"/>
+      <c r="W383" s="59"/>
+      <c r="X383" s="59"/>
+      <c r="Y383" s="59"/>
+    </row>
+    <row r="384" spans="3:25">
+      <c r="I384" s="59" t="s">
         <v>1227</v>
       </c>
-      <c r="I382" s="60" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J382" s="60"/>
-      <c r="K382" s="60"/>
-      <c r="L382" s="60"/>
-      <c r="M382" s="60"/>
-      <c r="N382" s="60"/>
-      <c r="O382" s="60"/>
-      <c r="P382" s="60"/>
-      <c r="Q382" s="60"/>
-      <c r="R382" s="60"/>
-      <c r="S382" s="60"/>
-      <c r="T382" s="60"/>
-      <c r="U382" s="60"/>
-      <c r="V382" s="60"/>
-      <c r="W382" s="60"/>
-      <c r="X382" s="60"/>
-      <c r="Y382" s="60"/>
-    </row>
-    <row r="383" spans="3:25" ht="14.25" customHeight="1">
-      <c r="I383" s="60" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J383" s="60"/>
-      <c r="K383" s="60"/>
-      <c r="L383" s="60"/>
-      <c r="M383" s="60"/>
-      <c r="N383" s="60"/>
-      <c r="O383" s="60"/>
-      <c r="P383" s="60"/>
-      <c r="Q383" s="60"/>
-      <c r="R383" s="60"/>
-      <c r="S383" s="60"/>
-      <c r="T383" s="60"/>
-      <c r="U383" s="60"/>
-      <c r="V383" s="60"/>
-      <c r="W383" s="60"/>
-      <c r="X383" s="60"/>
-      <c r="Y383" s="60"/>
-    </row>
-    <row r="384" spans="3:25">
-      <c r="I384" s="60" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J384" s="60"/>
-      <c r="K384" s="60"/>
-      <c r="L384" s="60"/>
-      <c r="M384" s="60"/>
-      <c r="N384" s="60"/>
-      <c r="O384" s="60"/>
-      <c r="P384" s="60"/>
-      <c r="Q384" s="60"/>
-      <c r="R384" s="60"/>
-      <c r="S384" s="60"/>
-      <c r="T384" s="60"/>
-      <c r="U384" s="60"/>
-      <c r="V384" s="60"/>
-      <c r="W384" s="60"/>
-      <c r="X384" s="60"/>
-      <c r="Y384" s="60"/>
+      <c r="J384" s="59"/>
+      <c r="K384" s="59"/>
+      <c r="L384" s="59"/>
+      <c r="M384" s="59"/>
+      <c r="N384" s="59"/>
+      <c r="O384" s="59"/>
+      <c r="P384" s="59"/>
+      <c r="Q384" s="59"/>
+      <c r="R384" s="59"/>
+      <c r="S384" s="59"/>
+      <c r="T384" s="59"/>
+      <c r="U384" s="59"/>
+      <c r="V384" s="59"/>
+      <c r="W384" s="59"/>
+      <c r="X384" s="59"/>
+      <c r="Y384" s="59"/>
     </row>
     <row r="386" spans="3:14">
       <c r="D386" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="387" spans="3:14">
       <c r="C387" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="389" spans="3:14">
@@ -13760,65 +13961,65 @@
     </row>
     <row r="390" spans="3:14">
       <c r="E390" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="391" spans="3:14">
       <c r="N391" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="392" spans="3:14">
       <c r="F392" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="N392" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="393" spans="3:14">
       <c r="N393" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="394" spans="3:14">
       <c r="F394" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="N394" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="395" spans="3:14">
       <c r="H395" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="N395" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="396" spans="3:14">
       <c r="I396" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="N396" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="397" spans="3:14">
       <c r="I397" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="N397" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="398" spans="3:14">
       <c r="I398" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="N398" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="399" spans="3:14">
@@ -13828,1033 +14029,1042 @@
     </row>
     <row r="400" spans="3:14">
       <c r="H400" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="401" spans="2:13">
       <c r="I401" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="402" spans="2:13">
       <c r="E402" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="2:13">
       <c r="B404" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="405" spans="2:13">
+      <c r="C405" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="406" spans="2:13">
+      <c r="C406" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="408" spans="2:13">
+      <c r="D408" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="409" spans="2:13">
+      <c r="D409" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="410" spans="2:13">
+      <c r="D410" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="411" spans="2:13">
+      <c r="D411" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="412" spans="2:13">
+      <c r="D412" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
-      <c r="C405" t="s">
+    <row r="413" spans="2:13">
+      <c r="D413" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="414" spans="2:13">
+      <c r="D414" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="406" spans="1:9">
-      <c r="C406" t="s">
+      <c r="L414" t="b">
+        <v>1</v>
+      </c>
+      <c r="M414" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="415" spans="2:13">
+      <c r="D415" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="415" spans="1:9">
-      <c r="A415" s="36" t="s">
+      <c r="L415" t="b">
+        <v>0</v>
+      </c>
+      <c r="M415" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="416" spans="2:13">
+      <c r="D416" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13">
+      <c r="D417" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13">
+      <c r="D418" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13">
+      <c r="D419" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L419" t="b">
+        <v>1</v>
+      </c>
+      <c r="M419" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13">
+      <c r="D420" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L420" t="b">
+        <v>1</v>
+      </c>
+      <c r="M420" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13">
+      <c r="A422" s="36" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13">
+      <c r="B424" s="39" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C424" s="39"/>
+      <c r="D424" s="39"/>
+      <c r="E424" s="39"/>
+      <c r="F424" s="39"/>
+      <c r="G424" s="39"/>
+      <c r="H424" s="39"/>
+      <c r="I424" s="39"/>
+    </row>
+    <row r="426" spans="1:13">
+      <c r="C426" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13">
+      <c r="D427" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13">
+      <c r="D428" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13">
+      <c r="D429" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E429" s="61"/>
+      <c r="F429" s="61"/>
+      <c r="G429" s="61"/>
+      <c r="H429" s="61"/>
+      <c r="I429" s="61"/>
+    </row>
+    <row r="430" spans="1:13">
+      <c r="D430" s="61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E430" s="61"/>
+      <c r="F430" s="61"/>
+      <c r="G430" s="61"/>
+      <c r="H430" s="61"/>
+      <c r="I430" s="61"/>
+    </row>
+    <row r="431" spans="1:13">
+      <c r="D431" s="61"/>
+      <c r="E431" s="61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F431" s="61"/>
+      <c r="G431" s="61"/>
+      <c r="H431" s="61"/>
+      <c r="I431" s="61"/>
+    </row>
+    <row r="432" spans="1:13">
+      <c r="D432" s="61"/>
+      <c r="E432" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F432" s="61"/>
+      <c r="G432" s="61"/>
+      <c r="H432" s="61"/>
+      <c r="I432" s="61"/>
+    </row>
+    <row r="433" spans="3:9">
+      <c r="D433" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E433" s="61"/>
+      <c r="F433" s="61"/>
+      <c r="G433" s="61"/>
+      <c r="H433" s="61"/>
+      <c r="I433" s="61"/>
+    </row>
+    <row r="434" spans="3:9">
+      <c r="D434" s="61" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E434" s="61"/>
+      <c r="F434" s="61"/>
+      <c r="G434" s="61"/>
+      <c r="H434" s="61"/>
+      <c r="I434" s="61"/>
+    </row>
+    <row r="435" spans="3:9">
+      <c r="D435" s="61"/>
+      <c r="E435" s="61" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F435" s="61"/>
+      <c r="G435" s="61"/>
+      <c r="H435" s="61"/>
+      <c r="I435" s="61"/>
+    </row>
+    <row r="436" spans="3:9">
+      <c r="D436" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E436" s="61"/>
+      <c r="F436" s="61"/>
+      <c r="G436" s="61"/>
+      <c r="H436" s="61"/>
+      <c r="I436" s="61"/>
+    </row>
+    <row r="437" spans="3:9">
+      <c r="C437" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="438" spans="3:9">
+      <c r="C438" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="440" spans="3:9">
+      <c r="C440" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="442" spans="3:9">
+      <c r="D442" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="443" spans="3:9">
+      <c r="E443" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="444" spans="3:9">
+      <c r="F444" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="445" spans="3:9">
+      <c r="F445" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="446" spans="3:9">
+      <c r="F446" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="447" spans="3:9">
+      <c r="F447" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="448" spans="3:9">
+      <c r="F448" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="449" spans="3:11">
+      <c r="F449" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="450" spans="3:11">
+      <c r="F450" s="36" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G450" s="36"/>
+      <c r="H450" s="36"/>
+      <c r="I450" s="36"/>
+      <c r="K450" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="451" spans="3:11">
+      <c r="E451" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="452" spans="3:11">
+      <c r="D452" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="454" spans="3:11">
+      <c r="C454" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="456" spans="3:11">
+      <c r="D456" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="457" spans="3:11">
+      <c r="D457" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="458" spans="3:11">
+      <c r="D458" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="459" spans="3:11">
+      <c r="D459" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="460" spans="3:11">
+      <c r="D460" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="461" spans="3:11">
+      <c r="D461" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="462" spans="3:11">
+      <c r="D462" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="463" spans="3:11">
+      <c r="D463" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="464" spans="3:11">
+      <c r="D464" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10">
+      <c r="D466" s="36" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E466" s="36"/>
+      <c r="F466" s="36"/>
+      <c r="G466" s="36"/>
+      <c r="H466" s="36" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I466" s="36"/>
+      <c r="J466" s="36"/>
+    </row>
+    <row r="468" spans="1:10">
+      <c r="A468" s="36" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10">
+      <c r="B470" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10">
+      <c r="D472" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="417" spans="2:7">
-      <c r="B417" t="s">
+    <row r="476" spans="1:10">
+      <c r="B476" t="s">
         <v>1194</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D476" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="419" spans="2:7">
-      <c r="D419" t="s">
+    <row r="479" spans="1:10">
+      <c r="D479" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="423" spans="2:7">
-      <c r="B423" t="s">
+    <row r="481" spans="2:7">
+      <c r="B481" t="s">
         <v>1197</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D481" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="426" spans="2:7">
-      <c r="D426" t="s">
+    <row r="483" spans="2:7">
+      <c r="C483" s="58" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D483" s="43"/>
+      <c r="E483" s="43"/>
+      <c r="F483" s="43"/>
+      <c r="G483" s="43"/>
+    </row>
+    <row r="484" spans="2:7">
+      <c r="C484" s="58" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D484" s="43"/>
+      <c r="E484" s="43"/>
+      <c r="F484" s="43"/>
+      <c r="G484" s="43"/>
+    </row>
+    <row r="485" spans="2:7">
+      <c r="C485" s="58" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D485" s="43"/>
+      <c r="E485" s="43"/>
+      <c r="F485" s="43"/>
+      <c r="G485" s="43"/>
+    </row>
+    <row r="486" spans="2:7">
+      <c r="C486" s="58" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D486" s="43"/>
+      <c r="E486" s="43"/>
+      <c r="F486" s="43"/>
+      <c r="G486" s="43"/>
+    </row>
+    <row r="487" spans="2:7">
+      <c r="C487" s="58" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D487" s="43"/>
+      <c r="E487" s="43"/>
+      <c r="F487" s="43"/>
+      <c r="G487" s="43"/>
+    </row>
+    <row r="488" spans="2:7">
+      <c r="C488" s="58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D488" s="43"/>
+      <c r="E488" s="43"/>
+      <c r="F488" s="43"/>
+      <c r="G488" s="43"/>
+    </row>
+    <row r="489" spans="2:7">
+      <c r="C489" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D489" s="43"/>
+      <c r="E489" s="43"/>
+      <c r="F489" s="43"/>
+      <c r="G489" s="43"/>
+    </row>
+    <row r="490" spans="2:7">
+      <c r="C490" s="58" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D490" s="43"/>
+      <c r="E490" s="43"/>
+      <c r="F490" s="43"/>
+      <c r="G490" s="43"/>
+    </row>
+    <row r="491" spans="2:7">
+      <c r="C491" s="58" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D491" s="43"/>
+      <c r="E491" s="43"/>
+      <c r="F491" s="43"/>
+      <c r="G491" s="43"/>
+    </row>
+    <row r="492" spans="2:7">
+      <c r="C492" s="58" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D492" s="43"/>
+      <c r="E492" s="43"/>
+      <c r="F492" s="43"/>
+      <c r="G492" s="43"/>
+    </row>
+    <row r="493" spans="2:7">
+      <c r="C493" s="58" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D493" s="43"/>
+      <c r="E493" s="43"/>
+      <c r="F493" s="43"/>
+      <c r="G493" s="43"/>
+    </row>
+    <row r="494" spans="2:7" ht="14.25" customHeight="1">
+      <c r="C494" s="58" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D494" s="43"/>
+      <c r="E494" s="43"/>
+      <c r="F494" s="43"/>
+      <c r="G494" s="43"/>
+    </row>
+    <row r="495" spans="2:7">
+      <c r="C495" s="58" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="428" spans="2:7">
-      <c r="B428" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D428" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="430" spans="2:7">
-      <c r="C430" s="59" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D430" s="43"/>
-      <c r="E430" s="43"/>
-      <c r="F430" s="43"/>
-      <c r="G430" s="43"/>
-    </row>
-    <row r="431" spans="2:7">
-      <c r="C431" s="59" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D431" s="43"/>
-      <c r="E431" s="43"/>
-      <c r="F431" s="43"/>
-      <c r="G431" s="43"/>
-    </row>
-    <row r="432" spans="2:7">
-      <c r="C432" s="59" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D432" s="43"/>
-      <c r="E432" s="43"/>
-      <c r="F432" s="43"/>
-      <c r="G432" s="43"/>
-    </row>
-    <row r="433" spans="3:7">
-      <c r="C433" s="59" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D433" s="43"/>
-      <c r="E433" s="43"/>
-      <c r="F433" s="43"/>
-      <c r="G433" s="43"/>
-    </row>
-    <row r="434" spans="3:7">
-      <c r="C434" s="59" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D434" s="43"/>
-      <c r="E434" s="43"/>
-      <c r="F434" s="43"/>
-      <c r="G434" s="43"/>
-    </row>
-    <row r="435" spans="3:7">
-      <c r="C435" s="59" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D435" s="43"/>
-      <c r="E435" s="43"/>
-      <c r="F435" s="43"/>
-      <c r="G435" s="43"/>
-    </row>
-    <row r="436" spans="3:7">
-      <c r="C436" s="59" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D436" s="43"/>
-      <c r="E436" s="43"/>
-      <c r="F436" s="43"/>
-      <c r="G436" s="43"/>
-    </row>
-    <row r="437" spans="3:7">
-      <c r="C437" s="59" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D437" s="43"/>
-      <c r="E437" s="43"/>
-      <c r="F437" s="43"/>
-      <c r="G437" s="43"/>
-    </row>
-    <row r="438" spans="3:7">
-      <c r="C438" s="59" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D438" s="43"/>
-      <c r="E438" s="43"/>
-      <c r="F438" s="43"/>
-      <c r="G438" s="43"/>
-    </row>
-    <row r="439" spans="3:7">
-      <c r="C439" s="59" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D439" s="43"/>
-      <c r="E439" s="43"/>
-      <c r="F439" s="43"/>
-      <c r="G439" s="43"/>
-    </row>
-    <row r="440" spans="3:7">
-      <c r="C440" s="59" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D440" s="43"/>
-      <c r="E440" s="43"/>
-      <c r="F440" s="43"/>
-      <c r="G440" s="43"/>
-    </row>
-    <row r="441" spans="3:7" ht="14.25" customHeight="1">
-      <c r="C441" s="59" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D441" s="43"/>
-      <c r="E441" s="43"/>
-      <c r="F441" s="43"/>
-      <c r="G441" s="43"/>
-    </row>
-    <row r="442" spans="3:7">
-      <c r="C442" s="59" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D442" s="43"/>
-      <c r="E442" s="43"/>
-      <c r="F442" s="43"/>
-      <c r="G442" s="43"/>
-    </row>
-    <row r="443" spans="3:7">
-      <c r="C443" s="59" t="s">
+      <c r="D495" s="43"/>
+      <c r="E495" s="43"/>
+      <c r="F495" s="43"/>
+      <c r="G495" s="43"/>
+    </row>
+    <row r="496" spans="2:7">
+      <c r="C496" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D443" s="43"/>
-      <c r="E443" s="43"/>
-      <c r="F443" s="43"/>
-      <c r="G443" s="43"/>
-    </row>
-    <row r="452" spans="1:6">
-      <c r="A452" s="36" t="s">
+      <c r="D496" s="43"/>
+      <c r="E496" s="43"/>
+      <c r="F496" s="43"/>
+      <c r="G496" s="43"/>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="36" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="B507" t="s">
+        <v>855</v>
+      </c>
+      <c r="D507" t="s">
+        <v>856</v>
+      </c>
+      <c r="F507" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
-      <c r="B454" t="s">
+    <row r="509" spans="1:6">
+      <c r="B509" t="s">
+        <v>82</v>
+      </c>
+      <c r="D509" t="s">
         <v>858</v>
       </c>
-      <c r="D454" t="s">
+      <c r="F509" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="B510" t="s">
         <v>859</v>
       </c>
-      <c r="F454" t="s">
+      <c r="D510" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="456" spans="1:6">
-      <c r="B456" t="s">
-        <v>82</v>
-      </c>
-      <c r="D456" t="s">
+      <c r="F510" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="B511" t="s">
+        <v>86</v>
+      </c>
+      <c r="D511" t="s">
         <v>861</v>
       </c>
-      <c r="F456" t="s">
+      <c r="F511" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="B512" t="s">
+        <v>409</v>
+      </c>
+      <c r="D512" t="s">
+        <v>862</v>
+      </c>
+      <c r="F512" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
-      <c r="B457" t="s">
+    <row r="513" spans="2:15">
+      <c r="B513" t="s">
+        <v>410</v>
+      </c>
+      <c r="D513" t="s">
+        <v>863</v>
+      </c>
+      <c r="F513" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="514" spans="2:15">
+      <c r="B514" t="s">
+        <v>864</v>
+      </c>
+      <c r="D514" t="s">
+        <v>865</v>
+      </c>
+      <c r="F514" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="515" spans="2:15">
+      <c r="B515" t="s">
+        <v>866</v>
+      </c>
+      <c r="D515" t="s">
+        <v>867</v>
+      </c>
+      <c r="F515" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="516" spans="2:15">
+      <c r="B516" t="s">
+        <v>868</v>
+      </c>
+      <c r="D516" t="s">
+        <v>869</v>
+      </c>
+      <c r="F516" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="519" spans="2:15">
+      <c r="B519" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="521" spans="2:15">
+      <c r="C521" t="s">
+        <v>879</v>
+      </c>
+      <c r="E521" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="523" spans="2:15">
+      <c r="C523" t="s">
+        <v>858</v>
+      </c>
+      <c r="E523" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="524" spans="2:15">
+      <c r="C524" t="s">
+        <v>860</v>
+      </c>
+      <c r="E524" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="525" spans="2:15">
+      <c r="C525" t="s">
+        <v>861</v>
+      </c>
+      <c r="E525" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="526" spans="2:15">
+      <c r="C526" t="s">
         <v>862</v>
       </c>
-      <c r="D457" t="s">
-        <v>863</v>
-      </c>
-      <c r="F457" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6">
-      <c r="B458" t="s">
-        <v>86</v>
-      </c>
-      <c r="D458" t="s">
-        <v>864</v>
-      </c>
-      <c r="F458" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6">
-      <c r="B459" t="s">
-        <v>409</v>
-      </c>
-      <c r="D459" t="s">
-        <v>865</v>
-      </c>
-      <c r="F459" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6">
-      <c r="B460" t="s">
-        <v>410</v>
-      </c>
-      <c r="D460" t="s">
-        <v>866</v>
-      </c>
-      <c r="F460" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6">
-      <c r="B461" t="s">
+      <c r="E526" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="527" spans="2:15">
+      <c r="C527" t="s">
+        <v>885</v>
+      </c>
+      <c r="E527" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="528" spans="2:15">
+      <c r="C528" t="s">
+        <v>887</v>
+      </c>
+      <c r="E528" t="s">
+        <v>888</v>
+      </c>
+      <c r="J528" t="s">
+        <v>889</v>
+      </c>
+      <c r="O528" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="529" spans="3:15">
+      <c r="C529" t="s">
         <v>867</v>
       </c>
-      <c r="D461" t="s">
-        <v>868</v>
-      </c>
-      <c r="F461" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6">
-      <c r="B462" t="s">
+      <c r="E529" t="s">
+        <v>891</v>
+      </c>
+      <c r="J529" t="s">
+        <v>892</v>
+      </c>
+      <c r="O529" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="530" spans="3:15">
+      <c r="C530" s="54" t="s">
         <v>869</v>
       </c>
-      <c r="D462" t="s">
-        <v>870</v>
-      </c>
-      <c r="F462" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6">
-      <c r="B463" t="s">
-        <v>871</v>
-      </c>
-      <c r="D463" t="s">
-        <v>872</v>
-      </c>
-      <c r="F463" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="466" spans="2:15">
-      <c r="B466" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="468" spans="2:15">
-      <c r="C468" t="s">
-        <v>882</v>
-      </c>
-      <c r="E468" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="470" spans="2:15">
-      <c r="C470" t="s">
+      <c r="D530" s="54"/>
+      <c r="E530" s="54" t="s">
+        <v>893</v>
+      </c>
+      <c r="F530" s="54"/>
+      <c r="G530" s="54"/>
+      <c r="H530" s="54"/>
+      <c r="I530" s="53"/>
+    </row>
+    <row r="533" spans="3:15">
+      <c r="E533" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="535" spans="3:15">
+      <c r="C535" t="s">
+        <v>858</v>
+      </c>
+      <c r="E535" t="s">
+        <v>895</v>
+      </c>
+      <c r="K535" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="536" spans="3:15">
+      <c r="C536" t="s">
+        <v>860</v>
+      </c>
+      <c r="E536" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="537" spans="3:15">
+      <c r="C537" t="s">
         <v>861</v>
       </c>
-      <c r="E470" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="471" spans="2:15">
-      <c r="C471" t="s">
-        <v>863</v>
-      </c>
-      <c r="E471" t="s">
+      <c r="E537" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="538" spans="3:15">
+      <c r="C538" t="s">
+        <v>862</v>
+      </c>
+      <c r="E538" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="539" spans="3:15">
+      <c r="C539" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="472" spans="2:15">
-      <c r="C472" t="s">
-        <v>864</v>
-      </c>
-      <c r="E472" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="473" spans="2:15">
-      <c r="C473" t="s">
-        <v>865</v>
-      </c>
-      <c r="E473" t="s">
+      <c r="E539" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="540" spans="3:15">
+      <c r="C540" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="474" spans="2:15">
-      <c r="C474" t="s">
-        <v>888</v>
-      </c>
-      <c r="E474" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="475" spans="2:15">
-      <c r="C475" t="s">
-        <v>890</v>
-      </c>
-      <c r="E475" t="s">
-        <v>891</v>
-      </c>
-      <c r="J475" t="s">
-        <v>892</v>
-      </c>
-      <c r="O475" t="s">
+      <c r="E540" t="s">
+        <v>901</v>
+      </c>
+      <c r="J540" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="541" spans="3:15">
+      <c r="C541" t="s">
+        <v>867</v>
+      </c>
+      <c r="E541" t="s">
+        <v>902</v>
+      </c>
+      <c r="J541" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="542" spans="3:15">
+      <c r="C542" s="54" t="s">
+        <v>869</v>
+      </c>
+      <c r="E542" s="54" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="476" spans="2:15">
-      <c r="C476" t="s">
-        <v>870</v>
-      </c>
-      <c r="E476" t="s">
-        <v>894</v>
-      </c>
-      <c r="J476" t="s">
-        <v>895</v>
-      </c>
-      <c r="O476" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="477" spans="2:15">
-      <c r="C477" s="54" t="s">
-        <v>872</v>
-      </c>
-      <c r="D477" s="54"/>
-      <c r="E477" s="54" t="s">
-        <v>896</v>
-      </c>
-      <c r="F477" s="54"/>
-      <c r="G477" s="54"/>
-      <c r="H477" s="54"/>
-      <c r="I477" s="53"/>
-    </row>
-    <row r="480" spans="2:15">
-      <c r="E480" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="482" spans="1:11">
-      <c r="C482" t="s">
-        <v>861</v>
-      </c>
-      <c r="E482" t="s">
-        <v>898</v>
-      </c>
-      <c r="K482" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="483" spans="1:11">
-      <c r="C483" t="s">
-        <v>863</v>
-      </c>
-      <c r="E483" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="484" spans="1:11">
-      <c r="C484" t="s">
-        <v>864</v>
-      </c>
-      <c r="E484" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="485" spans="1:11">
-      <c r="C485" t="s">
-        <v>865</v>
-      </c>
-      <c r="E485" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="486" spans="1:11">
-      <c r="C486" t="s">
-        <v>888</v>
-      </c>
-      <c r="E486" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="487" spans="1:11">
-      <c r="C487" t="s">
-        <v>890</v>
-      </c>
-      <c r="E487" t="s">
-        <v>904</v>
-      </c>
-      <c r="J487" t="s">
+    <row r="546" spans="1:8">
+      <c r="A546" s="36" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="B548" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
-      <c r="C488" t="s">
-        <v>870</v>
-      </c>
-      <c r="E488" t="s">
-        <v>905</v>
-      </c>
-      <c r="J488" t="s">
+    <row r="550" spans="1:8">
+      <c r="B550" t="s">
+        <v>471</v>
+      </c>
+      <c r="C550" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
-      <c r="C489" s="54" t="s">
-        <v>872</v>
-      </c>
-      <c r="E489" s="54" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="493" spans="1:11">
-      <c r="A493" s="36" t="s">
+    <row r="551" spans="1:8">
+      <c r="C551" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="495" spans="1:11">
-      <c r="B495" t="s">
+      <c r="H551" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="C552" t="s">
+        <v>916</v>
+      </c>
+      <c r="H552" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="36" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
-      <c r="B497" t="s">
-        <v>471</v>
-      </c>
-      <c r="C497" t="s">
+    <row r="554" spans="1:8">
+      <c r="B554" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
-      <c r="C498" t="s">
+    <row r="556" spans="1:8">
+      <c r="B556" t="s">
+        <v>392</v>
+      </c>
+      <c r="C556" t="s">
         <v>911</v>
       </c>
-      <c r="H498" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8">
-      <c r="C499" t="s">
+    </row>
+    <row r="557" spans="1:8">
+      <c r="C557" t="s">
+        <v>912</v>
+      </c>
+      <c r="H557" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="C558" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="561" spans="2:8">
+      <c r="B561" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8">
+      <c r="C563" t="s">
         <v>919</v>
       </c>
-      <c r="H499" t="s">
+    </row>
+    <row r="564" spans="2:8">
+      <c r="C564" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
-      <c r="A500" s="36" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8">
-      <c r="B501" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="B503" t="s">
-        <v>392</v>
-      </c>
-      <c r="C503" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
-      <c r="C504" t="s">
-        <v>915</v>
-      </c>
-      <c r="H504" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8">
-      <c r="C505" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8">
-      <c r="B508" t="s">
+    <row r="565" spans="2:8">
+      <c r="C565" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="510" spans="1:8">
-      <c r="C510" t="s">
+      <c r="H565" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
-      <c r="C511" t="s">
+    <row r="567" spans="2:8">
+      <c r="B567" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
-      <c r="C512" t="s">
+    <row r="570" spans="2:8">
+      <c r="C570" s="23" t="s">
         <v>924</v>
       </c>
-      <c r="H512" t="s">
+      <c r="D570" s="18"/>
+      <c r="E570" s="18"/>
+      <c r="F570" s="18"/>
+      <c r="G570" s="18"/>
+    </row>
+    <row r="571" spans="2:8">
+      <c r="C571" s="23" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="514" spans="1:8">
-      <c r="B514" t="s">
+      <c r="D571" s="18"/>
+      <c r="E571" s="18"/>
+      <c r="F571" s="18"/>
+      <c r="G571" s="18"/>
+    </row>
+    <row r="572" spans="2:8">
+      <c r="C572" s="23" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="517" spans="1:8">
-      <c r="C517" s="23" t="s">
+      <c r="D572" s="18"/>
+      <c r="E572" s="18"/>
+      <c r="F572" s="18"/>
+      <c r="G572" s="18"/>
+    </row>
+    <row r="573" spans="2:8">
+      <c r="C573" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="D517" s="18"/>
-      <c r="E517" s="18"/>
-      <c r="F517" s="18"/>
-      <c r="G517" s="18"/>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="C518" s="23" t="s">
+      <c r="D573" s="18"/>
+      <c r="E573" s="18"/>
+      <c r="F573" s="18"/>
+      <c r="G573" s="18"/>
+      <c r="H573" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="574" spans="2:8">
+      <c r="C574" s="23" t="s">
         <v>928</v>
       </c>
-      <c r="D518" s="18"/>
-      <c r="E518" s="18"/>
-      <c r="F518" s="18"/>
-      <c r="G518" s="18"/>
-    </row>
-    <row r="519" spans="1:8">
-      <c r="C519" s="23" t="s">
-        <v>929</v>
-      </c>
-      <c r="D519" s="18"/>
-      <c r="E519" s="18"/>
-      <c r="F519" s="18"/>
-      <c r="G519" s="18"/>
-    </row>
-    <row r="520" spans="1:8">
-      <c r="C520" s="23" t="s">
+      <c r="D574" s="18"/>
+      <c r="E574" s="18"/>
+      <c r="F574" s="18"/>
+      <c r="G574" s="18"/>
+      <c r="H574" t="s">
         <v>930</v>
       </c>
-      <c r="D520" s="18"/>
-      <c r="E520" s="18"/>
-      <c r="F520" s="18"/>
-      <c r="G520" s="18"/>
-      <c r="H520" t="s">
+    </row>
+    <row r="577" spans="1:11">
+      <c r="A577" s="36" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11">
+      <c r="B579" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
-      <c r="C521" s="23" t="s">
-        <v>931</v>
-      </c>
-      <c r="D521" s="18"/>
-      <c r="E521" s="18"/>
-      <c r="F521" s="18"/>
-      <c r="G521" s="18"/>
-      <c r="H521" t="s">
+    <row r="582" spans="1:11">
+      <c r="C582" s="22" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="524" spans="1:8">
-      <c r="A524" s="36" t="s">
+      <c r="D582" s="18"/>
+      <c r="E582" s="18"/>
+      <c r="F582" s="18"/>
+      <c r="G582" s="18"/>
+      <c r="H582" s="18"/>
+      <c r="I582" s="18"/>
+    </row>
+    <row r="583" spans="1:11">
+      <c r="C583" s="22" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="526" spans="1:8">
-      <c r="B526" t="s">
+      <c r="D583" s="18"/>
+      <c r="E583" s="18"/>
+      <c r="F583" s="18"/>
+      <c r="G583" s="18"/>
+      <c r="H583" s="18"/>
+      <c r="I583" s="18"/>
+    </row>
+    <row r="584" spans="1:11">
+      <c r="C584" s="22" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="529" spans="2:11">
-      <c r="C529" s="22" t="s">
+      <c r="D584" s="18"/>
+      <c r="E584" s="18"/>
+      <c r="F584" s="18"/>
+      <c r="G584" s="18"/>
+      <c r="H584" s="18"/>
+      <c r="I584" s="18"/>
+    </row>
+    <row r="585" spans="1:11">
+      <c r="C585" s="22" t="s">
         <v>936</v>
       </c>
-      <c r="D529" s="18"/>
-      <c r="E529" s="18"/>
-      <c r="F529" s="18"/>
-      <c r="G529" s="18"/>
-      <c r="H529" s="18"/>
-      <c r="I529" s="18"/>
-    </row>
-    <row r="530" spans="2:11">
-      <c r="C530" s="22" t="s">
+      <c r="D585" s="18"/>
+      <c r="E585" s="18"/>
+      <c r="F585" s="18"/>
+      <c r="G585" s="18"/>
+      <c r="H585" s="18"/>
+      <c r="I585" s="18"/>
+      <c r="K585" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11">
+      <c r="C586" s="22" t="s">
         <v>937</v>
       </c>
-      <c r="D530" s="18"/>
-      <c r="E530" s="18"/>
-      <c r="F530" s="18"/>
-      <c r="G530" s="18"/>
-      <c r="H530" s="18"/>
-      <c r="I530" s="18"/>
-    </row>
-    <row r="531" spans="2:11">
-      <c r="C531" s="22" t="s">
-        <v>938</v>
-      </c>
-      <c r="D531" s="18"/>
-      <c r="E531" s="18"/>
-      <c r="F531" s="18"/>
-      <c r="G531" s="18"/>
-      <c r="H531" s="18"/>
-      <c r="I531" s="18"/>
-    </row>
-    <row r="532" spans="2:11">
-      <c r="C532" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="D532" s="18"/>
-      <c r="E532" s="18"/>
-      <c r="F532" s="18"/>
-      <c r="G532" s="18"/>
-      <c r="H532" s="18"/>
-      <c r="I532" s="18"/>
-      <c r="K532" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="533" spans="2:11">
-      <c r="C533" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="D533" s="18"/>
-      <c r="E533" s="18"/>
-      <c r="F533" s="18"/>
-      <c r="G533" s="18"/>
-      <c r="H533" s="18"/>
-      <c r="I533" s="18"/>
-      <c r="K533" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="534" spans="2:11">
-      <c r="C534" s="23"/>
-      <c r="D534" s="18"/>
-      <c r="E534" s="18"/>
-      <c r="F534" s="18"/>
-      <c r="G534" s="18"/>
-      <c r="H534" s="18"/>
-      <c r="I534" s="18"/>
-    </row>
-    <row r="535" spans="2:11">
-      <c r="C535" s="22" t="s">
-        <v>941</v>
-      </c>
-      <c r="D535" s="18"/>
-      <c r="E535" s="18"/>
-      <c r="F535" s="18"/>
-      <c r="G535" s="18"/>
-      <c r="H535" s="18"/>
-      <c r="I535" s="18"/>
-      <c r="K535" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="536" spans="2:11">
-      <c r="C536" s="22" t="s">
+      <c r="D586" s="18"/>
+      <c r="E586" s="18"/>
+      <c r="F586" s="18"/>
+      <c r="G586" s="18"/>
+      <c r="H586" s="18"/>
+      <c r="I586" s="18"/>
+      <c r="K586" t="s">
         <v>942</v>
       </c>
-      <c r="D536" s="18"/>
-      <c r="E536" s="18"/>
-      <c r="F536" s="18"/>
-      <c r="G536" s="18"/>
-      <c r="H536" s="18"/>
-      <c r="I536" s="18"/>
-      <c r="K536" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="537" spans="2:11">
-      <c r="C537" s="23"/>
-      <c r="D537" s="18"/>
-      <c r="E537" s="18"/>
-      <c r="F537" s="18"/>
-      <c r="G537" s="18"/>
-      <c r="H537" s="18"/>
-      <c r="I537" s="18"/>
-    </row>
-    <row r="538" spans="2:11">
-      <c r="C538" s="22" t="s">
-        <v>943</v>
-      </c>
-      <c r="D538" s="18"/>
-      <c r="E538" s="18"/>
-      <c r="F538" s="18"/>
-      <c r="G538" s="18"/>
-      <c r="H538" s="18"/>
-      <c r="I538" s="18"/>
-      <c r="K538" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="539" spans="2:11">
-      <c r="C539" s="22" t="s">
-        <v>944</v>
-      </c>
-      <c r="D539" s="18"/>
-      <c r="E539" s="18"/>
-      <c r="F539" s="18"/>
-      <c r="G539" s="18"/>
-      <c r="H539" s="18"/>
-      <c r="I539" s="18"/>
-      <c r="K539" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="543" spans="2:11">
-      <c r="B543" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="544" spans="2:11">
-      <c r="C544" s="36" t="s">
-        <v>953</v>
-      </c>
-      <c r="D544" s="36"/>
-      <c r="E544" s="36"/>
-      <c r="F544" s="36"/>
-      <c r="G544" s="36"/>
-      <c r="H544" s="36"/>
-    </row>
-    <row r="545" spans="3:10">
-      <c r="C545" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="D545" s="36"/>
-      <c r="E545" s="36"/>
-      <c r="F545" s="36"/>
-      <c r="G545" s="36"/>
-      <c r="H545" s="36"/>
-    </row>
-    <row r="547" spans="3:10">
-      <c r="C547" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="549" spans="3:10">
-      <c r="D549" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="E549" s="18"/>
-      <c r="F549" s="18"/>
-      <c r="G549" s="18"/>
-      <c r="H549" s="18"/>
-      <c r="I549" s="18"/>
-    </row>
-    <row r="550" spans="3:10">
-      <c r="D550" s="22" t="s">
-        <v>956</v>
-      </c>
-      <c r="E550" s="18"/>
-      <c r="F550" s="18"/>
-      <c r="G550" s="18"/>
-      <c r="H550" s="18"/>
-      <c r="I550" s="18"/>
-    </row>
-    <row r="551" spans="3:10">
-      <c r="D551" s="22" t="s">
-        <v>957</v>
-      </c>
-      <c r="E551" s="18"/>
-      <c r="F551" s="18"/>
-      <c r="G551" s="18"/>
-      <c r="H551" s="18"/>
-      <c r="I551" s="18"/>
-      <c r="J551" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="552" spans="3:10">
-      <c r="D552" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="E552" s="18"/>
-      <c r="F552" s="18"/>
-      <c r="G552" s="18"/>
-      <c r="H552" s="18"/>
-      <c r="I552" s="18"/>
-      <c r="J552" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="553" spans="3:10">
-      <c r="D553" s="23"/>
-      <c r="E553" s="18"/>
-      <c r="F553" s="18"/>
-      <c r="G553" s="18"/>
-      <c r="H553" s="18"/>
-      <c r="I553" s="18"/>
-    </row>
-    <row r="554" spans="3:10">
-      <c r="D554" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="E554" s="18"/>
-      <c r="F554" s="18"/>
-      <c r="G554" s="18"/>
-      <c r="H554" s="18"/>
-      <c r="I554" s="18"/>
-    </row>
-    <row r="555" spans="3:10">
-      <c r="D555" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="E555" s="18"/>
-      <c r="F555" s="18"/>
-      <c r="G555" s="18"/>
-      <c r="H555" s="18"/>
-      <c r="I555" s="18"/>
-    </row>
-    <row r="556" spans="3:10">
-      <c r="D556" s="23"/>
-      <c r="E556" s="18"/>
-      <c r="F556" s="18"/>
-      <c r="G556" s="18"/>
-      <c r="H556" s="18"/>
-      <c r="I556" s="18"/>
-    </row>
-    <row r="557" spans="3:10">
-      <c r="D557" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="E557" s="18"/>
-      <c r="F557" s="18"/>
-      <c r="G557" s="18"/>
-      <c r="H557" s="18"/>
-      <c r="I557" s="18"/>
-      <c r="J557" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="558" spans="3:10">
-      <c r="D558" s="23"/>
-      <c r="E558" s="18"/>
-      <c r="F558" s="18"/>
-      <c r="G558" s="18"/>
-      <c r="H558" s="18"/>
-      <c r="I558" s="18"/>
-    </row>
-    <row r="559" spans="3:10">
-      <c r="D559" s="22" t="s">
-        <v>960</v>
-      </c>
-      <c r="E559" s="18"/>
-      <c r="F559" s="18"/>
-      <c r="G559" s="18"/>
-      <c r="H559" s="18"/>
-      <c r="I559" s="18"/>
-      <c r="J559" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="560" spans="3:10">
-      <c r="D560" s="22" t="s">
-        <v>961</v>
-      </c>
-      <c r="E560" s="18"/>
-      <c r="F560" s="18"/>
-      <c r="G560" s="18"/>
-      <c r="H560" s="18"/>
-      <c r="I560" s="18"/>
-      <c r="J560" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="564" spans="1:12">
-      <c r="A564" s="36" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="566" spans="1:12">
-      <c r="B566" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="567" spans="1:12">
-      <c r="C567" t="s">
-        <v>966</v>
-      </c>
-      <c r="E567" t="s">
-        <v>967</v>
-      </c>
-      <c r="J567" t="s">
-        <v>979</v>
-      </c>
-      <c r="L567" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="568" spans="1:12">
-      <c r="E568" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="570" spans="1:12">
-      <c r="E570" t="s">
-        <v>968</v>
-      </c>
-      <c r="G570" s="56" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="572" spans="1:12">
-      <c r="C572" t="s">
-        <v>970</v>
-      </c>
-      <c r="E572" t="s">
-        <v>971</v>
-      </c>
-      <c r="J572" t="s">
-        <v>981</v>
-      </c>
-      <c r="L572" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="573" spans="1:12">
-      <c r="E573" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="575" spans="1:12">
-      <c r="E575" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="577" spans="2:12">
-      <c r="C577" t="s">
-        <v>974</v>
-      </c>
-      <c r="E577" t="s">
-        <v>975</v>
-      </c>
-      <c r="J577" t="s">
-        <v>983</v>
-      </c>
-      <c r="L577" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="578" spans="2:12">
-      <c r="E578" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="580" spans="2:12">
-      <c r="E580" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="582" spans="2:12">
-      <c r="C582" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="585" spans="2:12">
-      <c r="B585" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="587" spans="2:12">
-      <c r="C587" s="18" t="s">
-        <v>991</v>
-      </c>
+    </row>
+    <row r="587" spans="1:11">
+      <c r="C587" s="23"/>
       <c r="D587" s="18"/>
       <c r="E587" s="18"/>
       <c r="F587" s="18"/>
       <c r="G587" s="18"/>
       <c r="H587" s="18"/>
       <c r="I587" s="18"/>
-      <c r="J587" s="18"/>
-    </row>
-    <row r="588" spans="2:12">
-      <c r="C588" s="18" t="s">
-        <v>992</v>
+    </row>
+    <row r="588" spans="1:11">
+      <c r="C588" s="22" t="s">
+        <v>938</v>
       </c>
       <c r="D588" s="18"/>
       <c r="E588" s="18"/>
@@ -14862,33 +15072,36 @@
       <c r="G588" s="18"/>
       <c r="H588" s="18"/>
       <c r="I588" s="18"/>
-      <c r="J588" s="18"/>
-    </row>
-    <row r="589" spans="2:12">
-      <c r="C589" s="18"/>
+      <c r="K588" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11">
+      <c r="C589" s="22" t="s">
+        <v>939</v>
+      </c>
       <c r="D589" s="18"/>
       <c r="E589" s="18"/>
       <c r="F589" s="18"/>
       <c r="G589" s="18"/>
       <c r="H589" s="18"/>
       <c r="I589" s="18"/>
-      <c r="J589" s="18"/>
-    </row>
-    <row r="590" spans="2:12">
-      <c r="C590" s="18" t="s">
-        <v>988</v>
-      </c>
+      <c r="K589" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11">
+      <c r="C590" s="23"/>
       <c r="D590" s="18"/>
       <c r="E590" s="18"/>
       <c r="F590" s="18"/>
       <c r="G590" s="18"/>
       <c r="H590" s="18"/>
       <c r="I590" s="18"/>
-      <c r="J590" s="18"/>
-    </row>
-    <row r="591" spans="2:12">
-      <c r="C591" s="18" t="s">
-        <v>989</v>
+    </row>
+    <row r="591" spans="1:11">
+      <c r="C591" s="22" t="s">
+        <v>940</v>
       </c>
       <c r="D591" s="18"/>
       <c r="E591" s="18"/>
@@ -14896,11 +15109,13 @@
       <c r="G591" s="18"/>
       <c r="H591" s="18"/>
       <c r="I591" s="18"/>
-      <c r="J591" s="18"/>
-    </row>
-    <row r="592" spans="2:12">
-      <c r="C592" s="18" t="s">
-        <v>990</v>
+      <c r="K591" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11">
+      <c r="C592" s="22" t="s">
+        <v>941</v>
       </c>
       <c r="D592" s="18"/>
       <c r="E592" s="18"/>
@@ -14908,406 +15123,824 @@
       <c r="G592" s="18"/>
       <c r="H592" s="18"/>
       <c r="I592" s="18"/>
-      <c r="J592" s="18"/>
-    </row>
-    <row r="593" spans="2:10">
-      <c r="C593" s="18"/>
-      <c r="D593" s="18"/>
-      <c r="E593" s="18"/>
-      <c r="F593" s="18"/>
-      <c r="G593" s="18"/>
-      <c r="H593" s="18"/>
-      <c r="I593" s="18"/>
-      <c r="J593" s="18"/>
-    </row>
-    <row r="594" spans="2:10">
-      <c r="C594" s="52" t="s">
-        <v>993</v>
-      </c>
-      <c r="D594" s="18"/>
-      <c r="E594" s="18"/>
-      <c r="F594" s="18"/>
-      <c r="G594" s="18"/>
-      <c r="H594" s="18"/>
-      <c r="I594" s="18"/>
-      <c r="J594" s="18"/>
-    </row>
-    <row r="595" spans="2:10">
-      <c r="C595" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="D595" s="18"/>
-      <c r="E595" s="18"/>
-      <c r="F595" s="18"/>
-      <c r="G595" s="18"/>
-      <c r="H595" s="18"/>
-      <c r="I595" s="18"/>
-      <c r="J595" s="18"/>
+      <c r="K592" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="596" spans="2:10">
+      <c r="B596" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="597" spans="2:10">
+      <c r="C597" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D597" s="36"/>
+      <c r="E597" s="36"/>
+      <c r="F597" s="36"/>
+      <c r="G597" s="36"/>
+      <c r="H597" s="36"/>
     </row>
     <row r="598" spans="2:10">
-      <c r="B598" t="s">
-        <v>995</v>
-      </c>
+      <c r="C598" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="D598" s="36"/>
+      <c r="E598" s="36"/>
+      <c r="F598" s="36"/>
+      <c r="G598" s="36"/>
+      <c r="H598" s="36"/>
     </row>
     <row r="600" spans="2:10">
       <c r="C600" t="s">
-        <v>996</v>
+        <v>951</v>
       </c>
     </row>
     <row r="602" spans="2:10">
       <c r="D602" s="22" t="s">
-        <v>997</v>
+        <v>952</v>
       </c>
       <c r="E602" s="18"/>
       <c r="F602" s="18"/>
       <c r="G602" s="18"/>
       <c r="H602" s="18"/>
       <c r="I602" s="18"/>
-      <c r="J602" s="18" t="s">
-        <v>1000</v>
-      </c>
     </row>
     <row r="603" spans="2:10">
       <c r="D603" s="22" t="s">
-        <v>998</v>
+        <v>953</v>
       </c>
       <c r="E603" s="18"/>
       <c r="F603" s="18"/>
       <c r="G603" s="18"/>
       <c r="H603" s="18"/>
       <c r="I603" s="18"/>
-      <c r="J603" s="18" t="s">
-        <v>1000</v>
-      </c>
     </row>
     <row r="604" spans="2:10">
       <c r="D604" s="22" t="s">
-        <v>999</v>
+        <v>954</v>
       </c>
       <c r="E604" s="18"/>
       <c r="F604" s="18"/>
       <c r="G604" s="18"/>
       <c r="H604" s="18"/>
       <c r="I604" s="18"/>
-      <c r="J604" s="18" t="s">
+      <c r="J604" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="605" spans="2:10">
+      <c r="D605" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="E605" s="18"/>
+      <c r="F605" s="18"/>
+      <c r="G605" s="18"/>
+      <c r="H605" s="18"/>
+      <c r="I605" s="18"/>
+      <c r="J605" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="606" spans="2:10">
+      <c r="D606" s="23"/>
+      <c r="E606" s="18"/>
+      <c r="F606" s="18"/>
+      <c r="G606" s="18"/>
+      <c r="H606" s="18"/>
+      <c r="I606" s="18"/>
+    </row>
+    <row r="607" spans="2:10">
+      <c r="D607" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="E607" s="18"/>
+      <c r="F607" s="18"/>
+      <c r="G607" s="18"/>
+      <c r="H607" s="18"/>
+      <c r="I607" s="18"/>
+    </row>
+    <row r="608" spans="2:10">
+      <c r="D608" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="E608" s="18"/>
+      <c r="F608" s="18"/>
+      <c r="G608" s="18"/>
+      <c r="H608" s="18"/>
+      <c r="I608" s="18"/>
+    </row>
+    <row r="609" spans="1:12">
+      <c r="D609" s="23"/>
+      <c r="E609" s="18"/>
+      <c r="F609" s="18"/>
+      <c r="G609" s="18"/>
+      <c r="H609" s="18"/>
+      <c r="I609" s="18"/>
+    </row>
+    <row r="610" spans="1:12">
+      <c r="D610" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="E610" s="18"/>
+      <c r="F610" s="18"/>
+      <c r="G610" s="18"/>
+      <c r="H610" s="18"/>
+      <c r="I610" s="18"/>
+      <c r="J610" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12">
+      <c r="D611" s="23"/>
+      <c r="E611" s="18"/>
+      <c r="F611" s="18"/>
+      <c r="G611" s="18"/>
+      <c r="H611" s="18"/>
+      <c r="I611" s="18"/>
+    </row>
+    <row r="612" spans="1:12">
+      <c r="D612" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="E612" s="18"/>
+      <c r="F612" s="18"/>
+      <c r="G612" s="18"/>
+      <c r="H612" s="18"/>
+      <c r="I612" s="18"/>
+      <c r="J612" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12">
+      <c r="D613" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="E613" s="18"/>
+      <c r="F613" s="18"/>
+      <c r="G613" s="18"/>
+      <c r="H613" s="18"/>
+      <c r="I613" s="18"/>
+      <c r="J613" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12">
+      <c r="A617" s="36" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12">
+      <c r="B619" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12">
+      <c r="C620" t="s">
+        <v>963</v>
+      </c>
+      <c r="E620" t="s">
+        <v>964</v>
+      </c>
+      <c r="J620" t="s">
+        <v>976</v>
+      </c>
+      <c r="L620" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12">
+      <c r="E621" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12">
+      <c r="E623" t="s">
+        <v>965</v>
+      </c>
+      <c r="G623" s="56" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="625" spans="2:12">
+      <c r="C625" t="s">
+        <v>967</v>
+      </c>
+      <c r="E625" t="s">
+        <v>968</v>
+      </c>
+      <c r="J625" t="s">
+        <v>978</v>
+      </c>
+      <c r="L625" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="626" spans="2:12">
+      <c r="E626" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="628" spans="2:12">
+      <c r="E628" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="630" spans="2:12">
+      <c r="C630" t="s">
+        <v>971</v>
+      </c>
+      <c r="E630" t="s">
+        <v>972</v>
+      </c>
+      <c r="J630" t="s">
+        <v>980</v>
+      </c>
+      <c r="L630" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="631" spans="2:12">
+      <c r="E631" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="633" spans="2:12">
+      <c r="E633" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="635" spans="2:12">
+      <c r="C635" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="638" spans="2:12">
+      <c r="B638" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="640" spans="2:12">
+      <c r="C640" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="D640" s="18"/>
+      <c r="E640" s="18"/>
+      <c r="F640" s="18"/>
+      <c r="G640" s="18"/>
+      <c r="H640" s="18"/>
+      <c r="I640" s="18"/>
+      <c r="J640" s="18"/>
+    </row>
+    <row r="641" spans="2:10">
+      <c r="C641" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="D641" s="18"/>
+      <c r="E641" s="18"/>
+      <c r="F641" s="18"/>
+      <c r="G641" s="18"/>
+      <c r="H641" s="18"/>
+      <c r="I641" s="18"/>
+      <c r="J641" s="18"/>
+    </row>
+    <row r="642" spans="2:10">
+      <c r="C642" s="18"/>
+      <c r="D642" s="18"/>
+      <c r="E642" s="18"/>
+      <c r="F642" s="18"/>
+      <c r="G642" s="18"/>
+      <c r="H642" s="18"/>
+      <c r="I642" s="18"/>
+      <c r="J642" s="18"/>
+    </row>
+    <row r="643" spans="2:10">
+      <c r="C643" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="D643" s="18"/>
+      <c r="E643" s="18"/>
+      <c r="F643" s="18"/>
+      <c r="G643" s="18"/>
+      <c r="H643" s="18"/>
+      <c r="I643" s="18"/>
+      <c r="J643" s="18"/>
+    </row>
+    <row r="644" spans="2:10">
+      <c r="C644" s="18" t="s">
+        <v>986</v>
+      </c>
+      <c r="D644" s="18"/>
+      <c r="E644" s="18"/>
+      <c r="F644" s="18"/>
+      <c r="G644" s="18"/>
+      <c r="H644" s="18"/>
+      <c r="I644" s="18"/>
+      <c r="J644" s="18"/>
+    </row>
+    <row r="645" spans="2:10">
+      <c r="C645" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="D645" s="18"/>
+      <c r="E645" s="18"/>
+      <c r="F645" s="18"/>
+      <c r="G645" s="18"/>
+      <c r="H645" s="18"/>
+      <c r="I645" s="18"/>
+      <c r="J645" s="18"/>
+    </row>
+    <row r="646" spans="2:10">
+      <c r="C646" s="18"/>
+      <c r="D646" s="18"/>
+      <c r="E646" s="18"/>
+      <c r="F646" s="18"/>
+      <c r="G646" s="18"/>
+      <c r="H646" s="18"/>
+      <c r="I646" s="18"/>
+      <c r="J646" s="18"/>
+    </row>
+    <row r="647" spans="2:10">
+      <c r="C647" s="52" t="s">
+        <v>990</v>
+      </c>
+      <c r="D647" s="18"/>
+      <c r="E647" s="18"/>
+      <c r="F647" s="18"/>
+      <c r="G647" s="18"/>
+      <c r="H647" s="18"/>
+      <c r="I647" s="18"/>
+      <c r="J647" s="18"/>
+    </row>
+    <row r="648" spans="2:10">
+      <c r="C648" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="D648" s="18"/>
+      <c r="E648" s="18"/>
+      <c r="F648" s="18"/>
+      <c r="G648" s="18"/>
+      <c r="H648" s="18"/>
+      <c r="I648" s="18"/>
+      <c r="J648" s="18"/>
+    </row>
+    <row r="651" spans="2:10">
+      <c r="B651" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="653" spans="2:10">
+      <c r="C653" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="655" spans="2:10">
+      <c r="D655" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="E655" s="18"/>
+      <c r="F655" s="18"/>
+      <c r="G655" s="18"/>
+      <c r="H655" s="18"/>
+      <c r="I655" s="18"/>
+      <c r="J655" s="18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="656" spans="2:10">
+      <c r="D656" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="E656" s="18"/>
+      <c r="F656" s="18"/>
+      <c r="G656" s="18"/>
+      <c r="H656" s="18"/>
+      <c r="I656" s="18"/>
+      <c r="J656" s="18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10">
+      <c r="D657" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="E657" s="18"/>
+      <c r="F657" s="18"/>
+      <c r="G657" s="18"/>
+      <c r="H657" s="18"/>
+      <c r="I657" s="18"/>
+      <c r="J657" s="18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10">
+      <c r="D658" s="55"/>
+    </row>
+    <row r="660" spans="1:10">
+      <c r="C660" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10">
+      <c r="D662" t="s">
+        <v>999</v>
+      </c>
+      <c r="J662" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="605" spans="2:10">
-      <c r="D605" s="55"/>
-    </row>
-    <row r="607" spans="2:10">
-      <c r="C607" t="s">
+    <row r="664" spans="1:10">
+      <c r="A664" s="36" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="609" spans="1:10">
-      <c r="D609" t="s">
+    <row r="666" spans="1:10">
+      <c r="B666" t="s">
         <v>1002</v>
       </c>
-      <c r="J609" t="s">
+      <c r="C666" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="611" spans="1:10">
-      <c r="A611" s="36" t="s">
+      <c r="E666" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="613" spans="1:10">
-      <c r="B613" t="s">
+    <row r="667" spans="1:10">
+      <c r="E667" t="s">
         <v>1005</v>
       </c>
-      <c r="C613" t="s">
+    </row>
+    <row r="668" spans="1:10">
+      <c r="E668" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10">
+      <c r="E669" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10">
+      <c r="E670" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10">
+      <c r="E671" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="673" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E673" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="674" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E674" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="675" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E675" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="676" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E676" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="677" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E677" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="678" spans="5:9">
+      <c r="E678" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="680" spans="5:9">
+      <c r="E680" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="681" spans="5:9">
+      <c r="E681" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="683" spans="5:9">
+      <c r="E683" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I683" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="684" spans="5:9">
+      <c r="E684" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I684" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="685" spans="5:9">
+      <c r="E685" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I685" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="686" spans="5:9">
+      <c r="E686" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I686" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="690" spans="2:5">
+      <c r="C690" t="s">
+        <v>967</v>
+      </c>
+      <c r="E690" t="s">
         <v>1006</v>
       </c>
-      <c r="E613" t="s">
+    </row>
+    <row r="691" spans="2:5">
+      <c r="E691" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="614" spans="1:10">
-      <c r="E614" t="s">
+    <row r="693" spans="2:5">
+      <c r="C693" t="s">
+        <v>971</v>
+      </c>
+      <c r="E693" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="616" spans="1:10">
-      <c r="C616" t="s">
-        <v>970</v>
-      </c>
-      <c r="E616" t="s">
+    <row r="696" spans="2:5">
+      <c r="B696" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="697" spans="2:5">
+      <c r="C697" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="699" spans="2:5">
+      <c r="D699" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="701" spans="2:5">
+      <c r="D701" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8">
+      <c r="A705" s="36" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="617" spans="1:10">
-      <c r="E617" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="619" spans="1:10">
-      <c r="C619" t="s">
-        <v>974</v>
-      </c>
-      <c r="E619" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="622" spans="1:10">
-      <c r="B622" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="623" spans="1:10">
-      <c r="C623" t="s">
+    <row r="707" spans="1:8">
+      <c r="B707" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
-      <c r="D625" t="s">
+    <row r="709" spans="1:8">
+      <c r="C709" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="627" spans="1:8">
-      <c r="D627" t="s">
+      <c r="H709" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8">
+      <c r="C710" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="631" spans="1:8">
-      <c r="A631" s="36" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8">
-      <c r="B633" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="635" spans="1:8">
-      <c r="C635" t="s">
+      <c r="H710" t="s">
         <v>1018</v>
       </c>
-      <c r="H635" t="s">
+    </row>
+    <row r="711" spans="1:8">
+      <c r="C711" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8">
+      <c r="C712" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
-      <c r="C636" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H636" t="s">
+    <row r="713" spans="1:8">
+      <c r="C713" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
-      <c r="C637" t="s">
+    <row r="715" spans="1:8">
+      <c r="B715" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
-      <c r="C638" t="s">
+    <row r="717" spans="1:8">
+      <c r="C717" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F717" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
-      <c r="C639" t="s">
+    <row r="719" spans="1:8">
+      <c r="C719" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
-      <c r="B641" t="s">
+    <row r="721" spans="1:4">
+      <c r="D721" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
-      <c r="C643" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F643" t="s">
+    <row r="722" spans="1:4">
+      <c r="D722" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
-      <c r="C645" t="s">
+    <row r="723" spans="1:4">
+      <c r="D723" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
-      <c r="D647" t="s">
+    <row r="724" spans="1:4">
+      <c r="D724" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
-      <c r="D648" t="s">
+    <row r="725" spans="1:4">
+      <c r="D725" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
-      <c r="D649" t="s">
+    <row r="726" spans="1:4">
+      <c r="D726" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
-      <c r="D650" t="s">
+    <row r="727" spans="1:4">
+      <c r="D727" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
-      <c r="D651" t="s">
+    <row r="728" spans="1:4">
+      <c r="D728" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
-      <c r="D652" t="s">
+    <row r="730" spans="1:4">
+      <c r="A730" s="36" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
-      <c r="D653" t="s">
+    <row r="732" spans="1:4">
+      <c r="B732" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
-      <c r="D654" t="s">
+    <row r="734" spans="1:4">
+      <c r="C734" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
-      <c r="A656" s="36" t="s">
+    <row r="735" spans="1:4">
+      <c r="C735" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="C736" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="738" spans="2:12">
+      <c r="C738" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="658" spans="2:12">
-      <c r="B658" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="660" spans="2:12">
-      <c r="C660" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="661" spans="2:12">
-      <c r="C661" t="s">
+    <row r="739" spans="2:12">
+      <c r="C739" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="662" spans="2:12">
-      <c r="C662" t="s">
+      <c r="L739" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="740" spans="2:12">
+      <c r="C740" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="664" spans="2:12">
-      <c r="C664" t="s">
+      <c r="L740" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="665" spans="2:12">
-      <c r="C665" t="s">
+    <row r="741" spans="2:12">
+      <c r="C741" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L741" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="743" spans="2:12">
+      <c r="C743" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="744" spans="2:12">
+      <c r="C744" t="s">
         <v>1043</v>
       </c>
-      <c r="L665" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="666" spans="2:12">
-      <c r="C666" t="s">
+    </row>
+    <row r="745" spans="2:12">
+      <c r="C745" t="s">
         <v>1044</v>
       </c>
-      <c r="L666" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="667" spans="2:12">
-      <c r="C667" t="s">
+    </row>
+    <row r="746" spans="2:12">
+      <c r="C746" t="s">
         <v>1045</v>
       </c>
-      <c r="L667" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="669" spans="2:12">
-      <c r="C669" t="s">
+      <c r="H746" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="749" spans="2:12">
+      <c r="B749" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="751" spans="2:12">
+      <c r="C751" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="670" spans="2:12">
-      <c r="C670" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="671" spans="2:12">
-      <c r="C671" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="672" spans="2:12">
-      <c r="C672" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H672" t="s">
+    <row r="752" spans="2:12">
+      <c r="C752" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
-      <c r="B675" t="s">
+    <row r="753" spans="1:6">
+      <c r="C753" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="677" spans="1:6">
-      <c r="C677" t="s">
+      <c r="F753" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6">
+      <c r="C754" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
-      <c r="C678" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="679" spans="1:6">
-      <c r="C679" t="s">
+    <row r="757" spans="1:6">
+      <c r="A757" s="36" t="s">
         <v>1054</v>
       </c>
-      <c r="F679" t="s">
+    </row>
+    <row r="759" spans="1:6">
+      <c r="B759" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6">
+      <c r="C761" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="680" spans="1:6">
-      <c r="C680" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6">
-      <c r="A683" s="36" t="s">
+    <row r="762" spans="1:6">
+      <c r="C762" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="685" spans="1:6">
-      <c r="B685" t="s">
+    <row r="763" spans="1:6">
+      <c r="C763" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
-      <c r="C687" t="s">
+    <row r="764" spans="1:6">
+      <c r="C764" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="688" spans="1:6">
-      <c r="C688" t="s">
+    <row r="765" spans="1:6">
+      <c r="C765" t="s">
         <v>1060</v>
-      </c>
-    </row>
-    <row r="689" spans="3:3">
-      <c r="C689" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="690" spans="3:3">
-      <c r="C690" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="691" spans="3:3">
-      <c r="C691" t="s">
-        <v>1063</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1366">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -3481,15 +3481,6 @@
     <t>every  3 months</t>
   </si>
   <si>
-    <t>Period everyThreeWeeks = Period.ofWeeks(3); // every 3 weeks</t>
-  </si>
-  <si>
-    <t>Period everyOtherDay = Period.ofDays(2); // every 2 days</t>
-  </si>
-  <si>
-    <t>Period everyYearAndAWeek = Period.of(1, 0, 7); // every year and 7 days</t>
-  </si>
-  <si>
     <t>Các loại datetime dùng được với period</t>
   </si>
   <si>
@@ -3868,9 +3859,6 @@
     <t xml:space="preserve">Thì cho phép thêm replace ở một vị trí bắt đầu và vị trí kết thúc </t>
   </si>
   <si>
-    <t>// Chỗ này giống với hàm substring, ko bao gồm vị itris kết thúc</t>
-  </si>
-  <si>
     <t>01ABCD456</t>
   </si>
   <si>
@@ -4102,9 +4090,6 @@
     <t>Dòng này xóa sb3 Three</t>
   </si>
   <si>
-    <t xml:space="preserve">// object sb4 và new StringBuilder("Four") có địa chỉ ref khác nhau </t>
-  </si>
-  <si>
     <t>// Nên sẽ ko xóa khỏi mảng</t>
   </si>
   <si>
@@ -4361,13 +4346,187 @@
   </si>
   <si>
     <t>String againStrings [ 0 ] = new StringBuilder()</t>
+  </si>
+  <si>
+    <t>// Chỗ này giống với hàm substring, ko bao gồm vị trí kết thúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// mà object sb4 và new StringBuilder("Four") có địa chỉ ref khác nhau </t>
+  </si>
+  <si>
+    <t>Convert về long:</t>
+  </si>
+  <si>
+    <t>Convert về LocalDateTime</t>
+  </si>
+  <si>
+    <t>LocalDate interviewDate = LocalDate.of(2016,02,28);</t>
+  </si>
+  <si>
+    <t>System.out.println(interviewDate.atTime(16, 30));</t>
+  </si>
+  <si>
+    <t>System.out.println(interviewDate.atTime(16, 30, 20));</t>
+  </si>
+  <si>
+    <t>System.out.println(interviewDate.atTime(16, 30, 20, 300));</t>
+  </si>
+  <si>
+    <t>System.out.println(interviewDate.atTime(LocalTime.of(16, 30)));</t>
+  </si>
+  <si>
+    <t>LocalTime time_4 = LocalTime.parse("15:00:00");</t>
+  </si>
+  <si>
+    <t>// Format bắt buộc phải là xx:xx:xx</t>
+  </si>
+  <si>
+    <t>// HH bắt buộc phải từ 0-23, MM bắt buộc phải từ 0-59, SS bắt buộc phải từ 0-59</t>
+  </si>
+  <si>
+    <t>LocalTime time_5 = LocalTime.MIN</t>
+  </si>
+  <si>
+    <t>LocalTime time_6 = LocalTime.MAX</t>
+  </si>
+  <si>
+    <t>LocalTime time_7 = LocalTime.MIDNIGHT;</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>23:59:59.999999</t>
+  </si>
+  <si>
+    <t>LocalTime time_8 = LocalTime.NOON</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>Query giá trị:</t>
+  </si>
+  <si>
+    <t>Localtime time = LocalTime.of (16,20, 12, 983242);</t>
+  </si>
+  <si>
+    <t>System.out.println (time.getHour() );</t>
+  </si>
+  <si>
+    <t>System.out.println (time.getMinute() );</t>
+  </si>
+  <si>
+    <t>System.out.println (time.getSecond () );</t>
+  </si>
+  <si>
+    <t>System.out.println (time.getNano () );</t>
+  </si>
+  <si>
+    <t>Rất lưu ý tên method ko có s, đánh lừa không phải là getHours(), getMinutes(), getSeconds(), getNanoSeconds()</t>
+  </si>
+  <si>
+    <t>Thay đổi giá trị:</t>
+  </si>
+  <si>
+    <t>plusHours(), plusMinutes(), plusNano(), plusNanos()</t>
+  </si>
+  <si>
+    <t>minusHours(), minusMinutes(), minusSeconds(), minusNanos()</t>
+  </si>
+  <si>
+    <t>Rất lưu ý là tên method phải có s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalDate là immutable class, Mọi thao tác đều sẽ tạo và trả về một bản copy obj </t>
+  </si>
+  <si>
+    <t>Lưu là là LocalTime là 24h, Nếu khai báo hoặc khởi tạo với định dạng 12h AM hoặc PM thì sẽ báo lỗi RUNTIME</t>
+  </si>
+  <si>
+    <t>LocalTime là immutable class, Mọi thao tác đều tạo và trả về một bản copy của instance</t>
+  </si>
+  <si>
+    <t>LocalTime time = LocalTime.of (14, 10, 0);</t>
+  </si>
+  <si>
+    <t>LocalDate date = LocalDate.of (2016, 02, 28 );</t>
+  </si>
+  <si>
+    <t>LocalDateTime datetime = time.atDate(date);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period everyThreeWeeks = Period.ofWeeks(3); </t>
+  </si>
+  <si>
+    <t>// every 3 weeks</t>
+  </si>
+  <si>
+    <t>Period everyOtherDay = Period.ofDays(2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period everyYearAndAWeek = Period.of(1, 0, 7); </t>
+  </si>
+  <si>
+    <t>// every year and 7 days</t>
+  </si>
+  <si>
+    <t>// every 2 days</t>
+  </si>
+  <si>
+    <t>Period period_6 = Period.ofDays(-15);</t>
+  </si>
+  <si>
+    <t>// Có thể dùng với số âm</t>
+  </si>
+  <si>
+    <t>Cho phép khai báo period bằng cách dùng method parse</t>
+  </si>
+  <si>
+    <t>Period p5Yrs1 = Period.parse("P5y");</t>
+  </si>
+  <si>
+    <t>Period p5Yrs2 = Period.parse("p5y");</t>
+  </si>
+  <si>
+    <t>Period p5Yrs3 = Period.parse("P5Y");</t>
+  </si>
+  <si>
+    <t>Period p5Yrs4 = Period.parse("+P5Y");</t>
+  </si>
+  <si>
+    <t>Period p5Yrs5 = Period.parse("P+5Y");</t>
+  </si>
+  <si>
+    <t>Period p5Yrs6 = Period.parse("-P-5Y");</t>
+  </si>
+  <si>
+    <t>Bắt đầu phải là P, và format : PnYnMnD hoặc PnW</t>
+  </si>
+  <si>
+    <t>Các chữ cái P, Y, M, D, W có thể in hoa hoặc in thường</t>
+  </si>
+  <si>
+    <t>Có thể truyền âm hoặc dương</t>
+  </si>
+  <si>
+    <t>period 5 years</t>
+  </si>
+  <si>
+    <t>Sample Question MalaGupta</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Đáp Án</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4675,6 +4834,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4697,7 +4864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4715,7 +4882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4821,12 +4988,16 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5234,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q563"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView topLeftCell="A124" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7042,16 +7213,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="60" t="s">
+      <c r="D424" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="60"/>
-      <c r="F424" s="60"/>
-      <c r="G424" s="60"/>
-      <c r="H424" s="60"/>
-      <c r="I424" s="60"/>
-      <c r="J424" s="60"/>
-      <c r="K424" s="60"/>
+      <c r="E424" s="66"/>
+      <c r="F424" s="66"/>
+      <c r="G424" s="66"/>
+      <c r="H424" s="66"/>
+      <c r="I424" s="66"/>
+      <c r="J424" s="66"/>
+      <c r="K424" s="66"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -7118,16 +7289,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="60" t="s">
+      <c r="D430" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="60"/>
-      <c r="F430" s="60"/>
-      <c r="G430" s="60"/>
-      <c r="H430" s="60"/>
-      <c r="I430" s="60"/>
-      <c r="J430" s="60"/>
-      <c r="K430" s="60"/>
+      <c r="E430" s="66"/>
+      <c r="F430" s="66"/>
+      <c r="G430" s="66"/>
+      <c r="H430" s="66"/>
+      <c r="I430" s="66"/>
+      <c r="J430" s="66"/>
+      <c r="K430" s="66"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -11872,17 +12043,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y765"/>
+  <dimension ref="A1:Y855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A685" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E700" sqref="E700"/>
+    <sheetView tabSelected="1" topLeftCell="A834" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A846" sqref="A846:A855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11891,7 +12065,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11900,13 +12074,13 @@
     <row r="5" spans="1:3">
       <c r="A5" s="36"/>
       <c r="C5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="36"/>
       <c r="C6" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11915,7 +12089,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11924,13 +12098,13 @@
     <row r="10" spans="1:3">
       <c r="A10" s="36"/>
       <c r="C10" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="36"/>
       <c r="C11" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11939,19 +12113,19 @@
     <row r="13" spans="1:3">
       <c r="A13" s="36"/>
       <c r="B13" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36"/>
       <c r="C14" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="36"/>
       <c r="C15" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11960,91 +12134,91 @@
     <row r="17" spans="1:12">
       <c r="A17" s="36"/>
       <c r="B17" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="36"/>
       <c r="C18" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="36"/>
       <c r="D19" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="36"/>
       <c r="E20" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="J20" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="L20" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="36"/>
       <c r="E21" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="J21" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="L21" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="36"/>
       <c r="E22" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="J22" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="L22" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="36"/>
       <c r="E23" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="J23" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="L23" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="36"/>
       <c r="E24" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="J24" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="L24" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="36"/>
       <c r="E25" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="J25" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="L25" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12059,7 +12233,7 @@
         <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12089,25 +12263,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="B38" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G42" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12310,13 +12484,13 @@
     <row r="72" spans="1:9">
       <c r="A72" s="36"/>
       <c r="B72" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="36"/>
       <c r="B73" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -12325,25 +12499,25 @@
     <row r="75" spans="1:9">
       <c r="A75" s="36"/>
       <c r="C75" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="36"/>
       <c r="C76" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="36"/>
       <c r="C77" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="36"/>
       <c r="C78" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -12352,13 +12526,13 @@
     <row r="80" spans="1:9">
       <c r="A80" s="36"/>
       <c r="C80" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="H80" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="I80" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -12485,7 +12659,7 @@
     </row>
     <row r="101" spans="2:9" ht="18.75">
       <c r="C101" s="40" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -12549,7 +12723,7 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -12567,11 +12741,11 @@
       <c r="I109" s="39"/>
     </row>
     <row r="110" spans="2:9">
-      <c r="C110" s="62" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
+      <c r="C110" s="60" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
@@ -12588,7 +12762,7 @@
     <row r="112" spans="2:9">
       <c r="D112" s="39"/>
       <c r="E112" s="43" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
@@ -12598,7 +12772,7 @@
     <row r="113" spans="1:9">
       <c r="D113" s="39"/>
       <c r="E113" s="43" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F113" s="43"/>
       <c r="G113" s="43"/>
@@ -12615,7 +12789,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="C115" s="39" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -12635,7 +12809,7 @@
     <row r="117" spans="1:9">
       <c r="D117" s="39"/>
       <c r="E117" s="43" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F117" s="43"/>
       <c r="G117" s="43"/>
@@ -12645,7 +12819,7 @@
     <row r="118" spans="1:9">
       <c r="D118" s="39"/>
       <c r="E118" s="43" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F118" s="43"/>
       <c r="G118" s="43"/>
@@ -12654,7 +12828,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="E119" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -12665,7 +12839,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="36"/>
       <c r="B121" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -12674,28 +12848,28 @@
     <row r="123" spans="1:9">
       <c r="A123" s="36"/>
       <c r="C123" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="H123" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="36"/>
       <c r="C124" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="36"/>
       <c r="C125" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="36"/>
       <c r="C126" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -12708,65 +12882,65 @@
     </row>
     <row r="130" spans="2:8">
       <c r="C130" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="131" spans="2:8">
       <c r="D131" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="132" spans="2:8">
       <c r="D132" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="133" spans="2:8">
       <c r="D133" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="D134" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="D135" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="D136" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="138" spans="2:8">
       <c r="C138" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="140" spans="2:8">
       <c r="D140" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="141" spans="2:8">
       <c r="D141" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="142" spans="2:8">
       <c r="D142" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H142" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="145" spans="3:9">
       <c r="C145" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="147" spans="3:9">
@@ -12776,12 +12950,12 @@
     </row>
     <row r="148" spans="3:9">
       <c r="E148" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="149" spans="3:9">
       <c r="E149" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="150" spans="3:9">
@@ -12791,35 +12965,35 @@
     </row>
     <row r="152" spans="3:9">
       <c r="D152" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="153" spans="3:9">
       <c r="E153" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="154" spans="3:9">
       <c r="E154" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="155" spans="3:9">
       <c r="E155" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="156" spans="3:9">
       <c r="E156" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="157" spans="3:9">
       <c r="E157" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="I157" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="166" spans="2:14">
@@ -12827,7 +13001,7 @@
         <v>742</v>
       </c>
       <c r="C166" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="168" spans="2:14">
@@ -12861,10 +13035,10 @@
     </row>
     <row r="174" spans="2:14">
       <c r="B174" s="39" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
@@ -12876,7 +13050,7 @@
     <row r="175" spans="2:14">
       <c r="B175" s="39"/>
       <c r="C175" s="39" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D175" s="39"/>
       <c r="E175" s="39"/>
@@ -12885,55 +13059,55 @@
       <c r="H175" s="39"/>
       <c r="I175" s="39"/>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:13">
       <c r="D177" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13">
       <c r="E178" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13">
       <c r="E179" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13">
       <c r="E180" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I180" s="57" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J180" s="57"/>
+    </row>
+    <row r="181" spans="2:13">
+      <c r="E181" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I181" s="57" t="s">
         <v>1145</v>
       </c>
-      <c r="I180" s="57" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J180" s="57"/>
-    </row>
-    <row r="181" spans="2:10">
-      <c r="E181" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I181" s="57" t="s">
-        <v>1149</v>
-      </c>
       <c r="J181" s="57"/>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:13">
       <c r="D182" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:13">
       <c r="D183" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:13">
       <c r="B184" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:13">
       <c r="C185" t="s">
         <v>748</v>
       </c>
@@ -12941,7 +13115,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:13">
       <c r="C187" t="s">
         <v>749</v>
       </c>
@@ -12949,7 +13123,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:13">
       <c r="D190" t="s">
         <v>392</v>
       </c>
@@ -12957,25 +13131,28 @@
         <v>753</v>
       </c>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:13">
       <c r="E191" t="s">
         <v>751</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J191" s="39" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="192" spans="2:10">
+      <c r="K191" s="39"/>
+      <c r="L191" s="39"/>
+      <c r="M191" s="39"/>
+    </row>
+    <row r="192" spans="2:13">
       <c r="J192" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C193" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -13064,7 +13241,7 @@
         <v>764</v>
       </c>
       <c r="G210" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="211" spans="3:8">
@@ -13077,7 +13254,7 @@
         <v>765</v>
       </c>
       <c r="G213" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="214" spans="3:8">
@@ -13085,7 +13262,7 @@
         <v>766</v>
       </c>
       <c r="G214" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="215" spans="3:8">
@@ -13093,7 +13270,7 @@
         <v>767</v>
       </c>
       <c r="G215" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="216" spans="3:8">
@@ -13122,27 +13299,27 @@
         <v>790</v>
       </c>
       <c r="H220" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="222" spans="3:8">
       <c r="C222" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="223" spans="3:8">
       <c r="C223" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="231" spans="2:8">
       <c r="B231" s="39" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="233" spans="2:8">
       <c r="C233" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="H233" t="s">
         <v>793</v>
@@ -13150,7 +13327,7 @@
     </row>
     <row r="234" spans="2:8">
       <c r="C234" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H234" t="s">
         <v>794</v>
@@ -13158,41 +13335,41 @@
     </row>
     <row r="236" spans="2:8">
       <c r="C236" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="H236" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="237" spans="2:8">
       <c r="C237" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="238" spans="2:8">
       <c r="C238" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="240" spans="2:8">
       <c r="C240" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H240" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="242" spans="2:10">
       <c r="C242" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="H242" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="246" spans="2:10">
       <c r="B246" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="248" spans="2:10">
@@ -13308,7 +13485,7 @@
         <v>787</v>
       </c>
       <c r="J269" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="270" spans="3:10">
@@ -13328,72 +13505,72 @@
     </row>
     <row r="274" spans="2:6">
       <c r="C274" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="275" spans="2:6">
       <c r="D275" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="276" spans="2:6">
       <c r="D276" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="277" spans="2:6">
       <c r="D277" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="278" spans="2:6">
       <c r="D278" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="280" spans="2:6">
       <c r="B280" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="282" spans="2:6">
       <c r="D282" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="283" spans="2:6">
       <c r="F283" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="284" spans="2:6">
       <c r="F284" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="285" spans="2:6">
       <c r="F285" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="287" spans="2:6">
       <c r="D287" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="289" spans="1:17">
       <c r="F289" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="290" spans="1:17">
       <c r="F290" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="291" spans="1:17">
       <c r="F291" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="15.75" customHeight="1">
@@ -13637,27 +13814,27 @@
     </row>
     <row r="325" spans="1:10">
       <c r="C325" s="52" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="H326" s="52" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="H327" s="52" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="H328" s="52" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="G329" s="52" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13820,138 +13997,138 @@
     </row>
     <row r="369" spans="3:25">
       <c r="C369" s="36" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="370" spans="3:25" ht="14.25" customHeight="1"/>
     <row r="371" spans="3:25" ht="14.25" customHeight="1">
       <c r="D371" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="372" spans="3:25" ht="14.25" customHeight="1">
       <c r="D372" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="373" spans="3:25" ht="14.25" customHeight="1">
       <c r="D373" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="374" spans="3:25" ht="14.25" customHeight="1">
       <c r="D374" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="375" spans="3:25" ht="14.25" customHeight="1">
       <c r="D375" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="376" spans="3:25" ht="14.25" customHeight="1">
       <c r="D376" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="377" spans="3:25" ht="14.25" customHeight="1">
       <c r="D377" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="378" spans="3:25" ht="14.25" customHeight="1">
       <c r="D378" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="379" spans="3:25" ht="14.25" customHeight="1">
       <c r="D379" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="380" spans="3:25" ht="14.25" customHeight="1"/>
     <row r="381" spans="3:25" ht="14.25" customHeight="1">
       <c r="D381" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="I381" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="382" spans="3:25" ht="14.25" customHeight="1">
       <c r="D382" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I382" s="59" t="s">
-        <v>1228</v>
-      </c>
-      <c r="J382" s="59"/>
-      <c r="K382" s="59"/>
-      <c r="L382" s="59"/>
-      <c r="M382" s="59"/>
-      <c r="N382" s="59"/>
-      <c r="O382" s="59"/>
-      <c r="P382" s="59"/>
-      <c r="Q382" s="59"/>
-      <c r="R382" s="59"/>
-      <c r="S382" s="59"/>
-      <c r="T382" s="59"/>
-      <c r="U382" s="59"/>
-      <c r="V382" s="59"/>
-      <c r="W382" s="59"/>
-      <c r="X382" s="59"/>
-      <c r="Y382" s="59"/>
+        <v>1220</v>
+      </c>
+      <c r="I382" s="61" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J382" s="61"/>
+      <c r="K382" s="61"/>
+      <c r="L382" s="61"/>
+      <c r="M382" s="61"/>
+      <c r="N382" s="61"/>
+      <c r="O382" s="61"/>
+      <c r="P382" s="61"/>
+      <c r="Q382" s="61"/>
+      <c r="R382" s="61"/>
+      <c r="S382" s="61"/>
+      <c r="T382" s="61"/>
+      <c r="U382" s="61"/>
+      <c r="V382" s="61"/>
+      <c r="W382" s="61"/>
+      <c r="X382" s="61"/>
+      <c r="Y382" s="61"/>
     </row>
     <row r="383" spans="3:25" ht="14.25" customHeight="1">
-      <c r="I383" s="59" t="s">
-        <v>1226</v>
-      </c>
-      <c r="J383" s="59"/>
-      <c r="K383" s="59"/>
-      <c r="L383" s="59"/>
-      <c r="M383" s="59"/>
-      <c r="N383" s="59"/>
-      <c r="O383" s="59"/>
-      <c r="P383" s="59"/>
-      <c r="Q383" s="59"/>
-      <c r="R383" s="59"/>
-      <c r="S383" s="59"/>
-      <c r="T383" s="59"/>
-      <c r="U383" s="59"/>
-      <c r="V383" s="59"/>
-      <c r="W383" s="59"/>
-      <c r="X383" s="59"/>
-      <c r="Y383" s="59"/>
+      <c r="I383" s="61" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J383" s="61"/>
+      <c r="K383" s="61"/>
+      <c r="L383" s="61"/>
+      <c r="M383" s="61"/>
+      <c r="N383" s="61"/>
+      <c r="O383" s="61"/>
+      <c r="P383" s="61"/>
+      <c r="Q383" s="61"/>
+      <c r="R383" s="61"/>
+      <c r="S383" s="61"/>
+      <c r="T383" s="61"/>
+      <c r="U383" s="61"/>
+      <c r="V383" s="61"/>
+      <c r="W383" s="61"/>
+      <c r="X383" s="61"/>
+      <c r="Y383" s="61"/>
     </row>
     <row r="384" spans="3:25">
-      <c r="I384" s="59" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J384" s="59"/>
-      <c r="K384" s="59"/>
-      <c r="L384" s="59"/>
-      <c r="M384" s="59"/>
-      <c r="N384" s="59"/>
-      <c r="O384" s="59"/>
-      <c r="P384" s="59"/>
-      <c r="Q384" s="59"/>
-      <c r="R384" s="59"/>
-      <c r="S384" s="59"/>
-      <c r="T384" s="59"/>
-      <c r="U384" s="59"/>
-      <c r="V384" s="59"/>
-      <c r="W384" s="59"/>
-      <c r="X384" s="59"/>
-      <c r="Y384" s="59"/>
+      <c r="I384" s="61" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J384" s="61"/>
+      <c r="K384" s="61"/>
+      <c r="L384" s="61"/>
+      <c r="M384" s="61"/>
+      <c r="N384" s="61"/>
+      <c r="O384" s="61"/>
+      <c r="P384" s="61"/>
+      <c r="Q384" s="61"/>
+      <c r="R384" s="61"/>
+      <c r="S384" s="61"/>
+      <c r="T384" s="61"/>
+      <c r="U384" s="61"/>
+      <c r="V384" s="61"/>
+      <c r="W384" s="61"/>
+      <c r="X384" s="61"/>
+      <c r="Y384" s="61"/>
     </row>
     <row r="386" spans="3:14">
       <c r="D386" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="387" spans="3:14">
       <c r="C387" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="389" spans="3:14">
@@ -13961,65 +14138,65 @@
     </row>
     <row r="390" spans="3:14">
       <c r="E390" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="391" spans="3:14">
       <c r="N391" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="392" spans="3:14">
       <c r="F392" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="N392" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="393" spans="3:14">
       <c r="N393" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="394" spans="3:14">
       <c r="F394" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="N394" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="395" spans="3:14">
       <c r="H395" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="N395" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="396" spans="3:14">
       <c r="I396" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="N396" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="397" spans="3:14">
       <c r="I397" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="N397" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="398" spans="3:14">
       <c r="I398" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="N398" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="399" spans="3:14">
@@ -14029,12 +14206,12 @@
     </row>
     <row r="400" spans="3:14">
       <c r="H400" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="401" spans="2:13">
       <c r="I401" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="402" spans="2:13">
@@ -14044,116 +14221,116 @@
     </row>
     <row r="404" spans="2:13">
       <c r="B404" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="405" spans="2:13">
       <c r="C405" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="406" spans="2:13">
       <c r="C406" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="408" spans="2:13">
       <c r="D408" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="409" spans="2:13">
       <c r="D409" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="410" spans="2:13">
       <c r="D410" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="411" spans="2:13">
       <c r="D411" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="412" spans="2:13">
       <c r="D412" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="413" spans="2:13">
       <c r="D413" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="414" spans="2:13">
       <c r="D414" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="L414" t="b">
         <v>1</v>
       </c>
       <c r="M414" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="415" spans="2:13">
       <c r="D415" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="L415" t="b">
         <v>0</v>
       </c>
       <c r="M415" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="416" spans="2:13">
       <c r="D416" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="417" spans="1:13">
       <c r="D417" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="418" spans="1:13">
       <c r="D418" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="419" spans="1:13">
       <c r="D419" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="L419" t="b">
         <v>1</v>
       </c>
       <c r="M419" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="420" spans="1:13">
       <c r="D420" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="L420" t="b">
         <v>1</v>
       </c>
       <c r="M420" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="422" spans="1:13">
       <c r="A422" s="36" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="424" spans="1:13">
       <c r="B424" s="39" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="C424" s="39"/>
       <c r="D424" s="39"/>
@@ -14165,98 +14342,98 @@
     </row>
     <row r="426" spans="1:13">
       <c r="C426" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="427" spans="1:13">
       <c r="D427" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="428" spans="1:13">
       <c r="D428" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="429" spans="1:13">
-      <c r="D429" s="61" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E429" s="61"/>
-      <c r="F429" s="61"/>
-      <c r="G429" s="61"/>
-      <c r="H429" s="61"/>
-      <c r="I429" s="61"/>
+      <c r="D429" s="59" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E429" s="59"/>
+      <c r="F429" s="59"/>
+      <c r="G429" s="59"/>
+      <c r="H429" s="59"/>
+      <c r="I429" s="59"/>
     </row>
     <row r="430" spans="1:13">
-      <c r="D430" s="61" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E430" s="61"/>
-      <c r="F430" s="61"/>
-      <c r="G430" s="61"/>
-      <c r="H430" s="61"/>
-      <c r="I430" s="61"/>
+      <c r="D430" s="59" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E430" s="59"/>
+      <c r="F430" s="59"/>
+      <c r="G430" s="59"/>
+      <c r="H430" s="59"/>
+      <c r="I430" s="59"/>
     </row>
     <row r="431" spans="1:13">
-      <c r="D431" s="61"/>
-      <c r="E431" s="61" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F431" s="61"/>
-      <c r="G431" s="61"/>
-      <c r="H431" s="61"/>
-      <c r="I431" s="61"/>
+      <c r="D431" s="59"/>
+      <c r="E431" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F431" s="59"/>
+      <c r="G431" s="59"/>
+      <c r="H431" s="59"/>
+      <c r="I431" s="59"/>
     </row>
     <row r="432" spans="1:13">
-      <c r="D432" s="61"/>
-      <c r="E432" s="61" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F432" s="61"/>
-      <c r="G432" s="61"/>
-      <c r="H432" s="61"/>
-      <c r="I432" s="61"/>
+      <c r="D432" s="59"/>
+      <c r="E432" s="59" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F432" s="59"/>
+      <c r="G432" s="59"/>
+      <c r="H432" s="59"/>
+      <c r="I432" s="59"/>
     </row>
     <row r="433" spans="3:9">
-      <c r="D433" s="61" t="s">
+      <c r="D433" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E433" s="61"/>
-      <c r="F433" s="61"/>
-      <c r="G433" s="61"/>
-      <c r="H433" s="61"/>
-      <c r="I433" s="61"/>
+      <c r="E433" s="59"/>
+      <c r="F433" s="59"/>
+      <c r="G433" s="59"/>
+      <c r="H433" s="59"/>
+      <c r="I433" s="59"/>
     </row>
     <row r="434" spans="3:9">
-      <c r="D434" s="61" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E434" s="61"/>
-      <c r="F434" s="61"/>
-      <c r="G434" s="61"/>
-      <c r="H434" s="61"/>
-      <c r="I434" s="61"/>
+      <c r="D434" s="59" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E434" s="59"/>
+      <c r="F434" s="59"/>
+      <c r="G434" s="59"/>
+      <c r="H434" s="59"/>
+      <c r="I434" s="59"/>
     </row>
     <row r="435" spans="3:9">
-      <c r="D435" s="61"/>
-      <c r="E435" s="61" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F435" s="61"/>
-      <c r="G435" s="61"/>
-      <c r="H435" s="61"/>
-      <c r="I435" s="61"/>
+      <c r="D435" s="59"/>
+      <c r="E435" s="59" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F435" s="59"/>
+      <c r="G435" s="59"/>
+      <c r="H435" s="59"/>
+      <c r="I435" s="59"/>
     </row>
     <row r="436" spans="3:9">
-      <c r="D436" s="61" t="s">
+      <c r="D436" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E436" s="61"/>
-      <c r="F436" s="61"/>
-      <c r="G436" s="61"/>
-      <c r="H436" s="61"/>
-      <c r="I436" s="61"/>
+      <c r="E436" s="59"/>
+      <c r="F436" s="59"/>
+      <c r="G436" s="59"/>
+      <c r="H436" s="59"/>
+      <c r="I436" s="59"/>
     </row>
     <row r="437" spans="3:9">
       <c r="C437" t="s">
@@ -14265,63 +14442,63 @@
     </row>
     <row r="438" spans="3:9">
       <c r="C438" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="440" spans="3:9">
       <c r="C440" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="442" spans="3:9">
       <c r="D442" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="443" spans="3:9">
       <c r="E443" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="444" spans="3:9">
       <c r="F444" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="445" spans="3:9">
       <c r="F445" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="446" spans="3:9">
       <c r="F446" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="447" spans="3:9">
       <c r="F447" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="448" spans="3:9">
       <c r="F448" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="449" spans="3:11">
       <c r="F449" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="450" spans="3:11">
       <c r="F450" s="36" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="G450" s="36"/>
       <c r="H450" s="36"/>
       <c r="I450" s="36"/>
       <c r="K450" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="451" spans="3:11">
@@ -14336,47 +14513,47 @@
     </row>
     <row r="454" spans="3:11">
       <c r="C454" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="456" spans="3:11">
       <c r="D456" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="457" spans="3:11">
       <c r="D457" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="458" spans="3:11">
       <c r="D458" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="459" spans="3:11">
       <c r="D459" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="460" spans="3:11">
       <c r="D460" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="461" spans="3:11">
       <c r="D461" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="462" spans="3:11">
       <c r="D462" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="463" spans="3:11">
       <c r="D463" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="464" spans="3:11">
@@ -14386,59 +14563,59 @@
     </row>
     <row r="466" spans="1:10">
       <c r="D466" s="36" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="E466" s="36"/>
       <c r="F466" s="36"/>
       <c r="G466" s="36"/>
       <c r="H466" s="36" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="I466" s="36"/>
       <c r="J466" s="36"/>
     </row>
     <row r="468" spans="1:10">
       <c r="A468" s="36" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="470" spans="1:10">
       <c r="B470" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="D470" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="472" spans="1:10">
       <c r="D472" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="476" spans="1:10">
       <c r="B476" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D476" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="479" spans="1:10">
       <c r="D479" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="481" spans="2:7">
       <c r="B481" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="D481" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="483" spans="2:7">
       <c r="C483" s="58" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D483" s="43"/>
       <c r="E483" s="43"/>
@@ -14447,7 +14624,7 @@
     </row>
     <row r="484" spans="2:7">
       <c r="C484" s="58" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="D484" s="43"/>
       <c r="E484" s="43"/>
@@ -14456,7 +14633,7 @@
     </row>
     <row r="485" spans="2:7">
       <c r="C485" s="58" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D485" s="43"/>
       <c r="E485" s="43"/>
@@ -14465,7 +14642,7 @@
     </row>
     <row r="486" spans="2:7">
       <c r="C486" s="58" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="D486" s="43"/>
       <c r="E486" s="43"/>
@@ -14474,7 +14651,7 @@
     </row>
     <row r="487" spans="2:7">
       <c r="C487" s="58" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D487" s="43"/>
       <c r="E487" s="43"/>
@@ -14483,7 +14660,7 @@
     </row>
     <row r="488" spans="2:7">
       <c r="C488" s="58" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D488" s="43"/>
       <c r="E488" s="43"/>
@@ -14492,7 +14669,7 @@
     </row>
     <row r="489" spans="2:7">
       <c r="C489" s="58" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="D489" s="43"/>
       <c r="E489" s="43"/>
@@ -14501,7 +14678,7 @@
     </row>
     <row r="490" spans="2:7">
       <c r="C490" s="58" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="D490" s="43"/>
       <c r="E490" s="43"/>
@@ -14510,7 +14687,7 @@
     </row>
     <row r="491" spans="2:7">
       <c r="C491" s="58" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D491" s="43"/>
       <c r="E491" s="43"/>
@@ -14519,7 +14696,7 @@
     </row>
     <row r="492" spans="2:7">
       <c r="C492" s="58" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D492" s="43"/>
       <c r="E492" s="43"/>
@@ -14528,7 +14705,7 @@
     </row>
     <row r="493" spans="2:7">
       <c r="C493" s="58" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D493" s="43"/>
       <c r="E493" s="43"/>
@@ -14537,7 +14714,7 @@
     </row>
     <row r="494" spans="2:7" ht="14.25" customHeight="1">
       <c r="C494" s="58" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D494" s="43"/>
       <c r="E494" s="43"/>
@@ -14546,7 +14723,7 @@
     </row>
     <row r="495" spans="2:7">
       <c r="C495" s="58" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D495" s="43"/>
       <c r="E495" s="43"/>
@@ -15393,7 +15570,7 @@
       <c r="I640" s="18"/>
       <c r="J640" s="18"/>
     </row>
-    <row r="641" spans="2:10">
+    <row r="641" spans="3:10">
       <c r="C641" s="18" t="s">
         <v>989</v>
       </c>
@@ -15405,7 +15582,7 @@
       <c r="I641" s="18"/>
       <c r="J641" s="18"/>
     </row>
-    <row r="642" spans="2:10">
+    <row r="642" spans="3:10">
       <c r="C642" s="18"/>
       <c r="D642" s="18"/>
       <c r="E642" s="18"/>
@@ -15415,7 +15592,7 @@
       <c r="I642" s="18"/>
       <c r="J642" s="18"/>
     </row>
-    <row r="643" spans="2:10">
+    <row r="643" spans="3:10">
       <c r="C643" s="18" t="s">
         <v>985</v>
       </c>
@@ -15427,7 +15604,7 @@
       <c r="I643" s="18"/>
       <c r="J643" s="18"/>
     </row>
-    <row r="644" spans="2:10">
+    <row r="644" spans="3:10">
       <c r="C644" s="18" t="s">
         <v>986</v>
       </c>
@@ -15439,7 +15616,7 @@
       <c r="I644" s="18"/>
       <c r="J644" s="18"/>
     </row>
-    <row r="645" spans="2:10">
+    <row r="645" spans="3:10">
       <c r="C645" s="18" t="s">
         <v>987</v>
       </c>
@@ -15451,496 +15628,884 @@
       <c r="I645" s="18"/>
       <c r="J645" s="18"/>
     </row>
-    <row r="646" spans="2:10">
-      <c r="C646" s="18"/>
+    <row r="646" spans="3:10">
+      <c r="C646" s="18" t="s">
+        <v>1317</v>
+      </c>
       <c r="D646" s="18"/>
       <c r="E646" s="18"/>
       <c r="F646" s="18"/>
       <c r="G646" s="18"/>
       <c r="H646" s="18"/>
-      <c r="I646" s="18"/>
+      <c r="I646" s="18" t="s">
+        <v>1318</v>
+      </c>
       <c r="J646" s="18"/>
     </row>
-    <row r="647" spans="2:10">
-      <c r="C647" s="52" t="s">
-        <v>990</v>
-      </c>
+    <row r="647" spans="3:10">
+      <c r="C647" s="18"/>
       <c r="D647" s="18"/>
       <c r="E647" s="18"/>
       <c r="F647" s="18"/>
       <c r="G647" s="18"/>
       <c r="H647" s="18"/>
-      <c r="I647" s="18"/>
+      <c r="I647" s="18" t="s">
+        <v>1319</v>
+      </c>
       <c r="J647" s="18"/>
     </row>
-    <row r="648" spans="2:10">
+    <row r="648" spans="3:10">
       <c r="C648" s="18" t="s">
-        <v>991</v>
+        <v>1320</v>
       </c>
       <c r="D648" s="18"/>
       <c r="E648" s="18"/>
       <c r="F648" s="18"/>
       <c r="G648" s="18"/>
-      <c r="H648" s="18"/>
+      <c r="H648" s="63" t="s">
+        <v>1323</v>
+      </c>
       <c r="I648" s="18"/>
       <c r="J648" s="18"/>
     </row>
-    <row r="651" spans="2:10">
-      <c r="B651" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="653" spans="2:10">
-      <c r="C653" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="655" spans="2:10">
-      <c r="D655" s="22" t="s">
-        <v>994</v>
-      </c>
+    <row r="649" spans="3:10">
+      <c r="C649" s="18" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D649" s="18"/>
+      <c r="E649" s="18"/>
+      <c r="F649" s="18"/>
+      <c r="G649" s="18"/>
+      <c r="H649" s="64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I649" s="18"/>
+      <c r="J649" s="18"/>
+    </row>
+    <row r="650" spans="3:10">
+      <c r="C650" s="18" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D650" s="18"/>
+      <c r="E650" s="18"/>
+      <c r="F650" s="18"/>
+      <c r="G650" s="18"/>
+      <c r="H650" s="62" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I650" s="18"/>
+      <c r="J650" s="18"/>
+    </row>
+    <row r="651" spans="3:10">
+      <c r="C651" s="18" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D651" s="18"/>
+      <c r="E651" s="18"/>
+      <c r="F651" s="18"/>
+      <c r="G651" s="18"/>
+      <c r="H651" s="62" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I651" s="18"/>
+      <c r="J651" s="18"/>
+    </row>
+    <row r="652" spans="3:10">
+      <c r="C652" s="18"/>
+      <c r="D652" s="18"/>
+      <c r="E652" s="18"/>
+      <c r="F652" s="18"/>
+      <c r="G652" s="18"/>
+      <c r="H652" s="18"/>
+      <c r="I652" s="18"/>
+      <c r="J652" s="18"/>
+    </row>
+    <row r="653" spans="3:10">
+      <c r="C653" s="18"/>
+      <c r="D653" s="18"/>
+      <c r="E653" s="18"/>
+      <c r="F653" s="18"/>
+      <c r="G653" s="18"/>
+      <c r="H653" s="18"/>
+      <c r="I653" s="18"/>
+      <c r="J653" s="18"/>
+    </row>
+    <row r="654" spans="3:10">
+      <c r="C654" s="18"/>
+      <c r="D654" s="18"/>
+      <c r="E654" s="18"/>
+      <c r="F654" s="18"/>
+      <c r="G654" s="18"/>
+      <c r="H654" s="18"/>
+      <c r="I654" s="18"/>
+      <c r="J654" s="18"/>
+    </row>
+    <row r="655" spans="3:10">
+      <c r="C655" s="52" t="s">
+        <v>990</v>
+      </c>
+      <c r="D655" s="18"/>
       <c r="E655" s="18"/>
       <c r="F655" s="18"/>
       <c r="G655" s="18"/>
       <c r="H655" s="18"/>
       <c r="I655" s="18"/>
-      <c r="J655" s="18" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="656" spans="2:10">
-      <c r="D656" s="22" t="s">
-        <v>995</v>
-      </c>
+      <c r="J655" s="18"/>
+    </row>
+    <row r="656" spans="3:10">
+      <c r="C656" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="D656" s="18"/>
       <c r="E656" s="18"/>
       <c r="F656" s="18"/>
       <c r="G656" s="18"/>
       <c r="H656" s="18"/>
       <c r="I656" s="18"/>
-      <c r="J656" s="18" t="s">
+      <c r="J656" s="18"/>
+    </row>
+    <row r="659" spans="1:10">
+      <c r="B659" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10">
+      <c r="C661" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10">
+      <c r="D663" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="E663" s="18"/>
+      <c r="F663" s="18"/>
+      <c r="G663" s="18"/>
+      <c r="H663" s="18"/>
+      <c r="I663" s="18"/>
+      <c r="J663" s="18" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="657" spans="1:10">
-      <c r="D657" s="22" t="s">
+    <row r="664" spans="1:10">
+      <c r="D664" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="E664" s="18"/>
+      <c r="F664" s="18"/>
+      <c r="G664" s="18"/>
+      <c r="H664" s="18"/>
+      <c r="I664" s="18"/>
+      <c r="J664" s="18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10">
+      <c r="D665" s="22" t="s">
         <v>996</v>
       </c>
-      <c r="E657" s="18"/>
-      <c r="F657" s="18"/>
-      <c r="G657" s="18"/>
-      <c r="H657" s="18"/>
-      <c r="I657" s="18"/>
-      <c r="J657" s="18" t="s">
+      <c r="E665" s="18"/>
+      <c r="F665" s="18"/>
+      <c r="G665" s="18"/>
+      <c r="H665" s="18"/>
+      <c r="I665" s="18"/>
+      <c r="J665" s="18" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="658" spans="1:10">
-      <c r="D658" s="55"/>
-    </row>
-    <row r="660" spans="1:10">
-      <c r="C660" t="s">
+    <row r="666" spans="1:10">
+      <c r="D666" s="55"/>
+    </row>
+    <row r="668" spans="1:10">
+      <c r="C668" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="662" spans="1:10">
-      <c r="D662" t="s">
+    <row r="670" spans="1:10">
+      <c r="D670" t="s">
         <v>999</v>
       </c>
-      <c r="J662" t="s">
+      <c r="J670" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="664" spans="1:10">
-      <c r="A664" s="36" t="s">
+    <row r="672" spans="1:10">
+      <c r="A672" s="36" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="666" spans="1:10">
-      <c r="B666" t="s">
+    <row r="674" spans="2:5">
+      <c r="B674" t="s">
         <v>1002</v>
       </c>
-      <c r="C666" t="s">
+      <c r="C674" t="s">
         <v>1003</v>
       </c>
-      <c r="E666" t="s">
+      <c r="E674" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="667" spans="1:10">
-      <c r="E667" t="s">
+    <row r="675" spans="2:5">
+      <c r="E675" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="668" spans="1:10">
-      <c r="E668" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="669" spans="1:10">
-      <c r="E669" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="670" spans="1:10">
-      <c r="E670" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="671" spans="1:10">
-      <c r="E671" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="673" spans="5:9" ht="14.25" customHeight="1">
-      <c r="E673" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="674" spans="5:9" ht="14.25" customHeight="1">
-      <c r="E674" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="675" spans="5:9" ht="14.25" customHeight="1">
-      <c r="E675" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="676" spans="5:9" ht="14.25" customHeight="1">
+    <row r="676" spans="2:5">
       <c r="E676" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="677" spans="5:9" ht="14.25" customHeight="1">
+    <row r="677" spans="2:5">
       <c r="E677" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="678" spans="5:9">
+    <row r="678" spans="2:5">
       <c r="E678" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="680" spans="5:9">
-      <c r="E680" t="s">
+    <row r="679" spans="2:5">
+      <c r="E679" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="681" spans="5:9">
+    <row r="681" spans="2:5" ht="14.25" customHeight="1">
       <c r="E681" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="682" spans="2:5" ht="14.25" customHeight="1">
+      <c r="E682" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="683" spans="2:5" ht="14.25" customHeight="1">
+      <c r="E683" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="684" spans="2:5" ht="14.25" customHeight="1">
+      <c r="E684" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="685" spans="2:5" ht="14.25" customHeight="1">
+      <c r="E685" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="686" spans="2:5">
+      <c r="E686" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="688" spans="2:5">
+      <c r="E688" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="689" spans="5:9">
+      <c r="E689" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="691" spans="5:9">
+      <c r="E691" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="683" spans="5:9">
-      <c r="E683" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I683" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="684" spans="5:9">
-      <c r="E684" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I684" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="685" spans="5:9">
-      <c r="E685" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I685" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="686" spans="5:9">
-      <c r="E686" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I686" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="690" spans="2:5">
-      <c r="C690" t="s">
+      <c r="I691" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="692" spans="5:9">
+      <c r="E692" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I692" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="693" spans="5:9">
+      <c r="E693" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I693" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="694" spans="5:9">
+      <c r="E694" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I694" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="696" spans="5:9">
+      <c r="E696" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="697" spans="5:9">
+      <c r="F697" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="699" spans="5:9">
+      <c r="E699" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="700" spans="5:9">
+      <c r="F700" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="701" spans="5:9">
+      <c r="F701" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="702" spans="5:9">
+      <c r="F702" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="703" spans="5:9">
+      <c r="F703" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="704" spans="5:9">
+      <c r="F704" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="706" spans="3:6">
+      <c r="E706" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="709" spans="3:6">
+      <c r="C709" t="s">
         <v>967</v>
       </c>
-      <c r="E690" t="s">
+    </row>
+    <row r="710" spans="3:6">
+      <c r="E710" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="712" spans="3:6">
+      <c r="E712" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="691" spans="2:5">
-      <c r="E691" t="s">
+    <row r="713" spans="3:6">
+      <c r="E713" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="693" spans="2:5">
-      <c r="C693" t="s">
+    <row r="715" spans="3:6">
+      <c r="E715" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="716" spans="3:6">
+      <c r="F716" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="717" spans="3:6">
+      <c r="F717" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="718" spans="3:6">
+      <c r="F718" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="719" spans="3:6">
+      <c r="F719" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="720" spans="3:6">
+      <c r="F720" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="722" spans="5:9">
+      <c r="F722" s="39" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="724" spans="5:9">
+      <c r="E724" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="725" spans="5:9">
+      <c r="F725" s="39" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="726" spans="5:9">
+      <c r="G726" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="727" spans="5:9">
+      <c r="G727" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="729" spans="5:9">
+      <c r="E729" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="731" spans="5:9">
+      <c r="E731" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="732" spans="5:9">
+      <c r="F732" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="733" spans="5:9">
+      <c r="F733" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="734" spans="5:9">
+      <c r="F734" s="65" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G734" s="65"/>
+      <c r="H734" s="65"/>
+      <c r="I734" s="65"/>
+    </row>
+    <row r="739" spans="3:5">
+      <c r="C739" t="s">
         <v>971</v>
       </c>
-      <c r="E693" t="s">
+      <c r="E739" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="696" spans="2:5">
-      <c r="B696" t="s">
+    <row r="756" spans="1:4">
+      <c r="B756" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="697" spans="2:5">
-      <c r="C697" t="s">
+    <row r="757" spans="1:4">
+      <c r="C757" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="699" spans="2:5">
-      <c r="D699" t="s">
+    <row r="759" spans="1:4">
+      <c r="D759" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="701" spans="2:5">
-      <c r="D701" t="s">
+    <row r="761" spans="1:4">
+      <c r="D761" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
-      <c r="A705" s="36" t="s">
+    <row r="765" spans="1:4">
+      <c r="A765" s="36" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
-      <c r="B707" t="s">
+    <row r="767" spans="1:4">
+      <c r="B767" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
-      <c r="C709" t="s">
+    <row r="769" spans="3:9">
+      <c r="C769" t="s">
         <v>1015</v>
       </c>
-      <c r="H709" t="s">
+      <c r="I769" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
-      <c r="C710" t="s">
+    <row r="770" spans="3:9">
+      <c r="C770" t="s">
         <v>1016</v>
       </c>
-      <c r="H710" t="s">
+      <c r="I770" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
-      <c r="C711" t="s">
+    <row r="771" spans="3:9">
+      <c r="C771" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I771" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="772" spans="3:9">
+      <c r="C772" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I772" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="773" spans="3:9">
+      <c r="C773" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I773" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="774" spans="3:9">
+      <c r="C774" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I774" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="776" spans="3:9">
+      <c r="C776" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="777" spans="3:9">
+      <c r="C777" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="778" spans="3:9">
+      <c r="C778" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="779" spans="3:9">
+      <c r="C779" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="781" spans="3:9">
+      <c r="D781" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I781" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="782" spans="3:9">
+      <c r="D782" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I782" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="783" spans="3:9">
+      <c r="D783" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I783" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="784" spans="3:9">
+      <c r="D784" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I784" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="785" spans="2:9">
+      <c r="D785" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I785" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="786" spans="2:9">
+      <c r="D786" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I786" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="791" spans="2:9">
+      <c r="B791" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
-      <c r="C712" t="s">
+    <row r="793" spans="2:9">
+      <c r="C793" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F793" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
-      <c r="C713" t="s">
+    <row r="795" spans="2:9">
+      <c r="C795" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
-      <c r="B715" t="s">
+    <row r="797" spans="2:9">
+      <c r="D797" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
-      <c r="C717" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F717" t="s">
+    <row r="798" spans="2:9">
+      <c r="D798" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
-      <c r="C719" t="s">
+    <row r="799" spans="2:9">
+      <c r="D799" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
-      <c r="D721" t="s">
+    <row r="800" spans="2:9">
+      <c r="D800" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
-      <c r="D722" t="s">
+    <row r="801" spans="1:12">
+      <c r="D801" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
-      <c r="D723" t="s">
+    <row r="802" spans="1:12">
+      <c r="D802" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
-      <c r="D724" t="s">
+    <row r="803" spans="1:12">
+      <c r="D803" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
-      <c r="D725" t="s">
+    <row r="804" spans="1:12">
+      <c r="D804" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
-      <c r="D726" t="s">
+    <row r="806" spans="1:12">
+      <c r="A806" s="36" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
-      <c r="D727" t="s">
+    <row r="808" spans="1:12">
+      <c r="B808" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
-      <c r="D728" t="s">
+    <row r="810" spans="1:12">
+      <c r="C810" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
-      <c r="A730" s="36" t="s">
+    <row r="811" spans="1:12">
+      <c r="C811" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12">
+      <c r="C812" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12">
+      <c r="C814" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
-      <c r="B732" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="734" spans="1:4">
-      <c r="C734" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="735" spans="1:4">
-      <c r="C735" t="s">
+    <row r="815" spans="1:12">
+      <c r="C815" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="736" spans="1:4">
-      <c r="C736" t="s">
+      <c r="L815" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12">
+      <c r="C816" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="738" spans="2:12">
-      <c r="C738" t="s">
+      <c r="L816" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="739" spans="2:12">
-      <c r="C739" t="s">
+    <row r="817" spans="2:12">
+      <c r="C817" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L817" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="819" spans="2:12">
+      <c r="C819" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="820" spans="2:12">
+      <c r="C820" t="s">
         <v>1040</v>
       </c>
-      <c r="L739" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="740" spans="2:12">
-      <c r="C740" t="s">
+    </row>
+    <row r="821" spans="2:12">
+      <c r="C821" t="s">
         <v>1041</v>
       </c>
-      <c r="L740" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="741" spans="2:12">
-      <c r="C741" t="s">
+    </row>
+    <row r="822" spans="2:12">
+      <c r="C822" t="s">
         <v>1042</v>
       </c>
-      <c r="L741" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="743" spans="2:12">
-      <c r="C743" t="s">
+      <c r="H822" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="825" spans="2:12">
+      <c r="B825" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="827" spans="2:12">
+      <c r="C827" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="744" spans="2:12">
-      <c r="C744" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="745" spans="2:12">
-      <c r="C745" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="746" spans="2:12">
-      <c r="C746" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H746" t="s">
+    <row r="828" spans="2:12">
+      <c r="C828" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="749" spans="2:12">
-      <c r="B749" t="s">
+    <row r="829" spans="2:12">
+      <c r="C829" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="751" spans="2:12">
-      <c r="C751" t="s">
+      <c r="F829" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="830" spans="2:12">
+      <c r="C830" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="752" spans="2:12">
-      <c r="C752" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="753" spans="1:6">
-      <c r="C753" t="s">
+    <row r="833" spans="1:3">
+      <c r="A833" s="36" t="s">
         <v>1051</v>
       </c>
-      <c r="F753" t="s">
+    </row>
+    <row r="835" spans="1:3">
+      <c r="B835" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="C836" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
-      <c r="C754" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6">
-      <c r="A757" s="36" t="s">
+    <row r="837" spans="1:3">
+      <c r="C837" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
-      <c r="B759" t="s">
+    <row r="838" spans="1:3">
+      <c r="C838" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="761" spans="1:6">
-      <c r="C761" t="s">
+    <row r="839" spans="1:3">
+      <c r="C839" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="762" spans="1:6">
-      <c r="C762" t="s">
+    <row r="840" spans="1:3">
+      <c r="C840" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="763" spans="1:6">
-      <c r="C763" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="764" spans="1:6">
-      <c r="C764" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="765" spans="1:6">
-      <c r="C765" t="s">
-        <v>1060</v>
+    <row r="843" spans="1:3">
+      <c r="A843" s="57" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3">
+      <c r="A845" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B845" t="s">
+        <v>647</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3">
+      <c r="A846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="A847">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="A848">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1382">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -2869,9 +2869,6 @@
     <t>8. Mảng đa chiều</t>
   </si>
   <si>
-    <t>8. kHai báo tham số là một mảng trong hàm main</t>
-  </si>
-  <si>
     <t xml:space="preserve">public static void main(String[] args) </t>
   </si>
   <si>
@@ -4520,13 +4517,64 @@
   </si>
   <si>
     <t>Đáp Án</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ad</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>J I E D A</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Long&gt; longNums = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>longNums.add(10)</t>
+  </si>
+  <si>
+    <t>// Lỗi, ko thể add int vào list Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghĩa là, các phần tử vẫn trỏ đến cùng một object ban đầu, Nhưng object clone thì ko trỏ đến obj ban đầu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subSequence () : tương tự như subString(), Ko làm thay đổi nội dung của StringBuilder </t>
+  </si>
+  <si>
+    <t>StringBuilder sb1 = new StringBuider("abcdef");</t>
+  </si>
+  <si>
+    <t>sb1.subSequence(2,4);</t>
+  </si>
+  <si>
+    <t>System.out.print(sb1);</t>
+  </si>
+  <si>
+    <t>// Vẫn là abcdef</t>
+  </si>
+  <si>
+    <t>Bài Test (study Guide)</t>
+  </si>
+  <si>
+    <t>8. Khai báo tham số là một mảng trong hàm main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4842,6 +4890,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4882,7 +4937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4998,6 +5053,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12043,10 +12099,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y855"/>
+  <dimension ref="A1:Y862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A834" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A846" sqref="A846:A855"/>
+    <sheetView tabSelected="1" topLeftCell="A556" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B572" sqref="B572:F572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12056,7 +12112,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12065,7 +12121,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12074,13 +12130,13 @@
     <row r="5" spans="1:3">
       <c r="A5" s="36"/>
       <c r="C5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="36"/>
       <c r="C6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12089,7 +12145,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12098,13 +12154,13 @@
     <row r="10" spans="1:3">
       <c r="A10" s="36"/>
       <c r="C10" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="36"/>
       <c r="C11" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -12113,19 +12169,19 @@
     <row r="13" spans="1:3">
       <c r="A13" s="36"/>
       <c r="B13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36"/>
       <c r="C14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="36"/>
       <c r="C15" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -12134,91 +12190,91 @@
     <row r="17" spans="1:12">
       <c r="A17" s="36"/>
       <c r="B17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="36"/>
       <c r="C18" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="36"/>
       <c r="D19" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="36"/>
       <c r="E20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="L20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="36"/>
       <c r="E21" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J21" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="L21" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="36"/>
       <c r="E22" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J22" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L22" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="36"/>
       <c r="E23" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J23" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="L23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="36"/>
       <c r="E24" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J24" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="L24" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="36"/>
       <c r="E25" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J25" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="L25" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12233,7 +12289,7 @@
         <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12263,25 +12319,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="B38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G42" t="s">
         <v>1102</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12484,13 +12540,13 @@
     <row r="72" spans="1:9">
       <c r="A72" s="36"/>
       <c r="B72" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="36"/>
       <c r="B73" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -12499,25 +12555,25 @@
     <row r="75" spans="1:9">
       <c r="A75" s="36"/>
       <c r="C75" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="36"/>
       <c r="C76" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="36"/>
       <c r="C77" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="36"/>
       <c r="C78" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -12526,13 +12582,13 @@
     <row r="80" spans="1:9">
       <c r="A80" s="36"/>
       <c r="C80" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H80" t="s">
         <v>1110</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>1111</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -12659,7 +12715,7 @@
     </row>
     <row r="101" spans="2:9" ht="18.75">
       <c r="C101" s="40" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -12723,7 +12779,7 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -12742,7 +12798,7 @@
     </row>
     <row r="110" spans="2:9">
       <c r="C110" s="60" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D110" s="60"/>
       <c r="E110" s="60"/>
@@ -12762,7 +12818,7 @@
     <row r="112" spans="2:9">
       <c r="D112" s="39"/>
       <c r="E112" s="43" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
@@ -12772,7 +12828,7 @@
     <row r="113" spans="1:9">
       <c r="D113" s="39"/>
       <c r="E113" s="43" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F113" s="43"/>
       <c r="G113" s="43"/>
@@ -12789,7 +12845,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="C115" s="39" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -12809,7 +12865,7 @@
     <row r="117" spans="1:9">
       <c r="D117" s="39"/>
       <c r="E117" s="43" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F117" s="43"/>
       <c r="G117" s="43"/>
@@ -12819,7 +12875,7 @@
     <row r="118" spans="1:9">
       <c r="D118" s="39"/>
       <c r="E118" s="43" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F118" s="43"/>
       <c r="G118" s="43"/>
@@ -12828,7 +12884,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="E119" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -12839,7 +12895,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="36"/>
       <c r="B121" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -12848,28 +12904,28 @@
     <row r="123" spans="1:9">
       <c r="A123" s="36"/>
       <c r="C123" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H123" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="36"/>
       <c r="C124" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="36"/>
       <c r="C125" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="36"/>
       <c r="C126" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -12882,118 +12938,147 @@
     </row>
     <row r="130" spans="2:8">
       <c r="C130" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="131" spans="2:8">
       <c r="D131" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="132" spans="2:8">
       <c r="D132" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="133" spans="2:8">
       <c r="D133" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="D134" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="D135" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="D136" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="138" spans="2:8">
       <c r="C138" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="140" spans="2:8">
       <c r="D140" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="141" spans="2:8">
       <c r="D141" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="142" spans="2:8">
       <c r="D142" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H142" t="s">
         <v>1127</v>
       </c>
-      <c r="H142" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="145" spans="3:9">
+    </row>
+    <row r="145" spans="2:9">
       <c r="C145" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="147" spans="3:9">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
       <c r="D147" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="148" spans="3:9">
+    <row r="148" spans="2:9">
       <c r="E148" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="E149" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="149" spans="3:9">
-      <c r="E149" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="150" spans="3:9">
+    <row r="150" spans="2:9">
       <c r="D150" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="3:9">
+    <row r="152" spans="2:9">
       <c r="D152" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="E153" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="153" spans="3:9">
-      <c r="E153" t="s">
+    <row r="154" spans="2:9">
+      <c r="E154" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="E155" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="E156" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="154" spans="3:9">
-      <c r="E154" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="155" spans="3:9">
-      <c r="E155" t="s">
+    <row r="157" spans="2:9">
+      <c r="E157" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I157" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="156" spans="3:9">
-      <c r="E156" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="157" spans="3:9">
-      <c r="E157" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I157" t="s">
-        <v>1139</v>
+    <row r="160" spans="2:9">
+      <c r="B160" s="67" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C160" s="39"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="39"/>
+      <c r="H160" s="39"/>
+    </row>
+    <row r="162" spans="2:14">
+      <c r="C162" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14">
+      <c r="C163" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14">
+      <c r="C164" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F164" s="36" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="166" spans="2:14">
@@ -13001,7 +13086,7 @@
         <v>742</v>
       </c>
       <c r="C166" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="168" spans="2:14">
@@ -13035,10 +13120,10 @@
     </row>
     <row r="174" spans="2:14">
       <c r="B174" s="39" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
@@ -13050,7 +13135,7 @@
     <row r="175" spans="2:14">
       <c r="B175" s="39"/>
       <c r="C175" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D175" s="39"/>
       <c r="E175" s="39"/>
@@ -13061,34 +13146,34 @@
     </row>
     <row r="177" spans="2:13">
       <c r="D177" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="178" spans="2:13">
       <c r="E178" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="179" spans="2:13">
       <c r="E179" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="180" spans="2:13">
       <c r="E180" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I180" s="57" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J180" s="57"/>
     </row>
     <row r="181" spans="2:13">
       <c r="E181" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I181" s="57" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J181" s="57"/>
     </row>
@@ -13149,11 +13234,13 @@
     </row>
     <row r="193" spans="1:9">
       <c r="B193" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C193" s="65" t="s">
         <v>1146</v>
       </c>
-      <c r="C193" t="s">
-        <v>1147</v>
-      </c>
+      <c r="D193" s="65"/>
+      <c r="E193" s="65"/>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="36" t="s">
@@ -13241,7 +13328,7 @@
         <v>764</v>
       </c>
       <c r="G210" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="211" spans="3:8">
@@ -13254,7 +13341,7 @@
         <v>765</v>
       </c>
       <c r="G213" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="214" spans="3:8">
@@ -13262,7 +13349,7 @@
         <v>766</v>
       </c>
       <c r="G214" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="215" spans="3:8">
@@ -13270,7 +13357,7 @@
         <v>767</v>
       </c>
       <c r="G215" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="216" spans="3:8">
@@ -13299,27 +13386,27 @@
         <v>790</v>
       </c>
       <c r="H220" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="222" spans="3:8">
       <c r="C222" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="223" spans="3:8">
       <c r="C223" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="231" spans="2:8">
       <c r="B231" s="39" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="233" spans="2:8">
       <c r="C233" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H233" t="s">
         <v>793</v>
@@ -13327,7 +13414,7 @@
     </row>
     <row r="234" spans="2:8">
       <c r="C234" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H234" t="s">
         <v>794</v>
@@ -13335,41 +13422,41 @@
     </row>
     <row r="236" spans="2:8">
       <c r="C236" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H236" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="237" spans="2:8">
       <c r="C237" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="238" spans="2:8">
       <c r="C238" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="240" spans="2:8">
       <c r="C240" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H240" t="s">
         <v>1160</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="242" spans="2:10">
       <c r="C242" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H242" t="s">
         <v>1162</v>
-      </c>
-      <c r="H242" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="246" spans="2:10">
       <c r="B246" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="248" spans="2:10">
@@ -13485,7 +13572,7 @@
         <v>787</v>
       </c>
       <c r="J269" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="270" spans="3:10">
@@ -13505,72 +13592,72 @@
     </row>
     <row r="274" spans="2:6">
       <c r="C274" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="275" spans="2:6">
       <c r="D275" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="276" spans="2:6">
       <c r="D276" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="277" spans="2:6">
       <c r="D277" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="278" spans="2:6">
       <c r="D278" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="280" spans="2:6">
       <c r="B280" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="282" spans="2:6">
       <c r="D282" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="283" spans="2:6">
       <c r="F283" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="284" spans="2:6">
       <c r="F284" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="285" spans="2:6">
       <c r="F285" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="287" spans="2:6">
       <c r="D287" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="289" spans="1:17">
       <c r="F289" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="290" spans="1:17">
       <c r="F290" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="291" spans="1:17">
       <c r="F291" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="15.75" customHeight="1">
@@ -13743,12 +13830,12 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="36" t="s">
-        <v>815</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="C313" s="51" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D313" s="18"/>
       <c r="E313" s="18"/>
@@ -13756,7 +13843,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="C314" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D314" s="18"/>
       <c r="E314" s="18"/>
@@ -13764,7 +13851,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="C315" s="51" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D315" s="18"/>
       <c r="E315" s="18"/>
@@ -13777,36 +13864,36 @@
     </row>
     <row r="319" spans="1:10">
       <c r="B319" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="320" spans="1:10">
       <c r="C320" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E320" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="C321" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E321" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="322" spans="1:10">
       <c r="C322" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E322" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="323" spans="1:10">
       <c r="C323" s="52" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -13814,27 +13901,27 @@
     </row>
     <row r="325" spans="1:10">
       <c r="C325" s="52" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="H326" s="52" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="H327" s="52" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="H328" s="52" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="G329" s="52" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13842,71 +13929,71 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="B334" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I334" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="C336" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J336" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="337" spans="2:7">
       <c r="C337" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="338" spans="2:7">
       <c r="C338" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="339" spans="2:7">
       <c r="C339" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="340" spans="2:7">
       <c r="C340" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="343" spans="2:7">
       <c r="B343" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="345" spans="2:7">
       <c r="C345" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G345" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="347" spans="2:7">
       <c r="C347" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="350" spans="2:7">
       <c r="C350" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="352" spans="2:7">
       <c r="D352" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E352" s="18"/>
       <c r="F352" s="18"/>
@@ -13914,7 +14001,7 @@
     </row>
     <row r="353" spans="2:10">
       <c r="D353" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E353" s="18"/>
       <c r="F353" s="18"/>
@@ -13922,7 +14009,7 @@
     </row>
     <row r="354" spans="2:10">
       <c r="D354" s="22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E354" s="18"/>
       <c r="F354" s="18"/>
@@ -13930,23 +14017,23 @@
     </row>
     <row r="355" spans="2:10">
       <c r="D355" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E355" s="18"/>
       <c r="F355" s="18"/>
       <c r="G355" s="18"/>
       <c r="I355" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="357" spans="2:10">
       <c r="C357" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="359" spans="2:10">
       <c r="D359" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E359" s="18"/>
       <c r="F359" s="18"/>
@@ -13956,7 +14043,7 @@
     </row>
     <row r="360" spans="2:10">
       <c r="D360" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E360" s="18"/>
       <c r="F360" s="18"/>
@@ -13966,7 +14053,7 @@
     </row>
     <row r="361" spans="2:10">
       <c r="D361" s="22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E361" s="18"/>
       <c r="F361" s="18"/>
@@ -13974,422 +14061,427 @@
       <c r="H361" s="18"/>
       <c r="I361" s="18"/>
       <c r="J361" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="362" spans="2:10">
+      <c r="D362" s="22"/>
+      <c r="E362" s="18"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="18"/>
+      <c r="H362" s="18"/>
+      <c r="I362" s="18"/>
+    </row>
+    <row r="363" spans="2:10">
+      <c r="D363" s="22" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E363" s="18"/>
+      <c r="F363" s="18"/>
+      <c r="G363" s="18"/>
+      <c r="H363" s="18"/>
+      <c r="I363" s="18"/>
+    </row>
+    <row r="364" spans="2:10">
+      <c r="D364" s="22" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E364" s="18"/>
+      <c r="F364" s="18"/>
+      <c r="G364" s="18" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H364" s="18"/>
+      <c r="I364" s="18"/>
+    </row>
+    <row r="366" spans="2:10">
+      <c r="B366" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="363" spans="2:10">
-      <c r="B363" t="s">
+    <row r="368" spans="2:10">
+      <c r="C368" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="365" spans="2:10">
-      <c r="C365" t="s">
+      <c r="G368" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="370" spans="3:9">
+      <c r="C370" t="s">
         <v>851</v>
       </c>
-      <c r="G365" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="367" spans="2:10">
-      <c r="C367" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="369" spans="3:25">
-      <c r="C369" s="36" t="s">
+    </row>
+    <row r="372" spans="3:9">
+      <c r="C372" s="36" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="373" spans="3:9" ht="14.25" customHeight="1"/>
+    <row r="374" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D374" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="370" spans="3:25" ht="14.25" customHeight="1"/>
-    <row r="371" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D371" t="s">
+    <row r="375" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D375" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="372" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D372" t="s">
+    <row r="376" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D376" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="373" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D373" t="s">
+    <row r="377" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D377" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="374" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D374" t="s">
+    <row r="378" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D378" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="375" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D375" t="s">
+    <row r="379" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D379" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="376" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D376" t="s">
+    <row r="380" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D380" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="377" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D377" t="s">
+    <row r="381" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D381" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="378" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D378" t="s">
+    <row r="382" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D382" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="379" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D379" t="s">
+    <row r="383" spans="3:9" ht="14.25" customHeight="1"/>
+    <row r="384" spans="3:9" ht="14.25" customHeight="1">
+      <c r="D384" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="380" spans="3:25" ht="14.25" customHeight="1"/>
-    <row r="381" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D381" t="s">
+      <c r="I384" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="385" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D385" t="s">
         <v>1219</v>
       </c>
-      <c r="I381" t="s">
+      <c r="I385" s="61" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J385" s="61"/>
+      <c r="K385" s="61"/>
+      <c r="L385" s="61"/>
+      <c r="M385" s="61"/>
+      <c r="N385" s="61"/>
+      <c r="O385" s="61"/>
+      <c r="P385" s="61"/>
+      <c r="Q385" s="61"/>
+      <c r="R385" s="61"/>
+      <c r="S385" s="61"/>
+      <c r="T385" s="61"/>
+      <c r="U385" s="61"/>
+      <c r="V385" s="61"/>
+      <c r="W385" s="61"/>
+      <c r="X385" s="61"/>
+      <c r="Y385" s="61"/>
+    </row>
+    <row r="386" spans="3:25" ht="14.25" customHeight="1">
+      <c r="I386" s="61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J386" s="61"/>
+      <c r="K386" s="61"/>
+      <c r="L386" s="61"/>
+      <c r="M386" s="61"/>
+      <c r="N386" s="61"/>
+      <c r="O386" s="61"/>
+      <c r="P386" s="61"/>
+      <c r="Q386" s="61"/>
+      <c r="R386" s="61"/>
+      <c r="S386" s="61"/>
+      <c r="T386" s="61"/>
+      <c r="U386" s="61"/>
+      <c r="V386" s="61"/>
+      <c r="W386" s="61"/>
+      <c r="X386" s="61"/>
+      <c r="Y386" s="61"/>
+    </row>
+    <row r="387" spans="3:25">
+      <c r="I387" s="61" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="382" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D382" t="s">
-        <v>1220</v>
-      </c>
-      <c r="I382" s="61" t="s">
+      <c r="J387" s="61"/>
+      <c r="K387" s="61"/>
+      <c r="L387" s="61"/>
+      <c r="M387" s="61"/>
+      <c r="N387" s="61"/>
+      <c r="O387" s="61"/>
+      <c r="P387" s="61"/>
+      <c r="Q387" s="61"/>
+      <c r="R387" s="61"/>
+      <c r="S387" s="61"/>
+      <c r="T387" s="61"/>
+      <c r="U387" s="61"/>
+      <c r="V387" s="61"/>
+      <c r="W387" s="61"/>
+      <c r="X387" s="61"/>
+      <c r="Y387" s="61"/>
+    </row>
+    <row r="389" spans="3:25">
+      <c r="D389" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="390" spans="3:25">
+      <c r="C390" t="s">
         <v>1223</v>
       </c>
-      <c r="J382" s="61"/>
-      <c r="K382" s="61"/>
-      <c r="L382" s="61"/>
-      <c r="M382" s="61"/>
-      <c r="N382" s="61"/>
-      <c r="O382" s="61"/>
-      <c r="P382" s="61"/>
-      <c r="Q382" s="61"/>
-      <c r="R382" s="61"/>
-      <c r="S382" s="61"/>
-      <c r="T382" s="61"/>
-      <c r="U382" s="61"/>
-      <c r="V382" s="61"/>
-      <c r="W382" s="61"/>
-      <c r="X382" s="61"/>
-      <c r="Y382" s="61"/>
-    </row>
-    <row r="383" spans="3:25" ht="14.25" customHeight="1">
-      <c r="I383" s="61" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J383" s="61"/>
-      <c r="K383" s="61"/>
-      <c r="L383" s="61"/>
-      <c r="M383" s="61"/>
-      <c r="N383" s="61"/>
-      <c r="O383" s="61"/>
-      <c r="P383" s="61"/>
-      <c r="Q383" s="61"/>
-      <c r="R383" s="61"/>
-      <c r="S383" s="61"/>
-      <c r="T383" s="61"/>
-      <c r="U383" s="61"/>
-      <c r="V383" s="61"/>
-      <c r="W383" s="61"/>
-      <c r="X383" s="61"/>
-      <c r="Y383" s="61"/>
-    </row>
-    <row r="384" spans="3:25">
-      <c r="I384" s="61" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J384" s="61"/>
-      <c r="K384" s="61"/>
-      <c r="L384" s="61"/>
-      <c r="M384" s="61"/>
-      <c r="N384" s="61"/>
-      <c r="O384" s="61"/>
-      <c r="P384" s="61"/>
-      <c r="Q384" s="61"/>
-      <c r="R384" s="61"/>
-      <c r="S384" s="61"/>
-      <c r="T384" s="61"/>
-      <c r="U384" s="61"/>
-      <c r="V384" s="61"/>
-      <c r="W384" s="61"/>
-      <c r="X384" s="61"/>
-      <c r="Y384" s="61"/>
-    </row>
-    <row r="386" spans="3:14">
-      <c r="D386" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="387" spans="3:14">
-      <c r="C387" t="s">
+    </row>
+    <row r="392" spans="3:25">
+      <c r="D392" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="393" spans="3:25">
+      <c r="E393" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="389" spans="3:14">
-      <c r="D389" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="390" spans="3:14">
-      <c r="E390" t="s">
+    <row r="394" spans="3:25">
+      <c r="N394" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="395" spans="3:25">
+      <c r="F395" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N395" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="396" spans="3:25">
+      <c r="N396" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="397" spans="3:25">
+      <c r="F397" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="391" spans="3:14">
-      <c r="N391" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="392" spans="3:14">
-      <c r="F392" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N392" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="393" spans="3:14">
-      <c r="N393" t="s">
+      <c r="N397" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="394" spans="3:14">
-      <c r="F394" t="s">
+    <row r="398" spans="3:25">
+      <c r="H398" t="s">
         <v>1226</v>
       </c>
-      <c r="N394" t="s">
+      <c r="N398" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="395" spans="3:14">
-      <c r="H395" t="s">
+    <row r="399" spans="3:25">
+      <c r="I399" t="s">
         <v>1227</v>
       </c>
-      <c r="N395" t="s">
+      <c r="N399" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="396" spans="3:14">
-      <c r="I396" t="s">
+    <row r="400" spans="3:25">
+      <c r="I400" t="s">
         <v>1228</v>
       </c>
-      <c r="N396" t="s">
+      <c r="N400" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="397" spans="3:14">
-      <c r="I397" t="s">
+    <row r="401" spans="2:14">
+      <c r="I401" t="s">
         <v>1229</v>
       </c>
-      <c r="N397" t="s">
+      <c r="N401" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="398" spans="3:14">
-      <c r="I398" t="s">
+    <row r="402" spans="2:14">
+      <c r="H402" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="403" spans="2:14">
+      <c r="H403" t="s">
         <v>1230</v>
       </c>
-      <c r="N398" t="s">
+    </row>
+    <row r="404" spans="2:14">
+      <c r="I404" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="405" spans="2:14">
+      <c r="E405" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="407" spans="2:14">
+      <c r="B407" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="399" spans="3:14">
-      <c r="H399" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="400" spans="3:14">
-      <c r="H400" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="401" spans="2:13">
-      <c r="I401" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="402" spans="2:13">
-      <c r="E402" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="404" spans="2:13">
-      <c r="B404" t="s">
+    <row r="408" spans="2:14">
+      <c r="C408" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="405" spans="2:13">
-      <c r="C405" t="s">
+    <row r="409" spans="2:14">
+      <c r="C409" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="410" spans="2:14">
+      <c r="C410" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="411" spans="2:14">
+      <c r="D411" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="406" spans="2:13">
-      <c r="C406" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="408" spans="2:13">
-      <c r="D408" t="s">
+    <row r="412" spans="2:14">
+      <c r="D412" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="413" spans="2:14">
+      <c r="D413" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="414" spans="2:14">
+      <c r="D414" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="415" spans="2:14">
+      <c r="D415" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="409" spans="2:13">
-      <c r="D409" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="410" spans="2:13">
-      <c r="D410" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="411" spans="2:13">
-      <c r="D411" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="412" spans="2:13">
-      <c r="D412" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="413" spans="2:13">
-      <c r="D413" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="414" spans="2:13">
-      <c r="D414" t="s">
-        <v>1245</v>
-      </c>
-      <c r="L414" t="b">
-        <v>1</v>
-      </c>
-      <c r="M414" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="415" spans="2:13">
-      <c r="D415" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L415" t="b">
-        <v>0</v>
-      </c>
-      <c r="M415" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="416" spans="2:13">
+    <row r="416" spans="2:14">
       <c r="D416" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="417" spans="1:13">
       <c r="D417" t="s">
-        <v>1248</v>
+        <v>1244</v>
+      </c>
+      <c r="L417" t="b">
+        <v>1</v>
+      </c>
+      <c r="M417" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="418" spans="1:13">
       <c r="D418" t="s">
-        <v>1249</v>
+        <v>1245</v>
+      </c>
+      <c r="L418" t="b">
+        <v>0</v>
+      </c>
+      <c r="M418" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="419" spans="1:13">
       <c r="D419" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L419" t="b">
-        <v>1</v>
-      </c>
-      <c r="M419" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="420" spans="1:13">
       <c r="D420" t="s">
-        <v>1251</v>
-      </c>
-      <c r="L420" t="b">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13">
+      <c r="D421" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13">
+      <c r="D422" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L422" t="b">
         <v>1</v>
       </c>
-      <c r="M420" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13">
-      <c r="A422" s="36" t="s">
+      <c r="M422" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13">
+      <c r="D423" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L423" t="b">
+        <v>1</v>
+      </c>
+      <c r="M423" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13">
+      <c r="A425" s="36" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13">
+      <c r="B427" s="39" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="424" spans="1:13">
-      <c r="B424" s="39" t="s">
+      <c r="C427" s="39"/>
+      <c r="D427" s="39"/>
+      <c r="E427" s="39"/>
+      <c r="F427" s="39"/>
+      <c r="G427" s="39"/>
+      <c r="H427" s="39"/>
+      <c r="I427" s="39"/>
+    </row>
+    <row r="429" spans="1:13">
+      <c r="C429" t="s">
         <v>1258</v>
       </c>
-      <c r="C424" s="39"/>
-      <c r="D424" s="39"/>
-      <c r="E424" s="39"/>
-      <c r="F424" s="39"/>
-      <c r="G424" s="39"/>
-      <c r="H424" s="39"/>
-      <c r="I424" s="39"/>
-    </row>
-    <row r="426" spans="1:13">
-      <c r="C426" t="s">
+    </row>
+    <row r="430" spans="1:13">
+      <c r="D430" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
-      <c r="D427" t="s">
+    <row r="431" spans="1:13">
+      <c r="D431" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="428" spans="1:13">
-      <c r="D428" t="s">
+    <row r="432" spans="1:13">
+      <c r="D432" s="59" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="429" spans="1:13">
-      <c r="D429" s="59" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E429" s="59"/>
-      <c r="F429" s="59"/>
-      <c r="G429" s="59"/>
-      <c r="H429" s="59"/>
-      <c r="I429" s="59"/>
-    </row>
-    <row r="430" spans="1:13">
-      <c r="D430" s="59" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E430" s="59"/>
-      <c r="F430" s="59"/>
-      <c r="G430" s="59"/>
-      <c r="H430" s="59"/>
-      <c r="I430" s="59"/>
-    </row>
-    <row r="431" spans="1:13">
-      <c r="D431" s="59"/>
-      <c r="E431" s="59" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F431" s="59"/>
-      <c r="G431" s="59"/>
-      <c r="H431" s="59"/>
-      <c r="I431" s="59"/>
-    </row>
-    <row r="432" spans="1:13">
-      <c r="D432" s="59"/>
-      <c r="E432" s="59" t="s">
-        <v>1265</v>
-      </c>
+      <c r="E432" s="59"/>
       <c r="F432" s="59"/>
       <c r="G432" s="59"/>
       <c r="H432" s="59"/>
@@ -14397,7 +14489,7 @@
     </row>
     <row r="433" spans="3:9">
       <c r="D433" s="59" t="s">
-        <v>45</v>
+        <v>1262</v>
       </c>
       <c r="E433" s="59"/>
       <c r="F433" s="59"/>
@@ -14406,10 +14498,10 @@
       <c r="I433" s="59"/>
     </row>
     <row r="434" spans="3:9">
-      <c r="D434" s="59" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E434" s="59"/>
+      <c r="D434" s="59"/>
+      <c r="E434" s="59" t="s">
+        <v>1263</v>
+      </c>
       <c r="F434" s="59"/>
       <c r="G434" s="59"/>
       <c r="H434" s="59"/>
@@ -14418,7 +14510,7 @@
     <row r="435" spans="3:9">
       <c r="D435" s="59"/>
       <c r="E435" s="59" t="s">
-        <v>1232</v>
+        <v>1264</v>
       </c>
       <c r="F435" s="59"/>
       <c r="G435" s="59"/>
@@ -14436,213 +14528,216 @@
       <c r="I436" s="59"/>
     </row>
     <row r="437" spans="3:9">
-      <c r="C437" t="s">
+      <c r="D437" s="59" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E437" s="59"/>
+      <c r="F437" s="59"/>
+      <c r="G437" s="59"/>
+      <c r="H437" s="59"/>
+      <c r="I437" s="59"/>
+    </row>
+    <row r="438" spans="3:9">
+      <c r="D438" s="59"/>
+      <c r="E438" s="59" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F438" s="59"/>
+      <c r="G438" s="59"/>
+      <c r="H438" s="59"/>
+      <c r="I438" s="59"/>
+    </row>
+    <row r="439" spans="3:9">
+      <c r="D439" s="59" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="438" spans="3:9">
-      <c r="C438" t="s">
-        <v>1266</v>
-      </c>
+      <c r="E439" s="59"/>
+      <c r="F439" s="59"/>
+      <c r="G439" s="59"/>
+      <c r="H439" s="59"/>
+      <c r="I439" s="59"/>
     </row>
     <row r="440" spans="3:9">
       <c r="C440" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="441" spans="3:9">
+      <c r="C441" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="443" spans="3:9">
+      <c r="C443" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="445" spans="3:9">
+      <c r="D445" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="442" spans="3:9">
-      <c r="D442" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="443" spans="3:9">
-      <c r="E443" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="444" spans="3:9">
-      <c r="F444" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="445" spans="3:9">
-      <c r="F445" t="s">
-        <v>1270</v>
-      </c>
-    </row>
     <row r="446" spans="3:9">
-      <c r="F446" t="s">
-        <v>1271</v>
+      <c r="E446" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="447" spans="3:9">
       <c r="F447" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="448" spans="3:9">
       <c r="F448" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="449" spans="3:11">
       <c r="F449" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="450" spans="3:11">
+      <c r="F450" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="451" spans="3:11">
+      <c r="F451" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="452" spans="3:11">
+      <c r="F452" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="453" spans="3:11">
+      <c r="F453" s="36" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="450" spans="3:11">
-      <c r="F450" s="36" t="s">
+      <c r="G453" s="36"/>
+      <c r="H453" s="36"/>
+      <c r="I453" s="36"/>
+      <c r="K453" t="s">
         <v>1275</v>
       </c>
-      <c r="G450" s="36"/>
-      <c r="H450" s="36"/>
-      <c r="I450" s="36"/>
-      <c r="K450" t="s">
+    </row>
+    <row r="454" spans="3:11">
+      <c r="E454" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="455" spans="3:11">
+      <c r="D455" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="457" spans="3:11">
+      <c r="C457" t="s">
         <v>1276</v>
-      </c>
-    </row>
-    <row r="451" spans="3:11">
-      <c r="E451" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="452" spans="3:11">
-      <c r="D452" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="454" spans="3:11">
-      <c r="C454" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="456" spans="3:11">
-      <c r="D456" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="457" spans="3:11">
-      <c r="D457" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="458" spans="3:11">
-      <c r="D458" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="459" spans="3:11">
       <c r="D459" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="460" spans="3:11">
       <c r="D460" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="461" spans="3:11">
       <c r="D461" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="462" spans="3:11">
       <c r="D462" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="463" spans="3:11">
       <c r="D463" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="464" spans="3:11">
       <c r="D464" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10">
+      <c r="D465" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10">
+      <c r="D466" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10">
+      <c r="D467" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="466" spans="1:10">
-      <c r="D466" s="36" t="s">
+    <row r="469" spans="1:10">
+      <c r="D469" s="36" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E469" s="36"/>
+      <c r="F469" s="36"/>
+      <c r="G469" s="36"/>
+      <c r="H469" s="36" t="s">
         <v>1286</v>
       </c>
-      <c r="E466" s="36"/>
-      <c r="F466" s="36"/>
-      <c r="G466" s="36"/>
-      <c r="H466" s="36" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I466" s="36"/>
-      <c r="J466" s="36"/>
-    </row>
-    <row r="468" spans="1:10">
-      <c r="A468" s="36" t="s">
+      <c r="I469" s="36"/>
+      <c r="J469" s="36"/>
+    </row>
+    <row r="471" spans="1:10">
+      <c r="A471" s="36" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10">
+      <c r="B473" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="470" spans="1:10">
-      <c r="B470" t="s">
+      <c r="D473" t="s">
         <v>1187</v>
       </c>
-      <c r="D470" t="s">
+    </row>
+    <row r="475" spans="1:10">
+      <c r="D475" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
-      <c r="D472" t="s">
+    <row r="479" spans="1:10">
+      <c r="B479" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="476" spans="1:10">
-      <c r="B476" t="s">
+      <c r="D479" t="s">
         <v>1190</v>
       </c>
-      <c r="D476" t="s">
+    </row>
+    <row r="482" spans="2:7">
+      <c r="D482" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="479" spans="1:10">
-      <c r="D479" t="s">
+    <row r="484" spans="2:7">
+      <c r="B484" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="481" spans="2:7">
-      <c r="B481" t="s">
+      <c r="D484" t="s">
         <v>1193</v>
       </c>
-      <c r="D481" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="483" spans="2:7">
-      <c r="C483" s="58" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D483" s="43"/>
-      <c r="E483" s="43"/>
-      <c r="F483" s="43"/>
-      <c r="G483" s="43"/>
-    </row>
-    <row r="484" spans="2:7">
-      <c r="C484" s="58" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D484" s="43"/>
-      <c r="E484" s="43"/>
-      <c r="F484" s="43"/>
-      <c r="G484" s="43"/>
-    </row>
-    <row r="485" spans="2:7">
-      <c r="C485" s="58" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D485" s="43"/>
-      <c r="E485" s="43"/>
-      <c r="F485" s="43"/>
-      <c r="G485" s="43"/>
     </row>
     <row r="486" spans="2:7">
       <c r="C486" s="58" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D486" s="43"/>
       <c r="E486" s="43"/>
@@ -14651,7 +14746,7 @@
     </row>
     <row r="487" spans="2:7">
       <c r="C487" s="58" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D487" s="43"/>
       <c r="E487" s="43"/>
@@ -14660,7 +14755,7 @@
     </row>
     <row r="488" spans="2:7">
       <c r="C488" s="58" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="D488" s="43"/>
       <c r="E488" s="43"/>
@@ -14669,7 +14764,7 @@
     </row>
     <row r="489" spans="2:7">
       <c r="C489" s="58" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D489" s="43"/>
       <c r="E489" s="43"/>
@@ -14678,7 +14773,7 @@
     </row>
     <row r="490" spans="2:7">
       <c r="C490" s="58" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="D490" s="43"/>
       <c r="E490" s="43"/>
@@ -14687,7 +14782,7 @@
     </row>
     <row r="491" spans="2:7">
       <c r="C491" s="58" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D491" s="43"/>
       <c r="E491" s="43"/>
@@ -14696,7 +14791,7 @@
     </row>
     <row r="492" spans="2:7">
       <c r="C492" s="58" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D492" s="43"/>
       <c r="E492" s="43"/>
@@ -14705,16 +14800,16 @@
     </row>
     <row r="493" spans="2:7">
       <c r="C493" s="58" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="D493" s="43"/>
       <c r="E493" s="43"/>
       <c r="F493" s="43"/>
       <c r="G493" s="43"/>
     </row>
-    <row r="494" spans="2:7" ht="14.25" customHeight="1">
+    <row r="494" spans="2:7">
       <c r="C494" s="58" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="D494" s="43"/>
       <c r="E494" s="43"/>
@@ -14723,7 +14818,7 @@
     </row>
     <row r="495" spans="2:7">
       <c r="C495" s="58" t="s">
-        <v>1195</v>
+        <v>1204</v>
       </c>
       <c r="D495" s="43"/>
       <c r="E495" s="43"/>
@@ -14732,479 +14827,473 @@
     </row>
     <row r="496" spans="2:7">
       <c r="C496" s="58" t="s">
-        <v>45</v>
+        <v>1205</v>
       </c>
       <c r="D496" s="43"/>
       <c r="E496" s="43"/>
       <c r="F496" s="43"/>
       <c r="G496" s="43"/>
     </row>
-    <row r="505" spans="1:6">
-      <c r="A505" s="36" t="s">
+    <row r="497" spans="1:7" ht="14.25" customHeight="1">
+      <c r="C497" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D497" s="43"/>
+      <c r="E497" s="43"/>
+      <c r="F497" s="43"/>
+      <c r="G497" s="43"/>
+    </row>
+    <row r="498" spans="1:7">
+      <c r="C498" s="58" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D498" s="43"/>
+      <c r="E498" s="43"/>
+      <c r="F498" s="43"/>
+      <c r="G498" s="43"/>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="C499" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D499" s="43"/>
+      <c r="E499" s="43"/>
+      <c r="F499" s="43"/>
+      <c r="G499" s="43"/>
+    </row>
+    <row r="508" spans="1:7">
+      <c r="A508" s="36" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="B510" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="507" spans="1:6">
-      <c r="B507" t="s">
+      <c r="D510" t="s">
         <v>855</v>
       </c>
-      <c r="D507" t="s">
+      <c r="F510" t="s">
         <v>856</v>
       </c>
-      <c r="F507" t="s">
+    </row>
+    <row r="512" spans="1:7">
+      <c r="B512" t="s">
+        <v>82</v>
+      </c>
+      <c r="D512" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="509" spans="1:6">
-      <c r="B509" t="s">
-        <v>82</v>
-      </c>
-      <c r="D509" t="s">
+      <c r="F512" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="513" spans="2:6">
+      <c r="B513" t="s">
         <v>858</v>
       </c>
-      <c r="F509" t="s">
+      <c r="D513" t="s">
+        <v>859</v>
+      </c>
+      <c r="F513" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
-      <c r="B510" t="s">
+    <row r="514" spans="2:6">
+      <c r="B514" t="s">
+        <v>86</v>
+      </c>
+      <c r="D514" t="s">
+        <v>860</v>
+      </c>
+      <c r="F514" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="515" spans="2:6">
+      <c r="B515" t="s">
+        <v>409</v>
+      </c>
+      <c r="D515" t="s">
+        <v>861</v>
+      </c>
+      <c r="F515" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="516" spans="2:6">
+      <c r="B516" t="s">
+        <v>410</v>
+      </c>
+      <c r="D516" t="s">
+        <v>862</v>
+      </c>
+      <c r="F516" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="517" spans="2:6">
+      <c r="B517" t="s">
+        <v>863</v>
+      </c>
+      <c r="D517" t="s">
+        <v>864</v>
+      </c>
+      <c r="F517" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="518" spans="2:6">
+      <c r="B518" t="s">
+        <v>865</v>
+      </c>
+      <c r="D518" t="s">
+        <v>866</v>
+      </c>
+      <c r="F518" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="519" spans="2:6">
+      <c r="B519" t="s">
+        <v>867</v>
+      </c>
+      <c r="D519" t="s">
+        <v>868</v>
+      </c>
+      <c r="F519" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="522" spans="2:6">
+      <c r="B522" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="524" spans="2:6">
+      <c r="C524" t="s">
+        <v>878</v>
+      </c>
+      <c r="E524" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="526" spans="2:6">
+      <c r="C526" t="s">
+        <v>857</v>
+      </c>
+      <c r="E526" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="527" spans="2:6">
+      <c r="C527" t="s">
         <v>859</v>
       </c>
-      <c r="D510" t="s">
+      <c r="E527" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="528" spans="2:6">
+      <c r="C528" t="s">
         <v>860</v>
       </c>
-      <c r="F510" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6">
-      <c r="B511" t="s">
-        <v>86</v>
-      </c>
-      <c r="D511" t="s">
-        <v>861</v>
-      </c>
-      <c r="F511" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6">
-      <c r="B512" t="s">
-        <v>409</v>
-      </c>
-      <c r="D512" t="s">
-        <v>862</v>
-      </c>
-      <c r="F512" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="513" spans="2:15">
-      <c r="B513" t="s">
-        <v>410</v>
-      </c>
-      <c r="D513" t="s">
-        <v>863</v>
-      </c>
-      <c r="F513" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="514" spans="2:15">
-      <c r="B514" t="s">
-        <v>864</v>
-      </c>
-      <c r="D514" t="s">
-        <v>865</v>
-      </c>
-      <c r="F514" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="515" spans="2:15">
-      <c r="B515" t="s">
-        <v>866</v>
-      </c>
-      <c r="D515" t="s">
-        <v>867</v>
-      </c>
-      <c r="F515" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="516" spans="2:15">
-      <c r="B516" t="s">
-        <v>868</v>
-      </c>
-      <c r="D516" t="s">
-        <v>869</v>
-      </c>
-      <c r="F516" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="519" spans="2:15">
-      <c r="B519" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="521" spans="2:15">
-      <c r="C521" t="s">
-        <v>879</v>
-      </c>
-      <c r="E521" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="523" spans="2:15">
-      <c r="C523" t="s">
-        <v>858</v>
-      </c>
-      <c r="E523" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="524" spans="2:15">
-      <c r="C524" t="s">
-        <v>860</v>
-      </c>
-      <c r="E524" t="s">
+      <c r="E528" t="s">
         <v>882</v>
-      </c>
-    </row>
-    <row r="525" spans="2:15">
-      <c r="C525" t="s">
-        <v>861</v>
-      </c>
-      <c r="E525" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="526" spans="2:15">
-      <c r="C526" t="s">
-        <v>862</v>
-      </c>
-      <c r="E526" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="527" spans="2:15">
-      <c r="C527" t="s">
-        <v>885</v>
-      </c>
-      <c r="E527" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="528" spans="2:15">
-      <c r="C528" t="s">
-        <v>887</v>
-      </c>
-      <c r="E528" t="s">
-        <v>888</v>
-      </c>
-      <c r="J528" t="s">
-        <v>889</v>
-      </c>
-      <c r="O528" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="529" spans="3:15">
       <c r="C529" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E529" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="530" spans="3:15">
+      <c r="C530" t="s">
+        <v>884</v>
+      </c>
+      <c r="E530" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="531" spans="3:15">
+      <c r="C531" t="s">
+        <v>886</v>
+      </c>
+      <c r="E531" t="s">
+        <v>887</v>
+      </c>
+      <c r="J531" t="s">
+        <v>888</v>
+      </c>
+      <c r="O531" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="532" spans="3:15">
+      <c r="C532" t="s">
+        <v>866</v>
+      </c>
+      <c r="E532" t="s">
+        <v>890</v>
+      </c>
+      <c r="J532" t="s">
         <v>891</v>
       </c>
-      <c r="J529" t="s">
+      <c r="O532" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="533" spans="3:15">
+      <c r="C533" s="54" t="s">
+        <v>868</v>
+      </c>
+      <c r="D533" s="54"/>
+      <c r="E533" s="54" t="s">
         <v>892</v>
       </c>
-      <c r="O529" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="530" spans="3:15">
-      <c r="C530" s="54" t="s">
-        <v>869</v>
-      </c>
-      <c r="D530" s="54"/>
-      <c r="E530" s="54" t="s">
+      <c r="F533" s="54"/>
+      <c r="G533" s="54"/>
+      <c r="H533" s="54"/>
+      <c r="I533" s="53"/>
+    </row>
+    <row r="536" spans="3:15">
+      <c r="E536" t="s">
         <v>893</v>
-      </c>
-      <c r="F530" s="54"/>
-      <c r="G530" s="54"/>
-      <c r="H530" s="54"/>
-      <c r="I530" s="53"/>
-    </row>
-    <row r="533" spans="3:15">
-      <c r="E533" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="535" spans="3:15">
-      <c r="C535" t="s">
-        <v>858</v>
-      </c>
-      <c r="E535" t="s">
-        <v>895</v>
-      </c>
-      <c r="K535" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="536" spans="3:15">
-      <c r="C536" t="s">
-        <v>860</v>
-      </c>
-      <c r="E536" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="537" spans="3:15">
-      <c r="C537" t="s">
-        <v>861</v>
-      </c>
-      <c r="E537" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="538" spans="3:15">
       <c r="C538" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E538" t="s">
-        <v>899</v>
+        <v>894</v>
+      </c>
+      <c r="K538" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="539" spans="3:15">
       <c r="C539" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="E539" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="540" spans="3:15">
       <c r="C540" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="E540" t="s">
-        <v>901</v>
-      </c>
-      <c r="J540" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="541" spans="3:15">
       <c r="C541" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E541" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="542" spans="3:15">
+      <c r="C542" t="s">
+        <v>884</v>
+      </c>
+      <c r="E542" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="543" spans="3:15">
+      <c r="C543" t="s">
+        <v>886</v>
+      </c>
+      <c r="E543" t="s">
+        <v>900</v>
+      </c>
+      <c r="J543" t="s">
         <v>902</v>
       </c>
-      <c r="J541" t="s">
+    </row>
+    <row r="544" spans="3:15">
+      <c r="C544" t="s">
+        <v>866</v>
+      </c>
+      <c r="E544" t="s">
+        <v>901</v>
+      </c>
+      <c r="J544" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="C545" s="54" t="s">
+        <v>868</v>
+      </c>
+      <c r="E545" s="54" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="36" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="542" spans="3:15">
-      <c r="C542" s="54" t="s">
-        <v>869</v>
-      </c>
-      <c r="E542" s="54" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
-      <c r="A546" s="36" t="s">
+    <row r="551" spans="1:8">
+      <c r="B551" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
-      <c r="B548" t="s">
+    <row r="553" spans="1:8">
+      <c r="B553" t="s">
+        <v>471</v>
+      </c>
+      <c r="C553" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
-      <c r="B550" t="s">
-        <v>471</v>
-      </c>
-      <c r="C550" t="s">
+    <row r="554" spans="1:8">
+      <c r="C554" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="C551" t="s">
+      <c r="H554" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="C555" t="s">
+        <v>915</v>
+      </c>
+      <c r="H555" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="36" t="s">
         <v>908</v>
       </c>
-      <c r="H551" t="s">
+    </row>
+    <row r="557" spans="1:8">
+      <c r="B557" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="B559" t="s">
+        <v>392</v>
+      </c>
+      <c r="C559" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="C560" t="s">
+        <v>911</v>
+      </c>
+      <c r="H560" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
-      <c r="C552" t="s">
-        <v>916</v>
-      </c>
-      <c r="H552" t="s">
+    <row r="561" spans="2:8">
+      <c r="C561" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="564" spans="2:8">
+      <c r="B564" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
-      <c r="A553" s="36" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="B554" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8">
-      <c r="B556" t="s">
-        <v>392</v>
-      </c>
-      <c r="C556" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
-      <c r="C557" t="s">
-        <v>912</v>
-      </c>
-      <c r="H557" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="C558" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="561" spans="2:8">
-      <c r="B561" t="s">
+    <row r="566" spans="2:8">
+      <c r="C566" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="563" spans="2:8">
-      <c r="C563" t="s">
+    <row r="567" spans="2:8">
+      <c r="C567" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="564" spans="2:8">
-      <c r="C564" t="s">
+    <row r="568" spans="2:8">
+      <c r="C568" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="565" spans="2:8">
-      <c r="C565" t="s">
+      <c r="H568" t="s">
         <v>921</v>
       </c>
-      <c r="H565" t="s">
+    </row>
+    <row r="572" spans="2:8">
+      <c r="B572" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="567" spans="2:8">
-      <c r="B567" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="570" spans="2:8">
-      <c r="C570" s="23" t="s">
-        <v>924</v>
-      </c>
-      <c r="D570" s="18"/>
-      <c r="E570" s="18"/>
-      <c r="F570" s="18"/>
-      <c r="G570" s="18"/>
-    </row>
-    <row r="571" spans="2:8">
-      <c r="C571" s="23" t="s">
-        <v>925</v>
-      </c>
-      <c r="D571" s="18"/>
-      <c r="E571" s="18"/>
-      <c r="F571" s="18"/>
-      <c r="G571" s="18"/>
-    </row>
-    <row r="572" spans="2:8">
-      <c r="C572" s="23" t="s">
-        <v>926</v>
-      </c>
-      <c r="D572" s="18"/>
-      <c r="E572" s="18"/>
-      <c r="F572" s="18"/>
-      <c r="G572" s="18"/>
     </row>
     <row r="573" spans="2:8">
       <c r="C573" s="23" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D573" s="18"/>
       <c r="E573" s="18"/>
       <c r="F573" s="18"/>
       <c r="G573" s="18"/>
-      <c r="H573" t="s">
-        <v>929</v>
-      </c>
     </row>
     <row r="574" spans="2:8">
       <c r="C574" s="23" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D574" s="18"/>
       <c r="E574" s="18"/>
       <c r="F574" s="18"/>
       <c r="G574" s="18"/>
-      <c r="H574" t="s">
+    </row>
+    <row r="575" spans="2:8">
+      <c r="C575" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="D575" s="18"/>
+      <c r="E575" s="18"/>
+      <c r="F575" s="18"/>
+      <c r="G575" s="18"/>
+    </row>
+    <row r="576" spans="2:8">
+      <c r="C576" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="D576" s="18"/>
+      <c r="E576" s="18"/>
+      <c r="F576" s="18"/>
+      <c r="G576" s="18"/>
+      <c r="H576" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11">
+      <c r="C577" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="D577" s="18"/>
+      <c r="E577" s="18"/>
+      <c r="F577" s="18"/>
+      <c r="G577" s="18"/>
+      <c r="H577" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11">
+      <c r="A580" s="36" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="577" spans="1:11">
-      <c r="A577" s="36" t="s">
+    <row r="582" spans="1:11">
+      <c r="B582" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="579" spans="1:11">
-      <c r="B579" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="582" spans="1:11">
-      <c r="C582" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="D582" s="18"/>
-      <c r="E582" s="18"/>
-      <c r="F582" s="18"/>
-      <c r="G582" s="18"/>
-      <c r="H582" s="18"/>
-      <c r="I582" s="18"/>
-    </row>
-    <row r="583" spans="1:11">
-      <c r="C583" s="22" t="s">
-        <v>934</v>
-      </c>
-      <c r="D583" s="18"/>
-      <c r="E583" s="18"/>
-      <c r="F583" s="18"/>
-      <c r="G583" s="18"/>
-      <c r="H583" s="18"/>
-      <c r="I583" s="18"/>
-    </row>
-    <row r="584" spans="1:11">
-      <c r="C584" s="22" t="s">
-        <v>935</v>
-      </c>
-      <c r="D584" s="18"/>
-      <c r="E584" s="18"/>
-      <c r="F584" s="18"/>
-      <c r="G584" s="18"/>
-      <c r="H584" s="18"/>
-      <c r="I584" s="18"/>
     </row>
     <row r="585" spans="1:11">
       <c r="C585" s="22" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D585" s="18"/>
       <c r="E585" s="18"/>
@@ -15212,13 +15301,10 @@
       <c r="G585" s="18"/>
       <c r="H585" s="18"/>
       <c r="I585" s="18"/>
-      <c r="K585" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="586" spans="1:11">
       <c r="C586" s="22" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D586" s="18"/>
       <c r="E586" s="18"/>
@@ -15226,12 +15312,11 @@
       <c r="G586" s="18"/>
       <c r="H586" s="18"/>
       <c r="I586" s="18"/>
-      <c r="K586" t="s">
-        <v>942</v>
-      </c>
     </row>
     <row r="587" spans="1:11">
-      <c r="C587" s="23"/>
+      <c r="C587" s="22" t="s">
+        <v>934</v>
+      </c>
       <c r="D587" s="18"/>
       <c r="E587" s="18"/>
       <c r="F587" s="18"/>
@@ -15241,7 +15326,7 @@
     </row>
     <row r="588" spans="1:11">
       <c r="C588" s="22" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D588" s="18"/>
       <c r="E588" s="18"/>
@@ -15250,12 +15335,12 @@
       <c r="H588" s="18"/>
       <c r="I588" s="18"/>
       <c r="K588" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="589" spans="1:11">
       <c r="C589" s="22" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D589" s="18"/>
       <c r="E589" s="18"/>
@@ -15264,7 +15349,7 @@
       <c r="H589" s="18"/>
       <c r="I589" s="18"/>
       <c r="K589" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="590" spans="1:11">
@@ -15278,7 +15363,7 @@
     </row>
     <row r="591" spans="1:11">
       <c r="C591" s="22" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D591" s="18"/>
       <c r="E591" s="18"/>
@@ -15287,12 +15372,12 @@
       <c r="H591" s="18"/>
       <c r="I591" s="18"/>
       <c r="K591" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="592" spans="1:11">
       <c r="C592" s="22" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D592" s="18"/>
       <c r="E592" s="18"/>
@@ -15301,112 +15386,121 @@
       <c r="H592" s="18"/>
       <c r="I592" s="18"/>
       <c r="K592" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="593" spans="2:11">
+      <c r="C593" s="23"/>
+      <c r="D593" s="18"/>
+      <c r="E593" s="18"/>
+      <c r="F593" s="18"/>
+      <c r="G593" s="18"/>
+      <c r="H593" s="18"/>
+      <c r="I593" s="18"/>
+    </row>
+    <row r="594" spans="2:11">
+      <c r="C594" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="D594" s="18"/>
+      <c r="E594" s="18"/>
+      <c r="F594" s="18"/>
+      <c r="G594" s="18"/>
+      <c r="H594" s="18"/>
+      <c r="I594" s="18"/>
+      <c r="K594" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="595" spans="2:11">
+      <c r="C595" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="D595" s="18"/>
+      <c r="E595" s="18"/>
+      <c r="F595" s="18"/>
+      <c r="G595" s="18"/>
+      <c r="H595" s="18"/>
+      <c r="I595" s="18"/>
+      <c r="K595" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="599" spans="2:11">
+      <c r="B599" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="596" spans="2:10">
-      <c r="B596" t="s">
+    <row r="600" spans="2:11">
+      <c r="C600" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="D600" s="36"/>
+      <c r="E600" s="36"/>
+      <c r="F600" s="36"/>
+      <c r="G600" s="36"/>
+      <c r="H600" s="36"/>
+    </row>
+    <row r="601" spans="2:11">
+      <c r="C601" s="36" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="597" spans="2:10">
-      <c r="C597" s="36" t="s">
+      <c r="D601" s="36"/>
+      <c r="E601" s="36"/>
+      <c r="F601" s="36"/>
+      <c r="G601" s="36"/>
+      <c r="H601" s="36"/>
+    </row>
+    <row r="603" spans="2:11">
+      <c r="C603" t="s">
         <v>950</v>
       </c>
-      <c r="D597" s="36"/>
-      <c r="E597" s="36"/>
-      <c r="F597" s="36"/>
-      <c r="G597" s="36"/>
-      <c r="H597" s="36"/>
-    </row>
-    <row r="598" spans="2:10">
-      <c r="C598" s="36" t="s">
-        <v>949</v>
-      </c>
-      <c r="D598" s="36"/>
-      <c r="E598" s="36"/>
-      <c r="F598" s="36"/>
-      <c r="G598" s="36"/>
-      <c r="H598" s="36"/>
-    </row>
-    <row r="600" spans="2:10">
-      <c r="C600" t="s">
+    </row>
+    <row r="605" spans="2:11">
+      <c r="D605" s="22" t="s">
         <v>951</v>
-      </c>
-    </row>
-    <row r="602" spans="2:10">
-      <c r="D602" s="22" t="s">
-        <v>952</v>
-      </c>
-      <c r="E602" s="18"/>
-      <c r="F602" s="18"/>
-      <c r="G602" s="18"/>
-      <c r="H602" s="18"/>
-      <c r="I602" s="18"/>
-    </row>
-    <row r="603" spans="2:10">
-      <c r="D603" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="E603" s="18"/>
-      <c r="F603" s="18"/>
-      <c r="G603" s="18"/>
-      <c r="H603" s="18"/>
-      <c r="I603" s="18"/>
-    </row>
-    <row r="604" spans="2:10">
-      <c r="D604" s="22" t="s">
-        <v>954</v>
-      </c>
-      <c r="E604" s="18"/>
-      <c r="F604" s="18"/>
-      <c r="G604" s="18"/>
-      <c r="H604" s="18"/>
-      <c r="I604" s="18"/>
-      <c r="J604" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="605" spans="2:10">
-      <c r="D605" s="22" t="s">
-        <v>844</v>
       </c>
       <c r="E605" s="18"/>
       <c r="F605" s="18"/>
       <c r="G605" s="18"/>
       <c r="H605" s="18"/>
       <c r="I605" s="18"/>
-      <c r="J605" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="606" spans="2:10">
-      <c r="D606" s="23"/>
+    </row>
+    <row r="606" spans="2:11">
+      <c r="D606" s="22" t="s">
+        <v>952</v>
+      </c>
       <c r="E606" s="18"/>
       <c r="F606" s="18"/>
       <c r="G606" s="18"/>
       <c r="H606" s="18"/>
       <c r="I606" s="18"/>
     </row>
-    <row r="607" spans="2:10">
+    <row r="607" spans="2:11">
       <c r="D607" s="22" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E607" s="18"/>
       <c r="F607" s="18"/>
       <c r="G607" s="18"/>
       <c r="H607" s="18"/>
       <c r="I607" s="18"/>
-    </row>
-    <row r="608" spans="2:10">
+      <c r="J607" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="608" spans="2:11">
       <c r="D608" s="22" t="s">
-        <v>956</v>
+        <v>843</v>
       </c>
       <c r="E608" s="18"/>
       <c r="F608" s="18"/>
       <c r="G608" s="18"/>
       <c r="H608" s="18"/>
       <c r="I608" s="18"/>
+      <c r="J608" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="609" spans="1:12">
       <c r="D609" s="23"/>
@@ -15418,19 +15512,18 @@
     </row>
     <row r="610" spans="1:12">
       <c r="D610" s="22" t="s">
-        <v>844</v>
+        <v>954</v>
       </c>
       <c r="E610" s="18"/>
       <c r="F610" s="18"/>
       <c r="G610" s="18"/>
       <c r="H610" s="18"/>
       <c r="I610" s="18"/>
-      <c r="J610" t="s">
-        <v>960</v>
-      </c>
     </row>
     <row r="611" spans="1:12">
-      <c r="D611" s="23"/>
+      <c r="D611" s="22" t="s">
+        <v>955</v>
+      </c>
       <c r="E611" s="18"/>
       <c r="F611" s="18"/>
       <c r="G611" s="18"/>
@@ -15438,21 +15531,16 @@
       <c r="I611" s="18"/>
     </row>
     <row r="612" spans="1:12">
-      <c r="D612" s="22" t="s">
-        <v>957</v>
-      </c>
+      <c r="D612" s="23"/>
       <c r="E612" s="18"/>
       <c r="F612" s="18"/>
       <c r="G612" s="18"/>
       <c r="H612" s="18"/>
       <c r="I612" s="18"/>
-      <c r="J612" t="s">
-        <v>961</v>
-      </c>
     </row>
     <row r="613" spans="1:12">
       <c r="D613" s="22" t="s">
-        <v>958</v>
+        <v>843</v>
       </c>
       <c r="E613" s="18"/>
       <c r="F613" s="18"/>
@@ -15460,141 +15548,141 @@
       <c r="H613" s="18"/>
       <c r="I613" s="18"/>
       <c r="J613" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12">
+      <c r="D614" s="23"/>
+      <c r="E614" s="18"/>
+      <c r="F614" s="18"/>
+      <c r="G614" s="18"/>
+      <c r="H614" s="18"/>
+      <c r="I614" s="18"/>
+    </row>
+    <row r="615" spans="1:12">
+      <c r="D615" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="E615" s="18"/>
+      <c r="F615" s="18"/>
+      <c r="G615" s="18"/>
+      <c r="H615" s="18"/>
+      <c r="I615" s="18"/>
+      <c r="J615" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12">
+      <c r="D616" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="E616" s="18"/>
+      <c r="F616" s="18"/>
+      <c r="G616" s="18"/>
+      <c r="H616" s="18"/>
+      <c r="I616" s="18"/>
+      <c r="J616" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12">
+      <c r="A620" s="36" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="617" spans="1:12">
-      <c r="A617" s="36" t="s">
+    <row r="622" spans="1:12">
+      <c r="B622" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12">
+      <c r="C623" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="619" spans="1:12">
-      <c r="B619" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="620" spans="1:12">
-      <c r="C620" t="s">
+      <c r="E623" t="s">
         <v>963</v>
       </c>
-      <c r="E620" t="s">
+      <c r="J623" t="s">
+        <v>975</v>
+      </c>
+      <c r="L623" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12">
+      <c r="E624" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="626" spans="3:12">
+      <c r="E626" t="s">
         <v>964</v>
       </c>
-      <c r="J620" t="s">
-        <v>976</v>
-      </c>
-      <c r="L620" t="s">
+      <c r="G626" s="56" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="628" spans="3:12">
+      <c r="C628" t="s">
+        <v>966</v>
+      </c>
+      <c r="E628" t="s">
+        <v>967</v>
+      </c>
+      <c r="J628" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="621" spans="1:12">
-      <c r="E621" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="623" spans="1:12">
-      <c r="E623" t="s">
-        <v>965</v>
-      </c>
-      <c r="G623" s="56" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="625" spans="2:12">
-      <c r="C625" t="s">
-        <v>967</v>
-      </c>
-      <c r="E625" t="s">
+      <c r="L628" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="629" spans="3:12">
+      <c r="E629" t="s">
         <v>968</v>
       </c>
-      <c r="J625" t="s">
-        <v>978</v>
-      </c>
-      <c r="L625" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="626" spans="2:12">
-      <c r="E626" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="628" spans="2:12">
-      <c r="E628" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="630" spans="2:12">
-      <c r="C630" t="s">
-        <v>971</v>
-      </c>
-      <c r="E630" t="s">
-        <v>972</v>
-      </c>
-      <c r="J630" t="s">
-        <v>980</v>
-      </c>
-      <c r="L630" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="631" spans="2:12">
+    </row>
+    <row r="631" spans="3:12">
       <c r="E631" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="633" spans="2:12">
+    <row r="633" spans="3:12">
+      <c r="C633" t="s">
+        <v>970</v>
+      </c>
       <c r="E633" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="635" spans="2:12">
-      <c r="C635" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="638" spans="2:12">
-      <c r="B638" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="640" spans="2:12">
-      <c r="C640" s="18" t="s">
-        <v>988</v>
-      </c>
-      <c r="D640" s="18"/>
-      <c r="E640" s="18"/>
-      <c r="F640" s="18"/>
-      <c r="G640" s="18"/>
-      <c r="H640" s="18"/>
-      <c r="I640" s="18"/>
-      <c r="J640" s="18"/>
-    </row>
-    <row r="641" spans="3:10">
-      <c r="C641" s="18" t="s">
-        <v>989</v>
-      </c>
-      <c r="D641" s="18"/>
-      <c r="E641" s="18"/>
-      <c r="F641" s="18"/>
-      <c r="G641" s="18"/>
-      <c r="H641" s="18"/>
-      <c r="I641" s="18"/>
-      <c r="J641" s="18"/>
-    </row>
-    <row r="642" spans="3:10">
-      <c r="C642" s="18"/>
-      <c r="D642" s="18"/>
-      <c r="E642" s="18"/>
-      <c r="F642" s="18"/>
-      <c r="G642" s="18"/>
-      <c r="H642" s="18"/>
-      <c r="I642" s="18"/>
-      <c r="J642" s="18"/>
-    </row>
-    <row r="643" spans="3:10">
+        <v>971</v>
+      </c>
+      <c r="J633" t="s">
+        <v>979</v>
+      </c>
+      <c r="L633" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="634" spans="3:12">
+      <c r="E634" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="636" spans="3:12">
+      <c r="E636" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="638" spans="3:12">
+      <c r="C638" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="641" spans="2:10">
+      <c r="B641" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="643" spans="2:10">
       <c r="C643" s="18" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D643" s="18"/>
       <c r="E643" s="18"/>
@@ -15604,9 +15692,9 @@
       <c r="I643" s="18"/>
       <c r="J643" s="18"/>
     </row>
-    <row r="644" spans="3:10">
+    <row r="644" spans="2:10">
       <c r="C644" s="18" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D644" s="18"/>
       <c r="E644" s="18"/>
@@ -15616,10 +15704,8 @@
       <c r="I644" s="18"/>
       <c r="J644" s="18"/>
     </row>
-    <row r="645" spans="3:10">
-      <c r="C645" s="18" t="s">
-        <v>987</v>
-      </c>
+    <row r="645" spans="2:10">
+      <c r="C645" s="18"/>
       <c r="D645" s="18"/>
       <c r="E645" s="18"/>
       <c r="F645" s="18"/>
@@ -15628,122 +15714,126 @@
       <c r="I645" s="18"/>
       <c r="J645" s="18"/>
     </row>
-    <row r="646" spans="3:10">
+    <row r="646" spans="2:10">
       <c r="C646" s="18" t="s">
-        <v>1317</v>
+        <v>984</v>
       </c>
       <c r="D646" s="18"/>
       <c r="E646" s="18"/>
       <c r="F646" s="18"/>
       <c r="G646" s="18"/>
       <c r="H646" s="18"/>
-      <c r="I646" s="18" t="s">
-        <v>1318</v>
-      </c>
+      <c r="I646" s="18"/>
       <c r="J646" s="18"/>
     </row>
-    <row r="647" spans="3:10">
-      <c r="C647" s="18"/>
+    <row r="647" spans="2:10">
+      <c r="C647" s="18" t="s">
+        <v>985</v>
+      </c>
       <c r="D647" s="18"/>
       <c r="E647" s="18"/>
       <c r="F647" s="18"/>
       <c r="G647" s="18"/>
       <c r="H647" s="18"/>
-      <c r="I647" s="18" t="s">
-        <v>1319</v>
-      </c>
+      <c r="I647" s="18"/>
       <c r="J647" s="18"/>
     </row>
-    <row r="648" spans="3:10">
+    <row r="648" spans="2:10">
       <c r="C648" s="18" t="s">
-        <v>1320</v>
+        <v>986</v>
       </c>
       <c r="D648" s="18"/>
       <c r="E648" s="18"/>
       <c r="F648" s="18"/>
       <c r="G648" s="18"/>
-      <c r="H648" s="63" t="s">
-        <v>1323</v>
-      </c>
+      <c r="H648" s="18"/>
       <c r="I648" s="18"/>
       <c r="J648" s="18"/>
     </row>
-    <row r="649" spans="3:10">
+    <row r="649" spans="2:10">
       <c r="C649" s="18" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="D649" s="18"/>
       <c r="E649" s="18"/>
       <c r="F649" s="18"/>
       <c r="G649" s="18"/>
-      <c r="H649" s="64" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I649" s="18"/>
+      <c r="H649" s="18"/>
+      <c r="I649" s="18" t="s">
+        <v>1317</v>
+      </c>
       <c r="J649" s="18"/>
     </row>
-    <row r="650" spans="3:10">
-      <c r="C650" s="18" t="s">
-        <v>1322</v>
-      </c>
+    <row r="650" spans="2:10">
+      <c r="C650" s="18"/>
       <c r="D650" s="18"/>
       <c r="E650" s="18"/>
       <c r="F650" s="18"/>
       <c r="G650" s="18"/>
-      <c r="H650" s="62" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I650" s="18"/>
+      <c r="H650" s="18"/>
+      <c r="I650" s="18" t="s">
+        <v>1318</v>
+      </c>
       <c r="J650" s="18"/>
     </row>
-    <row r="651" spans="3:10">
+    <row r="651" spans="2:10">
       <c r="C651" s="18" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="D651" s="18"/>
       <c r="E651" s="18"/>
       <c r="F651" s="18"/>
       <c r="G651" s="18"/>
-      <c r="H651" s="62" t="s">
-        <v>1326</v>
+      <c r="H651" s="63" t="s">
+        <v>1322</v>
       </c>
       <c r="I651" s="18"/>
       <c r="J651" s="18"/>
     </row>
-    <row r="652" spans="3:10">
-      <c r="C652" s="18"/>
+    <row r="652" spans="2:10">
+      <c r="C652" s="18" t="s">
+        <v>1320</v>
+      </c>
       <c r="D652" s="18"/>
       <c r="E652" s="18"/>
       <c r="F652" s="18"/>
       <c r="G652" s="18"/>
-      <c r="H652" s="18"/>
+      <c r="H652" s="64" t="s">
+        <v>1323</v>
+      </c>
       <c r="I652" s="18"/>
       <c r="J652" s="18"/>
     </row>
-    <row r="653" spans="3:10">
-      <c r="C653" s="18"/>
+    <row r="653" spans="2:10">
+      <c r="C653" s="18" t="s">
+        <v>1321</v>
+      </c>
       <c r="D653" s="18"/>
       <c r="E653" s="18"/>
       <c r="F653" s="18"/>
       <c r="G653" s="18"/>
-      <c r="H653" s="18"/>
+      <c r="H653" s="62" t="s">
+        <v>1322</v>
+      </c>
       <c r="I653" s="18"/>
       <c r="J653" s="18"/>
     </row>
-    <row r="654" spans="3:10">
-      <c r="C654" s="18"/>
+    <row r="654" spans="2:10">
+      <c r="C654" s="18" t="s">
+        <v>1324</v>
+      </c>
       <c r="D654" s="18"/>
       <c r="E654" s="18"/>
       <c r="F654" s="18"/>
       <c r="G654" s="18"/>
-      <c r="H654" s="18"/>
+      <c r="H654" s="62" t="s">
+        <v>1325</v>
+      </c>
       <c r="I654" s="18"/>
       <c r="J654" s="18"/>
     </row>
-    <row r="655" spans="3:10">
-      <c r="C655" s="52" t="s">
-        <v>990</v>
-      </c>
+    <row r="655" spans="2:10">
+      <c r="C655" s="18"/>
       <c r="D655" s="18"/>
       <c r="E655" s="18"/>
       <c r="F655" s="18"/>
@@ -15752,10 +15842,8 @@
       <c r="I655" s="18"/>
       <c r="J655" s="18"/>
     </row>
-    <row r="656" spans="3:10">
-      <c r="C656" s="18" t="s">
-        <v>991</v>
-      </c>
+    <row r="656" spans="2:10">
+      <c r="C656" s="18"/>
       <c r="D656" s="18"/>
       <c r="E656" s="18"/>
       <c r="F656" s="18"/>
@@ -15764,748 +15852,844 @@
       <c r="I656" s="18"/>
       <c r="J656" s="18"/>
     </row>
-    <row r="659" spans="1:10">
-      <c r="B659" t="s">
+    <row r="657" spans="2:10">
+      <c r="C657" s="18"/>
+      <c r="D657" s="18"/>
+      <c r="E657" s="18"/>
+      <c r="F657" s="18"/>
+      <c r="G657" s="18"/>
+      <c r="H657" s="18"/>
+      <c r="I657" s="18"/>
+      <c r="J657" s="18"/>
+    </row>
+    <row r="658" spans="2:10">
+      <c r="C658" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="D658" s="18"/>
+      <c r="E658" s="18"/>
+      <c r="F658" s="18"/>
+      <c r="G658" s="18"/>
+      <c r="H658" s="18"/>
+      <c r="I658" s="18"/>
+      <c r="J658" s="18"/>
+    </row>
+    <row r="659" spans="2:10">
+      <c r="C659" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="D659" s="18"/>
+      <c r="E659" s="18"/>
+      <c r="F659" s="18"/>
+      <c r="G659" s="18"/>
+      <c r="H659" s="18"/>
+      <c r="I659" s="18"/>
+      <c r="J659" s="18"/>
+    </row>
+    <row r="662" spans="2:10">
+      <c r="B662" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="664" spans="2:10">
+      <c r="C664" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="661" spans="1:10">
-      <c r="C661" t="s">
+    <row r="666" spans="2:10">
+      <c r="D666" s="22" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="663" spans="1:10">
-      <c r="D663" s="22" t="s">
+      <c r="E666" s="18"/>
+      <c r="F666" s="18"/>
+      <c r="G666" s="18"/>
+      <c r="H666" s="18"/>
+      <c r="I666" s="18"/>
+      <c r="J666" s="18" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="667" spans="2:10">
+      <c r="D667" s="22" t="s">
         <v>994</v>
       </c>
-      <c r="E663" s="18"/>
-      <c r="F663" s="18"/>
-      <c r="G663" s="18"/>
-      <c r="H663" s="18"/>
-      <c r="I663" s="18"/>
-      <c r="J663" s="18" t="s">
+      <c r="E667" s="18"/>
+      <c r="F667" s="18"/>
+      <c r="G667" s="18"/>
+      <c r="H667" s="18"/>
+      <c r="I667" s="18"/>
+      <c r="J667" s="18" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="668" spans="2:10">
+      <c r="D668" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="E668" s="18"/>
+      <c r="F668" s="18"/>
+      <c r="G668" s="18"/>
+      <c r="H668" s="18"/>
+      <c r="I668" s="18"/>
+      <c r="J668" s="18" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="669" spans="2:10">
+      <c r="D669" s="55"/>
+    </row>
+    <row r="671" spans="2:10">
+      <c r="C671" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="664" spans="1:10">
-      <c r="D664" s="22" t="s">
-        <v>995</v>
-      </c>
-      <c r="E664" s="18"/>
-      <c r="F664" s="18"/>
-      <c r="G664" s="18"/>
-      <c r="H664" s="18"/>
-      <c r="I664" s="18"/>
-      <c r="J664" s="18" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="665" spans="1:10">
-      <c r="D665" s="22" t="s">
-        <v>996</v>
-      </c>
-      <c r="E665" s="18"/>
-      <c r="F665" s="18"/>
-      <c r="G665" s="18"/>
-      <c r="H665" s="18"/>
-      <c r="I665" s="18"/>
-      <c r="J665" s="18" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="666" spans="1:10">
-      <c r="D666" s="55"/>
-    </row>
-    <row r="668" spans="1:10">
-      <c r="C668" t="s">
+    <row r="673" spans="1:10">
+      <c r="D673" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="670" spans="1:10">
-      <c r="D670" t="s">
+      <c r="J673" t="s">
         <v>999</v>
       </c>
-      <c r="J670" t="s">
+    </row>
+    <row r="675" spans="1:10">
+      <c r="A675" s="36" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="672" spans="1:10">
-      <c r="A672" s="36" t="s">
+    <row r="677" spans="1:10">
+      <c r="B677" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="674" spans="2:5">
-      <c r="B674" t="s">
+      <c r="C677" t="s">
         <v>1002</v>
       </c>
-      <c r="C674" t="s">
+      <c r="E677" t="s">
         <v>1003</v>
       </c>
-      <c r="E674" t="s">
+    </row>
+    <row r="678" spans="1:10">
+      <c r="E678" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="675" spans="2:5">
-      <c r="E675" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="676" spans="2:5">
-      <c r="E676" t="s">
+    <row r="679" spans="1:10">
+      <c r="E679" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10">
+      <c r="E680" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="677" spans="2:5">
-      <c r="E677" t="s">
+    <row r="681" spans="1:10">
+      <c r="E681" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="678" spans="2:5">
-      <c r="E678" t="s">
+    <row r="682" spans="1:10">
+      <c r="E682" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="679" spans="2:5">
-      <c r="E679" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="681" spans="2:5" ht="14.25" customHeight="1">
-      <c r="E681" t="s">
+    <row r="684" spans="1:10" ht="14.25" customHeight="1">
+      <c r="E684" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" ht="14.25" customHeight="1">
+      <c r="E685" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="682" spans="2:5" ht="14.25" customHeight="1">
-      <c r="E682" t="s">
+    <row r="686" spans="1:10" ht="14.25" customHeight="1">
+      <c r="E686" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="683" spans="2:5" ht="14.25" customHeight="1">
-      <c r="E683" t="s">
+    <row r="687" spans="1:10" ht="14.25" customHeight="1">
+      <c r="E687" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="684" spans="2:5" ht="14.25" customHeight="1">
-      <c r="E684" t="s">
+    <row r="688" spans="1:10" ht="14.25" customHeight="1">
+      <c r="E688" t="s">
         <v>1291</v>
-      </c>
-    </row>
-    <row r="685" spans="2:5" ht="14.25" customHeight="1">
-      <c r="E685" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="686" spans="2:5">
-      <c r="E686" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="688" spans="2:5">
-      <c r="E688" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="689" spans="5:9">
       <c r="E689" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="691" spans="5:9">
       <c r="E691" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I691" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="692" spans="5:9">
       <c r="E692" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I692" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="693" spans="5:9">
-      <c r="E693" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I693" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="694" spans="5:9">
       <c r="E694" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I694" t="s">
         <v>1303</v>
       </c>
-      <c r="I694" t="s">
-        <v>1304</v>
+    </row>
+    <row r="695" spans="5:9">
+      <c r="E695" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I695" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="696" spans="5:9">
       <c r="E696" t="s">
-        <v>1310</v>
+        <v>1301</v>
+      </c>
+      <c r="I696" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="697" spans="5:9">
-      <c r="F697" t="s">
-        <v>1012</v>
+      <c r="E697" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I697" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="699" spans="5:9">
       <c r="E699" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="700" spans="5:9">
       <c r="F700" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="701" spans="5:9">
-      <c r="F701" t="s">
-        <v>1313</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="702" spans="5:9">
-      <c r="F702" t="s">
-        <v>1314</v>
+      <c r="E702" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="703" spans="5:9">
       <c r="F703" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="704" spans="5:9">
       <c r="F704" t="s">
-        <v>1316</v>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="705" spans="3:6">
+      <c r="F705" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="706" spans="3:6">
-      <c r="E706" t="s">
-        <v>1338</v>
+      <c r="F706" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="707" spans="3:6">
+      <c r="F707" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="709" spans="3:6">
-      <c r="C709" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="710" spans="3:6">
-      <c r="E710" t="s">
-        <v>1339</v>
+      <c r="E709" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="712" spans="3:6">
-      <c r="E712" t="s">
-        <v>1006</v>
+      <c r="C712" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="713" spans="3:6">
       <c r="E713" t="s">
-        <v>1007</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="715" spans="3:6">
       <c r="E715" t="s">
-        <v>1327</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="716" spans="3:6">
-      <c r="F716" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="717" spans="3:6">
-      <c r="F717" t="s">
-        <v>1329</v>
+      <c r="E716" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="718" spans="3:6">
-      <c r="F718" t="s">
-        <v>1330</v>
+      <c r="E718" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="719" spans="3:6">
       <c r="F719" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="720" spans="3:6">
       <c r="F720" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="721" spans="5:7">
+      <c r="F721" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="722" spans="5:7">
+      <c r="F722" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="723" spans="5:7">
+      <c r="F723" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="725" spans="5:7">
+      <c r="F725" s="39" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="722" spans="5:9">
-      <c r="F722" s="39" t="s">
+    <row r="727" spans="5:7">
+      <c r="E727" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="724" spans="5:9">
-      <c r="E724" t="s">
+    <row r="728" spans="5:7">
+      <c r="F728" s="39" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="729" spans="5:7">
+      <c r="G729" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="725" spans="5:9">
-      <c r="F725" s="39" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="726" spans="5:9">
-      <c r="G726" t="s">
+    <row r="730" spans="5:7">
+      <c r="G730" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="727" spans="5:9">
-      <c r="G727" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="729" spans="5:9">
-      <c r="E729" t="s">
+    <row r="732" spans="5:7">
+      <c r="E732" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="734" spans="5:7">
+      <c r="E734" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="735" spans="5:7">
+      <c r="F735" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="731" spans="5:9">
-      <c r="E731" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="732" spans="5:9">
-      <c r="F732" t="s">
+    <row r="736" spans="5:7">
+      <c r="F736" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="733" spans="5:9">
-      <c r="F733" t="s">
+    <row r="737" spans="3:9">
+      <c r="F737" s="65" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="734" spans="5:9">
-      <c r="F734" s="65" t="s">
+      <c r="G737" s="65"/>
+      <c r="H737" s="65"/>
+      <c r="I737" s="65"/>
+    </row>
+    <row r="742" spans="3:9">
+      <c r="C742" t="s">
+        <v>970</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="B759" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="C760" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="D762" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="D764" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="36" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="770" spans="2:9">
+      <c r="B770" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="772" spans="2:9">
+      <c r="C772" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I772" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="773" spans="2:9">
+      <c r="C773" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I773" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="774" spans="2:9">
+      <c r="C774" t="s">
         <v>1343</v>
       </c>
-      <c r="G734" s="65"/>
-      <c r="H734" s="65"/>
-      <c r="I734" s="65"/>
-    </row>
-    <row r="739" spans="3:5">
-      <c r="C739" t="s">
-        <v>971</v>
-      </c>
-      <c r="E739" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="756" spans="1:4">
-      <c r="B756" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="757" spans="1:4">
-      <c r="C757" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="759" spans="1:4">
-      <c r="D759" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="761" spans="1:4">
-      <c r="D761" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="765" spans="1:4">
-      <c r="A765" s="36" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="767" spans="1:4">
-      <c r="B767" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="769" spans="3:9">
-      <c r="C769" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I769" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="770" spans="3:9">
-      <c r="C770" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I770" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="771" spans="3:9">
-      <c r="C771" t="s">
+      <c r="I774" t="s">
         <v>1344</v>
       </c>
-      <c r="I771" t="s">
+    </row>
+    <row r="775" spans="2:9">
+      <c r="C775" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="772" spans="3:9">
-      <c r="C772" t="s">
+      <c r="I775" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="776" spans="2:9">
+      <c r="C776" t="s">
         <v>1346</v>
       </c>
-      <c r="I772" t="s">
+      <c r="I776" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="777" spans="2:9">
+      <c r="C777" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="773" spans="3:9">
-      <c r="C773" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I773" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="774" spans="3:9">
-      <c r="C774" t="s">
+      <c r="I777" t="s">
         <v>1350</v>
       </c>
-      <c r="I774" t="s">
+    </row>
+    <row r="779" spans="2:9">
+      <c r="C779" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="776" spans="3:9">
-      <c r="C776" t="s">
+    <row r="780" spans="2:9">
+      <c r="C780" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="781" spans="2:9">
+      <c r="C781" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="782" spans="2:9">
+      <c r="C782" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="784" spans="2:9">
+      <c r="D784" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="777" spans="3:9">
-      <c r="C777" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="778" spans="3:9">
-      <c r="C778" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="779" spans="3:9">
-      <c r="C779" t="s">
+      <c r="I784" t="s">
         <v>1361</v>
-      </c>
-    </row>
-    <row r="781" spans="3:9">
-      <c r="D781" t="s">
-        <v>1353</v>
-      </c>
-      <c r="I781" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="782" spans="3:9">
-      <c r="D782" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I782" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="783" spans="3:9">
-      <c r="D783" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I783" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="784" spans="3:9">
-      <c r="D784" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I784" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="785" spans="2:9">
       <c r="D785" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="I785" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="786" spans="2:9">
       <c r="D786" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="I786" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="791" spans="2:9">
-      <c r="B791" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="787" spans="2:9">
+      <c r="D787" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I787" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="788" spans="2:9">
+      <c r="D788" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I788" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="789" spans="2:9">
+      <c r="D789" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I789" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="794" spans="2:9">
+      <c r="B794" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="796" spans="2:9">
+      <c r="C796" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F796" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="793" spans="2:9">
-      <c r="C793" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F793" t="s">
+    <row r="798" spans="2:9">
+      <c r="C798" t="s">
         <v>1020</v>
-      </c>
-    </row>
-    <row r="795" spans="2:9">
-      <c r="C795" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="797" spans="2:9">
-      <c r="D797" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="798" spans="2:9">
-      <c r="D798" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="799" spans="2:9">
-      <c r="D799" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="800" spans="2:9">
       <c r="D800" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="D801" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="D802" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="D803" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="D804" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="801" spans="1:12">
-      <c r="D801" t="s">
+    <row r="805" spans="1:4">
+      <c r="D805" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="802" spans="1:12">
-      <c r="D802" t="s">
+    <row r="806" spans="1:4">
+      <c r="D806" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="803" spans="1:12">
-      <c r="D803" t="s">
+    <row r="807" spans="1:4">
+      <c r="D807" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="804" spans="1:12">
-      <c r="D804" t="s">
+    <row r="809" spans="1:4">
+      <c r="A809" s="36" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="806" spans="1:12">
-      <c r="A806" s="36" t="s">
+    <row r="811" spans="1:4">
+      <c r="B811" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="808" spans="1:12">
-      <c r="B808" t="s">
+    <row r="813" spans="1:4">
+      <c r="C813" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="810" spans="1:12">
-      <c r="C810" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="811" spans="1:12">
-      <c r="C811" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="812" spans="1:12">
-      <c r="C812" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="814" spans="1:12">
+    <row r="814" spans="1:4">
       <c r="C814" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="815" spans="1:12">
+    <row r="815" spans="1:4">
       <c r="C815" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L815" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="816" spans="1:12">
-      <c r="C816" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L816" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="817" spans="2:12">
       <c r="C817" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L817" t="s">
-        <v>1184</v>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="818" spans="2:12">
+      <c r="C818" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L818" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="819" spans="2:12">
       <c r="C819" t="s">
-        <v>1043</v>
+        <v>1037</v>
+      </c>
+      <c r="L819" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="820" spans="2:12">
       <c r="C820" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="821" spans="2:12">
-      <c r="C821" t="s">
-        <v>1041</v>
+        <v>1038</v>
+      </c>
+      <c r="L820" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="822" spans="2:12">
       <c r="C822" t="s">
         <v>1042</v>
       </c>
-      <c r="H822" t="s">
+    </row>
+    <row r="823" spans="2:12">
+      <c r="C823" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="824" spans="2:12">
+      <c r="C824" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="825" spans="2:12">
+      <c r="C825" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H825" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="828" spans="2:12">
+      <c r="B828" t="s">
         <v>1044</v>
-      </c>
-    </row>
-    <row r="825" spans="2:12">
-      <c r="B825" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="827" spans="2:12">
-      <c r="C827" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="828" spans="2:12">
-      <c r="C828" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="829" spans="2:12">
-      <c r="C829" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F829" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="830" spans="2:12">
       <c r="C830" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="831" spans="2:12">
+      <c r="C831" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="832" spans="2:12">
+      <c r="C832" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F832" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="833" spans="1:3">
-      <c r="A833" s="36" t="s">
+      <c r="C833" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="A836" s="36" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3">
+      <c r="B838" t="s">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="835" spans="1:3">
-      <c r="B835" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="836" spans="1:3">
-      <c r="C836" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="837" spans="1:3">
-      <c r="C837" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="838" spans="1:3">
-      <c r="C838" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="839" spans="1:3">
       <c r="C839" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="840" spans="1:3">
       <c r="C840" t="s">
-        <v>1057</v>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3">
+      <c r="C841" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3">
+      <c r="C842" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="843" spans="1:3">
-      <c r="A843" s="57" t="s">
+      <c r="C843" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3">
+      <c r="A846" s="57" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="A847" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="845" spans="1:3">
-      <c r="A845" t="s">
+      <c r="B847" t="s">
+        <v>647</v>
+      </c>
+      <c r="C847" t="s">
         <v>1364</v>
-      </c>
-      <c r="B845" t="s">
-        <v>647</v>
-      </c>
-      <c r="C845" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3">
-      <c r="A846">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="847" spans="1:3">
-      <c r="A847">
-        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:3">
       <c r="A848">
+        <v>1</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3">
+      <c r="A849">
+        <v>2</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3">
+      <c r="A850">
         <v>3</v>
       </c>
-    </row>
-    <row r="849" spans="1:1">
-      <c r="A849">
+      <c r="B850" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="A851">
         <v>4</v>
       </c>
-    </row>
-    <row r="850" spans="1:1">
-      <c r="A850">
+      <c r="B851" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3">
+      <c r="A852">
         <v>5</v>
       </c>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851">
+      <c r="B852" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3">
+      <c r="A853">
         <v>6</v>
       </c>
-    </row>
-    <row r="852" spans="1:1">
-      <c r="A852">
+      <c r="B853" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3">
+      <c r="A854">
         <v>7</v>
       </c>
-    </row>
-    <row r="853" spans="1:1">
-      <c r="A853">
+      <c r="B854" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3">
+      <c r="A855">
         <v>8</v>
       </c>
-    </row>
-    <row r="854" spans="1:1">
-      <c r="A854">
+      <c r="B855" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3">
+      <c r="A856">
         <v>9</v>
       </c>
-    </row>
-    <row r="855" spans="1:1">
-      <c r="A855">
+      <c r="B856" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3">
+      <c r="A857">
         <v>10</v>
+      </c>
+      <c r="B857" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3">
+      <c r="A858">
+        <v>11</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3">
+      <c r="A859">
+        <v>12</v>
+      </c>
+      <c r="B859" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="A861" s="57" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B862" t="s">
+        <v>647</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1364</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -3985,9 +3985,6 @@
     <t>Interface Array</t>
   </si>
   <si>
-    <t>Nếu type của Array là Interface thì các phần tử của mảng hoặc là null hoặc là object mà implement Interface đó</t>
-  </si>
-  <si>
     <t>MyInterface [ ] interfaceArr = new MyInterface [ ] { new Class_1(), null , new Class_2()};</t>
   </si>
   <si>
@@ -4568,6 +4565,9 @@
   </si>
   <si>
     <t>8. Khai báo tham số là một mảng trong hàm main</t>
+  </si>
+  <si>
+    <t>Nếu type của Array là Interface thì các phần tử của mảng hoặc là null hoặc là class mà implement Interface đó</t>
   </si>
 </sst>
 </file>
@@ -4937,7 +4937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5050,10 +5050,13 @@
     <xf numFmtId="20" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7269,16 +7272,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="66" t="s">
+      <c r="D424" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="66"/>
-      <c r="F424" s="66"/>
-      <c r="G424" s="66"/>
-      <c r="H424" s="66"/>
-      <c r="I424" s="66"/>
-      <c r="J424" s="66"/>
-      <c r="K424" s="66"/>
+      <c r="E424" s="67"/>
+      <c r="F424" s="67"/>
+      <c r="G424" s="67"/>
+      <c r="H424" s="67"/>
+      <c r="I424" s="67"/>
+      <c r="J424" s="67"/>
+      <c r="K424" s="67"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -7345,16 +7348,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="66" t="s">
+      <c r="D430" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="66"/>
-      <c r="F430" s="66"/>
-      <c r="G430" s="66"/>
-      <c r="H430" s="66"/>
-      <c r="I430" s="66"/>
-      <c r="J430" s="66"/>
-      <c r="K430" s="66"/>
+      <c r="E430" s="67"/>
+      <c r="F430" s="67"/>
+      <c r="G430" s="67"/>
+      <c r="H430" s="67"/>
+      <c r="I430" s="67"/>
+      <c r="J430" s="67"/>
+      <c r="K430" s="67"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -12099,10 +12102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y862"/>
+  <dimension ref="A1:Y894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B572" sqref="B572:F572"/>
+    <sheetView tabSelected="1" topLeftCell="A849" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C862" sqref="C862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13053,8 +13056,8 @@
       </c>
     </row>
     <row r="160" spans="2:9">
-      <c r="B160" s="67" t="s">
-        <v>1375</v>
+      <c r="B160" s="66" t="s">
+        <v>1374</v>
       </c>
       <c r="C160" s="39"/>
       <c r="D160" s="39"/>
@@ -13065,20 +13068,20 @@
     </row>
     <row r="162" spans="2:14">
       <c r="C162" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="163" spans="2:14">
       <c r="C163" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="164" spans="2:14">
       <c r="C164" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F164" s="36" t="s">
         <v>1378</v>
-      </c>
-      <c r="F164" s="36" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="166" spans="2:14">
@@ -13123,7 +13126,7 @@
         <v>1142</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
@@ -13164,7 +13167,7 @@
         <v>1141</v>
       </c>
       <c r="I180" s="57" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="J180" s="57"/>
     </row>
@@ -13386,7 +13389,7 @@
         <v>790</v>
       </c>
       <c r="H220" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="222" spans="3:8">
@@ -13406,7 +13409,7 @@
     </row>
     <row r="233" spans="2:8">
       <c r="C233" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H233" t="s">
         <v>793</v>
@@ -13414,7 +13417,7 @@
     </row>
     <row r="234" spans="2:8">
       <c r="C234" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H234" t="s">
         <v>794</v>
@@ -13830,7 +13833,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="36" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -13940,60 +13943,68 @@
         <v>833</v>
       </c>
     </row>
+    <row r="335" spans="1:10">
+      <c r="C335" t="s">
+        <v>828</v>
+      </c>
+      <c r="J335" t="s">
+        <v>834</v>
+      </c>
+    </row>
     <row r="336" spans="1:10">
       <c r="C336" t="s">
-        <v>828</v>
-      </c>
-      <c r="J336" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="337" spans="2:7">
       <c r="C337" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="338" spans="2:7">
       <c r="C338" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="339" spans="2:7">
       <c r="C339" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="340" spans="2:7">
-      <c r="C340" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="343" spans="2:7">
-      <c r="B343" t="s">
+    <row r="342" spans="2:7">
+      <c r="B342" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="345" spans="2:7">
-      <c r="C345" t="s">
+    <row r="344" spans="2:7">
+      <c r="C344" t="s">
         <v>836</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G344" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="347" spans="2:7">
-      <c r="C347" t="s">
+    <row r="346" spans="2:7">
+      <c r="C346" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="350" spans="2:7">
-      <c r="C350" t="s">
+    <row r="349" spans="2:7">
+      <c r="C349" t="s">
         <v>839</v>
       </c>
+    </row>
+    <row r="351" spans="2:7">
+      <c r="D351" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="E351" s="18"/>
+      <c r="F351" s="18"/>
+      <c r="G351" s="18"/>
     </row>
     <row r="352" spans="2:7">
       <c r="D352" s="22" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E352" s="18"/>
       <c r="F352" s="18"/>
@@ -14001,7 +14012,7 @@
     </row>
     <row r="353" spans="2:10">
       <c r="D353" s="22" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E353" s="18"/>
       <c r="F353" s="18"/>
@@ -14009,31 +14020,33 @@
     </row>
     <row r="354" spans="2:10">
       <c r="D354" s="22" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E354" s="18"/>
       <c r="F354" s="18"/>
       <c r="G354" s="18"/>
-    </row>
-    <row r="355" spans="2:10">
-      <c r="D355" s="22" t="s">
-        <v>843</v>
-      </c>
-      <c r="E355" s="18"/>
-      <c r="F355" s="18"/>
-      <c r="G355" s="18"/>
-      <c r="I355" t="s">
+      <c r="I354" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="357" spans="2:10">
-      <c r="C357" t="s">
+    <row r="356" spans="2:10">
+      <c r="C356" t="s">
         <v>845</v>
       </c>
+    </row>
+    <row r="358" spans="2:10">
+      <c r="D358" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="E358" s="18"/>
+      <c r="F358" s="18"/>
+      <c r="G358" s="18"/>
+      <c r="H358" s="18"/>
+      <c r="I358" s="18"/>
     </row>
     <row r="359" spans="2:10">
       <c r="D359" s="22" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E359" s="18"/>
       <c r="F359" s="18"/>
@@ -14043,29 +14056,29 @@
     </row>
     <row r="360" spans="2:10">
       <c r="D360" s="22" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E360" s="18"/>
       <c r="F360" s="18"/>
       <c r="G360" s="18"/>
       <c r="H360" s="18"/>
       <c r="I360" s="18"/>
+      <c r="J360" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="361" spans="2:10">
-      <c r="D361" s="22" t="s">
-        <v>842</v>
-      </c>
+      <c r="D361" s="22"/>
       <c r="E361" s="18"/>
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
       <c r="H361" s="18"/>
       <c r="I361" s="18"/>
-      <c r="J361" t="s">
-        <v>848</v>
-      </c>
     </row>
     <row r="362" spans="2:10">
-      <c r="D362" s="22"/>
+      <c r="D362" s="22" t="s">
+        <v>1370</v>
+      </c>
       <c r="E362" s="18"/>
       <c r="F362" s="18"/>
       <c r="G362" s="18"/>
@@ -14078,106 +14091,117 @@
       </c>
       <c r="E363" s="18"/>
       <c r="F363" s="18"/>
-      <c r="G363" s="18"/>
+      <c r="G363" s="18" t="s">
+        <v>1372</v>
+      </c>
       <c r="H363" s="18"/>
       <c r="I363" s="18"/>
     </row>
-    <row r="364" spans="2:10">
-      <c r="D364" s="22" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E364" s="18"/>
-      <c r="F364" s="18"/>
-      <c r="G364" s="18" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H364" s="18"/>
-      <c r="I364" s="18"/>
-    </row>
-    <row r="366" spans="2:10">
-      <c r="B366" t="s">
+    <row r="365" spans="2:10">
+      <c r="B365" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="368" spans="2:10">
-      <c r="C368" t="s">
+    <row r="367" spans="2:10">
+      <c r="C367" t="s">
         <v>850</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G367" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="370" spans="3:9">
-      <c r="C370" t="s">
+    <row r="369" spans="3:25">
+      <c r="C369" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="372" spans="3:9">
-      <c r="C372" s="36" t="s">
+    <row r="371" spans="3:25">
+      <c r="C371" s="36" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="372" spans="3:25" ht="14.25" customHeight="1"/>
+    <row r="373" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D373" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="373" spans="3:9" ht="14.25" customHeight="1"/>
-    <row r="374" spans="3:9" ht="14.25" customHeight="1">
+    <row r="374" spans="3:25" ht="14.25" customHeight="1">
       <c r="D374" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="375" spans="3:9" ht="14.25" customHeight="1">
+    <row r="375" spans="3:25" ht="14.25" customHeight="1">
       <c r="D375" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="376" spans="3:9" ht="14.25" customHeight="1">
+    <row r="376" spans="3:25" ht="14.25" customHeight="1">
       <c r="D376" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="377" spans="3:9" ht="14.25" customHeight="1">
+    <row r="377" spans="3:25" ht="14.25" customHeight="1">
       <c r="D377" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="378" spans="3:9" ht="14.25" customHeight="1">
+    <row r="378" spans="3:25" ht="14.25" customHeight="1">
       <c r="D378" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="379" spans="3:9" ht="14.25" customHeight="1">
+    <row r="379" spans="3:25" ht="14.25" customHeight="1">
       <c r="D379" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="380" spans="3:9" ht="14.25" customHeight="1">
+    <row r="380" spans="3:25" ht="14.25" customHeight="1">
       <c r="D380" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="381" spans="3:9" ht="14.25" customHeight="1">
+    <row r="381" spans="3:25" ht="14.25" customHeight="1">
       <c r="D381" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="382" spans="3:9" ht="14.25" customHeight="1">
-      <c r="D382" t="s">
+    <row r="382" spans="3:25" ht="14.25" customHeight="1"/>
+    <row r="383" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D383" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="383" spans="3:9" ht="14.25" customHeight="1"/>
-    <row r="384" spans="3:9" ht="14.25" customHeight="1">
+      <c r="I383" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="384" spans="3:25" ht="14.25" customHeight="1">
       <c r="D384" t="s">
         <v>1218</v>
       </c>
-      <c r="I384" t="s">
-        <v>1220</v>
-      </c>
+      <c r="I384" s="61" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J384" s="61"/>
+      <c r="K384" s="61"/>
+      <c r="L384" s="61"/>
+      <c r="M384" s="61"/>
+      <c r="N384" s="61"/>
+      <c r="O384" s="61"/>
+      <c r="P384" s="61"/>
+      <c r="Q384" s="61"/>
+      <c r="R384" s="61"/>
+      <c r="S384" s="61"/>
+      <c r="T384" s="61"/>
+      <c r="U384" s="61"/>
+      <c r="V384" s="61"/>
+      <c r="W384" s="61"/>
+      <c r="X384" s="61"/>
+      <c r="Y384" s="61"/>
     </row>
     <row r="385" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D385" t="s">
-        <v>1219</v>
-      </c>
       <c r="I385" s="61" t="s">
-        <v>1222</v>
+        <v>1307</v>
       </c>
       <c r="J385" s="61"/>
       <c r="K385" s="61"/>
@@ -14196,9 +14220,9 @@
       <c r="X385" s="61"/>
       <c r="Y385" s="61"/>
     </row>
-    <row r="386" spans="3:25" ht="14.25" customHeight="1">
+    <row r="386" spans="3:25">
       <c r="I386" s="61" t="s">
-        <v>1308</v>
+        <v>1220</v>
       </c>
       <c r="J386" s="61"/>
       <c r="K386" s="61"/>
@@ -14217,67 +14241,54 @@
       <c r="X386" s="61"/>
       <c r="Y386" s="61"/>
     </row>
-    <row r="387" spans="3:25">
-      <c r="I387" s="61" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J387" s="61"/>
-      <c r="K387" s="61"/>
-      <c r="L387" s="61"/>
-      <c r="M387" s="61"/>
-      <c r="N387" s="61"/>
-      <c r="O387" s="61"/>
-      <c r="P387" s="61"/>
-      <c r="Q387" s="61"/>
-      <c r="R387" s="61"/>
-      <c r="S387" s="61"/>
-      <c r="T387" s="61"/>
-      <c r="U387" s="61"/>
-      <c r="V387" s="61"/>
-      <c r="W387" s="61"/>
-      <c r="X387" s="61"/>
-      <c r="Y387" s="61"/>
+    <row r="388" spans="3:25">
+      <c r="D388" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="389" spans="3:25">
-      <c r="D389" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="390" spans="3:25">
-      <c r="C390" t="s">
+      <c r="C389" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="391" spans="3:25">
+      <c r="D391" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="392" spans="3:25">
+      <c r="E392" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="392" spans="3:25">
-      <c r="D392" t="s">
-        <v>471</v>
-      </c>
-    </row>
     <row r="393" spans="3:25">
-      <c r="E393" t="s">
-        <v>1224</v>
+      <c r="N393" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="394" spans="3:25">
+      <c r="F394" t="s">
+        <v>1135</v>
+      </c>
       <c r="N394" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="395" spans="3:25">
-      <c r="F395" t="s">
-        <v>1135</v>
-      </c>
       <c r="N395" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="396" spans="3:25">
+      <c r="F396" t="s">
+        <v>1224</v>
+      </c>
       <c r="N396" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="397" spans="3:25">
-      <c r="F397" t="s">
+      <c r="H397" t="s">
         <v>1225</v>
       </c>
       <c r="N397" t="s">
@@ -14285,7 +14296,7 @@
       </c>
     </row>
     <row r="398" spans="3:25">
-      <c r="H398" t="s">
+      <c r="I398" t="s">
         <v>1226</v>
       </c>
       <c r="N398" t="s">
@@ -14308,82 +14319,85 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="401" spans="2:14">
-      <c r="I401" t="s">
+    <row r="401" spans="2:13">
+      <c r="H401" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="402" spans="2:13">
+      <c r="H402" t="s">
         <v>1229</v>
       </c>
-      <c r="N401" t="s">
+    </row>
+    <row r="403" spans="2:13">
+      <c r="I403" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="404" spans="2:13">
+      <c r="E404" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="406" spans="2:13">
+      <c r="B406" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="402" spans="2:14">
-      <c r="H402" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="403" spans="2:14">
-      <c r="H403" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="404" spans="2:14">
-      <c r="I404" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="405" spans="2:14">
-      <c r="E405" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="407" spans="2:14">
-      <c r="B407" t="s">
+    <row r="407" spans="2:13">
+      <c r="C407" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="408" spans="2:14">
+    <row r="408" spans="2:13">
       <c r="C408" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="409" spans="2:13">
+      <c r="C409" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="410" spans="2:13">
+      <c r="D410" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="409" spans="2:14">
-      <c r="C409" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="410" spans="2:14">
-      <c r="C410" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="411" spans="2:14">
+    <row r="411" spans="2:13">
       <c r="D411" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="412" spans="2:14">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="412" spans="2:13">
       <c r="D412" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="413" spans="2:14">
+    <row r="413" spans="2:13">
       <c r="D413" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="414" spans="2:14">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="414" spans="2:13">
       <c r="D414" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="415" spans="2:14">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="415" spans="2:13">
       <c r="D415" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="416" spans="2:13">
+      <c r="D416" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="416" spans="2:14">
-      <c r="D416" t="s">
-        <v>1251</v>
+      <c r="L416" t="b">
+        <v>1</v>
+      </c>
+      <c r="M416" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="417" spans="1:13">
@@ -14391,22 +14405,16 @@
         <v>1244</v>
       </c>
       <c r="L417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M417" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="418" spans="1:13">
       <c r="D418" t="s">
         <v>1245</v>
       </c>
-      <c r="L418" t="b">
-        <v>0</v>
-      </c>
-      <c r="M418" t="s">
-        <v>1252</v>
-      </c>
     </row>
     <row r="419" spans="1:13">
       <c r="D419" t="s">
@@ -14422,6 +14430,12 @@
       <c r="D421" t="s">
         <v>1248</v>
       </c>
+      <c r="L421" t="b">
+        <v>1</v>
+      </c>
+      <c r="M421" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="422" spans="1:13">
       <c r="D422" t="s">
@@ -14431,39 +14445,33 @@
         <v>1</v>
       </c>
       <c r="M422" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13">
-      <c r="D423" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L423" t="b">
-        <v>1</v>
-      </c>
-      <c r="M423" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13">
-      <c r="A425" s="36" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13">
+      <c r="A424" s="36" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13">
+      <c r="B426" s="39" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="427" spans="1:13">
-      <c r="B427" s="39" t="s">
+      <c r="C426" s="39"/>
+      <c r="D426" s="39"/>
+      <c r="E426" s="39"/>
+      <c r="F426" s="39"/>
+      <c r="G426" s="39"/>
+      <c r="H426" s="39"/>
+      <c r="I426" s="39"/>
+    </row>
+    <row r="428" spans="1:13">
+      <c r="C428" t="s">
         <v>1257</v>
       </c>
-      <c r="C427" s="39"/>
-      <c r="D427" s="39"/>
-      <c r="E427" s="39"/>
-      <c r="F427" s="39"/>
-      <c r="G427" s="39"/>
-      <c r="H427" s="39"/>
-      <c r="I427" s="39"/>
     </row>
     <row r="429" spans="1:13">
-      <c r="C429" t="s">
+      <c r="D429" t="s">
         <v>1258</v>
       </c>
     </row>
@@ -14473,9 +14481,14 @@
       </c>
     </row>
     <row r="431" spans="1:13">
-      <c r="D431" t="s">
+      <c r="D431" s="59" t="s">
         <v>1260</v>
       </c>
+      <c r="E431" s="59"/>
+      <c r="F431" s="59"/>
+      <c r="G431" s="59"/>
+      <c r="H431" s="59"/>
+      <c r="I431" s="59"/>
     </row>
     <row r="432" spans="1:13">
       <c r="D432" s="59" t="s">
@@ -14488,10 +14501,10 @@
       <c r="I432" s="59"/>
     </row>
     <row r="433" spans="3:9">
-      <c r="D433" s="59" t="s">
+      <c r="D433" s="59"/>
+      <c r="E433" s="59" t="s">
         <v>1262</v>
       </c>
-      <c r="E433" s="59"/>
       <c r="F433" s="59"/>
       <c r="G433" s="59"/>
       <c r="H433" s="59"/>
@@ -14508,10 +14521,10 @@
       <c r="I434" s="59"/>
     </row>
     <row r="435" spans="3:9">
-      <c r="D435" s="59"/>
-      <c r="E435" s="59" t="s">
-        <v>1264</v>
-      </c>
+      <c r="D435" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E435" s="59"/>
       <c r="F435" s="59"/>
       <c r="G435" s="59"/>
       <c r="H435" s="59"/>
@@ -14519,7 +14532,7 @@
     </row>
     <row r="436" spans="3:9">
       <c r="D436" s="59" t="s">
-        <v>45</v>
+        <v>1229</v>
       </c>
       <c r="E436" s="59"/>
       <c r="F436" s="59"/>
@@ -14528,58 +14541,53 @@
       <c r="I436" s="59"/>
     </row>
     <row r="437" spans="3:9">
-      <c r="D437" s="59" t="s">
+      <c r="D437" s="59"/>
+      <c r="E437" s="59" t="s">
         <v>1230</v>
       </c>
-      <c r="E437" s="59"/>
       <c r="F437" s="59"/>
       <c r="G437" s="59"/>
       <c r="H437" s="59"/>
       <c r="I437" s="59"/>
     </row>
     <row r="438" spans="3:9">
-      <c r="D438" s="59"/>
-      <c r="E438" s="59" t="s">
-        <v>1231</v>
-      </c>
+      <c r="D438" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E438" s="59"/>
       <c r="F438" s="59"/>
       <c r="G438" s="59"/>
       <c r="H438" s="59"/>
       <c r="I438" s="59"/>
     </row>
     <row r="439" spans="3:9">
-      <c r="D439" s="59" t="s">
+      <c r="C439" t="s">
         <v>45</v>
       </c>
-      <c r="E439" s="59"/>
-      <c r="F439" s="59"/>
-      <c r="G439" s="59"/>
-      <c r="H439" s="59"/>
-      <c r="I439" s="59"/>
     </row>
     <row r="440" spans="3:9">
       <c r="C440" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="441" spans="3:9">
-      <c r="C441" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="442" spans="3:9">
+      <c r="C442" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="443" spans="3:9">
-      <c r="C443" t="s">
+    <row r="444" spans="3:9">
+      <c r="D444" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="445" spans="3:9">
-      <c r="D445" t="s">
+      <c r="E445" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="446" spans="3:9">
+      <c r="F446" t="s">
         <v>1267</v>
-      </c>
-    </row>
-    <row r="446" spans="3:9">
-      <c r="E446" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="447" spans="3:9">
@@ -14608,33 +14616,33 @@
       </c>
     </row>
     <row r="452" spans="3:11">
-      <c r="F452" t="s">
+      <c r="F452" s="36" t="s">
         <v>1273</v>
       </c>
+      <c r="G452" s="36"/>
+      <c r="H452" s="36"/>
+      <c r="I452" s="36"/>
+      <c r="K452" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="453" spans="3:11">
-      <c r="F453" s="36" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G453" s="36"/>
-      <c r="H453" s="36"/>
-      <c r="I453" s="36"/>
-      <c r="K453" t="s">
+      <c r="E453" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="454" spans="3:11">
+      <c r="D454" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="456" spans="3:11">
+      <c r="C456" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="454" spans="3:11">
-      <c r="E454" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="455" spans="3:11">
-      <c r="D455" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="457" spans="3:11">
-      <c r="C457" t="s">
+    <row r="458" spans="3:11">
+      <c r="D458" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -14675,65 +14683,69 @@
     </row>
     <row r="466" spans="1:10">
       <c r="D466" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10">
+      <c r="D468" s="36" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="467" spans="1:10">
-      <c r="D467" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="469" spans="1:10">
-      <c r="D469" s="36" t="s">
+      <c r="E468" s="36"/>
+      <c r="F468" s="36"/>
+      <c r="G468" s="36"/>
+      <c r="H468" s="36" t="s">
         <v>1285</v>
       </c>
-      <c r="E469" s="36"/>
-      <c r="F469" s="36"/>
-      <c r="G469" s="36"/>
-      <c r="H469" s="36" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I469" s="36"/>
-      <c r="J469" s="36"/>
-    </row>
-    <row r="471" spans="1:10">
-      <c r="A471" s="36" t="s">
+      <c r="I468" s="36"/>
+      <c r="J468" s="36"/>
+    </row>
+    <row r="470" spans="1:10">
+      <c r="A470" s="36" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
-      <c r="B473" t="s">
+    <row r="472" spans="1:10">
+      <c r="B472" t="s">
         <v>1186</v>
       </c>
-      <c r="D473" t="s">
+      <c r="D472" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10">
+      <c r="D474" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
-      <c r="D475" t="s">
+    <row r="478" spans="1:10">
+      <c r="B478" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="479" spans="1:10">
-      <c r="B479" t="s">
+      <c r="D478" t="s">
         <v>1189</v>
       </c>
-      <c r="D479" t="s">
+    </row>
+    <row r="481" spans="2:7">
+      <c r="D481" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="482" spans="2:7">
-      <c r="D482" t="s">
+    <row r="483" spans="2:7">
+      <c r="B483" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="484" spans="2:7">
-      <c r="B484" t="s">
+      <c r="D483" t="s">
         <v>1192</v>
       </c>
-      <c r="D484" t="s">
-        <v>1193</v>
-      </c>
+    </row>
+    <row r="485" spans="2:7">
+      <c r="C485" s="58" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D485" s="43"/>
+      <c r="E485" s="43"/>
+      <c r="F485" s="43"/>
+      <c r="G485" s="43"/>
     </row>
     <row r="486" spans="2:7">
       <c r="C486" s="58" t="s">
@@ -14825,7 +14837,7 @@
       <c r="F495" s="43"/>
       <c r="G495" s="43"/>
     </row>
-    <row r="496" spans="2:7">
+    <row r="496" spans="2:7" ht="14.25" customHeight="1">
       <c r="C496" s="58" t="s">
         <v>1205</v>
       </c>
@@ -14834,9 +14846,9 @@
       <c r="F496" s="43"/>
       <c r="G496" s="43"/>
     </row>
-    <row r="497" spans="1:7" ht="14.25" customHeight="1">
+    <row r="497" spans="1:7">
       <c r="C497" s="58" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="D497" s="43"/>
       <c r="E497" s="43"/>
@@ -14845,394 +14857,394 @@
     </row>
     <row r="498" spans="1:7">
       <c r="C498" s="58" t="s">
-        <v>1194</v>
+        <v>45</v>
       </c>
       <c r="D498" s="43"/>
       <c r="E498" s="43"/>
       <c r="F498" s="43"/>
       <c r="G498" s="43"/>
     </row>
-    <row r="499" spans="1:7">
-      <c r="C499" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D499" s="43"/>
-      <c r="E499" s="43"/>
-      <c r="F499" s="43"/>
-      <c r="G499" s="43"/>
-    </row>
-    <row r="508" spans="1:7">
-      <c r="A508" s="36" t="s">
+    <row r="507" spans="1:7">
+      <c r="A507" s="36" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
-      <c r="B510" t="s">
+    <row r="509" spans="1:7">
+      <c r="B509" t="s">
         <v>854</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D509" t="s">
         <v>855</v>
       </c>
-      <c r="F510" t="s">
+      <c r="F509" t="s">
         <v>856</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="B511" t="s">
+        <v>82</v>
+      </c>
+      <c r="D511" t="s">
+        <v>857</v>
+      </c>
+      <c r="F511" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="512" spans="1:7">
       <c r="B512" t="s">
-        <v>82</v>
+        <v>858</v>
       </c>
       <c r="D512" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F512" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="513" spans="2:6">
       <c r="B513" t="s">
-        <v>858</v>
+        <v>86</v>
       </c>
       <c r="D513" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F513" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" t="s">
-        <v>86</v>
+        <v>409</v>
       </c>
       <c r="D514" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F514" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="515" spans="2:6">
       <c r="B515" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D515" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F515" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="516" spans="2:6">
       <c r="B516" t="s">
-        <v>410</v>
+        <v>863</v>
       </c>
       <c r="D516" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F516" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D517" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F517" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="518" spans="2:6">
       <c r="B518" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D518" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F518" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="519" spans="2:6">
-      <c r="B519" t="s">
-        <v>867</v>
-      </c>
-      <c r="D519" t="s">
-        <v>868</v>
-      </c>
-      <c r="F519" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="522" spans="2:6">
-      <c r="B522" t="s">
+    <row r="521" spans="2:6">
+      <c r="B521" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="524" spans="2:6">
-      <c r="C524" t="s">
+    <row r="523" spans="2:6">
+      <c r="C523" t="s">
         <v>878</v>
       </c>
-      <c r="E524" t="s">
+      <c r="E523" t="s">
         <v>879</v>
+      </c>
+    </row>
+    <row r="525" spans="2:6">
+      <c r="C525" t="s">
+        <v>857</v>
+      </c>
+      <c r="E525" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="526" spans="2:6">
       <c r="C526" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E526" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="527" spans="2:6">
       <c r="C527" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E527" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="528" spans="2:6">
       <c r="C528" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E528" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="529" spans="3:15">
       <c r="C529" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="E529" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="530" spans="3:15">
       <c r="C530" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E530" t="s">
-        <v>885</v>
+        <v>887</v>
+      </c>
+      <c r="J530" t="s">
+        <v>888</v>
+      </c>
+      <c r="O530" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="531" spans="3:15">
       <c r="C531" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="E531" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="J531" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="O531" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="532" spans="3:15">
-      <c r="C532" t="s">
-        <v>866</v>
-      </c>
-      <c r="E532" t="s">
-        <v>890</v>
-      </c>
-      <c r="J532" t="s">
-        <v>891</v>
-      </c>
-      <c r="O532" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="533" spans="3:15">
-      <c r="C533" s="54" t="s">
+      <c r="C532" s="54" t="s">
         <v>868</v>
       </c>
-      <c r="D533" s="54"/>
-      <c r="E533" s="54" t="s">
+      <c r="D532" s="54"/>
+      <c r="E532" s="54" t="s">
         <v>892</v>
       </c>
-      <c r="F533" s="54"/>
-      <c r="G533" s="54"/>
-      <c r="H533" s="54"/>
-      <c r="I533" s="53"/>
-    </row>
-    <row r="536" spans="3:15">
-      <c r="E536" t="s">
+      <c r="F532" s="54"/>
+      <c r="G532" s="54"/>
+      <c r="H532" s="54"/>
+      <c r="I532" s="53"/>
+    </row>
+    <row r="535" spans="3:15">
+      <c r="E535" t="s">
         <v>893</v>
+      </c>
+    </row>
+    <row r="537" spans="3:15">
+      <c r="C537" t="s">
+        <v>857</v>
+      </c>
+      <c r="E537" t="s">
+        <v>894</v>
+      </c>
+      <c r="K537" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="538" spans="3:15">
       <c r="C538" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E538" t="s">
-        <v>894</v>
-      </c>
-      <c r="K538" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="539" spans="3:15">
       <c r="C539" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E539" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="540" spans="3:15">
       <c r="C540" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E540" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="541" spans="3:15">
       <c r="C541" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="E541" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="542" spans="3:15">
       <c r="C542" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E542" t="s">
-        <v>899</v>
+        <v>900</v>
+      </c>
+      <c r="J542" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="543" spans="3:15">
       <c r="C543" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="E543" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="J543" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="544" spans="3:15">
-      <c r="C544" t="s">
-        <v>866</v>
-      </c>
-      <c r="E544" t="s">
-        <v>901</v>
-      </c>
-      <c r="J544" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="C545" s="54" t="s">
+      <c r="C544" s="54" t="s">
         <v>868</v>
       </c>
-      <c r="E545" s="54" t="s">
+      <c r="E544" s="54" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
-      <c r="A549" s="36" t="s">
+    <row r="548" spans="1:8">
+      <c r="A548" s="36" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
-      <c r="B551" t="s">
+    <row r="550" spans="1:8">
+      <c r="B550" t="s">
         <v>905</v>
       </c>
     </row>
+    <row r="552" spans="1:8">
+      <c r="B552" t="s">
+        <v>471</v>
+      </c>
+      <c r="C552" t="s">
+        <v>906</v>
+      </c>
+    </row>
     <row r="553" spans="1:8">
-      <c r="B553" t="s">
-        <v>471</v>
-      </c>
       <c r="C553" t="s">
-        <v>906</v>
+        <v>907</v>
+      </c>
+      <c r="H553" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="C554" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="H554" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="555" spans="1:8">
-      <c r="C555" t="s">
-        <v>915</v>
-      </c>
-      <c r="H555" t="s">
-        <v>916</v>
+      <c r="A555" s="36" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="556" spans="1:8">
-      <c r="A556" s="36" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
-      <c r="B557" t="s">
+      <c r="B556" t="s">
         <v>909</v>
       </c>
     </row>
+    <row r="558" spans="1:8">
+      <c r="B558" t="s">
+        <v>392</v>
+      </c>
+      <c r="C558" t="s">
+        <v>910</v>
+      </c>
+    </row>
     <row r="559" spans="1:8">
-      <c r="B559" t="s">
-        <v>392</v>
-      </c>
       <c r="C559" t="s">
-        <v>910</v>
+        <v>911</v>
+      </c>
+      <c r="H559" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="560" spans="1:8">
       <c r="C560" t="s">
-        <v>911</v>
-      </c>
-      <c r="H560" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="561" spans="2:8">
-      <c r="C561" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="564" spans="2:8">
-      <c r="B564" t="s">
+    <row r="563" spans="2:8">
+      <c r="B563" t="s">
         <v>917</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8">
+      <c r="C565" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="566" spans="2:8">
       <c r="C566" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="567" spans="2:8">
       <c r="C567" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="568" spans="2:8">
-      <c r="C568" t="s">
         <v>920</v>
       </c>
-      <c r="H568" t="s">
+      <c r="H567" t="s">
         <v>921</v>
       </c>
     </row>
+    <row r="571" spans="2:8">
+      <c r="B571" t="s">
+        <v>922</v>
+      </c>
+    </row>
     <row r="572" spans="2:8">
-      <c r="B572" t="s">
-        <v>922</v>
-      </c>
+      <c r="C572" s="23" t="s">
+        <v>923</v>
+      </c>
+      <c r="D572" s="18"/>
+      <c r="E572" s="18"/>
+      <c r="F572" s="18"/>
+      <c r="G572" s="18"/>
     </row>
     <row r="573" spans="2:8">
       <c r="C573" s="23" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D573" s="18"/>
       <c r="E573" s="18"/>
@@ -15241,7 +15253,7 @@
     </row>
     <row r="574" spans="2:8">
       <c r="C574" s="23" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D574" s="18"/>
       <c r="E574" s="18"/>
@@ -15250,50 +15262,52 @@
     </row>
     <row r="575" spans="2:8">
       <c r="C575" s="23" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D575" s="18"/>
       <c r="E575" s="18"/>
       <c r="F575" s="18"/>
       <c r="G575" s="18"/>
+      <c r="H575" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="576" spans="2:8">
       <c r="C576" s="23" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D576" s="18"/>
       <c r="E576" s="18"/>
       <c r="F576" s="18"/>
       <c r="G576" s="18"/>
       <c r="H576" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="577" spans="1:11">
-      <c r="C577" s="23" t="s">
-        <v>927</v>
-      </c>
-      <c r="D577" s="18"/>
-      <c r="E577" s="18"/>
-      <c r="F577" s="18"/>
-      <c r="G577" s="18"/>
-      <c r="H577" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
-      <c r="A580" s="36" t="s">
+    <row r="579" spans="1:11">
+      <c r="A579" s="36" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="582" spans="1:11">
-      <c r="B582" t="s">
+    <row r="581" spans="1:11">
+      <c r="B581" t="s">
         <v>931</v>
       </c>
+    </row>
+    <row r="584" spans="1:11">
+      <c r="C584" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="D584" s="18"/>
+      <c r="E584" s="18"/>
+      <c r="F584" s="18"/>
+      <c r="G584" s="18"/>
+      <c r="H584" s="18"/>
+      <c r="I584" s="18"/>
     </row>
     <row r="585" spans="1:11">
       <c r="C585" s="22" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D585" s="18"/>
       <c r="E585" s="18"/>
@@ -15304,7 +15318,7 @@
     </row>
     <row r="586" spans="1:11">
       <c r="C586" s="22" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D586" s="18"/>
       <c r="E586" s="18"/>
@@ -15315,7 +15329,7 @@
     </row>
     <row r="587" spans="1:11">
       <c r="C587" s="22" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D587" s="18"/>
       <c r="E587" s="18"/>
@@ -15323,10 +15337,13 @@
       <c r="G587" s="18"/>
       <c r="H587" s="18"/>
       <c r="I587" s="18"/>
+      <c r="K587" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="588" spans="1:11">
       <c r="C588" s="22" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D588" s="18"/>
       <c r="E588" s="18"/>
@@ -15335,35 +15352,35 @@
       <c r="H588" s="18"/>
       <c r="I588" s="18"/>
       <c r="K588" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="589" spans="1:11">
-      <c r="C589" s="22" t="s">
-        <v>936</v>
-      </c>
+      <c r="C589" s="23"/>
       <c r="D589" s="18"/>
       <c r="E589" s="18"/>
       <c r="F589" s="18"/>
       <c r="G589" s="18"/>
       <c r="H589" s="18"/>
       <c r="I589" s="18"/>
-      <c r="K589" t="s">
-        <v>941</v>
-      </c>
     </row>
     <row r="590" spans="1:11">
-      <c r="C590" s="23"/>
+      <c r="C590" s="22" t="s">
+        <v>937</v>
+      </c>
       <c r="D590" s="18"/>
       <c r="E590" s="18"/>
       <c r="F590" s="18"/>
       <c r="G590" s="18"/>
       <c r="H590" s="18"/>
       <c r="I590" s="18"/>
+      <c r="K590" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="591" spans="1:11">
       <c r="C591" s="22" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D591" s="18"/>
       <c r="E591" s="18"/>
@@ -15372,35 +15389,35 @@
       <c r="H591" s="18"/>
       <c r="I591" s="18"/>
       <c r="K591" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="592" spans="1:11">
-      <c r="C592" s="22" t="s">
-        <v>938</v>
-      </c>
+      <c r="C592" s="23"/>
       <c r="D592" s="18"/>
       <c r="E592" s="18"/>
       <c r="F592" s="18"/>
       <c r="G592" s="18"/>
       <c r="H592" s="18"/>
       <c r="I592" s="18"/>
-      <c r="K592" t="s">
-        <v>944</v>
-      </c>
     </row>
     <row r="593" spans="2:11">
-      <c r="C593" s="23"/>
+      <c r="C593" s="22" t="s">
+        <v>939</v>
+      </c>
       <c r="D593" s="18"/>
       <c r="E593" s="18"/>
       <c r="F593" s="18"/>
       <c r="G593" s="18"/>
       <c r="H593" s="18"/>
       <c r="I593" s="18"/>
+      <c r="K593" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="594" spans="2:11">
       <c r="C594" s="22" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D594" s="18"/>
       <c r="E594" s="18"/>
@@ -15409,31 +15426,27 @@
       <c r="H594" s="18"/>
       <c r="I594" s="18"/>
       <c r="K594" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="595" spans="2:11">
-      <c r="C595" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="D595" s="18"/>
-      <c r="E595" s="18"/>
-      <c r="F595" s="18"/>
-      <c r="G595" s="18"/>
-      <c r="H595" s="18"/>
-      <c r="I595" s="18"/>
-      <c r="K595" t="s">
         <v>946</v>
       </c>
     </row>
+    <row r="598" spans="2:11">
+      <c r="B598" t="s">
+        <v>947</v>
+      </c>
+    </row>
     <row r="599" spans="2:11">
-      <c r="B599" t="s">
-        <v>947</v>
-      </c>
+      <c r="C599" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="D599" s="36"/>
+      <c r="E599" s="36"/>
+      <c r="F599" s="36"/>
+      <c r="G599" s="36"/>
+      <c r="H599" s="36"/>
     </row>
     <row r="600" spans="2:11">
       <c r="C600" s="36" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D600" s="36"/>
       <c r="E600" s="36"/>
@@ -15441,24 +15454,24 @@
       <c r="G600" s="36"/>
       <c r="H600" s="36"/>
     </row>
-    <row r="601" spans="2:11">
-      <c r="C601" s="36" t="s">
-        <v>948</v>
-      </c>
-      <c r="D601" s="36"/>
-      <c r="E601" s="36"/>
-      <c r="F601" s="36"/>
-      <c r="G601" s="36"/>
-      <c r="H601" s="36"/>
-    </row>
-    <row r="603" spans="2:11">
-      <c r="C603" t="s">
+    <row r="602" spans="2:11">
+      <c r="C602" t="s">
         <v>950</v>
       </c>
+    </row>
+    <row r="604" spans="2:11">
+      <c r="D604" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="E604" s="18"/>
+      <c r="F604" s="18"/>
+      <c r="G604" s="18"/>
+      <c r="H604" s="18"/>
+      <c r="I604" s="18"/>
     </row>
     <row r="605" spans="2:11">
       <c r="D605" s="22" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E605" s="18"/>
       <c r="F605" s="18"/>
@@ -15468,17 +15481,20 @@
     </row>
     <row r="606" spans="2:11">
       <c r="D606" s="22" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E606" s="18"/>
       <c r="F606" s="18"/>
       <c r="G606" s="18"/>
       <c r="H606" s="18"/>
       <c r="I606" s="18"/>
+      <c r="J606" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="607" spans="2:11">
       <c r="D607" s="22" t="s">
-        <v>953</v>
+        <v>843</v>
       </c>
       <c r="E607" s="18"/>
       <c r="F607" s="18"/>
@@ -15486,24 +15502,21 @@
       <c r="H607" s="18"/>
       <c r="I607" s="18"/>
       <c r="J607" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
     </row>
     <row r="608" spans="2:11">
-      <c r="D608" s="22" t="s">
-        <v>843</v>
-      </c>
+      <c r="D608" s="23"/>
       <c r="E608" s="18"/>
       <c r="F608" s="18"/>
       <c r="G608" s="18"/>
       <c r="H608" s="18"/>
       <c r="I608" s="18"/>
-      <c r="J608" t="s">
-        <v>958</v>
-      </c>
     </row>
     <row r="609" spans="1:12">
-      <c r="D609" s="23"/>
+      <c r="D609" s="22" t="s">
+        <v>954</v>
+      </c>
       <c r="E609" s="18"/>
       <c r="F609" s="18"/>
       <c r="G609" s="18"/>
@@ -15512,7 +15525,7 @@
     </row>
     <row r="610" spans="1:12">
       <c r="D610" s="22" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E610" s="18"/>
       <c r="F610" s="18"/>
@@ -15521,9 +15534,7 @@
       <c r="I610" s="18"/>
     </row>
     <row r="611" spans="1:12">
-      <c r="D611" s="22" t="s">
-        <v>955</v>
-      </c>
+      <c r="D611" s="23"/>
       <c r="E611" s="18"/>
       <c r="F611" s="18"/>
       <c r="G611" s="18"/>
@@ -15531,37 +15542,42 @@
       <c r="I611" s="18"/>
     </row>
     <row r="612" spans="1:12">
-      <c r="D612" s="23"/>
+      <c r="D612" s="22" t="s">
+        <v>843</v>
+      </c>
       <c r="E612" s="18"/>
       <c r="F612" s="18"/>
       <c r="G612" s="18"/>
       <c r="H612" s="18"/>
       <c r="I612" s="18"/>
+      <c r="J612" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="613" spans="1:12">
-      <c r="D613" s="22" t="s">
-        <v>843</v>
-      </c>
+      <c r="D613" s="23"/>
       <c r="E613" s="18"/>
       <c r="F613" s="18"/>
       <c r="G613" s="18"/>
       <c r="H613" s="18"/>
       <c r="I613" s="18"/>
-      <c r="J613" t="s">
-        <v>959</v>
-      </c>
     </row>
     <row r="614" spans="1:12">
-      <c r="D614" s="23"/>
+      <c r="D614" s="22" t="s">
+        <v>956</v>
+      </c>
       <c r="E614" s="18"/>
       <c r="F614" s="18"/>
       <c r="G614" s="18"/>
       <c r="H614" s="18"/>
       <c r="I614" s="18"/>
+      <c r="J614" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="615" spans="1:12">
       <c r="D615" s="22" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E615" s="18"/>
       <c r="F615" s="18"/>
@@ -15572,117 +15588,116 @@
         <v>960</v>
       </c>
     </row>
-    <row r="616" spans="1:12">
-      <c r="D616" s="22" t="s">
-        <v>957</v>
-      </c>
-      <c r="E616" s="18"/>
-      <c r="F616" s="18"/>
-      <c r="G616" s="18"/>
-      <c r="H616" s="18"/>
-      <c r="I616" s="18"/>
-      <c r="J616" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="620" spans="1:12">
-      <c r="A620" s="36" t="s">
+    <row r="619" spans="1:12">
+      <c r="A619" s="36" t="s">
         <v>961</v>
       </c>
     </row>
+    <row r="621" spans="1:12">
+      <c r="B621" t="s">
+        <v>982</v>
+      </c>
+    </row>
     <row r="622" spans="1:12">
-      <c r="B622" t="s">
-        <v>982</v>
+      <c r="C622" t="s">
+        <v>962</v>
+      </c>
+      <c r="E622" t="s">
+        <v>963</v>
+      </c>
+      <c r="J622" t="s">
+        <v>975</v>
+      </c>
+      <c r="L622" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="623" spans="1:12">
-      <c r="C623" t="s">
-        <v>962</v>
-      </c>
       <c r="E623" t="s">
-        <v>963</v>
-      </c>
-      <c r="J623" t="s">
-        <v>975</v>
-      </c>
-      <c r="L623" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="624" spans="1:12">
-      <c r="E624" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="626" spans="3:12">
-      <c r="E626" t="s">
+    <row r="625" spans="2:12">
+      <c r="E625" t="s">
         <v>964</v>
       </c>
-      <c r="G626" s="56" t="s">
+      <c r="G625" s="56" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="628" spans="3:12">
-      <c r="C628" t="s">
+    <row r="627" spans="2:12">
+      <c r="C627" t="s">
         <v>966</v>
       </c>
+      <c r="E627" t="s">
+        <v>967</v>
+      </c>
+      <c r="J627" t="s">
+        <v>977</v>
+      </c>
+      <c r="L627" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="628" spans="2:12">
       <c r="E628" t="s">
-        <v>967</v>
-      </c>
-      <c r="J628" t="s">
-        <v>977</v>
-      </c>
-      <c r="L628" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="629" spans="3:12">
-      <c r="E629" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="631" spans="3:12">
-      <c r="E631" t="s">
+    <row r="630" spans="2:12">
+      <c r="E630" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="633" spans="3:12">
-      <c r="C633" t="s">
+    <row r="632" spans="2:12">
+      <c r="C632" t="s">
         <v>970</v>
       </c>
+      <c r="E632" t="s">
+        <v>971</v>
+      </c>
+      <c r="J632" t="s">
+        <v>979</v>
+      </c>
+      <c r="L632" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="633" spans="2:12">
       <c r="E633" t="s">
-        <v>971</v>
-      </c>
-      <c r="J633" t="s">
-        <v>979</v>
-      </c>
-      <c r="L633" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="634" spans="3:12">
-      <c r="E634" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="636" spans="3:12">
-      <c r="E636" t="s">
+    <row r="635" spans="2:12">
+      <c r="E635" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="638" spans="3:12">
-      <c r="C638" t="s">
+    <row r="637" spans="2:12">
+      <c r="C637" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="641" spans="2:10">
-      <c r="B641" t="s">
+    <row r="640" spans="2:12">
+      <c r="B640" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="643" spans="2:10">
+    <row r="642" spans="3:10">
+      <c r="C642" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="D642" s="18"/>
+      <c r="E642" s="18"/>
+      <c r="F642" s="18"/>
+      <c r="G642" s="18"/>
+      <c r="H642" s="18"/>
+      <c r="I642" s="18"/>
+      <c r="J642" s="18"/>
+    </row>
+    <row r="643" spans="3:10">
       <c r="C643" s="18" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D643" s="18"/>
       <c r="E643" s="18"/>
@@ -15692,10 +15707,8 @@
       <c r="I643" s="18"/>
       <c r="J643" s="18"/>
     </row>
-    <row r="644" spans="2:10">
-      <c r="C644" s="18" t="s">
-        <v>988</v>
-      </c>
+    <row r="644" spans="3:10">
+      <c r="C644" s="18"/>
       <c r="D644" s="18"/>
       <c r="E644" s="18"/>
       <c r="F644" s="18"/>
@@ -15704,8 +15717,10 @@
       <c r="I644" s="18"/>
       <c r="J644" s="18"/>
     </row>
-    <row r="645" spans="2:10">
-      <c r="C645" s="18"/>
+    <row r="645" spans="3:10">
+      <c r="C645" s="18" t="s">
+        <v>984</v>
+      </c>
       <c r="D645" s="18"/>
       <c r="E645" s="18"/>
       <c r="F645" s="18"/>
@@ -15714,9 +15729,9 @@
       <c r="I645" s="18"/>
       <c r="J645" s="18"/>
     </row>
-    <row r="646" spans="2:10">
+    <row r="646" spans="3:10">
       <c r="C646" s="18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D646" s="18"/>
       <c r="E646" s="18"/>
@@ -15726,9 +15741,9 @@
       <c r="I646" s="18"/>
       <c r="J646" s="18"/>
     </row>
-    <row r="647" spans="2:10">
+    <row r="647" spans="3:10">
       <c r="C647" s="18" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D647" s="18"/>
       <c r="E647" s="18"/>
@@ -15738,22 +15753,22 @@
       <c r="I647" s="18"/>
       <c r="J647" s="18"/>
     </row>
-    <row r="648" spans="2:10">
+    <row r="648" spans="3:10">
       <c r="C648" s="18" t="s">
-        <v>986</v>
+        <v>1315</v>
       </c>
       <c r="D648" s="18"/>
       <c r="E648" s="18"/>
       <c r="F648" s="18"/>
       <c r="G648" s="18"/>
       <c r="H648" s="18"/>
-      <c r="I648" s="18"/>
+      <c r="I648" s="18" t="s">
+        <v>1316</v>
+      </c>
       <c r="J648" s="18"/>
     </row>
-    <row r="649" spans="2:10">
-      <c r="C649" s="18" t="s">
-        <v>1316</v>
-      </c>
+    <row r="649" spans="3:10">
+      <c r="C649" s="18"/>
       <c r="D649" s="18"/>
       <c r="E649" s="18"/>
       <c r="F649" s="18"/>
@@ -15764,19 +15779,21 @@
       </c>
       <c r="J649" s="18"/>
     </row>
-    <row r="650" spans="2:10">
-      <c r="C650" s="18"/>
+    <row r="650" spans="3:10">
+      <c r="C650" s="18" t="s">
+        <v>1318</v>
+      </c>
       <c r="D650" s="18"/>
       <c r="E650" s="18"/>
       <c r="F650" s="18"/>
       <c r="G650" s="18"/>
-      <c r="H650" s="18"/>
-      <c r="I650" s="18" t="s">
-        <v>1318</v>
-      </c>
+      <c r="H650" s="63" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I650" s="18"/>
       <c r="J650" s="18"/>
     </row>
-    <row r="651" spans="2:10">
+    <row r="651" spans="3:10">
       <c r="C651" s="18" t="s">
         <v>1319</v>
       </c>
@@ -15784,13 +15801,13 @@
       <c r="E651" s="18"/>
       <c r="F651" s="18"/>
       <c r="G651" s="18"/>
-      <c r="H651" s="63" t="s">
+      <c r="H651" s="64" t="s">
         <v>1322</v>
       </c>
       <c r="I651" s="18"/>
       <c r="J651" s="18"/>
     </row>
-    <row r="652" spans="2:10">
+    <row r="652" spans="3:10">
       <c r="C652" s="18" t="s">
         <v>1320</v>
       </c>
@@ -15798,41 +15815,37 @@
       <c r="E652" s="18"/>
       <c r="F652" s="18"/>
       <c r="G652" s="18"/>
-      <c r="H652" s="64" t="s">
-        <v>1323</v>
+      <c r="H652" s="62" t="s">
+        <v>1321</v>
       </c>
       <c r="I652" s="18"/>
       <c r="J652" s="18"/>
     </row>
-    <row r="653" spans="2:10">
+    <row r="653" spans="3:10">
       <c r="C653" s="18" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D653" s="18"/>
       <c r="E653" s="18"/>
       <c r="F653" s="18"/>
       <c r="G653" s="18"/>
       <c r="H653" s="62" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="I653" s="18"/>
       <c r="J653" s="18"/>
     </row>
-    <row r="654" spans="2:10">
-      <c r="C654" s="18" t="s">
-        <v>1324</v>
-      </c>
+    <row r="654" spans="3:10">
+      <c r="C654" s="18"/>
       <c r="D654" s="18"/>
       <c r="E654" s="18"/>
       <c r="F654" s="18"/>
       <c r="G654" s="18"/>
-      <c r="H654" s="62" t="s">
-        <v>1325</v>
-      </c>
+      <c r="H654" s="18"/>
       <c r="I654" s="18"/>
       <c r="J654" s="18"/>
     </row>
-    <row r="655" spans="2:10">
+    <row r="655" spans="3:10">
       <c r="C655" s="18"/>
       <c r="D655" s="18"/>
       <c r="E655" s="18"/>
@@ -15842,7 +15855,7 @@
       <c r="I655" s="18"/>
       <c r="J655" s="18"/>
     </row>
-    <row r="656" spans="2:10">
+    <row r="656" spans="3:10">
       <c r="C656" s="18"/>
       <c r="D656" s="18"/>
       <c r="E656" s="18"/>
@@ -15853,7 +15866,9 @@
       <c r="J656" s="18"/>
     </row>
     <row r="657" spans="2:10">
-      <c r="C657" s="18"/>
+      <c r="C657" s="52" t="s">
+        <v>989</v>
+      </c>
       <c r="D657" s="18"/>
       <c r="E657" s="18"/>
       <c r="F657" s="18"/>
@@ -15863,8 +15878,8 @@
       <c r="J657" s="18"/>
     </row>
     <row r="658" spans="2:10">
-      <c r="C658" s="52" t="s">
-        <v>989</v>
+      <c r="C658" s="18" t="s">
+        <v>990</v>
       </c>
       <c r="D658" s="18"/>
       <c r="E658" s="18"/>
@@ -15874,31 +15889,32 @@
       <c r="I658" s="18"/>
       <c r="J658" s="18"/>
     </row>
-    <row r="659" spans="2:10">
-      <c r="C659" s="18" t="s">
-        <v>990</v>
-      </c>
-      <c r="D659" s="18"/>
-      <c r="E659" s="18"/>
-      <c r="F659" s="18"/>
-      <c r="G659" s="18"/>
-      <c r="H659" s="18"/>
-      <c r="I659" s="18"/>
-      <c r="J659" s="18"/>
-    </row>
-    <row r="662" spans="2:10">
-      <c r="B662" t="s">
+    <row r="661" spans="2:10">
+      <c r="B661" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="664" spans="2:10">
-      <c r="C664" t="s">
+    <row r="663" spans="2:10">
+      <c r="C663" t="s">
         <v>992</v>
+      </c>
+    </row>
+    <row r="665" spans="2:10">
+      <c r="D665" s="22" t="s">
+        <v>993</v>
+      </c>
+      <c r="E665" s="18"/>
+      <c r="F665" s="18"/>
+      <c r="G665" s="18"/>
+      <c r="H665" s="18"/>
+      <c r="I665" s="18"/>
+      <c r="J665" s="18" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="666" spans="2:10">
       <c r="D666" s="22" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E666" s="18"/>
       <c r="F666" s="18"/>
@@ -15911,7 +15927,7 @@
     </row>
     <row r="667" spans="2:10">
       <c r="D667" s="22" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E667" s="18"/>
       <c r="F667" s="18"/>
@@ -15923,102 +15939,94 @@
       </c>
     </row>
     <row r="668" spans="2:10">
-      <c r="D668" s="22" t="s">
-        <v>995</v>
-      </c>
-      <c r="E668" s="18"/>
-      <c r="F668" s="18"/>
-      <c r="G668" s="18"/>
-      <c r="H668" s="18"/>
-      <c r="I668" s="18"/>
-      <c r="J668" s="18" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="669" spans="2:10">
-      <c r="D669" s="55"/>
-    </row>
-    <row r="671" spans="2:10">
-      <c r="C671" t="s">
+      <c r="D668" s="55"/>
+    </row>
+    <row r="670" spans="2:10">
+      <c r="C670" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="673" spans="1:10">
-      <c r="D673" t="s">
+    <row r="672" spans="2:10">
+      <c r="D672" t="s">
         <v>998</v>
       </c>
-      <c r="J673" t="s">
+      <c r="J672" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="675" spans="1:10">
-      <c r="A675" s="36" t="s">
+    <row r="674" spans="1:5">
+      <c r="A674" s="36" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="677" spans="1:10">
-      <c r="B677" t="s">
+    <row r="676" spans="1:5">
+      <c r="B676" t="s">
         <v>1001</v>
       </c>
-      <c r="C677" t="s">
+      <c r="C676" t="s">
         <v>1002</v>
       </c>
+      <c r="E676" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5">
       <c r="E677" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="678" spans="1:10">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5">
       <c r="E678" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="679" spans="1:10">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5">
       <c r="E679" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="680" spans="1:10">
+    <row r="680" spans="1:5">
       <c r="E680" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="681" spans="1:10">
+    <row r="681" spans="1:5">
       <c r="E681" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="682" spans="1:10">
-      <c r="E682" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="684" spans="1:10" ht="14.25" customHeight="1">
+    <row r="683" spans="1:5" ht="14.25" customHeight="1">
+      <c r="E683" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" ht="14.25" customHeight="1">
       <c r="E684" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="685" spans="1:10" ht="14.25" customHeight="1">
+    <row r="685" spans="1:5" ht="14.25" customHeight="1">
       <c r="E685" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="686" spans="1:10" ht="14.25" customHeight="1">
+    <row r="686" spans="1:5" ht="14.25" customHeight="1">
       <c r="E686" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="687" spans="1:10" ht="14.25" customHeight="1">
+    <row r="687" spans="1:5" ht="14.25" customHeight="1">
       <c r="E687" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="688" spans="1:10" ht="14.25" customHeight="1">
+    <row r="688" spans="1:5">
       <c r="E688" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="689" spans="5:9">
-      <c r="E689" t="s">
+    <row r="690" spans="5:9">
+      <c r="E690" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -16027,9 +16035,12 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="692" spans="5:9">
-      <c r="E692" t="s">
-        <v>1294</v>
+    <row r="693" spans="5:9">
+      <c r="E693" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I693" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="694" spans="5:9">
@@ -16037,7 +16048,7 @@
         <v>1299</v>
       </c>
       <c r="I694" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="695" spans="5:9">
@@ -16045,7 +16056,7 @@
         <v>1300</v>
       </c>
       <c r="I695" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="696" spans="5:9">
@@ -16053,29 +16064,26 @@
         <v>1301</v>
       </c>
       <c r="I696" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="697" spans="5:9">
-      <c r="E697" t="s">
         <v>1302</v>
       </c>
-      <c r="I697" t="s">
-        <v>1303</v>
+    </row>
+    <row r="698" spans="5:9">
+      <c r="E698" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="699" spans="5:9">
-      <c r="E699" t="s">
+      <c r="F699" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="701" spans="5:9">
+      <c r="E701" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="700" spans="5:9">
-      <c r="F700" t="s">
-        <v>1011</v>
-      </c>
-    </row>
     <row r="702" spans="5:9">
-      <c r="E702" t="s">
+      <c r="F702" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16099,38 +16107,38 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="707" spans="3:6">
-      <c r="F707" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="709" spans="3:6">
-      <c r="E709" t="s">
+    <row r="708" spans="3:6">
+      <c r="E708" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="711" spans="3:6">
+      <c r="C711" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="712" spans="3:6">
+      <c r="E712" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="712" spans="3:6">
-      <c r="C712" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="713" spans="3:6">
-      <c r="E713" t="s">
-        <v>1338</v>
+    <row r="714" spans="3:6">
+      <c r="E714" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="715" spans="3:6">
       <c r="E715" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="716" spans="3:6">
-      <c r="E716" t="s">
         <v>1006</v>
       </c>
     </row>
+    <row r="717" spans="3:6">
+      <c r="E717" t="s">
+        <v>1325</v>
+      </c>
+    </row>
     <row r="718" spans="3:6">
-      <c r="E718" t="s">
+      <c r="F718" t="s">
         <v>1326</v>
       </c>
     </row>
@@ -16144,134 +16152,137 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="721" spans="5:7">
+    <row r="721" spans="5:9">
       <c r="F721" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="722" spans="5:7">
+    <row r="722" spans="5:9">
       <c r="F722" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="723" spans="5:7">
-      <c r="F723" t="s">
+    <row r="724" spans="5:9">
+      <c r="F724" s="39" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="725" spans="5:7">
-      <c r="F725" s="39" t="s">
+    <row r="726" spans="5:9">
+      <c r="E726" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="727" spans="5:7">
-      <c r="E727" t="s">
+    <row r="727" spans="5:9">
+      <c r="F727" s="39" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="728" spans="5:9">
+      <c r="G728" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="728" spans="5:7">
-      <c r="F728" s="39" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="729" spans="5:7">
+    <row r="729" spans="5:9">
       <c r="G729" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="730" spans="5:7">
-      <c r="G730" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="732" spans="5:7">
-      <c r="E732" t="s">
+    <row r="731" spans="5:9">
+      <c r="E731" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="733" spans="5:9">
+      <c r="E733" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="734" spans="5:9">
+      <c r="F734" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="734" spans="5:7">
-      <c r="E734" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="735" spans="5:7">
+    <row r="735" spans="5:9">
       <c r="F735" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="736" spans="5:7">
-      <c r="F736" t="s">
+    <row r="736" spans="5:9">
+      <c r="F736" s="65" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="737" spans="3:9">
-      <c r="F737" s="65" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G737" s="65"/>
-      <c r="H737" s="65"/>
-      <c r="I737" s="65"/>
-    </row>
-    <row r="742" spans="3:9">
-      <c r="C742" t="s">
+      <c r="G736" s="65"/>
+      <c r="H736" s="65"/>
+      <c r="I736" s="65"/>
+    </row>
+    <row r="741" spans="3:5">
+      <c r="C741" t="s">
         <v>970</v>
       </c>
-      <c r="E742" t="s">
+      <c r="E741" t="s">
         <v>1007</v>
       </c>
     </row>
+    <row r="758" spans="1:4">
+      <c r="B758" t="s">
+        <v>1009</v>
+      </c>
+    </row>
     <row r="759" spans="1:4">
-      <c r="B759" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="760" spans="1:4">
-      <c r="C760" t="s">
+      <c r="C759" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
-      <c r="D762" t="s">
+    <row r="761" spans="1:4">
+      <c r="D761" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
-      <c r="D764" t="s">
+    <row r="763" spans="1:4">
+      <c r="D763" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
-      <c r="A768" s="36" t="s">
+    <row r="767" spans="1:4">
+      <c r="A767" s="36" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="770" spans="2:9">
-      <c r="B770" t="s">
+    <row r="769" spans="2:9">
+      <c r="B769" t="s">
         <v>1013</v>
+      </c>
+    </row>
+    <row r="771" spans="2:9">
+      <c r="C771" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I771" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="772" spans="2:9">
       <c r="C772" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="I772" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="773" spans="2:9">
       <c r="C773" t="s">
-        <v>1015</v>
+        <v>1342</v>
       </c>
       <c r="I773" t="s">
-        <v>1017</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="774" spans="2:9">
       <c r="C774" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="I774" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="775" spans="2:9">
@@ -16279,28 +16290,25 @@
         <v>1345</v>
       </c>
       <c r="I775" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="776" spans="2:9">
       <c r="C776" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="I776" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="777" spans="2:9">
-      <c r="C777" t="s">
         <v>1349</v>
       </c>
-      <c r="I777" t="s">
+    </row>
+    <row r="778" spans="2:9">
+      <c r="C778" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="779" spans="2:9">
       <c r="C779" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="780" spans="2:9">
@@ -16313,8 +16321,11 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="782" spans="2:9">
-      <c r="C782" t="s">
+    <row r="783" spans="2:9">
+      <c r="D783" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I783" t="s">
         <v>1360</v>
       </c>
     </row>
@@ -16323,7 +16334,7 @@
         <v>1352</v>
       </c>
       <c r="I784" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="785" spans="2:9">
@@ -16331,7 +16342,7 @@
         <v>1353</v>
       </c>
       <c r="I785" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="786" spans="2:9">
@@ -16339,7 +16350,7 @@
         <v>1354</v>
       </c>
       <c r="I786" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="787" spans="2:9">
@@ -16347,7 +16358,7 @@
         <v>1355</v>
       </c>
       <c r="I787" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="788" spans="2:9">
@@ -16355,108 +16366,108 @@
         <v>1356</v>
       </c>
       <c r="I788" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="789" spans="2:9">
-      <c r="D789" t="s">
-        <v>1357</v>
-      </c>
-      <c r="I789" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="794" spans="2:9">
-      <c r="B794" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="793" spans="2:9">
+      <c r="B793" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="796" spans="2:9">
-      <c r="C796" t="s">
+    <row r="795" spans="2:9">
+      <c r="C795" t="s">
         <v>1184</v>
       </c>
-      <c r="F796" t="s">
+      <c r="F795" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="798" spans="2:9">
-      <c r="C798" t="s">
+    <row r="797" spans="2:9">
+      <c r="C797" t="s">
         <v>1020</v>
+      </c>
+    </row>
+    <row r="799" spans="2:9">
+      <c r="D799" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="800" spans="2:9">
       <c r="D800" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="801" spans="1:4">
       <c r="D801" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="802" spans="1:4">
       <c r="D802" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="803" spans="1:4">
       <c r="D803" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="804" spans="1:4">
       <c r="D804" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="805" spans="1:4">
       <c r="D805" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="806" spans="1:4">
       <c r="D806" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="807" spans="1:4">
-      <c r="D807" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
-      <c r="A809" s="36" t="s">
+    <row r="808" spans="1:4">
+      <c r="A808" s="36" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
-      <c r="B811" t="s">
+    <row r="810" spans="1:4">
+      <c r="B810" t="s">
         <v>1030</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4">
+      <c r="C812" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="813" spans="1:4">
       <c r="C813" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="814" spans="1:4">
       <c r="C814" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="815" spans="1:4">
-      <c r="C815" t="s">
         <v>1034</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4">
+      <c r="C816" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="817" spans="2:12">
       <c r="C817" t="s">
-        <v>1032</v>
+        <v>1036</v>
+      </c>
+      <c r="L817" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="818" spans="2:12">
       <c r="C818" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="L818" t="s">
         <v>1035</v>
@@ -16464,133 +16475,133 @@
     </row>
     <row r="819" spans="2:12">
       <c r="C819" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="L819" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="820" spans="2:12">
-      <c r="C820" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L820" t="s">
         <v>1183</v>
+      </c>
+    </row>
+    <row r="821" spans="2:12">
+      <c r="C821" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="822" spans="2:12">
       <c r="C822" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="823" spans="2:12">
       <c r="C823" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="824" spans="2:12">
       <c r="C824" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="825" spans="2:12">
-      <c r="C825" t="s">
         <v>1041</v>
       </c>
-      <c r="H825" t="s">
+      <c r="H824" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="828" spans="2:12">
-      <c r="B828" t="s">
+    <row r="827" spans="2:12">
+      <c r="B827" t="s">
         <v>1044</v>
+      </c>
+    </row>
+    <row r="829" spans="2:12">
+      <c r="C829" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="830" spans="2:12">
       <c r="C830" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="831" spans="2:12">
       <c r="C831" t="s">
-        <v>1046</v>
+        <v>1047</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="832" spans="2:12">
       <c r="C832" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F832" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="833" spans="1:3">
-      <c r="C833" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="836" spans="1:3">
-      <c r="A836" s="36" t="s">
+    <row r="835" spans="1:3">
+      <c r="A835" s="36" t="s">
         <v>1050</v>
       </c>
     </row>
+    <row r="837" spans="1:3">
+      <c r="B837" t="s">
+        <v>1051</v>
+      </c>
+    </row>
     <row r="838" spans="1:3">
-      <c r="B838" t="s">
-        <v>1051</v>
+      <c r="C838" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="839" spans="1:3">
       <c r="C839" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="840" spans="1:3">
       <c r="C840" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="841" spans="1:3">
       <c r="C841" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="842" spans="1:3">
       <c r="C842" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="843" spans="1:3">
-      <c r="C843" t="s">
         <v>1056</v>
       </c>
     </row>
+    <row r="845" spans="1:3">
+      <c r="A845" s="57" t="s">
+        <v>1361</v>
+      </c>
+    </row>
     <row r="846" spans="1:3">
-      <c r="A846" s="57" t="s">
+      <c r="A846" t="s">
         <v>1362</v>
       </c>
+      <c r="B846" t="s">
+        <v>647</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="847" spans="1:3">
-      <c r="A847" t="s">
-        <v>1363</v>
+      <c r="A847">
+        <v>1</v>
       </c>
       <c r="B847" t="s">
-        <v>647</v>
-      </c>
-      <c r="C847" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="848" spans="1:3">
       <c r="A848">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B848" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="849" spans="1:3">
       <c r="A849">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B849" t="s">
         <v>1365</v>
@@ -16598,7 +16609,7 @@
     </row>
     <row r="850" spans="1:3">
       <c r="A850">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B850" t="s">
         <v>1366</v>
@@ -16606,7 +16617,7 @@
     </row>
     <row r="851" spans="1:3">
       <c r="A851">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B851" t="s">
         <v>1367</v>
@@ -16614,7 +16625,7 @@
     </row>
     <row r="852" spans="1:3">
       <c r="A852">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B852" t="s">
         <v>1368</v>
@@ -16622,75 +16633,298 @@
     </row>
     <row r="853" spans="1:3">
       <c r="A853">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B853" t="s">
-        <v>1369</v>
+        <v>257</v>
       </c>
     </row>
     <row r="854" spans="1:3">
       <c r="A854">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B854" t="s">
-        <v>257</v>
+        <v>403</v>
       </c>
     </row>
     <row r="855" spans="1:3">
       <c r="A855">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B855" t="s">
-        <v>403</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="856" spans="1:3">
       <c r="A856">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B856" t="s">
-        <v>1365</v>
+        <v>213</v>
       </c>
     </row>
     <row r="857" spans="1:3">
       <c r="A857">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B857" t="s">
-        <v>213</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="858" spans="1:3">
       <c r="A858">
+        <v>12</v>
+      </c>
+      <c r="B858" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3">
+      <c r="A860" s="57" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="A861" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B861" t="s">
+        <v>647</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862" s="47">
+        <v>1</v>
+      </c>
+      <c r="B862" s="68"/>
+      <c r="C862" s="68"/>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863" s="47">
+        <v>2</v>
+      </c>
+      <c r="B863" s="68"/>
+      <c r="C863" s="68"/>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="A864" s="47">
+        <v>3</v>
+      </c>
+      <c r="B864" s="68"/>
+      <c r="C864" s="68"/>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="A865" s="47">
+        <v>4</v>
+      </c>
+      <c r="B865" s="68"/>
+      <c r="C865" s="68"/>
+    </row>
+    <row r="866" spans="1:3">
+      <c r="A866" s="47">
+        <v>5</v>
+      </c>
+      <c r="B866" s="68"/>
+      <c r="C866" s="68"/>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="A867" s="47">
+        <v>6</v>
+      </c>
+      <c r="B867" s="68"/>
+      <c r="C867" s="68"/>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="A868" s="47">
+        <v>7</v>
+      </c>
+      <c r="B868" s="68"/>
+      <c r="C868" s="68"/>
+    </row>
+    <row r="869" spans="1:3">
+      <c r="A869" s="47">
+        <v>8</v>
+      </c>
+      <c r="B869" s="68"/>
+      <c r="C869" s="68"/>
+    </row>
+    <row r="870" spans="1:3">
+      <c r="A870" s="47">
+        <v>9</v>
+      </c>
+      <c r="B870" s="68"/>
+      <c r="C870" s="68"/>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="A871" s="47">
+        <v>10</v>
+      </c>
+      <c r="B871" s="68"/>
+      <c r="C871" s="68"/>
+    </row>
+    <row r="872" spans="1:3">
+      <c r="A872" s="47">
         <v>11</v>
       </c>
-      <c r="B858" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="859" spans="1:3">
-      <c r="A859">
+      <c r="B872" s="68"/>
+      <c r="C872" s="68"/>
+    </row>
+    <row r="873" spans="1:3">
+      <c r="A873" s="47">
         <v>12</v>
       </c>
-      <c r="B859" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="861" spans="1:3">
-      <c r="A861" s="57" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="862" spans="1:3">
-      <c r="A862" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B862" t="s">
-        <v>647</v>
-      </c>
-      <c r="C862" t="s">
-        <v>1364</v>
-      </c>
+      <c r="B873" s="68"/>
+      <c r="C873" s="68"/>
+    </row>
+    <row r="874" spans="1:3">
+      <c r="A874" s="47">
+        <v>13</v>
+      </c>
+      <c r="B874" s="68"/>
+      <c r="C874" s="68"/>
+    </row>
+    <row r="875" spans="1:3">
+      <c r="A875" s="47">
+        <v>14</v>
+      </c>
+      <c r="B875" s="68"/>
+      <c r="C875" s="68"/>
+    </row>
+    <row r="876" spans="1:3">
+      <c r="A876" s="47">
+        <v>15</v>
+      </c>
+      <c r="B876" s="68"/>
+      <c r="C876" s="68"/>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="A877" s="47">
+        <v>16</v>
+      </c>
+      <c r="B877" s="68"/>
+      <c r="C877" s="68"/>
+    </row>
+    <row r="878" spans="1:3">
+      <c r="A878" s="47">
+        <v>17</v>
+      </c>
+      <c r="B878" s="68"/>
+      <c r="C878" s="68"/>
+    </row>
+    <row r="879" spans="1:3">
+      <c r="A879" s="47">
+        <v>18</v>
+      </c>
+      <c r="B879" s="68"/>
+      <c r="C879" s="68"/>
+    </row>
+    <row r="880" spans="1:3">
+      <c r="A880" s="47">
+        <v>19</v>
+      </c>
+      <c r="B880" s="68"/>
+      <c r="C880" s="68"/>
+    </row>
+    <row r="881" spans="1:3">
+      <c r="A881" s="47">
+        <v>20</v>
+      </c>
+      <c r="B881" s="68"/>
+      <c r="C881" s="68"/>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="A882" s="47">
+        <v>21</v>
+      </c>
+      <c r="B882" s="68"/>
+      <c r="C882" s="68"/>
+    </row>
+    <row r="883" spans="1:3">
+      <c r="A883" s="47">
+        <v>22</v>
+      </c>
+      <c r="B883" s="68"/>
+      <c r="C883" s="68"/>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884" s="47">
+        <v>23</v>
+      </c>
+      <c r="B884" s="68"/>
+      <c r="C884" s="68"/>
+    </row>
+    <row r="885" spans="1:3">
+      <c r="A885" s="47">
+        <v>24</v>
+      </c>
+      <c r="B885" s="68"/>
+      <c r="C885" s="68"/>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="A886" s="47">
+        <v>25</v>
+      </c>
+      <c r="B886" s="68"/>
+      <c r="C886" s="68"/>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="A887" s="47">
+        <v>26</v>
+      </c>
+      <c r="B887" s="68"/>
+      <c r="C887" s="68"/>
+    </row>
+    <row r="888" spans="1:3">
+      <c r="A888" s="47">
+        <v>27</v>
+      </c>
+      <c r="B888" s="68"/>
+      <c r="C888" s="68"/>
+    </row>
+    <row r="889" spans="1:3">
+      <c r="A889" s="47">
+        <v>28</v>
+      </c>
+      <c r="B889" s="68"/>
+      <c r="C889" s="68"/>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="A890" s="47">
+        <v>29</v>
+      </c>
+      <c r="B890" s="68"/>
+      <c r="C890" s="68"/>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="A891" s="47">
+        <v>30</v>
+      </c>
+      <c r="B891" s="68"/>
+      <c r="C891" s="68"/>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="A892" s="47">
+        <v>31</v>
+      </c>
+      <c r="B892" s="68"/>
+      <c r="C892" s="68"/>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="A893" s="47">
+        <v>32</v>
+      </c>
+      <c r="B893" s="68"/>
+      <c r="C893" s="68"/>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894" s="47">
+        <v>33</v>
+      </c>
+      <c r="B894" s="68"/>
+      <c r="C894" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1426">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -3679,9 +3679,6 @@
     <t>1 Obj khởi tạo trong String Pool</t>
   </si>
   <si>
-    <t>1 obj đc khởi tạo trong Spring pool</t>
-  </si>
-  <si>
     <t>1 obj summer đc khởi tạo spring Pool</t>
   </si>
   <si>
@@ -3733,12 +3730,6 @@
     <t>// nulljava</t>
   </si>
   <si>
-    <t>1 Lưu ý rất quan trọng : Tất cả các phương thức thao tác với chuỗi mà trả về giá trị String</t>
-  </si>
-  <si>
-    <t>Thì String mới tạo ra đó  được khởi tạo bằng từ khóa new , nghĩa là được tạo trong bộ nhớ HEAP</t>
-  </si>
-  <si>
     <t>String lang1 = "Java";</t>
   </si>
   <si>
@@ -4568,13 +4559,154 @@
   </si>
   <si>
     <t>Nếu type của Array là Interface thì các phần tử của mảng hoặc là null hoặc là class mà implement Interface đó</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>AEC</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>ACDEF</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>ADE</t>
+  </si>
+  <si>
+    <t>CEF</t>
+  </si>
+  <si>
+    <t>ACDE</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Số câu đúng : 17/33</t>
+  </si>
+  <si>
+    <t>Tỉ lệ  51%</t>
+  </si>
+  <si>
+    <t>one three four</t>
+  </si>
+  <si>
+    <t>An immutable Object cannot be modified, An immutable Object can be garbage collected, String is immutable</t>
+  </si>
+  <si>
+    <t>abbaccca</t>
+  </si>
+  <si>
+    <t>Không được phép so sánh String và StringBuilder bằng toán tử ==</t>
+  </si>
+  <si>
+    <t>Lưu ý nếu gọi subString(index) thì lấy string từ vị trí index đến hết String</t>
+  </si>
+  <si>
+    <t>Lấy String từ vị trí beginIndex đến hết</t>
+  </si>
+  <si>
+    <t>String được tạo từ toán tử ==  sẽ được tạo trong HEAP</t>
+  </si>
+  <si>
+    <t>int [] singleArr = new int [];</t>
+  </si>
+  <si>
+    <t>// Ko khai báo kích thước mảng -&gt; Sai</t>
+  </si>
+  <si>
+    <t>int [] [] multiArr = new int [][];</t>
+  </si>
+  <si>
+    <t>// Không khai báo kích thước mảng ở [] đầu tiên</t>
+  </si>
+  <si>
+    <t>Lấy kích thước của mảng chỉ có cách này : arr.length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lấy kích thước của list chỉ có cách này : </t>
+  </si>
+  <si>
+    <t>ArrayLisst.size()</t>
+  </si>
+  <si>
+    <t>An ArrayList is imutable</t>
+  </si>
+  <si>
+    <t>Hàm remove() của ArrayList</t>
+  </si>
+  <si>
+    <t>Không được add giá trị khác với kiểu dữ liệu của ArrayLisst</t>
+  </si>
+  <si>
+    <t>Lưu ý ko có hàm arr.asList mà chỉ có hàm Arrays.asList(arr);</t>
+  </si>
+  <si>
+    <t>Autoboxing : list.add(Integer.parseInt("5")) và list.add(7);</t>
+  </si>
+  <si>
+    <t>ArraysList override lại hàm equals() của Object cho nên so sánh 2 list có phần tử giống nhau là OK. Kể cả 2 list rỗng</t>
+  </si>
+  <si>
+    <t>LocalDate ko có constructor ko tham số, Ko có constructor có tham số</t>
+  </si>
+  <si>
+    <t>LocalDate ko được phép cộng giờ,phút</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khai báo giá trị cho LocalDate ko hợp lệ </t>
+  </si>
+  <si>
+    <t>LocalDate, LocalTime, Localdatetime là immutable, Khi thay đổi bằng plust() hoặc minust() thì phải gán (giống như String)</t>
+  </si>
+  <si>
+    <t>Nếu Period khai báo dạng như thế này : Period.ofDays(1).ofYears(2); thì chỉ có hàm cuối cùng là hàm ofyears(2) được apply, Nghĩa là Period.ofYears(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu Period khai báo dạng như thế này : Period.ofDays(1).ofYears(2); </t>
+  </si>
+  <si>
+    <t>thì chỉ có hàm cuối cùng là hàm ofyears(2) được apply, Nghĩa là Period.ofYears(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 obj ("autumn") đc khởi tạo trong Spring pool </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Lưu ý rất quan trọng : </t>
+  </si>
+  <si>
+    <t>Còn được tạo từ toán tử Ví dụ a == "sample"  thì được tạo ra trong String Pool</t>
+  </si>
+  <si>
+    <t>Tất cả các phương thức thao tác với chuỗi mà trả về giá trị String Thì String mới tạo ra đó  được khởi tạo bằng từ khóa new , nghĩa là được tạo trong bộ nhớ HEAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4897,6 +5029,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4937,7 +5077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5051,12 +5191,23 @@
     <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7272,16 +7423,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="67" t="s">
+      <c r="D424" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="67"/>
-      <c r="F424" s="67"/>
-      <c r="G424" s="67"/>
-      <c r="H424" s="67"/>
-      <c r="I424" s="67"/>
-      <c r="J424" s="67"/>
-      <c r="K424" s="67"/>
+      <c r="E424" s="72"/>
+      <c r="F424" s="72"/>
+      <c r="G424" s="72"/>
+      <c r="H424" s="72"/>
+      <c r="I424" s="72"/>
+      <c r="J424" s="72"/>
+      <c r="K424" s="72"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -7348,16 +7499,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="67" t="s">
+      <c r="D430" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="67"/>
-      <c r="F430" s="67"/>
-      <c r="G430" s="67"/>
-      <c r="H430" s="67"/>
-      <c r="I430" s="67"/>
-      <c r="J430" s="67"/>
-      <c r="K430" s="67"/>
+      <c r="E430" s="72"/>
+      <c r="F430" s="72"/>
+      <c r="G430" s="72"/>
+      <c r="H430" s="72"/>
+      <c r="I430" s="72"/>
+      <c r="J430" s="72"/>
+      <c r="K430" s="72"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -12102,14 +12253,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y894"/>
+  <dimension ref="A1:Y902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A849" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C862" sqref="C862"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P313" sqref="P313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12253,7 +12405,7 @@
         <v>1079</v>
       </c>
       <c r="L23" t="s">
-        <v>1085</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12265,7 +12417,7 @@
         <v>1080</v>
       </c>
       <c r="L24" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12277,7 +12429,7 @@
         <v>1081</v>
       </c>
       <c r="L25" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12292,7 +12444,7 @@
         <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12322,25 +12474,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="B38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G42" t="s">
         <v>1101</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12522,80 +12674,83 @@
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:4">
       <c r="B65" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:4">
       <c r="C67" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:4">
       <c r="A70" s="36" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:4">
       <c r="A71" s="36"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:4">
       <c r="A72" s="36"/>
       <c r="B72" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="36"/>
-      <c r="B73" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="D73" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="36"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="D74" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="36"/>
-      <c r="C75" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="36"/>
       <c r="C76" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="36"/>
       <c r="C77" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="36"/>
       <c r="C78" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="36"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="C79" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="36"/>
-      <c r="C80" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1111</v>
-      </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="36"/>
+      <c r="C81" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="36"/>
@@ -12612,29 +12767,17 @@
     <row r="86" spans="1:16">
       <c r="A86" s="36"/>
     </row>
-    <row r="88" spans="1:16">
-      <c r="B88" t="s">
+    <row r="87" spans="1:16">
+      <c r="A87" s="36"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="B89" t="s">
         <v>725</v>
-      </c>
-      <c r="I88" s="37"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="45" t="s">
-        <v>737</v>
-      </c>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="14"/>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="C89" t="s">
-        <v>726</v>
       </c>
       <c r="I89" s="37"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="26" t="s">
-        <v>730</v>
+      <c r="K89" s="45" t="s">
+        <v>737</v>
       </c>
       <c r="L89" s="26"/>
       <c r="M89" s="26"/>
@@ -12644,12 +12787,12 @@
     </row>
     <row r="90" spans="1:16">
       <c r="C90" t="s">
-        <v>728</v>
-      </c>
-      <c r="I90" s="38"/>
+        <v>726</v>
+      </c>
+      <c r="I90" s="37"/>
       <c r="J90" s="14"/>
       <c r="K90" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L90" s="26"/>
       <c r="M90" s="26"/>
@@ -12659,12 +12802,12 @@
     </row>
     <row r="91" spans="1:16">
       <c r="C91" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I91" s="38"/>
       <c r="J91" s="14"/>
       <c r="K91" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L91" s="26"/>
       <c r="M91" s="26"/>
@@ -12674,12 +12817,12 @@
     </row>
     <row r="92" spans="1:16">
       <c r="C92" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I92" s="38"/>
       <c r="J92" s="14"/>
       <c r="K92" s="26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
@@ -12688,66 +12831,74 @@
       <c r="P92" s="14"/>
     </row>
     <row r="93" spans="1:16">
+      <c r="C93" t="s">
+        <v>729</v>
+      </c>
       <c r="I93" s="38"/>
       <c r="J93" s="14"/>
+      <c r="K93" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="14"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="I94" s="14"/>
+      <c r="I94" s="38"/>
       <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="B96" t="s">
+    </row>
+    <row r="95" spans="1:16">
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" t="s">
         <v>734</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="C98" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="C99" t="s">
+        <v>735</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="C100" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="18.75">
-      <c r="C101" s="40" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="41"/>
-    </row>
     <row r="102" spans="2:9" ht="18.75">
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
+      <c r="C102" s="40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
       <c r="H102" s="41"/>
     </row>
     <row r="103" spans="2:9" ht="18.75">
       <c r="C103" s="41"/>
-      <c r="D103" s="42" t="s">
-        <v>737</v>
-      </c>
-      <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="40"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
       <c r="H103" s="41"/>
     </row>
     <row r="104" spans="2:9" ht="18.75">
       <c r="C104" s="41"/>
       <c r="D104" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E104" s="40"/>
       <c r="F104" s="40"/>
@@ -12756,24 +12907,26 @@
     </row>
     <row r="105" spans="2:9" ht="18.75">
       <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
+      <c r="D105" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
       <c r="H105" s="41"/>
     </row>
-    <row r="106" spans="2:9">
-      <c r="D106" s="39" t="s">
+    <row r="106" spans="2:9" ht="18.75">
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="D107" s="39" t="s">
         <v>739</v>
       </c>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="D107" s="39"/>
       <c r="E107" s="39"/>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
@@ -12781,9 +12934,6 @@
       <c r="I107" s="39"/>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" t="s">
-        <v>1089</v>
-      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
       <c r="F108" s="39"/>
@@ -12792,6 +12942,9 @@
       <c r="I108" s="39"/>
     </row>
     <row r="109" spans="2:9">
+      <c r="B109" t="s">
+        <v>1088</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
       <c r="F109" s="39"/>
@@ -12800,19 +12953,19 @@
       <c r="I109" s="39"/>
     </row>
     <row r="110" spans="2:9">
-      <c r="C110" s="60" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
       <c r="I110" s="39"/>
     </row>
     <row r="111" spans="2:9">
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
+      <c r="C111" s="60" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
       <c r="F111" s="39"/>
       <c r="G111" s="39"/>
       <c r="H111" s="39"/>
@@ -12820,18 +12973,16 @@
     </row>
     <row r="112" spans="2:9">
       <c r="D112" s="39"/>
-      <c r="E112" s="43" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
     </row>
     <row r="113" spans="1:9">
       <c r="D113" s="39"/>
       <c r="E113" s="43" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F113" s="43"/>
       <c r="G113" s="43"/>
@@ -12840,36 +12991,36 @@
     </row>
     <row r="114" spans="1:9">
       <c r="D114" s="39"/>
-      <c r="E114" s="43"/>
+      <c r="E114" s="43" t="s">
+        <v>1092</v>
+      </c>
       <c r="F114" s="43"/>
       <c r="G114" s="43"/>
       <c r="H114" s="43"/>
       <c r="I114" s="43"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="C115" s="39" t="s">
-        <v>1094</v>
-      </c>
       <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
     </row>
     <row r="116" spans="1:9">
+      <c r="C116" s="39" t="s">
+        <v>1093</v>
+      </c>
       <c r="D116" s="39"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
     </row>
     <row r="117" spans="1:9">
       <c r="D117" s="39"/>
-      <c r="E117" s="43" t="s">
-        <v>1095</v>
-      </c>
+      <c r="E117" s="43"/>
       <c r="F117" s="43"/>
       <c r="G117" s="43"/>
       <c r="H117" s="43"/>
@@ -12878,7 +13029,7 @@
     <row r="118" spans="1:9">
       <c r="D118" s="39"/>
       <c r="E118" s="43" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F118" s="43"/>
       <c r="G118" s="43"/>
@@ -12886,259 +13037,257 @@
       <c r="I118" s="43"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="E119" t="s">
-        <v>1097</v>
-      </c>
+      <c r="D119" s="39"/>
+      <c r="E119" s="43" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="36" t="s">
+      <c r="E120" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="36" t="s">
         <v>740</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="36"/>
-      <c r="B121" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="36"/>
+      <c r="B122" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="36"/>
-      <c r="C123" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H123" t="s">
-        <v>1117</v>
-      </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="36"/>
       <c r="C124" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H124" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="36"/>
       <c r="C125" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="36"/>
       <c r="C126" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="36"/>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" t="s">
+      <c r="C127" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="36"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="130" spans="2:8">
-      <c r="C130" t="s">
-        <v>1118</v>
-      </c>
-    </row>
     <row r="131" spans="2:8">
-      <c r="D131" t="s">
-        <v>1113</v>
+      <c r="C131" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="132" spans="2:8">
       <c r="D132" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="133" spans="2:8">
       <c r="D133" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="D134" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="D135" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="D136" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8">
-      <c r="C138" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8">
-      <c r="D140" t="s">
-        <v>1124</v>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="D137" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="C139" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="141" spans="2:8">
       <c r="D141" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="142" spans="2:8">
       <c r="D142" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="D143" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9">
+      <c r="C146" t="s">
         <v>1126</v>
       </c>
-      <c r="H142" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9">
-      <c r="C145" t="s">
+    </row>
+    <row r="148" spans="3:9">
+      <c r="D148" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="E149" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9">
+      <c r="E150" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9">
+      <c r="D151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9">
+      <c r="D153" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9">
+      <c r="E154" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
-      <c r="D147" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9">
-      <c r="E148" t="s">
+    <row r="155" spans="3:9">
+      <c r="E155" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9">
+      <c r="E156" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9">
+      <c r="E157" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9">
+      <c r="E158" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I158" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="E149" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="D150" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="D152" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="E153" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9">
-      <c r="E154" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="E155" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="E156" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9">
-      <c r="E157" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I157" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="B160" s="66" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
-      <c r="F160" s="39"/>
-      <c r="G160" s="39"/>
-      <c r="H160" s="39"/>
-    </row>
-    <row r="162" spans="2:14">
-      <c r="C162" t="s">
-        <v>1375</v>
-      </c>
+    <row r="161" spans="2:14">
+      <c r="B161" s="66" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="39"/>
     </row>
     <row r="163" spans="2:14">
       <c r="C163" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="164" spans="2:14">
       <c r="C164" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F164" s="36" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14">
-      <c r="B166" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14">
+      <c r="C165" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F165" s="36" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14">
+      <c r="B167" t="s">
         <v>742</v>
       </c>
-      <c r="C166" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14">
-      <c r="C168" t="s">
+      <c r="C167" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14">
+      <c r="C169" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="170" spans="2:14">
-      <c r="C170" t="s">
+    <row r="171" spans="2:14">
+      <c r="C171" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14">
-      <c r="D171" t="s">
-        <v>744</v>
-      </c>
-      <c r="J171" t="s">
-        <v>746</v>
-      </c>
-      <c r="M171" t="s">
-        <v>778</v>
-      </c>
-      <c r="N171" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="172" spans="2:14">
       <c r="D172" t="s">
+        <v>744</v>
+      </c>
+      <c r="J172" t="s">
+        <v>746</v>
+      </c>
+      <c r="M172" t="s">
+        <v>778</v>
+      </c>
+      <c r="N172" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14">
+      <c r="D173" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="174" spans="2:14">
-      <c r="B174" s="39" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C174" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
-      <c r="F174" s="39"/>
-      <c r="G174" s="39"/>
-      <c r="H174" s="39"/>
-      <c r="I174" s="39"/>
-    </row>
     <row r="175" spans="2:14">
-      <c r="B175" s="39"/>
+      <c r="B175" s="39" t="s">
+        <v>1139</v>
+      </c>
       <c r="C175" s="39" t="s">
-        <v>1143</v>
+        <v>1203</v>
       </c>
       <c r="D175" s="39"/>
       <c r="E175" s="39"/>
@@ -13147,43 +13296,50 @@
       <c r="H175" s="39"/>
       <c r="I175" s="39"/>
     </row>
-    <row r="177" spans="2:13">
-      <c r="D177" t="s">
-        <v>1139</v>
-      </c>
+    <row r="176" spans="2:14">
+      <c r="B176" s="39"/>
+      <c r="C176" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="39"/>
+      <c r="G176" s="39"/>
+      <c r="H176" s="39"/>
+      <c r="I176" s="39"/>
     </row>
     <row r="178" spans="2:13">
-      <c r="E178" t="s">
-        <v>1132</v>
+      <c r="D178" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="179" spans="2:13">
       <c r="E179" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="180" spans="2:13">
       <c r="E180" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I180" s="57" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J180" s="57"/>
+        <v>1137</v>
+      </c>
     </row>
     <row r="181" spans="2:13">
       <c r="E181" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="I181" s="57" t="s">
-        <v>1144</v>
+        <v>1303</v>
       </c>
       <c r="J181" s="57"/>
     </row>
     <row r="182" spans="2:13">
-      <c r="D182" t="s">
-        <v>45</v>
-      </c>
+      <c r="E182" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I182" s="57" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J182" s="57"/>
     </row>
     <row r="183" spans="2:13">
       <c r="D183" t="s">
@@ -13191,84 +13347,78 @@
       </c>
     </row>
     <row r="184" spans="2:13">
-      <c r="B184" t="s">
+      <c r="D184" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="2:13">
+      <c r="B185" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="185" spans="2:13">
-      <c r="C185" t="s">
+    <row r="186" spans="2:13">
+      <c r="C186" t="s">
         <v>748</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J186" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="187" spans="2:13">
-      <c r="C187" t="s">
+    <row r="188" spans="2:13">
+      <c r="C188" t="s">
         <v>749</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J188" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="190" spans="2:13">
-      <c r="D190" t="s">
+    <row r="191" spans="2:13">
+      <c r="D191" t="s">
         <v>392</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E191" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="191" spans="2:13">
-      <c r="E191" t="s">
+    <row r="192" spans="2:13">
+      <c r="E192" t="s">
         <v>751</v>
       </c>
-      <c r="J191" s="39" t="s">
+      <c r="J192" s="39" t="s">
         <v>752</v>
       </c>
-      <c r="K191" s="39"/>
-      <c r="L191" s="39"/>
-      <c r="M191" s="39"/>
-    </row>
-    <row r="192" spans="2:13">
-      <c r="J192" t="s">
+      <c r="K192" s="39"/>
+      <c r="L192" s="39"/>
+      <c r="M192" s="39"/>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="J193" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
-      <c r="B193" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C193" s="65" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D193" s="65"/>
-      <c r="E193" s="65"/>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="36" t="s">
+    <row r="194" spans="1:10">
+      <c r="B194" s="39" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C194" s="73" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D194" s="73"/>
+      <c r="E194" s="73"/>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="36" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
-      <c r="B197" t="s">
+    <row r="198" spans="1:10">
+      <c r="B198" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
-      <c r="C199" s="22" t="s">
+    <row r="200" spans="1:10">
+      <c r="C200" s="22" t="s">
         <v>756</v>
-      </c>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="43"/>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="C200" s="22" t="s">
-        <v>757</v>
       </c>
       <c r="D200" s="18"/>
       <c r="E200" s="18"/>
@@ -13277,35 +13427,33 @@
       <c r="H200" s="18"/>
       <c r="I200" s="43"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:10">
       <c r="C201" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D201" s="18"/>
       <c r="E201" s="18"/>
       <c r="F201" s="18"/>
       <c r="G201" s="18"/>
-      <c r="H201" s="44" t="b">
-        <v>1</v>
-      </c>
+      <c r="H201" s="18"/>
       <c r="I201" s="43"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:10">
       <c r="C202" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D202" s="18"/>
       <c r="E202" s="18"/>
       <c r="F202" s="18"/>
       <c r="G202" s="18"/>
-      <c r="H202" s="44" t="s">
-        <v>761</v>
+      <c r="H202" s="44" t="b">
+        <v>1</v>
       </c>
       <c r="I202" s="43"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:10">
       <c r="C203" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D203" s="18"/>
       <c r="E203" s="18"/>
@@ -13316,166 +13464,184 @@
       </c>
       <c r="I203" s="43"/>
     </row>
-    <row r="206" spans="1:9">
-      <c r="A206" s="36" t="s">
+    <row r="204" spans="1:10">
+      <c r="C204" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="I204" s="43"/>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="36" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
-      <c r="B208" s="50" t="s">
+    <row r="209" spans="2:8">
+      <c r="B209" s="50" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="210" spans="3:8">
-      <c r="C210" t="s">
+    <row r="211" spans="2:8">
+      <c r="C211" t="s">
         <v>764</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G211" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8">
+      <c r="C212" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="C214" t="s">
+        <v>765</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8">
+      <c r="C215" t="s">
+        <v>766</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8">
+      <c r="C216" t="s">
+        <v>767</v>
+      </c>
+      <c r="G216" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="211" spans="3:8">
-      <c r="C211" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="213" spans="3:8">
-      <c r="C213" t="s">
-        <v>765</v>
-      </c>
-      <c r="G213" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="214" spans="3:8">
-      <c r="C214" t="s">
-        <v>766</v>
-      </c>
-      <c r="G214" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="215" spans="3:8">
-      <c r="C215" t="s">
-        <v>767</v>
-      </c>
-      <c r="G215" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="216" spans="3:8">
-      <c r="C216" t="s">
+    <row r="217" spans="2:8">
+      <c r="C217" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="218" spans="3:8">
-      <c r="C218" t="s">
+    <row r="219" spans="2:8">
+      <c r="C219" t="s">
         <v>788</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H219" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="219" spans="3:8">
-      <c r="C219" t="s">
+    <row r="220" spans="2:8">
+      <c r="C220" t="s">
         <v>789</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H220" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="220" spans="3:8">
-      <c r="C220" t="s">
+    <row r="221" spans="2:8">
+      <c r="C221" t="s">
         <v>790</v>
       </c>
-      <c r="H220" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="222" spans="3:8">
-      <c r="C222" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="223" spans="3:8">
+      <c r="H221" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8">
       <c r="C223" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8">
-      <c r="B231" s="39" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8">
-      <c r="C233" t="s">
-        <v>1305</v>
-      </c>
-      <c r="H233" t="s">
-        <v>793</v>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8">
+      <c r="C224" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8">
+      <c r="B232" s="39" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="234" spans="2:8">
       <c r="C234" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="H234" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8">
+      <c r="C235" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H235" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8">
-      <c r="C236" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="237" spans="2:8">
       <c r="C237" t="s">
-        <v>1153</v>
+        <v>1149</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="238" spans="2:8">
       <c r="C238" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8">
-      <c r="C240" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1160</v>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8">
+      <c r="C239" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10">
+      <c r="C241" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="242" spans="2:10">
       <c r="C242" t="s">
-        <v>1161</v>
+        <v>1402</v>
       </c>
       <c r="H242" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="246" spans="2:10">
-      <c r="B246" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="248" spans="2:10">
-      <c r="C248" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="D248" s="18"/>
-      <c r="E248" s="18"/>
-      <c r="F248" s="18"/>
-      <c r="G248" s="18"/>
-      <c r="H248" s="18"/>
-      <c r="I248" s="18"/>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="C244" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10">
+      <c r="C245" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10">
+      <c r="B247" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="249" spans="2:10">
       <c r="C249" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D249" s="18"/>
       <c r="E249" s="18"/>
@@ -13485,7 +13651,9 @@
       <c r="I249" s="18"/>
     </row>
     <row r="250" spans="2:10">
-      <c r="C250" s="23"/>
+      <c r="C250" s="22" t="s">
+        <v>771</v>
+      </c>
       <c r="D250" s="18"/>
       <c r="E250" s="18"/>
       <c r="F250" s="18"/>
@@ -13494,22 +13662,17 @@
       <c r="I250" s="18"/>
     </row>
     <row r="251" spans="2:10">
-      <c r="C251" s="22" t="s">
-        <v>772</v>
-      </c>
+      <c r="C251" s="23"/>
       <c r="D251" s="18"/>
       <c r="E251" s="18"/>
       <c r="F251" s="18"/>
       <c r="G251" s="18"/>
       <c r="H251" s="18"/>
       <c r="I251" s="18"/>
-      <c r="J251" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="252" spans="2:10">
       <c r="C252" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D252" s="18"/>
       <c r="E252" s="18"/>
@@ -13521,243 +13684,185 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:10">
-      <c r="B255" t="s">
+    <row r="253" spans="2:10">
+      <c r="C253" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="18"/>
+      <c r="I253" s="18"/>
+      <c r="J253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10">
+      <c r="B256" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="257" spans="3:10">
-      <c r="C257" t="s">
+    <row r="258" spans="3:10">
+      <c r="C258" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="258" spans="3:10">
-      <c r="D258" t="s">
+    <row r="259" spans="3:10">
+      <c r="D259" t="s">
         <v>774</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F259" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="259" spans="3:10">
-      <c r="C259" t="s">
+    <row r="260" spans="3:10">
+      <c r="C260" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="3:10">
-      <c r="C262" t="s">
+    <row r="263" spans="3:10">
+      <c r="C263" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="264" spans="3:10">
-      <c r="C264" t="s">
+    <row r="265" spans="3:10">
+      <c r="C265" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="266" spans="3:10">
-      <c r="D266" t="s">
+    <row r="267" spans="3:10">
+      <c r="D267" t="s">
         <v>782</v>
       </c>
-      <c r="J266" t="s">
+      <c r="J267" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="268" spans="3:10">
-      <c r="D268" t="s">
+    <row r="269" spans="3:10">
+      <c r="D269" t="s">
         <v>786</v>
       </c>
-      <c r="J268" t="s">
+      <c r="J269" t="s">
         <v>784</v>
-      </c>
-    </row>
-    <row r="269" spans="3:10">
-      <c r="E269" t="s">
-        <v>787</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="270" spans="3:10">
       <c r="E270" t="s">
+        <v>787</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="271" spans="3:10">
+      <c r="E271" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="271" spans="3:10">
-      <c r="D271" t="s">
+    <row r="272" spans="3:10">
+      <c r="D272" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="3:10">
-      <c r="C272" t="s">
+    <row r="273" spans="2:7">
+      <c r="C273" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="274" spans="2:6">
-      <c r="C274" t="s">
+    <row r="275" spans="2:7">
+      <c r="C275" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="D276" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="D277" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="D278" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="275" spans="2:6">
-      <c r="D275" t="s">
+    <row r="279" spans="2:7">
+      <c r="D279" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="276" spans="2:6">
-      <c r="D276" t="s">
+    <row r="281" spans="2:7">
+      <c r="B281" s="36" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C281" s="36"/>
+      <c r="D281" s="36"/>
+      <c r="E281" s="36"/>
+      <c r="F281" s="36"/>
+      <c r="G281" s="36"/>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="B284" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="277" spans="2:6">
-      <c r="D277" t="s">
+    <row r="286" spans="2:7">
+      <c r="D286" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="278" spans="2:6">
-      <c r="D278" t="s">
+    <row r="287" spans="2:7">
+      <c r="F287" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="280" spans="2:6">
-      <c r="B280" t="s">
+    <row r="288" spans="2:7">
+      <c r="F288" t="s">
         <v>1169</v>
-      </c>
-    </row>
-    <row r="282" spans="2:6">
-      <c r="D282" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="283" spans="2:6">
-      <c r="F283" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="284" spans="2:6">
-      <c r="F284" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="285" spans="2:6">
-      <c r="F285" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="287" spans="2:6">
-      <c r="D287" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="289" spans="1:17">
       <c r="F289" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="290" spans="1:17">
-      <c r="F290" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="291" spans="1:17">
-      <c r="F291" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="294" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A294" s="36" t="s">
+      <c r="D291" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17">
+      <c r="F293" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17">
+      <c r="F294" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17">
+      <c r="F295" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A298" s="36" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="17.25" customHeight="1">
-      <c r="B295" t="s">
+    <row r="299" spans="1:17" ht="17.25" customHeight="1">
+      <c r="B299" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="296" spans="1:17">
-      <c r="B296" s="46" t="s">
-        <v>795</v>
-      </c>
-      <c r="C296" s="46"/>
-      <c r="D296" s="46"/>
-      <c r="E296" s="46"/>
-      <c r="F296" s="46"/>
-      <c r="G296" s="46"/>
-      <c r="H296" s="46"/>
-      <c r="I296" s="47"/>
-      <c r="J296" s="49"/>
-      <c r="K296" s="48"/>
-      <c r="L296" s="48"/>
-      <c r="M296" s="48"/>
-      <c r="N296" s="48"/>
-      <c r="O296" s="48"/>
-      <c r="P296" s="48"/>
-      <c r="Q296" s="48"/>
-    </row>
-    <row r="297" spans="1:17">
-      <c r="B297" s="46" t="s">
-        <v>796</v>
-      </c>
-      <c r="C297" s="46"/>
-      <c r="D297" s="46"/>
-      <c r="E297" s="46"/>
-      <c r="F297" s="46"/>
-      <c r="G297" s="46"/>
-      <c r="H297" s="46"/>
-      <c r="I297" s="47"/>
-      <c r="J297" s="49"/>
-      <c r="K297" s="48"/>
-      <c r="L297" s="48"/>
-      <c r="M297" s="48"/>
-      <c r="N297" s="48"/>
-      <c r="O297" s="48"/>
-      <c r="P297" s="48"/>
-      <c r="Q297" s="48"/>
-    </row>
-    <row r="298" spans="1:17">
-      <c r="B298" s="46" t="s">
-        <v>797</v>
-      </c>
-      <c r="C298" s="46"/>
-      <c r="D298" s="46"/>
-      <c r="E298" s="46"/>
-      <c r="F298" s="46"/>
-      <c r="G298" s="46"/>
-      <c r="H298" s="46"/>
-      <c r="I298" s="47"/>
-      <c r="J298" s="49"/>
-      <c r="K298" s="48"/>
-      <c r="L298" s="48"/>
-      <c r="M298" s="48"/>
-      <c r="N298" s="48"/>
-      <c r="O298" s="48"/>
-      <c r="P298" s="48"/>
-      <c r="Q298" s="48"/>
-    </row>
-    <row r="299" spans="1:17">
-      <c r="B299" s="46" t="s">
-        <v>798</v>
-      </c>
-      <c r="C299" s="46"/>
-      <c r="D299" s="46"/>
-      <c r="E299" s="46"/>
-      <c r="F299" s="46"/>
-      <c r="G299" s="46"/>
-      <c r="H299" s="46"/>
-      <c r="I299" s="47"/>
-      <c r="J299" s="49"/>
-      <c r="K299" s="48" t="s">
-        <v>801</v>
-      </c>
-      <c r="L299" s="48"/>
-      <c r="M299" s="48"/>
-      <c r="N299" s="48"/>
-      <c r="O299" s="48"/>
-      <c r="P299" s="48"/>
-      <c r="Q299" s="48"/>
     </row>
     <row r="300" spans="1:17">
       <c r="B300" s="46" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C300" s="46"/>
       <c r="D300" s="46"/>
@@ -13767,9 +13872,7 @@
       <c r="H300" s="46"/>
       <c r="I300" s="47"/>
       <c r="J300" s="49"/>
-      <c r="K300" s="48" t="s">
-        <v>802</v>
-      </c>
+      <c r="K300" s="48"/>
       <c r="L300" s="48"/>
       <c r="M300" s="48"/>
       <c r="N300" s="48"/>
@@ -13779,7 +13882,7 @@
     </row>
     <row r="301" spans="1:17">
       <c r="B301" s="46" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C301" s="46"/>
       <c r="D301" s="46"/>
@@ -13789,9 +13892,7 @@
       <c r="H301" s="46"/>
       <c r="I301" s="47"/>
       <c r="J301" s="49"/>
-      <c r="K301" s="48" t="s">
-        <v>803</v>
-      </c>
+      <c r="K301" s="48"/>
       <c r="L301" s="48"/>
       <c r="M301" s="48"/>
       <c r="N301" s="48"/>
@@ -13799,626 +13900,683 @@
       <c r="P301" s="48"/>
       <c r="Q301" s="48"/>
     </row>
+    <row r="302" spans="1:17">
+      <c r="B302" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="C302" s="46"/>
+      <c r="D302" s="46"/>
+      <c r="E302" s="46"/>
+      <c r="F302" s="46"/>
+      <c r="G302" s="46"/>
+      <c r="H302" s="46"/>
+      <c r="I302" s="47"/>
+      <c r="J302" s="49"/>
+      <c r="K302" s="48"/>
+      <c r="L302" s="48"/>
+      <c r="M302" s="48"/>
+      <c r="N302" s="48"/>
+      <c r="O302" s="48"/>
+      <c r="P302" s="48"/>
+      <c r="Q302" s="48"/>
+    </row>
+    <row r="303" spans="1:17">
+      <c r="B303" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="C303" s="46"/>
+      <c r="D303" s="46"/>
+      <c r="E303" s="46"/>
+      <c r="F303" s="46"/>
+      <c r="G303" s="46"/>
+      <c r="H303" s="46"/>
+      <c r="I303" s="47"/>
+      <c r="J303" s="49"/>
+      <c r="K303" s="48" t="s">
+        <v>801</v>
+      </c>
+      <c r="L303" s="48"/>
+      <c r="M303" s="48"/>
+      <c r="N303" s="48"/>
+      <c r="O303" s="48"/>
+      <c r="P303" s="48"/>
+      <c r="Q303" s="48"/>
+    </row>
     <row r="304" spans="1:17">
-      <c r="B304" s="44" t="s">
+      <c r="B304" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="C304" s="46"/>
+      <c r="D304" s="46"/>
+      <c r="E304" s="46"/>
+      <c r="F304" s="46"/>
+      <c r="G304" s="46"/>
+      <c r="H304" s="46"/>
+      <c r="I304" s="47"/>
+      <c r="J304" s="49"/>
+      <c r="K304" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="L304" s="48"/>
+      <c r="M304" s="48"/>
+      <c r="N304" s="48"/>
+      <c r="O304" s="48"/>
+      <c r="P304" s="48"/>
+      <c r="Q304" s="48"/>
+    </row>
+    <row r="305" spans="1:17">
+      <c r="B305" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="C305" s="46"/>
+      <c r="D305" s="46"/>
+      <c r="E305" s="46"/>
+      <c r="F305" s="46"/>
+      <c r="G305" s="46"/>
+      <c r="H305" s="46"/>
+      <c r="I305" s="47"/>
+      <c r="J305" s="49"/>
+      <c r="K305" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="L305" s="48"/>
+      <c r="M305" s="48"/>
+      <c r="N305" s="48"/>
+      <c r="O305" s="48"/>
+      <c r="P305" s="48"/>
+      <c r="Q305" s="48"/>
+    </row>
+    <row r="308" spans="1:17">
+      <c r="B308" s="44" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
-      <c r="C306" t="s">
+    <row r="310" spans="1:17">
+      <c r="C310" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
-      <c r="C307" t="s">
+    <row r="311" spans="1:17">
+      <c r="C311" t="s">
         <v>808</v>
       </c>
-      <c r="I307" t="s">
+      <c r="I311" t="s">
         <v>810</v>
       </c>
-      <c r="J307" t="s">
+      <c r="J311" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
-      <c r="C308" t="s">
+    <row r="312" spans="1:17">
+      <c r="C312" t="s">
         <v>809</v>
       </c>
-      <c r="I308" t="s">
+      <c r="I312" t="s">
         <v>811</v>
       </c>
-      <c r="J308" s="50" t="s">
+      <c r="J312" s="50" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
-      <c r="A311" s="36" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10">
-      <c r="C313" s="51" t="s">
+    <row r="315" spans="1:17">
+      <c r="A315" s="36" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17">
+      <c r="C317" s="51" t="s">
         <v>815</v>
       </c>
-      <c r="D313" s="18"/>
-      <c r="E313" s="18"/>
-      <c r="F313" s="18"/>
-    </row>
-    <row r="314" spans="1:10">
-      <c r="C314" s="18" t="s">
+      <c r="D317" s="18"/>
+      <c r="E317" s="18"/>
+      <c r="F317" s="18"/>
+    </row>
+    <row r="318" spans="1:17">
+      <c r="C318" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="D314" s="18"/>
-      <c r="E314" s="18"/>
-      <c r="F314" s="18"/>
-    </row>
-    <row r="315" spans="1:10">
-      <c r="C315" s="51" t="s">
+      <c r="D318" s="18"/>
+      <c r="E318" s="18"/>
+      <c r="F318" s="18"/>
+    </row>
+    <row r="319" spans="1:17">
+      <c r="C319" s="51" t="s">
         <v>817</v>
       </c>
-      <c r="D315" s="18"/>
-      <c r="E315" s="18"/>
-      <c r="F315" s="18"/>
-    </row>
-    <row r="317" spans="1:10">
-      <c r="A317" s="36" t="s">
+      <c r="D319" s="18"/>
+      <c r="E319" s="18"/>
+      <c r="F319" s="18"/>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="36" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
-      <c r="B319" t="s">
+    <row r="323" spans="1:8">
+      <c r="B323" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
-      <c r="C320" t="s">
+    <row r="324" spans="1:8">
+      <c r="C324" t="s">
         <v>819</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E324" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
-      <c r="C321" t="s">
+    <row r="325" spans="1:8">
+      <c r="C325" t="s">
         <v>820</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E325" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
-      <c r="C322" t="s">
+    <row r="326" spans="1:8">
+      <c r="C326" t="s">
         <v>821</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E326" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
-      <c r="C323" s="52" t="s">
+    <row r="327" spans="1:8">
+      <c r="C327" s="52" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
-      <c r="C324" s="52"/>
-    </row>
-    <row r="325" spans="1:10">
-      <c r="C325" s="52" t="s">
+    <row r="328" spans="1:8">
+      <c r="C328" s="52"/>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="C329" s="52" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="H330" s="52" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="H331" s="52" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="H332" s="52" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
-      <c r="H326" s="52" t="s">
+    <row r="333" spans="1:8">
+      <c r="G333" s="52" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
-      <c r="H327" s="52" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10">
-      <c r="H328" s="52" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10">
-      <c r="G329" s="52" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10">
-      <c r="C330" s="52"/>
-    </row>
-    <row r="332" spans="1:10">
-      <c r="A332" s="36" t="s">
+    <row r="334" spans="1:8">
+      <c r="C334" s="52"/>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="36" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
-      <c r="B334" t="s">
+    <row r="338" spans="2:10">
+      <c r="B338" t="s">
         <v>827</v>
       </c>
-      <c r="I334" t="s">
+      <c r="I338" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
-      <c r="C335" t="s">
+    <row r="339" spans="2:10">
+      <c r="C339" t="s">
         <v>828</v>
       </c>
-      <c r="J335" t="s">
+      <c r="J339" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
-      <c r="C336" t="s">
+    <row r="340" spans="2:10">
+      <c r="C340" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="337" spans="2:7">
-      <c r="C337" t="s">
+    <row r="341" spans="2:10">
+      <c r="C341" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="338" spans="2:7">
-      <c r="C338" t="s">
+    <row r="342" spans="2:10">
+      <c r="C342" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="339" spans="2:7">
-      <c r="C339" t="s">
+    <row r="343" spans="2:10">
+      <c r="C343" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="342" spans="2:7">
-      <c r="B342" t="s">
+    <row r="345" spans="2:10">
+      <c r="B345" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="347" spans="2:10">
+      <c r="B347" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="344" spans="2:7">
-      <c r="C344" t="s">
+    <row r="349" spans="2:10">
+      <c r="C349" t="s">
         <v>836</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G349" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="346" spans="2:7">
-      <c r="C346" t="s">
+    <row r="351" spans="2:10">
+      <c r="C351" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="349" spans="2:7">
-      <c r="C349" t="s">
+    <row r="354" spans="3:10">
+      <c r="C354" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="351" spans="2:7">
-      <c r="D351" s="22" t="s">
+    <row r="356" spans="3:10">
+      <c r="D356" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="E351" s="18"/>
-      <c r="F351" s="18"/>
-      <c r="G351" s="18"/>
-    </row>
-    <row r="352" spans="2:7">
-      <c r="D352" s="22" t="s">
+      <c r="E356" s="18"/>
+      <c r="F356" s="18"/>
+      <c r="G356" s="18"/>
+    </row>
+    <row r="357" spans="3:10">
+      <c r="D357" s="22" t="s">
         <v>841</v>
       </c>
-      <c r="E352" s="18"/>
-      <c r="F352" s="18"/>
-      <c r="G352" s="18"/>
-    </row>
-    <row r="353" spans="2:10">
-      <c r="D353" s="22" t="s">
+      <c r="E357" s="18"/>
+      <c r="F357" s="18"/>
+      <c r="G357" s="18"/>
+    </row>
+    <row r="358" spans="3:10">
+      <c r="D358" s="22" t="s">
         <v>842</v>
-      </c>
-      <c r="E353" s="18"/>
-      <c r="F353" s="18"/>
-      <c r="G353" s="18"/>
-    </row>
-    <row r="354" spans="2:10">
-      <c r="D354" s="22" t="s">
-        <v>843</v>
-      </c>
-      <c r="E354" s="18"/>
-      <c r="F354" s="18"/>
-      <c r="G354" s="18"/>
-      <c r="I354" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="356" spans="2:10">
-      <c r="C356" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="358" spans="2:10">
-      <c r="D358" s="22" t="s">
-        <v>846</v>
       </c>
       <c r="E358" s="18"/>
       <c r="F358" s="18"/>
       <c r="G358" s="18"/>
-      <c r="H358" s="18"/>
-      <c r="I358" s="18"/>
-    </row>
-    <row r="359" spans="2:10">
+    </row>
+    <row r="359" spans="3:10">
       <c r="D359" s="22" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E359" s="18"/>
       <c r="F359" s="18"/>
       <c r="G359" s="18"/>
-      <c r="H359" s="18"/>
-      <c r="I359" s="18"/>
-    </row>
-    <row r="360" spans="2:10">
-      <c r="D360" s="22" t="s">
-        <v>842</v>
-      </c>
-      <c r="E360" s="18"/>
-      <c r="F360" s="18"/>
-      <c r="G360" s="18"/>
-      <c r="H360" s="18"/>
-      <c r="I360" s="18"/>
-      <c r="J360" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="361" spans="2:10">
-      <c r="D361" s="22"/>
-      <c r="E361" s="18"/>
-      <c r="F361" s="18"/>
-      <c r="G361" s="18"/>
-      <c r="H361" s="18"/>
-      <c r="I361" s="18"/>
-    </row>
-    <row r="362" spans="2:10">
-      <c r="D362" s="22" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E362" s="18"/>
-      <c r="F362" s="18"/>
-      <c r="G362" s="18"/>
-      <c r="H362" s="18"/>
-      <c r="I362" s="18"/>
-    </row>
-    <row r="363" spans="2:10">
+      <c r="I359" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="361" spans="3:10">
+      <c r="C361" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="363" spans="3:10">
       <c r="D363" s="22" t="s">
-        <v>1371</v>
+        <v>846</v>
       </c>
       <c r="E363" s="18"/>
       <c r="F363" s="18"/>
-      <c r="G363" s="18" t="s">
-        <v>1372</v>
-      </c>
+      <c r="G363" s="18"/>
       <c r="H363" s="18"/>
       <c r="I363" s="18"/>
     </row>
-    <row r="365" spans="2:10">
-      <c r="B365" t="s">
+    <row r="364" spans="3:10">
+      <c r="D364" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E364" s="18"/>
+      <c r="F364" s="18"/>
+      <c r="G364" s="18"/>
+      <c r="H364" s="18"/>
+      <c r="I364" s="18"/>
+    </row>
+    <row r="365" spans="3:10">
+      <c r="D365" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="E365" s="18"/>
+      <c r="F365" s="18"/>
+      <c r="G365" s="18"/>
+      <c r="H365" s="18"/>
+      <c r="I365" s="18"/>
+      <c r="J365" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="366" spans="3:10">
+      <c r="D366" s="22"/>
+      <c r="E366" s="18"/>
+      <c r="F366" s="18"/>
+      <c r="G366" s="18"/>
+      <c r="H366" s="18"/>
+      <c r="I366" s="18"/>
+    </row>
+    <row r="367" spans="3:10">
+      <c r="D367" s="22" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E367" s="18"/>
+      <c r="F367" s="18"/>
+      <c r="G367" s="18"/>
+      <c r="H367" s="18"/>
+      <c r="I367" s="18"/>
+    </row>
+    <row r="368" spans="3:10">
+      <c r="D368" s="22" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E368" s="18"/>
+      <c r="F368" s="18"/>
+      <c r="G368" s="18" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H368" s="18"/>
+      <c r="I368" s="18"/>
+    </row>
+    <row r="370" spans="2:7">
+      <c r="B370" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="367" spans="2:10">
-      <c r="C367" t="s">
+    <row r="372" spans="2:7">
+      <c r="C372" t="s">
         <v>850</v>
       </c>
-      <c r="G367" t="s">
+      <c r="G372" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="369" spans="3:25">
-      <c r="C369" t="s">
+    <row r="374" spans="2:7">
+      <c r="C374" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="371" spans="3:25">
-      <c r="C371" s="36" t="s">
+    <row r="376" spans="2:7">
+      <c r="C376" s="36" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="377" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="378" spans="2:7" ht="14.25" customHeight="1">
+      <c r="D378" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7" ht="14.25" customHeight="1">
+      <c r="D379" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="380" spans="2:7" ht="14.25" customHeight="1">
+      <c r="D380" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="372" spans="3:25" ht="14.25" customHeight="1"/>
-    <row r="373" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D373" t="s">
+    <row r="381" spans="2:7" ht="14.25" customHeight="1">
+      <c r="D381" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="374" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D374" t="s">
+    <row r="382" spans="2:7" ht="14.25" customHeight="1">
+      <c r="D382" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="375" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D375" t="s">
+    <row r="383" spans="2:7" ht="14.25" customHeight="1">
+      <c r="D383" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="376" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D376" t="s">
+    <row r="384" spans="2:7" ht="14.25" customHeight="1">
+      <c r="D384" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="377" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D377" t="s">
+    <row r="385" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D385" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="378" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D378" t="s">
+    <row r="386" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D386" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="379" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D379" t="s">
+    <row r="387" spans="3:25" ht="14.25" customHeight="1"/>
+    <row r="388" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D388" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="380" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D380" t="s">
+      <c r="I388" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="389" spans="3:25" ht="14.25" customHeight="1">
+      <c r="D389" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="381" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D381" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="382" spans="3:25" ht="14.25" customHeight="1"/>
-    <row r="383" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D383" t="s">
+      <c r="I389" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J389" s="61"/>
+      <c r="K389" s="61"/>
+      <c r="L389" s="61"/>
+      <c r="M389" s="61"/>
+      <c r="N389" s="61"/>
+      <c r="O389" s="61"/>
+      <c r="P389" s="61"/>
+      <c r="Q389" s="61"/>
+      <c r="R389" s="61"/>
+      <c r="S389" s="61"/>
+      <c r="T389" s="61"/>
+      <c r="U389" s="61"/>
+      <c r="V389" s="61"/>
+      <c r="W389" s="61"/>
+      <c r="X389" s="61"/>
+      <c r="Y389" s="61"/>
+    </row>
+    <row r="390" spans="3:25" ht="14.25" customHeight="1">
+      <c r="I390" s="61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J390" s="61"/>
+      <c r="K390" s="61"/>
+      <c r="L390" s="61"/>
+      <c r="M390" s="61"/>
+      <c r="N390" s="61"/>
+      <c r="O390" s="61"/>
+      <c r="P390" s="61"/>
+      <c r="Q390" s="61"/>
+      <c r="R390" s="61"/>
+      <c r="S390" s="61"/>
+      <c r="T390" s="61"/>
+      <c r="U390" s="61"/>
+      <c r="V390" s="61"/>
+      <c r="W390" s="61"/>
+      <c r="X390" s="61"/>
+      <c r="Y390" s="61"/>
+    </row>
+    <row r="391" spans="3:25">
+      <c r="I391" s="61" t="s">
         <v>1217</v>
       </c>
-      <c r="I383" t="s">
+      <c r="J391" s="61"/>
+      <c r="K391" s="61"/>
+      <c r="L391" s="61"/>
+      <c r="M391" s="61"/>
+      <c r="N391" s="61"/>
+      <c r="O391" s="61"/>
+      <c r="P391" s="61"/>
+      <c r="Q391" s="61"/>
+      <c r="R391" s="61"/>
+      <c r="S391" s="61"/>
+      <c r="T391" s="61"/>
+      <c r="U391" s="61"/>
+      <c r="V391" s="61"/>
+      <c r="W391" s="61"/>
+      <c r="X391" s="61"/>
+      <c r="Y391" s="61"/>
+    </row>
+    <row r="393" spans="3:25">
+      <c r="D393" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="394" spans="3:25">
+      <c r="C394" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="384" spans="3:25" ht="14.25" customHeight="1">
-      <c r="D384" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I384" s="61" t="s">
+    <row r="396" spans="3:25">
+      <c r="D396" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="397" spans="3:25">
+      <c r="E397" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="398" spans="3:25">
+      <c r="N398" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="399" spans="3:25">
+      <c r="F399" t="s">
+        <v>1132</v>
+      </c>
+      <c r="N399" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="400" spans="3:25">
+      <c r="N400" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="401" spans="2:14">
+      <c r="F401" t="s">
         <v>1221</v>
       </c>
-      <c r="J384" s="61"/>
-      <c r="K384" s="61"/>
-      <c r="L384" s="61"/>
-      <c r="M384" s="61"/>
-      <c r="N384" s="61"/>
-      <c r="O384" s="61"/>
-      <c r="P384" s="61"/>
-      <c r="Q384" s="61"/>
-      <c r="R384" s="61"/>
-      <c r="S384" s="61"/>
-      <c r="T384" s="61"/>
-      <c r="U384" s="61"/>
-      <c r="V384" s="61"/>
-      <c r="W384" s="61"/>
-      <c r="X384" s="61"/>
-      <c r="Y384" s="61"/>
-    </row>
-    <row r="385" spans="3:25" ht="14.25" customHeight="1">
-      <c r="I385" s="61" t="s">
-        <v>1307</v>
-      </c>
-      <c r="J385" s="61"/>
-      <c r="K385" s="61"/>
-      <c r="L385" s="61"/>
-      <c r="M385" s="61"/>
-      <c r="N385" s="61"/>
-      <c r="O385" s="61"/>
-      <c r="P385" s="61"/>
-      <c r="Q385" s="61"/>
-      <c r="R385" s="61"/>
-      <c r="S385" s="61"/>
-      <c r="T385" s="61"/>
-      <c r="U385" s="61"/>
-      <c r="V385" s="61"/>
-      <c r="W385" s="61"/>
-      <c r="X385" s="61"/>
-      <c r="Y385" s="61"/>
-    </row>
-    <row r="386" spans="3:25">
-      <c r="I386" s="61" t="s">
-        <v>1220</v>
-      </c>
-      <c r="J386" s="61"/>
-      <c r="K386" s="61"/>
-      <c r="L386" s="61"/>
-      <c r="M386" s="61"/>
-      <c r="N386" s="61"/>
-      <c r="O386" s="61"/>
-      <c r="P386" s="61"/>
-      <c r="Q386" s="61"/>
-      <c r="R386" s="61"/>
-      <c r="S386" s="61"/>
-      <c r="T386" s="61"/>
-      <c r="U386" s="61"/>
-      <c r="V386" s="61"/>
-      <c r="W386" s="61"/>
-      <c r="X386" s="61"/>
-      <c r="Y386" s="61"/>
-    </row>
-    <row r="388" spans="3:25">
-      <c r="D388" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="389" spans="3:25">
-      <c r="C389" t="s">
+      <c r="N401" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="402" spans="2:14">
+      <c r="H402" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="391" spans="3:25">
-      <c r="D391" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="392" spans="3:25">
-      <c r="E392" t="s">
+      <c r="N402" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="403" spans="2:14">
+      <c r="I403" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="393" spans="3:25">
-      <c r="N393" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="394" spans="3:25">
-      <c r="F394" t="s">
-        <v>1135</v>
-      </c>
-      <c r="N394" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="395" spans="3:25">
-      <c r="N395" t="s">
+      <c r="N403" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="396" spans="3:25">
-      <c r="F396" t="s">
+    <row r="404" spans="2:14">
+      <c r="I404" t="s">
         <v>1224</v>
       </c>
-      <c r="N396" t="s">
+      <c r="N404" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="397" spans="3:25">
-      <c r="H397" t="s">
+    <row r="405" spans="2:14">
+      <c r="I405" t="s">
         <v>1225</v>
       </c>
-      <c r="N397" t="s">
+      <c r="N405" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="398" spans="3:25">
-      <c r="I398" t="s">
+    <row r="406" spans="2:14">
+      <c r="H406" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="407" spans="2:14">
+      <c r="H407" t="s">
         <v>1226</v>
       </c>
-      <c r="N398" t="s">
+    </row>
+    <row r="408" spans="2:14">
+      <c r="I408" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="409" spans="2:14">
+      <c r="E409" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="411" spans="2:14">
+      <c r="B411" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="399" spans="3:25">
-      <c r="I399" t="s">
-        <v>1227</v>
-      </c>
-      <c r="N399" t="s">
+    <row r="412" spans="2:14">
+      <c r="C412" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="400" spans="3:25">
-      <c r="I400" t="s">
-        <v>1228</v>
-      </c>
-      <c r="N400" t="s">
+    <row r="413" spans="2:14">
+      <c r="C413" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="414" spans="2:14">
+      <c r="C414" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="415" spans="2:14">
+      <c r="D415" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="401" spans="2:13">
-      <c r="H401" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="402" spans="2:13">
-      <c r="H402" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="403" spans="2:13">
-      <c r="I403" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="404" spans="2:13">
-      <c r="E404" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="406" spans="2:13">
-      <c r="B406" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="407" spans="2:13">
-      <c r="C407" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="408" spans="2:13">
-      <c r="C408" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="409" spans="2:13">
-      <c r="C409" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="410" spans="2:13">
-      <c r="D410" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="411" spans="2:13">
-      <c r="D411" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="412" spans="2:13">
-      <c r="D412" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="413" spans="2:13">
-      <c r="D413" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="414" spans="2:13">
-      <c r="D414" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="415" spans="2:13">
-      <c r="D415" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="416" spans="2:13">
+    <row r="416" spans="2:14">
       <c r="D416" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L416" t="b">
-        <v>1</v>
-      </c>
-      <c r="M416" t="s">
-        <v>1252</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="417" spans="1:13">
       <c r="D417" t="s">
-        <v>1244</v>
-      </c>
-      <c r="L417" t="b">
-        <v>0</v>
-      </c>
-      <c r="M417" t="s">
-        <v>1251</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="418" spans="1:13">
       <c r="D418" t="s">
-        <v>1245</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="419" spans="1:13">
       <c r="D419" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="420" spans="1:13">
@@ -14428,111 +14586,98 @@
     </row>
     <row r="421" spans="1:13">
       <c r="D421" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="L421" t="b">
         <v>1</v>
       </c>
       <c r="M421" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="422" spans="1:13">
       <c r="D422" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="L422" t="b">
+        <v>0</v>
+      </c>
+      <c r="M422" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13">
+      <c r="D423" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13">
+      <c r="D424" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13">
+      <c r="D425" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13">
+      <c r="D426" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L426" t="b">
         <v>1</v>
       </c>
-      <c r="M422" t="s">
+      <c r="M426" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13">
+      <c r="D427" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L427" t="b">
+        <v>1</v>
+      </c>
+      <c r="M427" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13">
+      <c r="A429" s="36" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13">
+      <c r="B431" s="39" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="424" spans="1:13">
-      <c r="A424" s="36" t="s">
+      <c r="C431" s="39"/>
+      <c r="D431" s="39"/>
+      <c r="E431" s="39"/>
+      <c r="F431" s="39"/>
+      <c r="G431" s="39"/>
+      <c r="H431" s="39"/>
+      <c r="I431" s="39"/>
+    </row>
+    <row r="433" spans="3:9">
+      <c r="C433" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="434" spans="3:9">
+      <c r="D434" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
-      <c r="B426" s="39" t="s">
+    <row r="435" spans="3:9">
+      <c r="D435" t="s">
         <v>1256</v>
       </c>
-      <c r="C426" s="39"/>
-      <c r="D426" s="39"/>
-      <c r="E426" s="39"/>
-      <c r="F426" s="39"/>
-      <c r="G426" s="39"/>
-      <c r="H426" s="39"/>
-      <c r="I426" s="39"/>
-    </row>
-    <row r="428" spans="1:13">
-      <c r="C428" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13">
-      <c r="D429" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13">
-      <c r="D430" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13">
-      <c r="D431" s="59" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E431" s="59"/>
-      <c r="F431" s="59"/>
-      <c r="G431" s="59"/>
-      <c r="H431" s="59"/>
-      <c r="I431" s="59"/>
-    </row>
-    <row r="432" spans="1:13">
-      <c r="D432" s="59" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E432" s="59"/>
-      <c r="F432" s="59"/>
-      <c r="G432" s="59"/>
-      <c r="H432" s="59"/>
-      <c r="I432" s="59"/>
-    </row>
-    <row r="433" spans="3:9">
-      <c r="D433" s="59"/>
-      <c r="E433" s="59" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F433" s="59"/>
-      <c r="G433" s="59"/>
-      <c r="H433" s="59"/>
-      <c r="I433" s="59"/>
-    </row>
-    <row r="434" spans="3:9">
-      <c r="D434" s="59"/>
-      <c r="E434" s="59" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F434" s="59"/>
-      <c r="G434" s="59"/>
-      <c r="H434" s="59"/>
-      <c r="I434" s="59"/>
-    </row>
-    <row r="435" spans="3:9">
-      <c r="D435" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E435" s="59"/>
-      <c r="F435" s="59"/>
-      <c r="G435" s="59"/>
-      <c r="H435" s="59"/>
-      <c r="I435" s="59"/>
     </row>
     <row r="436" spans="3:9">
       <c r="D436" s="59" t="s">
-        <v>1229</v>
+        <v>1257</v>
       </c>
       <c r="E436" s="59"/>
       <c r="F436" s="59"/>
@@ -14541,251 +14686,256 @@
       <c r="I436" s="59"/>
     </row>
     <row r="437" spans="3:9">
-      <c r="D437" s="59"/>
-      <c r="E437" s="59" t="s">
-        <v>1230</v>
-      </c>
+      <c r="D437" s="59" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E437" s="59"/>
       <c r="F437" s="59"/>
       <c r="G437" s="59"/>
       <c r="H437" s="59"/>
       <c r="I437" s="59"/>
     </row>
     <row r="438" spans="3:9">
-      <c r="D438" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E438" s="59"/>
+      <c r="D438" s="59"/>
+      <c r="E438" s="59" t="s">
+        <v>1259</v>
+      </c>
       <c r="F438" s="59"/>
       <c r="G438" s="59"/>
       <c r="H438" s="59"/>
       <c r="I438" s="59"/>
     </row>
     <row r="439" spans="3:9">
-      <c r="C439" t="s">
+      <c r="D439" s="59"/>
+      <c r="E439" s="59" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F439" s="59"/>
+      <c r="G439" s="59"/>
+      <c r="H439" s="59"/>
+      <c r="I439" s="59"/>
+    </row>
+    <row r="440" spans="3:9">
+      <c r="D440" s="59" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="440" spans="3:9">
-      <c r="C440" t="s">
-        <v>1264</v>
-      </c>
+      <c r="E440" s="59"/>
+      <c r="F440" s="59"/>
+      <c r="G440" s="59"/>
+      <c r="H440" s="59"/>
+      <c r="I440" s="59"/>
+    </row>
+    <row r="441" spans="3:9">
+      <c r="D441" s="59" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E441" s="59"/>
+      <c r="F441" s="59"/>
+      <c r="G441" s="59"/>
+      <c r="H441" s="59"/>
+      <c r="I441" s="59"/>
     </row>
     <row r="442" spans="3:9">
-      <c r="C442" t="s">
-        <v>1265</v>
-      </c>
+      <c r="D442" s="59"/>
+      <c r="E442" s="59" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F442" s="59"/>
+      <c r="G442" s="59"/>
+      <c r="H442" s="59"/>
+      <c r="I442" s="59"/>
+    </row>
+    <row r="443" spans="3:9">
+      <c r="D443" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E443" s="59"/>
+      <c r="F443" s="59"/>
+      <c r="G443" s="59"/>
+      <c r="H443" s="59"/>
+      <c r="I443" s="59"/>
     </row>
     <row r="444" spans="3:9">
-      <c r="D444" t="s">
-        <v>1266</v>
+      <c r="C444" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="445" spans="3:9">
-      <c r="E445" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="446" spans="3:9">
-      <c r="F446" t="s">
-        <v>1267</v>
+      <c r="C445" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="447" spans="3:9">
-      <c r="F447" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="448" spans="3:9">
-      <c r="F448" t="s">
-        <v>1269</v>
+      <c r="C447" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="449" spans="3:11">
-      <c r="F449" t="s">
-        <v>1270</v>
+      <c r="D449" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="450" spans="3:11">
-      <c r="F450" t="s">
-        <v>1271</v>
+      <c r="E450" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="451" spans="3:11">
       <c r="F451" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="452" spans="3:11">
-      <c r="F452" s="36" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G452" s="36"/>
-      <c r="H452" s="36"/>
-      <c r="I452" s="36"/>
-      <c r="K452" t="s">
-        <v>1274</v>
+      <c r="F452" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="453" spans="3:11">
-      <c r="E453" t="s">
+      <c r="F453" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="454" spans="3:11">
+      <c r="F454" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="455" spans="3:11">
+      <c r="F455" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="456" spans="3:11">
+      <c r="F456" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="457" spans="3:11">
+      <c r="F457" s="36" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G457" s="36"/>
+      <c r="H457" s="36"/>
+      <c r="I457" s="36"/>
+      <c r="K457" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="458" spans="3:11">
+      <c r="E458" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="454" spans="3:11">
-      <c r="D454" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="456" spans="3:11">
-      <c r="C456" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="458" spans="3:11">
-      <c r="D458" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="459" spans="3:11">
       <c r="D459" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="460" spans="3:11">
-      <c r="D460" t="s">
-        <v>1278</v>
+        <v>45</v>
       </c>
     </row>
     <row r="461" spans="3:11">
-      <c r="D461" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="462" spans="3:11">
-      <c r="D462" t="s">
-        <v>1280</v>
+      <c r="C461" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="463" spans="3:11">
       <c r="D463" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="464" spans="3:11">
       <c r="D464" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="465" spans="1:10">
       <c r="D465" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="466" spans="1:10">
       <c r="D466" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10">
+      <c r="D467" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10">
+      <c r="D468" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10">
+      <c r="D469" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10">
+      <c r="D470" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10">
+      <c r="D471" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
-      <c r="D468" s="36" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E468" s="36"/>
-      <c r="F468" s="36"/>
-      <c r="G468" s="36"/>
-      <c r="H468" s="36" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I468" s="36"/>
-      <c r="J468" s="36"/>
-    </row>
-    <row r="470" spans="1:10">
-      <c r="A470" s="36" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="472" spans="1:10">
-      <c r="B472" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D472" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="474" spans="1:10">
-      <c r="D474" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="478" spans="1:10">
-      <c r="B478" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="481" spans="2:7">
-      <c r="D481" t="s">
-        <v>1190</v>
+    <row r="473" spans="1:10">
+      <c r="D473" s="36" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E473" s="36"/>
+      <c r="F473" s="36"/>
+      <c r="G473" s="36"/>
+      <c r="H473" s="36" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I473" s="36"/>
+      <c r="J473" s="36"/>
+    </row>
+    <row r="475" spans="1:10">
+      <c r="A475" s="36" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10">
+      <c r="B477" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10">
+      <c r="D479" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="483" spans="2:7">
       <c r="B483" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="D483" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="485" spans="2:7">
-      <c r="C485" s="58" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D485" s="43"/>
-      <c r="E485" s="43"/>
-      <c r="F485" s="43"/>
-      <c r="G485" s="43"/>
+        <v>1186</v>
+      </c>
     </row>
     <row r="486" spans="2:7">
-      <c r="C486" s="58" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D486" s="43"/>
-      <c r="E486" s="43"/>
-      <c r="F486" s="43"/>
-      <c r="G486" s="43"/>
-    </row>
-    <row r="487" spans="2:7">
-      <c r="C487" s="58" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D487" s="43"/>
-      <c r="E487" s="43"/>
-      <c r="F487" s="43"/>
-      <c r="G487" s="43"/>
+      <c r="D486" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="488" spans="2:7">
-      <c r="C488" s="58" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D488" s="43"/>
-      <c r="E488" s="43"/>
-      <c r="F488" s="43"/>
-      <c r="G488" s="43"/>
-    </row>
-    <row r="489" spans="2:7">
-      <c r="C489" s="58" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D489" s="43"/>
-      <c r="E489" s="43"/>
-      <c r="F489" s="43"/>
-      <c r="G489" s="43"/>
+      <c r="B488" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1189</v>
+      </c>
     </row>
     <row r="490" spans="2:7">
       <c r="C490" s="58" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="D490" s="43"/>
       <c r="E490" s="43"/>
@@ -14794,7 +14944,7 @@
     </row>
     <row r="491" spans="2:7">
       <c r="C491" s="58" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="D491" s="43"/>
       <c r="E491" s="43"/>
@@ -14803,7 +14953,7 @@
     </row>
     <row r="492" spans="2:7">
       <c r="C492" s="58" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D492" s="43"/>
       <c r="E492" s="43"/>
@@ -14812,7 +14962,7 @@
     </row>
     <row r="493" spans="2:7">
       <c r="C493" s="58" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="D493" s="43"/>
       <c r="E493" s="43"/>
@@ -14821,7 +14971,7 @@
     </row>
     <row r="494" spans="2:7">
       <c r="C494" s="58" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="D494" s="43"/>
       <c r="E494" s="43"/>
@@ -14830,16 +14980,16 @@
     </row>
     <row r="495" spans="2:7">
       <c r="C495" s="58" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="D495" s="43"/>
       <c r="E495" s="43"/>
       <c r="F495" s="43"/>
       <c r="G495" s="43"/>
     </row>
-    <row r="496" spans="2:7" ht="14.25" customHeight="1">
+    <row r="496" spans="2:7">
       <c r="C496" s="58" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D496" s="43"/>
       <c r="E496" s="43"/>
@@ -14848,7 +14998,7 @@
     </row>
     <row r="497" spans="1:7">
       <c r="C497" s="58" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="D497" s="43"/>
       <c r="E497" s="43"/>
@@ -14857,506 +15007,492 @@
     </row>
     <row r="498" spans="1:7">
       <c r="C498" s="58" t="s">
-        <v>45</v>
+        <v>1199</v>
       </c>
       <c r="D498" s="43"/>
       <c r="E498" s="43"/>
       <c r="F498" s="43"/>
       <c r="G498" s="43"/>
     </row>
-    <row r="507" spans="1:7">
-      <c r="A507" s="36" t="s">
+    <row r="499" spans="1:7">
+      <c r="C499" s="58" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D499" s="43"/>
+      <c r="E499" s="43"/>
+      <c r="F499" s="43"/>
+      <c r="G499" s="43"/>
+    </row>
+    <row r="500" spans="1:7">
+      <c r="C500" s="58" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D500" s="43"/>
+      <c r="E500" s="43"/>
+      <c r="F500" s="43"/>
+      <c r="G500" s="43"/>
+    </row>
+    <row r="501" spans="1:7" ht="14.25" customHeight="1">
+      <c r="C501" s="58" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D501" s="43"/>
+      <c r="E501" s="43"/>
+      <c r="F501" s="43"/>
+      <c r="G501" s="43"/>
+    </row>
+    <row r="502" spans="1:7">
+      <c r="C502" s="58" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D502" s="43"/>
+      <c r="E502" s="43"/>
+      <c r="F502" s="43"/>
+      <c r="G502" s="43"/>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="C503" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D503" s="43"/>
+      <c r="E503" s="43"/>
+      <c r="F503" s="43"/>
+      <c r="G503" s="43"/>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512" s="36" t="s">
         <v>853</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
-      <c r="B509" t="s">
-        <v>854</v>
-      </c>
-      <c r="D509" t="s">
-        <v>855</v>
-      </c>
-      <c r="F509" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
-      <c r="B511" t="s">
-        <v>82</v>
-      </c>
-      <c r="D511" t="s">
-        <v>857</v>
-      </c>
-      <c r="F511" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7">
-      <c r="B512" t="s">
-        <v>858</v>
-      </c>
-      <c r="D512" t="s">
-        <v>859</v>
-      </c>
-      <c r="F512" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="513" spans="2:6">
-      <c r="B513" t="s">
-        <v>86</v>
-      </c>
-      <c r="D513" t="s">
-        <v>860</v>
-      </c>
-      <c r="F513" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" t="s">
-        <v>409</v>
+        <v>854</v>
       </c>
       <c r="D514" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F514" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="515" spans="2:6">
-      <c r="B515" t="s">
-        <v>410</v>
-      </c>
-      <c r="D515" t="s">
-        <v>862</v>
-      </c>
-      <c r="F515" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
     </row>
     <row r="516" spans="2:6">
       <c r="B516" t="s">
-        <v>863</v>
+        <v>82</v>
       </c>
       <c r="D516" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="F516" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D517" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="F517" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="518" spans="2:6">
       <c r="B518" t="s">
-        <v>867</v>
+        <v>86</v>
       </c>
       <c r="D518" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="F518" t="s">
-        <v>876</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="519" spans="2:6">
+      <c r="B519" t="s">
+        <v>409</v>
+      </c>
+      <c r="D519" t="s">
+        <v>861</v>
+      </c>
+      <c r="F519" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="520" spans="2:6">
+      <c r="B520" t="s">
+        <v>410</v>
+      </c>
+      <c r="D520" t="s">
+        <v>862</v>
+      </c>
+      <c r="F520" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="521" spans="2:6">
       <c r="B521" t="s">
+        <v>863</v>
+      </c>
+      <c r="D521" t="s">
+        <v>864</v>
+      </c>
+      <c r="F521" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="522" spans="2:6">
+      <c r="B522" t="s">
+        <v>865</v>
+      </c>
+      <c r="D522" t="s">
+        <v>866</v>
+      </c>
+      <c r="F522" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="523" spans="2:6">
+      <c r="B523" t="s">
+        <v>867</v>
+      </c>
+      <c r="D523" t="s">
+        <v>868</v>
+      </c>
+      <c r="F523" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="526" spans="2:6">
+      <c r="B526" t="s">
         <v>877</v>
-      </c>
-    </row>
-    <row r="523" spans="2:6">
-      <c r="C523" t="s">
-        <v>878</v>
-      </c>
-      <c r="E523" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="525" spans="2:6">
-      <c r="C525" t="s">
-        <v>857</v>
-      </c>
-      <c r="E525" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="526" spans="2:6">
-      <c r="C526" t="s">
-        <v>859</v>
-      </c>
-      <c r="E526" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="527" spans="2:6">
-      <c r="C527" t="s">
-        <v>860</v>
-      </c>
-      <c r="E527" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="528" spans="2:6">
       <c r="C528" t="s">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="E528" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="529" spans="3:15">
-      <c r="C529" t="s">
-        <v>884</v>
-      </c>
-      <c r="E529" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="530" spans="3:15">
       <c r="C530" t="s">
-        <v>886</v>
+        <v>857</v>
       </c>
       <c r="E530" t="s">
-        <v>887</v>
-      </c>
-      <c r="J530" t="s">
-        <v>888</v>
-      </c>
-      <c r="O530" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="531" spans="3:15">
       <c r="C531" t="s">
+        <v>859</v>
+      </c>
+      <c r="E531" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="532" spans="3:15">
+      <c r="C532" t="s">
+        <v>860</v>
+      </c>
+      <c r="E532" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="533" spans="3:15">
+      <c r="C533" t="s">
+        <v>861</v>
+      </c>
+      <c r="E533" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="534" spans="3:15">
+      <c r="C534" t="s">
+        <v>884</v>
+      </c>
+      <c r="E534" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="535" spans="3:15">
+      <c r="C535" t="s">
+        <v>886</v>
+      </c>
+      <c r="E535" t="s">
+        <v>887</v>
+      </c>
+      <c r="J535" t="s">
+        <v>888</v>
+      </c>
+      <c r="O535" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="536" spans="3:15">
+      <c r="C536" t="s">
         <v>866</v>
       </c>
-      <c r="E531" t="s">
+      <c r="E536" t="s">
         <v>890</v>
       </c>
-      <c r="J531" t="s">
+      <c r="J536" t="s">
         <v>891</v>
       </c>
-      <c r="O531" t="s">
+      <c r="O536" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="532" spans="3:15">
-      <c r="C532" s="54" t="s">
+    <row r="537" spans="3:15">
+      <c r="C537" s="54" t="s">
         <v>868</v>
       </c>
-      <c r="D532" s="54"/>
-      <c r="E532" s="54" t="s">
+      <c r="D537" s="54"/>
+      <c r="E537" s="54" t="s">
         <v>892</v>
       </c>
-      <c r="F532" s="54"/>
-      <c r="G532" s="54"/>
-      <c r="H532" s="54"/>
-      <c r="I532" s="53"/>
-    </row>
-    <row r="535" spans="3:15">
-      <c r="E535" t="s">
+      <c r="F537" s="54"/>
+      <c r="G537" s="54"/>
+      <c r="H537" s="54"/>
+      <c r="I537" s="53"/>
+    </row>
+    <row r="540" spans="3:15">
+      <c r="E540" t="s">
         <v>893</v>
-      </c>
-    </row>
-    <row r="537" spans="3:15">
-      <c r="C537" t="s">
-        <v>857</v>
-      </c>
-      <c r="E537" t="s">
-        <v>894</v>
-      </c>
-      <c r="K537" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="538" spans="3:15">
-      <c r="C538" t="s">
-        <v>859</v>
-      </c>
-      <c r="E538" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="539" spans="3:15">
-      <c r="C539" t="s">
-        <v>860</v>
-      </c>
-      <c r="E539" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="540" spans="3:15">
-      <c r="C540" t="s">
-        <v>861</v>
-      </c>
-      <c r="E540" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="541" spans="3:15">
-      <c r="C541" t="s">
-        <v>884</v>
-      </c>
-      <c r="E541" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="542" spans="3:15">
       <c r="C542" t="s">
-        <v>886</v>
+        <v>857</v>
       </c>
       <c r="E542" t="s">
-        <v>900</v>
-      </c>
-      <c r="J542" t="s">
-        <v>902</v>
+        <v>894</v>
+      </c>
+      <c r="K542" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="543" spans="3:15">
       <c r="C543" t="s">
+        <v>859</v>
+      </c>
+      <c r="E543" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="544" spans="3:15">
+      <c r="C544" t="s">
+        <v>860</v>
+      </c>
+      <c r="E544" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10">
+      <c r="C545" t="s">
+        <v>861</v>
+      </c>
+      <c r="E545" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10">
+      <c r="C546" t="s">
+        <v>884</v>
+      </c>
+      <c r="E546" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10">
+      <c r="C547" t="s">
+        <v>886</v>
+      </c>
+      <c r="E547" t="s">
+        <v>900</v>
+      </c>
+      <c r="J547" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10">
+      <c r="C548" t="s">
         <v>866</v>
       </c>
-      <c r="E543" t="s">
+      <c r="E548" t="s">
         <v>901</v>
       </c>
-      <c r="J543" t="s">
+      <c r="J548" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="544" spans="3:15">
-      <c r="C544" s="54" t="s">
+    <row r="549" spans="1:10">
+      <c r="C549" s="54" t="s">
         <v>868</v>
       </c>
-      <c r="E544" s="54" t="s">
+      <c r="E549" s="54" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
-      <c r="A548" s="36" t="s">
+    <row r="553" spans="1:10">
+      <c r="A553" s="36" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
-      <c r="B550" t="s">
+    <row r="555" spans="1:10">
+      <c r="B555" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
-      <c r="B552" t="s">
+    <row r="557" spans="1:10">
+      <c r="B557" t="s">
         <v>471</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C557" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
-      <c r="C553" t="s">
+    <row r="558" spans="1:10">
+      <c r="C558" t="s">
         <v>907</v>
       </c>
-      <c r="H553" t="s">
+      <c r="H558" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
-      <c r="C554" t="s">
+    <row r="559" spans="1:10">
+      <c r="C559" t="s">
         <v>915</v>
       </c>
-      <c r="H554" t="s">
+      <c r="H559" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
-      <c r="A555" s="36" t="s">
+    <row r="560" spans="1:10">
+      <c r="A560" s="36" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
-      <c r="B556" t="s">
+    <row r="561" spans="2:8">
+      <c r="B561" t="s">
         <v>909</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="B558" t="s">
-        <v>392</v>
-      </c>
-      <c r="C558" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8">
-      <c r="C559" t="s">
-        <v>911</v>
-      </c>
-      <c r="H559" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8">
-      <c r="C560" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="563" spans="2:8">
       <c r="B563" t="s">
-        <v>917</v>
+        <v>392</v>
+      </c>
+      <c r="C563" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="564" spans="2:8">
+      <c r="C564" t="s">
+        <v>911</v>
+      </c>
+      <c r="H564" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="565" spans="2:8">
       <c r="C565" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="568" spans="2:8">
+      <c r="B568" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8">
+      <c r="C570" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="566" spans="2:8">
-      <c r="C566" t="s">
+    <row r="571" spans="2:8">
+      <c r="C571" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="567" spans="2:8">
-      <c r="C567" t="s">
+    <row r="572" spans="2:8">
+      <c r="C572" t="s">
         <v>920</v>
       </c>
-      <c r="H567" t="s">
+      <c r="H572" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="571" spans="2:8">
-      <c r="B571" t="s">
+    <row r="576" spans="2:8">
+      <c r="B576" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="572" spans="2:8">
-      <c r="C572" s="23" t="s">
+    <row r="577" spans="1:11">
+      <c r="C577" s="23" t="s">
         <v>923</v>
       </c>
-      <c r="D572" s="18"/>
-      <c r="E572" s="18"/>
-      <c r="F572" s="18"/>
-      <c r="G572" s="18"/>
-    </row>
-    <row r="573" spans="2:8">
-      <c r="C573" s="23" t="s">
+      <c r="D577" s="18"/>
+      <c r="E577" s="18"/>
+      <c r="F577" s="18"/>
+      <c r="G577" s="18"/>
+    </row>
+    <row r="578" spans="1:11">
+      <c r="C578" s="23" t="s">
         <v>924</v>
       </c>
-      <c r="D573" s="18"/>
-      <c r="E573" s="18"/>
-      <c r="F573" s="18"/>
-      <c r="G573" s="18"/>
-    </row>
-    <row r="574" spans="2:8">
-      <c r="C574" s="23" t="s">
+      <c r="D578" s="18"/>
+      <c r="E578" s="18"/>
+      <c r="F578" s="18"/>
+      <c r="G578" s="18"/>
+    </row>
+    <row r="579" spans="1:11">
+      <c r="C579" s="23" t="s">
         <v>925</v>
       </c>
-      <c r="D574" s="18"/>
-      <c r="E574" s="18"/>
-      <c r="F574" s="18"/>
-      <c r="G574" s="18"/>
-    </row>
-    <row r="575" spans="2:8">
-      <c r="C575" s="23" t="s">
+      <c r="D579" s="18"/>
+      <c r="E579" s="18"/>
+      <c r="F579" s="18"/>
+      <c r="G579" s="18"/>
+    </row>
+    <row r="580" spans="1:11">
+      <c r="C580" s="23" t="s">
         <v>926</v>
       </c>
-      <c r="D575" s="18"/>
-      <c r="E575" s="18"/>
-      <c r="F575" s="18"/>
-      <c r="G575" s="18"/>
-      <c r="H575" t="s">
+      <c r="D580" s="18"/>
+      <c r="E580" s="18"/>
+      <c r="F580" s="18"/>
+      <c r="G580" s="18"/>
+      <c r="H580" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="576" spans="2:8">
-      <c r="C576" s="23" t="s">
+    <row r="581" spans="1:11">
+      <c r="C581" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="D576" s="18"/>
-      <c r="E576" s="18"/>
-      <c r="F576" s="18"/>
-      <c r="G576" s="18"/>
-      <c r="H576" t="s">
+      <c r="D581" s="18"/>
+      <c r="E581" s="18"/>
+      <c r="F581" s="18"/>
+      <c r="G581" s="18"/>
+      <c r="H581" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
-      <c r="A579" s="36" t="s">
+    <row r="584" spans="1:11">
+      <c r="A584" s="36" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="581" spans="1:11">
-      <c r="B581" t="s">
+    <row r="586" spans="1:11">
+      <c r="B586" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="584" spans="1:11">
-      <c r="C584" s="22" t="s">
+    <row r="589" spans="1:11">
+      <c r="C589" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="D584" s="18"/>
-      <c r="E584" s="18"/>
-      <c r="F584" s="18"/>
-      <c r="G584" s="18"/>
-      <c r="H584" s="18"/>
-      <c r="I584" s="18"/>
-    </row>
-    <row r="585" spans="1:11">
-      <c r="C585" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="D585" s="18"/>
-      <c r="E585" s="18"/>
-      <c r="F585" s="18"/>
-      <c r="G585" s="18"/>
-      <c r="H585" s="18"/>
-      <c r="I585" s="18"/>
-    </row>
-    <row r="586" spans="1:11">
-      <c r="C586" s="22" t="s">
-        <v>934</v>
-      </c>
-      <c r="D586" s="18"/>
-      <c r="E586" s="18"/>
-      <c r="F586" s="18"/>
-      <c r="G586" s="18"/>
-      <c r="H586" s="18"/>
-      <c r="I586" s="18"/>
-    </row>
-    <row r="587" spans="1:11">
-      <c r="C587" s="22" t="s">
-        <v>935</v>
-      </c>
-      <c r="D587" s="18"/>
-      <c r="E587" s="18"/>
-      <c r="F587" s="18"/>
-      <c r="G587" s="18"/>
-      <c r="H587" s="18"/>
-      <c r="I587" s="18"/>
-      <c r="K587" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="588" spans="1:11">
-      <c r="C588" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="D588" s="18"/>
-      <c r="E588" s="18"/>
-      <c r="F588" s="18"/>
-      <c r="G588" s="18"/>
-      <c r="H588" s="18"/>
-      <c r="I588" s="18"/>
-      <c r="K588" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="589" spans="1:11">
-      <c r="C589" s="23"/>
       <c r="D589" s="18"/>
       <c r="E589" s="18"/>
       <c r="F589" s="18"/>
@@ -15366,7 +15502,7 @@
     </row>
     <row r="590" spans="1:11">
       <c r="C590" s="22" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D590" s="18"/>
       <c r="E590" s="18"/>
@@ -15374,13 +15510,10 @@
       <c r="G590" s="18"/>
       <c r="H590" s="18"/>
       <c r="I590" s="18"/>
-      <c r="K590" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="591" spans="1:11">
       <c r="C591" s="22" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D591" s="18"/>
       <c r="E591" s="18"/>
@@ -15388,22 +15521,24 @@
       <c r="G591" s="18"/>
       <c r="H591" s="18"/>
       <c r="I591" s="18"/>
-      <c r="K591" t="s">
-        <v>944</v>
-      </c>
     </row>
     <row r="592" spans="1:11">
-      <c r="C592" s="23"/>
+      <c r="C592" s="22" t="s">
+        <v>935</v>
+      </c>
       <c r="D592" s="18"/>
       <c r="E592" s="18"/>
       <c r="F592" s="18"/>
       <c r="G592" s="18"/>
       <c r="H592" s="18"/>
       <c r="I592" s="18"/>
+      <c r="K592" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="593" spans="2:11">
       <c r="C593" s="22" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D593" s="18"/>
       <c r="E593" s="18"/>
@@ -15412,110 +15547,116 @@
       <c r="H593" s="18"/>
       <c r="I593" s="18"/>
       <c r="K593" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="594" spans="2:11">
-      <c r="C594" s="22" t="s">
-        <v>940</v>
-      </c>
+      <c r="C594" s="23"/>
       <c r="D594" s="18"/>
       <c r="E594" s="18"/>
       <c r="F594" s="18"/>
       <c r="G594" s="18"/>
       <c r="H594" s="18"/>
       <c r="I594" s="18"/>
-      <c r="K594" t="s">
+    </row>
+    <row r="595" spans="2:11">
+      <c r="C595" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="D595" s="18"/>
+      <c r="E595" s="18"/>
+      <c r="F595" s="18"/>
+      <c r="G595" s="18"/>
+      <c r="H595" s="18"/>
+      <c r="I595" s="18"/>
+      <c r="K595" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="596" spans="2:11">
+      <c r="C596" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="D596" s="18"/>
+      <c r="E596" s="18"/>
+      <c r="F596" s="18"/>
+      <c r="G596" s="18"/>
+      <c r="H596" s="18"/>
+      <c r="I596" s="18"/>
+      <c r="K596" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="597" spans="2:11">
+      <c r="C597" s="23"/>
+      <c r="D597" s="18"/>
+      <c r="E597" s="18"/>
+      <c r="F597" s="18"/>
+      <c r="G597" s="18"/>
+      <c r="H597" s="18"/>
+      <c r="I597" s="18"/>
+    </row>
+    <row r="598" spans="2:11">
+      <c r="C598" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="D598" s="18"/>
+      <c r="E598" s="18"/>
+      <c r="F598" s="18"/>
+      <c r="G598" s="18"/>
+      <c r="H598" s="18"/>
+      <c r="I598" s="18"/>
+      <c r="K598" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="599" spans="2:11">
+      <c r="C599" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="D599" s="18"/>
+      <c r="E599" s="18"/>
+      <c r="F599" s="18"/>
+      <c r="G599" s="18"/>
+      <c r="H599" s="18"/>
+      <c r="I599" s="18"/>
+      <c r="K599" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="598" spans="2:11">
-      <c r="B598" t="s">
+    <row r="603" spans="2:11">
+      <c r="B603" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="599" spans="2:11">
-      <c r="C599" s="36" t="s">
+    <row r="604" spans="2:11">
+      <c r="C604" s="36" t="s">
         <v>949</v>
       </c>
-      <c r="D599" s="36"/>
-      <c r="E599" s="36"/>
-      <c r="F599" s="36"/>
-      <c r="G599" s="36"/>
-      <c r="H599" s="36"/>
-    </row>
-    <row r="600" spans="2:11">
-      <c r="C600" s="36" t="s">
+      <c r="D604" s="36"/>
+      <c r="E604" s="36"/>
+      <c r="F604" s="36"/>
+      <c r="G604" s="36"/>
+      <c r="H604" s="36"/>
+    </row>
+    <row r="605" spans="2:11">
+      <c r="C605" s="36" t="s">
         <v>948</v>
       </c>
-      <c r="D600" s="36"/>
-      <c r="E600" s="36"/>
-      <c r="F600" s="36"/>
-      <c r="G600" s="36"/>
-      <c r="H600" s="36"/>
-    </row>
-    <row r="602" spans="2:11">
-      <c r="C602" t="s">
+      <c r="D605" s="36"/>
+      <c r="E605" s="36"/>
+      <c r="F605" s="36"/>
+      <c r="G605" s="36"/>
+      <c r="H605" s="36"/>
+    </row>
+    <row r="607" spans="2:11">
+      <c r="C607" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="604" spans="2:11">
-      <c r="D604" s="22" t="s">
+    <row r="609" spans="1:10">
+      <c r="D609" s="22" t="s">
         <v>951</v>
-      </c>
-      <c r="E604" s="18"/>
-      <c r="F604" s="18"/>
-      <c r="G604" s="18"/>
-      <c r="H604" s="18"/>
-      <c r="I604" s="18"/>
-    </row>
-    <row r="605" spans="2:11">
-      <c r="D605" s="22" t="s">
-        <v>952</v>
-      </c>
-      <c r="E605" s="18"/>
-      <c r="F605" s="18"/>
-      <c r="G605" s="18"/>
-      <c r="H605" s="18"/>
-      <c r="I605" s="18"/>
-    </row>
-    <row r="606" spans="2:11">
-      <c r="D606" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="E606" s="18"/>
-      <c r="F606" s="18"/>
-      <c r="G606" s="18"/>
-      <c r="H606" s="18"/>
-      <c r="I606" s="18"/>
-      <c r="J606" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="607" spans="2:11">
-      <c r="D607" s="22" t="s">
-        <v>843</v>
-      </c>
-      <c r="E607" s="18"/>
-      <c r="F607" s="18"/>
-      <c r="G607" s="18"/>
-      <c r="H607" s="18"/>
-      <c r="I607" s="18"/>
-      <c r="J607" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="608" spans="2:11">
-      <c r="D608" s="23"/>
-      <c r="E608" s="18"/>
-      <c r="F608" s="18"/>
-      <c r="G608" s="18"/>
-      <c r="H608" s="18"/>
-      <c r="I608" s="18"/>
-    </row>
-    <row r="609" spans="1:12">
-      <c r="D609" s="22" t="s">
-        <v>954</v>
       </c>
       <c r="E609" s="18"/>
       <c r="F609" s="18"/>
@@ -15523,9 +15664,9 @@
       <c r="H609" s="18"/>
       <c r="I609" s="18"/>
     </row>
-    <row r="610" spans="1:12">
+    <row r="610" spans="1:10">
       <c r="D610" s="22" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E610" s="18"/>
       <c r="F610" s="18"/>
@@ -15533,15 +15674,20 @@
       <c r="H610" s="18"/>
       <c r="I610" s="18"/>
     </row>
-    <row r="611" spans="1:12">
-      <c r="D611" s="23"/>
+    <row r="611" spans="1:10">
+      <c r="D611" s="22" t="s">
+        <v>953</v>
+      </c>
       <c r="E611" s="18"/>
       <c r="F611" s="18"/>
       <c r="G611" s="18"/>
       <c r="H611" s="18"/>
       <c r="I611" s="18"/>
-    </row>
-    <row r="612" spans="1:12">
+      <c r="J611" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10">
       <c r="D612" s="22" t="s">
         <v>843</v>
       </c>
@@ -15551,10 +15697,10 @@
       <c r="H612" s="18"/>
       <c r="I612" s="18"/>
       <c r="J612" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="613" spans="1:12">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10">
       <c r="D613" s="23"/>
       <c r="E613" s="18"/>
       <c r="F613" s="18"/>
@@ -15562,188 +15708,179 @@
       <c r="H613" s="18"/>
       <c r="I613" s="18"/>
     </row>
-    <row r="614" spans="1:12">
+    <row r="614" spans="1:10">
       <c r="D614" s="22" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E614" s="18"/>
       <c r="F614" s="18"/>
       <c r="G614" s="18"/>
       <c r="H614" s="18"/>
       <c r="I614" s="18"/>
-      <c r="J614" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="615" spans="1:12">
+    </row>
+    <row r="615" spans="1:10">
       <c r="D615" s="22" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E615" s="18"/>
       <c r="F615" s="18"/>
       <c r="G615" s="18"/>
       <c r="H615" s="18"/>
       <c r="I615" s="18"/>
-      <c r="J615" t="s">
+    </row>
+    <row r="616" spans="1:10">
+      <c r="D616" s="23"/>
+      <c r="E616" s="18"/>
+      <c r="F616" s="18"/>
+      <c r="G616" s="18"/>
+      <c r="H616" s="18"/>
+      <c r="I616" s="18"/>
+    </row>
+    <row r="617" spans="1:10">
+      <c r="D617" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="E617" s="18"/>
+      <c r="F617" s="18"/>
+      <c r="G617" s="18"/>
+      <c r="H617" s="18"/>
+      <c r="I617" s="18"/>
+      <c r="J617" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10">
+      <c r="D618" s="23"/>
+      <c r="E618" s="18"/>
+      <c r="F618" s="18"/>
+      <c r="G618" s="18"/>
+      <c r="H618" s="18"/>
+      <c r="I618" s="18"/>
+    </row>
+    <row r="619" spans="1:10">
+      <c r="D619" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="E619" s="18"/>
+      <c r="F619" s="18"/>
+      <c r="G619" s="18"/>
+      <c r="H619" s="18"/>
+      <c r="I619" s="18"/>
+      <c r="J619" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="619" spans="1:12">
-      <c r="A619" s="36" t="s">
+    <row r="620" spans="1:10">
+      <c r="D620" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="E620" s="18"/>
+      <c r="F620" s="18"/>
+      <c r="G620" s="18"/>
+      <c r="H620" s="18"/>
+      <c r="I620" s="18"/>
+      <c r="J620" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10">
+      <c r="A624" s="36" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="621" spans="1:12">
-      <c r="B621" t="s">
+    <row r="626" spans="2:12">
+      <c r="B626" t="s">
         <v>982</v>
-      </c>
-    </row>
-    <row r="622" spans="1:12">
-      <c r="C622" t="s">
-        <v>962</v>
-      </c>
-      <c r="E622" t="s">
-        <v>963</v>
-      </c>
-      <c r="J622" t="s">
-        <v>975</v>
-      </c>
-      <c r="L622" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="623" spans="1:12">
-      <c r="E623" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="625" spans="2:12">
-      <c r="E625" t="s">
-        <v>964</v>
-      </c>
-      <c r="G625" s="56" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="627" spans="2:12">
       <c r="C627" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E627" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="J627" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="L627" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="628" spans="2:12">
       <c r="E628" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="630" spans="2:12">
       <c r="E630" t="s">
-        <v>973</v>
+        <v>964</v>
+      </c>
+      <c r="G630" s="56" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="632" spans="2:12">
       <c r="C632" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E632" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="J632" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="L632" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="633" spans="2:12">
       <c r="E633" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="635" spans="2:12">
       <c r="E635" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="637" spans="2:12">
       <c r="C637" t="s">
+        <v>970</v>
+      </c>
+      <c r="E637" t="s">
+        <v>971</v>
+      </c>
+      <c r="J637" t="s">
+        <v>979</v>
+      </c>
+      <c r="L637" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="638" spans="2:12">
+      <c r="E638" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="640" spans="2:12">
+      <c r="E640" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="642" spans="2:10">
+      <c r="C642" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="640" spans="2:12">
-      <c r="B640" t="s">
+    <row r="645" spans="2:10">
+      <c r="B645" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="642" spans="3:10">
-      <c r="C642" s="18" t="s">
+    <row r="647" spans="2:10">
+      <c r="C647" s="18" t="s">
         <v>987</v>
-      </c>
-      <c r="D642" s="18"/>
-      <c r="E642" s="18"/>
-      <c r="F642" s="18"/>
-      <c r="G642" s="18"/>
-      <c r="H642" s="18"/>
-      <c r="I642" s="18"/>
-      <c r="J642" s="18"/>
-    </row>
-    <row r="643" spans="3:10">
-      <c r="C643" s="18" t="s">
-        <v>988</v>
-      </c>
-      <c r="D643" s="18"/>
-      <c r="E643" s="18"/>
-      <c r="F643" s="18"/>
-      <c r="G643" s="18"/>
-      <c r="H643" s="18"/>
-      <c r="I643" s="18"/>
-      <c r="J643" s="18"/>
-    </row>
-    <row r="644" spans="3:10">
-      <c r="C644" s="18"/>
-      <c r="D644" s="18"/>
-      <c r="E644" s="18"/>
-      <c r="F644" s="18"/>
-      <c r="G644" s="18"/>
-      <c r="H644" s="18"/>
-      <c r="I644" s="18"/>
-      <c r="J644" s="18"/>
-    </row>
-    <row r="645" spans="3:10">
-      <c r="C645" s="18" t="s">
-        <v>984</v>
-      </c>
-      <c r="D645" s="18"/>
-      <c r="E645" s="18"/>
-      <c r="F645" s="18"/>
-      <c r="G645" s="18"/>
-      <c r="H645" s="18"/>
-      <c r="I645" s="18"/>
-      <c r="J645" s="18"/>
-    </row>
-    <row r="646" spans="3:10">
-      <c r="C646" s="18" t="s">
-        <v>985</v>
-      </c>
-      <c r="D646" s="18"/>
-      <c r="E646" s="18"/>
-      <c r="F646" s="18"/>
-      <c r="G646" s="18"/>
-      <c r="H646" s="18"/>
-      <c r="I646" s="18"/>
-      <c r="J646" s="18"/>
-    </row>
-    <row r="647" spans="3:10">
-      <c r="C647" s="18" t="s">
-        <v>986</v>
       </c>
       <c r="D647" s="18"/>
       <c r="E647" s="18"/>
@@ -15753,1178 +15890,1543 @@
       <c r="I647" s="18"/>
       <c r="J647" s="18"/>
     </row>
-    <row r="648" spans="3:10">
+    <row r="648" spans="2:10">
       <c r="C648" s="18" t="s">
-        <v>1315</v>
+        <v>988</v>
       </c>
       <c r="D648" s="18"/>
       <c r="E648" s="18"/>
       <c r="F648" s="18"/>
       <c r="G648" s="18"/>
       <c r="H648" s="18"/>
-      <c r="I648" s="18" t="s">
-        <v>1316</v>
-      </c>
+      <c r="I648" s="18"/>
       <c r="J648" s="18"/>
     </row>
-    <row r="649" spans="3:10">
+    <row r="649" spans="2:10">
       <c r="C649" s="18"/>
       <c r="D649" s="18"/>
       <c r="E649" s="18"/>
       <c r="F649" s="18"/>
       <c r="G649" s="18"/>
       <c r="H649" s="18"/>
-      <c r="I649" s="18" t="s">
-        <v>1317</v>
-      </c>
+      <c r="I649" s="18"/>
       <c r="J649" s="18"/>
     </row>
-    <row r="650" spans="3:10">
+    <row r="650" spans="2:10">
       <c r="C650" s="18" t="s">
-        <v>1318</v>
+        <v>984</v>
       </c>
       <c r="D650" s="18"/>
       <c r="E650" s="18"/>
       <c r="F650" s="18"/>
       <c r="G650" s="18"/>
-      <c r="H650" s="63" t="s">
-        <v>1321</v>
-      </c>
+      <c r="H650" s="18"/>
       <c r="I650" s="18"/>
       <c r="J650" s="18"/>
     </row>
-    <row r="651" spans="3:10">
+    <row r="651" spans="2:10">
       <c r="C651" s="18" t="s">
-        <v>1319</v>
+        <v>985</v>
       </c>
       <c r="D651" s="18"/>
       <c r="E651" s="18"/>
       <c r="F651" s="18"/>
       <c r="G651" s="18"/>
-      <c r="H651" s="64" t="s">
-        <v>1322</v>
-      </c>
+      <c r="H651" s="18"/>
       <c r="I651" s="18"/>
       <c r="J651" s="18"/>
     </row>
-    <row r="652" spans="3:10">
+    <row r="652" spans="2:10">
       <c r="C652" s="18" t="s">
-        <v>1320</v>
+        <v>986</v>
       </c>
       <c r="D652" s="18"/>
       <c r="E652" s="18"/>
       <c r="F652" s="18"/>
       <c r="G652" s="18"/>
-      <c r="H652" s="62" t="s">
-        <v>1321</v>
-      </c>
+      <c r="H652" s="18"/>
       <c r="I652" s="18"/>
       <c r="J652" s="18"/>
     </row>
-    <row r="653" spans="3:10">
+    <row r="653" spans="2:10">
       <c r="C653" s="18" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="D653" s="18"/>
       <c r="E653" s="18"/>
       <c r="F653" s="18"/>
       <c r="G653" s="18"/>
-      <c r="H653" s="62" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I653" s="18"/>
+      <c r="H653" s="18"/>
+      <c r="I653" s="18" t="s">
+        <v>1313</v>
+      </c>
       <c r="J653" s="18"/>
     </row>
-    <row r="654" spans="3:10">
+    <row r="654" spans="2:10">
       <c r="C654" s="18"/>
       <c r="D654" s="18"/>
       <c r="E654" s="18"/>
       <c r="F654" s="18"/>
       <c r="G654" s="18"/>
       <c r="H654" s="18"/>
-      <c r="I654" s="18"/>
+      <c r="I654" s="18" t="s">
+        <v>1314</v>
+      </c>
       <c r="J654" s="18"/>
     </row>
-    <row r="655" spans="3:10">
-      <c r="C655" s="18"/>
+    <row r="655" spans="2:10">
+      <c r="C655" s="18" t="s">
+        <v>1315</v>
+      </c>
       <c r="D655" s="18"/>
       <c r="E655" s="18"/>
       <c r="F655" s="18"/>
       <c r="G655" s="18"/>
-      <c r="H655" s="18"/>
+      <c r="H655" s="63" t="s">
+        <v>1318</v>
+      </c>
       <c r="I655" s="18"/>
       <c r="J655" s="18"/>
     </row>
-    <row r="656" spans="3:10">
-      <c r="C656" s="18"/>
+    <row r="656" spans="2:10">
+      <c r="C656" s="18" t="s">
+        <v>1316</v>
+      </c>
       <c r="D656" s="18"/>
       <c r="E656" s="18"/>
       <c r="F656" s="18"/>
       <c r="G656" s="18"/>
-      <c r="H656" s="18"/>
+      <c r="H656" s="64" t="s">
+        <v>1319</v>
+      </c>
       <c r="I656" s="18"/>
       <c r="J656" s="18"/>
     </row>
     <row r="657" spans="2:10">
-      <c r="C657" s="52" t="s">
-        <v>989</v>
+      <c r="C657" s="18" t="s">
+        <v>1317</v>
       </c>
       <c r="D657" s="18"/>
       <c r="E657" s="18"/>
       <c r="F657" s="18"/>
       <c r="G657" s="18"/>
-      <c r="H657" s="18"/>
+      <c r="H657" s="62" t="s">
+        <v>1318</v>
+      </c>
       <c r="I657" s="18"/>
       <c r="J657" s="18"/>
     </row>
     <row r="658" spans="2:10">
       <c r="C658" s="18" t="s">
-        <v>990</v>
+        <v>1320</v>
       </c>
       <c r="D658" s="18"/>
       <c r="E658" s="18"/>
       <c r="F658" s="18"/>
       <c r="G658" s="18"/>
-      <c r="H658" s="18"/>
+      <c r="H658" s="62" t="s">
+        <v>1321</v>
+      </c>
       <c r="I658" s="18"/>
       <c r="J658" s="18"/>
     </row>
+    <row r="659" spans="2:10">
+      <c r="C659" s="18"/>
+      <c r="D659" s="18"/>
+      <c r="E659" s="18"/>
+      <c r="F659" s="18"/>
+      <c r="G659" s="18"/>
+      <c r="H659" s="18"/>
+      <c r="I659" s="18"/>
+      <c r="J659" s="18"/>
+    </row>
+    <row r="660" spans="2:10">
+      <c r="C660" s="18"/>
+      <c r="D660" s="18"/>
+      <c r="E660" s="18"/>
+      <c r="F660" s="18"/>
+      <c r="G660" s="18"/>
+      <c r="H660" s="18"/>
+      <c r="I660" s="18"/>
+      <c r="J660" s="18"/>
+    </row>
     <row r="661" spans="2:10">
-      <c r="B661" t="s">
+      <c r="C661" s="18"/>
+      <c r="D661" s="18"/>
+      <c r="E661" s="18"/>
+      <c r="F661" s="18"/>
+      <c r="G661" s="18"/>
+      <c r="H661" s="18"/>
+      <c r="I661" s="18"/>
+      <c r="J661" s="18"/>
+    </row>
+    <row r="662" spans="2:10">
+      <c r="C662" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="D662" s="18"/>
+      <c r="E662" s="18"/>
+      <c r="F662" s="18"/>
+      <c r="G662" s="18"/>
+      <c r="H662" s="18"/>
+      <c r="I662" s="18"/>
+      <c r="J662" s="18"/>
+    </row>
+    <row r="663" spans="2:10">
+      <c r="C663" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="D663" s="18"/>
+      <c r="E663" s="18"/>
+      <c r="F663" s="18"/>
+      <c r="G663" s="18"/>
+      <c r="H663" s="18"/>
+      <c r="I663" s="18"/>
+      <c r="J663" s="18"/>
+    </row>
+    <row r="666" spans="2:10">
+      <c r="B666" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="663" spans="2:10">
-      <c r="C663" t="s">
+    <row r="668" spans="2:10">
+      <c r="C668" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="665" spans="2:10">
-      <c r="D665" s="22" t="s">
+    <row r="670" spans="2:10">
+      <c r="D670" s="22" t="s">
         <v>993</v>
       </c>
-      <c r="E665" s="18"/>
-      <c r="F665" s="18"/>
-      <c r="G665" s="18"/>
-      <c r="H665" s="18"/>
-      <c r="I665" s="18"/>
-      <c r="J665" s="18" t="s">
+      <c r="E670" s="18"/>
+      <c r="F670" s="18"/>
+      <c r="G670" s="18"/>
+      <c r="H670" s="18"/>
+      <c r="I670" s="18"/>
+      <c r="J670" s="18" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="666" spans="2:10">
-      <c r="D666" s="22" t="s">
+    <row r="671" spans="2:10">
+      <c r="D671" s="22" t="s">
         <v>994</v>
       </c>
-      <c r="E666" s="18"/>
-      <c r="F666" s="18"/>
-      <c r="G666" s="18"/>
-      <c r="H666" s="18"/>
-      <c r="I666" s="18"/>
-      <c r="J666" s="18" t="s">
+      <c r="E671" s="18"/>
+      <c r="F671" s="18"/>
+      <c r="G671" s="18"/>
+      <c r="H671" s="18"/>
+      <c r="I671" s="18"/>
+      <c r="J671" s="18" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="667" spans="2:10">
-      <c r="D667" s="22" t="s">
+    <row r="672" spans="2:10">
+      <c r="D672" s="22" t="s">
         <v>995</v>
       </c>
-      <c r="E667" s="18"/>
-      <c r="F667" s="18"/>
-      <c r="G667" s="18"/>
-      <c r="H667" s="18"/>
-      <c r="I667" s="18"/>
-      <c r="J667" s="18" t="s">
+      <c r="E672" s="18"/>
+      <c r="F672" s="18"/>
+      <c r="G672" s="18"/>
+      <c r="H672" s="18"/>
+      <c r="I672" s="18"/>
+      <c r="J672" s="18" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="668" spans="2:10">
-      <c r="D668" s="55"/>
-    </row>
-    <row r="670" spans="2:10">
-      <c r="C670" t="s">
+    <row r="673" spans="1:10">
+      <c r="D673" s="55"/>
+    </row>
+    <row r="675" spans="1:10">
+      <c r="C675" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="672" spans="2:10">
-      <c r="D672" t="s">
+    <row r="677" spans="1:10">
+      <c r="D677" t="s">
         <v>998</v>
       </c>
-      <c r="J672" t="s">
+      <c r="J677" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
-      <c r="A674" s="36" t="s">
+    <row r="679" spans="1:10">
+      <c r="A679" s="36" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
-      <c r="B676" t="s">
+    <row r="681" spans="1:10">
+      <c r="B681" t="s">
         <v>1001</v>
       </c>
-      <c r="C676" t="s">
+      <c r="C681" t="s">
         <v>1002</v>
       </c>
-      <c r="E676" t="s">
+      <c r="E681" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
-      <c r="E677" t="s">
+    <row r="682" spans="1:10">
+      <c r="E682" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
-      <c r="E678" t="s">
+    <row r="683" spans="1:10">
+      <c r="E683" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10">
+      <c r="E684" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10">
+      <c r="E685" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10">
+      <c r="E686" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
-      <c r="E679" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="680" spans="1:5">
-      <c r="E680" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="681" spans="1:5">
-      <c r="E681" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="683" spans="1:5" ht="14.25" customHeight="1">
-      <c r="E683" t="s">
+    <row r="688" spans="1:10" ht="14.25" customHeight="1">
+      <c r="E688" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="689" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E689" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="690" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E690" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="691" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E691" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="14.25" customHeight="1">
-      <c r="E684" t="s">
+    <row r="692" spans="5:9" ht="14.25" customHeight="1">
+      <c r="E692" t="s">
         <v>1287</v>
-      </c>
-    </row>
-    <row r="685" spans="1:5" ht="14.25" customHeight="1">
-      <c r="E685" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="686" spans="1:5" ht="14.25" customHeight="1">
-      <c r="E686" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="687" spans="1:5" ht="14.25" customHeight="1">
-      <c r="E687" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="688" spans="1:5">
-      <c r="E688" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="690" spans="5:9">
-      <c r="E690" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="691" spans="5:9">
-      <c r="E691" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="693" spans="5:9">
       <c r="E693" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I693" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="694" spans="5:9">
-      <c r="E694" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I694" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="695" spans="5:9">
       <c r="E695" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I695" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="696" spans="5:9">
       <c r="E696" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I696" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="698" spans="5:9">
       <c r="E698" t="s">
-        <v>1308</v>
+        <v>1295</v>
+      </c>
+      <c r="I698" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="699" spans="5:9">
-      <c r="F699" t="s">
-        <v>1011</v>
+      <c r="E699" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I699" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="700" spans="5:9">
+      <c r="E700" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I700" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="701" spans="5:9">
       <c r="E701" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="702" spans="5:9">
-      <c r="F702" t="s">
-        <v>1310</v>
+        <v>1298</v>
+      </c>
+      <c r="I701" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="703" spans="5:9">
-      <c r="F703" t="s">
-        <v>1311</v>
+      <c r="E703" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="704" spans="5:9">
       <c r="F704" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="705" spans="3:6">
-      <c r="F705" t="s">
-        <v>1313</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="706" spans="3:6">
-      <c r="F706" t="s">
-        <v>1314</v>
+      <c r="E706" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="707" spans="3:6">
+      <c r="F707" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="708" spans="3:6">
-      <c r="E708" t="s">
-        <v>1336</v>
+      <c r="F708" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="709" spans="3:6">
+      <c r="F709" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="710" spans="3:6">
+      <c r="F710" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="711" spans="3:6">
-      <c r="C711" t="s">
+      <c r="F711" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="713" spans="3:6">
+      <c r="E713" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="716" spans="3:6">
+      <c r="C716" t="s">
         <v>966</v>
-      </c>
-    </row>
-    <row r="712" spans="3:6">
-      <c r="E712" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="714" spans="3:6">
-      <c r="E714" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="715" spans="3:6">
-      <c r="E715" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="717" spans="3:6">
       <c r="E717" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="719" spans="3:6">
+      <c r="E719" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="720" spans="3:6">
+      <c r="E720" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="722" spans="5:7">
+      <c r="E722" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="723" spans="5:7">
+      <c r="F723" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="724" spans="5:7">
+      <c r="F724" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="725" spans="5:7">
+      <c r="F725" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="718" spans="3:6">
-      <c r="F718" t="s">
+    <row r="726" spans="5:7">
+      <c r="F726" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="719" spans="3:6">
-      <c r="F719" t="s">
+    <row r="727" spans="5:7">
+      <c r="F727" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="720" spans="3:6">
-      <c r="F720" t="s">
+    <row r="729" spans="5:7">
+      <c r="F729" s="39" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="721" spans="5:9">
-      <c r="F721" t="s">
+    <row r="731" spans="5:7">
+      <c r="E731" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="722" spans="5:9">
-      <c r="F722" t="s">
+    <row r="732" spans="5:7">
+      <c r="F732" s="39" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="733" spans="5:7">
+      <c r="G733" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="724" spans="5:9">
-      <c r="F724" s="39" t="s">
+    <row r="734" spans="5:7">
+      <c r="G734" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="726" spans="5:9">
-      <c r="E726" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="727" spans="5:9">
-      <c r="F727" s="39" t="s">
+    <row r="736" spans="5:7">
+      <c r="E736" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="728" spans="5:9">
-      <c r="G728" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="729" spans="5:9">
-      <c r="G729" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="731" spans="5:9">
-      <c r="E731" t="s">
+    <row r="738" spans="3:9">
+      <c r="E738" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="739" spans="3:9">
+      <c r="F739" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="740" spans="3:9">
+      <c r="F740" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="741" spans="3:9">
+      <c r="F741" s="65" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="733" spans="5:9">
-      <c r="E733" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="734" spans="5:9">
-      <c r="F734" t="s">
+      <c r="G741" s="65"/>
+      <c r="H741" s="65"/>
+      <c r="I741" s="65"/>
+    </row>
+    <row r="746" spans="3:9">
+      <c r="C746" t="s">
+        <v>970</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="763" spans="2:4">
+      <c r="B763" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="764" spans="2:4">
+      <c r="C764" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="766" spans="2:4">
+      <c r="D766" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="768" spans="2:4">
+      <c r="D768" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9">
+      <c r="A772" s="36" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9">
+      <c r="B774" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9">
+      <c r="C776" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I776" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9">
+      <c r="C777" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I777" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9">
+      <c r="C778" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="735" spans="5:9">
-      <c r="F735" t="s">
+      <c r="I778" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="736" spans="5:9">
-      <c r="F736" s="65" t="s">
+    <row r="779" spans="1:9">
+      <c r="C779" t="s">
         <v>1341</v>
       </c>
-      <c r="G736" s="65"/>
-      <c r="H736" s="65"/>
-      <c r="I736" s="65"/>
-    </row>
-    <row r="741" spans="3:5">
-      <c r="C741" t="s">
-        <v>970</v>
-      </c>
-      <c r="E741" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="758" spans="1:4">
-      <c r="B758" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="759" spans="1:4">
-      <c r="C759" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="761" spans="1:4">
-      <c r="D761" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="763" spans="1:4">
-      <c r="D763" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="767" spans="1:4">
-      <c r="A767" s="36" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="769" spans="2:9">
-      <c r="B769" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="771" spans="2:9">
-      <c r="C771" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I771" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="772" spans="2:9">
-      <c r="C772" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I772" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="773" spans="2:9">
-      <c r="C773" t="s">
+      <c r="I779" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9">
+      <c r="C780" t="s">
         <v>1342</v>
       </c>
-      <c r="I773" t="s">
+      <c r="I780" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="774" spans="2:9">
-      <c r="C774" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I774" t="s">
+    <row r="781" spans="1:9">
+      <c r="C781" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I781" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9">
+      <c r="C783" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="775" spans="2:9">
-      <c r="C775" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I775" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="776" spans="2:9">
-      <c r="C776" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I776" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="778" spans="2:9">
-      <c r="C778" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="779" spans="2:9">
-      <c r="C779" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="780" spans="2:9">
-      <c r="C780" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="781" spans="2:9">
-      <c r="C781" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="783" spans="2:9">
-      <c r="D783" t="s">
-        <v>1351</v>
-      </c>
-      <c r="I783" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="784" spans="2:9">
-      <c r="D784" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I784" t="s">
-        <v>1360</v>
+    <row r="784" spans="1:9">
+      <c r="C784" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="785" spans="2:9">
-      <c r="D785" t="s">
-        <v>1353</v>
-      </c>
-      <c r="I785" t="s">
-        <v>1360</v>
+      <c r="C785" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="786" spans="2:9">
-      <c r="D786" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I786" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="787" spans="2:9">
-      <c r="D787" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I787" t="s">
-        <v>1360</v>
+      <c r="C786" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="788" spans="2:9">
       <c r="D788" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="I788" t="s">
-        <v>1360</v>
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="789" spans="2:9">
+      <c r="D789" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I789" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="790" spans="2:9">
+      <c r="D790" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I790" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="791" spans="2:9">
+      <c r="D791" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I791" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="792" spans="2:9">
+      <c r="D792" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I792" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="793" spans="2:9">
-      <c r="B793" t="s">
+      <c r="D793" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I793" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="795" spans="2:9">
+      <c r="B795" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="796" spans="2:9">
+      <c r="C796" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="798" spans="2:9">
+      <c r="B798" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="795" spans="2:9">
-      <c r="C795" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F795" t="s">
+    <row r="800" spans="2:9">
+      <c r="C800" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F800" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="797" spans="2:9">
-      <c r="C797" t="s">
+    <row r="802" spans="1:4">
+      <c r="C802" t="s">
         <v>1020</v>
-      </c>
-    </row>
-    <row r="799" spans="2:9">
-      <c r="D799" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="800" spans="2:9">
-      <c r="D800" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="801" spans="1:4">
-      <c r="D801" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="802" spans="1:4">
-      <c r="D802" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="803" spans="1:4">
-      <c r="D803" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="804" spans="1:4">
       <c r="D804" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="805" spans="1:4">
       <c r="D805" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="806" spans="1:4">
       <c r="D806" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4">
+      <c r="D807" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4">
+      <c r="D808" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4">
+      <c r="D809" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4">
+      <c r="D810" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4">
+      <c r="D811" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
-      <c r="A808" s="36" t="s">
+    <row r="813" spans="1:4">
+      <c r="A813" s="36" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
-      <c r="B810" t="s">
+    <row r="815" spans="1:4">
+      <c r="B815" t="s">
         <v>1030</v>
-      </c>
-    </row>
-    <row r="812" spans="1:4">
-      <c r="C812" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="813" spans="1:4">
-      <c r="C813" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="814" spans="1:4">
-      <c r="C814" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="816" spans="1:4">
-      <c r="C816" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="817" spans="2:12">
       <c r="C817" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L817" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="818" spans="2:12">
       <c r="C818" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L818" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="819" spans="2:12">
       <c r="C819" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L819" t="s">
-        <v>1183</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="821" spans="2:12">
       <c r="C821" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="822" spans="2:12">
       <c r="C822" t="s">
-        <v>1039</v>
+        <v>1036</v>
+      </c>
+      <c r="L822" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="823" spans="2:12">
       <c r="C823" t="s">
-        <v>1040</v>
+        <v>1037</v>
+      </c>
+      <c r="L823" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="824" spans="2:12">
       <c r="C824" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H824" t="s">
-        <v>1043</v>
+        <v>1038</v>
+      </c>
+      <c r="L824" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="826" spans="2:12">
+      <c r="C826" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="827" spans="2:12">
-      <c r="B827" t="s">
-        <v>1044</v>
+      <c r="C827" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="828" spans="2:12">
+      <c r="C828" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="829" spans="2:12">
       <c r="C829" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H829" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="832" spans="2:12">
+      <c r="B832" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6">
+      <c r="C834" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="830" spans="2:12">
-      <c r="C830" t="s">
+    <row r="835" spans="1:6">
+      <c r="C835" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="831" spans="2:12">
-      <c r="C831" t="s">
+    <row r="836" spans="1:6">
+      <c r="C836" t="s">
         <v>1047</v>
       </c>
-      <c r="F831" t="s">
+      <c r="F836" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="832" spans="2:12">
-      <c r="C832" t="s">
+    <row r="837" spans="1:6">
+      <c r="C837" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="835" spans="1:3">
-      <c r="A835" s="36" t="s">
+    <row r="840" spans="1:6">
+      <c r="A840" s="36" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="837" spans="1:3">
-      <c r="B837" t="s">
+    <row r="842" spans="1:6">
+      <c r="B842" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="838" spans="1:3">
-      <c r="C838" t="s">
+    <row r="843" spans="1:6">
+      <c r="C843" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="839" spans="1:3">
-      <c r="C839" t="s">
+    <row r="844" spans="1:6">
+      <c r="C844" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="840" spans="1:3">
-      <c r="C840" t="s">
+    <row r="845" spans="1:6">
+      <c r="C845" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="841" spans="1:3">
-      <c r="C841" t="s">
+    <row r="846" spans="1:6">
+      <c r="C846" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="842" spans="1:3">
-      <c r="C842" t="s">
+    <row r="847" spans="1:6">
+      <c r="C847" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="845" spans="1:3">
-      <c r="A845" s="57" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3">
-      <c r="A846" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B846" t="s">
+    <row r="850" spans="1:3">
+      <c r="A850" s="57" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="A851" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B851" t="s">
         <v>647</v>
       </c>
-      <c r="C846" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="847" spans="1:3">
-      <c r="A847">
-        <v>1</v>
-      </c>
-      <c r="B847" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="848" spans="1:3">
-      <c r="A848">
-        <v>2</v>
-      </c>
-      <c r="B848" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="849" spans="1:3">
-      <c r="A849">
-        <v>3</v>
-      </c>
-      <c r="B849" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="850" spans="1:3">
-      <c r="A850">
-        <v>4</v>
-      </c>
-      <c r="B850" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="851" spans="1:3">
-      <c r="A851">
-        <v>5</v>
-      </c>
-      <c r="B851" t="s">
-        <v>1367</v>
+      <c r="C851" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="A852">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B852" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="853" spans="1:3">
       <c r="A853">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B853" t="s">
-        <v>257</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="854" spans="1:3">
       <c r="A854">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B854" t="s">
-        <v>403</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="855" spans="1:3">
       <c r="A855">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B855" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="856" spans="1:3">
       <c r="A856">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B856" t="s">
-        <v>213</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="857" spans="1:3">
       <c r="A857">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B857" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="858" spans="1:3">
       <c r="A858">
+        <v>7</v>
+      </c>
+      <c r="B858" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3">
+      <c r="A859">
+        <v>8</v>
+      </c>
+      <c r="B859" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3">
+      <c r="A860">
+        <v>9</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="A861">
+        <v>10</v>
+      </c>
+      <c r="B861" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862">
+        <v>11</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863">
         <v>12</v>
       </c>
-      <c r="B858" t="s">
+      <c r="B863" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="860" spans="1:3">
-      <c r="A860" s="57" t="s">
+    <row r="865" spans="1:6">
+      <c r="A865" s="57" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C865" s="70"/>
+    </row>
+    <row r="866" spans="1:6">
+      <c r="A866" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B866" t="s">
+        <v>647</v>
+      </c>
+      <c r="C866" s="70" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D866" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6">
+      <c r="A867" s="47">
+        <v>1</v>
+      </c>
+      <c r="B867" s="67" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="861" spans="1:3">
-      <c r="A861" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B861" t="s">
-        <v>647</v>
-      </c>
-      <c r="C861" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="862" spans="1:3">
-      <c r="A862" s="47">
-        <v>1</v>
-      </c>
-      <c r="B862" s="68"/>
-      <c r="C862" s="68"/>
-    </row>
-    <row r="863" spans="1:3">
-      <c r="A863" s="47">
+      <c r="C867" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D867" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6">
+      <c r="A868" s="47">
         <v>2</v>
       </c>
-      <c r="B863" s="68"/>
-      <c r="C863" s="68"/>
-    </row>
-    <row r="864" spans="1:3">
-      <c r="A864" s="47">
+      <c r="B868" s="67" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C868" s="70" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D868" t="s">
+        <v>49</v>
+      </c>
+      <c r="F868" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6">
+      <c r="A869" s="47">
         <v>3</v>
       </c>
-      <c r="B864" s="68"/>
-      <c r="C864" s="68"/>
-    </row>
-    <row r="865" spans="1:3">
-      <c r="A865" s="47">
+      <c r="B869" s="67" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C869" s="67" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D869" t="s">
+        <v>49</v>
+      </c>
+      <c r="F869" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6">
+      <c r="A870" s="47">
         <v>4</v>
       </c>
-      <c r="B865" s="68"/>
-      <c r="C865" s="68"/>
-    </row>
-    <row r="866" spans="1:3">
-      <c r="A866" s="47">
+      <c r="B870" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C870" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D870" t="s">
+        <v>49</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6">
+      <c r="A871" s="47">
         <v>5</v>
       </c>
-      <c r="B866" s="68"/>
-      <c r="C866" s="68"/>
-    </row>
-    <row r="867" spans="1:3">
-      <c r="A867" s="47">
+      <c r="B871" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C871" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="D871" t="s">
+        <v>98</v>
+      </c>
+      <c r="F871" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6">
+      <c r="A872" s="47">
         <v>6</v>
       </c>
-      <c r="B867" s="68"/>
-      <c r="C867" s="68"/>
-    </row>
-    <row r="868" spans="1:3">
-      <c r="A868" s="47">
+      <c r="B872" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C872" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D872" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6">
+      <c r="A873" s="47">
         <v>7</v>
       </c>
-      <c r="B868" s="68"/>
-      <c r="C868" s="68"/>
-    </row>
-    <row r="869" spans="1:3">
-      <c r="A869" s="47">
+      <c r="B873" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C873" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D873" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6">
+      <c r="A874" s="47">
         <v>8</v>
       </c>
-      <c r="B869" s="68"/>
-      <c r="C869" s="68"/>
-    </row>
-    <row r="870" spans="1:3">
-      <c r="A870" s="47">
+      <c r="B874" s="67" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C874" s="67" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D874" t="s">
+        <v>98</v>
+      </c>
+      <c r="F874" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6">
+      <c r="A875" s="47">
         <v>9</v>
       </c>
-      <c r="B870" s="68"/>
-      <c r="C870" s="68"/>
-    </row>
-    <row r="871" spans="1:3">
-      <c r="A871" s="47">
+      <c r="B875" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C875" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D875" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6">
+      <c r="A876" s="47">
         <v>10</v>
       </c>
-      <c r="B871" s="68"/>
-      <c r="C871" s="68"/>
-    </row>
-    <row r="872" spans="1:3">
-      <c r="A872" s="47">
+      <c r="B876" s="67" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C876" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="D876" t="s">
+        <v>98</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6">
+      <c r="A877" s="47">
         <v>11</v>
       </c>
-      <c r="B872" s="68"/>
-      <c r="C872" s="68"/>
-    </row>
-    <row r="873" spans="1:3">
-      <c r="A873" s="47">
+      <c r="B877" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C877" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D877" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6">
+      <c r="A878" s="47">
         <v>12</v>
       </c>
-      <c r="B873" s="68"/>
-      <c r="C873" s="68"/>
-    </row>
-    <row r="874" spans="1:3">
-      <c r="A874" s="47">
+      <c r="B878" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C878" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="D878" t="s">
+        <v>49</v>
+      </c>
+      <c r="E878" s="68"/>
+    </row>
+    <row r="879" spans="1:6">
+      <c r="A879" s="47">
         <v>13</v>
       </c>
-      <c r="B874" s="68"/>
-      <c r="C874" s="68"/>
-    </row>
-    <row r="875" spans="1:3">
-      <c r="A875" s="47">
+      <c r="B879" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="C879" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="D879" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6">
+      <c r="A880" s="47">
         <v>14</v>
       </c>
-      <c r="B875" s="68"/>
-      <c r="C875" s="68"/>
-    </row>
-    <row r="876" spans="1:3">
-      <c r="A876" s="47">
+      <c r="B880" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="C880" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="D880" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6">
+      <c r="A881" s="47">
         <v>15</v>
       </c>
-      <c r="B876" s="68"/>
-      <c r="C876" s="68"/>
-    </row>
-    <row r="877" spans="1:3">
-      <c r="A877" s="47">
+      <c r="B881" s="67" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C881" s="67" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D881" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6">
+      <c r="A882" s="47">
         <v>16</v>
       </c>
-      <c r="B877" s="68"/>
-      <c r="C877" s="68"/>
-    </row>
-    <row r="878" spans="1:3">
-      <c r="A878" s="47">
+      <c r="B882" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C882" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D882" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6">
+      <c r="A883" s="47">
         <v>17</v>
       </c>
-      <c r="B878" s="68"/>
-      <c r="C878" s="68"/>
-    </row>
-    <row r="879" spans="1:3">
-      <c r="A879" s="47">
+      <c r="B883" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="C883" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="D883" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6">
+      <c r="A884" s="47">
         <v>18</v>
       </c>
-      <c r="B879" s="68"/>
-      <c r="C879" s="68"/>
-    </row>
-    <row r="880" spans="1:3">
-      <c r="A880" s="47">
+      <c r="B884" s="67" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C884" s="67" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D884" t="s">
+        <v>98</v>
+      </c>
+      <c r="F884" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6">
+      <c r="A885" s="47">
         <v>19</v>
       </c>
-      <c r="B880" s="68"/>
-      <c r="C880" s="68"/>
-    </row>
-    <row r="881" spans="1:3">
-      <c r="A881" s="47">
+      <c r="B885" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C885" s="67" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D885" t="s">
+        <v>98</v>
+      </c>
+      <c r="F885" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6">
+      <c r="A886" s="47">
         <v>20</v>
       </c>
-      <c r="B881" s="68"/>
-      <c r="C881" s="68"/>
-    </row>
-    <row r="882" spans="1:3">
-      <c r="A882" s="47">
+      <c r="B886" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C886" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D886" t="s">
+        <v>98</v>
+      </c>
+      <c r="F886" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6">
+      <c r="A887" s="47">
         <v>21</v>
       </c>
-      <c r="B882" s="68"/>
-      <c r="C882" s="68"/>
-    </row>
-    <row r="883" spans="1:3">
-      <c r="A883" s="47">
+      <c r="B887" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C887" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D887" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6">
+      <c r="A888" s="47">
         <v>22</v>
       </c>
-      <c r="B883" s="68"/>
-      <c r="C883" s="68"/>
-    </row>
-    <row r="884" spans="1:3">
-      <c r="A884" s="47">
+      <c r="B888" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C888" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="D888" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6">
+      <c r="A889" s="47">
         <v>23</v>
       </c>
-      <c r="B884" s="68"/>
-      <c r="C884" s="68"/>
-    </row>
-    <row r="885" spans="1:3">
-      <c r="A885" s="47">
+      <c r="B889" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C889" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="D889" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6">
+      <c r="A890" s="47">
         <v>24</v>
       </c>
-      <c r="B885" s="68"/>
-      <c r="C885" s="68"/>
-    </row>
-    <row r="886" spans="1:3">
-      <c r="A886" s="47">
+      <c r="B890" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C890" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D890" t="s">
+        <v>98</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6">
+      <c r="A891" s="47">
         <v>25</v>
       </c>
-      <c r="B886" s="68"/>
-      <c r="C886" s="68"/>
-    </row>
-    <row r="887" spans="1:3">
-      <c r="A887" s="47">
+      <c r="B891" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C891" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D891" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6">
+      <c r="A892" s="47">
         <v>26</v>
       </c>
-      <c r="B887" s="68"/>
-      <c r="C887" s="68"/>
-    </row>
-    <row r="888" spans="1:3">
-      <c r="A888" s="47">
+      <c r="B892" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C892" s="67" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D892" t="s">
+        <v>98</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6">
+      <c r="A893" s="47">
         <v>27</v>
       </c>
-      <c r="B888" s="68"/>
-      <c r="C888" s="68"/>
-    </row>
-    <row r="889" spans="1:3">
-      <c r="A889" s="47">
+      <c r="B893" s="67" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C893" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D893" t="s">
+        <v>98</v>
+      </c>
+      <c r="F893" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6">
+      <c r="A894" s="47">
         <v>28</v>
       </c>
-      <c r="B889" s="68"/>
-      <c r="C889" s="68"/>
-    </row>
-    <row r="890" spans="1:3">
-      <c r="A890" s="47">
+      <c r="B894" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C894" s="67" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D894" t="s">
+        <v>98</v>
+      </c>
+      <c r="F894" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6">
+      <c r="A895" s="47">
         <v>29</v>
       </c>
-      <c r="B890" s="68"/>
-      <c r="C890" s="68"/>
-    </row>
-    <row r="891" spans="1:3">
-      <c r="A891" s="47">
+      <c r="B895" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C895" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D895" t="s">
+        <v>49</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6">
+      <c r="A896" s="47">
         <v>30</v>
       </c>
-      <c r="B891" s="68"/>
-      <c r="C891" s="68"/>
-    </row>
-    <row r="892" spans="1:3">
-      <c r="A892" s="47">
+      <c r="B896" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="C896" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="D896" t="s">
+        <v>49</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6">
+      <c r="A897" s="47">
         <v>31</v>
       </c>
-      <c r="B892" s="68"/>
-      <c r="C892" s="68"/>
-    </row>
-    <row r="893" spans="1:3">
-      <c r="A893" s="47">
+      <c r="B897" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="C897" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D897" t="s">
+        <v>98</v>
+      </c>
+      <c r="F897" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6">
+      <c r="A898" s="47">
         <v>32</v>
       </c>
-      <c r="B893" s="68"/>
-      <c r="C893" s="68"/>
-    </row>
-    <row r="894" spans="1:3">
-      <c r="A894" s="47">
+      <c r="B898" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C898" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D898" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6">
+      <c r="A899" s="47">
         <v>33</v>
       </c>
-      <c r="B894" s="68"/>
-      <c r="C894" s="68"/>
+      <c r="B899" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C899" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D899" t="s">
+        <v>98</v>
+      </c>
+      <c r="F899" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6">
+      <c r="A901" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6">
+      <c r="A902" t="s">
+        <v>1394</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
     <sheet name="2.Data type" sheetId="2" r:id="rId2"/>
     <sheet name="3. Java API" sheetId="3" r:id="rId3"/>
     <sheet name="Bài test tổng hợp từ 3 phần" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Method &amp; Encapsulation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="1523">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -4900,13 +4901,124 @@
     <t>k = 3</t>
   </si>
   <si>
-    <t>k=4</t>
-  </si>
-  <si>
     <t>k = 5</t>
   </si>
   <si>
     <t>Tricky , để ý dấu ;</t>
+  </si>
+  <si>
+    <t>k = 4</t>
+  </si>
+  <si>
+    <t>1. Khai báo method cùng access modifier</t>
+  </si>
+  <si>
+    <t>public void foo1( ) { }</t>
+  </si>
+  <si>
+    <t>void foo_4 ( ) { }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko hợp lệ: </t>
+  </si>
+  <si>
+    <t>default void walk_2( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// default  ko phải là acccess modifier hợp lệ khi đi kèm </t>
+  </si>
+  <si>
+    <t>void public walk_3 ( )</t>
+  </si>
+  <si>
+    <t>// Ko hợp lệ vì kiểu trả về khai báo phía sau access modifier</t>
+  </si>
+  <si>
+    <t>Tên của method phải chứa chữ cái, chữ số, $ hoặc _</t>
+  </si>
+  <si>
+    <t>Chữ cái đầu tiên của method ko được phép là số</t>
+  </si>
+  <si>
+    <t>2.Khai báo tên method</t>
+  </si>
+  <si>
+    <t>Hợp lệ ;</t>
+  </si>
+  <si>
+    <t>public void walk_1 ( ) { }</t>
+  </si>
+  <si>
+    <t>public void Walk_$() { }</t>
+  </si>
+  <si>
+    <t>public void 2_walk( )</t>
+  </si>
+  <si>
+    <t>// Sai. Tên method không được phép bắt đầu là chữ số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public walk_3 void () </t>
+  </si>
+  <si>
+    <t>// Sai. Tên method lại khai báo trước kiểu trả về</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void () </t>
+  </si>
+  <si>
+    <t>/// Sai. Ko có tên method</t>
+  </si>
+  <si>
+    <t>3. Các Specifiers</t>
+  </si>
+  <si>
+    <t>Có 3 specifiers : static , abstract , final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule: </t>
+  </si>
+  <si>
+    <t>Khác với access modifier, thì speicifers có thể có nhiều trong cùng một khai báo method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuy nhiên có một số specifier không được phép khai báo cùng nhau như : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hợp lệ ; </t>
+  </si>
+  <si>
+    <t>public final void walk () { }</t>
+  </si>
+  <si>
+    <t>public static final void walk_2 () { }</t>
+  </si>
+  <si>
+    <t>public final static void walk_3 () { }</t>
+  </si>
+  <si>
+    <t>final public void walk_ 4 () { }</t>
+  </si>
+  <si>
+    <t>Không hợp lệ:</t>
+  </si>
+  <si>
+    <t>public modifier void walk_5( )</t>
+  </si>
+  <si>
+    <t>Sai. Ko có speicifier là modifier</t>
+  </si>
+  <si>
+    <t>public void final walk_6() {}</t>
+  </si>
+  <si>
+    <t>Speicifiers phải đứng trước kiểu trả về của method</t>
+  </si>
+  <si>
+    <t>Sai. Specifier phải đứng trước khiểu trả về của method</t>
+  </si>
+  <si>
+    <t>Hợp lệ, Specifiers được phép đứng trước access modifier, và đứng trước kiểu trả về của method</t>
   </si>
 </sst>
 </file>
@@ -5440,10 +5552,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7669,16 +7781,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="78" t="s">
+      <c r="D424" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="78"/>
-      <c r="F424" s="78"/>
-      <c r="G424" s="78"/>
-      <c r="H424" s="78"/>
-      <c r="I424" s="78"/>
-      <c r="J424" s="78"/>
-      <c r="K424" s="78"/>
+      <c r="E424" s="79"/>
+      <c r="F424" s="79"/>
+      <c r="G424" s="79"/>
+      <c r="H424" s="79"/>
+      <c r="I424" s="79"/>
+      <c r="J424" s="79"/>
+      <c r="K424" s="79"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -7745,16 +7857,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="78" t="s">
+      <c r="D430" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="78"/>
-      <c r="F430" s="78"/>
-      <c r="G430" s="78"/>
-      <c r="H430" s="78"/>
-      <c r="I430" s="78"/>
-      <c r="J430" s="78"/>
-      <c r="K430" s="78"/>
+      <c r="E430" s="79"/>
+      <c r="F430" s="79"/>
+      <c r="G430" s="79"/>
+      <c r="H430" s="79"/>
+      <c r="I430" s="79"/>
+      <c r="J430" s="79"/>
+      <c r="K430" s="79"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -12501,8 +12613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y996"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D39"/>
+    <sheetView topLeftCell="A295" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18621,8 +18733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18747,7 +18859,7 @@
       <c r="C10" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18761,7 +18873,7 @@
       <c r="C11" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18775,7 +18887,7 @@
       <c r="C12" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18789,7 +18901,7 @@
       <c r="C13" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18803,7 +18915,7 @@
       <c r="C14" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18817,7 +18929,7 @@
       <c r="C15" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18831,7 +18943,7 @@
       <c r="C16" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19338,7 +19450,7 @@
         <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -19427,7 +19539,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="C63" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -19435,7 +19547,200 @@
     </row>
     <row r="64" spans="1:6">
       <c r="C64" t="s">
-        <v>1484</v>
+        <v>1483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="36" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="36" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="36" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="C33" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="C35" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="C38" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="C39" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="C40" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="C41" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="C44" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1521</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1588">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -5019,6 +5019,215 @@
   </si>
   <si>
     <t>Hợp lệ, Specifiers được phép đứng trước access modifier, và đứng trước kiểu trả về của method</t>
+  </si>
+  <si>
+    <t>4. Danh sách tham số</t>
+  </si>
+  <si>
+    <t>Rule : Danh sách tham số phải cách nhau bởi dấu ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hợp lệ: </t>
+  </si>
+  <si>
+    <t>public void walk_2 ( int a ) { }</t>
+  </si>
+  <si>
+    <t>public void walk_3 (int a, int b)  {}</t>
+  </si>
+  <si>
+    <t>public void walk_4 { }</t>
+  </si>
+  <si>
+    <t>// Sai. Ko có ngoặc tròn () khai báo list tham số</t>
+  </si>
+  <si>
+    <t>public void walk_5 (int a; int b) { }</t>
+  </si>
+  <si>
+    <t>// Sai. Danh sách tham số phải được kahi báo cách nhau bằng dấu , chứ ko phải dấu ;</t>
+  </si>
+  <si>
+    <t>RULE</t>
+  </si>
+  <si>
+    <r>
+      <t>5. Làm việc với danh sách tham số</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khai báo method (… vargs)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chỉ cho phép có một … vargs được khai báo trong 1 method</t>
+  </si>
+  <si>
+    <t>Và vị trí của …varg đó phải là cuối cùng trong list các tham số của method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hợp Lệ: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void walk_1 (int … nums ) </t>
+  </si>
+  <si>
+    <t>public void walk_2 (int start ,  int… nums ) { }</t>
+  </si>
+  <si>
+    <t>public void walk_3 (int … nums, int start )</t>
+  </si>
+  <si>
+    <t>// ..vargs ko nằm ở cuối</t>
+  </si>
+  <si>
+    <t>public void walk_4 (int … starts, int … ends )</t>
+  </si>
+  <si>
+    <t>// Sai. …vargs chỉ được phép tói đa là 1 trong khai báo tham số của 1 method</t>
+  </si>
+  <si>
+    <t>Các cách gọi method mà có tham số …vargs</t>
+  </si>
+  <si>
+    <t>Truyền 1 mảng vào tham số …vargs</t>
+  </si>
+  <si>
+    <t>main () {</t>
+  </si>
+  <si>
+    <t>test()</t>
+  </si>
+  <si>
+    <t>// In ra 0</t>
+  </si>
+  <si>
+    <t>public static void test(int... vargs){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println(vargs.length);</t>
+  </si>
+  <si>
+    <t>test( new int [] {4, 5})</t>
+  </si>
+  <si>
+    <t>// In ra 2</t>
+  </si>
+  <si>
+    <t>Truyền một list các phần tử và Java sẽ tự ngầm hiểu là tạo mảng và truyền vào method này</t>
+  </si>
+  <si>
+    <t>test ( 1, 2, 3);</t>
+  </si>
+  <si>
+    <t>//In ra 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truyền tham số rỗng -&gt; kHi đó Java hiểu là tạo mảng rỗng </t>
+  </si>
+  <si>
+    <t>test(null)</t>
+  </si>
+  <si>
+    <t>// Throw Null Pointer Exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu truyền null vào thì sẽ báo exception (Vì ở đây là vargs nên cho dù kiểu dữ liệu là primitive thì Java hiểu đây là  mảng nên có thể truyền null) </t>
+  </si>
+  <si>
+    <t>6. Apply access modifiers</t>
+  </si>
+  <si>
+    <t>Private Access modifiers</t>
+  </si>
+  <si>
+    <t>Chỉ gọi được method trong nội bộ calss</t>
+  </si>
+  <si>
+    <t>Default acccess modifiers (package)</t>
+  </si>
+  <si>
+    <t>Chỉ gọi được method trong nội bộ package</t>
+  </si>
+  <si>
+    <t>Protected accecss modifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gọi được method trong nội bộ package và class con (thông qua kế thừa) </t>
+  </si>
+  <si>
+    <t>Tuy nhiên protected access modifiers được apply OK chỉ trong hai trường hợp sau:</t>
+  </si>
+  <si>
+    <t>TH1 : Tại subClass, gọi method của lớp cha mà ko refer tới một biến nào khác</t>
+  </si>
+  <si>
+    <t>public void child_Method() {</t>
+  </si>
+  <si>
+    <t>// Ở lớp cha thì hàm getInfo() được khai báo là protected</t>
+  </si>
+  <si>
+    <t>getInfo( );</t>
+  </si>
+  <si>
+    <t>TH2 : Tại subClass, gọi method của lớp cha, mà refer tới một biến thì biến đó phải là instance của lớp con</t>
+  </si>
+  <si>
+    <t>Child child = new Child();</t>
+  </si>
+  <si>
+    <t>child.getInfo();</t>
+  </si>
+  <si>
+    <t>Nếu refer tới một biến mà biến đó là lớp Cha thì sẽ báo lỗi compile</t>
+  </si>
+  <si>
+    <t>Parent parent = new Parent();</t>
+  </si>
+  <si>
+    <t>parent.getInfo();</t>
+  </si>
+  <si>
+    <t>Ví dụ sau thì lớp cha và lớp con ở khác package</t>
+  </si>
+  <si>
+    <t>// LỖI COMPILE do Tại lớp cha khác package với lớp con</t>
+  </si>
+  <si>
+    <t>Tương tự, nếu tạo ra instance là lớp con nhưng biến reference lại có kiểu là lớp Parent</t>
+  </si>
+  <si>
+    <t>Thì cũng sẽ báo lỗi compile</t>
+  </si>
+  <si>
+    <t>Parent parent = new Child();</t>
+  </si>
+  <si>
+    <t>Hợp lệ</t>
+  </si>
+  <si>
+    <t>Public Access modifiers</t>
+  </si>
+  <si>
+    <t>7.Gọi static var và static method</t>
+  </si>
+  <si>
+    <t>Rule khi gọi static methods:</t>
+  </si>
+  <si>
+    <t>Có thể dùng instance của class để gọi hàm static</t>
+  </si>
+  <si>
+    <t>Kể cả instance = null thì vẫn gọi được hàm static (ko báo lỗi null pointer exception)</t>
   </si>
 </sst>
 </file>
@@ -19558,10 +19767,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19684,37 +19893,37 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="1:7">
       <c r="C33" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="1:7">
       <c r="C35" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="1:7">
       <c r="B37" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="1:7">
       <c r="C38" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="1:7">
       <c r="C39" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="1:7">
       <c r="C40" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="1:7">
       <c r="C41" t="s">
         <v>1515</v>
       </c>
@@ -19722,12 +19931,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="1:7">
       <c r="B43" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="1:7">
       <c r="C44" t="s">
         <v>1517</v>
       </c>
@@ -19735,12 +19944,449 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="1:7">
       <c r="C45" t="s">
         <v>1519</v>
       </c>
       <c r="G45" t="s">
         <v>1521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="36" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="C51" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="D52" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="D53" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="D56" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="D57" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="36" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="D67" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="D72" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="D74" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="E78" s="58" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="E79" s="58" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="E80" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+    </row>
+    <row r="82" spans="4:9">
+      <c r="D82" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9">
+      <c r="E83" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9">
+      <c r="F84" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9">
+      <c r="E85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9">
+      <c r="D86" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9">
+      <c r="E88" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9">
+      <c r="F89" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9">
+      <c r="E90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9">
+      <c r="D91" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="93" spans="4:9">
+      <c r="E93" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9">
+      <c r="F94" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9">
+      <c r="E95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="D97" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="E99" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="F100" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="36" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="B104" s="65" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="B105" s="65" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="B107" s="65" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="B109" s="65" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C109" s="65"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="C111" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="C112" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="113" spans="4:10">
+      <c r="D113" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10">
+      <c r="E115" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10">
+      <c r="F116" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10">
+      <c r="G117" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="F118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="D119" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10">
+      <c r="E122" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10">
+      <c r="G124" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10">
+      <c r="G125" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10">
+      <c r="F127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="5:10">
+      <c r="E129" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="130" spans="5:10">
+      <c r="E130" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="132" spans="5:10">
+      <c r="F132" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="134" spans="5:10">
+      <c r="G134" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="135" spans="5:10">
+      <c r="G135" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="137" spans="5:10">
+      <c r="F137" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="5:10">
+      <c r="E139" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="140" spans="5:10">
+      <c r="E140" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="142" spans="5:10">
+      <c r="F142" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="144" spans="5:10">
+      <c r="G144" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="G145" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="F146" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="C150" s="65"/>
+      <c r="D150" s="65"/>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="36" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="B154" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="E155" t="s">
+        <v>1587</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="1648">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -4949,9 +4949,6 @@
     <t>public void walk_1 ( ) { }</t>
   </si>
   <si>
-    <t>public void Walk_$() { }</t>
-  </si>
-  <si>
     <t>public void 2_walk( )</t>
   </si>
   <si>
@@ -5173,9 +5170,6 @@
     <t>public void child_Method() {</t>
   </si>
   <si>
-    <t>// Ở lớp cha thì hàm getInfo() được khai báo là protected</t>
-  </si>
-  <si>
     <t>getInfo( );</t>
   </si>
   <si>
@@ -5197,9 +5191,6 @@
     <t>parent.getInfo();</t>
   </si>
   <si>
-    <t>Ví dụ sau thì lớp cha và lớp con ở khác package</t>
-  </si>
-  <si>
     <t>// LỖI COMPILE do Tại lớp cha khác package với lớp con</t>
   </si>
   <si>
@@ -5228,13 +5219,202 @@
   </si>
   <si>
     <t>Kể cả instance = null thì vẫn gọi được hàm static (ko báo lỗi null pointer exception)</t>
+  </si>
+  <si>
+    <t>public void Walk_$ ( ) { }</t>
+  </si>
+  <si>
+    <t>Ví dụ sau thì lớp cha và lớp con ở khác package . Ở lớp cha thì hàm getInfo() được khai báo là protected</t>
+  </si>
+  <si>
+    <t>8. Static vs Instance</t>
+  </si>
+  <si>
+    <t>Một hàm static ko thể gọi một hàm khác không phải là static</t>
+  </si>
+  <si>
+    <t>public class Test_2 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void first() {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void second(){}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        first();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        second();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        new Test_2().second();</t>
+  </si>
+  <si>
+    <t>// Lỗi COMPILE. Ko thể gọi hàm ko phải là static</t>
+  </si>
+  <si>
+    <t>Nhưng có thể gọi thông qua instance</t>
+  </si>
+  <si>
+    <t>// Hợp lệ. Gọi hàm non-static thông qua instance</t>
+  </si>
+  <si>
+    <t>Static method ,  static variable  ko thể gọi instance variable, static method</t>
+  </si>
+  <si>
+    <t>Instance method, biến instance có thể gọi static method, static variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void first() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        point = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static int staticNums;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int point;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void second(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        staticNums = 1;</t>
+  </si>
+  <si>
+    <t>// Lỗi COMPILE</t>
+  </si>
+  <si>
+    <t>// OK</t>
+  </si>
+  <si>
+    <t>9. Static final  variables (hằng số)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE : </t>
+  </si>
+  <si>
+    <t>Hằng số ko thể thay đổi giá trị</t>
+  </si>
+  <si>
+    <t>Tuy nhiên nếu hằng số là một reference variable, Thì vẫn có thể gọi hàm (COMPILE OK nhưng vẫn ko thể thay đổi giá trị của Object instance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đương nhiên là ko thể assign reference variable đó tới một object khác </t>
+  </si>
+  <si>
+    <t>public class Init {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static final int NUM = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static final ArrayList&lt;String&gt; values = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NUM = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        values.add("foo");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        values = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>10. Khởi tạo static</t>
+  </si>
+  <si>
+    <t>Khởi tạo static chạy ngay khi class được dùng</t>
+  </si>
+  <si>
+    <t>khối static ko thể thay đổi giá trị của một biến static final (hằng số)</t>
+  </si>
+  <si>
+    <t>11. Static import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE </t>
+  </si>
+  <si>
+    <t>Thứ tự phải là import static …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import static chỉ import member là static </t>
+  </si>
+  <si>
+    <t>import static java.util.Arrays.asList;</t>
+  </si>
+  <si>
+    <t>public static void main (String [ ] args ) {</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt; list = asList("one", "two");</t>
+  </si>
+  <si>
+    <t>import static java.util.Arrays;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Tên class Arrays ko phải là static </t>
+  </si>
+  <si>
+    <t>static import java.util.Arrays.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Không hợp lệ. Sai thứ tự </t>
+  </si>
+  <si>
+    <t>main (String args [ ] ) {</t>
+  </si>
+  <si>
+    <t>Arrays.asList("one", "two");</t>
+  </si>
+  <si>
+    <t>// Không hợp lệ</t>
+  </si>
+  <si>
+    <t>12. Truyền dữ liệu vào methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java là "pass by value", nghĩa là sẽ tạo một copy variable vào trong hàm </t>
+  </si>
+  <si>
+    <t>Đối với biến primitive, ko làm thay đổi giá trị gốc của tham số</t>
+  </si>
+  <si>
+    <t>Đối với StringBuilder:</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    StringBuilder name = new StringBuilder();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    concatRandomStr(name);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println(name);</t>
+  </si>
+  <si>
+    <t>public static void concatRandomStr(StringBuilder s){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    s.append("Webby");</t>
+  </si>
+  <si>
+    <t>Ở đây s là một copy của biến name, Và cả name và s đều trỏ ưới một StringBuilder object</t>
+  </si>
+  <si>
+    <t>Do vậy là khi thay đổi giá trị của s thì name cũng thay đổi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="53">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5580,6 +5760,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5620,7 +5806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5765,6 +5951,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5896,6 +6088,49 @@
         <a:xfrm>
           <a:off x="646043" y="29150649"/>
           <a:ext cx="4964530" cy="2666945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>166229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294655</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>187132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1833563" y="50077229"/>
+          <a:ext cx="2711623" cy="973403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19767,10 +20002,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19843,7 +20078,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="C21" t="s">
-        <v>1499</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -19853,118 +20088,118 @@
     </row>
     <row r="24" spans="1:6">
       <c r="C24" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F24" t="s">
         <v>1500</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F25" t="s">
         <v>1502</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F26" t="s">
         <v>1504</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="36" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C32" t="s">
         <v>1508</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="C33" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="C35" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="C38" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="C39" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="C41" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G41" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="C44" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G44" t="s">
         <v>1517</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="C45" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G45" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="36" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="C51" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D51" t="s">
         <v>1498</v>
@@ -19972,12 +20207,12 @@
     </row>
     <row r="52" spans="1:8">
       <c r="D52" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="D53" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -19987,80 +20222,80 @@
     </row>
     <row r="56" spans="1:8">
       <c r="D56" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H56" t="s">
         <v>1528</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="D57" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H57" t="s">
         <v>1530</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="36" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C61" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="C62" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="65" spans="3:9">
       <c r="C65" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D65" t="s">
         <v>1536</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="67" spans="3:9">
       <c r="D67" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="70" spans="3:9">
       <c r="C70" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="72" spans="3:9">
       <c r="D72" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I72" t="s">
         <v>1539</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="74" spans="3:9">
       <c r="D74" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I74" t="s">
         <v>1541</v>
-      </c>
-      <c r="I74" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="77" spans="3:9">
       <c r="C77" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="78" spans="3:9">
       <c r="E78" s="58" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F78" s="43"/>
       <c r="G78" s="43"/>
@@ -20069,7 +20304,7 @@
     </row>
     <row r="79" spans="3:9">
       <c r="E79" s="58" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="43"/>
@@ -20087,20 +20322,20 @@
     </row>
     <row r="82" spans="4:9">
       <c r="D82" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="83" spans="4:9">
       <c r="E83" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="84" spans="4:9">
       <c r="F84" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I84" t="s">
         <v>1546</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="85" spans="4:9">
@@ -20110,20 +20345,20 @@
     </row>
     <row r="86" spans="4:9">
       <c r="D86" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="88" spans="4:9">
       <c r="E88" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="89" spans="4:9">
       <c r="F89" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I89" t="s">
         <v>1556</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="90" spans="4:9">
@@ -20133,20 +20368,20 @@
     </row>
     <row r="91" spans="4:9">
       <c r="D91" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="93" spans="4:9">
       <c r="E93" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="94" spans="4:9">
       <c r="F94" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I94" t="s">
         <v>1550</v>
-      </c>
-      <c r="I94" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="95" spans="4:9">
@@ -20156,20 +20391,20 @@
     </row>
     <row r="97" spans="1:9">
       <c r="D97" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="E99" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="F100" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I100" t="s">
         <v>1553</v>
-      </c>
-      <c r="I100" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -20179,23 +20414,23 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="B104" s="65" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="B105" s="65" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C105" s="65"/>
       <c r="D105" s="65"/>
       <c r="E105" s="65"/>
       <c r="F105" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -20206,13 +20441,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="B107" s="65" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C107" s="65"/>
       <c r="D107" s="65"/>
       <c r="E107" s="65"/>
       <c r="F107" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -20223,110 +20458,104 @@
     </row>
     <row r="109" spans="1:9">
       <c r="B109" s="65" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C109" s="65"/>
       <c r="D109" s="65"/>
       <c r="E109" s="65"/>
       <c r="F109" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="C111" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="C112" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="113" spans="4:10">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7">
       <c r="D113" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7">
+      <c r="E115" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7">
+      <c r="F116" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="115" spans="4:10">
-      <c r="E115" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="116" spans="4:10">
-      <c r="F116" t="s">
+    <row r="117" spans="4:7">
+      <c r="G117" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="117" spans="4:10">
-      <c r="G117" t="s">
-        <v>1570</v>
-      </c>
-      <c r="J117" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="118" spans="4:10">
+    <row r="118" spans="4:7">
       <c r="F118" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="4:10">
+    <row r="119" spans="4:7">
       <c r="D119" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="122" spans="4:7">
+      <c r="E122" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7">
+      <c r="G124" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="125" spans="4:7">
+      <c r="G125" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="122" spans="4:10">
-      <c r="E122" t="s">
-        <v>1582</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="124" spans="4:10">
-      <c r="G124" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="125" spans="4:10">
-      <c r="G125" t="s">
-        <v>1573</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="127" spans="4:10">
+    <row r="127" spans="4:7">
       <c r="F127" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="129" spans="5:10">
       <c r="E129" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="130" spans="5:10">
       <c r="E130" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="132" spans="5:10">
       <c r="F132" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="134" spans="5:10">
       <c r="G134" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="135" spans="5:10">
       <c r="G135" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="J135" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="137" spans="5:10">
@@ -20336,30 +20565,30 @@
     </row>
     <row r="139" spans="5:10">
       <c r="E139" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="142" spans="5:10">
       <c r="F142" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="144" spans="5:10">
       <c r="G144" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="G145" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="J145" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -20373,24 +20602,705 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="36" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="B154" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E154" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="E155" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="36" t="s">
         <v>1587</v>
       </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9">
+      <c r="C161" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9">
+      <c r="D162" s="58" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
+    </row>
+    <row r="163" spans="3:9">
+      <c r="D163" s="58" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E163" s="43"/>
+      <c r="F163" s="43"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
+    </row>
+    <row r="164" spans="3:9">
+      <c r="D164" s="80"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="43"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="43"/>
+    </row>
+    <row r="165" spans="3:9">
+      <c r="D165" s="58" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E165" s="43"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43"/>
+      <c r="I165" s="43"/>
+    </row>
+    <row r="166" spans="3:9">
+      <c r="D166" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="E166" s="43"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="43"/>
+      <c r="I166" s="43"/>
+    </row>
+    <row r="167" spans="3:9">
+      <c r="D167" s="58" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E167" s="43"/>
+      <c r="F167" s="43"/>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43"/>
+      <c r="I167" s="43"/>
+    </row>
+    <row r="168" spans="3:9">
+      <c r="D168" s="58" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="43" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9">
+      <c r="D169" s="58" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+      <c r="I169" s="43" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9">
+      <c r="D170" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43"/>
+      <c r="I170" s="43"/>
+    </row>
+    <row r="171" spans="3:9">
+      <c r="D171" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
+      <c r="I171" s="43"/>
+    </row>
+    <row r="174" spans="3:9">
+      <c r="C174" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="175" spans="3:9">
+      <c r="C175" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="177" spans="4:8">
+      <c r="D177" s="58" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
+      <c r="G177" s="43"/>
+      <c r="H177" s="43"/>
+    </row>
+    <row r="178" spans="4:8">
+      <c r="D178" s="58" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E178" s="43"/>
+      <c r="F178" s="43"/>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43"/>
+    </row>
+    <row r="179" spans="4:8">
+      <c r="D179" s="58" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="180" spans="4:8">
+      <c r="D180" s="58" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="181" spans="4:8">
+      <c r="D181" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+    </row>
+    <row r="182" spans="4:8">
+      <c r="D182" s="58" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+    </row>
+    <row r="183" spans="4:8">
+      <c r="D183" s="80"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+    </row>
+    <row r="184" spans="4:8">
+      <c r="D184" s="80"/>
+      <c r="E184" s="43"/>
+      <c r="F184" s="43"/>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43"/>
+    </row>
+    <row r="185" spans="4:8">
+      <c r="D185" s="58" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E185" s="43"/>
+      <c r="F185" s="43"/>
+      <c r="G185" s="43"/>
+      <c r="H185" s="43"/>
+    </row>
+    <row r="186" spans="4:8">
+      <c r="D186" s="58" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E186" s="43"/>
+      <c r="F186" s="43"/>
+      <c r="G186" s="43"/>
+      <c r="H186" s="43"/>
+    </row>
+    <row r="187" spans="4:8">
+      <c r="D187" s="58" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E187" s="43"/>
+      <c r="F187" s="43"/>
+      <c r="G187" s="43"/>
+      <c r="H187" s="43" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="188" spans="4:8">
+      <c r="D188" s="58" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E188" s="43"/>
+      <c r="F188" s="43"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="43" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="189" spans="4:8">
+      <c r="D189" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E189" s="43"/>
+      <c r="F189" s="43"/>
+      <c r="G189" s="43"/>
+      <c r="H189" s="43"/>
+    </row>
+    <row r="190" spans="4:8">
+      <c r="D190" s="80"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
+    </row>
+    <row r="191" spans="4:8">
+      <c r="D191" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
+      <c r="G191" s="43"/>
+      <c r="H191" s="43"/>
+    </row>
+    <row r="192" spans="4:8">
+      <c r="D192" s="36"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36"/>
+      <c r="H192" s="36"/>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="36" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="B196" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="C197" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="D198" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="D200" s="58" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="43"/>
+      <c r="I200" s="43"/>
+      <c r="J200" s="43"/>
+      <c r="K200" s="43"/>
+      <c r="L200" s="43"/>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="D201" s="58" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E201" s="43"/>
+      <c r="F201" s="43"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="43"/>
+      <c r="I201" s="43"/>
+      <c r="J201" s="43"/>
+      <c r="K201" s="43"/>
+      <c r="L201" s="43"/>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="D202" s="80"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43"/>
+      <c r="G202" s="43"/>
+      <c r="H202" s="43"/>
+      <c r="I202" s="43"/>
+      <c r="J202" s="43"/>
+      <c r="K202" s="43"/>
+      <c r="L202" s="43"/>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="D203" s="58" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43"/>
+      <c r="G203" s="43"/>
+      <c r="H203" s="43"/>
+      <c r="I203" s="43"/>
+      <c r="J203" s="43"/>
+      <c r="K203" s="43"/>
+      <c r="L203" s="43"/>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="D204" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
+      <c r="I204" s="43"/>
+      <c r="J204" s="43"/>
+      <c r="K204" s="43"/>
+      <c r="L204" s="43"/>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="D205" s="58" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="43"/>
+      <c r="J205" s="43"/>
+      <c r="K205" s="43"/>
+      <c r="L205" s="43"/>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="D206" s="80"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="43"/>
+      <c r="J206" s="43"/>
+      <c r="K206" s="43"/>
+      <c r="L206" s="43"/>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="D207" s="80"/>
+      <c r="E207" s="43"/>
+      <c r="F207" s="43"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="43"/>
+      <c r="I207" s="43"/>
+      <c r="J207" s="43"/>
+      <c r="K207" s="43"/>
+      <c r="L207" s="43"/>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="D208" s="58" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E208" s="43"/>
+      <c r="F208" s="43"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="43"/>
+      <c r="I208" s="43"/>
+      <c r="J208" s="43"/>
+      <c r="K208" s="43"/>
+      <c r="L208" s="43"/>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="D209" s="58" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="43"/>
+      <c r="I209" s="43"/>
+      <c r="J209" s="43"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="43"/>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="D210" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E210" s="43"/>
+      <c r="F210" s="43"/>
+      <c r="G210" s="43"/>
+      <c r="H210" s="43"/>
+      <c r="I210" s="43"/>
+      <c r="J210" s="43"/>
+      <c r="K210" s="43"/>
+      <c r="L210" s="43"/>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="D211" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E211" s="43"/>
+      <c r="F211" s="43"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="43"/>
+      <c r="J211" s="43"/>
+      <c r="K211" s="43"/>
+      <c r="L211" s="43"/>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="36" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="B216" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="B217" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="36" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="B221" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="C222" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="D224" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="225" spans="4:9">
+      <c r="E225" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="226" spans="4:9">
+      <c r="E226" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="4:9">
+      <c r="F227" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="228" spans="4:9">
+      <c r="G228" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="229" spans="4:9">
+      <c r="F229" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="4:9">
+      <c r="E230" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="4:9">
+      <c r="D232" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="234" spans="4:9">
+      <c r="E234" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="235" spans="4:9">
+      <c r="E235" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="237" spans="4:9">
+      <c r="E237" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="239" spans="4:9">
+      <c r="F239" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I239" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="240" spans="4:9">
+      <c r="E240" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="36" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="B245" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="C247" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="C249" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="D251" s="58" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E251" s="43"/>
+      <c r="F251" s="43"/>
+      <c r="G251" s="43"/>
+      <c r="H251" s="43"/>
+      <c r="I251" s="43"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="D252" s="58" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E252" s="43"/>
+      <c r="F252" s="43"/>
+      <c r="G252" s="43"/>
+      <c r="H252" s="43"/>
+      <c r="I252" s="43"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="D253" s="58" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43"/>
+      <c r="G253" s="43"/>
+      <c r="H253" s="43"/>
+      <c r="I253" s="43"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="D254" s="58" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E254" s="43"/>
+      <c r="F254" s="43"/>
+      <c r="G254" s="43"/>
+      <c r="H254" s="43"/>
+      <c r="I254" s="43"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="D255" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E255" s="43"/>
+      <c r="F255" s="43"/>
+      <c r="G255" s="43"/>
+      <c r="H255" s="43"/>
+      <c r="I255" s="43"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="D256" s="80"/>
+      <c r="E256" s="43"/>
+      <c r="F256" s="43"/>
+      <c r="G256" s="43"/>
+      <c r="H256" s="43"/>
+      <c r="I256" s="43"/>
+    </row>
+    <row r="257" spans="4:9">
+      <c r="D257" s="58" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E257" s="43"/>
+      <c r="F257" s="43"/>
+      <c r="G257" s="43"/>
+      <c r="H257" s="43"/>
+      <c r="I257" s="43"/>
+    </row>
+    <row r="258" spans="4:9">
+      <c r="D258" s="58" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E258" s="43"/>
+      <c r="F258" s="43"/>
+      <c r="G258" s="43"/>
+      <c r="H258" s="43"/>
+      <c r="I258" s="43"/>
+    </row>
+    <row r="259" spans="4:9">
+      <c r="D259" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E259" s="43"/>
+      <c r="F259" s="43"/>
+      <c r="G259" s="43"/>
+      <c r="H259" s="43"/>
+      <c r="I259" s="43"/>
+    </row>
+    <row r="261" spans="4:9">
+      <c r="D261" s="81" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="12"/>
+    </row>
+    <row r="262" spans="4:9">
+      <c r="D262" s="81" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="12"/>
+      <c r="H262" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1745">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -4943,9 +4943,6 @@
     <t>2.Khai báo tên method</t>
   </si>
   <si>
-    <t>Hợp lệ ;</t>
-  </si>
-  <si>
     <t>public void walk_1 ( ) { }</t>
   </si>
   <si>
@@ -5040,9 +5037,6 @@
   </si>
   <si>
     <t>public void walk_5 (int a; int b) { }</t>
-  </si>
-  <si>
-    <t>// Sai. Danh sách tham số phải được kahi báo cách nhau bằng dấu , chứ ko phải dấu ;</t>
   </si>
   <si>
     <t>RULE</t>
@@ -5218,9 +5212,6 @@
     <t>Có thể dùng instance của class để gọi hàm static</t>
   </si>
   <si>
-    <t>Kể cả instance = null thì vẫn gọi được hàm static (ko báo lỗi null pointer exception)</t>
-  </si>
-  <si>
     <t>public void Walk_$ ( ) { }</t>
   </si>
   <si>
@@ -5408,13 +5399,378 @@
   </si>
   <si>
     <t>Do vậy là khi thay đổi giá trị của s thì name cũng thay đổi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Init init = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   init.foo();</t>
+  </si>
+  <si>
+    <t>public static void foo(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println("foo");</t>
+  </si>
+  <si>
+    <t>13. Overload method</t>
+  </si>
+  <si>
+    <t>1 Overload method có thể khác nhau về : access modifier, specifier , return type, exception list</t>
+  </si>
+  <si>
+    <t>public void fly (int numMiles)  { }</t>
+  </si>
+  <si>
+    <t>public void fly (short numFeet) { }</t>
+  </si>
+  <si>
+    <t>public boolean fly () { return false; }</t>
+  </si>
+  <si>
+    <t>void fly (int numMiles, short numFeet) { }</t>
+  </si>
+  <si>
+    <t>public void fly (short numFeet, int numMiles ) throws Exception {}</t>
+  </si>
+  <si>
+    <t>Overload method là khi 1 method có cùng tên,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nhưng khác nhau về </t>
+  </si>
+  <si>
+    <t>danh sách các tham số</t>
+  </si>
+  <si>
+    <t>kiểu dữ liệu tham số</t>
+  </si>
+  <si>
+    <t>// Sai. Danh sách tham số phải được khai báo cách nhau bằng dấu , chứ ko phải dấu ;</t>
+  </si>
+  <si>
+    <t>Kể cả instance = null thì vẫn gọi được hàm static, Compile OK. ko báo lỗi null pointer exception</t>
+  </si>
+  <si>
+    <t>Không hợp lệ ;</t>
+  </si>
+  <si>
+    <t>public  void fly (int numMiles)  { }</t>
+  </si>
+  <si>
+    <t>public int fly (int numMiles) { }</t>
+  </si>
+  <si>
+    <t>// NOT COMPILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Vì chỉ khác nhau về kiểu trả về </t>
+  </si>
+  <si>
+    <t>public void foo ( int num) { }</t>
+  </si>
+  <si>
+    <t>public static void foo (int num ) { }</t>
+  </si>
+  <si>
+    <t>// Vì danh sách tham số ko khác nhau</t>
+  </si>
+  <si>
+    <t>14. Overload cùng với vargs</t>
+  </si>
+  <si>
+    <t>public void fly(int [] length){</t>
+  </si>
+  <si>
+    <t>public void fly (int... lenght){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// NOT Compile </t>
+  </si>
+  <si>
+    <t>// Vì vargs được Java hiểu là 1 mảng</t>
+  </si>
+  <si>
+    <t>// Do vậy ở đây hiểu là 2 method giống y sì nhau</t>
+  </si>
+  <si>
+    <t>public void fly (int num){</t>
+  </si>
+  <si>
+    <t>public void fly (Integer num){</t>
+  </si>
+  <si>
+    <t>//  COMPILE OK vì khác kiểu dữ liệu của tham số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giả sử khi gọi  new Object().fly(5) thì Java sẽ tìm có kiểu dữ liệu gần nhất để gọi, tức là gọi hàm fly primitive </t>
+  </si>
+  <si>
+    <t>System.out.print("Primitive");</t>
+  </si>
+  <si>
+    <t>System.out.print("Wrapper");</t>
+  </si>
+  <si>
+    <t>Nếu như ko có hàm primitive thì Java sẽ tự động auto box  để gọi hàm fly Wrapper</t>
+  </si>
+  <si>
+    <t>Giả sử khi gọi new Object().fly(new Integer(6)) thì Java tìm hàm có kiểu dl gần nhất để gọi, tức là hàm Wrapper</t>
+  </si>
+  <si>
+    <t>15. Overload cùng Autoboxing</t>
+  </si>
+  <si>
+    <t>16. Overload và Reference Type</t>
+  </si>
+  <si>
+    <t>public void foo (String value){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println("String");</t>
+  </si>
+  <si>
+    <t>public void foo (Object value){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println("object");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new Init().foo("temp");</t>
+  </si>
+  <si>
+    <t>// OUTPUT : Stringobject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Giải thích: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new Init().foo(5);</t>
+  </si>
+  <si>
+    <t>Đầu tiên tìm hàm String và tìm thấy nên sẽ ko sử dụng hàm có tham số là Object</t>
+  </si>
+  <si>
+    <t>Dòng thứ hai tìm hàm với tham số là int. Nhưng ko tìm thấy nên Java tự động autobox thành Integer.</t>
+  </si>
+  <si>
+    <t>TH1:</t>
+  </si>
+  <si>
+    <t>TH2 : Chỉ có hàm foo (Object value)</t>
+  </si>
+  <si>
+    <t>// OUTPUT : objectobject</t>
+  </si>
+  <si>
+    <t>// Giải thích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đầu tiền tìm hàm với tham số là String, Nhưng ko tìm thấy nên sử dụng hàm truyền vào Object </t>
+  </si>
+  <si>
+    <t>Dòng thứ hai tìm hàm với tham số là int primitive, Nhưng ko tìm thấy , nên autobox về Wrapper , do đó cũng sử dụng hàm với tham số là Object</t>
+  </si>
+  <si>
+    <t>17. Overload và Primitive Params</t>
+  </si>
+  <si>
+    <t>public void fly (int i){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println("int");</t>
+  </si>
+  <si>
+    <t>public void fly (long l){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println("long");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Plane plane = new Plane();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    plane.fly(123);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    plane.fly(134L);</t>
+  </si>
+  <si>
+    <t>// Output : int long</t>
+  </si>
+  <si>
+    <t>TH2:</t>
+  </si>
+  <si>
+    <t>// Output : long long</t>
+  </si>
+  <si>
+    <t>// Hàm fly(123) tự động autobox về Primitive và gọi hàm fly(long)</t>
+  </si>
+  <si>
+    <t>TH3:</t>
+  </si>
+  <si>
+    <t>//    public void fly (long l){</t>
+  </si>
+  <si>
+    <t>//        System.out.println("long");</t>
+  </si>
+  <si>
+    <t>//    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void fly (int i){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("int");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Plane plane = new Plane();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        plane.fly(123);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        plane.fly(134L);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Lưu ý là Java ko thể tự động convert về kiểu dữ liệu nhỏ hơn, </t>
+  </si>
+  <si>
+    <t>// Bắt buộc cần phải có cast tường minh về int</t>
+  </si>
+  <si>
+    <r>
+      <t>plane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD2A8FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>fly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF7B72"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF79C0FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>134L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>18. Overload tổng hợp</t>
+  </si>
+  <si>
+    <t>Chọn chính xác theo kiểu dl</t>
+  </si>
+  <si>
+    <t>public String glide (int I, int j) {}</t>
+  </si>
+  <si>
+    <t>Chọn kiểu dl rộng hơn</t>
+  </si>
+  <si>
+    <t>Thứ tự ưu tiên lựa chọn hàm đối với việc sử dụng overload method glide( 1, 2 )</t>
+  </si>
+  <si>
+    <t>public String glide (long I, long j) { }</t>
+  </si>
+  <si>
+    <t>Kiểu dl autobox</t>
+  </si>
+  <si>
+    <t>Vargs</t>
+  </si>
+  <si>
+    <t>public String glide (Integer I, Integer J)</t>
+  </si>
+  <si>
+    <t>public String glide (int … nums) { }</t>
+  </si>
+  <si>
+    <t>19. Constructors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private constructor ko thể gọi </t>
+  </si>
+  <si>
+    <t>20. Overload Constructors</t>
+  </si>
+  <si>
+    <t>21. Final fields:</t>
+  </si>
+  <si>
+    <t>Final fields có thể khai báo trong constructor</t>
+  </si>
+  <si>
+    <t>22. Thứ tự khởi tạo</t>
+  </si>
+  <si>
+    <t>Superclass</t>
+  </si>
+  <si>
+    <t>static variable, Static block</t>
+  </si>
+  <si>
+    <t>Instance variable, instance block</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="54">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5766,6 +6122,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC9D1D9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF7B72"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFD2A8FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFFA657"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF79C0FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5806,7 +6192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5948,13 +6334,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6105,13 +6497,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>166229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>294655</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>187132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8225,16 +8617,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="79" t="s">
+      <c r="D424" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="79"/>
-      <c r="F424" s="79"/>
-      <c r="G424" s="79"/>
-      <c r="H424" s="79"/>
-      <c r="I424" s="79"/>
-      <c r="J424" s="79"/>
-      <c r="K424" s="79"/>
+      <c r="E424" s="81"/>
+      <c r="F424" s="81"/>
+      <c r="G424" s="81"/>
+      <c r="H424" s="81"/>
+      <c r="I424" s="81"/>
+      <c r="J424" s="81"/>
+      <c r="K424" s="81"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -8301,16 +8693,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="79" t="s">
+      <c r="D430" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="79"/>
-      <c r="F430" s="79"/>
-      <c r="G430" s="79"/>
-      <c r="H430" s="79"/>
-      <c r="I430" s="79"/>
-      <c r="J430" s="79"/>
-      <c r="K430" s="79"/>
+      <c r="E430" s="81"/>
+      <c r="F430" s="81"/>
+      <c r="G430" s="81"/>
+      <c r="H430" s="81"/>
+      <c r="I430" s="81"/>
+      <c r="J430" s="81"/>
+      <c r="K430" s="81"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -20002,10 +20394,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L262"/>
+  <dimension ref="A1:L449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F259" sqref="F259"/>
+    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E449" sqref="E449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20068,17 +20460,17 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>1497</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="C21" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -20088,131 +20480,131 @@
     </row>
     <row r="24" spans="1:6">
       <c r="C24" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F24" t="s">
         <v>1499</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F25" t="s">
         <v>1501</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F26" t="s">
         <v>1503</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="36" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C32" t="s">
         <v>1507</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="C33" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="C35" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="C38" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="C39" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="C41" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G41" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="C44" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G44" t="s">
         <v>1516</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="C45" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G45" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="36" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="C51" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D51" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="D52" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="D53" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -20222,80 +20614,80 @@
     </row>
     <row r="56" spans="1:8">
       <c r="D56" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H56" t="s">
         <v>1527</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="D57" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H57" t="s">
-        <v>1530</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="36" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C61" t="s">
         <v>1531</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="C62" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="65" spans="3:9">
       <c r="C65" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D65" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="67" spans="3:9">
       <c r="D67" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="70" spans="3:9">
       <c r="C70" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="72" spans="3:9">
       <c r="D72" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="I72" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="74" spans="3:9">
       <c r="D74" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="I74" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="77" spans="3:9">
       <c r="C77" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="78" spans="3:9">
       <c r="E78" s="58" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F78" s="43"/>
       <c r="G78" s="43"/>
@@ -20304,7 +20696,7 @@
     </row>
     <row r="79" spans="3:9">
       <c r="E79" s="58" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="43"/>
@@ -20322,20 +20714,20 @@
     </row>
     <row r="82" spans="4:9">
       <c r="D82" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="83" spans="4:9">
       <c r="E83" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="84" spans="4:9">
       <c r="F84" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="I84" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="85" spans="4:9">
@@ -20345,20 +20737,20 @@
     </row>
     <row r="86" spans="4:9">
       <c r="D86" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="88" spans="4:9">
       <c r="E88" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="89" spans="4:9">
       <c r="F89" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="I89" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="90" spans="4:9">
@@ -20368,20 +20760,20 @@
     </row>
     <row r="91" spans="4:9">
       <c r="D91" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="93" spans="4:9">
       <c r="E93" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="94" spans="4:9">
       <c r="F94" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="I94" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="95" spans="4:9">
@@ -20391,20 +20783,20 @@
     </row>
     <row r="97" spans="1:9">
       <c r="D97" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="E99" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="F100" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="I100" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -20414,23 +20806,23 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="36" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="B104" s="65" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="B105" s="65" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C105" s="65"/>
       <c r="D105" s="65"/>
       <c r="E105" s="65"/>
       <c r="F105" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -20441,13 +20833,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="B107" s="65" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C107" s="65"/>
       <c r="D107" s="65"/>
       <c r="E107" s="65"/>
       <c r="F107" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -20458,43 +20850,43 @@
     </row>
     <row r="109" spans="1:9">
       <c r="B109" s="65" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C109" s="65"/>
       <c r="D109" s="65"/>
       <c r="E109" s="65"/>
       <c r="F109" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="C111" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="C112" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="113" spans="4:7">
       <c r="D113" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="115" spans="4:7">
       <c r="E115" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="116" spans="4:7">
       <c r="F116" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="117" spans="4:7">
       <c r="G117" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="118" spans="4:7">
@@ -20504,25 +20896,25 @@
     </row>
     <row r="119" spans="4:7">
       <c r="D119" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="122" spans="4:7">
       <c r="E122" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="F122" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="124" spans="4:7">
       <c r="G124" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="125" spans="4:7">
       <c r="G125" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="127" spans="4:7">
@@ -20532,30 +20924,30 @@
     </row>
     <row r="129" spans="5:10">
       <c r="E129" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="130" spans="5:10">
       <c r="E130" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="132" spans="5:10">
       <c r="F132" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="134" spans="5:10">
       <c r="G134" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="135" spans="5:10">
       <c r="G135" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="J135" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="137" spans="5:10">
@@ -20565,30 +20957,30 @@
     </row>
     <row r="139" spans="5:10">
       <c r="E139" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="142" spans="5:10">
       <c r="F142" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="144" spans="5:10">
       <c r="G144" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="G145" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="J145" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -20602,135 +20994,121 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="36" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="B154" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E154" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="E155" t="s">
-        <v>1584</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="36" t="s">
-        <v>1587</v>
-      </c>
+      <c r="C158" s="58" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="C159" s="58" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D159" s="43"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="B160" t="s">
-        <v>165</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="161" spans="3:9">
-      <c r="C161" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="162" spans="3:9">
-      <c r="D162" s="58" t="s">
-        <v>1589</v>
-      </c>
+      <c r="C160" s="58" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="C161" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="C162" s="79"/>
+      <c r="D162" s="43"/>
       <c r="E162" s="43"/>
       <c r="F162" s="43"/>
       <c r="G162" s="43"/>
       <c r="H162" s="43"/>
-      <c r="I162" s="43"/>
-    </row>
-    <row r="163" spans="3:9">
-      <c r="D163" s="58" t="s">
-        <v>1590</v>
-      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="C163" s="58" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D163" s="43"/>
       <c r="E163" s="43"/>
       <c r="F163" s="43"/>
       <c r="G163" s="43"/>
       <c r="H163" s="43"/>
-      <c r="I163" s="43"/>
-    </row>
-    <row r="164" spans="3:9">
-      <c r="D164" s="80"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="C164" s="58" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D164" s="43"/>
       <c r="E164" s="43"/>
       <c r="F164" s="43"/>
       <c r="G164" s="43"/>
       <c r="H164" s="43"/>
-      <c r="I164" s="43"/>
-    </row>
-    <row r="165" spans="3:9">
-      <c r="D165" s="58" t="s">
-        <v>1591</v>
-      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="C165" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D165" s="43"/>
       <c r="E165" s="43"/>
       <c r="F165" s="43"/>
       <c r="G165" s="43"/>
       <c r="H165" s="43"/>
-      <c r="I165" s="43"/>
-    </row>
-    <row r="166" spans="3:9">
-      <c r="D166" s="58" t="s">
-        <v>716</v>
-      </c>
-      <c r="E166" s="43"/>
-      <c r="F166" s="43"/>
-      <c r="G166" s="43"/>
-      <c r="H166" s="43"/>
-      <c r="I166" s="43"/>
-    </row>
-    <row r="167" spans="3:9">
-      <c r="D167" s="58" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E167" s="43"/>
-      <c r="F167" s="43"/>
-      <c r="G167" s="43"/>
-      <c r="H167" s="43"/>
-      <c r="I167" s="43"/>
-    </row>
-    <row r="168" spans="3:9">
-      <c r="D168" s="58" t="s">
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="36" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="B169" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="C170" t="s">
         <v>1593</v>
       </c>
-      <c r="E168" s="43"/>
-      <c r="F168" s="43"/>
-      <c r="G168" s="43"/>
-      <c r="H168" s="43"/>
-      <c r="I168" s="43" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="169" spans="3:9">
-      <c r="D169" s="58" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43"/>
-      <c r="I169" s="43" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="170" spans="3:9">
-      <c r="D170" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="E170" s="43"/>
-      <c r="F170" s="43"/>
-      <c r="G170" s="43"/>
-      <c r="H170" s="43"/>
-      <c r="I170" s="43"/>
-    </row>
-    <row r="171" spans="3:9">
+    </row>
+    <row r="171" spans="1:9">
       <c r="D171" s="58" t="s">
-        <v>45</v>
+        <v>1586</v>
       </c>
       <c r="E171" s="43"/>
       <c r="F171" s="43"/>
@@ -20738,297 +21116,278 @@
       <c r="H171" s="43"/>
       <c r="I171" s="43"/>
     </row>
-    <row r="174" spans="3:9">
-      <c r="C174" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="175" spans="3:9">
-      <c r="C175" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="177" spans="4:8">
+    <row r="172" spans="1:9">
+      <c r="D172" s="58" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E172" s="43"/>
+      <c r="F172" s="43"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="43"/>
+      <c r="I172" s="43"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="D173" s="79"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43"/>
+      <c r="I173" s="43"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="D174" s="58" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="43"/>
+      <c r="I174" s="43"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="D175" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="43"/>
+      <c r="I175" s="43"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="D176" s="58" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
+      <c r="I176" s="43"/>
+    </row>
+    <row r="177" spans="3:9">
       <c r="D177" s="58" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="E177" s="43"/>
       <c r="F177" s="43"/>
       <c r="G177" s="43"/>
       <c r="H177" s="43"/>
-    </row>
-    <row r="178" spans="4:8">
+      <c r="I177" s="43" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="178" spans="3:9">
       <c r="D178" s="58" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="E178" s="43"/>
       <c r="F178" s="43"/>
       <c r="G178" s="43"/>
       <c r="H178" s="43"/>
-    </row>
-    <row r="179" spans="4:8">
+      <c r="I178" s="43" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9">
       <c r="D179" s="58" t="s">
-        <v>1593</v>
+        <v>620</v>
       </c>
       <c r="E179" s="43"/>
       <c r="F179" s="43"/>
       <c r="G179" s="43"/>
-      <c r="H179" s="43" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="180" spans="4:8">
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
+    </row>
+    <row r="180" spans="3:9">
       <c r="D180" s="58" t="s">
-        <v>1601</v>
+        <v>45</v>
       </c>
       <c r="E180" s="43"/>
       <c r="F180" s="43"/>
       <c r="G180" s="43"/>
-      <c r="H180" s="43" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="181" spans="4:8">
-      <c r="D181" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="E181" s="43"/>
-      <c r="F181" s="43"/>
-      <c r="G181" s="43"/>
-      <c r="H181" s="43"/>
-    </row>
-    <row r="182" spans="4:8">
-      <c r="D182" s="58" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E182" s="43"/>
-      <c r="F182" s="43"/>
-      <c r="G182" s="43"/>
-      <c r="H182" s="43"/>
-    </row>
-    <row r="183" spans="4:8">
-      <c r="D183" s="80"/>
-      <c r="E183" s="43"/>
-      <c r="F183" s="43"/>
-      <c r="G183" s="43"/>
-      <c r="H183" s="43"/>
-    </row>
-    <row r="184" spans="4:8">
-      <c r="D184" s="80"/>
-      <c r="E184" s="43"/>
-      <c r="F184" s="43"/>
-      <c r="G184" s="43"/>
-      <c r="H184" s="43"/>
-    </row>
-    <row r="185" spans="4:8">
-      <c r="D185" s="58" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E185" s="43"/>
-      <c r="F185" s="43"/>
-      <c r="G185" s="43"/>
-      <c r="H185" s="43"/>
-    </row>
-    <row r="186" spans="4:8">
+      <c r="H180" s="43"/>
+      <c r="I180" s="43"/>
+    </row>
+    <row r="183" spans="3:9">
+      <c r="C183" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="184" spans="3:9">
+      <c r="C184" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="186" spans="3:9">
       <c r="D186" s="58" t="s">
-        <v>1604</v>
+        <v>1586</v>
       </c>
       <c r="E186" s="43"/>
       <c r="F186" s="43"/>
       <c r="G186" s="43"/>
       <c r="H186" s="43"/>
     </row>
-    <row r="187" spans="4:8">
+    <row r="187" spans="3:9">
       <c r="D187" s="58" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="E187" s="43"/>
       <c r="F187" s="43"/>
       <c r="G187" s="43"/>
-      <c r="H187" s="43" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="188" spans="4:8">
+      <c r="H187" s="43"/>
+    </row>
+    <row r="188" spans="3:9">
       <c r="D188" s="58" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E188" s="43"/>
       <c r="F188" s="43"/>
       <c r="G188" s="43"/>
       <c r="H188" s="43" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="189" spans="4:8">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="189" spans="3:9">
       <c r="D189" s="58" t="s">
-        <v>620</v>
+        <v>1598</v>
       </c>
       <c r="E189" s="43"/>
       <c r="F189" s="43"/>
       <c r="G189" s="43"/>
-      <c r="H189" s="43"/>
-    </row>
-    <row r="190" spans="4:8">
-      <c r="D190" s="80"/>
+      <c r="H189" s="43" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="190" spans="3:9">
+      <c r="D190" s="58" t="s">
+        <v>620</v>
+      </c>
       <c r="E190" s="43"/>
       <c r="F190" s="43"/>
       <c r="G190" s="43"/>
       <c r="H190" s="43"/>
     </row>
-    <row r="191" spans="4:8">
+    <row r="191" spans="3:9">
       <c r="D191" s="58" t="s">
-        <v>45</v>
+        <v>1599</v>
       </c>
       <c r="E191" s="43"/>
       <c r="F191" s="43"/>
       <c r="G191" s="43"/>
       <c r="H191" s="43"/>
     </row>
-    <row r="192" spans="4:8">
-      <c r="D192" s="36"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36"/>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
-    </row>
-    <row r="194" spans="1:12">
-      <c r="A194" s="36" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
-      <c r="B196" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
-      <c r="C197" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
-      <c r="D198" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12">
+    <row r="192" spans="3:9">
+      <c r="D192" s="79"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="43"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="D193" s="79"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43"/>
+      <c r="G193" s="43"/>
+      <c r="H193" s="43"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="D194" s="58" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="D195" s="58" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="D196" s="58" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="D197" s="58" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E197" s="43"/>
+      <c r="F197" s="43"/>
+      <c r="G197" s="43"/>
+      <c r="H197" s="43" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="D198" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E198" s="43"/>
+      <c r="F198" s="43"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="43"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="D199" s="79"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43"/>
+      <c r="G199" s="43"/>
+      <c r="H199" s="43"/>
+    </row>
+    <row r="200" spans="1:8">
       <c r="D200" s="58" t="s">
-        <v>1613</v>
+        <v>45</v>
       </c>
       <c r="E200" s="43"/>
       <c r="F200" s="43"/>
       <c r="G200" s="43"/>
       <c r="H200" s="43"/>
-      <c r="I200" s="43"/>
-      <c r="J200" s="43"/>
-      <c r="K200" s="43"/>
-      <c r="L200" s="43"/>
-    </row>
-    <row r="201" spans="1:12">
-      <c r="D201" s="58" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E201" s="43"/>
-      <c r="F201" s="43"/>
-      <c r="G201" s="43"/>
-      <c r="H201" s="43"/>
-      <c r="I201" s="43"/>
-      <c r="J201" s="43"/>
-      <c r="K201" s="43"/>
-      <c r="L201" s="43"/>
-    </row>
-    <row r="202" spans="1:12">
-      <c r="D202" s="80"/>
-      <c r="E202" s="43"/>
-      <c r="F202" s="43"/>
-      <c r="G202" s="43"/>
-      <c r="H202" s="43"/>
-      <c r="I202" s="43"/>
-      <c r="J202" s="43"/>
-      <c r="K202" s="43"/>
-      <c r="L202" s="43"/>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="D203" s="58" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E203" s="43"/>
-      <c r="F203" s="43"/>
-      <c r="G203" s="43"/>
-      <c r="H203" s="43"/>
-      <c r="I203" s="43"/>
-      <c r="J203" s="43"/>
-      <c r="K203" s="43"/>
-      <c r="L203" s="43"/>
-    </row>
-    <row r="204" spans="1:12">
-      <c r="D204" s="58" t="s">
-        <v>716</v>
-      </c>
-      <c r="E204" s="43"/>
-      <c r="F204" s="43"/>
-      <c r="G204" s="43"/>
-      <c r="H204" s="43"/>
-      <c r="I204" s="43"/>
-      <c r="J204" s="43"/>
-      <c r="K204" s="43"/>
-      <c r="L204" s="43"/>
-    </row>
-    <row r="205" spans="1:12">
-      <c r="D205" s="58" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E205" s="43"/>
-      <c r="F205" s="43"/>
-      <c r="G205" s="43"/>
-      <c r="H205" s="43"/>
-      <c r="I205" s="43"/>
-      <c r="J205" s="43"/>
-      <c r="K205" s="43"/>
-      <c r="L205" s="43"/>
-    </row>
-    <row r="206" spans="1:12">
-      <c r="D206" s="80"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-      <c r="G206" s="43"/>
-      <c r="H206" s="43"/>
-      <c r="I206" s="43"/>
-      <c r="J206" s="43"/>
-      <c r="K206" s="43"/>
-      <c r="L206" s="43"/>
-    </row>
-    <row r="207" spans="1:12">
-      <c r="D207" s="80"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="43"/>
-      <c r="G207" s="43"/>
-      <c r="H207" s="43"/>
-      <c r="I207" s="43"/>
-      <c r="J207" s="43"/>
-      <c r="K207" s="43"/>
-      <c r="L207" s="43"/>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="D208" s="58" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E208" s="43"/>
-      <c r="F208" s="43"/>
-      <c r="G208" s="43"/>
-      <c r="H208" s="43"/>
-      <c r="I208" s="43"/>
-      <c r="J208" s="43"/>
-      <c r="K208" s="43"/>
-      <c r="L208" s="43"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="D201" s="36"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="36"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="36"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="36" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="B205" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="C206" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="D207" t="s">
+        <v>1609</v>
+      </c>
     </row>
     <row r="209" spans="1:12">
       <c r="D209" s="58" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E209" s="43"/>
       <c r="F209" s="43"/>
@@ -21041,7 +21400,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="D210" s="58" t="s">
-        <v>620</v>
+        <v>1611</v>
       </c>
       <c r="E210" s="43"/>
       <c r="F210" s="43"/>
@@ -21053,9 +21412,7 @@
       <c r="L210" s="43"/>
     </row>
     <row r="211" spans="1:12">
-      <c r="D211" s="58" t="s">
-        <v>45</v>
-      </c>
+      <c r="D211" s="79"/>
       <c r="E211" s="43"/>
       <c r="F211" s="43"/>
       <c r="G211" s="43"/>
@@ -21065,238 +21422,1339 @@
       <c r="K211" s="43"/>
       <c r="L211" s="43"/>
     </row>
+    <row r="212" spans="1:12">
+      <c r="D212" s="58" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E212" s="43"/>
+      <c r="F212" s="43"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="43"/>
+      <c r="J212" s="43"/>
+      <c r="K212" s="43"/>
+      <c r="L212" s="43"/>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="D213" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
+      <c r="J213" s="43"/>
+      <c r="K213" s="43"/>
+      <c r="L213" s="43"/>
+    </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="36" t="s">
+      <c r="D214" s="58" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
+      <c r="J214" s="43"/>
+      <c r="K214" s="43"/>
+      <c r="L214" s="43"/>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="D215" s="79"/>
+      <c r="E215" s="43"/>
+      <c r="F215" s="43"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="43"/>
+      <c r="J215" s="43"/>
+      <c r="K215" s="43"/>
+      <c r="L215" s="43"/>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="D216" s="79"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="43"/>
+      <c r="J216" s="43"/>
+      <c r="K216" s="43"/>
+      <c r="L216" s="43"/>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="D217" s="58" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="43"/>
+      <c r="J217" s="43"/>
+      <c r="K217" s="43"/>
+      <c r="L217" s="43"/>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="D218" s="58" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="43"/>
+      <c r="I218" s="43"/>
+      <c r="J218" s="43"/>
+      <c r="K218" s="43"/>
+      <c r="L218" s="43"/>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="D219" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E219" s="43"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="43"/>
+      <c r="H219" s="43"/>
+      <c r="I219" s="43"/>
+      <c r="J219" s="43"/>
+      <c r="K219" s="43"/>
+      <c r="L219" s="43"/>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="D220" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E220" s="43"/>
+      <c r="F220" s="43"/>
+      <c r="G220" s="43"/>
+      <c r="H220" s="43"/>
+      <c r="I220" s="43"/>
+      <c r="J220" s="43"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223" s="36" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="B225" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="B226" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="36" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
-      <c r="B216" t="s">
+    <row r="230" spans="1:7">
+      <c r="B230" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="217" spans="1:12">
-      <c r="B217" t="s">
+      <c r="C230" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
-      <c r="A219" s="36" t="s">
+    <row r="231" spans="1:7">
+      <c r="C231" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
-      <c r="B221" t="s">
+    <row r="233" spans="1:7">
+      <c r="D233" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="E234" t="s">
         <v>1623</v>
       </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="235" spans="1:7">
+      <c r="E235" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="F236" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
-      <c r="C222" t="s">
+    <row r="237" spans="1:7">
+      <c r="G237" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
-      <c r="D224" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="225" spans="4:9">
-      <c r="E225" t="s">
+    <row r="238" spans="1:7">
+      <c r="F238" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="E239" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="D241" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="E243" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="226" spans="4:9">
-      <c r="E226" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="227" spans="4:9">
-      <c r="F227" t="s">
+      <c r="I243" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="228" spans="4:9">
-      <c r="G228" t="s">
+    <row r="244" spans="1:9">
+      <c r="E244" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="229" spans="4:9">
-      <c r="F229" t="s">
+      <c r="I244" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="E246" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="F248" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I248" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="E249" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="4:9">
-      <c r="E230" t="s">
+    <row r="252" spans="1:9">
+      <c r="A252" s="36" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="B254" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="C256" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="258" spans="3:9">
+      <c r="C258" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="260" spans="3:9">
+      <c r="D260" s="58" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E260" s="43"/>
+      <c r="F260" s="43"/>
+      <c r="G260" s="43"/>
+      <c r="H260" s="43"/>
+      <c r="I260" s="43"/>
+    </row>
+    <row r="261" spans="3:9">
+      <c r="D261" s="58" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E261" s="43"/>
+      <c r="F261" s="43"/>
+      <c r="G261" s="43"/>
+      <c r="H261" s="43"/>
+      <c r="I261" s="43"/>
+    </row>
+    <row r="262" spans="3:9">
+      <c r="D262" s="58" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E262" s="43"/>
+      <c r="F262" s="43"/>
+      <c r="G262" s="43"/>
+      <c r="H262" s="43"/>
+      <c r="I262" s="43"/>
+    </row>
+    <row r="263" spans="3:9">
+      <c r="D263" s="58" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E263" s="43"/>
+      <c r="F263" s="43"/>
+      <c r="G263" s="43"/>
+      <c r="H263" s="43"/>
+      <c r="I263" s="43"/>
+    </row>
+    <row r="264" spans="3:9">
+      <c r="D264" s="58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="232" spans="4:9">
-      <c r="D232" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="234" spans="4:9">
-      <c r="E234" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I234" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="235" spans="4:9">
-      <c r="E235" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I235" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="237" spans="4:9">
-      <c r="E237" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="239" spans="4:9">
-      <c r="F239" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="240" spans="4:9">
-      <c r="E240" t="s">
+      <c r="E264" s="43"/>
+      <c r="F264" s="43"/>
+      <c r="G264" s="43"/>
+      <c r="H264" s="43"/>
+      <c r="I264" s="43"/>
+    </row>
+    <row r="265" spans="3:9">
+      <c r="D265" s="79"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="43"/>
+      <c r="G265" s="43"/>
+      <c r="H265" s="43"/>
+      <c r="I265" s="43"/>
+    </row>
+    <row r="266" spans="3:9">
+      <c r="D266" s="58" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E266" s="43"/>
+      <c r="F266" s="43"/>
+      <c r="G266" s="43"/>
+      <c r="H266" s="43"/>
+      <c r="I266" s="43"/>
+    </row>
+    <row r="267" spans="3:9">
+      <c r="D267" s="58" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E267" s="43"/>
+      <c r="F267" s="43"/>
+      <c r="G267" s="43"/>
+      <c r="H267" s="43"/>
+      <c r="I267" s="43"/>
+    </row>
+    <row r="268" spans="3:9">
+      <c r="D268" s="58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
-      <c r="A243" s="36" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
-      <c r="B245" t="s">
+      <c r="E268" s="43"/>
+      <c r="F268" s="43"/>
+      <c r="G268" s="43"/>
+      <c r="H268" s="43"/>
+      <c r="I268" s="43"/>
+    </row>
+    <row r="270" spans="3:9">
+      <c r="D270" s="80" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+      <c r="G270" s="12"/>
+      <c r="H270" s="12"/>
+    </row>
+    <row r="271" spans="3:9">
+      <c r="D271" s="80" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
+      <c r="G271" s="12"/>
+      <c r="H271" s="12"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="36" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="B281" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="C282" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="E283" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="B286" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="C288" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="289" spans="3:8">
+      <c r="D289" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="290" spans="3:8">
+      <c r="D290" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="292" spans="3:8">
+      <c r="D292" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="293" spans="3:8">
+      <c r="D293" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="294" spans="3:8">
+      <c r="D294" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="298" spans="3:8">
+      <c r="C298" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="300" spans="3:8">
+      <c r="D300" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="301" spans="3:8">
+      <c r="D301" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="302" spans="3:8">
+      <c r="H302" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="304" spans="3:8">
+      <c r="D304" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="D305" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="H306" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="36" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="C311" s="58" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D311" s="43"/>
+      <c r="E311" s="43"/>
+      <c r="F311" s="43"/>
+      <c r="G311" s="43"/>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="C312" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D312" s="43"/>
+      <c r="E312" s="43"/>
+      <c r="F312" s="43"/>
+      <c r="G312" s="43"/>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="C313" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D313" s="43"/>
+      <c r="E313" s="43"/>
+      <c r="F313" s="43"/>
+      <c r="G313" s="43"/>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="C314" s="79"/>
+      <c r="D314" s="43"/>
+      <c r="E314" s="43"/>
+      <c r="F314" s="43"/>
+      <c r="G314" s="43"/>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="C315" s="58" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D315" s="43"/>
+      <c r="E315" s="43"/>
+      <c r="F315" s="43"/>
+      <c r="G315" s="43"/>
+      <c r="H315" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="C316" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D316" s="43"/>
+      <c r="E316" s="43"/>
+      <c r="F316" s="43"/>
+      <c r="G316" s="43"/>
+      <c r="H316" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="C317" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D317" s="43"/>
+      <c r="E317" s="43"/>
+      <c r="F317" s="43"/>
+      <c r="G317" s="43"/>
+      <c r="H317" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="36" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="321" spans="3:7">
+      <c r="C321" s="58" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D321" s="43"/>
+      <c r="E321" s="43"/>
+      <c r="F321" s="43"/>
+      <c r="G321" s="43"/>
+    </row>
+    <row r="322" spans="3:7">
+      <c r="D322" s="43" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E322" s="43"/>
+      <c r="F322" s="43"/>
+      <c r="G322" s="43"/>
+    </row>
+    <row r="323" spans="3:7">
+      <c r="C323" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D323" s="43"/>
+      <c r="E323" s="43"/>
+      <c r="F323" s="43"/>
+      <c r="G323" s="43"/>
+    </row>
+    <row r="324" spans="3:7">
+      <c r="C324" s="79"/>
+      <c r="D324" s="43"/>
+      <c r="E324" s="43"/>
+      <c r="F324" s="43"/>
+      <c r="G324" s="43"/>
+    </row>
+    <row r="325" spans="3:7">
+      <c r="C325" s="58" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D325" s="43"/>
+      <c r="E325" s="43"/>
+      <c r="F325" s="43"/>
+      <c r="G325" s="43"/>
+    </row>
+    <row r="326" spans="3:7">
+      <c r="D326" s="43" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E326" s="43"/>
+      <c r="F326" s="43"/>
+      <c r="G326" s="43"/>
+    </row>
+    <row r="327" spans="3:7">
+      <c r="C327" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D327" s="43"/>
+      <c r="E327" s="43"/>
+      <c r="F327" s="43"/>
+      <c r="G327" s="43"/>
+    </row>
+    <row r="329" spans="3:7">
+      <c r="C329" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="331" spans="3:7">
+      <c r="C331" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="332" spans="3:7">
+      <c r="C332" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="335" spans="3:7">
+      <c r="C335" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="36" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="B338" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="C339" s="58" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D339" s="43"/>
+      <c r="E339" s="43"/>
+      <c r="F339" s="43"/>
+      <c r="G339" s="43"/>
+      <c r="H339" s="43"/>
+      <c r="I339" s="43"/>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="C340" s="58" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D340" s="43"/>
+      <c r="E340" s="43"/>
+      <c r="F340" s="43"/>
+      <c r="G340" s="43"/>
+      <c r="H340" s="43"/>
+      <c r="I340" s="43"/>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="C341" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D341" s="43"/>
+      <c r="E341" s="43"/>
+      <c r="F341" s="43"/>
+      <c r="G341" s="43"/>
+      <c r="H341" s="43"/>
+      <c r="I341" s="43"/>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="C342" s="79"/>
+      <c r="D342" s="43"/>
+      <c r="E342" s="43"/>
+      <c r="F342" s="43"/>
+      <c r="G342" s="43"/>
+      <c r="H342" s="43"/>
+      <c r="I342" s="43"/>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="C343" s="58" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D343" s="43"/>
+      <c r="E343" s="43"/>
+      <c r="F343" s="43"/>
+      <c r="G343" s="43"/>
+      <c r="H343" s="43"/>
+      <c r="I343" s="43"/>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="C344" s="58" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D344" s="43"/>
+      <c r="E344" s="43"/>
+      <c r="F344" s="43"/>
+      <c r="G344" s="43"/>
+      <c r="H344" s="43"/>
+      <c r="I344" s="43"/>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="C345" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D345" s="43"/>
+      <c r="E345" s="43"/>
+      <c r="F345" s="43"/>
+      <c r="G345" s="43"/>
+      <c r="H345" s="43"/>
+      <c r="I345" s="43"/>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="C346" s="79"/>
+      <c r="D346" s="43"/>
+      <c r="E346" s="43"/>
+      <c r="F346" s="43"/>
+      <c r="G346" s="43"/>
+      <c r="H346" s="43"/>
+      <c r="I346" s="43"/>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="C347" s="58" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D347" s="43"/>
+      <c r="E347" s="43"/>
+      <c r="F347" s="43"/>
+      <c r="G347" s="43"/>
+      <c r="H347" s="43"/>
+      <c r="I347" s="43"/>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="C348" s="58" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D348" s="43"/>
+      <c r="E348" s="43"/>
+      <c r="F348" s="43"/>
+      <c r="G348" s="43"/>
+      <c r="H348" s="43"/>
+      <c r="I348" s="43"/>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="C349" s="58" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D349" s="43"/>
+      <c r="E349" s="43"/>
+      <c r="F349" s="43"/>
+      <c r="G349" s="43"/>
+      <c r="H349" s="43"/>
+      <c r="I349" s="43"/>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="C350" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D350" s="43"/>
+      <c r="E350" s="43"/>
+      <c r="F350" s="43"/>
+      <c r="G350" s="43"/>
+      <c r="H350" s="43"/>
+      <c r="I350" s="43"/>
+    </row>
+    <row r="353" spans="2:9">
+      <c r="C353" s="58" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="354" spans="2:9">
+      <c r="C354" s="58" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="355" spans="2:9">
+      <c r="D355" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="356" spans="2:9">
+      <c r="D356" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="358" spans="2:9">
+      <c r="B358" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="360" spans="2:9">
+      <c r="C360" s="58" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D360" s="43"/>
+      <c r="E360" s="43"/>
+      <c r="F360" s="43"/>
+      <c r="G360" s="43"/>
+      <c r="H360" s="43"/>
+      <c r="I360" s="43"/>
+    </row>
+    <row r="361" spans="2:9">
+      <c r="C361" s="58" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D361" s="43"/>
+      <c r="E361" s="43"/>
+      <c r="F361" s="43"/>
+      <c r="G361" s="43"/>
+      <c r="H361" s="43"/>
+      <c r="I361" s="43"/>
+    </row>
+    <row r="362" spans="2:9">
+      <c r="C362" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D362" s="43"/>
+      <c r="E362" s="43"/>
+      <c r="F362" s="43"/>
+      <c r="G362" s="43"/>
+      <c r="H362" s="43"/>
+      <c r="I362" s="43"/>
+    </row>
+    <row r="363" spans="2:9">
+      <c r="C363" s="79"/>
+      <c r="D363" s="43"/>
+      <c r="E363" s="43"/>
+      <c r="F363" s="43"/>
+      <c r="G363" s="43"/>
+      <c r="H363" s="43"/>
+      <c r="I363" s="43"/>
+    </row>
+    <row r="364" spans="2:9">
+      <c r="C364" s="58" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D364" s="43"/>
+      <c r="E364" s="43"/>
+      <c r="F364" s="43"/>
+      <c r="G364" s="43"/>
+      <c r="H364" s="43"/>
+      <c r="I364" s="43"/>
+    </row>
+    <row r="365" spans="2:9">
+      <c r="C365" s="58" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D365" s="43"/>
+      <c r="E365" s="43"/>
+      <c r="F365" s="43"/>
+      <c r="G365" s="43"/>
+      <c r="H365" s="43"/>
+      <c r="I365" s="43"/>
+    </row>
+    <row r="366" spans="2:9">
+      <c r="C366" s="58" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D366" s="43"/>
+      <c r="E366" s="43"/>
+      <c r="F366" s="43"/>
+      <c r="G366" s="43"/>
+      <c r="H366" s="43"/>
+      <c r="I366" s="43"/>
+    </row>
+    <row r="367" spans="2:9">
+      <c r="C367" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D367" s="43"/>
+      <c r="E367" s="43"/>
+      <c r="F367" s="43"/>
+      <c r="G367" s="43"/>
+      <c r="H367" s="43"/>
+      <c r="I367" s="43"/>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="C369" s="58" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="C370" s="58" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="D371" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="D372" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" s="36" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="C375" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="D376" s="58" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E376" s="43"/>
+      <c r="F376" s="43"/>
+      <c r="G376" s="43"/>
+      <c r="H376" s="43"/>
+      <c r="I376" s="43"/>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="D377" s="58" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E377" s="43"/>
+      <c r="F377" s="43"/>
+      <c r="G377" s="43"/>
+      <c r="H377" s="43"/>
+      <c r="I377" s="43"/>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="D378" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E378" s="43"/>
+      <c r="F378" s="43"/>
+      <c r="G378" s="43"/>
+      <c r="H378" s="43"/>
+      <c r="I378" s="43"/>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="D379" s="79"/>
+      <c r="E379" s="43"/>
+      <c r="F379" s="43"/>
+      <c r="G379" s="43"/>
+      <c r="H379" s="43"/>
+      <c r="I379" s="43"/>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="D380" s="58" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E380" s="43"/>
+      <c r="F380" s="43"/>
+      <c r="G380" s="43"/>
+      <c r="H380" s="43"/>
+      <c r="I380" s="43"/>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="D381" s="58" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E381" s="43"/>
+      <c r="F381" s="43"/>
+      <c r="G381" s="43"/>
+      <c r="H381" s="43"/>
+      <c r="I381" s="43"/>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="D382" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E382" s="43"/>
+      <c r="F382" s="43"/>
+      <c r="G382" s="43"/>
+      <c r="H382" s="43"/>
+      <c r="I382" s="43"/>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="D383" s="58" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="247" spans="1:9">
-      <c r="C247" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="C249" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="D251" s="58" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E251" s="43"/>
-      <c r="F251" s="43"/>
-      <c r="G251" s="43"/>
-      <c r="H251" s="43"/>
-      <c r="I251" s="43"/>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="D252" s="58" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E252" s="43"/>
-      <c r="F252" s="43"/>
-      <c r="G252" s="43"/>
-      <c r="H252" s="43"/>
-      <c r="I252" s="43"/>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="D253" s="58" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E253" s="43"/>
-      <c r="F253" s="43"/>
-      <c r="G253" s="43"/>
-      <c r="H253" s="43"/>
-      <c r="I253" s="43"/>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="D254" s="58" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E254" s="43"/>
-      <c r="F254" s="43"/>
-      <c r="G254" s="43"/>
-      <c r="H254" s="43"/>
-      <c r="I254" s="43"/>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="D255" s="58" t="s">
+      <c r="E383" s="43"/>
+      <c r="F383" s="43"/>
+      <c r="G383" s="43"/>
+      <c r="H383" s="43"/>
+      <c r="I383" s="43"/>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="D384" s="58" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E384" s="43"/>
+      <c r="F384" s="43"/>
+      <c r="G384" s="43"/>
+      <c r="H384" s="43"/>
+      <c r="I384" s="43"/>
+    </row>
+    <row r="385" spans="3:9">
+      <c r="D385" s="58" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E385" s="43"/>
+      <c r="F385" s="43"/>
+      <c r="G385" s="43"/>
+      <c r="H385" s="43"/>
+      <c r="I385" s="43"/>
+    </row>
+    <row r="386" spans="3:9">
+      <c r="D386" s="58" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E386" s="43"/>
+      <c r="F386" s="43"/>
+      <c r="G386" s="43"/>
+      <c r="H386" s="43"/>
+      <c r="I386" s="43"/>
+    </row>
+    <row r="387" spans="3:9">
+      <c r="D387" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E255" s="43"/>
-      <c r="F255" s="43"/>
-      <c r="G255" s="43"/>
-      <c r="H255" s="43"/>
-      <c r="I255" s="43"/>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="D256" s="80"/>
-      <c r="E256" s="43"/>
-      <c r="F256" s="43"/>
-      <c r="G256" s="43"/>
-      <c r="H256" s="43"/>
-      <c r="I256" s="43"/>
-    </row>
-    <row r="257" spans="4:9">
-      <c r="D257" s="58" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E257" s="43"/>
-      <c r="F257" s="43"/>
-      <c r="G257" s="43"/>
-      <c r="H257" s="43"/>
-      <c r="I257" s="43"/>
-    </row>
-    <row r="258" spans="4:9">
-      <c r="D258" s="58" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E258" s="43"/>
-      <c r="F258" s="43"/>
-      <c r="G258" s="43"/>
-      <c r="H258" s="43"/>
-      <c r="I258" s="43"/>
-    </row>
-    <row r="259" spans="4:9">
-      <c r="D259" s="58" t="s">
+      <c r="E387" s="43"/>
+      <c r="F387" s="43"/>
+      <c r="G387" s="43"/>
+      <c r="H387" s="43"/>
+      <c r="I387" s="43"/>
+    </row>
+    <row r="389" spans="3:9">
+      <c r="C389" s="58"/>
+      <c r="D389" s="58" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="391" spans="3:9">
+      <c r="C391" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="392" spans="3:9">
+      <c r="D392" s="58" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E392" s="43"/>
+      <c r="F392" s="43"/>
+      <c r="G392" s="43"/>
+      <c r="H392" s="43"/>
+      <c r="I392" s="43"/>
+    </row>
+    <row r="393" spans="3:9">
+      <c r="D393" s="58" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E393" s="43"/>
+      <c r="F393" s="43"/>
+      <c r="G393" s="43"/>
+      <c r="H393" s="43"/>
+      <c r="I393" s="43"/>
+    </row>
+    <row r="394" spans="3:9">
+      <c r="D394" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E259" s="43"/>
-      <c r="F259" s="43"/>
-      <c r="G259" s="43"/>
-      <c r="H259" s="43"/>
-      <c r="I259" s="43"/>
-    </row>
-    <row r="261" spans="4:9">
-      <c r="D261" s="81" t="s">
-        <v>1646</v>
-      </c>
-      <c r="E261" s="12"/>
-      <c r="F261" s="12"/>
-      <c r="G261" s="12"/>
-      <c r="H261" s="12"/>
-    </row>
-    <row r="262" spans="4:9">
-      <c r="D262" s="81" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E262" s="12"/>
-      <c r="F262" s="12"/>
-      <c r="G262" s="12"/>
-      <c r="H262" s="12"/>
+      <c r="E394" s="43"/>
+      <c r="F394" s="43"/>
+      <c r="G394" s="43"/>
+      <c r="H394" s="43"/>
+      <c r="I394" s="43"/>
+    </row>
+    <row r="395" spans="3:9">
+      <c r="D395" s="58" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E395" s="43"/>
+      <c r="F395" s="43"/>
+      <c r="G395" s="43"/>
+      <c r="H395" s="43"/>
+      <c r="I395" s="43"/>
+    </row>
+    <row r="396" spans="3:9">
+      <c r="D396" s="58" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E396" s="43"/>
+      <c r="F396" s="43"/>
+      <c r="G396" s="43"/>
+      <c r="H396" s="43"/>
+      <c r="I396" s="43"/>
+    </row>
+    <row r="397" spans="3:9">
+      <c r="D397" s="58" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E397" s="43"/>
+      <c r="F397" s="43"/>
+      <c r="G397" s="43"/>
+      <c r="H397" s="43"/>
+      <c r="I397" s="43"/>
+    </row>
+    <row r="398" spans="3:9">
+      <c r="D398" s="58" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E398" s="43"/>
+      <c r="F398" s="43"/>
+      <c r="G398" s="43"/>
+      <c r="H398" s="43"/>
+      <c r="I398" s="43"/>
+    </row>
+    <row r="399" spans="3:9">
+      <c r="D399" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E399" s="43"/>
+      <c r="F399" s="43"/>
+      <c r="G399" s="43"/>
+      <c r="H399" s="43"/>
+      <c r="I399" s="43"/>
+    </row>
+    <row r="401" spans="3:9">
+      <c r="D401" s="58" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="402" spans="3:9">
+      <c r="D402" s="58" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="404" spans="3:9">
+      <c r="C404" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="405" spans="3:9">
+      <c r="D405" s="58" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E405" s="43"/>
+      <c r="F405" s="43"/>
+      <c r="G405" s="43"/>
+      <c r="H405" s="43"/>
+      <c r="I405" s="43"/>
+    </row>
+    <row r="406" spans="3:9">
+      <c r="D406" s="58" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E406" s="43"/>
+      <c r="F406" s="43"/>
+      <c r="G406" s="43"/>
+      <c r="H406" s="43"/>
+      <c r="I406" s="43"/>
+    </row>
+    <row r="407" spans="3:9">
+      <c r="D407" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E407" s="43"/>
+      <c r="F407" s="43"/>
+      <c r="G407" s="43"/>
+      <c r="H407" s="43"/>
+      <c r="I407" s="43"/>
+    </row>
+    <row r="408" spans="3:9">
+      <c r="D408" s="79"/>
+      <c r="E408" s="43"/>
+      <c r="F408" s="43"/>
+      <c r="G408" s="43"/>
+      <c r="H408" s="43"/>
+      <c r="I408" s="43"/>
+    </row>
+    <row r="409" spans="3:9">
+      <c r="D409" s="58" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E409" s="43"/>
+      <c r="F409" s="43"/>
+      <c r="G409" s="43"/>
+      <c r="H409" s="43"/>
+      <c r="I409" s="43"/>
+    </row>
+    <row r="410" spans="3:9">
+      <c r="D410" s="82" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E410" s="43"/>
+      <c r="F410" s="43"/>
+      <c r="G410" s="43"/>
+      <c r="H410" s="43"/>
+      <c r="I410" s="43"/>
+    </row>
+    <row r="411" spans="3:9">
+      <c r="D411" s="82" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E411" s="43"/>
+      <c r="F411" s="43"/>
+      <c r="G411" s="43"/>
+      <c r="H411" s="43"/>
+      <c r="I411" s="43"/>
+    </row>
+    <row r="412" spans="3:9">
+      <c r="D412" s="82" t="s">
+        <v>716</v>
+      </c>
+      <c r="E412" s="43"/>
+      <c r="F412" s="43"/>
+      <c r="G412" s="43"/>
+      <c r="H412" s="43"/>
+      <c r="I412" s="43"/>
+    </row>
+    <row r="413" spans="3:9">
+      <c r="D413" s="82" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E413" s="43"/>
+      <c r="F413" s="43"/>
+      <c r="G413" s="43"/>
+      <c r="H413" s="43"/>
+      <c r="I413" s="43"/>
+    </row>
+    <row r="414" spans="3:9">
+      <c r="D414" s="82" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E414" s="43"/>
+      <c r="F414" s="43"/>
+      <c r="G414" s="43"/>
+      <c r="H414" s="43"/>
+      <c r="I414" s="43"/>
+    </row>
+    <row r="415" spans="3:9">
+      <c r="D415" s="82" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E415" s="43"/>
+      <c r="F415" s="43"/>
+      <c r="G415" s="43"/>
+      <c r="H415" s="43" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I415" s="43"/>
+    </row>
+    <row r="416" spans="3:9">
+      <c r="D416" s="82" t="s">
+        <v>620</v>
+      </c>
+      <c r="E416" s="43"/>
+      <c r="F416" s="43"/>
+      <c r="G416" s="43"/>
+      <c r="H416" s="43"/>
+      <c r="I416" s="43"/>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="D418" s="82" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="D419" s="82" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="E421" s="83" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="36" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="B426" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="C428" t="s">
+        <v>1727</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="C430" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="C432" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="C434" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="36" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="C438" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="36" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="36" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="B443" s="43" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="36" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="B446" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="B447" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="B448" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" t="s">
+        <v>523</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1836">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -4973,9 +4973,6 @@
     <t xml:space="preserve">Rule: </t>
   </si>
   <si>
-    <t>Khác với access modifier, thì speicifers có thể có nhiều trong cùng một khai báo method</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuy nhiên có một số specifier không được phép khai báo cùng nhau như : </t>
   </si>
   <si>
@@ -4998,9 +4995,6 @@
   </si>
   <si>
     <t>public modifier void walk_5( )</t>
-  </si>
-  <si>
-    <t>Sai. Ko có speicifier là modifier</t>
   </si>
   <si>
     <t>public void final walk_6() {}</t>
@@ -5209,9 +5203,6 @@
     <t>Rule khi gọi static methods:</t>
   </si>
   <si>
-    <t>Có thể dùng instance của class để gọi hàm static</t>
-  </si>
-  <si>
     <t>public void Walk_$ ( ) { }</t>
   </si>
   <si>
@@ -5251,30 +5242,6 @@
     <t>// Hợp lệ. Gọi hàm non-static thông qua instance</t>
   </si>
   <si>
-    <t>Static method ,  static variable  ko thể gọi instance variable, static method</t>
-  </si>
-  <si>
-    <t>Instance method, biến instance có thể gọi static method, static variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public static void first() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        point = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public static int staticNums;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int point;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public void second(){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        staticNums = 1;</t>
-  </si>
-  <si>
     <t>// Lỗi COMPILE</t>
   </si>
   <si>
@@ -5395,9 +5362,6 @@
     <t xml:space="preserve">    s.append("Webby");</t>
   </si>
   <si>
-    <t>Ở đây s là một copy của biến name, Và cả name và s đều trỏ ưới một StringBuilder object</t>
-  </si>
-  <si>
     <t>Do vậy là khi thay đổi giá trị của s thì name cũng thay đổi</t>
   </si>
   <si>
@@ -5416,9 +5380,6 @@
     <t>13. Overload method</t>
   </si>
   <si>
-    <t>1 Overload method có thể khác nhau về : access modifier, specifier , return type, exception list</t>
-  </si>
-  <si>
     <t>public void fly (int numMiles)  { }</t>
   </si>
   <si>
@@ -5447,9 +5408,6 @@
   </si>
   <si>
     <t>// Sai. Danh sách tham số phải được khai báo cách nhau bằng dấu , chứ ko phải dấu ;</t>
-  </si>
-  <si>
-    <t>Kể cả instance = null thì vẫn gọi được hàm static, Compile OK. ko báo lỗi null pointer exception</t>
   </si>
   <si>
     <t>Không hợp lệ ;</t>
@@ -5765,12 +5723,368 @@
   <si>
     <t>Instance variable, instance block</t>
   </si>
+  <si>
+    <t>RULE :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> access modifier phải đứng trước kiểu dl trả về của phương thức</t>
+  </si>
+  <si>
+    <t>Tên của method phải đứng cuối cùng</t>
+  </si>
+  <si>
+    <t>Sai. Ko có specificier là modifier</t>
+  </si>
+  <si>
+    <t>Kể cả instance = null thì vẫn gọi được hàm static, Compile OK. KO báo lỗi null pointer exception</t>
+  </si>
+  <si>
+    <t>Bình thường hay gọi hàm static bằng tên class</t>
+  </si>
+  <si>
+    <t>Tuy nhiên Có thể dùng instance của class để gọi hàm static</t>
+  </si>
+  <si>
+    <t>Ở đây s là một copy của biến name, Và cả name và s đều trỏ tới một StringBuilder object</t>
+  </si>
+  <si>
+    <t>public void fly (int num){}</t>
+  </si>
+  <si>
+    <t>protected int fly (int num){}</t>
+  </si>
+  <si>
+    <t>// NOT COMPILE, đây ko phải là overload</t>
+  </si>
+  <si>
+    <t>public int fly (int num) throws Exception{}</t>
+  </si>
+  <si>
+    <t>// NOT compile, đây ko phải là overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// exception ko liên quan đến overload và Ở đây chỉ thay đổi kiểu trả về </t>
+  </si>
+  <si>
+    <t>// access modifier ko liên quan đến overload vàở đây chỉ thay đổi kiểu dl trả về</t>
+  </si>
+  <si>
+    <t>kiểu dl trả về + 1 sự khác nhau kể trên</t>
+  </si>
+  <si>
+    <t>access modifier và exception ko liên quan đến việc overload ( Tức là có thêm vào thì method đó ko phải là overload, mà bắt buộc phải là 1 trong 3 sự khác nhau kể trên)</t>
+  </si>
+  <si>
+    <t>23. Encapsulation data</t>
+  </si>
+  <si>
+    <t>24. Create Immutable class</t>
+  </si>
+  <si>
+    <t>25. Lambdas</t>
+  </si>
+  <si>
+    <t>Cú pháp:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(() -&gt; true); </t>
+  </si>
+  <si>
+    <t>// 0 parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(a -&gt; a.startsWith("test")); </t>
+  </si>
+  <si>
+    <t>// 1 parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print((String a) -&gt; a.startsWith("test")); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print((a, b) -&gt; a.startsWith("test")); </t>
+  </si>
+  <si>
+    <t>// 2 parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print((String a, String b) -&gt; a.startsWith("test")); </t>
+  </si>
+  <si>
+    <t>Nếu là một tham số và ko khai báo kiểu dl của tham số đó thì ko cần bắt buộc dấu ()</t>
+  </si>
+  <si>
+    <t>Ví dụ : a -&gt; ….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(a, b -&gt; a.startsWith("test")); </t>
+  </si>
+  <si>
+    <t>print(a -&gt; { a.startsWith("test"); });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(a -&gt; { return a.startsWith("test") }); </t>
+  </si>
+  <si>
+    <t>// ko có ()</t>
+  </si>
+  <si>
+    <t>// Ko có lệnh return</t>
+  </si>
+  <si>
+    <t>// thiếu dấu ;</t>
+  </si>
+  <si>
+    <t>RULE 1:</t>
+  </si>
+  <si>
+    <t>RULE 2:</t>
+  </si>
+  <si>
+    <t>Nếu khai báo thêm biến trong biểu thức body của lambda, Thì biến đó phải khác tên với tham số</t>
+  </si>
+  <si>
+    <t>(a , b ) -&gt;  { int c = 0; return 1000;}</t>
+  </si>
+  <si>
+    <t>(a, b) -&gt;  { int a = 0; return 5; }</t>
+  </si>
+  <si>
+    <t>// NOT COMPILE vì ko được phép khai báo biến cùng tên với danh sách biến ở tham số</t>
+  </si>
+  <si>
+    <t>26. Predicates</t>
+  </si>
+  <si>
+    <t>list.removeIf( s -&gt; s.charAt(0) == 'h');</t>
+  </si>
+  <si>
+    <t>Chỉ cần nhớ là ArrayList có định nghĩa hàm removeIf ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bài test 1: </t>
+  </si>
+  <si>
+    <t>OCA _STUDY GUIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trả lời </t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>speicifers có thể có nhiều trong cùng một khai báo method : Ví dụ final static void methodA() {}</t>
+  </si>
+  <si>
+    <t>final - abstract</t>
+  </si>
+  <si>
+    <t>static - abstract</t>
+  </si>
+  <si>
+    <t>Chốt lại : access modifier và specifier phải đứng trước kiểu trả về của phương thức,</t>
+  </si>
+  <si>
+    <t>access modifier và specifier có thể đồng thời khai báo, thứ tự của chúng thế nào không quan trọng</t>
+  </si>
+  <si>
+    <t>ABG</t>
+  </si>
+  <si>
+    <t>DFG</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>ABE</t>
+  </si>
+  <si>
+    <t>u u curcur</t>
+  </si>
+  <si>
+    <t>ADF</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>BCDF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Tỉ lệ : 10/29</t>
+  </si>
+  <si>
+    <t>Quá thấp :(</t>
+  </si>
+  <si>
+    <t>Nếu ko khai báo access modifier thì mặc định là default</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF231F20"/>
+        <rFont val="SabonLTStd-Roman"/>
+      </rPr>
+      <t>Encapsulation, Immutablility uses private instance variables.</t>
+    </r>
+  </si>
+  <si>
+    <t>Java pass by value</t>
+  </si>
+  <si>
+    <t>public class Test() {</t>
+  </si>
+  <si>
+    <t>public void Test () { }</t>
+  </si>
+  <si>
+    <t>// hàm này compile OK</t>
+  </si>
+  <si>
+    <t>Nghĩa là Class này vẫn có constructor ko tham số mặc định được tạo ra khi tạo instance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tricky</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Có thể tạo hàm với tên y sì tên class mà ko gây lỗi COMPILE, và hàm này ko phải là constructor</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Define biến trong constructor phải có this.a = a, nếu ko thì sẽ hiểu là gán </t>
+  </si>
+  <si>
+    <t>Lưu ý chọn đúng đáp án</t>
+  </si>
+  <si>
+    <t>Tricky. Lưu ý là ở đây tạo một instance mới với constructor mới</t>
+  </si>
+  <si>
+    <t>Khối khởi tạo instance có thể gọi được member static , giống như instance method và instance variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static method ,  static variable, static init block  ko thể gọi instance variable, static method, </t>
+  </si>
+  <si>
+    <t>Instance method, biến instance có thể gọi static method, static variable, static init block</t>
+  </si>
+  <si>
+    <t>static {</t>
+  </si>
+  <si>
+    <t>point = 1;</t>
+  </si>
+  <si>
+    <t>// COMPILE ERROR</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>public static void first() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> second();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> point = 1;</t>
+  </si>
+  <si>
+    <t>public static int staticNums;</t>
+  </si>
+  <si>
+    <t>int point;</t>
+  </si>
+  <si>
+    <t>public void second(){</t>
+  </si>
+  <si>
+    <t>staticNums = 1;</t>
+  </si>
+  <si>
+    <t>first();</t>
+  </si>
+  <si>
+    <t>staticNums = 10;</t>
+  </si>
+  <si>
+    <t>// COMPILE OK</t>
+  </si>
+  <si>
+    <t>Dấu ngoặc tròn ()có thể bỏ qua nếu là single line</t>
+  </si>
+  <si>
+    <t>Nếu là một hoặc nhiều tham số, cùng với kiểu dữ liệu của biến thì bắt buộc cần dấu ( )</t>
+  </si>
+  <si>
+    <t>(String a ) -&gt; …</t>
+  </si>
+  <si>
+    <t>(int a , int b ) -&gt; …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE 3: </t>
+  </si>
+  <si>
+    <t>Nếu ko có dấu { }  (tức là trường hợp single line) thì ko bắt buộc phải có return và ;</t>
+  </si>
+  <si>
+    <t>caller( (s) -&gt; "Proof");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bài test 2: </t>
+  </si>
+  <si>
+    <t>OCA Practice test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="59">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6152,6 +6466,47 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF231F20"/>
+      <name val="UniversLTStd-Bold"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF231F20"/>
+      <name val="SabonLTStd-Roman"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6192,7 +6547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6340,15 +6695,30 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6496,15 +6866,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>166229</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>136464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>294655</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>187132</xdr:rowOff>
+      <xdr:colOff>377999</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>157367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6521,8 +6891,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1833563" y="50077229"/>
+          <a:off x="1916907" y="52714464"/>
           <a:ext cx="2711623" cy="973403"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>29766</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>189135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226345" y="89160803"/>
+          <a:ext cx="1839515" cy="753832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8617,16 +9025,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="81" t="s">
+      <c r="D424" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="81"/>
-      <c r="F424" s="81"/>
-      <c r="G424" s="81"/>
-      <c r="H424" s="81"/>
-      <c r="I424" s="81"/>
-      <c r="J424" s="81"/>
-      <c r="K424" s="81"/>
+      <c r="E424" s="83"/>
+      <c r="F424" s="83"/>
+      <c r="G424" s="83"/>
+      <c r="H424" s="83"/>
+      <c r="I424" s="83"/>
+      <c r="J424" s="83"/>
+      <c r="K424" s="83"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -8693,16 +9101,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="81" t="s">
+      <c r="D430" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="81"/>
-      <c r="F430" s="81"/>
-      <c r="G430" s="81"/>
-      <c r="H430" s="81"/>
-      <c r="I430" s="81"/>
-      <c r="J430" s="81"/>
-      <c r="K430" s="81"/>
+      <c r="E430" s="83"/>
+      <c r="F430" s="83"/>
+      <c r="G430" s="83"/>
+      <c r="H430" s="83"/>
+      <c r="I430" s="83"/>
+      <c r="J430" s="83"/>
+      <c r="K430" s="83"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -20394,10 +20802,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L449"/>
+  <dimension ref="A1:L628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E449" sqref="E449"/>
+    <sheetView tabSelected="1" topLeftCell="A571" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B589" sqref="B589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20409,394 +20817,416 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="C4" t="s">
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="C5" t="s">
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
         <v>1489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
         <v>1492</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="36" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="36"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="B17" t="s">
+    <row r="20" spans="1:7">
+      <c r="C20" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
+    <row r="21" spans="1:7">
+      <c r="C21" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="C20" t="s">
+    <row r="24" spans="1:7">
+      <c r="D24" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="C21" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
+    <row r="25" spans="1:7">
+      <c r="D25" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="C24" t="s">
+    <row r="28" spans="1:7">
+      <c r="D28" t="s">
         <v>1498</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G28" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="C25" t="s">
+    <row r="29" spans="1:7">
+      <c r="D29" t="s">
         <v>1500</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G29" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="C26" t="s">
+    <row r="30" spans="1:7">
+      <c r="D30" t="s">
         <v>1502</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G30" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="36" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="36" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="B32" t="s">
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
         <v>1506</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="C37" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="C33" t="s">
+      <c r="J37" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="J38" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="C39" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="C35" t="s">
+    <row r="42" spans="2:10">
+      <c r="C42" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="C43" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="C44" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="C45" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G45" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="B37" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="C38" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="C39" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="C40" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="C41" t="s">
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
         <v>1513</v>
       </c>
-      <c r="G41" t="s">
+    </row>
+    <row r="48" spans="2:10">
+      <c r="C48" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="C49" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" s="57" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="C52" s="57" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="36" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="B43" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="C44" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="C45" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="36" t="s">
+    <row r="57" spans="1:9">
+      <c r="C57" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
+      <c r="D57" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="D58" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="C51" t="s">
+    <row r="59" spans="1:9">
+      <c r="D59" t="s">
         <v>1523</v>
       </c>
-      <c r="D51" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="D52" t="s">
+    </row>
+    <row r="61" spans="1:9">
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="D62" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="D53" t="s">
+      <c r="H62" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="C55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="D56" t="s">
+    <row r="63" spans="1:9">
+      <c r="D63" t="s">
         <v>1526</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H63" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="36" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="D57" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="36" t="s">
+      <c r="C67" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="C68" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="71" spans="1:9">
+      <c r="C71" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="C62" t="s">
+      <c r="D71" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="65" spans="3:9">
-      <c r="C65" t="s">
+    <row r="73" spans="1:9">
+      <c r="D73" t="s">
         <v>1533</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="76" spans="1:9">
+      <c r="C76" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="D78" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="67" spans="3:9">
-      <c r="D67" t="s">
+      <c r="I78" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="70" spans="3:9">
-      <c r="C70" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9">
-      <c r="D72" t="s">
+    <row r="80" spans="1:9">
+      <c r="D80" t="s">
         <v>1536</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I80" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="74" spans="3:9">
-      <c r="D74" t="s">
+    <row r="83" spans="3:9">
+      <c r="C83" t="s">
         <v>1538</v>
       </c>
-      <c r="I74" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9">
-      <c r="C77" t="s">
+    </row>
+    <row r="84" spans="3:9">
+      <c r="E84" s="58" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+    </row>
+    <row r="85" spans="3:9">
+      <c r="E85" s="58" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="E86" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+    </row>
+    <row r="88" spans="3:9">
+      <c r="D88" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9">
+      <c r="E89" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="78" spans="3:9">
-      <c r="E78" s="58" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-    </row>
-    <row r="79" spans="3:9">
-      <c r="E79" s="58" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-    </row>
-    <row r="80" spans="3:9">
-      <c r="E80" s="58" t="s">
+    <row r="90" spans="3:9">
+      <c r="F90" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9">
+      <c r="E91" t="s">
         <v>45</v>
       </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-    </row>
-    <row r="82" spans="4:9">
-      <c r="D82" t="s">
+    </row>
+    <row r="92" spans="3:9">
+      <c r="D92" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9">
+      <c r="E94" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9">
+      <c r="F95" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I95" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="83" spans="4:9">
-      <c r="E83" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9">
-      <c r="F84" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9">
-      <c r="E85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="4:9">
-      <c r="D86" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9">
-      <c r="E88" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9">
-      <c r="F89" t="s">
-        <v>1553</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="90" spans="4:9">
-      <c r="E90" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9">
-      <c r="D91" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="93" spans="4:9">
-      <c r="E93" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="94" spans="4:9">
-      <c r="F94" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I94" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="95" spans="4:9">
-      <c r="E95" t="s">
+    <row r="96" spans="3:9">
+      <c r="E96" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="D97" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="E99" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="F100" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="I100" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -20805,272 +21235,242 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="36" t="s">
+      <c r="D103" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="E105" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="F106" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="E107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="36" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="B110" s="65" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="B111" s="65" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="B104" s="65" t="s">
+    <row r="112" spans="1:9">
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="65"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="65" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="C117" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="C118" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="D119" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="E121" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="F122" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="G123" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="F124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="D125" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="E128" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="130" spans="5:10">
+      <c r="G130" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="131" spans="5:10">
+      <c r="G131" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="133" spans="5:10">
+      <c r="F133" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="5:10">
+      <c r="E135" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="136" spans="5:10">
+      <c r="E136" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="138" spans="5:10">
+      <c r="F138" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="140" spans="5:10">
+      <c r="G140" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="141" spans="5:10">
+      <c r="G141" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="143" spans="5:10">
+      <c r="F143" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="E145" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="E146" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="F148" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="G150" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="G151" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="F152" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="C156" s="65"/>
+      <c r="D156" s="65"/>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="36" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="E159" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="B160" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="B105" s="65" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="B107" s="65" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="B109" s="65" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="C111" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="C112" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7">
-      <c r="D113" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="115" spans="4:7">
-      <c r="E115" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="116" spans="4:7">
-      <c r="F116" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="117" spans="4:7">
-      <c r="G117" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="118" spans="4:7">
-      <c r="F118" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="4:7">
-      <c r="D119" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="122" spans="4:7">
-      <c r="E122" t="s">
-        <v>1577</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="124" spans="4:7">
-      <c r="G124" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="125" spans="4:7">
-      <c r="G125" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="127" spans="4:7">
-      <c r="F127" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="129" spans="5:10">
-      <c r="E129" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="130" spans="5:10">
-      <c r="E130" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="132" spans="5:10">
-      <c r="F132" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="134" spans="5:10">
-      <c r="G134" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="135" spans="5:10">
-      <c r="G135" t="s">
-        <v>1572</v>
-      </c>
-      <c r="J135" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="137" spans="5:10">
-      <c r="F137" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" spans="5:10">
-      <c r="E139" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="140" spans="5:10">
-      <c r="E140" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="142" spans="5:10">
-      <c r="F142" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="144" spans="5:10">
-      <c r="G144" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="G145" t="s">
-        <v>1572</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="F146" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="C150" s="65"/>
-      <c r="D150" s="65"/>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="36" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="B154" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="E155" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="C158" s="58" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D158" s="43"/>
-      <c r="E158" s="43"/>
-      <c r="F158" s="43"/>
-      <c r="G158" s="43"/>
-      <c r="H158" s="43"/>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="C159" s="58" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D159" s="43"/>
-      <c r="E159" s="43"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="43"/>
-      <c r="H159" s="43"/>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="C160" s="58" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D160" s="43"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="43"/>
-      <c r="H160" s="43"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="C161" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D161" s="43"/>
-      <c r="E161" s="43"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43"/>
-      <c r="H161" s="43"/>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="C162" s="79"/>
-      <c r="D162" s="43"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="C163" s="58" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D163" s="43"/>
-      <c r="E163" s="43"/>
-      <c r="F163" s="43"/>
-      <c r="G163" s="43"/>
-      <c r="H163" s="43"/>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="E160" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="E161" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="C164" s="58" t="s">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="D164" s="43"/>
       <c r="E164" s="43"/>
@@ -21078,9 +21478,9 @@
       <c r="G164" s="43"/>
       <c r="H164" s="43"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:8">
       <c r="C165" s="58" t="s">
-        <v>45</v>
+        <v>1633</v>
       </c>
       <c r="D165" s="43"/>
       <c r="E165" s="43"/>
@@ -21088,119 +21488,113 @@
       <c r="G165" s="43"/>
       <c r="H165" s="43"/>
     </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="36" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="B169" t="s">
-        <v>165</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="C170" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="D171" s="58" t="s">
-        <v>1586</v>
-      </c>
+    <row r="166" spans="1:8">
+      <c r="C166" s="58" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D166" s="43"/>
+      <c r="E166" s="43"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="43"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="C167" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D167" s="43"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="43"/>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="C168" s="79"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="C169" s="58" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D169" s="43"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="C170" s="58" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D170" s="43"/>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="C171" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171" s="43"/>
       <c r="E171" s="43"/>
       <c r="F171" s="43"/>
       <c r="G171" s="43"/>
       <c r="H171" s="43"/>
-      <c r="I171" s="43"/>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="D172" s="58" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E172" s="43"/>
-      <c r="F172" s="43"/>
-      <c r="G172" s="43"/>
-      <c r="H172" s="43"/>
-      <c r="I172" s="43"/>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="D173" s="79"/>
-      <c r="E173" s="43"/>
-      <c r="F173" s="43"/>
-      <c r="G173" s="43"/>
-      <c r="H173" s="43"/>
-      <c r="I173" s="43"/>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="D174" s="58" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E174" s="43"/>
-      <c r="F174" s="43"/>
-      <c r="G174" s="43"/>
-      <c r="H174" s="43"/>
-      <c r="I174" s="43"/>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="D175" s="58" t="s">
-        <v>716</v>
-      </c>
-      <c r="E175" s="43"/>
-      <c r="F175" s="43"/>
-      <c r="G175" s="43"/>
-      <c r="H175" s="43"/>
-      <c r="I175" s="43"/>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="D176" s="58" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E176" s="43"/>
-      <c r="F176" s="43"/>
-      <c r="G176" s="43"/>
-      <c r="H176" s="43"/>
-      <c r="I176" s="43"/>
-    </row>
-    <row r="177" spans="3:9">
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="36" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="B175" t="s">
+        <v>165</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="C176" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="177" spans="3:10">
       <c r="D177" s="58" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="E177" s="43"/>
       <c r="F177" s="43"/>
       <c r="G177" s="43"/>
       <c r="H177" s="43"/>
-      <c r="I177" s="43" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="178" spans="3:9">
+      <c r="I177" s="43"/>
+    </row>
+    <row r="178" spans="3:10">
       <c r="D178" s="58" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="E178" s="43"/>
       <c r="F178" s="43"/>
       <c r="G178" s="43"/>
       <c r="H178" s="43"/>
-      <c r="I178" s="43" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="179" spans="3:9">
-      <c r="D179" s="58" t="s">
-        <v>620</v>
-      </c>
+      <c r="I178" s="43"/>
+    </row>
+    <row r="179" spans="3:10">
+      <c r="D179" s="79"/>
       <c r="E179" s="43"/>
       <c r="F179" s="43"/>
       <c r="G179" s="43"/>
       <c r="H179" s="43"/>
       <c r="I179" s="43"/>
     </row>
-    <row r="180" spans="3:9">
+    <row r="180" spans="3:10">
       <c r="D180" s="58" t="s">
-        <v>45</v>
+        <v>1585</v>
       </c>
       <c r="E180" s="43"/>
       <c r="F180" s="43"/>
@@ -21208,899 +21602,1033 @@
       <c r="H180" s="43"/>
       <c r="I180" s="43"/>
     </row>
-    <row r="183" spans="3:9">
-      <c r="C183" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="184" spans="3:9">
-      <c r="C184" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="186" spans="3:9">
+    <row r="181" spans="3:10">
+      <c r="D181" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="43"/>
+    </row>
+    <row r="182" spans="3:10">
+      <c r="D182" s="58" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
+    </row>
+    <row r="183" spans="3:10">
+      <c r="D183" s="58" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10">
+      <c r="D184" s="58" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E184" s="43"/>
+      <c r="F184" s="43"/>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43"/>
+      <c r="I184" s="43" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="185" spans="3:10">
+      <c r="D185" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E185" s="43"/>
+      <c r="F185" s="43"/>
+      <c r="G185" s="43"/>
+      <c r="H185" s="43"/>
+      <c r="I185" s="43"/>
+    </row>
+    <row r="186" spans="3:10">
       <c r="D186" s="58" t="s">
-        <v>1586</v>
+        <v>45</v>
       </c>
       <c r="E186" s="43"/>
       <c r="F186" s="43"/>
       <c r="G186" s="43"/>
       <c r="H186" s="43"/>
-    </row>
-    <row r="187" spans="3:9">
-      <c r="D187" s="58" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E187" s="43"/>
-      <c r="F187" s="43"/>
-      <c r="G187" s="43"/>
-      <c r="H187" s="43"/>
-    </row>
-    <row r="188" spans="3:9">
-      <c r="D188" s="58" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E188" s="43"/>
-      <c r="F188" s="43"/>
-      <c r="G188" s="43"/>
-      <c r="H188" s="43" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="189" spans="3:9">
-      <c r="D189" s="58" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E189" s="43"/>
-      <c r="F189" s="43"/>
-      <c r="G189" s="43"/>
-      <c r="H189" s="43" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="190" spans="3:9">
-      <c r="D190" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="E190" s="43"/>
-      <c r="F190" s="43"/>
-      <c r="G190" s="43"/>
-      <c r="H190" s="43"/>
-    </row>
-    <row r="191" spans="3:9">
-      <c r="D191" s="58" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E191" s="43"/>
-      <c r="F191" s="43"/>
-      <c r="G191" s="43"/>
-      <c r="H191" s="43"/>
-    </row>
-    <row r="192" spans="3:9">
-      <c r="D192" s="79"/>
+      <c r="I186" s="43"/>
+    </row>
+    <row r="189" spans="3:10">
+      <c r="C189" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10">
+      <c r="C190" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10">
+      <c r="D192" s="91" t="s">
+        <v>1583</v>
+      </c>
       <c r="E192" s="43"/>
       <c r="F192" s="43"/>
       <c r="G192" s="43"/>
       <c r="H192" s="43"/>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="D193" s="79"/>
-      <c r="E193" s="43"/>
+      <c r="I192" s="43"/>
+      <c r="J192" s="43"/>
+    </row>
+    <row r="193" spans="4:10">
+      <c r="D193" s="43"/>
+      <c r="E193" s="91" t="s">
+        <v>1817</v>
+      </c>
       <c r="F193" s="43"/>
       <c r="G193" s="43"/>
       <c r="H193" s="43"/>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="D194" s="58" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E194" s="43"/>
+      <c r="I193" s="43"/>
+      <c r="J193" s="43"/>
+    </row>
+    <row r="194" spans="4:10">
+      <c r="D194" s="43"/>
+      <c r="E194" s="91" t="s">
+        <v>1818</v>
+      </c>
       <c r="F194" s="43"/>
       <c r="G194" s="43"/>
       <c r="H194" s="43"/>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="D195" s="58" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E195" s="43"/>
+      <c r="I194" s="43" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J194" s="43"/>
+    </row>
+    <row r="195" spans="4:10">
+      <c r="D195" s="43"/>
+      <c r="E195" s="91" t="s">
+        <v>1819</v>
+      </c>
       <c r="F195" s="43"/>
       <c r="G195" s="43"/>
       <c r="H195" s="43"/>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="D196" s="58" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E196" s="43"/>
+      <c r="I195" s="43" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J195" s="43"/>
+    </row>
+    <row r="196" spans="4:10">
+      <c r="D196" s="43"/>
+      <c r="E196" s="91" t="s">
+        <v>45</v>
+      </c>
       <c r="F196" s="43"/>
       <c r="G196" s="43"/>
-      <c r="H196" s="43" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="D197" s="58" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E197" s="43"/>
+      <c r="H196" s="43"/>
+      <c r="I196" s="43"/>
+      <c r="J196" s="43"/>
+    </row>
+    <row r="197" spans="4:10">
+      <c r="D197" s="43"/>
+      <c r="E197" s="91" t="s">
+        <v>1820</v>
+      </c>
       <c r="F197" s="43"/>
       <c r="G197" s="43"/>
-      <c r="H197" s="43" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="D198" s="58" t="s">
-        <v>620</v>
-      </c>
+      <c r="H197" s="43"/>
+      <c r="I197" s="43"/>
+      <c r="J197" s="43"/>
+    </row>
+    <row r="198" spans="4:10">
+      <c r="D198" s="79"/>
       <c r="E198" s="43"/>
       <c r="F198" s="43"/>
       <c r="G198" s="43"/>
       <c r="H198" s="43"/>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198" s="43"/>
+      <c r="J198" s="43"/>
+    </row>
+    <row r="199" spans="4:10">
       <c r="D199" s="79"/>
       <c r="E199" s="43"/>
       <c r="F199" s="43"/>
       <c r="G199" s="43"/>
       <c r="H199" s="43"/>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="D200" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E200" s="43"/>
+      <c r="I199" s="43"/>
+      <c r="J199" s="43"/>
+    </row>
+    <row r="200" spans="4:10">
+      <c r="D200" s="43"/>
+      <c r="E200" s="91" t="s">
+        <v>1821</v>
+      </c>
       <c r="F200" s="43"/>
       <c r="G200" s="43"/>
       <c r="H200" s="43"/>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="D201" s="36"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="36"/>
-      <c r="G201" s="36"/>
-      <c r="H201" s="36"/>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" s="36" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="B205" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="C206" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="D207" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
-      <c r="D209" s="58" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E209" s="43"/>
-      <c r="F209" s="43"/>
+      <c r="I200" s="43"/>
+      <c r="J200" s="43"/>
+    </row>
+    <row r="201" spans="4:10">
+      <c r="D201" s="43"/>
+      <c r="E201" s="91" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F201" s="43"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="43"/>
+      <c r="I201" s="43"/>
+      <c r="J201" s="43"/>
+    </row>
+    <row r="202" spans="4:10">
+      <c r="D202" s="43"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="91" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G202" s="43"/>
+      <c r="H202" s="43" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I202" s="43"/>
+      <c r="J202" s="43"/>
+    </row>
+    <row r="203" spans="4:10">
+      <c r="D203" s="91" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G203" s="43"/>
+      <c r="H203" s="43" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I203" s="43"/>
+      <c r="J203" s="43"/>
+    </row>
+    <row r="204" spans="4:10">
+      <c r="D204" s="43"/>
+      <c r="E204" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
+      <c r="I204" s="43"/>
+      <c r="J204" s="43"/>
+    </row>
+    <row r="205" spans="4:10">
+      <c r="D205" s="79"/>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="43"/>
+      <c r="J205" s="43"/>
+    </row>
+    <row r="206" spans="4:10">
+      <c r="D206" s="43"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="43"/>
+      <c r="J206" s="43"/>
+    </row>
+    <row r="207" spans="4:10">
+      <c r="D207" s="91"/>
+      <c r="E207" s="43"/>
+      <c r="F207" s="43"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="43"/>
+      <c r="I207" s="43"/>
+      <c r="J207" s="43"/>
+    </row>
+    <row r="208" spans="4:10">
+      <c r="D208" s="43"/>
+      <c r="E208" s="91" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F208" s="43"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="43"/>
+      <c r="I208" s="43"/>
+      <c r="J208" s="43"/>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="D209" s="43"/>
+      <c r="E209" s="91"/>
+      <c r="F209" s="43" t="s">
+        <v>1814</v>
+      </c>
       <c r="G209" s="43"/>
-      <c r="H209" s="43"/>
+      <c r="H209" s="43" t="s">
+        <v>1815</v>
+      </c>
       <c r="I209" s="43"/>
       <c r="J209" s="43"/>
-      <c r="K209" s="43"/>
-      <c r="L209" s="43"/>
-    </row>
-    <row r="210" spans="1:12">
-      <c r="D210" s="58" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E210" s="43"/>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="D210" s="43"/>
+      <c r="E210" s="91" t="s">
+        <v>45</v>
+      </c>
       <c r="F210" s="43"/>
       <c r="G210" s="43"/>
       <c r="H210" s="43"/>
       <c r="I210" s="43"/>
       <c r="J210" s="43"/>
-      <c r="K210" s="43"/>
-      <c r="L210" s="43"/>
-    </row>
-    <row r="211" spans="1:12">
-      <c r="D211" s="79"/>
-      <c r="E211" s="43"/>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="D211" s="43"/>
+      <c r="E211" s="91"/>
       <c r="F211" s="43"/>
       <c r="G211" s="43"/>
       <c r="H211" s="43"/>
       <c r="I211" s="43"/>
       <c r="J211" s="43"/>
-      <c r="K211" s="43"/>
-      <c r="L211" s="43"/>
-    </row>
-    <row r="212" spans="1:12">
-      <c r="D212" s="58" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E212" s="43"/>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="D212" s="43"/>
+      <c r="E212" s="91" t="s">
+        <v>1816</v>
+      </c>
       <c r="F212" s="43"/>
       <c r="G212" s="43"/>
       <c r="H212" s="43"/>
       <c r="I212" s="43"/>
       <c r="J212" s="43"/>
-      <c r="K212" s="43"/>
-      <c r="L212" s="43"/>
-    </row>
-    <row r="213" spans="1:12">
-      <c r="D213" s="58" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="D213" s="91"/>
       <c r="E213" s="43"/>
-      <c r="F213" s="43"/>
+      <c r="F213" s="43" t="s">
+        <v>1825</v>
+      </c>
       <c r="G213" s="43"/>
-      <c r="H213" s="43"/>
+      <c r="H213" s="43" t="s">
+        <v>1826</v>
+      </c>
       <c r="I213" s="43"/>
       <c r="J213" s="43"/>
-      <c r="K213" s="43"/>
-      <c r="L213" s="43"/>
-    </row>
-    <row r="214" spans="1:12">
-      <c r="D214" s="58" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E214" s="43"/>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="D214" s="91"/>
+      <c r="E214" s="43" t="s">
+        <v>45</v>
+      </c>
       <c r="F214" s="43"/>
       <c r="G214" s="43"/>
       <c r="H214" s="43"/>
       <c r="I214" s="43"/>
       <c r="J214" s="43"/>
-      <c r="K214" s="43"/>
-      <c r="L214" s="43"/>
-    </row>
-    <row r="215" spans="1:12">
-      <c r="D215" s="79"/>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="D215" s="91" t="s">
+        <v>45</v>
+      </c>
       <c r="E215" s="43"/>
       <c r="F215" s="43"/>
       <c r="G215" s="43"/>
       <c r="H215" s="43"/>
       <c r="I215" s="43"/>
       <c r="J215" s="43"/>
-      <c r="K215" s="43"/>
-      <c r="L215" s="43"/>
-    </row>
-    <row r="216" spans="1:12">
-      <c r="D216" s="79"/>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="D216" s="58"/>
       <c r="E216" s="43"/>
       <c r="F216" s="43"/>
       <c r="G216" s="43"/>
       <c r="H216" s="43"/>
-      <c r="I216" s="43"/>
-      <c r="J216" s="43"/>
-      <c r="K216" s="43"/>
-      <c r="L216" s="43"/>
-    </row>
-    <row r="217" spans="1:12">
-      <c r="D217" s="58" t="s">
+    </row>
+    <row r="217" spans="1:10">
+      <c r="D217" s="36"/>
+      <c r="E217" s="36"/>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36"/>
+      <c r="H217" s="36"/>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="36" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="B221" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="C222" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="D223" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="D225" s="58" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="43"/>
+      <c r="H225" s="43"/>
+      <c r="I225" s="43"/>
+      <c r="J225" s="43"/>
+      <c r="K225" s="43"/>
+      <c r="L225" s="43"/>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="D226" s="58" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E226" s="43"/>
+      <c r="F226" s="43"/>
+      <c r="G226" s="43"/>
+      <c r="H226" s="43"/>
+      <c r="I226" s="43"/>
+      <c r="J226" s="43"/>
+      <c r="K226" s="43"/>
+      <c r="L226" s="43"/>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="D227" s="79"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="43"/>
+      <c r="G227" s="43"/>
+      <c r="H227" s="43"/>
+      <c r="I227" s="43"/>
+      <c r="J227" s="43"/>
+      <c r="K227" s="43"/>
+      <c r="L227" s="43"/>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="D228" s="58" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E228" s="43"/>
+      <c r="F228" s="43"/>
+      <c r="G228" s="43"/>
+      <c r="H228" s="43"/>
+      <c r="I228" s="43"/>
+      <c r="J228" s="43"/>
+      <c r="K228" s="43"/>
+      <c r="L228" s="43"/>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="D229" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="E229" s="43"/>
+      <c r="F229" s="43"/>
+      <c r="G229" s="43"/>
+      <c r="H229" s="43"/>
+      <c r="I229" s="43"/>
+      <c r="J229" s="43"/>
+      <c r="K229" s="43"/>
+      <c r="L229" s="43"/>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="D230" s="58" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E230" s="43"/>
+      <c r="F230" s="43"/>
+      <c r="G230" s="43"/>
+      <c r="H230" s="43"/>
+      <c r="I230" s="43"/>
+      <c r="J230" s="43"/>
+      <c r="K230" s="43"/>
+      <c r="L230" s="43"/>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="D231" s="79"/>
+      <c r="E231" s="43"/>
+      <c r="F231" s="43"/>
+      <c r="G231" s="43"/>
+      <c r="H231" s="43"/>
+      <c r="I231" s="43"/>
+      <c r="J231" s="43"/>
+      <c r="K231" s="43"/>
+      <c r="L231" s="43"/>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="D232" s="79"/>
+      <c r="E232" s="43"/>
+      <c r="F232" s="43"/>
+      <c r="G232" s="43"/>
+      <c r="H232" s="43"/>
+      <c r="I232" s="43"/>
+      <c r="J232" s="43"/>
+      <c r="K232" s="43"/>
+      <c r="L232" s="43"/>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="D233" s="58" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E233" s="43"/>
+      <c r="F233" s="43"/>
+      <c r="G233" s="43"/>
+      <c r="H233" s="43"/>
+      <c r="I233" s="43"/>
+      <c r="J233" s="43"/>
+      <c r="K233" s="43"/>
+      <c r="L233" s="43"/>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="D234" s="58" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E234" s="43"/>
+      <c r="F234" s="43"/>
+      <c r="G234" s="43"/>
+      <c r="H234" s="43"/>
+      <c r="I234" s="43"/>
+      <c r="J234" s="43"/>
+      <c r="K234" s="43"/>
+      <c r="L234" s="43"/>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="D235" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E235" s="43"/>
+      <c r="F235" s="43"/>
+      <c r="G235" s="43"/>
+      <c r="H235" s="43"/>
+      <c r="I235" s="43"/>
+      <c r="J235" s="43"/>
+      <c r="K235" s="43"/>
+      <c r="L235" s="43"/>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="D236" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E236" s="43"/>
+      <c r="F236" s="43"/>
+      <c r="G236" s="43"/>
+      <c r="H236" s="43"/>
+      <c r="I236" s="43"/>
+      <c r="J236" s="43"/>
+      <c r="K236" s="43"/>
+      <c r="L236" s="43"/>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" s="36" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="B241" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="B242" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="36" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="B246" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="C247" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="D249" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="E250" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="E251" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="F252" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="G253" t="s">
         <v>1614</v>
       </c>
-      <c r="E217" s="43"/>
-      <c r="F217" s="43"/>
-      <c r="G217" s="43"/>
-      <c r="H217" s="43"/>
-      <c r="I217" s="43"/>
-      <c r="J217" s="43"/>
-      <c r="K217" s="43"/>
-      <c r="L217" s="43"/>
-    </row>
-    <row r="218" spans="1:12">
-      <c r="D218" s="58" t="s">
+    </row>
+    <row r="254" spans="1:7">
+      <c r="F254" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="E255" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="D257" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="E259" t="s">
         <v>1615</v>
       </c>
-      <c r="E218" s="43"/>
-      <c r="F218" s="43"/>
-      <c r="G218" s="43"/>
-      <c r="H218" s="43"/>
-      <c r="I218" s="43"/>
-      <c r="J218" s="43"/>
-      <c r="K218" s="43"/>
-      <c r="L218" s="43"/>
-    </row>
-    <row r="219" spans="1:12">
-      <c r="D219" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="E219" s="43"/>
-      <c r="F219" s="43"/>
-      <c r="G219" s="43"/>
-      <c r="H219" s="43"/>
-      <c r="I219" s="43"/>
-      <c r="J219" s="43"/>
-      <c r="K219" s="43"/>
-      <c r="L219" s="43"/>
-    </row>
-    <row r="220" spans="1:12">
-      <c r="D220" s="58" t="s">
+      <c r="I259" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="E260" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I260" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="E262" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="F264" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I264" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="E265" t="s">
         <v>45</v>
       </c>
-      <c r="E220" s="43"/>
-      <c r="F220" s="43"/>
-      <c r="G220" s="43"/>
-      <c r="H220" s="43"/>
-      <c r="I220" s="43"/>
-      <c r="J220" s="43"/>
-      <c r="K220" s="43"/>
-      <c r="L220" s="43"/>
-    </row>
-    <row r="223" spans="1:12">
-      <c r="A223" s="36" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="B225" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="B226" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="36" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="B230" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="C231" t="s">
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="36" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
-      <c r="D233" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="E234" t="s">
+    <row r="270" spans="1:9">
+      <c r="B270" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
-      <c r="E235" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="F236" t="s">
+    <row r="272" spans="1:9">
+      <c r="C272" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
-      <c r="G237" t="s">
+    <row r="274" spans="3:9">
+      <c r="C274" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
-      <c r="F238" t="s">
+    <row r="276" spans="3:9">
+      <c r="D276" s="58" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E276" s="43"/>
+      <c r="F276" s="43"/>
+      <c r="G276" s="43"/>
+      <c r="H276" s="43"/>
+      <c r="I276" s="43"/>
+    </row>
+    <row r="277" spans="3:9">
+      <c r="D277" s="58" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E277" s="43"/>
+      <c r="F277" s="43"/>
+      <c r="G277" s="43"/>
+      <c r="H277" s="43"/>
+      <c r="I277" s="43"/>
+    </row>
+    <row r="278" spans="3:9">
+      <c r="D278" s="58" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E278" s="43"/>
+      <c r="F278" s="43"/>
+      <c r="G278" s="43"/>
+      <c r="H278" s="43"/>
+      <c r="I278" s="43"/>
+    </row>
+    <row r="279" spans="3:9">
+      <c r="D279" s="58" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E279" s="43"/>
+      <c r="F279" s="43"/>
+      <c r="G279" s="43"/>
+      <c r="H279" s="43"/>
+      <c r="I279" s="43"/>
+    </row>
+    <row r="280" spans="3:9">
+      <c r="D280" s="58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="E239" t="s">
+      <c r="E280" s="43"/>
+      <c r="F280" s="43"/>
+      <c r="G280" s="43"/>
+      <c r="H280" s="43"/>
+      <c r="I280" s="43"/>
+    </row>
+    <row r="281" spans="3:9">
+      <c r="D281" s="79"/>
+      <c r="E281" s="43"/>
+      <c r="F281" s="43"/>
+      <c r="G281" s="43"/>
+      <c r="H281" s="43"/>
+      <c r="I281" s="43"/>
+    </row>
+    <row r="282" spans="3:9">
+      <c r="D282" s="58" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E282" s="43"/>
+      <c r="F282" s="43"/>
+      <c r="G282" s="43"/>
+      <c r="H282" s="43"/>
+      <c r="I282" s="43"/>
+    </row>
+    <row r="283" spans="3:9">
+      <c r="D283" s="58" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E283" s="43"/>
+      <c r="F283" s="43"/>
+      <c r="G283" s="43"/>
+      <c r="H283" s="43"/>
+      <c r="I283" s="43"/>
+    </row>
+    <row r="284" spans="3:9">
+      <c r="D284" s="58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="D241" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9">
-      <c r="E243" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I243" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
-      <c r="E244" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
-      <c r="E246" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="F248" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I248" t="s">
+      <c r="E284" s="43"/>
+      <c r="F284" s="43"/>
+      <c r="G284" s="43"/>
+      <c r="H284" s="43"/>
+      <c r="I284" s="43"/>
+    </row>
+    <row r="286" spans="3:9">
+      <c r="D286" s="80" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E286" s="12"/>
+      <c r="F286" s="12"/>
+      <c r="G286" s="12"/>
+      <c r="H286" s="12"/>
+    </row>
+    <row r="287" spans="3:9">
+      <c r="D287" s="80" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="E249" t="s">
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="12"/>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="36" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="B297" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="C298" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="C302" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="C304" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="305" spans="3:8">
+      <c r="D305" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="306" spans="3:8">
+      <c r="D306" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="308" spans="3:8">
+      <c r="D308" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="309" spans="3:8">
+      <c r="D309" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="310" spans="3:8">
+      <c r="D310" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="314" spans="3:8">
+      <c r="C314" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="316" spans="3:8">
+      <c r="D316" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="317" spans="3:8">
+      <c r="D317" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="318" spans="3:8">
+      <c r="H318" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="320" spans="3:8">
+      <c r="D320" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10">
+      <c r="D321" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
+      <c r="H322" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="D324" s="58" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E324" s="85"/>
+      <c r="F324" s="85"/>
+      <c r="G324" s="85"/>
+    </row>
+    <row r="325" spans="1:10">
+      <c r="D325" s="58" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E325" s="85"/>
+      <c r="F325" s="85"/>
+      <c r="G325" s="85"/>
+      <c r="H325" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
+      <c r="D326" s="84"/>
+      <c r="H326" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
+      <c r="D327" s="84"/>
+    </row>
+    <row r="328" spans="1:10">
+      <c r="D328" s="58" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E328" s="43"/>
+      <c r="F328" s="43"/>
+      <c r="G328" s="43"/>
+      <c r="H328" s="43"/>
+      <c r="I328" s="43"/>
+    </row>
+    <row r="329" spans="1:10">
+      <c r="D329" s="58" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E329" s="43"/>
+      <c r="F329" s="43"/>
+      <c r="G329" s="43"/>
+      <c r="H329" s="43"/>
+      <c r="I329" s="43"/>
+      <c r="J329" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="J330" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
+      <c r="A331" s="36" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
+      <c r="C333" s="58" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D333" s="43"/>
+      <c r="E333" s="43"/>
+      <c r="F333" s="43"/>
+      <c r="G333" s="43"/>
+    </row>
+    <row r="334" spans="1:10">
+      <c r="C334" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+    </row>
+    <row r="335" spans="1:10">
+      <c r="C335" s="58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="36" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="B254" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="C256" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="258" spans="3:9">
-      <c r="C258" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="260" spans="3:9">
-      <c r="D260" s="58" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E260" s="43"/>
-      <c r="F260" s="43"/>
-      <c r="G260" s="43"/>
-      <c r="H260" s="43"/>
-      <c r="I260" s="43"/>
-    </row>
-    <row r="261" spans="3:9">
-      <c r="D261" s="58" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E261" s="43"/>
-      <c r="F261" s="43"/>
-      <c r="G261" s="43"/>
-      <c r="H261" s="43"/>
-      <c r="I261" s="43"/>
-    </row>
-    <row r="262" spans="3:9">
-      <c r="D262" s="58" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E262" s="43"/>
-      <c r="F262" s="43"/>
-      <c r="G262" s="43"/>
-      <c r="H262" s="43"/>
-      <c r="I262" s="43"/>
-    </row>
-    <row r="263" spans="3:9">
-      <c r="D263" s="58" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E263" s="43"/>
-      <c r="F263" s="43"/>
-      <c r="G263" s="43"/>
-      <c r="H263" s="43"/>
-      <c r="I263" s="43"/>
-    </row>
-    <row r="264" spans="3:9">
-      <c r="D264" s="58" t="s">
+      <c r="D335" s="43"/>
+      <c r="E335" s="43"/>
+      <c r="F335" s="43"/>
+      <c r="G335" s="43"/>
+    </row>
+    <row r="336" spans="1:10">
+      <c r="C336" s="79"/>
+      <c r="D336" s="43"/>
+      <c r="E336" s="43"/>
+      <c r="F336" s="43"/>
+      <c r="G336" s="43"/>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="C337" s="58" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D337" s="43"/>
+      <c r="E337" s="43"/>
+      <c r="F337" s="43"/>
+      <c r="G337" s="43"/>
+      <c r="H337" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="C338" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D338" s="43"/>
+      <c r="E338" s="43"/>
+      <c r="F338" s="43"/>
+      <c r="G338" s="43"/>
+      <c r="H338" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="C339" s="58" t="s">
         <v>45</v>
-      </c>
-      <c r="E264" s="43"/>
-      <c r="F264" s="43"/>
-      <c r="G264" s="43"/>
-      <c r="H264" s="43"/>
-      <c r="I264" s="43"/>
-    </row>
-    <row r="265" spans="3:9">
-      <c r="D265" s="79"/>
-      <c r="E265" s="43"/>
-      <c r="F265" s="43"/>
-      <c r="G265" s="43"/>
-      <c r="H265" s="43"/>
-      <c r="I265" s="43"/>
-    </row>
-    <row r="266" spans="3:9">
-      <c r="D266" s="58" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E266" s="43"/>
-      <c r="F266" s="43"/>
-      <c r="G266" s="43"/>
-      <c r="H266" s="43"/>
-      <c r="I266" s="43"/>
-    </row>
-    <row r="267" spans="3:9">
-      <c r="D267" s="58" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E267" s="43"/>
-      <c r="F267" s="43"/>
-      <c r="G267" s="43"/>
-      <c r="H267" s="43"/>
-      <c r="I267" s="43"/>
-    </row>
-    <row r="268" spans="3:9">
-      <c r="D268" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E268" s="43"/>
-      <c r="F268" s="43"/>
-      <c r="G268" s="43"/>
-      <c r="H268" s="43"/>
-      <c r="I268" s="43"/>
-    </row>
-    <row r="270" spans="3:9">
-      <c r="D270" s="80" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E270" s="12"/>
-      <c r="F270" s="12"/>
-      <c r="G270" s="12"/>
-      <c r="H270" s="12"/>
-    </row>
-    <row r="271" spans="3:9">
-      <c r="D271" s="80" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E271" s="12"/>
-      <c r="F271" s="12"/>
-      <c r="G271" s="12"/>
-      <c r="H271" s="12"/>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="36" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="B281" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="C282" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="E283" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="B286" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="C288" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="289" spans="3:8">
-      <c r="D289" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="290" spans="3:8">
-      <c r="D290" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="292" spans="3:8">
-      <c r="D292" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="293" spans="3:8">
-      <c r="D293" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="294" spans="3:8">
-      <c r="D294" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="298" spans="3:8">
-      <c r="C298" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="300" spans="3:8">
-      <c r="D300" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="301" spans="3:8">
-      <c r="D301" t="s">
-        <v>1664</v>
-      </c>
-      <c r="H301" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="302" spans="3:8">
-      <c r="H302" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="304" spans="3:8">
-      <c r="D304" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="D305" t="s">
-        <v>1668</v>
-      </c>
-      <c r="H305" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="H306" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" s="36" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="C311" s="58" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D311" s="43"/>
-      <c r="E311" s="43"/>
-      <c r="F311" s="43"/>
-      <c r="G311" s="43"/>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="C312" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D312" s="43"/>
-      <c r="E312" s="43"/>
-      <c r="F312" s="43"/>
-      <c r="G312" s="43"/>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="C313" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D313" s="43"/>
-      <c r="E313" s="43"/>
-      <c r="F313" s="43"/>
-      <c r="G313" s="43"/>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="C314" s="79"/>
-      <c r="D314" s="43"/>
-      <c r="E314" s="43"/>
-      <c r="F314" s="43"/>
-      <c r="G314" s="43"/>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="C315" s="58" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D315" s="43"/>
-      <c r="E315" s="43"/>
-      <c r="F315" s="43"/>
-      <c r="G315" s="43"/>
-      <c r="H315" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="C316" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D316" s="43"/>
-      <c r="E316" s="43"/>
-      <c r="F316" s="43"/>
-      <c r="G316" s="43"/>
-      <c r="H316" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="C317" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D317" s="43"/>
-      <c r="E317" s="43"/>
-      <c r="F317" s="43"/>
-      <c r="G317" s="43"/>
-      <c r="H317" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" s="36" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="321" spans="3:7">
-      <c r="C321" s="58" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D321" s="43"/>
-      <c r="E321" s="43"/>
-      <c r="F321" s="43"/>
-      <c r="G321" s="43"/>
-    </row>
-    <row r="322" spans="3:7">
-      <c r="D322" s="43" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E322" s="43"/>
-      <c r="F322" s="43"/>
-      <c r="G322" s="43"/>
-    </row>
-    <row r="323" spans="3:7">
-      <c r="C323" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D323" s="43"/>
-      <c r="E323" s="43"/>
-      <c r="F323" s="43"/>
-      <c r="G323" s="43"/>
-    </row>
-    <row r="324" spans="3:7">
-      <c r="C324" s="79"/>
-      <c r="D324" s="43"/>
-      <c r="E324" s="43"/>
-      <c r="F324" s="43"/>
-      <c r="G324" s="43"/>
-    </row>
-    <row r="325" spans="3:7">
-      <c r="C325" s="58" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D325" s="43"/>
-      <c r="E325" s="43"/>
-      <c r="F325" s="43"/>
-      <c r="G325" s="43"/>
-    </row>
-    <row r="326" spans="3:7">
-      <c r="D326" s="43" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E326" s="43"/>
-      <c r="F326" s="43"/>
-      <c r="G326" s="43"/>
-    </row>
-    <row r="327" spans="3:7">
-      <c r="C327" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D327" s="43"/>
-      <c r="E327" s="43"/>
-      <c r="F327" s="43"/>
-      <c r="G327" s="43"/>
-    </row>
-    <row r="329" spans="3:7">
-      <c r="C329" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="331" spans="3:7">
-      <c r="C331" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="332" spans="3:7">
-      <c r="C332" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="335" spans="3:7">
-      <c r="C335" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
-      <c r="A337" s="36" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
-      <c r="B338" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
-      <c r="C339" s="58" t="s">
-        <v>1686</v>
       </c>
       <c r="D339" s="43"/>
       <c r="E339" s="43"/>
       <c r="F339" s="43"/>
       <c r="G339" s="43"/>
-      <c r="H339" s="43"/>
-      <c r="I339" s="43"/>
-    </row>
-    <row r="340" spans="1:9">
-      <c r="C340" s="58" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D340" s="43"/>
-      <c r="E340" s="43"/>
-      <c r="F340" s="43"/>
-      <c r="G340" s="43"/>
-      <c r="H340" s="43"/>
-      <c r="I340" s="43"/>
-    </row>
-    <row r="341" spans="1:9">
-      <c r="C341" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D341" s="43"/>
-      <c r="E341" s="43"/>
-      <c r="F341" s="43"/>
-      <c r="G341" s="43"/>
-      <c r="H341" s="43"/>
-      <c r="I341" s="43"/>
-    </row>
-    <row r="342" spans="1:9">
-      <c r="C342" s="79"/>
-      <c r="D342" s="43"/>
-      <c r="E342" s="43"/>
-      <c r="F342" s="43"/>
-      <c r="G342" s="43"/>
-      <c r="H342" s="43"/>
-      <c r="I342" s="43"/>
-    </row>
-    <row r="343" spans="1:9">
+      <c r="H339" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="36" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="C343" s="58" t="s">
-        <v>1688</v>
+        <v>1662</v>
       </c>
       <c r="D343" s="43"/>
       <c r="E343" s="43"/>
       <c r="F343" s="43"/>
       <c r="G343" s="43"/>
-      <c r="H343" s="43"/>
-      <c r="I343" s="43"/>
-    </row>
-    <row r="344" spans="1:9">
-      <c r="C344" s="58" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D344" s="43"/>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="D344" s="43" t="s">
+        <v>1666</v>
+      </c>
       <c r="E344" s="43"/>
       <c r="F344" s="43"/>
       <c r="G344" s="43"/>
-      <c r="H344" s="43"/>
-      <c r="I344" s="43"/>
-    </row>
-    <row r="345" spans="1:9">
+    </row>
+    <row r="345" spans="1:8">
       <c r="C345" s="58" t="s">
         <v>45</v>
       </c>
@@ -22108,101 +22636,73 @@
       <c r="E345" s="43"/>
       <c r="F345" s="43"/>
       <c r="G345" s="43"/>
-      <c r="H345" s="43"/>
-      <c r="I345" s="43"/>
-    </row>
-    <row r="346" spans="1:9">
+    </row>
+    <row r="346" spans="1:8">
       <c r="C346" s="79"/>
       <c r="D346" s="43"/>
       <c r="E346" s="43"/>
       <c r="F346" s="43"/>
       <c r="G346" s="43"/>
-      <c r="H346" s="43"/>
-      <c r="I346" s="43"/>
-    </row>
-    <row r="347" spans="1:9">
+    </row>
+    <row r="347" spans="1:8">
       <c r="C347" s="58" t="s">
-        <v>1641</v>
+        <v>1663</v>
       </c>
       <c r="D347" s="43"/>
       <c r="E347" s="43"/>
       <c r="F347" s="43"/>
       <c r="G347" s="43"/>
-      <c r="H347" s="43"/>
-      <c r="I347" s="43"/>
-    </row>
-    <row r="348" spans="1:9">
-      <c r="C348" s="58" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D348" s="43"/>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="D348" s="43" t="s">
+        <v>1667</v>
+      </c>
       <c r="E348" s="43"/>
       <c r="F348" s="43"/>
       <c r="G348" s="43"/>
-      <c r="H348" s="43"/>
-      <c r="I348" s="43"/>
-    </row>
-    <row r="349" spans="1:9">
-      <c r="C349" s="58" t="s">
-        <v>1693</v>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="C349" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="D349" s="43"/>
       <c r="E349" s="43"/>
       <c r="F349" s="43"/>
       <c r="G349" s="43"/>
-      <c r="H349" s="43"/>
-      <c r="I349" s="43"/>
-    </row>
-    <row r="350" spans="1:9">
-      <c r="C350" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D350" s="43"/>
-      <c r="E350" s="43"/>
-      <c r="F350" s="43"/>
-      <c r="G350" s="43"/>
-      <c r="H350" s="43"/>
-      <c r="I350" s="43"/>
-    </row>
-    <row r="353" spans="2:9">
-      <c r="C353" s="58" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="354" spans="2:9">
-      <c r="C354" s="58" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="355" spans="2:9">
-      <c r="D355" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="356" spans="2:9">
-      <c r="D356" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="358" spans="2:9">
-      <c r="B358" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="360" spans="2:9">
-      <c r="C360" s="58" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D360" s="43"/>
-      <c r="E360" s="43"/>
-      <c r="F360" s="43"/>
-      <c r="G360" s="43"/>
-      <c r="H360" s="43"/>
-      <c r="I360" s="43"/>
-    </row>
-    <row r="361" spans="2:9">
+    </row>
+    <row r="351" spans="1:8">
+      <c r="C351" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="C353" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="C354" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="C357" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" s="36" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="B360" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
       <c r="C361" s="58" t="s">
-        <v>1689</v>
+        <v>1672</v>
       </c>
       <c r="D361" s="43"/>
       <c r="E361" s="43"/>
@@ -22211,9 +22711,9 @@
       <c r="H361" s="43"/>
       <c r="I361" s="43"/>
     </row>
-    <row r="362" spans="2:9">
+    <row r="362" spans="1:9">
       <c r="C362" s="58" t="s">
-        <v>45</v>
+        <v>1673</v>
       </c>
       <c r="D362" s="43"/>
       <c r="E362" s="43"/>
@@ -22222,8 +22722,10 @@
       <c r="H362" s="43"/>
       <c r="I362" s="43"/>
     </row>
-    <row r="363" spans="2:9">
-      <c r="C363" s="79"/>
+    <row r="363" spans="1:9">
+      <c r="C363" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="D363" s="43"/>
       <c r="E363" s="43"/>
       <c r="F363" s="43"/>
@@ -22231,10 +22733,8 @@
       <c r="H363" s="43"/>
       <c r="I363" s="43"/>
     </row>
-    <row r="364" spans="2:9">
-      <c r="C364" s="58" t="s">
-        <v>1641</v>
-      </c>
+    <row r="364" spans="1:9">
+      <c r="C364" s="79"/>
       <c r="D364" s="43"/>
       <c r="E364" s="43"/>
       <c r="F364" s="43"/>
@@ -22242,9 +22742,9 @@
       <c r="H364" s="43"/>
       <c r="I364" s="43"/>
     </row>
-    <row r="365" spans="2:9">
+    <row r="365" spans="1:9">
       <c r="C365" s="58" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="D365" s="43"/>
       <c r="E365" s="43"/>
@@ -22253,9 +22753,9 @@
       <c r="H365" s="43"/>
       <c r="I365" s="43"/>
     </row>
-    <row r="366" spans="2:9">
+    <row r="366" spans="1:9">
       <c r="C366" s="58" t="s">
-        <v>1693</v>
+        <v>1675</v>
       </c>
       <c r="D366" s="43"/>
       <c r="E366" s="43"/>
@@ -22264,7 +22764,7 @@
       <c r="H366" s="43"/>
       <c r="I366" s="43"/>
     </row>
-    <row r="367" spans="2:9">
+    <row r="367" spans="1:9">
       <c r="C367" s="58" t="s">
         <v>45</v>
       </c>
@@ -22275,228 +22775,203 @@
       <c r="H367" s="43"/>
       <c r="I367" s="43"/>
     </row>
-    <row r="369" spans="1:9">
+    <row r="368" spans="1:9">
+      <c r="C368" s="79"/>
+      <c r="D368" s="43"/>
+      <c r="E368" s="43"/>
+      <c r="F368" s="43"/>
+      <c r="G368" s="43"/>
+      <c r="H368" s="43"/>
+      <c r="I368" s="43"/>
+    </row>
+    <row r="369" spans="2:9">
       <c r="C369" s="58" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9">
+        <v>1630</v>
+      </c>
+      <c r="D369" s="43"/>
+      <c r="E369" s="43"/>
+      <c r="F369" s="43"/>
+      <c r="G369" s="43"/>
+      <c r="H369" s="43"/>
+      <c r="I369" s="43"/>
+    </row>
+    <row r="370" spans="2:9">
       <c r="C370" s="58" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9">
-      <c r="D371" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9">
-      <c r="D372" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9">
-      <c r="A374" s="36" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9">
-      <c r="C375" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9">
-      <c r="D376" s="58" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E376" s="43"/>
-      <c r="F376" s="43"/>
-      <c r="G376" s="43"/>
-      <c r="H376" s="43"/>
-      <c r="I376" s="43"/>
-    </row>
-    <row r="377" spans="1:9">
-      <c r="D377" s="58" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E377" s="43"/>
-      <c r="F377" s="43"/>
-      <c r="G377" s="43"/>
-      <c r="H377" s="43"/>
-      <c r="I377" s="43"/>
-    </row>
-    <row r="378" spans="1:9">
-      <c r="D378" s="58" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D370" s="43"/>
+      <c r="E370" s="43"/>
+      <c r="F370" s="43"/>
+      <c r="G370" s="43"/>
+      <c r="H370" s="43"/>
+      <c r="I370" s="43"/>
+    </row>
+    <row r="371" spans="2:9">
+      <c r="C371" s="58" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D371" s="43"/>
+      <c r="E371" s="43"/>
+      <c r="F371" s="43"/>
+      <c r="G371" s="43"/>
+      <c r="H371" s="43"/>
+      <c r="I371" s="43"/>
+    </row>
+    <row r="372" spans="2:9">
+      <c r="C372" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E378" s="43"/>
-      <c r="F378" s="43"/>
-      <c r="G378" s="43"/>
-      <c r="H378" s="43"/>
-      <c r="I378" s="43"/>
-    </row>
-    <row r="379" spans="1:9">
-      <c r="D379" s="79"/>
-      <c r="E379" s="43"/>
-      <c r="F379" s="43"/>
-      <c r="G379" s="43"/>
-      <c r="H379" s="43"/>
-      <c r="I379" s="43"/>
-    </row>
-    <row r="380" spans="1:9">
-      <c r="D380" s="58" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E380" s="43"/>
-      <c r="F380" s="43"/>
-      <c r="G380" s="43"/>
-      <c r="H380" s="43"/>
-      <c r="I380" s="43"/>
-    </row>
-    <row r="381" spans="1:9">
-      <c r="D381" s="58" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E381" s="43"/>
-      <c r="F381" s="43"/>
-      <c r="G381" s="43"/>
-      <c r="H381" s="43"/>
-      <c r="I381" s="43"/>
-    </row>
-    <row r="382" spans="1:9">
-      <c r="D382" s="58" t="s">
-        <v>45</v>
-      </c>
+      <c r="D372" s="43"/>
+      <c r="E372" s="43"/>
+      <c r="F372" s="43"/>
+      <c r="G372" s="43"/>
+      <c r="H372" s="43"/>
+      <c r="I372" s="43"/>
+    </row>
+    <row r="375" spans="2:9">
+      <c r="C375" s="58" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="376" spans="2:9">
+      <c r="C376" s="58" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="377" spans="2:9">
+      <c r="D377" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="378" spans="2:9">
+      <c r="D378" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="380" spans="2:9">
+      <c r="B380" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="382" spans="2:9">
+      <c r="C382" s="58" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D382" s="43"/>
       <c r="E382" s="43"/>
       <c r="F382" s="43"/>
       <c r="G382" s="43"/>
       <c r="H382" s="43"/>
       <c r="I382" s="43"/>
     </row>
-    <row r="383" spans="1:9">
-      <c r="D383" s="58" t="s">
-        <v>1637</v>
-      </c>
+    <row r="383" spans="2:9">
+      <c r="C383" s="58" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D383" s="43"/>
       <c r="E383" s="43"/>
       <c r="F383" s="43"/>
       <c r="G383" s="43"/>
       <c r="H383" s="43"/>
       <c r="I383" s="43"/>
     </row>
-    <row r="384" spans="1:9">
-      <c r="D384" s="58" t="s">
-        <v>1707</v>
-      </c>
+    <row r="384" spans="2:9">
+      <c r="C384" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D384" s="43"/>
       <c r="E384" s="43"/>
       <c r="F384" s="43"/>
       <c r="G384" s="43"/>
       <c r="H384" s="43"/>
       <c r="I384" s="43"/>
     </row>
-    <row r="385" spans="3:9">
-      <c r="D385" s="58" t="s">
-        <v>1708</v>
-      </c>
+    <row r="385" spans="1:9">
+      <c r="C385" s="79"/>
+      <c r="D385" s="43"/>
       <c r="E385" s="43"/>
       <c r="F385" s="43"/>
       <c r="G385" s="43"/>
       <c r="H385" s="43"/>
       <c r="I385" s="43"/>
     </row>
-    <row r="386" spans="3:9">
-      <c r="D386" s="58" t="s">
-        <v>1709</v>
-      </c>
+    <row r="386" spans="1:9">
+      <c r="C386" s="58" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D386" s="43"/>
       <c r="E386" s="43"/>
       <c r="F386" s="43"/>
       <c r="G386" s="43"/>
       <c r="H386" s="43"/>
       <c r="I386" s="43"/>
     </row>
-    <row r="387" spans="3:9">
-      <c r="D387" s="58" t="s">
-        <v>45</v>
-      </c>
+    <row r="387" spans="1:9">
+      <c r="C387" s="58" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D387" s="43"/>
       <c r="E387" s="43"/>
       <c r="F387" s="43"/>
       <c r="G387" s="43"/>
       <c r="H387" s="43"/>
       <c r="I387" s="43"/>
     </row>
-    <row r="389" spans="3:9">
-      <c r="C389" s="58"/>
-      <c r="D389" s="58" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="391" spans="3:9">
-      <c r="C391" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="392" spans="3:9">
-      <c r="D392" s="58" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E392" s="43"/>
-      <c r="F392" s="43"/>
-      <c r="G392" s="43"/>
-      <c r="H392" s="43"/>
-      <c r="I392" s="43"/>
-    </row>
-    <row r="393" spans="3:9">
-      <c r="D393" s="58" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E393" s="43"/>
-      <c r="F393" s="43"/>
-      <c r="G393" s="43"/>
-      <c r="H393" s="43"/>
-      <c r="I393" s="43"/>
-    </row>
-    <row r="394" spans="3:9">
-      <c r="D394" s="58" t="s">
+    <row r="388" spans="1:9">
+      <c r="C388" s="58" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D388" s="43"/>
+      <c r="E388" s="43"/>
+      <c r="F388" s="43"/>
+      <c r="G388" s="43"/>
+      <c r="H388" s="43"/>
+      <c r="I388" s="43"/>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="C389" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E394" s="43"/>
-      <c r="F394" s="43"/>
-      <c r="G394" s="43"/>
-      <c r="H394" s="43"/>
-      <c r="I394" s="43"/>
-    </row>
-    <row r="395" spans="3:9">
-      <c r="D395" s="58" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E395" s="43"/>
-      <c r="F395" s="43"/>
-    